--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16709</v>
+        <v>0.28742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18801</v>
+        <v>0.266699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181951</v>
+        <v>0.276846</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171599</v>
+        <v>0.293815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191203</v>
+        <v>0.268591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183198</v>
+        <v>0.277758</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177856</v>
+        <v>0.302731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199274</v>
+        <v>0.274488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18613</v>
+        <v>0.27998</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186768</v>
+        <v>0.316891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209062</v>
+        <v>0.284911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188283</v>
+        <v>0.284044</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194787</v>
+        <v>0.334826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225417</v>
+        <v>0.295453</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193689</v>
+        <v>0.28848</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213989</v>
+        <v>0.363833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249344</v>
+        <v>0.318341</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202545</v>
+        <v>0.297956</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245645</v>
+        <v>0.400408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279195</v>
+        <v>0.349041</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213892</v>
+        <v>0.314292</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294625</v>
+        <v>0.44155</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32626</v>
+        <v>0.404776</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177508</v>
+        <v>0.27349</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159264</v>
+        <v>0.271193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174623</v>
+        <v>0.254095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178137</v>
+        <v>0.273527</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160162</v>
+        <v>0.272236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175383</v>
+        <v>0.254424</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178506</v>
+        <v>0.273587</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.16142</v>
+        <v>0.274322</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176524</v>
+        <v>0.25596</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178763</v>
+        <v>0.274218</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.16236</v>
+        <v>0.277107</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1778</v>
+        <v>0.257587</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178424</v>
+        <v>0.274329</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164267</v>
+        <v>0.280195</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180455</v>
+        <v>0.259038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179441</v>
+        <v>0.274837</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166272</v>
+        <v>0.284929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18321</v>
+        <v>0.261835</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180221</v>
+        <v>0.275577</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169482</v>
+        <v>0.289505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187392</v>
+        <v>0.265033</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180858</v>
+        <v>0.276632</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173273</v>
+        <v>0.296357</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191875</v>
+        <v>0.268521</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18221</v>
+        <v>0.277788</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179109</v>
+        <v>0.306086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197734</v>
+        <v>0.275477</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18409</v>
+        <v>0.279944</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187409</v>
+        <v>0.318029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205517</v>
+        <v>0.284453</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186609</v>
+        <v>0.283139</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199295</v>
+        <v>0.335456</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218672</v>
+        <v>0.295695</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190388</v>
+        <v>0.286838</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219332</v>
+        <v>0.361308</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236583</v>
+        <v>0.311152</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195874</v>
+        <v>0.293771</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248382</v>
+        <v>0.395788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262726</v>
+        <v>0.34154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206574</v>
+        <v>0.307046</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293817</v>
+        <v>0.441884</v>
       </c>
       <c r="C23" t="n">
-        <v>0.31152</v>
+        <v>0.389515</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177252</v>
+        <v>0.274019</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161647</v>
+        <v>0.27129</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174274</v>
+        <v>0.254527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177554</v>
+        <v>0.273964</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162373</v>
+        <v>0.272692</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174488</v>
+        <v>0.254868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177621</v>
+        <v>0.274045</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163239</v>
+        <v>0.274415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175476</v>
+        <v>0.255903</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177747</v>
+        <v>0.274428</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164443</v>
+        <v>0.276447</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177044</v>
+        <v>0.256837</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178303</v>
+        <v>0.274779</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.165967</v>
+        <v>0.279802</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178767</v>
+        <v>0.258826</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178566</v>
+        <v>0.275736</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168132</v>
+        <v>0.283444</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181902</v>
+        <v>0.260798</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179207</v>
+        <v>0.276165</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.170997</v>
+        <v>0.287886</v>
       </c>
       <c r="C30" t="n">
-        <v>0.18466</v>
+        <v>0.263785</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180056</v>
+        <v>0.277194</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174539</v>
+        <v>0.294499</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189285</v>
+        <v>0.268425</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181065</v>
+        <v>0.278336</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18009</v>
+        <v>0.304702</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194497</v>
+        <v>0.275019</v>
       </c>
       <c r="D32" t="n">
-        <v>0.182711</v>
+        <v>0.28052</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187682</v>
+        <v>0.317251</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203544</v>
+        <v>0.284075</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185148</v>
+        <v>0.284082</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198147</v>
+        <v>0.334491</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214618</v>
+        <v>0.296764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18832</v>
+        <v>0.288535</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.21523</v>
+        <v>0.359693</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231105</v>
+        <v>0.314816</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193093</v>
+        <v>0.296293</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243416</v>
+        <v>0.393264</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258401</v>
+        <v>0.344171</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202664</v>
+        <v>0.308624</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28537</v>
+        <v>0.436074</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299455</v>
+        <v>0.385249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177752</v>
+        <v>0.273917</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162722</v>
+        <v>0.271291</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174354</v>
+        <v>0.255396</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177894</v>
+        <v>0.274066</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163606</v>
+        <v>0.272765</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175409</v>
+        <v>0.25631</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178177</v>
+        <v>0.274461</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164479</v>
+        <v>0.274467</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17664</v>
+        <v>0.257163</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178396</v>
+        <v>0.274792</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165528</v>
+        <v>0.276553</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177862</v>
+        <v>0.258404</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178762</v>
+        <v>0.275248</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167189</v>
+        <v>0.279341</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179319</v>
+        <v>0.260865</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179245</v>
+        <v>0.276542</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169016</v>
+        <v>0.283632</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181457</v>
+        <v>0.267962</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179642</v>
+        <v>0.277039</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171651</v>
+        <v>0.288798</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184794</v>
+        <v>0.282607</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180521</v>
+        <v>0.278001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175213</v>
+        <v>0.295553</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188967</v>
+        <v>0.27105</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181627</v>
+        <v>0.279368</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.17978</v>
+        <v>0.304543</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194742</v>
+        <v>0.294899</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183413</v>
+        <v>0.281686</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187155</v>
+        <v>0.315946</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202796</v>
+        <v>0.302279</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185572</v>
+        <v>0.284913</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197556</v>
+        <v>0.331819</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214158</v>
+        <v>0.294758</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188755</v>
+        <v>0.288908</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213531</v>
+        <v>0.354286</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230271</v>
+        <v>0.31123</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193398</v>
+        <v>0.295772</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237503</v>
+        <v>0.386296</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257539</v>
+        <v>0.337383</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201959</v>
+        <v>0.307314</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275652</v>
+        <v>0.427241</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293274</v>
+        <v>0.397582</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177691</v>
+        <v>0.276212</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333023</v>
+        <v>0.47443</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350867</v>
+        <v>0.433341</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178002</v>
+        <v>0.276046</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166684</v>
+        <v>0.276249</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176758</v>
+        <v>0.25931</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178324</v>
+        <v>0.276852</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167606</v>
+        <v>0.276451</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177859</v>
+        <v>0.260435</v>
       </c>
       <c r="D54" t="n">
-        <v>0.17872</v>
+        <v>0.277633</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168531</v>
+        <v>0.277911</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179232</v>
+        <v>0.277937</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179186</v>
+        <v>0.279401</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170067</v>
+        <v>0.280442</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180945</v>
+        <v>0.263681</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179762</v>
+        <v>0.279136</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171884</v>
+        <v>0.284921</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183248</v>
+        <v>0.267357</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180407</v>
+        <v>0.281661</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174422</v>
+        <v>0.290669</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186553</v>
+        <v>0.268795</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181274</v>
+        <v>0.281356</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177735</v>
+        <v>0.295843</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190907</v>
+        <v>0.270869</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182377</v>
+        <v>0.281168</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182599</v>
+        <v>0.304681</v>
       </c>
       <c r="C60" t="n">
-        <v>0.19622</v>
+        <v>0.276695</v>
       </c>
       <c r="D60" t="n">
-        <v>0.183865</v>
+        <v>0.283916</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188922</v>
+        <v>0.314875</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203884</v>
+        <v>0.282529</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18586</v>
+        <v>0.285335</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198399</v>
+        <v>0.330717</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214577</v>
+        <v>0.293012</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188892</v>
+        <v>0.288905</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213027</v>
+        <v>0.352675</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230358</v>
+        <v>0.307543</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194006</v>
+        <v>0.29481</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235067</v>
+        <v>0.382508</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25435</v>
+        <v>0.330958</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201855</v>
+        <v>0.304511</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268286</v>
+        <v>0.420632</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290711</v>
+        <v>0.367787</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216172</v>
+        <v>0.321653</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32026</v>
+        <v>0.469202</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343419</v>
+        <v>0.421344</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185751</v>
+        <v>0.287688</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185214</v>
+        <v>0.281836</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188184</v>
+        <v>0.270091</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187054</v>
+        <v>0.288558</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18623</v>
+        <v>0.284221</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188924</v>
+        <v>0.272141</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18673</v>
+        <v>0.289554</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186913</v>
+        <v>0.286155</v>
       </c>
       <c r="C69" t="n">
-        <v>0.190716</v>
+        <v>0.272642</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187346</v>
+        <v>0.290267</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188392</v>
+        <v>0.289525</v>
       </c>
       <c r="C70" t="n">
-        <v>0.192766</v>
+        <v>0.273574</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18799</v>
+        <v>0.288392</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.19006</v>
+        <v>0.290759</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195481</v>
+        <v>0.276696</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188791</v>
+        <v>0.291337</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192371</v>
+        <v>0.297412</v>
       </c>
       <c r="C72" t="n">
-        <v>0.198836</v>
+        <v>0.279679</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189814</v>
+        <v>0.29145</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195423</v>
+        <v>0.305658</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20329</v>
+        <v>0.282413</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191162</v>
+        <v>0.292432</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199606</v>
+        <v>0.310632</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209195</v>
+        <v>0.286805</v>
       </c>
       <c r="D74" t="n">
-        <v>0.192822</v>
+        <v>0.294534</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205732</v>
+        <v>0.323501</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217544</v>
+        <v>0.294743</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195221</v>
+        <v>0.298693</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214462</v>
+        <v>0.339276</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228673</v>
+        <v>0.304846</v>
       </c>
       <c r="D76" t="n">
-        <v>0.198701</v>
+        <v>0.30132</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227014</v>
+        <v>0.35989</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244104</v>
+        <v>0.333149</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203674</v>
+        <v>0.307446</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2461</v>
+        <v>0.389011</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266734</v>
+        <v>0.340662</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212168</v>
+        <v>0.31582</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.277256</v>
+        <v>0.43023</v>
       </c>
       <c r="C79" t="n">
-        <v>0.301201</v>
+        <v>0.371269</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225314</v>
+        <v>0.329157</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324182</v>
+        <v>0.477221</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350645</v>
+        <v>0.425177</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20525</v>
+        <v>0.303204</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203176</v>
+        <v>0.294795</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205711</v>
+        <v>0.284074</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205434</v>
+        <v>0.303496</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204121</v>
+        <v>0.296488</v>
       </c>
       <c r="C82" t="n">
-        <v>0.206759</v>
+        <v>0.286063</v>
       </c>
       <c r="D82" t="n">
-        <v>0.205888</v>
+        <v>0.304015</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205208</v>
+        <v>0.298972</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208044</v>
+        <v>0.286861</v>
       </c>
       <c r="D83" t="n">
-        <v>0.20641</v>
+        <v>0.304765</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206464</v>
+        <v>0.302438</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209822</v>
+        <v>0.289004</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207031</v>
+        <v>0.305122</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208038</v>
+        <v>0.307282</v>
       </c>
       <c r="C85" t="n">
-        <v>0.211869</v>
+        <v>0.291016</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207654</v>
+        <v>0.306424</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210016</v>
+        <v>0.311097</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214573</v>
+        <v>0.294509</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208559</v>
+        <v>0.307337</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212769</v>
+        <v>0.318506</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218305</v>
+        <v>0.296212</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209697</v>
+        <v>0.308097</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216507</v>
+        <v>0.325787</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223495</v>
+        <v>0.302684</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211211</v>
+        <v>0.309947</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221821</v>
+        <v>0.338006</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231006</v>
+        <v>0.31249</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213583</v>
+        <v>0.312743</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229532</v>
+        <v>0.352215</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240953</v>
+        <v>0.31925</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216837</v>
+        <v>0.316246</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241075</v>
+        <v>0.372996</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255088</v>
+        <v>0.333427</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221517</v>
+        <v>0.332822</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258641</v>
+        <v>0.403225</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275379</v>
+        <v>0.355014</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229128</v>
+        <v>0.329869</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.28644</v>
+        <v>0.442316</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306991</v>
+        <v>0.396622</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241745</v>
+        <v>0.344462</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330025</v>
+        <v>0.492469</v>
       </c>
       <c r="C94" t="n">
-        <v>0.355154</v>
+        <v>0.435843</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214166</v>
+        <v>0.313987</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215095</v>
+        <v>0.303985</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215962</v>
+        <v>0.296359</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214593</v>
+        <v>0.312141</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216077</v>
+        <v>0.30608</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217262</v>
+        <v>0.293577</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215241</v>
+        <v>0.314869</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217257</v>
+        <v>0.308448</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218625</v>
+        <v>0.299261</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215774</v>
+        <v>0.315597</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218665</v>
+        <v>0.31152</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220397</v>
+        <v>0.301036</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216517</v>
+        <v>0.313778</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220359</v>
+        <v>0.315379</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222699</v>
+        <v>0.303269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217151</v>
+        <v>0.317083</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222559</v>
+        <v>0.320586</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225756</v>
+        <v>0.306548</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218264</v>
+        <v>0.318397</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.225529</v>
+        <v>0.327266</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229861</v>
+        <v>0.310419</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219382</v>
+        <v>0.319746</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.229506</v>
+        <v>0.336179</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235657</v>
+        <v>0.31652</v>
       </c>
       <c r="D102" t="n">
-        <v>0.22098</v>
+        <v>0.321333</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.235271</v>
+        <v>0.347178</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243778</v>
+        <v>0.323859</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223413</v>
+        <v>0.324065</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243614</v>
+        <v>0.362464</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255185</v>
+        <v>0.335578</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226666</v>
+        <v>0.327598</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255461</v>
+        <v>0.383455</v>
       </c>
       <c r="C105" t="n">
-        <v>0.271046</v>
+        <v>0.351161</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231696</v>
+        <v>0.332693</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274101</v>
+        <v>0.414228</v>
       </c>
       <c r="C106" t="n">
-        <v>0.293163</v>
+        <v>0.374399</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239201</v>
+        <v>0.340965</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302222</v>
+        <v>0.453052</v>
       </c>
       <c r="C107" t="n">
-        <v>0.325854</v>
+        <v>0.408026</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251962</v>
+        <v>0.351067</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.345285</v>
+        <v>0.511061</v>
       </c>
       <c r="C108" t="n">
-        <v>0.373972</v>
+        <v>0.45991</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219278</v>
+        <v>0.319775</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410248</v>
+        <v>0.579991</v>
       </c>
       <c r="C109" t="n">
-        <v>0.44166</v>
+        <v>0.547045</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220084</v>
+        <v>0.320593</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.233175</v>
+        <v>0.31181</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234269</v>
+        <v>0.317078</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220965</v>
+        <v>0.321958</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.234165</v>
+        <v>0.31467</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237881</v>
+        <v>0.321695</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22165</v>
+        <v>0.322673</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.242317</v>
+        <v>0.318807</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244492</v>
+        <v>0.326323</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223287</v>
+        <v>0.324117</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249475</v>
+        <v>0.323759</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251784</v>
+        <v>0.333318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.224699</v>
+        <v>0.325346</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256386</v>
+        <v>0.330222</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259357</v>
+        <v>0.34307</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227874</v>
+        <v>0.328103</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263496</v>
+        <v>0.338469</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26806</v>
+        <v>0.351231</v>
       </c>
       <c r="D115" t="n">
-        <v>0.229987</v>
+        <v>0.331206</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272047</v>
+        <v>0.349597</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278216</v>
+        <v>0.361991</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23331</v>
+        <v>0.335173</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282029</v>
+        <v>0.364813</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289924</v>
+        <v>0.373388</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239163</v>
+        <v>0.340559</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29406</v>
+        <v>0.385082</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303512</v>
+        <v>0.386256</v>
       </c>
       <c r="D118" t="n">
-        <v>0.245655</v>
+        <v>0.346751</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.304145</v>
+        <v>0.410547</v>
       </c>
       <c r="C119" t="n">
-        <v>0.31915</v>
+        <v>0.40839</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253456</v>
+        <v>0.355304</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.329305</v>
+        <v>0.445106</v>
       </c>
       <c r="C120" t="n">
-        <v>0.344919</v>
+        <v>0.434368</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266476</v>
+        <v>0.367499</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359134</v>
+        <v>0.491788</v>
       </c>
       <c r="C121" t="n">
-        <v>0.374747</v>
+        <v>0.472628</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283103</v>
+        <v>0.383686</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403148</v>
+        <v>0.55513</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428421</v>
+        <v>0.529401</v>
       </c>
       <c r="D122" t="n">
-        <v>0.30846</v>
+        <v>0.41336</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471035</v>
+        <v>0.6418199999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506572</v>
+        <v>0.620379</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248594</v>
+        <v>0.354637</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.290387</v>
+        <v>0.345782</v>
       </c>
       <c r="C124" t="n">
-        <v>0.286535</v>
+        <v>0.370891</v>
       </c>
       <c r="D124" t="n">
-        <v>0.254076</v>
+        <v>0.357785</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287229</v>
+        <v>0.350009</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289188</v>
+        <v>0.378078</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256051</v>
+        <v>0.351981</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.291136</v>
+        <v>0.35588</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294969</v>
+        <v>0.383432</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25927</v>
+        <v>0.354185</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29725</v>
+        <v>0.362</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300181</v>
+        <v>0.385405</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263131</v>
+        <v>0.363595</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302458</v>
+        <v>0.37162</v>
       </c>
       <c r="C128" t="n">
-        <v>0.304431</v>
+        <v>0.393322</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264692</v>
+        <v>0.372925</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313057</v>
+        <v>0.383271</v>
       </c>
       <c r="C129" t="n">
-        <v>0.310464</v>
+        <v>0.399769</v>
       </c>
       <c r="D129" t="n">
-        <v>0.267997</v>
+        <v>0.373816</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.31351</v>
+        <v>0.392819</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320935</v>
+        <v>0.409709</v>
       </c>
       <c r="D130" t="n">
-        <v>0.274148</v>
+        <v>0.378289</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.309922</v>
+        <v>0.407401</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331603</v>
+        <v>0.422691</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277689</v>
+        <v>0.383313</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.332929</v>
+        <v>0.425804</v>
       </c>
       <c r="C132" t="n">
-        <v>0.34582</v>
+        <v>0.438431</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283954</v>
+        <v>0.388943</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.34877</v>
+        <v>0.450453</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361887</v>
+        <v>0.455371</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289325</v>
+        <v>0.397008</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.367707</v>
+        <v>0.483131</v>
       </c>
       <c r="C134" t="n">
-        <v>0.389628</v>
+        <v>0.487288</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300868</v>
+        <v>0.407168</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.397775</v>
+        <v>0.53116</v>
       </c>
       <c r="C135" t="n">
-        <v>0.423499</v>
+        <v>0.523309</v>
       </c>
       <c r="D135" t="n">
-        <v>0.315273</v>
+        <v>0.423741</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.441543</v>
+        <v>0.5964429999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.473939</v>
+        <v>0.582867</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337781</v>
+        <v>0.447592</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511507</v>
+        <v>0.699928</v>
       </c>
       <c r="C137" t="n">
-        <v>0.552766</v>
+        <v>0.680136</v>
       </c>
       <c r="D137" t="n">
-        <v>0.38776</v>
+        <v>0.520953</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449702</v>
+        <v>0.507939</v>
       </c>
       <c r="C138" t="n">
-        <v>0.427474</v>
+        <v>0.549086</v>
       </c>
       <c r="D138" t="n">
-        <v>0.387902</v>
+        <v>0.525035</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.453971</v>
+        <v>0.502257</v>
       </c>
       <c r="C139" t="n">
-        <v>0.432742</v>
+        <v>0.569461</v>
       </c>
       <c r="D139" t="n">
-        <v>0.390751</v>
+        <v>0.534865</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454913</v>
+        <v>0.5298929999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.437964</v>
+        <v>0.56847</v>
       </c>
       <c r="D140" t="n">
-        <v>0.391597</v>
+        <v>0.534112</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.461598</v>
+        <v>0.5386300000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.448305</v>
+        <v>0.573559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.401133</v>
+        <v>0.531018</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.457119</v>
+        <v>0.543342</v>
       </c>
       <c r="C142" t="n">
-        <v>0.455847</v>
+        <v>0.587542</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4047</v>
+        <v>0.549189</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.465654</v>
+        <v>0.565464</v>
       </c>
       <c r="C143" t="n">
-        <v>0.462849</v>
+        <v>0.601364</v>
       </c>
       <c r="D143" t="n">
-        <v>0.406481</v>
+        <v>0.555671</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.28742</v>
+        <v>0.286972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266699</v>
+        <v>0.266561</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276846</v>
+        <v>0.276687</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293815</v>
+        <v>0.293381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268591</v>
+        <v>0.26847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277758</v>
+        <v>0.277801</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302731</v>
+        <v>0.302572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.274488</v>
+        <v>0.2746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27998</v>
+        <v>0.279861</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316891</v>
+        <v>0.317252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.284911</v>
+        <v>0.284903</v>
       </c>
       <c r="D5" t="n">
-        <v>0.284044</v>
+        <v>0.284068</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.334826</v>
+        <v>0.336833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295453</v>
+        <v>0.295418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28848</v>
+        <v>0.288703</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.363833</v>
+        <v>0.369266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.318341</v>
+        <v>0.317426</v>
       </c>
       <c r="D7" t="n">
-        <v>0.297956</v>
+        <v>0.298354</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.400408</v>
+        <v>0.411547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.349041</v>
+        <v>0.347596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314292</v>
+        <v>0.314441</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.44155</v>
+        <v>0.458561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.404776</v>
+        <v>0.401784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.27349</v>
+        <v>0.273297</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.271193</v>
+        <v>0.270936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254095</v>
+        <v>0.25463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273527</v>
+        <v>0.273313</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.272236</v>
+        <v>0.271882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254424</v>
+        <v>0.254894</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273587</v>
+        <v>0.273454</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274322</v>
+        <v>0.274034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25596</v>
+        <v>0.256728</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274218</v>
+        <v>0.274068</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277107</v>
+        <v>0.276809</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257587</v>
+        <v>0.258295</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274329</v>
+        <v>0.274182</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280195</v>
+        <v>0.279885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.259038</v>
+        <v>0.25968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274837</v>
+        <v>0.274613</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284929</v>
+        <v>0.284566</v>
       </c>
       <c r="C15" t="n">
-        <v>0.261835</v>
+        <v>0.262514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275577</v>
+        <v>0.275453</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289505</v>
+        <v>0.289215</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265033</v>
+        <v>0.265536</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276632</v>
+        <v>0.276558</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296357</v>
+        <v>0.296269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.268521</v>
+        <v>0.269254</v>
       </c>
       <c r="D17" t="n">
-        <v>0.277788</v>
+        <v>0.277777</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306086</v>
+        <v>0.306241</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275477</v>
+        <v>0.275921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279944</v>
+        <v>0.279865</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318029</v>
+        <v>0.318281</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284453</v>
+        <v>0.285237</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283139</v>
+        <v>0.283337</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.335456</v>
+        <v>0.337051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295695</v>
+        <v>0.296009</v>
       </c>
       <c r="D20" t="n">
-        <v>0.286838</v>
+        <v>0.287108</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.361308</v>
+        <v>0.365227</v>
       </c>
       <c r="C21" t="n">
-        <v>0.311152</v>
+        <v>0.311054</v>
       </c>
       <c r="D21" t="n">
-        <v>0.293771</v>
+        <v>0.294188</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.395788</v>
+        <v>0.40419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.34154</v>
+        <v>0.341096</v>
       </c>
       <c r="D22" t="n">
-        <v>0.307046</v>
+        <v>0.30738</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.441884</v>
+        <v>0.458808</v>
       </c>
       <c r="C23" t="n">
-        <v>0.389515</v>
+        <v>0.387603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.274019</v>
+        <v>0.273931</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.27129</v>
+        <v>0.271144</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254527</v>
+        <v>0.255662</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273964</v>
+        <v>0.273932</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272692</v>
+        <v>0.272568</v>
       </c>
       <c r="C25" t="n">
-        <v>0.254868</v>
+        <v>0.256186</v>
       </c>
       <c r="D25" t="n">
-        <v>0.274045</v>
+        <v>0.273956</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274415</v>
+        <v>0.274292</v>
       </c>
       <c r="C26" t="n">
-        <v>0.255903</v>
+        <v>0.257241</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274428</v>
+        <v>0.274375</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276447</v>
+        <v>0.276392</v>
       </c>
       <c r="C27" t="n">
-        <v>0.256837</v>
+        <v>0.273784</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274779</v>
+        <v>0.274792</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279802</v>
+        <v>0.279637</v>
       </c>
       <c r="C28" t="n">
-        <v>0.258826</v>
+        <v>0.260119</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275736</v>
+        <v>0.275728</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283444</v>
+        <v>0.283234</v>
       </c>
       <c r="C29" t="n">
-        <v>0.260798</v>
+        <v>0.262217</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276165</v>
+        <v>0.276115</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287886</v>
+        <v>0.287714</v>
       </c>
       <c r="C30" t="n">
-        <v>0.263785</v>
+        <v>0.265185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.277194</v>
+        <v>0.277134</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294499</v>
+        <v>0.294509</v>
       </c>
       <c r="C31" t="n">
-        <v>0.268425</v>
+        <v>0.269598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278336</v>
+        <v>0.278312</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304702</v>
+        <v>0.304949</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275019</v>
+        <v>0.275684</v>
       </c>
       <c r="D32" t="n">
-        <v>0.28052</v>
+        <v>0.280492</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317251</v>
+        <v>0.317746</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284075</v>
+        <v>0.28488</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284082</v>
+        <v>0.284151</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.334491</v>
+        <v>0.335969</v>
       </c>
       <c r="C34" t="n">
-        <v>0.296764</v>
+        <v>0.297281</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288535</v>
+        <v>0.288586</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.359693</v>
+        <v>0.363071</v>
       </c>
       <c r="C35" t="n">
-        <v>0.314816</v>
+        <v>0.332168</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296293</v>
+        <v>0.296349</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.393264</v>
+        <v>0.401674</v>
       </c>
       <c r="C36" t="n">
-        <v>0.344171</v>
+        <v>0.343137</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308624</v>
+        <v>0.308607</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.436074</v>
+        <v>0.451535</v>
       </c>
       <c r="C37" t="n">
-        <v>0.385249</v>
+        <v>0.382535</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273917</v>
+        <v>0.273762</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271291</v>
+        <v>0.271084</v>
       </c>
       <c r="C38" t="n">
-        <v>0.255396</v>
+        <v>0.256108</v>
       </c>
       <c r="D38" t="n">
-        <v>0.274066</v>
+        <v>0.273945</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.272765</v>
+        <v>0.272446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.25631</v>
+        <v>0.256831</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274461</v>
+        <v>0.274255</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274467</v>
+        <v>0.274191</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257163</v>
+        <v>0.257701</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274792</v>
+        <v>0.274657</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276553</v>
+        <v>0.276206</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258404</v>
+        <v>0.258931</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275248</v>
+        <v>0.275051</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279341</v>
+        <v>0.279151</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260865</v>
+        <v>0.260872</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276542</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283632</v>
+        <v>0.283323</v>
       </c>
       <c r="C43" t="n">
-        <v>0.267962</v>
+        <v>0.262872</v>
       </c>
       <c r="D43" t="n">
-        <v>0.277039</v>
+        <v>0.276585</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288798</v>
+        <v>0.288537</v>
       </c>
       <c r="C44" t="n">
-        <v>0.282607</v>
+        <v>0.266343</v>
       </c>
       <c r="D44" t="n">
-        <v>0.278001</v>
+        <v>0.277619</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295553</v>
+        <v>0.295515</v>
       </c>
       <c r="C45" t="n">
-        <v>0.27105</v>
+        <v>0.269962</v>
       </c>
       <c r="D45" t="n">
-        <v>0.279368</v>
+        <v>0.278939</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304543</v>
+        <v>0.304515</v>
       </c>
       <c r="C46" t="n">
-        <v>0.294899</v>
+        <v>0.276247</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281686</v>
+        <v>0.281081</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.315946</v>
+        <v>0.316353</v>
       </c>
       <c r="C47" t="n">
-        <v>0.302279</v>
+        <v>0.284476</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284913</v>
+        <v>0.284189</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.331819</v>
+        <v>0.333021</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294758</v>
+        <v>0.294721</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288908</v>
+        <v>0.288558</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.354286</v>
+        <v>0.356799</v>
       </c>
       <c r="C49" t="n">
-        <v>0.31123</v>
+        <v>0.310869</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295772</v>
+        <v>0.295282</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.386296</v>
+        <v>0.392379</v>
       </c>
       <c r="C50" t="n">
-        <v>0.337383</v>
+        <v>0.335669</v>
       </c>
       <c r="D50" t="n">
-        <v>0.307314</v>
+        <v>0.306867</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.427241</v>
+        <v>0.440119</v>
       </c>
       <c r="C51" t="n">
-        <v>0.397582</v>
+        <v>0.373542</v>
       </c>
       <c r="D51" t="n">
-        <v>0.276212</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.47443</v>
+        <v>0.495772</v>
       </c>
       <c r="C52" t="n">
-        <v>0.433341</v>
+        <v>0.426565</v>
       </c>
       <c r="D52" t="n">
-        <v>0.276046</v>
+        <v>0.277311</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.276249</v>
+        <v>0.273592</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25931</v>
+        <v>0.258587</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276852</v>
+        <v>0.276341</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.276451</v>
+        <v>0.27533</v>
       </c>
       <c r="C54" t="n">
-        <v>0.260435</v>
+        <v>0.259445</v>
       </c>
       <c r="D54" t="n">
-        <v>0.277633</v>
+        <v>0.276663</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.277911</v>
+        <v>0.277642</v>
       </c>
       <c r="C55" t="n">
-        <v>0.277937</v>
+        <v>0.261956</v>
       </c>
       <c r="D55" t="n">
-        <v>0.279401</v>
+        <v>0.278608</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280442</v>
+        <v>0.280465</v>
       </c>
       <c r="C56" t="n">
-        <v>0.263681</v>
+        <v>0.263434</v>
       </c>
       <c r="D56" t="n">
-        <v>0.279136</v>
+        <v>0.279276</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284921</v>
+        <v>0.283879</v>
       </c>
       <c r="C57" t="n">
-        <v>0.267357</v>
+        <v>0.265206</v>
       </c>
       <c r="D57" t="n">
-        <v>0.281661</v>
+        <v>0.279422</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.290669</v>
+        <v>0.289385</v>
       </c>
       <c r="C58" t="n">
-        <v>0.268795</v>
+        <v>0.267353</v>
       </c>
       <c r="D58" t="n">
-        <v>0.281356</v>
+        <v>0.280071</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295843</v>
+        <v>0.296205</v>
       </c>
       <c r="C59" t="n">
-        <v>0.270869</v>
+        <v>0.270995</v>
       </c>
       <c r="D59" t="n">
-        <v>0.281168</v>
+        <v>0.280749</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304681</v>
+        <v>0.305939</v>
       </c>
       <c r="C60" t="n">
-        <v>0.276695</v>
+        <v>0.275829</v>
       </c>
       <c r="D60" t="n">
-        <v>0.283916</v>
+        <v>0.282789</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.314875</v>
+        <v>0.316773</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282529</v>
+        <v>0.282448</v>
       </c>
       <c r="D61" t="n">
-        <v>0.285335</v>
+        <v>0.285288</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.330717</v>
+        <v>0.333459</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293012</v>
+        <v>0.29381</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288905</v>
+        <v>0.289605</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.352675</v>
+        <v>0.354388</v>
       </c>
       <c r="C63" t="n">
-        <v>0.307543</v>
+        <v>0.307904</v>
       </c>
       <c r="D63" t="n">
-        <v>0.29481</v>
+        <v>0.295603</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.382508</v>
+        <v>0.386602</v>
       </c>
       <c r="C64" t="n">
-        <v>0.330958</v>
+        <v>0.346868</v>
       </c>
       <c r="D64" t="n">
-        <v>0.304511</v>
+        <v>0.303856</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.420632</v>
+        <v>0.431726</v>
       </c>
       <c r="C65" t="n">
-        <v>0.367787</v>
+        <v>0.365257</v>
       </c>
       <c r="D65" t="n">
-        <v>0.321653</v>
+        <v>0.321845</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.469202</v>
+        <v>0.487565</v>
       </c>
       <c r="C66" t="n">
-        <v>0.421344</v>
+        <v>0.418499</v>
       </c>
       <c r="D66" t="n">
-        <v>0.287688</v>
+        <v>0.288768</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.281836</v>
+        <v>0.280802</v>
       </c>
       <c r="C67" t="n">
-        <v>0.270091</v>
+        <v>0.270049</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288558</v>
+        <v>0.287797</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.284221</v>
+        <v>0.282994</v>
       </c>
       <c r="C68" t="n">
-        <v>0.272141</v>
+        <v>0.271233</v>
       </c>
       <c r="D68" t="n">
-        <v>0.289554</v>
+        <v>0.288426</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.286155</v>
+        <v>0.285222</v>
       </c>
       <c r="C69" t="n">
-        <v>0.272642</v>
+        <v>0.272595</v>
       </c>
       <c r="D69" t="n">
-        <v>0.290267</v>
+        <v>0.288835</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.289525</v>
+        <v>0.288641</v>
       </c>
       <c r="C70" t="n">
-        <v>0.273574</v>
+        <v>0.274157</v>
       </c>
       <c r="D70" t="n">
-        <v>0.288392</v>
+        <v>0.289127</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.290759</v>
+        <v>0.293109</v>
       </c>
       <c r="C71" t="n">
-        <v>0.276696</v>
+        <v>0.276028</v>
       </c>
       <c r="D71" t="n">
-        <v>0.291337</v>
+        <v>0.290204</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297412</v>
+        <v>0.297551</v>
       </c>
       <c r="C72" t="n">
-        <v>0.279679</v>
+        <v>0.278821</v>
       </c>
       <c r="D72" t="n">
-        <v>0.29145</v>
+        <v>0.291433</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305658</v>
+        <v>0.302562</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282413</v>
+        <v>0.282463</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292432</v>
+        <v>0.294292</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.310632</v>
+        <v>0.311528</v>
       </c>
       <c r="C74" t="n">
-        <v>0.286805</v>
+        <v>0.288625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.294534</v>
+        <v>0.296214</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.323501</v>
+        <v>0.323658</v>
       </c>
       <c r="C75" t="n">
-        <v>0.294743</v>
+        <v>0.294488</v>
       </c>
       <c r="D75" t="n">
-        <v>0.298693</v>
+        <v>0.298981</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.339276</v>
+        <v>0.34133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304846</v>
+        <v>0.303649</v>
       </c>
       <c r="D76" t="n">
-        <v>0.30132</v>
+        <v>0.302916</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.35989</v>
+        <v>0.36143</v>
       </c>
       <c r="C77" t="n">
-        <v>0.333149</v>
+        <v>0.316455</v>
       </c>
       <c r="D77" t="n">
-        <v>0.307446</v>
+        <v>0.304444</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.389011</v>
+        <v>0.393965</v>
       </c>
       <c r="C78" t="n">
-        <v>0.340662</v>
+        <v>0.339162</v>
       </c>
       <c r="D78" t="n">
-        <v>0.31582</v>
+        <v>0.315082</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.43023</v>
+        <v>0.441965</v>
       </c>
       <c r="C79" t="n">
-        <v>0.371269</v>
+        <v>0.376738</v>
       </c>
       <c r="D79" t="n">
-        <v>0.329157</v>
+        <v>0.328953</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.477221</v>
+        <v>0.497371</v>
       </c>
       <c r="C80" t="n">
-        <v>0.425177</v>
+        <v>0.419944</v>
       </c>
       <c r="D80" t="n">
-        <v>0.303204</v>
+        <v>0.30357</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294795</v>
+        <v>0.294624</v>
       </c>
       <c r="C81" t="n">
-        <v>0.284074</v>
+        <v>0.284985</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303496</v>
+        <v>0.303948</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296488</v>
+        <v>0.296657</v>
       </c>
       <c r="C82" t="n">
-        <v>0.286063</v>
+        <v>0.286358</v>
       </c>
       <c r="D82" t="n">
-        <v>0.304015</v>
+        <v>0.303999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298972</v>
+        <v>0.298907</v>
       </c>
       <c r="C83" t="n">
-        <v>0.286861</v>
+        <v>0.287299</v>
       </c>
       <c r="D83" t="n">
-        <v>0.304765</v>
+        <v>0.304526</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302438</v>
+        <v>0.301857</v>
       </c>
       <c r="C84" t="n">
-        <v>0.289004</v>
+        <v>0.28924</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305122</v>
+        <v>0.305095</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.307282</v>
+        <v>0.305987</v>
       </c>
       <c r="C85" t="n">
-        <v>0.291016</v>
+        <v>0.291139</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306424</v>
+        <v>0.306037</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.311097</v>
+        <v>0.311171</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294509</v>
+        <v>0.292503</v>
       </c>
       <c r="D86" t="n">
-        <v>0.307337</v>
+        <v>0.307016</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.318506</v>
+        <v>0.317114</v>
       </c>
       <c r="C87" t="n">
-        <v>0.296212</v>
+        <v>0.297394</v>
       </c>
       <c r="D87" t="n">
-        <v>0.308097</v>
+        <v>0.308297</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.325787</v>
+        <v>0.326078</v>
       </c>
       <c r="C88" t="n">
-        <v>0.302684</v>
+        <v>0.302497</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309947</v>
+        <v>0.309917</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.338006</v>
+        <v>0.337765</v>
       </c>
       <c r="C89" t="n">
-        <v>0.31249</v>
+        <v>0.309253</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312743</v>
+        <v>0.312259</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352215</v>
+        <v>0.352187</v>
       </c>
       <c r="C90" t="n">
-        <v>0.31925</v>
+        <v>0.318957</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316246</v>
+        <v>0.315933</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372996</v>
+        <v>0.374179</v>
       </c>
       <c r="C91" t="n">
-        <v>0.333427</v>
+        <v>0.332598</v>
       </c>
       <c r="D91" t="n">
-        <v>0.332822</v>
+        <v>0.320753</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403225</v>
+        <v>0.405664</v>
       </c>
       <c r="C92" t="n">
-        <v>0.355014</v>
+        <v>0.353884</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329869</v>
+        <v>0.329541</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.442316</v>
+        <v>0.449753</v>
       </c>
       <c r="C93" t="n">
-        <v>0.396622</v>
+        <v>0.402219</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344462</v>
+        <v>0.344187</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.492469</v>
+        <v>0.509719</v>
       </c>
       <c r="C94" t="n">
-        <v>0.435843</v>
+        <v>0.441982</v>
       </c>
       <c r="D94" t="n">
-        <v>0.313987</v>
+        <v>0.313792</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303985</v>
+        <v>0.303706</v>
       </c>
       <c r="C95" t="n">
-        <v>0.296359</v>
+        <v>0.295936</v>
       </c>
       <c r="D95" t="n">
-        <v>0.312141</v>
+        <v>0.314118</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.30608</v>
+        <v>0.305635</v>
       </c>
       <c r="C96" t="n">
-        <v>0.293577</v>
+        <v>0.297102</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314869</v>
+        <v>0.314728</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308448</v>
+        <v>0.308356</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299261</v>
+        <v>0.29866</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315597</v>
+        <v>0.315244</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.31152</v>
+        <v>0.311615</v>
       </c>
       <c r="C98" t="n">
-        <v>0.301036</v>
+        <v>0.300657</v>
       </c>
       <c r="D98" t="n">
-        <v>0.313778</v>
+        <v>0.316222</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315379</v>
+        <v>0.315291</v>
       </c>
       <c r="C99" t="n">
-        <v>0.303269</v>
+        <v>0.303075</v>
       </c>
       <c r="D99" t="n">
-        <v>0.317083</v>
+        <v>0.317239</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320586</v>
+        <v>0.320749</v>
       </c>
       <c r="C100" t="n">
-        <v>0.306548</v>
+        <v>0.305933</v>
       </c>
       <c r="D100" t="n">
-        <v>0.318397</v>
+        <v>0.318217</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.327266</v>
+        <v>0.327409</v>
       </c>
       <c r="C101" t="n">
-        <v>0.310419</v>
+        <v>0.309801</v>
       </c>
       <c r="D101" t="n">
-        <v>0.319746</v>
+        <v>0.319336</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.336179</v>
+        <v>0.336098</v>
       </c>
       <c r="C102" t="n">
-        <v>0.31652</v>
+        <v>0.315836</v>
       </c>
       <c r="D102" t="n">
-        <v>0.321333</v>
+        <v>0.321183</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347178</v>
+        <v>0.347513</v>
       </c>
       <c r="C103" t="n">
-        <v>0.323859</v>
+        <v>0.323749</v>
       </c>
       <c r="D103" t="n">
-        <v>0.324065</v>
+        <v>0.323484</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.362464</v>
+        <v>0.363196</v>
       </c>
       <c r="C104" t="n">
-        <v>0.335578</v>
+        <v>0.334033</v>
       </c>
       <c r="D104" t="n">
-        <v>0.327598</v>
+        <v>0.327173</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.383455</v>
+        <v>0.384205</v>
       </c>
       <c r="C105" t="n">
-        <v>0.351161</v>
+        <v>0.350018</v>
       </c>
       <c r="D105" t="n">
-        <v>0.332693</v>
+        <v>0.332887</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.414228</v>
+        <v>0.416192</v>
       </c>
       <c r="C106" t="n">
-        <v>0.374399</v>
+        <v>0.36793</v>
       </c>
       <c r="D106" t="n">
-        <v>0.340965</v>
+        <v>0.337604</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.453052</v>
+        <v>0.461319</v>
       </c>
       <c r="C107" t="n">
-        <v>0.408026</v>
+        <v>0.405154</v>
       </c>
       <c r="D107" t="n">
-        <v>0.351067</v>
+        <v>0.354405</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.511061</v>
+        <v>0.524537</v>
       </c>
       <c r="C108" t="n">
-        <v>0.45991</v>
+        <v>0.455332</v>
       </c>
       <c r="D108" t="n">
-        <v>0.319775</v>
+        <v>0.320157</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.579991</v>
+        <v>0.615189</v>
       </c>
       <c r="C109" t="n">
-        <v>0.547045</v>
+        <v>0.534915</v>
       </c>
       <c r="D109" t="n">
-        <v>0.320593</v>
+        <v>0.320843</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.31181</v>
+        <v>0.31201</v>
       </c>
       <c r="C110" t="n">
-        <v>0.317078</v>
+        <v>0.31766</v>
       </c>
       <c r="D110" t="n">
-        <v>0.321958</v>
+        <v>0.32151</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31467</v>
+        <v>0.314998</v>
       </c>
       <c r="C111" t="n">
-        <v>0.321695</v>
+        <v>0.322382</v>
       </c>
       <c r="D111" t="n">
-        <v>0.322673</v>
+        <v>0.323148</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.318807</v>
+        <v>0.319383</v>
       </c>
       <c r="C112" t="n">
-        <v>0.326323</v>
+        <v>0.328925</v>
       </c>
       <c r="D112" t="n">
-        <v>0.324117</v>
+        <v>0.324747</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323759</v>
+        <v>0.324361</v>
       </c>
       <c r="C113" t="n">
-        <v>0.333318</v>
+        <v>0.333778</v>
       </c>
       <c r="D113" t="n">
-        <v>0.325346</v>
+        <v>0.326643</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330222</v>
+        <v>0.330577</v>
       </c>
       <c r="C114" t="n">
-        <v>0.34307</v>
+        <v>0.343039</v>
       </c>
       <c r="D114" t="n">
-        <v>0.328103</v>
+        <v>0.328269</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.338469</v>
+        <v>0.339628</v>
       </c>
       <c r="C115" t="n">
-        <v>0.351231</v>
+        <v>0.351546</v>
       </c>
       <c r="D115" t="n">
-        <v>0.331206</v>
+        <v>0.331217</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.349597</v>
+        <v>0.350932</v>
       </c>
       <c r="C116" t="n">
-        <v>0.361991</v>
+        <v>0.361926</v>
       </c>
       <c r="D116" t="n">
-        <v>0.335173</v>
+        <v>0.335721</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.364813</v>
+        <v>0.365881</v>
       </c>
       <c r="C117" t="n">
-        <v>0.373388</v>
+        <v>0.373138</v>
       </c>
       <c r="D117" t="n">
-        <v>0.340559</v>
+        <v>0.340127</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.385082</v>
+        <v>0.385911</v>
       </c>
       <c r="C118" t="n">
-        <v>0.386256</v>
+        <v>0.388213</v>
       </c>
       <c r="D118" t="n">
-        <v>0.346751</v>
+        <v>0.347087</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.410547</v>
+        <v>0.412022</v>
       </c>
       <c r="C119" t="n">
-        <v>0.40839</v>
+        <v>0.407328</v>
       </c>
       <c r="D119" t="n">
-        <v>0.355304</v>
+        <v>0.355648</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.445106</v>
+        <v>0.448025</v>
       </c>
       <c r="C120" t="n">
-        <v>0.434368</v>
+        <v>0.430116</v>
       </c>
       <c r="D120" t="n">
-        <v>0.367499</v>
+        <v>0.367272</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.491788</v>
+        <v>0.498475</v>
       </c>
       <c r="C121" t="n">
-        <v>0.472628</v>
+        <v>0.470782</v>
       </c>
       <c r="D121" t="n">
-        <v>0.383686</v>
+        <v>0.383668</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.55513</v>
+        <v>0.568621</v>
       </c>
       <c r="C122" t="n">
-        <v>0.529401</v>
+        <v>0.527659</v>
       </c>
       <c r="D122" t="n">
-        <v>0.41336</v>
+        <v>0.413802</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6418199999999999</v>
+        <v>0.6599080000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.620379</v>
+        <v>0.617709</v>
       </c>
       <c r="D123" t="n">
-        <v>0.354637</v>
+        <v>0.352461</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345782</v>
+        <v>0.343452</v>
       </c>
       <c r="C124" t="n">
-        <v>0.370891</v>
+        <v>0.370531</v>
       </c>
       <c r="D124" t="n">
-        <v>0.357785</v>
+        <v>0.352714</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350009</v>
+        <v>0.349171</v>
       </c>
       <c r="C125" t="n">
-        <v>0.378078</v>
+        <v>0.373037</v>
       </c>
       <c r="D125" t="n">
-        <v>0.351981</v>
+        <v>0.358214</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.35588</v>
+        <v>0.355906</v>
       </c>
       <c r="C126" t="n">
-        <v>0.383432</v>
+        <v>0.378822</v>
       </c>
       <c r="D126" t="n">
-        <v>0.354185</v>
+        <v>0.361569</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.362</v>
+        <v>0.361965</v>
       </c>
       <c r="C127" t="n">
-        <v>0.385405</v>
+        <v>0.385804</v>
       </c>
       <c r="D127" t="n">
-        <v>0.363595</v>
+        <v>0.367519</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.37162</v>
+        <v>0.369956</v>
       </c>
       <c r="C128" t="n">
-        <v>0.393322</v>
+        <v>0.395454</v>
       </c>
       <c r="D128" t="n">
-        <v>0.372925</v>
+        <v>0.369515</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383271</v>
+        <v>0.381459</v>
       </c>
       <c r="C129" t="n">
-        <v>0.399769</v>
+        <v>0.403364</v>
       </c>
       <c r="D129" t="n">
-        <v>0.373816</v>
+        <v>0.373569</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.392819</v>
+        <v>0.39254</v>
       </c>
       <c r="C130" t="n">
-        <v>0.409709</v>
+        <v>0.411008</v>
       </c>
       <c r="D130" t="n">
-        <v>0.378289</v>
+        <v>0.37607</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.407401</v>
+        <v>0.406541</v>
       </c>
       <c r="C131" t="n">
-        <v>0.422691</v>
+        <v>0.422257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.383313</v>
+        <v>0.382235</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.425804</v>
+        <v>0.426991</v>
       </c>
       <c r="C132" t="n">
-        <v>0.438431</v>
+        <v>0.437161</v>
       </c>
       <c r="D132" t="n">
-        <v>0.388943</v>
+        <v>0.386311</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.450453</v>
+        <v>0.45398</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455371</v>
+        <v>0.455308</v>
       </c>
       <c r="D133" t="n">
-        <v>0.397008</v>
+        <v>0.397491</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.483131</v>
+        <v>0.4864</v>
       </c>
       <c r="C134" t="n">
-        <v>0.487288</v>
+        <v>0.487265</v>
       </c>
       <c r="D134" t="n">
-        <v>0.407168</v>
+        <v>0.412589</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.53116</v>
+        <v>0.537454</v>
       </c>
       <c r="C135" t="n">
-        <v>0.523309</v>
+        <v>0.528114</v>
       </c>
       <c r="D135" t="n">
-        <v>0.423741</v>
+        <v>0.42406</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5964429999999999</v>
+        <v>0.608061</v>
       </c>
       <c r="C136" t="n">
-        <v>0.582867</v>
+        <v>0.584808</v>
       </c>
       <c r="D136" t="n">
-        <v>0.447592</v>
+        <v>0.451598</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.699928</v>
+        <v>0.7093429999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.680136</v>
+        <v>0.674139</v>
       </c>
       <c r="D137" t="n">
-        <v>0.520953</v>
+        <v>0.518161</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.507939</v>
+        <v>0.513967</v>
       </c>
       <c r="C138" t="n">
-        <v>0.549086</v>
+        <v>0.555961</v>
       </c>
       <c r="D138" t="n">
-        <v>0.525035</v>
+        <v>0.5290899999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.502257</v>
+        <v>0.5083760000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.569461</v>
+        <v>0.54025</v>
       </c>
       <c r="D139" t="n">
-        <v>0.534865</v>
+        <v>0.528687</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5298929999999999</v>
+        <v>0.533363</v>
       </c>
       <c r="C140" t="n">
-        <v>0.56847</v>
+        <v>0.566669</v>
       </c>
       <c r="D140" t="n">
-        <v>0.534112</v>
+        <v>0.539307</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5386300000000001</v>
+        <v>0.529271</v>
       </c>
       <c r="C141" t="n">
-        <v>0.573559</v>
+        <v>0.57642</v>
       </c>
       <c r="D141" t="n">
-        <v>0.531018</v>
+        <v>0.539147</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.543342</v>
+        <v>0.537158</v>
       </c>
       <c r="C142" t="n">
-        <v>0.587542</v>
+        <v>0.575343</v>
       </c>
       <c r="D142" t="n">
-        <v>0.549189</v>
+        <v>0.539277</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.565464</v>
+        <v>0.568004</v>
       </c>
       <c r="C143" t="n">
-        <v>0.601364</v>
+        <v>0.6018289999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.555671</v>
+        <v>0.549087</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.286972</v>
+        <v>0.286971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266561</v>
+        <v>0.266493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276687</v>
+        <v>0.276844</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293381</v>
+        <v>0.293311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.26847</v>
+        <v>0.268467</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277801</v>
+        <v>0.277837</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302572</v>
+        <v>0.302503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2746</v>
+        <v>0.275722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.279861</v>
+        <v>0.279921</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317252</v>
+        <v>0.317199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.284903</v>
+        <v>0.285016</v>
       </c>
       <c r="D5" t="n">
-        <v>0.284068</v>
+        <v>0.284159</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336833</v>
+        <v>0.336938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295418</v>
+        <v>0.295192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.288703</v>
+        <v>0.288779</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.369266</v>
+        <v>0.368532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.317426</v>
+        <v>0.317291</v>
       </c>
       <c r="D7" t="n">
-        <v>0.298354</v>
+        <v>0.298346</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.411547</v>
+        <v>0.411871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347596</v>
+        <v>0.347534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314441</v>
+        <v>0.31443</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.458561</v>
+        <v>0.459739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401784</v>
+        <v>0.400372</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273297</v>
+        <v>0.273391</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.270936</v>
+        <v>0.270974</v>
       </c>
       <c r="C10" t="n">
-        <v>0.25463</v>
+        <v>0.254377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273313</v>
+        <v>0.27337</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.271882</v>
+        <v>0.271885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254894</v>
+        <v>0.2546</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273454</v>
+        <v>0.273477</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274034</v>
+        <v>0.273985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256728</v>
+        <v>0.256247</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274068</v>
+        <v>0.274133</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276809</v>
+        <v>0.27685</v>
       </c>
       <c r="C13" t="n">
-        <v>0.258295</v>
+        <v>0.257894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274182</v>
+        <v>0.274207</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279885</v>
+        <v>0.279906</v>
       </c>
       <c r="C14" t="n">
-        <v>0.25968</v>
+        <v>0.259361</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274613</v>
+        <v>0.274713</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284566</v>
+        <v>0.284658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.262514</v>
+        <v>0.261935</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275453</v>
+        <v>0.275417</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289215</v>
+        <v>0.289331</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265536</v>
+        <v>0.265121</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276558</v>
+        <v>0.276584</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296269</v>
+        <v>0.296279</v>
       </c>
       <c r="C17" t="n">
-        <v>0.269254</v>
+        <v>0.268542</v>
       </c>
       <c r="D17" t="n">
-        <v>0.277777</v>
+        <v>0.277755</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306241</v>
+        <v>0.306339</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275921</v>
+        <v>0.275484</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279865</v>
+        <v>0.279901</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318281</v>
+        <v>0.318339</v>
       </c>
       <c r="C19" t="n">
-        <v>0.285237</v>
+        <v>0.28469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283337</v>
+        <v>0.283265</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337051</v>
+        <v>0.33722</v>
       </c>
       <c r="C20" t="n">
-        <v>0.296009</v>
+        <v>0.295578</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287108</v>
+        <v>0.287081</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.365227</v>
+        <v>0.365851</v>
       </c>
       <c r="C21" t="n">
-        <v>0.311054</v>
+        <v>0.310562</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294188</v>
+        <v>0.294065</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40419</v>
+        <v>0.405148</v>
       </c>
       <c r="C22" t="n">
-        <v>0.341096</v>
+        <v>0.340649</v>
       </c>
       <c r="D22" t="n">
-        <v>0.30738</v>
+        <v>0.307316</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458808</v>
+        <v>0.460063</v>
       </c>
       <c r="C23" t="n">
-        <v>0.387603</v>
+        <v>0.387187</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273931</v>
+        <v>0.273597</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271144</v>
+        <v>0.271101</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255662</v>
+        <v>0.255714</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273932</v>
+        <v>0.274069</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272568</v>
+        <v>0.27255</v>
       </c>
       <c r="C25" t="n">
-        <v>0.256186</v>
+        <v>0.260952</v>
       </c>
       <c r="D25" t="n">
-        <v>0.273956</v>
+        <v>0.288956</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274292</v>
+        <v>0.295928</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257241</v>
+        <v>0.272701</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274375</v>
+        <v>0.274529</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276392</v>
+        <v>0.276416</v>
       </c>
       <c r="C27" t="n">
-        <v>0.273784</v>
+        <v>0.2581</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274792</v>
+        <v>0.274831</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279637</v>
+        <v>0.279496</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260119</v>
+        <v>0.275788</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275728</v>
+        <v>0.29081</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283234</v>
+        <v>0.305111</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262217</v>
+        <v>0.278091</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276115</v>
+        <v>0.291242</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287714</v>
+        <v>0.287671</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265185</v>
+        <v>0.265093</v>
       </c>
       <c r="D30" t="n">
-        <v>0.277134</v>
+        <v>0.277252</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294509</v>
+        <v>0.294441</v>
       </c>
       <c r="C31" t="n">
-        <v>0.269598</v>
+        <v>0.269619</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278312</v>
+        <v>0.278435</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304949</v>
+        <v>0.304874</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275684</v>
+        <v>0.275715</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280492</v>
+        <v>0.280628</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317746</v>
+        <v>0.317505</v>
       </c>
       <c r="C33" t="n">
-        <v>0.28488</v>
+        <v>0.284818</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284151</v>
+        <v>0.284231</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.335969</v>
+        <v>0.335538</v>
       </c>
       <c r="C34" t="n">
-        <v>0.297281</v>
+        <v>0.297203</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288586</v>
+        <v>0.288662</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.363071</v>
+        <v>0.362923</v>
       </c>
       <c r="C35" t="n">
-        <v>0.332168</v>
+        <v>0.327026</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296349</v>
+        <v>0.31149</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401674</v>
+        <v>0.401031</v>
       </c>
       <c r="C36" t="n">
-        <v>0.343137</v>
+        <v>0.343139</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308607</v>
+        <v>0.308789</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.451535</v>
+        <v>0.451278</v>
       </c>
       <c r="C37" t="n">
-        <v>0.382535</v>
+        <v>0.382642</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273762</v>
+        <v>0.273811</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271084</v>
+        <v>0.271035</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256108</v>
+        <v>0.270023</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273945</v>
+        <v>0.274083</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.272446</v>
+        <v>0.27239</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256831</v>
+        <v>0.256808</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274255</v>
+        <v>0.27452</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274191</v>
+        <v>0.274138</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257701</v>
+        <v>0.257761</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274657</v>
+        <v>0.274825</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276206</v>
+        <v>0.276183</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258931</v>
+        <v>0.259033</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275051</v>
+        <v>0.275466</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279151</v>
+        <v>0.279022</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260872</v>
+        <v>0.272281</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2758</v>
+        <v>0.276303</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283323</v>
+        <v>0.283313</v>
       </c>
       <c r="C43" t="n">
-        <v>0.262872</v>
+        <v>0.263106</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276585</v>
+        <v>0.277882</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288537</v>
+        <v>0.28852</v>
       </c>
       <c r="C44" t="n">
-        <v>0.266343</v>
+        <v>0.267409</v>
       </c>
       <c r="D44" t="n">
-        <v>0.277619</v>
+        <v>0.277846</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295515</v>
+        <v>0.295371</v>
       </c>
       <c r="C45" t="n">
-        <v>0.269962</v>
+        <v>0.269931</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278939</v>
+        <v>0.279081</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304515</v>
+        <v>0.304379</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276247</v>
+        <v>0.276418</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281081</v>
+        <v>0.281182</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.316353</v>
+        <v>0.316058</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284476</v>
+        <v>0.302185</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284189</v>
+        <v>0.284276</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.333021</v>
+        <v>0.332728</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294721</v>
+        <v>0.309955</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288558</v>
+        <v>0.288685</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.356799</v>
+        <v>0.356231</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310869</v>
+        <v>0.310834</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295282</v>
+        <v>0.295374</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.392379</v>
+        <v>0.391608</v>
       </c>
       <c r="C50" t="n">
-        <v>0.335669</v>
+        <v>0.335566</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306867</v>
+        <v>0.306923</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440119</v>
+        <v>0.439243</v>
       </c>
       <c r="C51" t="n">
-        <v>0.373542</v>
+        <v>0.374183</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2757</v>
+        <v>0.275253</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.495772</v>
+        <v>0.494859</v>
       </c>
       <c r="C52" t="n">
-        <v>0.426565</v>
+        <v>0.428235</v>
       </c>
       <c r="D52" t="n">
-        <v>0.277311</v>
+        <v>0.276586</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273592</v>
+        <v>0.27398</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258587</v>
+        <v>0.26746</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276341</v>
+        <v>0.277692</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.27533</v>
+        <v>0.275329</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259445</v>
+        <v>0.276381</v>
       </c>
       <c r="D54" t="n">
-        <v>0.276663</v>
+        <v>0.277448</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.277642</v>
+        <v>0.27759</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261956</v>
+        <v>0.260832</v>
       </c>
       <c r="D55" t="n">
-        <v>0.278608</v>
+        <v>0.277534</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280465</v>
+        <v>0.280311</v>
       </c>
       <c r="C56" t="n">
-        <v>0.263434</v>
+        <v>0.278593</v>
       </c>
       <c r="D56" t="n">
-        <v>0.279276</v>
+        <v>0.277921</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283879</v>
+        <v>0.283995</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265206</v>
+        <v>0.264068</v>
       </c>
       <c r="D57" t="n">
-        <v>0.279422</v>
+        <v>0.278518</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289385</v>
+        <v>0.288665</v>
       </c>
       <c r="C58" t="n">
-        <v>0.267353</v>
+        <v>0.266591</v>
       </c>
       <c r="D58" t="n">
-        <v>0.280071</v>
+        <v>0.27952</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.296205</v>
+        <v>0.297613</v>
       </c>
       <c r="C59" t="n">
-        <v>0.270995</v>
+        <v>0.270441</v>
       </c>
       <c r="D59" t="n">
-        <v>0.280749</v>
+        <v>0.280854</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.305939</v>
+        <v>0.303552</v>
       </c>
       <c r="C60" t="n">
-        <v>0.275829</v>
+        <v>0.29375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.282789</v>
+        <v>0.284648</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.316773</v>
+        <v>0.315787</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282448</v>
+        <v>0.282797</v>
       </c>
       <c r="D61" t="n">
-        <v>0.285288</v>
+        <v>0.285336</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.333459</v>
+        <v>0.331734</v>
       </c>
       <c r="C62" t="n">
-        <v>0.29381</v>
+        <v>0.313052</v>
       </c>
       <c r="D62" t="n">
-        <v>0.289605</v>
+        <v>0.291151</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.354388</v>
+        <v>0.353657</v>
       </c>
       <c r="C63" t="n">
-        <v>0.307904</v>
+        <v>0.310162</v>
       </c>
       <c r="D63" t="n">
-        <v>0.295603</v>
+        <v>0.297839</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.386602</v>
+        <v>0.386247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.346868</v>
+        <v>0.331692</v>
       </c>
       <c r="D64" t="n">
-        <v>0.303856</v>
+        <v>0.307088</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.431726</v>
+        <v>0.429632</v>
       </c>
       <c r="C65" t="n">
-        <v>0.365257</v>
+        <v>0.384243</v>
       </c>
       <c r="D65" t="n">
-        <v>0.321845</v>
+        <v>0.321008</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.487565</v>
+        <v>0.484386</v>
       </c>
       <c r="C66" t="n">
-        <v>0.418499</v>
+        <v>0.417557</v>
       </c>
       <c r="D66" t="n">
-        <v>0.288768</v>
+        <v>0.286369</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.280802</v>
+        <v>0.281217</v>
       </c>
       <c r="C67" t="n">
-        <v>0.270049</v>
+        <v>0.271625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.287797</v>
+        <v>0.288658</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282994</v>
+        <v>0.283354</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271233</v>
+        <v>0.271858</v>
       </c>
       <c r="D68" t="n">
-        <v>0.288426</v>
+        <v>0.290494</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285222</v>
+        <v>0.284616</v>
       </c>
       <c r="C69" t="n">
-        <v>0.272595</v>
+        <v>0.271384</v>
       </c>
       <c r="D69" t="n">
-        <v>0.288835</v>
+        <v>0.289989</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.288641</v>
+        <v>0.288387</v>
       </c>
       <c r="C70" t="n">
-        <v>0.274157</v>
+        <v>0.274253</v>
       </c>
       <c r="D70" t="n">
-        <v>0.289127</v>
+        <v>0.289264</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.293109</v>
+        <v>0.291039</v>
       </c>
       <c r="C71" t="n">
-        <v>0.276028</v>
+        <v>0.275434</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290204</v>
+        <v>0.290522</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297551</v>
+        <v>0.29569</v>
       </c>
       <c r="C72" t="n">
-        <v>0.278821</v>
+        <v>0.27926</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291433</v>
+        <v>0.292141</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.302562</v>
+        <v>0.302525</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282463</v>
+        <v>0.282703</v>
       </c>
       <c r="D73" t="n">
-        <v>0.294292</v>
+        <v>0.294522</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311528</v>
+        <v>0.312201</v>
       </c>
       <c r="C74" t="n">
-        <v>0.288625</v>
+        <v>0.288192</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296214</v>
+        <v>0.296291</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.323658</v>
+        <v>0.322292</v>
       </c>
       <c r="C75" t="n">
-        <v>0.294488</v>
+        <v>0.294242</v>
       </c>
       <c r="D75" t="n">
-        <v>0.298981</v>
+        <v>0.297056</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.34133</v>
+        <v>0.338634</v>
       </c>
       <c r="C76" t="n">
-        <v>0.303649</v>
+        <v>0.303932</v>
       </c>
       <c r="D76" t="n">
-        <v>0.302916</v>
+        <v>0.301345</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.36143</v>
+        <v>0.360695</v>
       </c>
       <c r="C77" t="n">
-        <v>0.316455</v>
+        <v>0.315576</v>
       </c>
       <c r="D77" t="n">
-        <v>0.304444</v>
+        <v>0.305372</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.393965</v>
+        <v>0.394881</v>
       </c>
       <c r="C78" t="n">
-        <v>0.339162</v>
+        <v>0.341885</v>
       </c>
       <c r="D78" t="n">
-        <v>0.315082</v>
+        <v>0.315803</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.441965</v>
+        <v>0.439749</v>
       </c>
       <c r="C79" t="n">
-        <v>0.376738</v>
+        <v>0.371481</v>
       </c>
       <c r="D79" t="n">
-        <v>0.328953</v>
+        <v>0.330176</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.497371</v>
+        <v>0.495089</v>
       </c>
       <c r="C80" t="n">
-        <v>0.419944</v>
+        <v>0.423855</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30357</v>
+        <v>0.30291</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294624</v>
+        <v>0.294578</v>
       </c>
       <c r="C81" t="n">
-        <v>0.284985</v>
+        <v>0.284544</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303948</v>
+        <v>0.303565</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296657</v>
+        <v>0.296189</v>
       </c>
       <c r="C82" t="n">
-        <v>0.286358</v>
+        <v>0.285614</v>
       </c>
       <c r="D82" t="n">
-        <v>0.303999</v>
+        <v>0.303806</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298907</v>
+        <v>0.298445</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287299</v>
+        <v>0.287462</v>
       </c>
       <c r="D83" t="n">
-        <v>0.304526</v>
+        <v>0.30454</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301857</v>
+        <v>0.301721</v>
       </c>
       <c r="C84" t="n">
-        <v>0.28924</v>
+        <v>0.28909</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305095</v>
+        <v>0.304844</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305987</v>
+        <v>0.305451</v>
       </c>
       <c r="C85" t="n">
-        <v>0.291139</v>
+        <v>0.291215</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306037</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.311171</v>
+        <v>0.310481</v>
       </c>
       <c r="C86" t="n">
-        <v>0.292503</v>
+        <v>0.293345</v>
       </c>
       <c r="D86" t="n">
-        <v>0.307016</v>
+        <v>0.306811</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317114</v>
+        <v>0.317069</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297394</v>
+        <v>0.297336</v>
       </c>
       <c r="D87" t="n">
-        <v>0.308297</v>
+        <v>0.307905</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.326078</v>
+        <v>0.325542</v>
       </c>
       <c r="C88" t="n">
-        <v>0.302497</v>
+        <v>0.301914</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309917</v>
+        <v>0.310123</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337765</v>
+        <v>0.33723</v>
       </c>
       <c r="C89" t="n">
-        <v>0.309253</v>
+        <v>0.309134</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312259</v>
+        <v>0.311823</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352187</v>
+        <v>0.352669</v>
       </c>
       <c r="C90" t="n">
-        <v>0.318957</v>
+        <v>0.318992</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315933</v>
+        <v>0.315638</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374179</v>
+        <v>0.374259</v>
       </c>
       <c r="C91" t="n">
-        <v>0.332598</v>
+        <v>0.332671</v>
       </c>
       <c r="D91" t="n">
-        <v>0.320753</v>
+        <v>0.320819</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.405664</v>
+        <v>0.405395</v>
       </c>
       <c r="C92" t="n">
-        <v>0.353884</v>
+        <v>0.352902</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329541</v>
+        <v>0.329226</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.449753</v>
+        <v>0.449888</v>
       </c>
       <c r="C93" t="n">
-        <v>0.402219</v>
+        <v>0.385442</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344187</v>
+        <v>0.343804</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.509719</v>
+        <v>0.517207</v>
       </c>
       <c r="C94" t="n">
-        <v>0.441982</v>
+        <v>0.453163</v>
       </c>
       <c r="D94" t="n">
-        <v>0.313792</v>
+        <v>0.313505</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303706</v>
+        <v>0.303826</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295936</v>
+        <v>0.295711</v>
       </c>
       <c r="D95" t="n">
-        <v>0.314118</v>
+        <v>0.314253</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305635</v>
+        <v>0.305603</v>
       </c>
       <c r="C96" t="n">
-        <v>0.297102</v>
+        <v>0.293755</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314728</v>
+        <v>0.312328</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308356</v>
+        <v>0.307952</v>
       </c>
       <c r="C97" t="n">
-        <v>0.29866</v>
+        <v>0.294912</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315244</v>
+        <v>0.313126</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311615</v>
+        <v>0.312043</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300657</v>
+        <v>0.299966</v>
       </c>
       <c r="D98" t="n">
-        <v>0.316222</v>
+        <v>0.316032</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315291</v>
+        <v>0.315205</v>
       </c>
       <c r="C99" t="n">
-        <v>0.303075</v>
+        <v>0.30209</v>
       </c>
       <c r="D99" t="n">
-        <v>0.317239</v>
+        <v>0.316557</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320749</v>
+        <v>0.320311</v>
       </c>
       <c r="C100" t="n">
-        <v>0.305933</v>
+        <v>0.305488</v>
       </c>
       <c r="D100" t="n">
-        <v>0.318217</v>
+        <v>0.31781</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.327409</v>
+        <v>0.326752</v>
       </c>
       <c r="C101" t="n">
-        <v>0.309801</v>
+        <v>0.309184</v>
       </c>
       <c r="D101" t="n">
-        <v>0.319336</v>
+        <v>0.318642</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.336098</v>
+        <v>0.3369</v>
       </c>
       <c r="C102" t="n">
-        <v>0.315836</v>
+        <v>0.314777</v>
       </c>
       <c r="D102" t="n">
-        <v>0.321183</v>
+        <v>0.320823</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347513</v>
+        <v>0.346621</v>
       </c>
       <c r="C103" t="n">
-        <v>0.323749</v>
+        <v>0.322211</v>
       </c>
       <c r="D103" t="n">
-        <v>0.323484</v>
+        <v>0.322928</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.363196</v>
+        <v>0.362353</v>
       </c>
       <c r="C104" t="n">
-        <v>0.334033</v>
+        <v>0.332585</v>
       </c>
       <c r="D104" t="n">
-        <v>0.327173</v>
+        <v>0.326387</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.384205</v>
+        <v>0.383851</v>
       </c>
       <c r="C105" t="n">
-        <v>0.350018</v>
+        <v>0.348401</v>
       </c>
       <c r="D105" t="n">
-        <v>0.332887</v>
+        <v>0.331825</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.416192</v>
+        <v>0.414516</v>
       </c>
       <c r="C106" t="n">
-        <v>0.36793</v>
+        <v>0.372481</v>
       </c>
       <c r="D106" t="n">
-        <v>0.337604</v>
+        <v>0.34047</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.461319</v>
+        <v>0.461336</v>
       </c>
       <c r="C107" t="n">
-        <v>0.405154</v>
+        <v>0.399794</v>
       </c>
       <c r="D107" t="n">
-        <v>0.354405</v>
+        <v>0.350387</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.524537</v>
+        <v>0.525328</v>
       </c>
       <c r="C108" t="n">
-        <v>0.455332</v>
+        <v>0.456928</v>
       </c>
       <c r="D108" t="n">
-        <v>0.320157</v>
+        <v>0.319985</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.615189</v>
+        <v>0.614582</v>
       </c>
       <c r="C109" t="n">
-        <v>0.534915</v>
+        <v>0.536158</v>
       </c>
       <c r="D109" t="n">
-        <v>0.320843</v>
+        <v>0.321153</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.31201</v>
+        <v>0.312022</v>
       </c>
       <c r="C110" t="n">
-        <v>0.31766</v>
+        <v>0.316903</v>
       </c>
       <c r="D110" t="n">
-        <v>0.32151</v>
+        <v>0.321828</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314998</v>
+        <v>0.315132</v>
       </c>
       <c r="C111" t="n">
-        <v>0.322382</v>
+        <v>0.321684</v>
       </c>
       <c r="D111" t="n">
-        <v>0.323148</v>
+        <v>0.322796</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319383</v>
+        <v>0.319006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.328925</v>
+        <v>0.326375</v>
       </c>
       <c r="D112" t="n">
-        <v>0.324747</v>
+        <v>0.324061</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324361</v>
+        <v>0.323637</v>
       </c>
       <c r="C113" t="n">
-        <v>0.333778</v>
+        <v>0.334594</v>
       </c>
       <c r="D113" t="n">
-        <v>0.326643</v>
+        <v>0.32584</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330577</v>
+        <v>0.330119</v>
       </c>
       <c r="C114" t="n">
-        <v>0.343039</v>
+        <v>0.342152</v>
       </c>
       <c r="D114" t="n">
-        <v>0.328269</v>
+        <v>0.328568</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.339628</v>
+        <v>0.33909</v>
       </c>
       <c r="C115" t="n">
-        <v>0.351546</v>
+        <v>0.351296</v>
       </c>
       <c r="D115" t="n">
-        <v>0.331217</v>
+        <v>0.331378</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.350932</v>
+        <v>0.349878</v>
       </c>
       <c r="C116" t="n">
-        <v>0.361926</v>
+        <v>0.36111</v>
       </c>
       <c r="D116" t="n">
-        <v>0.335721</v>
+        <v>0.334953</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.365881</v>
+        <v>0.364755</v>
       </c>
       <c r="C117" t="n">
-        <v>0.373138</v>
+        <v>0.373352</v>
       </c>
       <c r="D117" t="n">
-        <v>0.340127</v>
+        <v>0.339828</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.385911</v>
+        <v>0.385062</v>
       </c>
       <c r="C118" t="n">
-        <v>0.388213</v>
+        <v>0.388303</v>
       </c>
       <c r="D118" t="n">
-        <v>0.347087</v>
+        <v>0.346433</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.412022</v>
+        <v>0.411792</v>
       </c>
       <c r="C119" t="n">
-        <v>0.407328</v>
+        <v>0.407446</v>
       </c>
       <c r="D119" t="n">
-        <v>0.355648</v>
+        <v>0.355392</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.448025</v>
+        <v>0.447941</v>
       </c>
       <c r="C120" t="n">
-        <v>0.430116</v>
+        <v>0.433016</v>
       </c>
       <c r="D120" t="n">
-        <v>0.367272</v>
+        <v>0.367512</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.498475</v>
+        <v>0.498368</v>
       </c>
       <c r="C121" t="n">
-        <v>0.470782</v>
+        <v>0.470577</v>
       </c>
       <c r="D121" t="n">
-        <v>0.383668</v>
+        <v>0.3853</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.568621</v>
+        <v>0.568689</v>
       </c>
       <c r="C122" t="n">
-        <v>0.527659</v>
+        <v>0.527343</v>
       </c>
       <c r="D122" t="n">
-        <v>0.413802</v>
+        <v>0.413551</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6599080000000001</v>
+        <v>0.661598</v>
       </c>
       <c r="C123" t="n">
-        <v>0.617709</v>
+        <v>0.611421</v>
       </c>
       <c r="D123" t="n">
-        <v>0.352461</v>
+        <v>0.351752</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.343452</v>
+        <v>0.343662</v>
       </c>
       <c r="C124" t="n">
-        <v>0.370531</v>
+        <v>0.369673</v>
       </c>
       <c r="D124" t="n">
-        <v>0.352714</v>
+        <v>0.354888</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349171</v>
+        <v>0.34936</v>
       </c>
       <c r="C125" t="n">
-        <v>0.373037</v>
+        <v>0.374658</v>
       </c>
       <c r="D125" t="n">
-        <v>0.358214</v>
+        <v>0.358807</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.355906</v>
+        <v>0.355004</v>
       </c>
       <c r="C126" t="n">
-        <v>0.378822</v>
+        <v>0.379577</v>
       </c>
       <c r="D126" t="n">
-        <v>0.361569</v>
+        <v>0.361067</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361965</v>
+        <v>0.362751</v>
       </c>
       <c r="C127" t="n">
-        <v>0.385804</v>
+        <v>0.385019</v>
       </c>
       <c r="D127" t="n">
-        <v>0.367519</v>
+        <v>0.366766</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.369956</v>
+        <v>0.370317</v>
       </c>
       <c r="C128" t="n">
-        <v>0.395454</v>
+        <v>0.389858</v>
       </c>
       <c r="D128" t="n">
-        <v>0.369515</v>
+        <v>0.369703</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.381459</v>
+        <v>0.381333</v>
       </c>
       <c r="C129" t="n">
-        <v>0.403364</v>
+        <v>0.399745</v>
       </c>
       <c r="D129" t="n">
-        <v>0.373569</v>
+        <v>0.372335</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.39254</v>
+        <v>0.394173</v>
       </c>
       <c r="C130" t="n">
-        <v>0.411008</v>
+        <v>0.409089</v>
       </c>
       <c r="D130" t="n">
-        <v>0.37607</v>
+        <v>0.379641</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406541</v>
+        <v>0.408435</v>
       </c>
       <c r="C131" t="n">
-        <v>0.422257</v>
+        <v>0.421083</v>
       </c>
       <c r="D131" t="n">
-        <v>0.382235</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.426991</v>
+        <v>0.426525</v>
       </c>
       <c r="C132" t="n">
-        <v>0.437161</v>
+        <v>0.439004</v>
       </c>
       <c r="D132" t="n">
-        <v>0.386311</v>
+        <v>0.386129</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.45398</v>
+        <v>0.450949</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455308</v>
+        <v>0.459177</v>
       </c>
       <c r="D133" t="n">
-        <v>0.397491</v>
+        <v>0.395884</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4864</v>
+        <v>0.486929</v>
       </c>
       <c r="C134" t="n">
-        <v>0.487265</v>
+        <v>0.484868</v>
       </c>
       <c r="D134" t="n">
-        <v>0.412589</v>
+        <v>0.408083</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.537454</v>
+        <v>0.53576</v>
       </c>
       <c r="C135" t="n">
-        <v>0.528114</v>
+        <v>0.521363</v>
       </c>
       <c r="D135" t="n">
-        <v>0.42406</v>
+        <v>0.426611</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.608061</v>
+        <v>0.607922</v>
       </c>
       <c r="C136" t="n">
-        <v>0.584808</v>
+        <v>0.583584</v>
       </c>
       <c r="D136" t="n">
-        <v>0.451598</v>
+        <v>0.450029</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7093429999999999</v>
+        <v>0.720611</v>
       </c>
       <c r="C137" t="n">
-        <v>0.674139</v>
+        <v>0.671366</v>
       </c>
       <c r="D137" t="n">
-        <v>0.518161</v>
+        <v>0.5226769999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.513967</v>
+        <v>0.516208</v>
       </c>
       <c r="C138" t="n">
-        <v>0.555961</v>
+        <v>0.54647</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5290899999999999</v>
+        <v>0.515074</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5083760000000001</v>
+        <v>0.510816</v>
       </c>
       <c r="C139" t="n">
-        <v>0.54025</v>
+        <v>0.554395</v>
       </c>
       <c r="D139" t="n">
-        <v>0.528687</v>
+        <v>0.516808</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.533363</v>
+        <v>0.528587</v>
       </c>
       <c r="C140" t="n">
-        <v>0.566669</v>
+        <v>0.569619</v>
       </c>
       <c r="D140" t="n">
-        <v>0.539307</v>
+        <v>0.532725</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.529271</v>
+        <v>0.544918</v>
       </c>
       <c r="C141" t="n">
-        <v>0.57642</v>
+        <v>0.566994</v>
       </c>
       <c r="D141" t="n">
-        <v>0.539147</v>
+        <v>0.5270359999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.537158</v>
+        <v>0.545994</v>
       </c>
       <c r="C142" t="n">
-        <v>0.575343</v>
+        <v>0.572142</v>
       </c>
       <c r="D142" t="n">
-        <v>0.539277</v>
+        <v>0.540658</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.568004</v>
+        <v>0.558664</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6018289999999999</v>
+        <v>0.592562</v>
       </c>
       <c r="D143" t="n">
-        <v>0.549087</v>
+        <v>0.537284</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.286971</v>
+        <v>0.286925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266493</v>
+        <v>0.266098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276844</v>
+        <v>0.276488</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293311</v>
+        <v>0.293128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268467</v>
+        <v>0.268193</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277837</v>
+        <v>0.277648</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302503</v>
+        <v>0.302354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.275722</v>
+        <v>0.274412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.279921</v>
+        <v>0.279799</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317199</v>
+        <v>0.317104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.285016</v>
+        <v>0.284104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.284159</v>
+        <v>0.283953</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336938</v>
+        <v>0.336684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295192</v>
+        <v>0.296253</v>
       </c>
       <c r="D6" t="n">
-        <v>0.288779</v>
+        <v>0.28854</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.368532</v>
+        <v>0.368248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.317291</v>
+        <v>0.317699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.298346</v>
+        <v>0.298162</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.411871</v>
+        <v>0.41112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347534</v>
+        <v>0.348225</v>
       </c>
       <c r="D8" t="n">
-        <v>0.31443</v>
+        <v>0.314246</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.459739</v>
+        <v>0.458379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.400372</v>
+        <v>0.401024</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273391</v>
+        <v>0.273344</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.270974</v>
+        <v>0.270992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254377</v>
+        <v>0.254439</v>
       </c>
       <c r="D10" t="n">
-        <v>0.27337</v>
+        <v>0.273306</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.271885</v>
+        <v>0.271937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2546</v>
+        <v>0.254641</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273477</v>
+        <v>0.273419</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.273985</v>
+        <v>0.27406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256247</v>
+        <v>0.256339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274133</v>
+        <v>0.274111</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.27685</v>
+        <v>0.276835</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257894</v>
+        <v>0.257928</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274207</v>
+        <v>0.274165</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279906</v>
+        <v>0.279926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.259361</v>
+        <v>0.259257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274713</v>
+        <v>0.274657</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284658</v>
+        <v>0.284696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.261935</v>
+        <v>0.261827</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275417</v>
+        <v>0.2754</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289331</v>
+        <v>0.289333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265121</v>
+        <v>0.265264</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276584</v>
+        <v>0.276672</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296279</v>
+        <v>0.296412</v>
       </c>
       <c r="C17" t="n">
-        <v>0.268542</v>
+        <v>0.26864</v>
       </c>
       <c r="D17" t="n">
-        <v>0.277755</v>
+        <v>0.277771</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306339</v>
+        <v>0.306379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275484</v>
+        <v>0.275625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279901</v>
+        <v>0.279935</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318339</v>
+        <v>0.318435</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28469</v>
+        <v>0.284694</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283265</v>
+        <v>0.283359</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.33722</v>
+        <v>0.337316</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295578</v>
+        <v>0.295677</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287081</v>
+        <v>0.28709</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.365851</v>
+        <v>0.365561</v>
       </c>
       <c r="C21" t="n">
-        <v>0.310562</v>
+        <v>0.310781</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294065</v>
+        <v>0.294211</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.405148</v>
+        <v>0.404557</v>
       </c>
       <c r="C22" t="n">
-        <v>0.340649</v>
+        <v>0.34096</v>
       </c>
       <c r="D22" t="n">
-        <v>0.307316</v>
+        <v>0.307391</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.460063</v>
+        <v>0.458398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.387187</v>
+        <v>0.387466</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273597</v>
+        <v>0.273403</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271101</v>
+        <v>0.27101</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255714</v>
+        <v>0.255643</v>
       </c>
       <c r="D24" t="n">
-        <v>0.274069</v>
+        <v>0.273913</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.27255</v>
+        <v>0.272475</v>
       </c>
       <c r="C25" t="n">
-        <v>0.260952</v>
+        <v>0.255817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.288956</v>
+        <v>0.273826</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.295928</v>
+        <v>0.274223</v>
       </c>
       <c r="C26" t="n">
-        <v>0.272701</v>
+        <v>0.257</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274529</v>
+        <v>0.274322</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276416</v>
+        <v>0.276301</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2581</v>
+        <v>0.258074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274831</v>
+        <v>0.274705</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279496</v>
+        <v>0.279606</v>
       </c>
       <c r="C28" t="n">
-        <v>0.275788</v>
+        <v>0.260266</v>
       </c>
       <c r="D28" t="n">
-        <v>0.29081</v>
+        <v>0.275578</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305111</v>
+        <v>0.283244</v>
       </c>
       <c r="C29" t="n">
-        <v>0.278091</v>
+        <v>0.262218</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291242</v>
+        <v>0.276075</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287671</v>
+        <v>0.287735</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265093</v>
+        <v>0.265009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.277252</v>
+        <v>0.276987</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294441</v>
+        <v>0.294519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.269619</v>
+        <v>0.269459</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278435</v>
+        <v>0.278307</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304874</v>
+        <v>0.304958</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275715</v>
+        <v>0.275486</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280628</v>
+        <v>0.280383</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317505</v>
+        <v>0.318095</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284818</v>
+        <v>0.284628</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284231</v>
+        <v>0.284062</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.335538</v>
+        <v>0.335821</v>
       </c>
       <c r="C34" t="n">
-        <v>0.297203</v>
+        <v>0.296977</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288662</v>
+        <v>0.288474</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.362923</v>
+        <v>0.365348</v>
       </c>
       <c r="C35" t="n">
-        <v>0.327026</v>
+        <v>0.314153</v>
       </c>
       <c r="D35" t="n">
-        <v>0.31149</v>
+        <v>0.296231</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401031</v>
+        <v>0.401178</v>
       </c>
       <c r="C36" t="n">
-        <v>0.343139</v>
+        <v>0.343312</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308789</v>
+        <v>0.308656</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.451278</v>
+        <v>0.450677</v>
       </c>
       <c r="C37" t="n">
-        <v>0.382642</v>
+        <v>0.382392</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273811</v>
+        <v>0.273652</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271035</v>
+        <v>0.270936</v>
       </c>
       <c r="C38" t="n">
-        <v>0.270023</v>
+        <v>0.256102</v>
       </c>
       <c r="D38" t="n">
-        <v>0.274083</v>
+        <v>0.273918</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.27239</v>
+        <v>0.27245</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256808</v>
+        <v>0.256865</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27452</v>
+        <v>0.274294</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274138</v>
+        <v>0.274107</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257761</v>
+        <v>0.257747</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274825</v>
+        <v>0.274492</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276183</v>
+        <v>0.276203</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259033</v>
+        <v>0.258929</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275466</v>
+        <v>0.27529</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279022</v>
+        <v>0.27909</v>
       </c>
       <c r="C42" t="n">
-        <v>0.272281</v>
+        <v>0.260782</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276303</v>
+        <v>0.275715</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283313</v>
+        <v>0.283262</v>
       </c>
       <c r="C43" t="n">
-        <v>0.263106</v>
+        <v>0.262793</v>
       </c>
       <c r="D43" t="n">
-        <v>0.277882</v>
+        <v>0.276498</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.28852</v>
+        <v>0.288465</v>
       </c>
       <c r="C44" t="n">
-        <v>0.267409</v>
+        <v>0.266245</v>
       </c>
       <c r="D44" t="n">
-        <v>0.277846</v>
+        <v>0.277673</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295371</v>
+        <v>0.295515</v>
       </c>
       <c r="C45" t="n">
-        <v>0.269931</v>
+        <v>0.269708</v>
       </c>
       <c r="D45" t="n">
-        <v>0.279081</v>
+        <v>0.278647</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304379</v>
+        <v>0.304428</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276418</v>
+        <v>0.276207</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281182</v>
+        <v>0.28113</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.316058</v>
+        <v>0.316342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.302185</v>
+        <v>0.284455</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284276</v>
+        <v>0.284244</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.332728</v>
+        <v>0.333023</v>
       </c>
       <c r="C48" t="n">
-        <v>0.309955</v>
+        <v>0.294637</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288685</v>
+        <v>0.288512</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.356231</v>
+        <v>0.356924</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310834</v>
+        <v>0.310694</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295374</v>
+        <v>0.295274</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.391608</v>
+        <v>0.392296</v>
       </c>
       <c r="C50" t="n">
-        <v>0.335566</v>
+        <v>0.335666</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306923</v>
+        <v>0.306949</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.439243</v>
+        <v>0.440336</v>
       </c>
       <c r="C51" t="n">
-        <v>0.374183</v>
+        <v>0.3758</v>
       </c>
       <c r="D51" t="n">
-        <v>0.275253</v>
+        <v>0.275099</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.494859</v>
+        <v>0.495798</v>
       </c>
       <c r="C52" t="n">
-        <v>0.428235</v>
+        <v>0.428572</v>
       </c>
       <c r="D52" t="n">
-        <v>0.276586</v>
+        <v>0.275579</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.27398</v>
+        <v>0.273498</v>
       </c>
       <c r="C53" t="n">
-        <v>0.26746</v>
+        <v>0.258686</v>
       </c>
       <c r="D53" t="n">
-        <v>0.277692</v>
+        <v>0.276148</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.275329</v>
+        <v>0.27562</v>
       </c>
       <c r="C54" t="n">
-        <v>0.276381</v>
+        <v>0.259091</v>
       </c>
       <c r="D54" t="n">
-        <v>0.277448</v>
+        <v>0.276324</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.27759</v>
+        <v>0.27741</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260832</v>
+        <v>0.260221</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277534</v>
+        <v>0.276758</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280311</v>
+        <v>0.280061</v>
       </c>
       <c r="C56" t="n">
-        <v>0.278593</v>
+        <v>0.262575</v>
       </c>
       <c r="D56" t="n">
-        <v>0.277921</v>
+        <v>0.278293</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283995</v>
+        <v>0.283878</v>
       </c>
       <c r="C57" t="n">
-        <v>0.264068</v>
+        <v>0.265194</v>
       </c>
       <c r="D57" t="n">
-        <v>0.278518</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288665</v>
+        <v>0.288872</v>
       </c>
       <c r="C58" t="n">
-        <v>0.266591</v>
+        <v>0.267379</v>
       </c>
       <c r="D58" t="n">
-        <v>0.27952</v>
+        <v>0.279584</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.297613</v>
+        <v>0.295157</v>
       </c>
       <c r="C59" t="n">
-        <v>0.270441</v>
+        <v>0.271431</v>
       </c>
       <c r="D59" t="n">
-        <v>0.280854</v>
+        <v>0.281283</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303552</v>
+        <v>0.304318</v>
       </c>
       <c r="C60" t="n">
-        <v>0.29375</v>
+        <v>0.275098</v>
       </c>
       <c r="D60" t="n">
-        <v>0.284648</v>
+        <v>0.282268</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.315787</v>
+        <v>0.314882</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282797</v>
+        <v>0.281539</v>
       </c>
       <c r="D61" t="n">
-        <v>0.285336</v>
+        <v>0.284914</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331734</v>
+        <v>0.331398</v>
       </c>
       <c r="C62" t="n">
-        <v>0.313052</v>
+        <v>0.29249</v>
       </c>
       <c r="D62" t="n">
-        <v>0.291151</v>
+        <v>0.288405</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.353657</v>
+        <v>0.356009</v>
       </c>
       <c r="C63" t="n">
-        <v>0.310162</v>
+        <v>0.306233</v>
       </c>
       <c r="D63" t="n">
-        <v>0.297839</v>
+        <v>0.294525</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.386247</v>
+        <v>0.386988</v>
       </c>
       <c r="C64" t="n">
-        <v>0.331692</v>
+        <v>0.344226</v>
       </c>
       <c r="D64" t="n">
-        <v>0.307088</v>
+        <v>0.303911</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.429632</v>
+        <v>0.431487</v>
       </c>
       <c r="C65" t="n">
-        <v>0.384243</v>
+        <v>0.364424</v>
       </c>
       <c r="D65" t="n">
-        <v>0.321008</v>
+        <v>0.321192</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.484386</v>
+        <v>0.48791</v>
       </c>
       <c r="C66" t="n">
-        <v>0.417557</v>
+        <v>0.420071</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286369</v>
+        <v>0.288626</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.281217</v>
+        <v>0.280384</v>
       </c>
       <c r="C67" t="n">
-        <v>0.271625</v>
+        <v>0.267802</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288658</v>
+        <v>0.288675</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.283354</v>
+        <v>0.28186</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271858</v>
+        <v>0.268999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.290494</v>
+        <v>0.287815</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.284616</v>
+        <v>0.285662</v>
       </c>
       <c r="C69" t="n">
-        <v>0.271384</v>
+        <v>0.271488</v>
       </c>
       <c r="D69" t="n">
-        <v>0.289989</v>
+        <v>0.289683</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.288387</v>
+        <v>0.287823</v>
       </c>
       <c r="C70" t="n">
-        <v>0.274253</v>
+        <v>0.272232</v>
       </c>
       <c r="D70" t="n">
-        <v>0.289264</v>
+        <v>0.28909</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291039</v>
+        <v>0.29121</v>
       </c>
       <c r="C71" t="n">
-        <v>0.275434</v>
+        <v>0.27451</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290522</v>
+        <v>0.290175</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.29569</v>
+        <v>0.295821</v>
       </c>
       <c r="C72" t="n">
-        <v>0.27926</v>
+        <v>0.276965</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292141</v>
+        <v>0.290129</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.302525</v>
+        <v>0.30369</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282703</v>
+        <v>0.280225</v>
       </c>
       <c r="D73" t="n">
-        <v>0.294522</v>
+        <v>0.290885</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.312201</v>
+        <v>0.311397</v>
       </c>
       <c r="C74" t="n">
-        <v>0.288192</v>
+        <v>0.285627</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296291</v>
+        <v>0.294085</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.322292</v>
+        <v>0.325888</v>
       </c>
       <c r="C75" t="n">
-        <v>0.294242</v>
+        <v>0.292064</v>
       </c>
       <c r="D75" t="n">
-        <v>0.297056</v>
+        <v>0.296189</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.338634</v>
+        <v>0.338514</v>
       </c>
       <c r="C76" t="n">
-        <v>0.303932</v>
+        <v>0.302634</v>
       </c>
       <c r="D76" t="n">
-        <v>0.301345</v>
+        <v>0.299686</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.360695</v>
+        <v>0.360212</v>
       </c>
       <c r="C77" t="n">
-        <v>0.315576</v>
+        <v>0.317142</v>
       </c>
       <c r="D77" t="n">
-        <v>0.305372</v>
+        <v>0.305279</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.394881</v>
+        <v>0.395033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.341885</v>
+        <v>0.337664</v>
       </c>
       <c r="D78" t="n">
-        <v>0.315803</v>
+        <v>0.313263</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.439749</v>
+        <v>0.438562</v>
       </c>
       <c r="C79" t="n">
-        <v>0.371481</v>
+        <v>0.370317</v>
       </c>
       <c r="D79" t="n">
-        <v>0.330176</v>
+        <v>0.329387</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.495089</v>
+        <v>0.497285</v>
       </c>
       <c r="C80" t="n">
-        <v>0.423855</v>
+        <v>0.422489</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30291</v>
+        <v>0.303453</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294578</v>
+        <v>0.293943</v>
       </c>
       <c r="C81" t="n">
-        <v>0.284544</v>
+        <v>0.283101</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303565</v>
+        <v>0.303763</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296189</v>
+        <v>0.295831</v>
       </c>
       <c r="C82" t="n">
-        <v>0.285614</v>
+        <v>0.285777</v>
       </c>
       <c r="D82" t="n">
-        <v>0.303806</v>
+        <v>0.303888</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298445</v>
+        <v>0.298672</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287462</v>
+        <v>0.28712</v>
       </c>
       <c r="D83" t="n">
-        <v>0.30454</v>
+        <v>0.304891</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301721</v>
+        <v>0.301819</v>
       </c>
       <c r="C84" t="n">
-        <v>0.28909</v>
+        <v>0.289014</v>
       </c>
       <c r="D84" t="n">
-        <v>0.304844</v>
+        <v>0.304839</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305451</v>
+        <v>0.305502</v>
       </c>
       <c r="C85" t="n">
-        <v>0.291215</v>
+        <v>0.290613</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306</v>
+        <v>0.305007</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.310481</v>
+        <v>0.310575</v>
       </c>
       <c r="C86" t="n">
-        <v>0.293345</v>
+        <v>0.293298</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306811</v>
+        <v>0.306906</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317069</v>
+        <v>0.317267</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297336</v>
+        <v>0.29677</v>
       </c>
       <c r="D87" t="n">
-        <v>0.307905</v>
+        <v>0.308324</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.325542</v>
+        <v>0.325835</v>
       </c>
       <c r="C88" t="n">
-        <v>0.301914</v>
+        <v>0.301839</v>
       </c>
       <c r="D88" t="n">
-        <v>0.310123</v>
+        <v>0.309511</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.33723</v>
+        <v>0.337247</v>
       </c>
       <c r="C89" t="n">
-        <v>0.309134</v>
+        <v>0.308626</v>
       </c>
       <c r="D89" t="n">
-        <v>0.311823</v>
+        <v>0.312238</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352669</v>
+        <v>0.353109</v>
       </c>
       <c r="C90" t="n">
-        <v>0.318992</v>
+        <v>0.318443</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315638</v>
+        <v>0.315607</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374259</v>
+        <v>0.37495</v>
       </c>
       <c r="C91" t="n">
-        <v>0.332671</v>
+        <v>0.332683</v>
       </c>
       <c r="D91" t="n">
-        <v>0.320819</v>
+        <v>0.321089</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.405395</v>
+        <v>0.407023</v>
       </c>
       <c r="C92" t="n">
-        <v>0.352902</v>
+        <v>0.352469</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329226</v>
+        <v>0.329662</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.449888</v>
+        <v>0.452082</v>
       </c>
       <c r="C93" t="n">
-        <v>0.385442</v>
+        <v>0.384045</v>
       </c>
       <c r="D93" t="n">
-        <v>0.343804</v>
+        <v>0.343917</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.517207</v>
+        <v>0.514279</v>
       </c>
       <c r="C94" t="n">
-        <v>0.453163</v>
+        <v>0.434766</v>
       </c>
       <c r="D94" t="n">
-        <v>0.313505</v>
+        <v>0.313764</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303826</v>
+        <v>0.303392</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295711</v>
+        <v>0.295591</v>
       </c>
       <c r="D95" t="n">
-        <v>0.314253</v>
+        <v>0.311689</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305603</v>
+        <v>0.305296</v>
       </c>
       <c r="C96" t="n">
-        <v>0.293755</v>
+        <v>0.296956</v>
       </c>
       <c r="D96" t="n">
-        <v>0.312328</v>
+        <v>0.312087</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.307952</v>
+        <v>0.307815</v>
       </c>
       <c r="C97" t="n">
-        <v>0.294912</v>
+        <v>0.298579</v>
       </c>
       <c r="D97" t="n">
-        <v>0.313126</v>
+        <v>0.315645</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.312043</v>
+        <v>0.311028</v>
       </c>
       <c r="C98" t="n">
-        <v>0.299966</v>
+        <v>0.300178</v>
       </c>
       <c r="D98" t="n">
-        <v>0.316032</v>
+        <v>0.316061</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315205</v>
+        <v>0.315041</v>
       </c>
       <c r="C99" t="n">
-        <v>0.30209</v>
+        <v>0.297866</v>
       </c>
       <c r="D99" t="n">
-        <v>0.316557</v>
+        <v>0.31627</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320311</v>
+        <v>0.320188</v>
       </c>
       <c r="C100" t="n">
-        <v>0.305488</v>
+        <v>0.300305</v>
       </c>
       <c r="D100" t="n">
-        <v>0.31781</v>
+        <v>0.317704</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.326752</v>
+        <v>0.326937</v>
       </c>
       <c r="C101" t="n">
-        <v>0.309184</v>
+        <v>0.30453</v>
       </c>
       <c r="D101" t="n">
-        <v>0.318642</v>
+        <v>0.316014</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3369</v>
+        <v>0.335143</v>
       </c>
       <c r="C102" t="n">
-        <v>0.314777</v>
+        <v>0.319776</v>
       </c>
       <c r="D102" t="n">
-        <v>0.320823</v>
+        <v>0.321301</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.346621</v>
+        <v>0.346931</v>
       </c>
       <c r="C103" t="n">
-        <v>0.322211</v>
+        <v>0.317299</v>
       </c>
       <c r="D103" t="n">
-        <v>0.322928</v>
+        <v>0.323445</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.362353</v>
+        <v>0.362048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.332585</v>
+        <v>0.33333</v>
       </c>
       <c r="D104" t="n">
-        <v>0.326387</v>
+        <v>0.32677</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.383851</v>
+        <v>0.383664</v>
       </c>
       <c r="C105" t="n">
-        <v>0.348401</v>
+        <v>0.349622</v>
       </c>
       <c r="D105" t="n">
-        <v>0.331825</v>
+        <v>0.332012</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.414516</v>
+        <v>0.415365</v>
       </c>
       <c r="C106" t="n">
-        <v>0.372481</v>
+        <v>0.372638</v>
       </c>
       <c r="D106" t="n">
-        <v>0.34047</v>
+        <v>0.340591</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.461336</v>
+        <v>0.461135</v>
       </c>
       <c r="C107" t="n">
-        <v>0.399794</v>
+        <v>0.421695</v>
       </c>
       <c r="D107" t="n">
-        <v>0.350387</v>
+        <v>0.354249</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.525328</v>
+        <v>0.524051</v>
       </c>
       <c r="C108" t="n">
-        <v>0.456928</v>
+        <v>0.471737</v>
       </c>
       <c r="D108" t="n">
-        <v>0.319985</v>
+        <v>0.319445</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.614582</v>
+        <v>0.608487</v>
       </c>
       <c r="C109" t="n">
-        <v>0.536158</v>
+        <v>0.5278080000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.321153</v>
+        <v>0.32023</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312022</v>
+        <v>0.311148</v>
       </c>
       <c r="C110" t="n">
-        <v>0.316903</v>
+        <v>0.317173</v>
       </c>
       <c r="D110" t="n">
-        <v>0.321828</v>
+        <v>0.321481</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.315132</v>
+        <v>0.314005</v>
       </c>
       <c r="C111" t="n">
-        <v>0.321684</v>
+        <v>0.321484</v>
       </c>
       <c r="D111" t="n">
-        <v>0.322796</v>
+        <v>0.322599</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319006</v>
+        <v>0.317767</v>
       </c>
       <c r="C112" t="n">
-        <v>0.326375</v>
+        <v>0.327119</v>
       </c>
       <c r="D112" t="n">
-        <v>0.324061</v>
+        <v>0.323893</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323637</v>
+        <v>0.323358</v>
       </c>
       <c r="C113" t="n">
-        <v>0.334594</v>
+        <v>0.33563</v>
       </c>
       <c r="D113" t="n">
-        <v>0.32584</v>
+        <v>0.325555</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330119</v>
+        <v>0.329947</v>
       </c>
       <c r="C114" t="n">
-        <v>0.342152</v>
+        <v>0.343854</v>
       </c>
       <c r="D114" t="n">
-        <v>0.328568</v>
+        <v>0.327198</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.33909</v>
+        <v>0.338524</v>
       </c>
       <c r="C115" t="n">
-        <v>0.351296</v>
+        <v>0.353556</v>
       </c>
       <c r="D115" t="n">
-        <v>0.331378</v>
+        <v>0.331413</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.349878</v>
+        <v>0.350312</v>
       </c>
       <c r="C116" t="n">
-        <v>0.36111</v>
+        <v>0.364604</v>
       </c>
       <c r="D116" t="n">
-        <v>0.334953</v>
+        <v>0.335832</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.364755</v>
+        <v>0.365016</v>
       </c>
       <c r="C117" t="n">
-        <v>0.373352</v>
+        <v>0.37665</v>
       </c>
       <c r="D117" t="n">
-        <v>0.339828</v>
+        <v>0.340312</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.385062</v>
+        <v>0.385694</v>
       </c>
       <c r="C118" t="n">
-        <v>0.388303</v>
+        <v>0.389569</v>
       </c>
       <c r="D118" t="n">
-        <v>0.346433</v>
+        <v>0.346349</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.411792</v>
+        <v>0.412991</v>
       </c>
       <c r="C119" t="n">
-        <v>0.407446</v>
+        <v>0.411994</v>
       </c>
       <c r="D119" t="n">
-        <v>0.355392</v>
+        <v>0.357102</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.447941</v>
+        <v>0.449678</v>
       </c>
       <c r="C120" t="n">
-        <v>0.433016</v>
+        <v>0.43925</v>
       </c>
       <c r="D120" t="n">
-        <v>0.367512</v>
+        <v>0.368973</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.498368</v>
+        <v>0.501225</v>
       </c>
       <c r="C121" t="n">
-        <v>0.470577</v>
+        <v>0.473428</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3853</v>
+        <v>0.385267</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.568689</v>
+        <v>0.572682</v>
       </c>
       <c r="C122" t="n">
-        <v>0.527343</v>
+        <v>0.536463</v>
       </c>
       <c r="D122" t="n">
-        <v>0.413551</v>
+        <v>0.415119</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.661598</v>
+        <v>0.66526</v>
       </c>
       <c r="C123" t="n">
-        <v>0.611421</v>
+        <v>0.627034</v>
       </c>
       <c r="D123" t="n">
-        <v>0.351752</v>
+        <v>0.352053</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.343662</v>
+        <v>0.345811</v>
       </c>
       <c r="C124" t="n">
-        <v>0.369673</v>
+        <v>0.374743</v>
       </c>
       <c r="D124" t="n">
-        <v>0.354888</v>
+        <v>0.354496</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34936</v>
+        <v>0.349487</v>
       </c>
       <c r="C125" t="n">
-        <v>0.374658</v>
+        <v>0.379668</v>
       </c>
       <c r="D125" t="n">
-        <v>0.358807</v>
+        <v>0.359519</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.355004</v>
+        <v>0.357203</v>
       </c>
       <c r="C126" t="n">
-        <v>0.379577</v>
+        <v>0.386586</v>
       </c>
       <c r="D126" t="n">
-        <v>0.361067</v>
+        <v>0.36467</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.362751</v>
+        <v>0.365993</v>
       </c>
       <c r="C127" t="n">
-        <v>0.385019</v>
+        <v>0.391836</v>
       </c>
       <c r="D127" t="n">
-        <v>0.366766</v>
+        <v>0.367183</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.370317</v>
+        <v>0.373794</v>
       </c>
       <c r="C128" t="n">
-        <v>0.389858</v>
+        <v>0.398878</v>
       </c>
       <c r="D128" t="n">
-        <v>0.369703</v>
+        <v>0.372807</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.381333</v>
+        <v>0.383454</v>
       </c>
       <c r="C129" t="n">
-        <v>0.399745</v>
+        <v>0.408829</v>
       </c>
       <c r="D129" t="n">
-        <v>0.372335</v>
+        <v>0.374856</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.394173</v>
+        <v>0.39235</v>
       </c>
       <c r="C130" t="n">
-        <v>0.409089</v>
+        <v>0.418564</v>
       </c>
       <c r="D130" t="n">
-        <v>0.379641</v>
+        <v>0.380598</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.408435</v>
+        <v>0.409485</v>
       </c>
       <c r="C131" t="n">
-        <v>0.421083</v>
+        <v>0.428744</v>
       </c>
       <c r="D131" t="n">
-        <v>0.38</v>
+        <v>0.384111</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.426525</v>
+        <v>0.427946</v>
       </c>
       <c r="C132" t="n">
-        <v>0.439004</v>
+        <v>0.448124</v>
       </c>
       <c r="D132" t="n">
-        <v>0.386129</v>
+        <v>0.392315</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.450949</v>
+        <v>0.454924</v>
       </c>
       <c r="C133" t="n">
-        <v>0.459177</v>
+        <v>0.46794</v>
       </c>
       <c r="D133" t="n">
-        <v>0.395884</v>
+        <v>0.399594</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.486929</v>
+        <v>0.491817</v>
       </c>
       <c r="C134" t="n">
-        <v>0.484868</v>
+        <v>0.495226</v>
       </c>
       <c r="D134" t="n">
-        <v>0.408083</v>
+        <v>0.411248</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.53576</v>
+        <v>0.545544</v>
       </c>
       <c r="C135" t="n">
-        <v>0.521363</v>
+        <v>0.534183</v>
       </c>
       <c r="D135" t="n">
-        <v>0.426611</v>
+        <v>0.428746</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.607922</v>
+        <v>0.616106</v>
       </c>
       <c r="C136" t="n">
-        <v>0.583584</v>
+        <v>0.597432</v>
       </c>
       <c r="D136" t="n">
-        <v>0.450029</v>
+        <v>0.458679</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.720611</v>
+        <v>0.730737</v>
       </c>
       <c r="C137" t="n">
-        <v>0.671366</v>
+        <v>0.690909</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5226769999999999</v>
+        <v>0.537293</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.516208</v>
+        <v>0.549208</v>
       </c>
       <c r="C138" t="n">
-        <v>0.54647</v>
+        <v>0.5843120000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.515074</v>
+        <v>0.5432709999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.510816</v>
+        <v>0.55371</v>
       </c>
       <c r="C139" t="n">
-        <v>0.554395</v>
+        <v>0.585811</v>
       </c>
       <c r="D139" t="n">
-        <v>0.516808</v>
+        <v>0.555854</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.528587</v>
+        <v>0.556078</v>
       </c>
       <c r="C140" t="n">
-        <v>0.569619</v>
+        <v>0.590603</v>
       </c>
       <c r="D140" t="n">
-        <v>0.532725</v>
+        <v>0.563686</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.544918</v>
+        <v>0.5702390000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.566994</v>
+        <v>0.601164</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5270359999999999</v>
+        <v>0.551787</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.545994</v>
+        <v>0.5713</v>
       </c>
       <c r="C142" t="n">
-        <v>0.572142</v>
+        <v>0.615111</v>
       </c>
       <c r="D142" t="n">
-        <v>0.540658</v>
+        <v>0.556793</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.558664</v>
+        <v>0.585693</v>
       </c>
       <c r="C143" t="n">
-        <v>0.592562</v>
+        <v>0.609371</v>
       </c>
       <c r="D143" t="n">
-        <v>0.537284</v>
+        <v>0.551354</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.286925</v>
+        <v>0.287038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266098</v>
+        <v>0.266188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276488</v>
+        <v>0.276632</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293128</v>
+        <v>0.293252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268193</v>
+        <v>0.268295</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277648</v>
+        <v>0.277593</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302354</v>
+        <v>0.302687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.274412</v>
+        <v>0.274587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.279799</v>
+        <v>0.27982</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317104</v>
+        <v>0.317256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.284104</v>
+        <v>0.284306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.283953</v>
+        <v>0.28415</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336684</v>
+        <v>0.337093</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296253</v>
+        <v>0.295209</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28854</v>
+        <v>0.288747</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.368248</v>
+        <v>0.36857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.317699</v>
+        <v>0.317563</v>
       </c>
       <c r="D7" t="n">
-        <v>0.298162</v>
+        <v>0.298346</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.41112</v>
+        <v>0.413286</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348225</v>
+        <v>0.347501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314246</v>
+        <v>0.31446</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.458379</v>
+        <v>0.458548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401024</v>
+        <v>0.40257</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273344</v>
+        <v>0.273323</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.270992</v>
+        <v>0.270892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254439</v>
+        <v>0.254714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273306</v>
+        <v>0.273386</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.271937</v>
+        <v>0.271915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254641</v>
+        <v>0.255014</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273419</v>
+        <v>0.273483</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.27406</v>
+        <v>0.274045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256339</v>
+        <v>0.256683</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274111</v>
+        <v>0.274123</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276835</v>
+        <v>0.276788</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257928</v>
+        <v>0.258254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274165</v>
+        <v>0.274222</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279926</v>
+        <v>0.279875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.259257</v>
+        <v>0.259687</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274657</v>
+        <v>0.274723</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284696</v>
+        <v>0.284587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.261827</v>
+        <v>0.26241</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2754</v>
+        <v>0.275413</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289333</v>
+        <v>0.289267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265264</v>
+        <v>0.265539</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276672</v>
+        <v>0.276552</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296412</v>
+        <v>0.296258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.26864</v>
+        <v>0.269021</v>
       </c>
       <c r="D17" t="n">
-        <v>0.277771</v>
+        <v>0.277742</v>
       </c>
     </row>
     <row r="18">
@@ -3472,10 +3472,10 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306379</v>
+        <v>0.306181</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275625</v>
+        <v>0.276052</v>
       </c>
       <c r="D18" t="n">
         <v>0.279935</v>
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318435</v>
+        <v>0.318269</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284694</v>
+        <v>0.285053</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283359</v>
+        <v>0.283357</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337316</v>
+        <v>0.337148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295677</v>
+        <v>0.295954</v>
       </c>
       <c r="D20" t="n">
-        <v>0.28709</v>
+        <v>0.287052</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.365561</v>
+        <v>0.365358</v>
       </c>
       <c r="C21" t="n">
-        <v>0.310781</v>
+        <v>0.310993</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294211</v>
+        <v>0.294106</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404557</v>
+        <v>0.404234</v>
       </c>
       <c r="C22" t="n">
-        <v>0.34096</v>
+        <v>0.35342</v>
       </c>
       <c r="D22" t="n">
-        <v>0.307391</v>
+        <v>0.322657</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458398</v>
+        <v>0.493355</v>
       </c>
       <c r="C23" t="n">
-        <v>0.387466</v>
+        <v>0.405788</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273403</v>
+        <v>0.273816</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.27101</v>
+        <v>0.270998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255643</v>
+        <v>0.255588</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273913</v>
+        <v>0.273905</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272475</v>
+        <v>0.272472</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255817</v>
+        <v>0.25602</v>
       </c>
       <c r="D25" t="n">
-        <v>0.273826</v>
+        <v>0.27392</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274223</v>
+        <v>0.274189</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257</v>
+        <v>0.257075</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274322</v>
+        <v>0.274362</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276301</v>
+        <v>0.27637</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258074</v>
+        <v>0.258118</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274705</v>
+        <v>0.274717</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279606</v>
+        <v>0.279558</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260266</v>
+        <v>0.260105</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275578</v>
+        <v>0.275648</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283244</v>
+        <v>0.283182</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262218</v>
+        <v>0.262089</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276075</v>
+        <v>0.276158</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287735</v>
+        <v>0.287722</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265009</v>
+        <v>0.265396</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276987</v>
+        <v>0.277079</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294519</v>
+        <v>0.294541</v>
       </c>
       <c r="C31" t="n">
-        <v>0.269459</v>
+        <v>0.269618</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278307</v>
+        <v>0.278274</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304958</v>
+        <v>0.304946</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275486</v>
+        <v>0.27576</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280383</v>
+        <v>0.280455</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.318095</v>
+        <v>0.31783</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284628</v>
+        <v>0.284937</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284062</v>
+        <v>0.2842</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.335821</v>
+        <v>0.335804</v>
       </c>
       <c r="C34" t="n">
-        <v>0.296977</v>
+        <v>0.297218</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288474</v>
+        <v>0.288657</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.365348</v>
+        <v>0.362944</v>
       </c>
       <c r="C35" t="n">
-        <v>0.314153</v>
+        <v>0.314032</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296231</v>
+        <v>0.296352</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401178</v>
+        <v>0.401616</v>
       </c>
       <c r="C36" t="n">
-        <v>0.343312</v>
+        <v>0.343066</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308656</v>
+        <v>0.308662</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.450677</v>
+        <v>0.451744</v>
       </c>
       <c r="C37" t="n">
-        <v>0.382392</v>
+        <v>0.382622</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273652</v>
+        <v>0.273746</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.270936</v>
+        <v>0.271014</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256102</v>
+        <v>0.263421</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273918</v>
+        <v>0.273927</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.27245</v>
+        <v>0.272462</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256865</v>
+        <v>0.256861</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274294</v>
+        <v>0.274389</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274107</v>
+        <v>0.274162</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257747</v>
+        <v>0.25769</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274492</v>
+        <v>0.274658</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276203</v>
+        <v>0.276286</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258929</v>
+        <v>0.259013</v>
       </c>
       <c r="D41" t="n">
-        <v>0.27529</v>
+        <v>0.2751</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.27909</v>
+        <v>0.279104</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260782</v>
+        <v>0.260751</v>
       </c>
       <c r="D42" t="n">
-        <v>0.275715</v>
+        <v>0.275716</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283262</v>
+        <v>0.28335</v>
       </c>
       <c r="C43" t="n">
-        <v>0.262793</v>
+        <v>0.262396</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276498</v>
+        <v>0.276542</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288465</v>
+        <v>0.288534</v>
       </c>
       <c r="C44" t="n">
-        <v>0.266245</v>
+        <v>0.266269</v>
       </c>
       <c r="D44" t="n">
-        <v>0.277673</v>
+        <v>0.277615</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295515</v>
+        <v>0.295528</v>
       </c>
       <c r="C45" t="n">
-        <v>0.269708</v>
+        <v>0.269924</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278647</v>
+        <v>0.278943</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304428</v>
+        <v>0.304533</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276207</v>
+        <v>0.276438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28113</v>
+        <v>0.281084</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.316342</v>
+        <v>0.31633</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284455</v>
+        <v>0.284528</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284244</v>
+        <v>0.284204</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.333023</v>
+        <v>0.333056</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294637</v>
+        <v>0.294599</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288512</v>
+        <v>0.288559</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.356924</v>
+        <v>0.356735</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310694</v>
+        <v>0.310835</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295274</v>
+        <v>0.295288</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.392296</v>
+        <v>0.392336</v>
       </c>
       <c r="C50" t="n">
-        <v>0.335666</v>
+        <v>0.335717</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306949</v>
+        <v>0.30682</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440336</v>
+        <v>0.440302</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3758</v>
+        <v>0.37558</v>
       </c>
       <c r="D51" t="n">
-        <v>0.275099</v>
+        <v>0.275756</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.495798</v>
+        <v>0.494883</v>
       </c>
       <c r="C52" t="n">
-        <v>0.428572</v>
+        <v>0.428509</v>
       </c>
       <c r="D52" t="n">
-        <v>0.275579</v>
+        <v>0.275724</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273498</v>
+        <v>0.273422</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258686</v>
+        <v>0.258525</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276148</v>
+        <v>0.276274</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.27562</v>
+        <v>0.275182</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259091</v>
+        <v>0.259388</v>
       </c>
       <c r="D54" t="n">
-        <v>0.276324</v>
+        <v>0.276546</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.27741</v>
+        <v>0.277923</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260221</v>
+        <v>0.260482</v>
       </c>
       <c r="D55" t="n">
-        <v>0.276758</v>
+        <v>0.277105</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280061</v>
+        <v>0.280279</v>
       </c>
       <c r="C56" t="n">
-        <v>0.262575</v>
+        <v>0.262409</v>
       </c>
       <c r="D56" t="n">
-        <v>0.278293</v>
+        <v>0.277964</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.283878</v>
+        <v>0.285066</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265194</v>
+        <v>0.282274</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2789</v>
+        <v>0.279572</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288872</v>
+        <v>0.289247</v>
       </c>
       <c r="C58" t="n">
-        <v>0.267379</v>
+        <v>0.268557</v>
       </c>
       <c r="D58" t="n">
-        <v>0.279584</v>
+        <v>0.281242</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295157</v>
+        <v>0.295886</v>
       </c>
       <c r="C59" t="n">
-        <v>0.271431</v>
+        <v>0.271809</v>
       </c>
       <c r="D59" t="n">
-        <v>0.281283</v>
+        <v>0.281797</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304318</v>
+        <v>0.303487</v>
       </c>
       <c r="C60" t="n">
-        <v>0.275098</v>
+        <v>0.276407</v>
       </c>
       <c r="D60" t="n">
-        <v>0.282268</v>
+        <v>0.28389</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.314882</v>
+        <v>0.315004</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281539</v>
+        <v>0.282484</v>
       </c>
       <c r="D61" t="n">
-        <v>0.284914</v>
+        <v>0.285476</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331398</v>
+        <v>0.332149</v>
       </c>
       <c r="C62" t="n">
-        <v>0.29249</v>
+        <v>0.293102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288405</v>
+        <v>0.288914</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.356009</v>
+        <v>0.354771</v>
       </c>
       <c r="C63" t="n">
-        <v>0.306233</v>
+        <v>0.306767</v>
       </c>
       <c r="D63" t="n">
-        <v>0.294525</v>
+        <v>0.294286</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.386988</v>
+        <v>0.387658</v>
       </c>
       <c r="C64" t="n">
-        <v>0.344226</v>
+        <v>0.330065</v>
       </c>
       <c r="D64" t="n">
-        <v>0.303911</v>
+        <v>0.304424</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.431487</v>
+        <v>0.431915</v>
       </c>
       <c r="C65" t="n">
-        <v>0.364424</v>
+        <v>0.366486</v>
       </c>
       <c r="D65" t="n">
-        <v>0.321192</v>
+        <v>0.322868</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.48791</v>
+        <v>0.487301</v>
       </c>
       <c r="C66" t="n">
-        <v>0.420071</v>
+        <v>0.437648</v>
       </c>
       <c r="D66" t="n">
-        <v>0.288626</v>
+        <v>0.28692</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.280384</v>
+        <v>0.28086</v>
       </c>
       <c r="C67" t="n">
-        <v>0.267802</v>
+        <v>0.270253</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288675</v>
+        <v>0.289077</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.28186</v>
+        <v>0.282702</v>
       </c>
       <c r="C68" t="n">
-        <v>0.268999</v>
+        <v>0.27076</v>
       </c>
       <c r="D68" t="n">
-        <v>0.287815</v>
+        <v>0.288402</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285662</v>
+        <v>0.286253</v>
       </c>
       <c r="C69" t="n">
-        <v>0.271488</v>
+        <v>0.273055</v>
       </c>
       <c r="D69" t="n">
-        <v>0.289683</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.287823</v>
+        <v>0.288216</v>
       </c>
       <c r="C70" t="n">
-        <v>0.272232</v>
+        <v>0.273688</v>
       </c>
       <c r="D70" t="n">
-        <v>0.28909</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.29121</v>
+        <v>0.291503</v>
       </c>
       <c r="C71" t="n">
-        <v>0.27451</v>
+        <v>0.274973</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290175</v>
+        <v>0.289279</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.295821</v>
+        <v>0.296339</v>
       </c>
       <c r="C72" t="n">
-        <v>0.276965</v>
+        <v>0.279375</v>
       </c>
       <c r="D72" t="n">
-        <v>0.290129</v>
+        <v>0.291808</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30369</v>
+        <v>0.303136</v>
       </c>
       <c r="C73" t="n">
-        <v>0.280225</v>
+        <v>0.283003</v>
       </c>
       <c r="D73" t="n">
-        <v>0.290885</v>
+        <v>0.292853</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311397</v>
+        <v>0.311334</v>
       </c>
       <c r="C74" t="n">
-        <v>0.285627</v>
+        <v>0.286154</v>
       </c>
       <c r="D74" t="n">
-        <v>0.294085</v>
+        <v>0.295211</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.325888</v>
+        <v>0.324448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.292064</v>
+        <v>0.29484</v>
       </c>
       <c r="D75" t="n">
-        <v>0.296189</v>
+        <v>0.297556</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.338514</v>
+        <v>0.338693</v>
       </c>
       <c r="C76" t="n">
-        <v>0.302634</v>
+        <v>0.303621</v>
       </c>
       <c r="D76" t="n">
-        <v>0.299686</v>
+        <v>0.300553</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.360212</v>
+        <v>0.362245</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317142</v>
+        <v>0.318095</v>
       </c>
       <c r="D77" t="n">
-        <v>0.305279</v>
+        <v>0.305756</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.395033</v>
+        <v>0.394862</v>
       </c>
       <c r="C78" t="n">
-        <v>0.337664</v>
+        <v>0.340264</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313263</v>
+        <v>0.315648</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.438562</v>
+        <v>0.439469</v>
       </c>
       <c r="C79" t="n">
-        <v>0.370317</v>
+        <v>0.370688</v>
       </c>
       <c r="D79" t="n">
-        <v>0.329387</v>
+        <v>0.329291</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.497285</v>
+        <v>0.497044</v>
       </c>
       <c r="C80" t="n">
-        <v>0.422489</v>
+        <v>0.425697</v>
       </c>
       <c r="D80" t="n">
-        <v>0.303453</v>
+        <v>0.30287</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.293943</v>
+        <v>0.294619</v>
       </c>
       <c r="C81" t="n">
-        <v>0.283101</v>
+        <v>0.283609</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303763</v>
+        <v>0.304155</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.295831</v>
+        <v>0.296639</v>
       </c>
       <c r="C82" t="n">
-        <v>0.285777</v>
+        <v>0.284722</v>
       </c>
       <c r="D82" t="n">
-        <v>0.303888</v>
+        <v>0.304472</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298672</v>
+        <v>0.298631</v>
       </c>
       <c r="C83" t="n">
-        <v>0.28712</v>
+        <v>0.286861</v>
       </c>
       <c r="D83" t="n">
-        <v>0.304891</v>
+        <v>0.304938</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301819</v>
+        <v>0.301918</v>
       </c>
       <c r="C84" t="n">
-        <v>0.289014</v>
+        <v>0.288994</v>
       </c>
       <c r="D84" t="n">
-        <v>0.304839</v>
+        <v>0.304982</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305502</v>
+        <v>0.305645</v>
       </c>
       <c r="C85" t="n">
-        <v>0.290613</v>
+        <v>0.290641</v>
       </c>
       <c r="D85" t="n">
-        <v>0.305007</v>
+        <v>0.305276</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.310575</v>
+        <v>0.310753</v>
       </c>
       <c r="C86" t="n">
-        <v>0.293298</v>
+        <v>0.292901</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306906</v>
+        <v>0.30658</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317267</v>
+        <v>0.317379</v>
       </c>
       <c r="C87" t="n">
-        <v>0.29677</v>
+        <v>0.296956</v>
       </c>
       <c r="D87" t="n">
-        <v>0.308324</v>
+        <v>0.308203</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.325835</v>
+        <v>0.326464</v>
       </c>
       <c r="C88" t="n">
-        <v>0.301839</v>
+        <v>0.301992</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309511</v>
+        <v>0.309762</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337247</v>
+        <v>0.337272</v>
       </c>
       <c r="C89" t="n">
-        <v>0.308626</v>
+        <v>0.309098</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312238</v>
+        <v>0.312302</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353109</v>
+        <v>0.35231</v>
       </c>
       <c r="C90" t="n">
-        <v>0.318443</v>
+        <v>0.318769</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315607</v>
+        <v>0.315071</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37495</v>
+        <v>0.373881</v>
       </c>
       <c r="C91" t="n">
-        <v>0.332683</v>
+        <v>0.332934</v>
       </c>
       <c r="D91" t="n">
-        <v>0.321089</v>
+        <v>0.320905</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.407023</v>
+        <v>0.40507</v>
       </c>
       <c r="C92" t="n">
-        <v>0.352469</v>
+        <v>0.353297</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329662</v>
+        <v>0.329946</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.452082</v>
+        <v>0.449724</v>
       </c>
       <c r="C93" t="n">
-        <v>0.384045</v>
+        <v>0.385788</v>
       </c>
       <c r="D93" t="n">
-        <v>0.343917</v>
+        <v>0.343957</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.514279</v>
+        <v>0.510131</v>
       </c>
       <c r="C94" t="n">
-        <v>0.434766</v>
+        <v>0.433705</v>
       </c>
       <c r="D94" t="n">
-        <v>0.313764</v>
+        <v>0.313969</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303392</v>
+        <v>0.303841</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295591</v>
+        <v>0.295806</v>
       </c>
       <c r="D95" t="n">
-        <v>0.311689</v>
+        <v>0.314121</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305296</v>
+        <v>0.305678</v>
       </c>
       <c r="C96" t="n">
-        <v>0.296956</v>
+        <v>0.296965</v>
       </c>
       <c r="D96" t="n">
-        <v>0.312087</v>
+        <v>0.314662</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.307815</v>
+        <v>0.308097</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298579</v>
+        <v>0.298802</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315645</v>
+        <v>0.315408</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311028</v>
+        <v>0.311326</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300178</v>
+        <v>0.300189</v>
       </c>
       <c r="D98" t="n">
-        <v>0.316061</v>
+        <v>0.315834</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315041</v>
+        <v>0.315124</v>
       </c>
       <c r="C99" t="n">
-        <v>0.297866</v>
+        <v>0.302287</v>
       </c>
       <c r="D99" t="n">
-        <v>0.31627</v>
+        <v>0.316955</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320188</v>
+        <v>0.320509</v>
       </c>
       <c r="C100" t="n">
-        <v>0.300305</v>
+        <v>0.301257</v>
       </c>
       <c r="D100" t="n">
-        <v>0.317704</v>
+        <v>0.314989</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.326937</v>
+        <v>0.326904</v>
       </c>
       <c r="C101" t="n">
-        <v>0.30453</v>
+        <v>0.309202</v>
       </c>
       <c r="D101" t="n">
-        <v>0.316014</v>
+        <v>0.319196</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.335143</v>
+        <v>0.335621</v>
       </c>
       <c r="C102" t="n">
-        <v>0.319776</v>
+        <v>0.315181</v>
       </c>
       <c r="D102" t="n">
-        <v>0.321301</v>
+        <v>0.32074</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.346931</v>
+        <v>0.346824</v>
       </c>
       <c r="C103" t="n">
-        <v>0.317299</v>
+        <v>0.322702</v>
       </c>
       <c r="D103" t="n">
-        <v>0.323445</v>
+        <v>0.320041</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.362048</v>
+        <v>0.362489</v>
       </c>
       <c r="C104" t="n">
-        <v>0.33333</v>
+        <v>0.333415</v>
       </c>
       <c r="D104" t="n">
-        <v>0.32677</v>
+        <v>0.326948</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.383664</v>
+        <v>0.384158</v>
       </c>
       <c r="C105" t="n">
-        <v>0.349622</v>
+        <v>0.348633</v>
       </c>
       <c r="D105" t="n">
-        <v>0.332012</v>
+        <v>0.332032</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.415365</v>
+        <v>0.415236</v>
       </c>
       <c r="C106" t="n">
-        <v>0.372638</v>
+        <v>0.370756</v>
       </c>
       <c r="D106" t="n">
-        <v>0.340591</v>
+        <v>0.340193</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.461135</v>
+        <v>0.460489</v>
       </c>
       <c r="C107" t="n">
-        <v>0.421695</v>
+        <v>0.399486</v>
       </c>
       <c r="D107" t="n">
-        <v>0.354249</v>
+        <v>0.349986</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.524051</v>
+        <v>0.524024</v>
       </c>
       <c r="C108" t="n">
-        <v>0.471737</v>
+        <v>0.450653</v>
       </c>
       <c r="D108" t="n">
-        <v>0.319445</v>
+        <v>0.319798</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.608487</v>
+        <v>0.612738</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5278080000000001</v>
+        <v>0.525582</v>
       </c>
       <c r="D109" t="n">
-        <v>0.32023</v>
+        <v>0.320693</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.311148</v>
+        <v>0.311792</v>
       </c>
       <c r="C110" t="n">
-        <v>0.317173</v>
+        <v>0.316722</v>
       </c>
       <c r="D110" t="n">
-        <v>0.321481</v>
+        <v>0.321373</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314005</v>
+        <v>0.314565</v>
       </c>
       <c r="C111" t="n">
-        <v>0.321484</v>
+        <v>0.319777</v>
       </c>
       <c r="D111" t="n">
-        <v>0.322599</v>
+        <v>0.32264</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.317767</v>
+        <v>0.31825</v>
       </c>
       <c r="C112" t="n">
-        <v>0.327119</v>
+        <v>0.327267</v>
       </c>
       <c r="D112" t="n">
-        <v>0.323893</v>
+        <v>0.323819</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323358</v>
+        <v>0.323751</v>
       </c>
       <c r="C113" t="n">
-        <v>0.33563</v>
+        <v>0.334248</v>
       </c>
       <c r="D113" t="n">
-        <v>0.325555</v>
+        <v>0.325217</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329947</v>
+        <v>0.330127</v>
       </c>
       <c r="C114" t="n">
-        <v>0.343854</v>
+        <v>0.340247</v>
       </c>
       <c r="D114" t="n">
-        <v>0.327198</v>
+        <v>0.328336</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.338524</v>
+        <v>0.337925</v>
       </c>
       <c r="C115" t="n">
-        <v>0.353556</v>
+        <v>0.348721</v>
       </c>
       <c r="D115" t="n">
-        <v>0.331413</v>
+        <v>0.330826</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.350312</v>
+        <v>0.34992</v>
       </c>
       <c r="C116" t="n">
-        <v>0.364604</v>
+        <v>0.361136</v>
       </c>
       <c r="D116" t="n">
-        <v>0.335832</v>
+        <v>0.33455</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.365016</v>
+        <v>0.36441</v>
       </c>
       <c r="C117" t="n">
-        <v>0.37665</v>
+        <v>0.37271</v>
       </c>
       <c r="D117" t="n">
-        <v>0.340312</v>
+        <v>0.338874</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.385694</v>
+        <v>0.384734</v>
       </c>
       <c r="C118" t="n">
-        <v>0.389569</v>
+        <v>0.38766</v>
       </c>
       <c r="D118" t="n">
-        <v>0.346349</v>
+        <v>0.346168</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.412991</v>
+        <v>0.411099</v>
       </c>
       <c r="C119" t="n">
-        <v>0.411994</v>
+        <v>0.406708</v>
       </c>
       <c r="D119" t="n">
-        <v>0.357102</v>
+        <v>0.353675</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.449678</v>
+        <v>0.447297</v>
       </c>
       <c r="C120" t="n">
-        <v>0.43925</v>
+        <v>0.430292</v>
       </c>
       <c r="D120" t="n">
-        <v>0.368973</v>
+        <v>0.365514</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.501225</v>
+        <v>0.497985</v>
       </c>
       <c r="C121" t="n">
-        <v>0.473428</v>
+        <v>0.466789</v>
       </c>
       <c r="D121" t="n">
-        <v>0.385267</v>
+        <v>0.384572</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.572682</v>
+        <v>0.568042</v>
       </c>
       <c r="C122" t="n">
-        <v>0.536463</v>
+        <v>0.527765</v>
       </c>
       <c r="D122" t="n">
-        <v>0.415119</v>
+        <v>0.416419</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.66526</v>
+        <v>0.659264</v>
       </c>
       <c r="C123" t="n">
-        <v>0.627034</v>
+        <v>0.616058</v>
       </c>
       <c r="D123" t="n">
-        <v>0.352053</v>
+        <v>0.351023</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345811</v>
+        <v>0.343062</v>
       </c>
       <c r="C124" t="n">
-        <v>0.374743</v>
+        <v>0.372263</v>
       </c>
       <c r="D124" t="n">
-        <v>0.354496</v>
+        <v>0.356404</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349487</v>
+        <v>0.352494</v>
       </c>
       <c r="C125" t="n">
-        <v>0.379668</v>
+        <v>0.373374</v>
       </c>
       <c r="D125" t="n">
-        <v>0.359519</v>
+        <v>0.357342</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.357203</v>
+        <v>0.354607</v>
       </c>
       <c r="C126" t="n">
-        <v>0.386586</v>
+        <v>0.377454</v>
       </c>
       <c r="D126" t="n">
-        <v>0.36467</v>
+        <v>0.362026</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.365993</v>
+        <v>0.363506</v>
       </c>
       <c r="C127" t="n">
-        <v>0.391836</v>
+        <v>0.385146</v>
       </c>
       <c r="D127" t="n">
-        <v>0.367183</v>
+        <v>0.3645</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373794</v>
+        <v>0.369448</v>
       </c>
       <c r="C128" t="n">
-        <v>0.398878</v>
+        <v>0.392844</v>
       </c>
       <c r="D128" t="n">
-        <v>0.372807</v>
+        <v>0.36857</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383454</v>
+        <v>0.384425</v>
       </c>
       <c r="C129" t="n">
-        <v>0.408829</v>
+        <v>0.398183</v>
       </c>
       <c r="D129" t="n">
-        <v>0.374856</v>
+        <v>0.376428</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.39235</v>
+        <v>0.392855</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418564</v>
+        <v>0.407643</v>
       </c>
       <c r="D130" t="n">
-        <v>0.380598</v>
+        <v>0.374886</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.409485</v>
+        <v>0.406707</v>
       </c>
       <c r="C131" t="n">
-        <v>0.428744</v>
+        <v>0.420561</v>
       </c>
       <c r="D131" t="n">
-        <v>0.384111</v>
+        <v>0.383276</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.427946</v>
+        <v>0.425921</v>
       </c>
       <c r="C132" t="n">
-        <v>0.448124</v>
+        <v>0.434581</v>
       </c>
       <c r="D132" t="n">
-        <v>0.392315</v>
+        <v>0.387955</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.454924</v>
+        <v>0.452304</v>
       </c>
       <c r="C133" t="n">
-        <v>0.46794</v>
+        <v>0.4572</v>
       </c>
       <c r="D133" t="n">
-        <v>0.399594</v>
+        <v>0.398059</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.491817</v>
+        <v>0.489381</v>
       </c>
       <c r="C134" t="n">
-        <v>0.495226</v>
+        <v>0.484005</v>
       </c>
       <c r="D134" t="n">
-        <v>0.411248</v>
+        <v>0.408541</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.545544</v>
+        <v>0.535819</v>
       </c>
       <c r="C135" t="n">
-        <v>0.534183</v>
+        <v>0.524439</v>
       </c>
       <c r="D135" t="n">
-        <v>0.428746</v>
+        <v>0.426063</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.616106</v>
+        <v>0.607203</v>
       </c>
       <c r="C136" t="n">
-        <v>0.597432</v>
+        <v>0.579895</v>
       </c>
       <c r="D136" t="n">
-        <v>0.458679</v>
+        <v>0.452068</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.730737</v>
+        <v>0.717515</v>
       </c>
       <c r="C137" t="n">
-        <v>0.690909</v>
+        <v>0.675075</v>
       </c>
       <c r="D137" t="n">
-        <v>0.537293</v>
+        <v>0.51417</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.549208</v>
+        <v>0.5064419999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5843120000000001</v>
+        <v>0.552547</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5432709999999999</v>
+        <v>0.531189</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.55371</v>
+        <v>0.527773</v>
       </c>
       <c r="C139" t="n">
-        <v>0.585811</v>
+        <v>0.551717</v>
       </c>
       <c r="D139" t="n">
-        <v>0.555854</v>
+        <v>0.529031</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.556078</v>
+        <v>0.536191</v>
       </c>
       <c r="C140" t="n">
-        <v>0.590603</v>
+        <v>0.572736</v>
       </c>
       <c r="D140" t="n">
-        <v>0.563686</v>
+        <v>0.53611</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5702390000000001</v>
+        <v>0.542366</v>
       </c>
       <c r="C141" t="n">
-        <v>0.601164</v>
+        <v>0.5780149999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.551787</v>
+        <v>0.529459</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5713</v>
+        <v>0.546391</v>
       </c>
       <c r="C142" t="n">
-        <v>0.615111</v>
+        <v>0.588367</v>
       </c>
       <c r="D142" t="n">
-        <v>0.556793</v>
+        <v>0.549096</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.585693</v>
+        <v>0.560508</v>
       </c>
       <c r="C143" t="n">
-        <v>0.609371</v>
+        <v>0.597126</v>
       </c>
       <c r="D143" t="n">
-        <v>0.551354</v>
+        <v>0.5381629999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.287038</v>
+        <v>0.286955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266188</v>
+        <v>0.266204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276632</v>
+        <v>0.276792</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293252</v>
+        <v>0.2933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268295</v>
+        <v>0.268559</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277593</v>
+        <v>0.277568</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302687</v>
+        <v>0.302586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.274587</v>
+        <v>0.274609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27982</v>
+        <v>0.279905</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317256</v>
+        <v>0.317248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.284306</v>
+        <v>0.284402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28415</v>
+        <v>0.284152</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337093</v>
+        <v>0.336731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295209</v>
+        <v>0.295176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.288747</v>
+        <v>0.288672</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.36857</v>
+        <v>0.368412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.317563</v>
+        <v>0.317732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.298346</v>
+        <v>0.298365</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.413286</v>
+        <v>0.411719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347501</v>
+        <v>0.347372</v>
       </c>
       <c r="D8" t="n">
-        <v>0.31446</v>
+        <v>0.314396</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.458548</v>
+        <v>0.458497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.40257</v>
+        <v>0.401639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273323</v>
+        <v>0.273324</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.270892</v>
+        <v>0.271018</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254714</v>
+        <v>0.254442</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273386</v>
+        <v>0.273389</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.271915</v>
+        <v>0.27207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.255014</v>
+        <v>0.254593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273483</v>
+        <v>0.273429</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274045</v>
+        <v>0.274099</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256683</v>
+        <v>0.256339</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274123</v>
+        <v>0.274198</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276788</v>
+        <v>0.276864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.258254</v>
+        <v>0.257863</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274222</v>
+        <v>0.274178</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279875</v>
+        <v>0.279945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.259687</v>
+        <v>0.259305</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274723</v>
+        <v>0.27469</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284587</v>
+        <v>0.284667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.26241</v>
+        <v>0.262005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275413</v>
+        <v>0.275455</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289267</v>
+        <v>0.289317</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265539</v>
+        <v>0.265231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276552</v>
+        <v>0.27662</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296258</v>
+        <v>0.296281</v>
       </c>
       <c r="C17" t="n">
-        <v>0.269021</v>
+        <v>0.268643</v>
       </c>
       <c r="D17" t="n">
-        <v>0.277742</v>
+        <v>0.277751</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306181</v>
+        <v>0.30624</v>
       </c>
       <c r="C18" t="n">
-        <v>0.276052</v>
+        <v>0.275573</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279935</v>
+        <v>0.279945</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318269</v>
+        <v>0.31836</v>
       </c>
       <c r="C19" t="n">
-        <v>0.285053</v>
+        <v>0.284691</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283357</v>
+        <v>0.283334</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337148</v>
+        <v>0.33715</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295954</v>
+        <v>0.295515</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287052</v>
+        <v>0.287095</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.365358</v>
+        <v>0.365312</v>
       </c>
       <c r="C21" t="n">
-        <v>0.310993</v>
+        <v>0.310599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294106</v>
+        <v>0.294201</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404234</v>
+        <v>0.404585</v>
       </c>
       <c r="C22" t="n">
-        <v>0.35342</v>
+        <v>0.340686</v>
       </c>
       <c r="D22" t="n">
-        <v>0.322657</v>
+        <v>0.307388</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.493355</v>
+        <v>0.459529</v>
       </c>
       <c r="C23" t="n">
-        <v>0.405788</v>
+        <v>0.387297</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273816</v>
+        <v>0.273557</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.270998</v>
+        <v>0.271151</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255588</v>
+        <v>0.255822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273905</v>
+        <v>0.27396</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272472</v>
+        <v>0.272555</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25602</v>
+        <v>0.255908</v>
       </c>
       <c r="D25" t="n">
-        <v>0.27392</v>
+        <v>0.273988</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274189</v>
+        <v>0.274334</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257075</v>
+        <v>0.257185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274362</v>
+        <v>0.27441</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.27637</v>
+        <v>0.276421</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258118</v>
+        <v>0.258121</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274717</v>
+        <v>0.274736</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279558</v>
+        <v>0.279576</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260105</v>
+        <v>0.260114</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275648</v>
+        <v>0.27564</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283182</v>
+        <v>0.283178</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262089</v>
+        <v>0.261719</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276158</v>
+        <v>0.276145</v>
       </c>
     </row>
     <row r="30">
@@ -3643,10 +3643,10 @@
         <v>0.287722</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265396</v>
+        <v>0.265079</v>
       </c>
       <c r="D30" t="n">
-        <v>0.277079</v>
+        <v>0.277104</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294541</v>
+        <v>0.294511</v>
       </c>
       <c r="C31" t="n">
-        <v>0.269618</v>
+        <v>0.269666</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278274</v>
+        <v>0.278304</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304946</v>
+        <v>0.30485</v>
       </c>
       <c r="C32" t="n">
-        <v>0.27576</v>
+        <v>0.275657</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280455</v>
+        <v>0.280545</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.31783</v>
+        <v>0.317564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284937</v>
+        <v>0.284906</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2842</v>
+        <v>0.284076</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.335804</v>
+        <v>0.335565</v>
       </c>
       <c r="C34" t="n">
-        <v>0.297218</v>
+        <v>0.29723</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288657</v>
+        <v>0.288575</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.362944</v>
+        <v>0.362688</v>
       </c>
       <c r="C35" t="n">
-        <v>0.314032</v>
+        <v>0.314076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296352</v>
+        <v>0.296303</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401616</v>
+        <v>0.401171</v>
       </c>
       <c r="C36" t="n">
-        <v>0.343066</v>
+        <v>0.361449</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308662</v>
+        <v>0.324026</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.451744</v>
+        <v>0.451006</v>
       </c>
       <c r="C37" t="n">
-        <v>0.382622</v>
+        <v>0.382485</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273746</v>
+        <v>0.273761</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271014</v>
+        <v>0.271029</v>
       </c>
       <c r="C38" t="n">
-        <v>0.263421</v>
+        <v>0.256116</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273927</v>
+        <v>0.274021</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.272462</v>
+        <v>0.272472</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256861</v>
+        <v>0.256866</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274389</v>
+        <v>0.274517</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274162</v>
+        <v>0.274193</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25769</v>
+        <v>0.257779</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274658</v>
+        <v>0.274701</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276286</v>
+        <v>0.276214</v>
       </c>
       <c r="C41" t="n">
-        <v>0.259013</v>
+        <v>0.258947</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2751</v>
+        <v>0.275217</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279104</v>
+        <v>0.279083</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260751</v>
+        <v>0.260851</v>
       </c>
       <c r="D42" t="n">
-        <v>0.275716</v>
+        <v>0.275982</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.28335</v>
+        <v>0.283306</v>
       </c>
       <c r="C43" t="n">
-        <v>0.262396</v>
+        <v>0.262873</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276542</v>
+        <v>0.276672</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288534</v>
+        <v>0.288502</v>
       </c>
       <c r="C44" t="n">
-        <v>0.266269</v>
+        <v>0.266313</v>
       </c>
       <c r="D44" t="n">
-        <v>0.277615</v>
+        <v>0.277716</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295528</v>
+        <v>0.295451</v>
       </c>
       <c r="C45" t="n">
-        <v>0.269924</v>
+        <v>0.269964</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278943</v>
+        <v>0.278971</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304533</v>
+        <v>0.304453</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276438</v>
+        <v>0.276349</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281084</v>
+        <v>0.281039</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.31633</v>
+        <v>0.316035</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284528</v>
+        <v>0.284516</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284204</v>
+        <v>0.284258</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.333056</v>
+        <v>0.33271</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294599</v>
+        <v>0.294922</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288559</v>
+        <v>0.288672</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.356735</v>
+        <v>0.35615</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310835</v>
+        <v>0.329491</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295288</v>
+        <v>0.29527</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.392336</v>
+        <v>0.392402</v>
       </c>
       <c r="C50" t="n">
-        <v>0.335717</v>
+        <v>0.335571</v>
       </c>
       <c r="D50" t="n">
-        <v>0.30682</v>
+        <v>0.306838</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440302</v>
+        <v>0.439029</v>
       </c>
       <c r="C51" t="n">
-        <v>0.37558</v>
+        <v>0.3919</v>
       </c>
       <c r="D51" t="n">
-        <v>0.275756</v>
+        <v>0.275352</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.494883</v>
+        <v>0.49515</v>
       </c>
       <c r="C52" t="n">
-        <v>0.428509</v>
+        <v>0.428403</v>
       </c>
       <c r="D52" t="n">
-        <v>0.275724</v>
+        <v>0.275638</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273422</v>
+        <v>0.273611</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258525</v>
+        <v>0.27299</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276274</v>
+        <v>0.276142</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.275182</v>
+        <v>0.275949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259388</v>
+        <v>0.259179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.276546</v>
+        <v>0.276599</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.277923</v>
+        <v>0.278114</v>
       </c>
       <c r="C55" t="n">
-        <v>0.260482</v>
+        <v>0.268394</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277105</v>
+        <v>0.277222</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280279</v>
+        <v>0.280166</v>
       </c>
       <c r="C56" t="n">
-        <v>0.262409</v>
+        <v>0.262964</v>
       </c>
       <c r="D56" t="n">
-        <v>0.277964</v>
+        <v>0.27872</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285066</v>
+        <v>0.284068</v>
       </c>
       <c r="C57" t="n">
-        <v>0.282274</v>
+        <v>0.279772</v>
       </c>
       <c r="D57" t="n">
-        <v>0.279572</v>
+        <v>0.278739</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289247</v>
+        <v>0.288789</v>
       </c>
       <c r="C58" t="n">
-        <v>0.268557</v>
+        <v>0.267115</v>
       </c>
       <c r="D58" t="n">
-        <v>0.281242</v>
+        <v>0.279993</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295886</v>
+        <v>0.295056</v>
       </c>
       <c r="C59" t="n">
-        <v>0.271809</v>
+        <v>0.270521</v>
       </c>
       <c r="D59" t="n">
-        <v>0.281797</v>
+        <v>0.280858</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303487</v>
+        <v>0.308255</v>
       </c>
       <c r="C60" t="n">
-        <v>0.276407</v>
+        <v>0.275639</v>
       </c>
       <c r="D60" t="n">
-        <v>0.28389</v>
+        <v>0.282803</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.315004</v>
+        <v>0.3149</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282484</v>
+        <v>0.282534</v>
       </c>
       <c r="D61" t="n">
-        <v>0.285476</v>
+        <v>0.285257</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332149</v>
+        <v>0.331078</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293102</v>
+        <v>0.292436</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288914</v>
+        <v>0.288467</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.354771</v>
+        <v>0.354843</v>
       </c>
       <c r="C63" t="n">
-        <v>0.306767</v>
+        <v>0.306249</v>
       </c>
       <c r="D63" t="n">
-        <v>0.294286</v>
+        <v>0.294172</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.387658</v>
+        <v>0.386526</v>
       </c>
       <c r="C64" t="n">
-        <v>0.330065</v>
+        <v>0.347561</v>
       </c>
       <c r="D64" t="n">
-        <v>0.304424</v>
+        <v>0.303571</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.431915</v>
+        <v>0.430371</v>
       </c>
       <c r="C65" t="n">
-        <v>0.366486</v>
+        <v>0.375415</v>
       </c>
       <c r="D65" t="n">
-        <v>0.322868</v>
+        <v>0.321211</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.487301</v>
+        <v>0.485098</v>
       </c>
       <c r="C66" t="n">
-        <v>0.437648</v>
+        <v>0.419657</v>
       </c>
       <c r="D66" t="n">
-        <v>0.28692</v>
+        <v>0.288751</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.28086</v>
+        <v>0.28029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.270253</v>
+        <v>0.269866</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289077</v>
+        <v>0.289973</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282702</v>
+        <v>0.28261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27076</v>
+        <v>0.270372</v>
       </c>
       <c r="D68" t="n">
-        <v>0.288402</v>
+        <v>0.287898</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.286253</v>
+        <v>0.286398</v>
       </c>
       <c r="C69" t="n">
-        <v>0.273055</v>
+        <v>0.271879</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2912</v>
+        <v>0.289534</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.288216</v>
+        <v>0.287631</v>
       </c>
       <c r="C70" t="n">
-        <v>0.273688</v>
+        <v>0.273465</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2905</v>
+        <v>0.290594</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291503</v>
+        <v>0.292833</v>
       </c>
       <c r="C71" t="n">
-        <v>0.274973</v>
+        <v>0.276616</v>
       </c>
       <c r="D71" t="n">
-        <v>0.289279</v>
+        <v>0.292055</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296339</v>
+        <v>0.297325</v>
       </c>
       <c r="C72" t="n">
-        <v>0.279375</v>
+        <v>0.277656</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291808</v>
+        <v>0.292744</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303136</v>
+        <v>0.303284</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283003</v>
+        <v>0.282456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292853</v>
+        <v>0.292591</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311334</v>
+        <v>0.312253</v>
       </c>
       <c r="C74" t="n">
-        <v>0.286154</v>
+        <v>0.28678</v>
       </c>
       <c r="D74" t="n">
-        <v>0.295211</v>
+        <v>0.295913</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324448</v>
+        <v>0.324014</v>
       </c>
       <c r="C75" t="n">
-        <v>0.29484</v>
+        <v>0.293807</v>
       </c>
       <c r="D75" t="n">
-        <v>0.297556</v>
+        <v>0.296972</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.338693</v>
+        <v>0.339001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.303621</v>
+        <v>0.304693</v>
       </c>
       <c r="D76" t="n">
-        <v>0.300553</v>
+        <v>0.302162</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.362245</v>
+        <v>0.363988</v>
       </c>
       <c r="C77" t="n">
-        <v>0.318095</v>
+        <v>0.318981</v>
       </c>
       <c r="D77" t="n">
-        <v>0.305756</v>
+        <v>0.30602</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.394862</v>
+        <v>0.393589</v>
       </c>
       <c r="C78" t="n">
-        <v>0.340264</v>
+        <v>0.340587</v>
       </c>
       <c r="D78" t="n">
-        <v>0.315648</v>
+        <v>0.316702</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.439469</v>
+        <v>0.439095</v>
       </c>
       <c r="C79" t="n">
-        <v>0.370688</v>
+        <v>0.372741</v>
       </c>
       <c r="D79" t="n">
-        <v>0.329291</v>
+        <v>0.330093</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.497044</v>
+        <v>0.496992</v>
       </c>
       <c r="C80" t="n">
-        <v>0.425697</v>
+        <v>0.423819</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30287</v>
+        <v>0.303293</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294619</v>
+        <v>0.294543</v>
       </c>
       <c r="C81" t="n">
-        <v>0.283609</v>
+        <v>0.284771</v>
       </c>
       <c r="D81" t="n">
-        <v>0.304155</v>
+        <v>0.3035</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296639</v>
+        <v>0.296207</v>
       </c>
       <c r="C82" t="n">
-        <v>0.284722</v>
+        <v>0.286138</v>
       </c>
       <c r="D82" t="n">
-        <v>0.304472</v>
+        <v>0.303966</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298631</v>
+        <v>0.29883</v>
       </c>
       <c r="C83" t="n">
-        <v>0.286861</v>
+        <v>0.287014</v>
       </c>
       <c r="D83" t="n">
-        <v>0.304938</v>
+        <v>0.304367</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301918</v>
+        <v>0.302266</v>
       </c>
       <c r="C84" t="n">
-        <v>0.288994</v>
+        <v>0.289031</v>
       </c>
       <c r="D84" t="n">
-        <v>0.304982</v>
+        <v>0.304969</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305645</v>
+        <v>0.305825</v>
       </c>
       <c r="C85" t="n">
-        <v>0.290641</v>
+        <v>0.290781</v>
       </c>
       <c r="D85" t="n">
-        <v>0.305276</v>
+        <v>0.305743</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.310753</v>
+        <v>0.310722</v>
       </c>
       <c r="C86" t="n">
-        <v>0.292901</v>
+        <v>0.293192</v>
       </c>
       <c r="D86" t="n">
-        <v>0.30658</v>
+        <v>0.306774</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317379</v>
+        <v>0.317186</v>
       </c>
       <c r="C87" t="n">
-        <v>0.296956</v>
+        <v>0.297374</v>
       </c>
       <c r="D87" t="n">
-        <v>0.308203</v>
+        <v>0.307869</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.326464</v>
+        <v>0.32563</v>
       </c>
       <c r="C88" t="n">
-        <v>0.301992</v>
+        <v>0.302274</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309762</v>
+        <v>0.309519</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337272</v>
+        <v>0.337395</v>
       </c>
       <c r="C89" t="n">
-        <v>0.309098</v>
+        <v>0.312851</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312302</v>
+        <v>0.31205</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35231</v>
+        <v>0.352502</v>
       </c>
       <c r="C90" t="n">
-        <v>0.318769</v>
+        <v>0.319363</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315071</v>
+        <v>0.315705</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373881</v>
+        <v>0.374095</v>
       </c>
       <c r="C91" t="n">
-        <v>0.332934</v>
+        <v>0.332527</v>
       </c>
       <c r="D91" t="n">
-        <v>0.320905</v>
+        <v>0.320379</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.40507</v>
+        <v>0.40523</v>
       </c>
       <c r="C92" t="n">
-        <v>0.353297</v>
+        <v>0.353231</v>
       </c>
       <c r="D92" t="n">
-        <v>0.329946</v>
+        <v>0.330026</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.449724</v>
+        <v>0.450248</v>
       </c>
       <c r="C93" t="n">
-        <v>0.385788</v>
+        <v>0.399424</v>
       </c>
       <c r="D93" t="n">
-        <v>0.343957</v>
+        <v>0.344191</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.510131</v>
+        <v>0.50836</v>
       </c>
       <c r="C94" t="n">
-        <v>0.433705</v>
+        <v>0.432195</v>
       </c>
       <c r="D94" t="n">
-        <v>0.313969</v>
+        <v>0.313319</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303841</v>
+        <v>0.303907</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295806</v>
+        <v>0.295888</v>
       </c>
       <c r="D95" t="n">
-        <v>0.314121</v>
+        <v>0.314112</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305678</v>
+        <v>0.305845</v>
       </c>
       <c r="C96" t="n">
-        <v>0.296965</v>
+        <v>0.29682</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314662</v>
+        <v>0.312317</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308097</v>
+        <v>0.307982</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298802</v>
+        <v>0.298397</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315408</v>
+        <v>0.315465</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311326</v>
+        <v>0.311372</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300189</v>
+        <v>0.297279</v>
       </c>
       <c r="D98" t="n">
-        <v>0.315834</v>
+        <v>0.313856</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315124</v>
+        <v>0.315334</v>
       </c>
       <c r="C99" t="n">
-        <v>0.302287</v>
+        <v>0.302749</v>
       </c>
       <c r="D99" t="n">
-        <v>0.316955</v>
+        <v>0.316589</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320509</v>
+        <v>0.320513</v>
       </c>
       <c r="C100" t="n">
-        <v>0.301257</v>
+        <v>0.306281</v>
       </c>
       <c r="D100" t="n">
-        <v>0.314989</v>
+        <v>0.314746</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.326904</v>
+        <v>0.327175</v>
       </c>
       <c r="C101" t="n">
-        <v>0.309202</v>
+        <v>0.310201</v>
       </c>
       <c r="D101" t="n">
-        <v>0.319196</v>
+        <v>0.319092</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.335621</v>
+        <v>0.336392</v>
       </c>
       <c r="C102" t="n">
-        <v>0.315181</v>
+        <v>0.315155</v>
       </c>
       <c r="D102" t="n">
-        <v>0.32074</v>
+        <v>0.321023</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.346824</v>
+        <v>0.347349</v>
       </c>
       <c r="C103" t="n">
-        <v>0.322702</v>
+        <v>0.322968</v>
       </c>
       <c r="D103" t="n">
-        <v>0.320041</v>
+        <v>0.323257</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.362489</v>
+        <v>0.362677</v>
       </c>
       <c r="C104" t="n">
-        <v>0.333415</v>
+        <v>0.333855</v>
       </c>
       <c r="D104" t="n">
-        <v>0.326948</v>
+        <v>0.32698</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.384158</v>
+        <v>0.383931</v>
       </c>
       <c r="C105" t="n">
-        <v>0.348633</v>
+        <v>0.348482</v>
       </c>
       <c r="D105" t="n">
-        <v>0.332032</v>
+        <v>0.332086</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.415236</v>
+        <v>0.415482</v>
       </c>
       <c r="C106" t="n">
-        <v>0.370756</v>
+        <v>0.371618</v>
       </c>
       <c r="D106" t="n">
-        <v>0.340193</v>
+        <v>0.340068</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.460489</v>
+        <v>0.460262</v>
       </c>
       <c r="C107" t="n">
-        <v>0.399486</v>
+        <v>0.399323</v>
       </c>
       <c r="D107" t="n">
-        <v>0.349986</v>
+        <v>0.350343</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.524024</v>
+        <v>0.523889</v>
       </c>
       <c r="C108" t="n">
-        <v>0.450653</v>
+        <v>0.450338</v>
       </c>
       <c r="D108" t="n">
-        <v>0.319798</v>
+        <v>0.319976</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.612738</v>
+        <v>0.6034080000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.525582</v>
+        <v>0.527513</v>
       </c>
       <c r="D109" t="n">
-        <v>0.320693</v>
+        <v>0.320665</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.311792</v>
+        <v>0.311347</v>
       </c>
       <c r="C110" t="n">
-        <v>0.316722</v>
+        <v>0.317386</v>
       </c>
       <c r="D110" t="n">
-        <v>0.321373</v>
+        <v>0.322153</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314565</v>
+        <v>0.315389</v>
       </c>
       <c r="C111" t="n">
-        <v>0.319777</v>
+        <v>0.322653</v>
       </c>
       <c r="D111" t="n">
-        <v>0.32264</v>
+        <v>0.323336</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.31825</v>
+        <v>0.319345</v>
       </c>
       <c r="C112" t="n">
-        <v>0.327267</v>
+        <v>0.328389</v>
       </c>
       <c r="D112" t="n">
-        <v>0.323819</v>
+        <v>0.324591</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323751</v>
+        <v>0.324483</v>
       </c>
       <c r="C113" t="n">
-        <v>0.334248</v>
+        <v>0.335814</v>
       </c>
       <c r="D113" t="n">
-        <v>0.325217</v>
+        <v>0.326652</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330127</v>
+        <v>0.330927</v>
       </c>
       <c r="C114" t="n">
-        <v>0.340247</v>
+        <v>0.341287</v>
       </c>
       <c r="D114" t="n">
-        <v>0.328336</v>
+        <v>0.328311</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.337925</v>
+        <v>0.33917</v>
       </c>
       <c r="C115" t="n">
-        <v>0.348721</v>
+        <v>0.351521</v>
       </c>
       <c r="D115" t="n">
-        <v>0.330826</v>
+        <v>0.331743</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.34992</v>
+        <v>0.350668</v>
       </c>
       <c r="C116" t="n">
-        <v>0.361136</v>
+        <v>0.361848</v>
       </c>
       <c r="D116" t="n">
-        <v>0.33455</v>
+        <v>0.335179</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.36441</v>
+        <v>0.365465</v>
       </c>
       <c r="C117" t="n">
-        <v>0.37271</v>
+        <v>0.373221</v>
       </c>
       <c r="D117" t="n">
-        <v>0.338874</v>
+        <v>0.340322</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.384734</v>
+        <v>0.384787</v>
       </c>
       <c r="C118" t="n">
-        <v>0.38766</v>
+        <v>0.387845</v>
       </c>
       <c r="D118" t="n">
-        <v>0.346168</v>
+        <v>0.34687</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.411099</v>
+        <v>0.411794</v>
       </c>
       <c r="C119" t="n">
-        <v>0.406708</v>
+        <v>0.407282</v>
       </c>
       <c r="D119" t="n">
-        <v>0.353675</v>
+        <v>0.355376</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.447297</v>
+        <v>0.44765</v>
       </c>
       <c r="C120" t="n">
-        <v>0.430292</v>
+        <v>0.430554</v>
       </c>
       <c r="D120" t="n">
-        <v>0.365514</v>
+        <v>0.365949</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.497985</v>
+        <v>0.49848</v>
       </c>
       <c r="C121" t="n">
-        <v>0.466789</v>
+        <v>0.470808</v>
       </c>
       <c r="D121" t="n">
-        <v>0.384572</v>
+        <v>0.385291</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.568042</v>
+        <v>0.568512</v>
       </c>
       <c r="C122" t="n">
-        <v>0.527765</v>
+        <v>0.527424</v>
       </c>
       <c r="D122" t="n">
-        <v>0.416419</v>
+        <v>0.413625</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.659264</v>
+        <v>0.660215</v>
       </c>
       <c r="C123" t="n">
-        <v>0.616058</v>
+        <v>0.616723</v>
       </c>
       <c r="D123" t="n">
-        <v>0.351023</v>
+        <v>0.351052</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.343062</v>
+        <v>0.343098</v>
       </c>
       <c r="C124" t="n">
-        <v>0.372263</v>
+        <v>0.371151</v>
       </c>
       <c r="D124" t="n">
-        <v>0.356404</v>
+        <v>0.355988</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.352494</v>
+        <v>0.352877</v>
       </c>
       <c r="C125" t="n">
-        <v>0.373374</v>
+        <v>0.379128</v>
       </c>
       <c r="D125" t="n">
-        <v>0.357342</v>
+        <v>0.360924</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.354607</v>
+        <v>0.355067</v>
       </c>
       <c r="C126" t="n">
-        <v>0.377454</v>
+        <v>0.380974</v>
       </c>
       <c r="D126" t="n">
-        <v>0.362026</v>
+        <v>0.363381</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.363506</v>
+        <v>0.367315</v>
       </c>
       <c r="C127" t="n">
-        <v>0.385146</v>
+        <v>0.387368</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3645</v>
+        <v>0.365851</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.369448</v>
+        <v>0.373716</v>
       </c>
       <c r="C128" t="n">
-        <v>0.392844</v>
+        <v>0.398008</v>
       </c>
       <c r="D128" t="n">
-        <v>0.36857</v>
+        <v>0.371365</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.384425</v>
+        <v>0.383877</v>
       </c>
       <c r="C129" t="n">
-        <v>0.398183</v>
+        <v>0.404338</v>
       </c>
       <c r="D129" t="n">
-        <v>0.376428</v>
+        <v>0.374556</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.392855</v>
+        <v>0.392761</v>
       </c>
       <c r="C130" t="n">
-        <v>0.407643</v>
+        <v>0.414531</v>
       </c>
       <c r="D130" t="n">
-        <v>0.374886</v>
+        <v>0.377158</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406707</v>
+        <v>0.406431</v>
       </c>
       <c r="C131" t="n">
-        <v>0.420561</v>
+        <v>0.423585</v>
       </c>
       <c r="D131" t="n">
-        <v>0.383276</v>
+        <v>0.381289</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.425921</v>
+        <v>0.426797</v>
       </c>
       <c r="C132" t="n">
-        <v>0.434581</v>
+        <v>0.438835</v>
       </c>
       <c r="D132" t="n">
-        <v>0.387955</v>
+        <v>0.386957</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.452304</v>
+        <v>0.453234</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4572</v>
+        <v>0.459056</v>
       </c>
       <c r="D133" t="n">
-        <v>0.398059</v>
+        <v>0.396108</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.489381</v>
+        <v>0.486325</v>
       </c>
       <c r="C134" t="n">
-        <v>0.484005</v>
+        <v>0.488698</v>
       </c>
       <c r="D134" t="n">
-        <v>0.408541</v>
+        <v>0.406232</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.535819</v>
+        <v>0.535693</v>
       </c>
       <c r="C135" t="n">
-        <v>0.524439</v>
+        <v>0.525051</v>
       </c>
       <c r="D135" t="n">
-        <v>0.426063</v>
+        <v>0.426654</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.607203</v>
+        <v>0.609035</v>
       </c>
       <c r="C136" t="n">
-        <v>0.579895</v>
+        <v>0.587646</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452068</v>
+        <v>0.452193</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.717515</v>
+        <v>0.719037</v>
       </c>
       <c r="C137" t="n">
-        <v>0.675075</v>
+        <v>0.6758459999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.51417</v>
+        <v>0.531525</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5064419999999999</v>
+        <v>0.523439</v>
       </c>
       <c r="C138" t="n">
-        <v>0.552547</v>
+        <v>0.549392</v>
       </c>
       <c r="D138" t="n">
-        <v>0.531189</v>
+        <v>0.518089</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.527773</v>
+        <v>0.535823</v>
       </c>
       <c r="C139" t="n">
-        <v>0.551717</v>
+        <v>0.5709109999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.529031</v>
+        <v>0.534523</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.536191</v>
+        <v>0.539239</v>
       </c>
       <c r="C140" t="n">
-        <v>0.572736</v>
+        <v>0.568021</v>
       </c>
       <c r="D140" t="n">
-        <v>0.53611</v>
+        <v>0.544938</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.542366</v>
+        <v>0.524773</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5780149999999999</v>
+        <v>0.562371</v>
       </c>
       <c r="D141" t="n">
-        <v>0.529459</v>
+        <v>0.527264</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.546391</v>
+        <v>0.5427959999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.588367</v>
+        <v>0.579709</v>
       </c>
       <c r="D142" t="n">
-        <v>0.549096</v>
+        <v>0.539358</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.560508</v>
+        <v>0.5596410000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.597126</v>
+        <v>0.598471</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5381629999999999</v>
+        <v>0.5539539999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.286955</v>
+        <v>0.286795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266204</v>
+        <v>0.266078</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276792</v>
+        <v>0.276463</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2933</v>
+        <v>0.293063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268559</v>
+        <v>0.268114</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277568</v>
+        <v>0.277246</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302586</v>
+        <v>0.302337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.274609</v>
+        <v>0.273762</v>
       </c>
       <c r="D4" t="n">
-        <v>0.279905</v>
+        <v>0.279847</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317248</v>
+        <v>0.317309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.284402</v>
+        <v>0.283781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.284152</v>
+        <v>0.283765</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336731</v>
+        <v>0.336494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.295176</v>
+        <v>0.294847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.288672</v>
+        <v>0.288284</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.368412</v>
+        <v>0.367813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.317732</v>
+        <v>0.317129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.298365</v>
+        <v>0.298013</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.411719</v>
+        <v>0.410982</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347372</v>
+        <v>0.346985</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314396</v>
+        <v>0.314022</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.458497</v>
+        <v>0.457992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401639</v>
+        <v>0.400738</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273324</v>
+        <v>0.273129</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.271018</v>
+        <v>0.27079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254442</v>
+        <v>0.254375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273389</v>
+        <v>0.273195</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.27207</v>
+        <v>0.271847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254593</v>
+        <v>0.254443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273429</v>
+        <v>0.273326</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274099</v>
+        <v>0.273896</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256339</v>
+        <v>0.256255</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274198</v>
+        <v>0.273974</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276864</v>
+        <v>0.276697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257863</v>
+        <v>0.257843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274178</v>
+        <v>0.274097</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279945</v>
+        <v>0.279826</v>
       </c>
       <c r="C14" t="n">
-        <v>0.259305</v>
+        <v>0.259229</v>
       </c>
       <c r="D14" t="n">
-        <v>0.27469</v>
+        <v>0.27452</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284667</v>
+        <v>0.284573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.262005</v>
+        <v>0.261918</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275455</v>
+        <v>0.275349</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289317</v>
+        <v>0.289154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265231</v>
+        <v>0.265032</v>
       </c>
       <c r="D16" t="n">
-        <v>0.27662</v>
+        <v>0.276464</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296281</v>
+        <v>0.296095</v>
       </c>
       <c r="C17" t="n">
-        <v>0.268643</v>
+        <v>0.268499</v>
       </c>
       <c r="D17" t="n">
-        <v>0.277751</v>
+        <v>0.27764</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.30624</v>
+        <v>0.306181</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275573</v>
+        <v>0.275452</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279945</v>
+        <v>0.279852</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.31836</v>
+        <v>0.318437</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284691</v>
+        <v>0.284771</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283334</v>
+        <v>0.283219</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.33715</v>
+        <v>0.337537</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295515</v>
+        <v>0.295629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287095</v>
+        <v>0.287047</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.365312</v>
+        <v>0.36589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.310599</v>
+        <v>0.310709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294201</v>
+        <v>0.294108</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404585</v>
+        <v>0.404395</v>
       </c>
       <c r="C22" t="n">
-        <v>0.340686</v>
+        <v>0.340823</v>
       </c>
       <c r="D22" t="n">
-        <v>0.307388</v>
+        <v>0.307321</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.459529</v>
+        <v>0.458919</v>
       </c>
       <c r="C23" t="n">
-        <v>0.387297</v>
+        <v>0.387558</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273557</v>
+        <v>0.27333</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271151</v>
+        <v>0.27082</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255822</v>
+        <v>0.255469</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27396</v>
+        <v>0.273817</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272555</v>
+        <v>0.272321</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255908</v>
+        <v>0.255806</v>
       </c>
       <c r="D25" t="n">
-        <v>0.273988</v>
+        <v>0.27385</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274334</v>
+        <v>0.274051</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257185</v>
+        <v>0.256609</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27441</v>
+        <v>0.274302</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276421</v>
+        <v>0.276199</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258121</v>
+        <v>0.257985</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274736</v>
+        <v>0.274631</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279576</v>
+        <v>0.279377</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260114</v>
+        <v>0.26019</v>
       </c>
       <c r="D28" t="n">
-        <v>0.27564</v>
+        <v>0.275545</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283178</v>
+        <v>0.283048</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261719</v>
+        <v>0.262275</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276145</v>
+        <v>0.276015</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287722</v>
+        <v>0.28761</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265079</v>
+        <v>0.265087</v>
       </c>
       <c r="D30" t="n">
-        <v>0.277104</v>
+        <v>0.276975</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294511</v>
+        <v>0.294407</v>
       </c>
       <c r="C31" t="n">
-        <v>0.269666</v>
+        <v>0.2694</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278304</v>
+        <v>0.278194</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.30485</v>
+        <v>0.304795</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275657</v>
+        <v>0.275443</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280545</v>
+        <v>0.280324</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317564</v>
+        <v>0.317651</v>
       </c>
       <c r="C33" t="n">
-        <v>0.284906</v>
+        <v>0.28452</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284076</v>
+        <v>0.284014</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.335565</v>
+        <v>0.335582</v>
       </c>
       <c r="C34" t="n">
-        <v>0.29723</v>
+        <v>0.296835</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288575</v>
+        <v>0.288454</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.362688</v>
+        <v>0.363084</v>
       </c>
       <c r="C35" t="n">
-        <v>0.314076</v>
+        <v>0.313913</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296303</v>
+        <v>0.296448</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401171</v>
+        <v>0.401436</v>
       </c>
       <c r="C36" t="n">
-        <v>0.361449</v>
+        <v>0.343066</v>
       </c>
       <c r="D36" t="n">
-        <v>0.324026</v>
+        <v>0.308621</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.451006</v>
+        <v>0.45179</v>
       </c>
       <c r="C37" t="n">
-        <v>0.382485</v>
+        <v>0.383179</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273761</v>
+        <v>0.273714</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271029</v>
+        <v>0.271033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256116</v>
+        <v>0.256025</v>
       </c>
       <c r="D38" t="n">
-        <v>0.274021</v>
+        <v>0.273871</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.272472</v>
+        <v>0.272309</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256866</v>
+        <v>0.256728</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274517</v>
+        <v>0.27439</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274193</v>
+        <v>0.274045</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257779</v>
+        <v>0.257653</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274701</v>
+        <v>0.274679</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276214</v>
+        <v>0.276026</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258947</v>
+        <v>0.25897</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275217</v>
+        <v>0.275216</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279083</v>
+        <v>0.278996</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260851</v>
+        <v>0.262243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.275982</v>
+        <v>0.277082</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283306</v>
+        <v>0.283233</v>
       </c>
       <c r="C43" t="n">
-        <v>0.262873</v>
+        <v>0.264479</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276672</v>
+        <v>0.278286</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288502</v>
+        <v>0.288479</v>
       </c>
       <c r="C44" t="n">
-        <v>0.266313</v>
+        <v>0.267851</v>
       </c>
       <c r="D44" t="n">
-        <v>0.277716</v>
+        <v>0.279125</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295451</v>
+        <v>0.295408</v>
       </c>
       <c r="C45" t="n">
         <v>0.269964</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278971</v>
+        <v>0.278961</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304453</v>
+        <v>0.304301</v>
       </c>
       <c r="C46" t="n">
-        <v>0.276349</v>
+        <v>0.275996</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281039</v>
+        <v>0.281057</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.316035</v>
+        <v>0.316193</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284516</v>
+        <v>0.284496</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284258</v>
+        <v>0.284207</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.33271</v>
+        <v>0.33285</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294922</v>
+        <v>0.294775</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288672</v>
+        <v>0.28848</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.35615</v>
+        <v>0.356739</v>
       </c>
       <c r="C49" t="n">
-        <v>0.329491</v>
+        <v>0.310643</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29527</v>
+        <v>0.295255</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.392402</v>
+        <v>0.392008</v>
       </c>
       <c r="C50" t="n">
-        <v>0.335571</v>
+        <v>0.335615</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306838</v>
+        <v>0.306819</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.439029</v>
+        <v>0.440478</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3919</v>
+        <v>0.373863</v>
       </c>
       <c r="D51" t="n">
-        <v>0.275352</v>
+        <v>0.275941</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.49515</v>
+        <v>0.495005</v>
       </c>
       <c r="C52" t="n">
-        <v>0.428403</v>
+        <v>0.426581</v>
       </c>
       <c r="D52" t="n">
-        <v>0.275638</v>
+        <v>0.275973</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273611</v>
+        <v>0.274978</v>
       </c>
       <c r="C53" t="n">
-        <v>0.27299</v>
+        <v>0.258692</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276142</v>
+        <v>0.276786</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.275949</v>
+        <v>0.276054</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259179</v>
+        <v>0.260119</v>
       </c>
       <c r="D54" t="n">
-        <v>0.276599</v>
+        <v>0.277049</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.278114</v>
+        <v>0.277524</v>
       </c>
       <c r="C55" t="n">
-        <v>0.268394</v>
+        <v>0.261279</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277222</v>
+        <v>0.277901</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280166</v>
+        <v>0.280236</v>
       </c>
       <c r="C56" t="n">
-        <v>0.262964</v>
+        <v>0.262792</v>
       </c>
       <c r="D56" t="n">
-        <v>0.27872</v>
+        <v>0.278377</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284068</v>
+        <v>0.284644</v>
       </c>
       <c r="C57" t="n">
-        <v>0.279772</v>
+        <v>0.265444</v>
       </c>
       <c r="D57" t="n">
-        <v>0.278739</v>
+        <v>0.279795</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288789</v>
+        <v>0.289741</v>
       </c>
       <c r="C58" t="n">
-        <v>0.267115</v>
+        <v>0.266599</v>
       </c>
       <c r="D58" t="n">
-        <v>0.279993</v>
+        <v>0.279369</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295056</v>
+        <v>0.295458</v>
       </c>
       <c r="C59" t="n">
-        <v>0.270521</v>
+        <v>0.270115</v>
       </c>
       <c r="D59" t="n">
-        <v>0.280858</v>
+        <v>0.280852</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.308255</v>
+        <v>0.304626</v>
       </c>
       <c r="C60" t="n">
-        <v>0.275639</v>
+        <v>0.275454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.282803</v>
+        <v>0.282115</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3149</v>
+        <v>0.314936</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282534</v>
+        <v>0.300311</v>
       </c>
       <c r="D61" t="n">
-        <v>0.285257</v>
+        <v>0.284951</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331078</v>
+        <v>0.331734</v>
       </c>
       <c r="C62" t="n">
-        <v>0.292436</v>
+        <v>0.291945</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288467</v>
+        <v>0.288258</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.354843</v>
+        <v>0.354575</v>
       </c>
       <c r="C63" t="n">
-        <v>0.306249</v>
+        <v>0.307175</v>
       </c>
       <c r="D63" t="n">
-        <v>0.294172</v>
+        <v>0.294593</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.386526</v>
+        <v>0.38812</v>
       </c>
       <c r="C64" t="n">
-        <v>0.347561</v>
+        <v>0.329364</v>
       </c>
       <c r="D64" t="n">
-        <v>0.303571</v>
+        <v>0.304004</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.430371</v>
+        <v>0.43493</v>
       </c>
       <c r="C65" t="n">
-        <v>0.375415</v>
+        <v>0.381663</v>
       </c>
       <c r="D65" t="n">
-        <v>0.321211</v>
+        <v>0.32083</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.485098</v>
+        <v>0.488967</v>
       </c>
       <c r="C66" t="n">
-        <v>0.419657</v>
+        <v>0.421215</v>
       </c>
       <c r="D66" t="n">
-        <v>0.288751</v>
+        <v>0.286475</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.28029</v>
+        <v>0.281242</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269866</v>
+        <v>0.269803</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289973</v>
+        <v>0.288732</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.28261</v>
+        <v>0.282821</v>
       </c>
       <c r="C68" t="n">
-        <v>0.270372</v>
+        <v>0.270002</v>
       </c>
       <c r="D68" t="n">
-        <v>0.287898</v>
+        <v>0.289014</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.286398</v>
+        <v>0.285039</v>
       </c>
       <c r="C69" t="n">
-        <v>0.271879</v>
+        <v>0.27273</v>
       </c>
       <c r="D69" t="n">
-        <v>0.289534</v>
+        <v>0.289009</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.287631</v>
+        <v>0.28689</v>
       </c>
       <c r="C70" t="n">
-        <v>0.273465</v>
+        <v>0.273763</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290594</v>
+        <v>0.290825</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.292833</v>
+        <v>0.293018</v>
       </c>
       <c r="C71" t="n">
-        <v>0.276616</v>
+        <v>0.276223</v>
       </c>
       <c r="D71" t="n">
-        <v>0.292055</v>
+        <v>0.290495</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297325</v>
+        <v>0.296</v>
       </c>
       <c r="C72" t="n">
-        <v>0.277656</v>
+        <v>0.280041</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292744</v>
+        <v>0.291946</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303284</v>
+        <v>0.303273</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282456</v>
+        <v>0.280998</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292591</v>
+        <v>0.291324</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.312253</v>
+        <v>0.312306</v>
       </c>
       <c r="C74" t="n">
-        <v>0.28678</v>
+        <v>0.285856</v>
       </c>
       <c r="D74" t="n">
-        <v>0.295913</v>
+        <v>0.293332</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324014</v>
+        <v>0.324133</v>
       </c>
       <c r="C75" t="n">
-        <v>0.293807</v>
+        <v>0.293345</v>
       </c>
       <c r="D75" t="n">
-        <v>0.296972</v>
+        <v>0.297015</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.339001</v>
+        <v>0.338349</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304693</v>
+        <v>0.303426</v>
       </c>
       <c r="D76" t="n">
-        <v>0.302162</v>
+        <v>0.29981</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.363988</v>
+        <v>0.360563</v>
       </c>
       <c r="C77" t="n">
-        <v>0.318981</v>
+        <v>0.317985</v>
       </c>
       <c r="D77" t="n">
-        <v>0.30602</v>
+        <v>0.304829</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.393589</v>
+        <v>0.392764</v>
       </c>
       <c r="C78" t="n">
-        <v>0.340587</v>
+        <v>0.339322</v>
       </c>
       <c r="D78" t="n">
-        <v>0.316702</v>
+        <v>0.313237</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.439095</v>
+        <v>0.438992</v>
       </c>
       <c r="C79" t="n">
-        <v>0.372741</v>
+        <v>0.371706</v>
       </c>
       <c r="D79" t="n">
-        <v>0.330093</v>
+        <v>0.328949</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.496992</v>
+        <v>0.495849</v>
       </c>
       <c r="C80" t="n">
-        <v>0.423819</v>
+        <v>0.426551</v>
       </c>
       <c r="D80" t="n">
-        <v>0.303293</v>
+        <v>0.303629</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294543</v>
+        <v>0.2946</v>
       </c>
       <c r="C81" t="n">
-        <v>0.284771</v>
+        <v>0.284753</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3035</v>
+        <v>0.303708</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296207</v>
+        <v>0.296173</v>
       </c>
       <c r="C82" t="n">
-        <v>0.286138</v>
+        <v>0.285727</v>
       </c>
       <c r="D82" t="n">
-        <v>0.303966</v>
+        <v>0.304584</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.29883</v>
+        <v>0.298658</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287014</v>
+        <v>0.287376</v>
       </c>
       <c r="D83" t="n">
-        <v>0.304367</v>
+        <v>0.304637</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302266</v>
+        <v>0.301805</v>
       </c>
       <c r="C84" t="n">
-        <v>0.289031</v>
+        <v>0.288929</v>
       </c>
       <c r="D84" t="n">
-        <v>0.304969</v>
+        <v>0.305256</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305825</v>
+        <v>0.305606</v>
       </c>
       <c r="C85" t="n">
-        <v>0.290781</v>
+        <v>0.290936</v>
       </c>
       <c r="D85" t="n">
-        <v>0.305743</v>
+        <v>0.305774</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.310722</v>
+        <v>0.31091</v>
       </c>
       <c r="C86" t="n">
-        <v>0.293192</v>
+        <v>0.293592</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306774</v>
+        <v>0.306654</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317186</v>
+        <v>0.317584</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297374</v>
+        <v>0.297576</v>
       </c>
       <c r="D87" t="n">
-        <v>0.307869</v>
+        <v>0.308517</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.32563</v>
+        <v>0.325938</v>
       </c>
       <c r="C88" t="n">
-        <v>0.302274</v>
+        <v>0.302345</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309519</v>
+        <v>0.310452</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337395</v>
+        <v>0.338566</v>
       </c>
       <c r="C89" t="n">
-        <v>0.312851</v>
+        <v>0.309678</v>
       </c>
       <c r="D89" t="n">
-        <v>0.31205</v>
+        <v>0.312544</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352502</v>
+        <v>0.353551</v>
       </c>
       <c r="C90" t="n">
-        <v>0.319363</v>
+        <v>0.319223</v>
       </c>
       <c r="D90" t="n">
-        <v>0.315705</v>
+        <v>0.316779</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374095</v>
+        <v>0.375734</v>
       </c>
       <c r="C91" t="n">
-        <v>0.332527</v>
+        <v>0.33325</v>
       </c>
       <c r="D91" t="n">
-        <v>0.320379</v>
+        <v>0.321261</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.40523</v>
+        <v>0.407154</v>
       </c>
       <c r="C92" t="n">
-        <v>0.353231</v>
+        <v>0.354604</v>
       </c>
       <c r="D92" t="n">
-        <v>0.330026</v>
+        <v>0.32999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.450248</v>
+        <v>0.452404</v>
       </c>
       <c r="C93" t="n">
-        <v>0.399424</v>
+        <v>0.386652</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344191</v>
+        <v>0.344836</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.50836</v>
+        <v>0.512943</v>
       </c>
       <c r="C94" t="n">
-        <v>0.432195</v>
+        <v>0.436529</v>
       </c>
       <c r="D94" t="n">
-        <v>0.313319</v>
+        <v>0.313609</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303907</v>
+        <v>0.303445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295888</v>
+        <v>0.295827</v>
       </c>
       <c r="D95" t="n">
-        <v>0.314112</v>
+        <v>0.314015</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305845</v>
+        <v>0.305573</v>
       </c>
       <c r="C96" t="n">
-        <v>0.29682</v>
+        <v>0.297206</v>
       </c>
       <c r="D96" t="n">
-        <v>0.312317</v>
+        <v>0.314675</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.307982</v>
+        <v>0.308054</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298397</v>
+        <v>0.298486</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315465</v>
+        <v>0.315388</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311372</v>
+        <v>0.311109</v>
       </c>
       <c r="C98" t="n">
-        <v>0.297279</v>
+        <v>0.300012</v>
       </c>
       <c r="D98" t="n">
-        <v>0.313856</v>
+        <v>0.315947</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315334</v>
+        <v>0.315142</v>
       </c>
       <c r="C99" t="n">
-        <v>0.302749</v>
+        <v>0.302548</v>
       </c>
       <c r="D99" t="n">
-        <v>0.316589</v>
+        <v>0.317043</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320513</v>
+        <v>0.320395</v>
       </c>
       <c r="C100" t="n">
-        <v>0.306281</v>
+        <v>0.305502</v>
       </c>
       <c r="D100" t="n">
-        <v>0.314746</v>
+        <v>0.318089</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.327175</v>
+        <v>0.326859</v>
       </c>
       <c r="C101" t="n">
-        <v>0.310201</v>
+        <v>0.309688</v>
       </c>
       <c r="D101" t="n">
-        <v>0.319092</v>
+        <v>0.319152</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.336392</v>
+        <v>0.335594</v>
       </c>
       <c r="C102" t="n">
-        <v>0.315155</v>
+        <v>0.316142</v>
       </c>
       <c r="D102" t="n">
-        <v>0.321023</v>
+        <v>0.32143</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347349</v>
+        <v>0.347503</v>
       </c>
       <c r="C103" t="n">
-        <v>0.322968</v>
+        <v>0.323678</v>
       </c>
       <c r="D103" t="n">
-        <v>0.323257</v>
+        <v>0.323526</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.362677</v>
+        <v>0.362829</v>
       </c>
       <c r="C104" t="n">
-        <v>0.333855</v>
+        <v>0.334522</v>
       </c>
       <c r="D104" t="n">
-        <v>0.32698</v>
+        <v>0.326986</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.383931</v>
+        <v>0.384715</v>
       </c>
       <c r="C105" t="n">
-        <v>0.348482</v>
+        <v>0.349638</v>
       </c>
       <c r="D105" t="n">
-        <v>0.332086</v>
+        <v>0.33243</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.415482</v>
+        <v>0.416403</v>
       </c>
       <c r="C106" t="n">
-        <v>0.371618</v>
+        <v>0.373185</v>
       </c>
       <c r="D106" t="n">
-        <v>0.340068</v>
+        <v>0.341289</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.460262</v>
+        <v>0.462044</v>
       </c>
       <c r="C107" t="n">
-        <v>0.399323</v>
+        <v>0.406763</v>
       </c>
       <c r="D107" t="n">
-        <v>0.350343</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523889</v>
+        <v>0.526707</v>
       </c>
       <c r="C108" t="n">
-        <v>0.450338</v>
+        <v>0.457019</v>
       </c>
       <c r="D108" t="n">
-        <v>0.319976</v>
+        <v>0.320223</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6034080000000001</v>
+        <v>0.607281</v>
       </c>
       <c r="C109" t="n">
-        <v>0.527513</v>
+        <v>0.538239</v>
       </c>
       <c r="D109" t="n">
-        <v>0.320665</v>
+        <v>0.32105</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.311347</v>
+        <v>0.311682</v>
       </c>
       <c r="C110" t="n">
-        <v>0.317386</v>
+        <v>0.317545</v>
       </c>
       <c r="D110" t="n">
-        <v>0.322153</v>
+        <v>0.322475</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.315389</v>
+        <v>0.314426</v>
       </c>
       <c r="C111" t="n">
-        <v>0.322653</v>
+        <v>0.32376</v>
       </c>
       <c r="D111" t="n">
-        <v>0.323336</v>
+        <v>0.323169</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319345</v>
+        <v>0.318817</v>
       </c>
       <c r="C112" t="n">
-        <v>0.328389</v>
+        <v>0.330778</v>
       </c>
       <c r="D112" t="n">
-        <v>0.324591</v>
+        <v>0.324896</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324483</v>
+        <v>0.324085</v>
       </c>
       <c r="C113" t="n">
-        <v>0.335814</v>
+        <v>0.337177</v>
       </c>
       <c r="D113" t="n">
-        <v>0.326652</v>
+        <v>0.326744</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330927</v>
+        <v>0.330591</v>
       </c>
       <c r="C114" t="n">
-        <v>0.341287</v>
+        <v>0.345788</v>
       </c>
       <c r="D114" t="n">
-        <v>0.328311</v>
+        <v>0.329153</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.33917</v>
+        <v>0.339015</v>
       </c>
       <c r="C115" t="n">
-        <v>0.351521</v>
+        <v>0.354741</v>
       </c>
       <c r="D115" t="n">
-        <v>0.331743</v>
+        <v>0.331747</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.350668</v>
+        <v>0.350746</v>
       </c>
       <c r="C116" t="n">
-        <v>0.361848</v>
+        <v>0.365838</v>
       </c>
       <c r="D116" t="n">
-        <v>0.335179</v>
+        <v>0.335998</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.365465</v>
+        <v>0.366263</v>
       </c>
       <c r="C117" t="n">
-        <v>0.373221</v>
+        <v>0.378437</v>
       </c>
       <c r="D117" t="n">
-        <v>0.340322</v>
+        <v>0.341098</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.384787</v>
+        <v>0.386656</v>
       </c>
       <c r="C118" t="n">
-        <v>0.387845</v>
+        <v>0.393919</v>
       </c>
       <c r="D118" t="n">
-        <v>0.34687</v>
+        <v>0.34811</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.411794</v>
+        <v>0.414433</v>
       </c>
       <c r="C119" t="n">
-        <v>0.407282</v>
+        <v>0.413946</v>
       </c>
       <c r="D119" t="n">
-        <v>0.355376</v>
+        <v>0.35685</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.44765</v>
+        <v>0.451125</v>
       </c>
       <c r="C120" t="n">
-        <v>0.430554</v>
+        <v>0.441589</v>
       </c>
       <c r="D120" t="n">
-        <v>0.365949</v>
+        <v>0.369453</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.49848</v>
+        <v>0.503114</v>
       </c>
       <c r="C121" t="n">
-        <v>0.470808</v>
+        <v>0.478527</v>
       </c>
       <c r="D121" t="n">
-        <v>0.385291</v>
+        <v>0.387771</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.568512</v>
+        <v>0.574821</v>
       </c>
       <c r="C122" t="n">
-        <v>0.527424</v>
+        <v>0.538404</v>
       </c>
       <c r="D122" t="n">
-        <v>0.413625</v>
+        <v>0.417585</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.660215</v>
+        <v>0.669787</v>
       </c>
       <c r="C123" t="n">
-        <v>0.616723</v>
+        <v>0.631591</v>
       </c>
       <c r="D123" t="n">
-        <v>0.351052</v>
+        <v>0.35604</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.343098</v>
+        <v>0.348318</v>
       </c>
       <c r="C124" t="n">
-        <v>0.371151</v>
+        <v>0.378582</v>
       </c>
       <c r="D124" t="n">
-        <v>0.355988</v>
+        <v>0.358929</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.352877</v>
+        <v>0.352138</v>
       </c>
       <c r="C125" t="n">
-        <v>0.379128</v>
+        <v>0.384545</v>
       </c>
       <c r="D125" t="n">
-        <v>0.360924</v>
+        <v>0.363151</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.355067</v>
+        <v>0.357526</v>
       </c>
       <c r="C126" t="n">
-        <v>0.380974</v>
+        <v>0.388152</v>
       </c>
       <c r="D126" t="n">
-        <v>0.363381</v>
+        <v>0.368845</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367315</v>
+        <v>0.365406</v>
       </c>
       <c r="C127" t="n">
-        <v>0.387368</v>
+        <v>0.396763</v>
       </c>
       <c r="D127" t="n">
-        <v>0.365851</v>
+        <v>0.375373</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373716</v>
+        <v>0.375713</v>
       </c>
       <c r="C128" t="n">
-        <v>0.398008</v>
+        <v>0.401423</v>
       </c>
       <c r="D128" t="n">
-        <v>0.371365</v>
+        <v>0.375415</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383877</v>
+        <v>0.383126</v>
       </c>
       <c r="C129" t="n">
-        <v>0.404338</v>
+        <v>0.410736</v>
       </c>
       <c r="D129" t="n">
-        <v>0.374556</v>
+        <v>0.377543</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.392761</v>
+        <v>0.397744</v>
       </c>
       <c r="C130" t="n">
-        <v>0.414531</v>
+        <v>0.418879</v>
       </c>
       <c r="D130" t="n">
-        <v>0.377158</v>
+        <v>0.383034</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406431</v>
+        <v>0.411893</v>
       </c>
       <c r="C131" t="n">
-        <v>0.423585</v>
+        <v>0.434049</v>
       </c>
       <c r="D131" t="n">
-        <v>0.381289</v>
+        <v>0.392997</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.426797</v>
+        <v>0.4307</v>
       </c>
       <c r="C132" t="n">
-        <v>0.438835</v>
+        <v>0.446455</v>
       </c>
       <c r="D132" t="n">
-        <v>0.386957</v>
+        <v>0.395439</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.453234</v>
+        <v>0.458681</v>
       </c>
       <c r="C133" t="n">
-        <v>0.459056</v>
+        <v>0.467708</v>
       </c>
       <c r="D133" t="n">
-        <v>0.396108</v>
+        <v>0.406223</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.486325</v>
+        <v>0.49497</v>
       </c>
       <c r="C134" t="n">
-        <v>0.488698</v>
+        <v>0.498995</v>
       </c>
       <c r="D134" t="n">
-        <v>0.406232</v>
+        <v>0.414084</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.535693</v>
+        <v>0.5485409999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.525051</v>
+        <v>0.538307</v>
       </c>
       <c r="D135" t="n">
-        <v>0.426654</v>
+        <v>0.433745</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.609035</v>
+        <v>0.617652</v>
       </c>
       <c r="C136" t="n">
-        <v>0.587646</v>
+        <v>0.600222</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452193</v>
+        <v>0.460071</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.719037</v>
+        <v>0.725589</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6758459999999999</v>
+        <v>0.695195</v>
       </c>
       <c r="D137" t="n">
-        <v>0.531525</v>
+        <v>0.544342</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.523439</v>
+        <v>0.544482</v>
       </c>
       <c r="C138" t="n">
-        <v>0.549392</v>
+        <v>0.57987</v>
       </c>
       <c r="D138" t="n">
-        <v>0.518089</v>
+        <v>0.5551430000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.535823</v>
+        <v>0.559647</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5709109999999999</v>
+        <v>0.597442</v>
       </c>
       <c r="D139" t="n">
-        <v>0.534523</v>
+        <v>0.5458809999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.539239</v>
+        <v>0.560209</v>
       </c>
       <c r="C140" t="n">
-        <v>0.568021</v>
+        <v>0.598633</v>
       </c>
       <c r="D140" t="n">
-        <v>0.544938</v>
+        <v>0.557952</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.524773</v>
+        <v>0.574149</v>
       </c>
       <c r="C141" t="n">
-        <v>0.562371</v>
+        <v>0.614113</v>
       </c>
       <c r="D141" t="n">
-        <v>0.527264</v>
+        <v>0.556189</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5427959999999999</v>
+        <v>0.580117</v>
       </c>
       <c r="C142" t="n">
-        <v>0.579709</v>
+        <v>0.613128</v>
       </c>
       <c r="D142" t="n">
-        <v>0.539358</v>
+        <v>0.5755710000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5596410000000001</v>
+        <v>0.598441</v>
       </c>
       <c r="C143" t="n">
-        <v>0.598471</v>
+        <v>0.632474</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5539539999999999</v>
+        <v>0.572648</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.286795</v>
+        <v>0.288172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266078</v>
+        <v>0.287481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.276463</v>
+        <v>0.278287</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293063</v>
+        <v>0.29448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268114</v>
+        <v>0.28921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277246</v>
+        <v>0.279148</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302337</v>
+        <v>0.303614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.273762</v>
+        <v>0.295106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.279847</v>
+        <v>0.281567</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317309</v>
+        <v>0.318169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.283781</v>
+        <v>0.30484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.283765</v>
+        <v>0.285923</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336494</v>
+        <v>0.337097</v>
       </c>
       <c r="C6" t="n">
-        <v>0.294847</v>
+        <v>0.315405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.288284</v>
+        <v>0.290692</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.367813</v>
+        <v>0.369945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.317129</v>
+        <v>0.337687</v>
       </c>
       <c r="D7" t="n">
-        <v>0.298013</v>
+        <v>0.30052</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.410982</v>
+        <v>0.414991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.346985</v>
+        <v>0.369087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314022</v>
+        <v>0.316572</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.457992</v>
+        <v>0.462694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.400738</v>
+        <v>0.423447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273129</v>
+        <v>0.273475</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.27079</v>
+        <v>0.271473</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254375</v>
+        <v>0.275075</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273195</v>
+        <v>0.273537</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.271847</v>
+        <v>0.272436</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254443</v>
+        <v>0.275128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273326</v>
+        <v>0.273534</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.273896</v>
+        <v>0.274575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.256255</v>
+        <v>0.276823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.273974</v>
+        <v>0.274255</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.276697</v>
+        <v>0.277299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257843</v>
+        <v>0.278245</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274097</v>
+        <v>0.274387</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.279826</v>
+        <v>0.280565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.259229</v>
+        <v>0.279655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.27452</v>
+        <v>0.274865</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284573</v>
+        <v>0.285139</v>
       </c>
       <c r="C15" t="n">
-        <v>0.261918</v>
+        <v>0.282368</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275349</v>
+        <v>0.275682</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289154</v>
+        <v>0.289898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.265032</v>
+        <v>0.285554</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276464</v>
+        <v>0.276939</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296095</v>
+        <v>0.296776</v>
       </c>
       <c r="C17" t="n">
-        <v>0.268499</v>
+        <v>0.288815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.27764</v>
+        <v>0.278075</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306181</v>
+        <v>0.306633</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275452</v>
+        <v>0.295691</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279852</v>
+        <v>0.28039</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318437</v>
+        <v>0.319197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284771</v>
+        <v>0.304482</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283219</v>
+        <v>0.283957</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337537</v>
+        <v>0.338396</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295629</v>
+        <v>0.315533</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287047</v>
+        <v>0.28775</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.36589</v>
+        <v>0.367153</v>
       </c>
       <c r="C21" t="n">
-        <v>0.310709</v>
+        <v>0.330622</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294108</v>
+        <v>0.295002</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404395</v>
+        <v>0.407338</v>
       </c>
       <c r="C22" t="n">
-        <v>0.340823</v>
+        <v>0.3609</v>
       </c>
       <c r="D22" t="n">
-        <v>0.307321</v>
+        <v>0.308075</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458919</v>
+        <v>0.464207</v>
       </c>
       <c r="C23" t="n">
-        <v>0.387558</v>
+        <v>0.4086</v>
       </c>
       <c r="D23" t="n">
-        <v>0.27333</v>
+        <v>0.27325</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.27082</v>
+        <v>0.271992</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255469</v>
+        <v>0.274905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273817</v>
+        <v>0.275234</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272321</v>
+        <v>0.273609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.255806</v>
+        <v>0.279688</v>
       </c>
       <c r="D25" t="n">
-        <v>0.27385</v>
+        <v>0.290053</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274051</v>
+        <v>0.296779</v>
       </c>
       <c r="C26" t="n">
-        <v>0.256609</v>
+        <v>0.283951</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274302</v>
+        <v>0.290553</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276199</v>
+        <v>0.299013</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257985</v>
+        <v>0.285149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274631</v>
+        <v>0.290885</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279377</v>
+        <v>0.302168</v>
       </c>
       <c r="C28" t="n">
-        <v>0.26019</v>
+        <v>0.287517</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275545</v>
+        <v>0.291917</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283048</v>
+        <v>0.305999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262275</v>
+        <v>0.290123</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276015</v>
+        <v>0.292344</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.28761</v>
+        <v>0.310617</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265087</v>
+        <v>0.293594</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276975</v>
+        <v>0.293447</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294407</v>
+        <v>0.317619</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2694</v>
+        <v>0.297977</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278194</v>
+        <v>0.293513</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304795</v>
+        <v>0.328574</v>
       </c>
       <c r="C32" t="n">
-        <v>0.275443</v>
+        <v>0.304816</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280324</v>
+        <v>0.295735</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317651</v>
+        <v>0.342078</v>
       </c>
       <c r="C33" t="n">
-        <v>0.28452</v>
+        <v>0.315031</v>
       </c>
       <c r="D33" t="n">
-        <v>0.284014</v>
+        <v>0.29938</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.335582</v>
+        <v>0.361165</v>
       </c>
       <c r="C34" t="n">
-        <v>0.296835</v>
+        <v>0.328368</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288454</v>
+        <v>0.303791</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.363084</v>
+        <v>0.364181</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313913</v>
+        <v>0.333344</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296448</v>
+        <v>0.296019</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401436</v>
+        <v>0.402148</v>
       </c>
       <c r="C36" t="n">
-        <v>0.343066</v>
+        <v>0.362945</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308621</v>
+        <v>0.308885</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.45179</v>
+        <v>0.451155</v>
       </c>
       <c r="C37" t="n">
-        <v>0.383179</v>
+        <v>0.402801</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273714</v>
+        <v>0.274944</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271033</v>
+        <v>0.271253</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256025</v>
+        <v>0.27454</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273871</v>
+        <v>0.275152</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.272309</v>
+        <v>0.273019</v>
       </c>
       <c r="C39" t="n">
-        <v>0.256728</v>
+        <v>0.275405</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27439</v>
+        <v>0.273983</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274045</v>
+        <v>0.274671</v>
       </c>
       <c r="C40" t="n">
-        <v>0.257653</v>
+        <v>0.283068</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274679</v>
+        <v>0.289841</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276026</v>
+        <v>0.276614</v>
       </c>
       <c r="C41" t="n">
-        <v>0.25897</v>
+        <v>0.28426</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275216</v>
+        <v>0.274823</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.278996</v>
+        <v>0.279473</v>
       </c>
       <c r="C42" t="n">
-        <v>0.262243</v>
+        <v>0.279402</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277082</v>
+        <v>0.276989</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283233</v>
+        <v>0.283717</v>
       </c>
       <c r="C43" t="n">
-        <v>0.264479</v>
+        <v>0.281483</v>
       </c>
       <c r="D43" t="n">
-        <v>0.278286</v>
+        <v>0.276044</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288479</v>
+        <v>0.288964</v>
       </c>
       <c r="C44" t="n">
-        <v>0.267851</v>
+        <v>0.284965</v>
       </c>
       <c r="D44" t="n">
-        <v>0.279125</v>
+        <v>0.278887</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295408</v>
+        <v>0.295746</v>
       </c>
       <c r="C45" t="n">
-        <v>0.269964</v>
+        <v>0.288635</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278961</v>
+        <v>0.278302</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304301</v>
+        <v>0.304875</v>
       </c>
       <c r="C46" t="n">
-        <v>0.275996</v>
+        <v>0.295315</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281057</v>
+        <v>0.281052</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.316193</v>
+        <v>0.316679</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284496</v>
+        <v>0.303299</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284207</v>
+        <v>0.285032</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.33285</v>
+        <v>0.333337</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294775</v>
+        <v>0.313658</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28848</v>
+        <v>0.28804</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.356739</v>
+        <v>0.357504</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310643</v>
+        <v>0.329911</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295255</v>
+        <v>0.294395</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.392008</v>
+        <v>0.393905</v>
       </c>
       <c r="C50" t="n">
-        <v>0.335615</v>
+        <v>0.355801</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306819</v>
+        <v>0.306423</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440478</v>
+        <v>0.442683</v>
       </c>
       <c r="C51" t="n">
-        <v>0.373863</v>
+        <v>0.40218</v>
       </c>
       <c r="D51" t="n">
-        <v>0.275941</v>
+        <v>0.276171</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.495005</v>
+        <v>0.498039</v>
       </c>
       <c r="C52" t="n">
-        <v>0.426581</v>
+        <v>0.46392</v>
       </c>
       <c r="D52" t="n">
-        <v>0.275973</v>
+        <v>0.276752</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.274978</v>
+        <v>0.274371</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258692</v>
+        <v>0.275831</v>
       </c>
       <c r="D53" t="n">
-        <v>0.276786</v>
+        <v>0.275924</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.276054</v>
+        <v>0.277028</v>
       </c>
       <c r="C54" t="n">
-        <v>0.260119</v>
+        <v>0.276715</v>
       </c>
       <c r="D54" t="n">
-        <v>0.277049</v>
+        <v>0.275865</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.277524</v>
+        <v>0.277834</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261279</v>
+        <v>0.278303</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277901</v>
+        <v>0.277493</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280236</v>
+        <v>0.280771</v>
       </c>
       <c r="C56" t="n">
-        <v>0.262792</v>
+        <v>0.287625</v>
       </c>
       <c r="D56" t="n">
-        <v>0.278377</v>
+        <v>0.277524</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284644</v>
+        <v>0.28447</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265444</v>
+        <v>0.284112</v>
       </c>
       <c r="D57" t="n">
-        <v>0.279795</v>
+        <v>0.279257</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289741</v>
+        <v>0.29028</v>
       </c>
       <c r="C58" t="n">
-        <v>0.266599</v>
+        <v>0.285944</v>
       </c>
       <c r="D58" t="n">
-        <v>0.279369</v>
+        <v>0.281833</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295458</v>
+        <v>0.295478</v>
       </c>
       <c r="C59" t="n">
-        <v>0.270115</v>
+        <v>0.300522</v>
       </c>
       <c r="D59" t="n">
-        <v>0.280852</v>
+        <v>0.284508</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304626</v>
+        <v>0.304878</v>
       </c>
       <c r="C60" t="n">
-        <v>0.275454</v>
+        <v>0.294841</v>
       </c>
       <c r="D60" t="n">
-        <v>0.282115</v>
+        <v>0.285472</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.314936</v>
+        <v>0.315641</v>
       </c>
       <c r="C61" t="n">
-        <v>0.300311</v>
+        <v>0.300443</v>
       </c>
       <c r="D61" t="n">
-        <v>0.284951</v>
+        <v>0.284638</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331734</v>
+        <v>0.332374</v>
       </c>
       <c r="C62" t="n">
-        <v>0.291945</v>
+        <v>0.321847</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288258</v>
+        <v>0.288131</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.354575</v>
+        <v>0.355175</v>
       </c>
       <c r="C63" t="n">
-        <v>0.307175</v>
+        <v>0.33851</v>
       </c>
       <c r="D63" t="n">
-        <v>0.294593</v>
+        <v>0.295762</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.38812</v>
+        <v>0.388249</v>
       </c>
       <c r="C64" t="n">
-        <v>0.329364</v>
+        <v>0.348273</v>
       </c>
       <c r="D64" t="n">
-        <v>0.304004</v>
+        <v>0.304427</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.43493</v>
+        <v>0.432777</v>
       </c>
       <c r="C65" t="n">
-        <v>0.381663</v>
+        <v>0.384377</v>
       </c>
       <c r="D65" t="n">
-        <v>0.32083</v>
+        <v>0.321071</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.488967</v>
+        <v>0.492902</v>
       </c>
       <c r="C66" t="n">
-        <v>0.421215</v>
+        <v>0.438786</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286475</v>
+        <v>0.288161</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.281242</v>
+        <v>0.280938</v>
       </c>
       <c r="C67" t="n">
-        <v>0.269803</v>
+        <v>0.280913</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288732</v>
+        <v>0.288436</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282821</v>
+        <v>0.282601</v>
       </c>
       <c r="C68" t="n">
-        <v>0.270002</v>
+        <v>0.282246</v>
       </c>
       <c r="D68" t="n">
-        <v>0.289014</v>
+        <v>0.290073</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285039</v>
+        <v>0.285917</v>
       </c>
       <c r="C69" t="n">
-        <v>0.27273</v>
+        <v>0.284759</v>
       </c>
       <c r="D69" t="n">
-        <v>0.289009</v>
+        <v>0.292854</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.28689</v>
+        <v>0.288295</v>
       </c>
       <c r="C70" t="n">
-        <v>0.273763</v>
+        <v>0.284832</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290825</v>
+        <v>0.290193</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.293018</v>
+        <v>0.292081</v>
       </c>
       <c r="C71" t="n">
-        <v>0.276223</v>
+        <v>0.287135</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290495</v>
+        <v>0.290306</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296</v>
+        <v>0.29756</v>
       </c>
       <c r="C72" t="n">
-        <v>0.280041</v>
+        <v>0.290016</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291946</v>
+        <v>0.292061</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303273</v>
+        <v>0.304368</v>
       </c>
       <c r="C73" t="n">
-        <v>0.280998</v>
+        <v>0.294243</v>
       </c>
       <c r="D73" t="n">
-        <v>0.291324</v>
+        <v>0.293874</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.312306</v>
+        <v>0.311283</v>
       </c>
       <c r="C74" t="n">
-        <v>0.285856</v>
+        <v>0.299187</v>
       </c>
       <c r="D74" t="n">
-        <v>0.293332</v>
+        <v>0.294271</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324133</v>
+        <v>0.324398</v>
       </c>
       <c r="C75" t="n">
-        <v>0.293345</v>
+        <v>0.307</v>
       </c>
       <c r="D75" t="n">
-        <v>0.297015</v>
+        <v>0.298621</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.338349</v>
+        <v>0.340511</v>
       </c>
       <c r="C76" t="n">
-        <v>0.303426</v>
+        <v>0.317978</v>
       </c>
       <c r="D76" t="n">
-        <v>0.29981</v>
+        <v>0.300586</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.360563</v>
+        <v>0.362524</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317985</v>
+        <v>0.333642</v>
       </c>
       <c r="D77" t="n">
-        <v>0.304829</v>
+        <v>0.30786</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.392764</v>
+        <v>0.395154</v>
       </c>
       <c r="C78" t="n">
-        <v>0.339322</v>
+        <v>0.354177</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313237</v>
+        <v>0.316261</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.438992</v>
+        <v>0.442758</v>
       </c>
       <c r="C79" t="n">
-        <v>0.371706</v>
+        <v>0.391213</v>
       </c>
       <c r="D79" t="n">
-        <v>0.328949</v>
+        <v>0.332697</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.495849</v>
+        <v>0.501069</v>
       </c>
       <c r="C80" t="n">
-        <v>0.426551</v>
+        <v>0.439994</v>
       </c>
       <c r="D80" t="n">
-        <v>0.303629</v>
+        <v>0.305104</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2946</v>
+        <v>0.294969</v>
       </c>
       <c r="C81" t="n">
-        <v>0.284753</v>
+        <v>0.291066</v>
       </c>
       <c r="D81" t="n">
-        <v>0.303708</v>
+        <v>0.305884</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296173</v>
+        <v>0.29653</v>
       </c>
       <c r="C82" t="n">
-        <v>0.285727</v>
+        <v>0.292456</v>
       </c>
       <c r="D82" t="n">
-        <v>0.304584</v>
+        <v>0.306124</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298658</v>
+        <v>0.299133</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287376</v>
+        <v>0.293317</v>
       </c>
       <c r="D83" t="n">
-        <v>0.304637</v>
+        <v>0.306491</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301805</v>
+        <v>0.302084</v>
       </c>
       <c r="C84" t="n">
-        <v>0.288929</v>
+        <v>0.295068</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305256</v>
+        <v>0.307567</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305606</v>
+        <v>0.306163</v>
       </c>
       <c r="C85" t="n">
-        <v>0.290936</v>
+        <v>0.297359</v>
       </c>
       <c r="D85" t="n">
-        <v>0.305774</v>
+        <v>0.307854</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31091</v>
+        <v>0.310958</v>
       </c>
       <c r="C86" t="n">
-        <v>0.293592</v>
+        <v>0.300386</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306654</v>
+        <v>0.308917</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317584</v>
+        <v>0.317844</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297576</v>
+        <v>0.304603</v>
       </c>
       <c r="D87" t="n">
-        <v>0.308517</v>
+        <v>0.310333</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.325938</v>
+        <v>0.325748</v>
       </c>
       <c r="C88" t="n">
-        <v>0.302345</v>
+        <v>0.31011</v>
       </c>
       <c r="D88" t="n">
-        <v>0.310452</v>
+        <v>0.311521</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.338566</v>
+        <v>0.337908</v>
       </c>
       <c r="C89" t="n">
-        <v>0.309678</v>
+        <v>0.317665</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312544</v>
+        <v>0.314329</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353551</v>
+        <v>0.352746</v>
       </c>
       <c r="C90" t="n">
-        <v>0.319223</v>
+        <v>0.34006</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316779</v>
+        <v>0.317803</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375734</v>
+        <v>0.374378</v>
       </c>
       <c r="C91" t="n">
-        <v>0.33325</v>
+        <v>0.342993</v>
       </c>
       <c r="D91" t="n">
-        <v>0.321261</v>
+        <v>0.323334</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.407154</v>
+        <v>0.406438</v>
       </c>
       <c r="C92" t="n">
-        <v>0.354604</v>
+        <v>0.381347</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32999</v>
+        <v>0.33228</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.452404</v>
+        <v>0.452176</v>
       </c>
       <c r="C93" t="n">
-        <v>0.386652</v>
+        <v>0.398911</v>
       </c>
       <c r="D93" t="n">
-        <v>0.344836</v>
+        <v>0.346136</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.512943</v>
+        <v>0.5130400000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.436529</v>
+        <v>0.450533</v>
       </c>
       <c r="D94" t="n">
-        <v>0.313609</v>
+        <v>0.316369</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303445</v>
+        <v>0.304112</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295827</v>
+        <v>0.299861</v>
       </c>
       <c r="D95" t="n">
-        <v>0.314015</v>
+        <v>0.316902</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305573</v>
+        <v>0.306012</v>
       </c>
       <c r="C96" t="n">
-        <v>0.297206</v>
+        <v>0.301018</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314675</v>
+        <v>0.317376</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308054</v>
+        <v>0.309685</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298486</v>
+        <v>0.302927</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315388</v>
+        <v>0.31836</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311109</v>
+        <v>0.311573</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300012</v>
+        <v>0.304392</v>
       </c>
       <c r="D98" t="n">
-        <v>0.315947</v>
+        <v>0.318686</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315142</v>
+        <v>0.315642</v>
       </c>
       <c r="C99" t="n">
-        <v>0.302548</v>
+        <v>0.307373</v>
       </c>
       <c r="D99" t="n">
-        <v>0.317043</v>
+        <v>0.319834</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320395</v>
+        <v>0.320597</v>
       </c>
       <c r="C100" t="n">
-        <v>0.305502</v>
+        <v>0.310307</v>
       </c>
       <c r="D100" t="n">
-        <v>0.318089</v>
+        <v>0.320831</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.326859</v>
+        <v>0.327456</v>
       </c>
       <c r="C101" t="n">
-        <v>0.309688</v>
+        <v>0.31514</v>
       </c>
       <c r="D101" t="n">
-        <v>0.319152</v>
+        <v>0.321711</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.335594</v>
+        <v>0.336161</v>
       </c>
       <c r="C102" t="n">
-        <v>0.316142</v>
+        <v>0.320944</v>
       </c>
       <c r="D102" t="n">
-        <v>0.32143</v>
+        <v>0.323804</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347503</v>
+        <v>0.347449</v>
       </c>
       <c r="C103" t="n">
-        <v>0.323678</v>
+        <v>0.329623</v>
       </c>
       <c r="D103" t="n">
-        <v>0.323526</v>
+        <v>0.325979</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.362829</v>
+        <v>0.36328</v>
       </c>
       <c r="C104" t="n">
-        <v>0.334522</v>
+        <v>0.340242</v>
       </c>
       <c r="D104" t="n">
-        <v>0.326986</v>
+        <v>0.329912</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.384715</v>
+        <v>0.385133</v>
       </c>
       <c r="C105" t="n">
-        <v>0.349638</v>
+        <v>0.366678</v>
       </c>
       <c r="D105" t="n">
-        <v>0.33243</v>
+        <v>0.334778</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.416403</v>
+        <v>0.416769</v>
       </c>
       <c r="C106" t="n">
-        <v>0.373185</v>
+        <v>0.382281</v>
       </c>
       <c r="D106" t="n">
-        <v>0.341289</v>
+        <v>0.342844</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.462044</v>
+        <v>0.462819</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406763</v>
+        <v>0.416975</v>
       </c>
       <c r="D107" t="n">
-        <v>0.354</v>
+        <v>0.35667</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526707</v>
+        <v>0.5278929999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.457019</v>
+        <v>0.488866</v>
       </c>
       <c r="D108" t="n">
-        <v>0.320223</v>
+        <v>0.322782</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.607281</v>
+        <v>0.610171</v>
       </c>
       <c r="C109" t="n">
-        <v>0.538239</v>
+        <v>0.563276</v>
       </c>
       <c r="D109" t="n">
-        <v>0.32105</v>
+        <v>0.323501</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.311682</v>
+        <v>0.312055</v>
       </c>
       <c r="C110" t="n">
-        <v>0.317545</v>
+        <v>0.319841</v>
       </c>
       <c r="D110" t="n">
-        <v>0.322475</v>
+        <v>0.324764</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314426</v>
+        <v>0.315027</v>
       </c>
       <c r="C111" t="n">
-        <v>0.32376</v>
+        <v>0.325072</v>
       </c>
       <c r="D111" t="n">
-        <v>0.323169</v>
+        <v>0.325401</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.318817</v>
+        <v>0.319101</v>
       </c>
       <c r="C112" t="n">
-        <v>0.330778</v>
+        <v>0.330318</v>
       </c>
       <c r="D112" t="n">
-        <v>0.324896</v>
+        <v>0.327292</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324085</v>
+        <v>0.324022</v>
       </c>
       <c r="C113" t="n">
-        <v>0.337177</v>
+        <v>0.338084</v>
       </c>
       <c r="D113" t="n">
-        <v>0.326744</v>
+        <v>0.329008</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330591</v>
+        <v>0.330204</v>
       </c>
       <c r="C114" t="n">
-        <v>0.345788</v>
+        <v>0.345328</v>
       </c>
       <c r="D114" t="n">
-        <v>0.329153</v>
+        <v>0.331499</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.339015</v>
+        <v>0.338732</v>
       </c>
       <c r="C115" t="n">
-        <v>0.354741</v>
+        <v>0.367789</v>
       </c>
       <c r="D115" t="n">
-        <v>0.331747</v>
+        <v>0.333886</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.350746</v>
+        <v>0.350142</v>
       </c>
       <c r="C116" t="n">
-        <v>0.365838</v>
+        <v>0.365862</v>
       </c>
       <c r="D116" t="n">
-        <v>0.335998</v>
+        <v>0.337876</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.366263</v>
+        <v>0.365325</v>
       </c>
       <c r="C117" t="n">
-        <v>0.378437</v>
+        <v>0.377894</v>
       </c>
       <c r="D117" t="n">
-        <v>0.341098</v>
+        <v>0.342353</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.386656</v>
+        <v>0.384923</v>
       </c>
       <c r="C118" t="n">
-        <v>0.393919</v>
+        <v>0.393233</v>
       </c>
       <c r="D118" t="n">
-        <v>0.34811</v>
+        <v>0.348717</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.414433</v>
+        <v>0.411931</v>
       </c>
       <c r="C119" t="n">
-        <v>0.413946</v>
+        <v>0.413778</v>
       </c>
       <c r="D119" t="n">
-        <v>0.35685</v>
+        <v>0.357802</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.451125</v>
+        <v>0.447967</v>
       </c>
       <c r="C120" t="n">
-        <v>0.441589</v>
+        <v>0.441864</v>
       </c>
       <c r="D120" t="n">
-        <v>0.369453</v>
+        <v>0.369758</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.503114</v>
+        <v>0.499295</v>
       </c>
       <c r="C121" t="n">
-        <v>0.478527</v>
+        <v>0.481205</v>
       </c>
       <c r="D121" t="n">
-        <v>0.387771</v>
+        <v>0.387256</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.574821</v>
+        <v>0.570523</v>
       </c>
       <c r="C122" t="n">
-        <v>0.538404</v>
+        <v>0.540785</v>
       </c>
       <c r="D122" t="n">
-        <v>0.417585</v>
+        <v>0.416336</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.669787</v>
+        <v>0.6653210000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.631591</v>
+        <v>0.634168</v>
       </c>
       <c r="D123" t="n">
-        <v>0.35604</v>
+        <v>0.354864</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348318</v>
+        <v>0.34572</v>
       </c>
       <c r="C124" t="n">
-        <v>0.378582</v>
+        <v>0.372758</v>
       </c>
       <c r="D124" t="n">
-        <v>0.358929</v>
+        <v>0.358755</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.352138</v>
+        <v>0.351165</v>
       </c>
       <c r="C125" t="n">
-        <v>0.384545</v>
+        <v>0.37787</v>
       </c>
       <c r="D125" t="n">
-        <v>0.363151</v>
+        <v>0.362653</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.357526</v>
+        <v>0.354642</v>
       </c>
       <c r="C126" t="n">
-        <v>0.388152</v>
+        <v>0.384142</v>
       </c>
       <c r="D126" t="n">
-        <v>0.368845</v>
+        <v>0.365803</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.365406</v>
+        <v>0.361463</v>
       </c>
       <c r="C127" t="n">
-        <v>0.396763</v>
+        <v>0.393688</v>
       </c>
       <c r="D127" t="n">
-        <v>0.375373</v>
+        <v>0.368696</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.375713</v>
+        <v>0.371253</v>
       </c>
       <c r="C128" t="n">
-        <v>0.401423</v>
+        <v>0.395851</v>
       </c>
       <c r="D128" t="n">
-        <v>0.375415</v>
+        <v>0.371816</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383126</v>
+        <v>0.3812</v>
       </c>
       <c r="C129" t="n">
-        <v>0.410736</v>
+        <v>0.405655</v>
       </c>
       <c r="D129" t="n">
-        <v>0.377543</v>
+        <v>0.375584</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.397744</v>
+        <v>0.393824</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418879</v>
+        <v>0.41436</v>
       </c>
       <c r="D130" t="n">
-        <v>0.383034</v>
+        <v>0.38087</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.411893</v>
+        <v>0.406206</v>
       </c>
       <c r="C131" t="n">
-        <v>0.434049</v>
+        <v>0.428237</v>
       </c>
       <c r="D131" t="n">
-        <v>0.392997</v>
+        <v>0.384229</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4307</v>
+        <v>0.426311</v>
       </c>
       <c r="C132" t="n">
-        <v>0.446455</v>
+        <v>0.445519</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395439</v>
+        <v>0.39113</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.458681</v>
+        <v>0.451213</v>
       </c>
       <c r="C133" t="n">
-        <v>0.467708</v>
+        <v>0.464872</v>
       </c>
       <c r="D133" t="n">
-        <v>0.406223</v>
+        <v>0.399012</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.49497</v>
+        <v>0.487352</v>
       </c>
       <c r="C134" t="n">
-        <v>0.498995</v>
+        <v>0.502474</v>
       </c>
       <c r="D134" t="n">
-        <v>0.414084</v>
+        <v>0.409632</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5485409999999999</v>
+        <v>0.537506</v>
       </c>
       <c r="C135" t="n">
-        <v>0.538307</v>
+        <v>0.5327460000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.433745</v>
+        <v>0.427301</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.617652</v>
+        <v>0.611962</v>
       </c>
       <c r="C136" t="n">
-        <v>0.600222</v>
+        <v>0.614271</v>
       </c>
       <c r="D136" t="n">
-        <v>0.460071</v>
+        <v>0.452732</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.725589</v>
+        <v>0.714427</v>
       </c>
       <c r="C137" t="n">
-        <v>0.695195</v>
+        <v>0.693388</v>
       </c>
       <c r="D137" t="n">
-        <v>0.544342</v>
+        <v>0.534695</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.544482</v>
+        <v>0.524724</v>
       </c>
       <c r="C138" t="n">
-        <v>0.57987</v>
+        <v>0.55306</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5551430000000001</v>
+        <v>0.532296</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.559647</v>
+        <v>0.535434</v>
       </c>
       <c r="C139" t="n">
-        <v>0.597442</v>
+        <v>0.56484</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5458809999999999</v>
+        <v>0.532753</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.560209</v>
+        <v>0.532911</v>
       </c>
       <c r="C140" t="n">
-        <v>0.598633</v>
+        <v>0.57268</v>
       </c>
       <c r="D140" t="n">
-        <v>0.557952</v>
+        <v>0.535002</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.574149</v>
+        <v>0.549454</v>
       </c>
       <c r="C141" t="n">
-        <v>0.614113</v>
+        <v>0.58531</v>
       </c>
       <c r="D141" t="n">
-        <v>0.556189</v>
+        <v>0.547876</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.580117</v>
+        <v>0.552972</v>
       </c>
       <c r="C142" t="n">
-        <v>0.613128</v>
+        <v>0.597912</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5755710000000001</v>
+        <v>0.549826</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.598441</v>
+        <v>0.558829</v>
       </c>
       <c r="C143" t="n">
-        <v>0.632474</v>
+        <v>0.609887</v>
       </c>
       <c r="D143" t="n">
-        <v>0.572648</v>
+        <v>0.552895</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.288172</v>
+        <v>0.287221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.287481</v>
+        <v>0.287624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.278287</v>
+        <v>0.278183</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29448</v>
+        <v>0.293528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.28921</v>
+        <v>0.289351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.279148</v>
+        <v>0.278958</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.303614</v>
+        <v>0.302655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.295106</v>
+        <v>0.295321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.281567</v>
+        <v>0.2812</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.318169</v>
+        <v>0.317288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.30484</v>
+        <v>0.305183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.285923</v>
+        <v>0.285314</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337097</v>
+        <v>0.336721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.315405</v>
+        <v>0.315824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290692</v>
+        <v>0.289899</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.369945</v>
+        <v>0.368973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.337687</v>
+        <v>0.338236</v>
       </c>
       <c r="D7" t="n">
-        <v>0.30052</v>
+        <v>0.298015</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414991</v>
+        <v>0.411716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.369087</v>
+        <v>0.369748</v>
       </c>
       <c r="D8" t="n">
-        <v>0.316572</v>
+        <v>0.314329</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.462694</v>
+        <v>0.459087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.423447</v>
+        <v>0.425578</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273475</v>
+        <v>0.273446</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.271473</v>
+        <v>0.271287</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275075</v>
+        <v>0.275224</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273537</v>
+        <v>0.273462</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.272436</v>
+        <v>0.272127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.275128</v>
+        <v>0.275342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273534</v>
+        <v>0.27356</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274575</v>
+        <v>0.274271</v>
       </c>
       <c r="C12" t="n">
-        <v>0.276823</v>
+        <v>0.276972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274255</v>
+        <v>0.274137</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277299</v>
+        <v>0.277027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.278245</v>
+        <v>0.278459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274387</v>
+        <v>0.274324</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280565</v>
+        <v>0.280163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279655</v>
+        <v>0.27979</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274865</v>
+        <v>0.274792</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.285139</v>
+        <v>0.284904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282368</v>
+        <v>0.282561</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275682</v>
+        <v>0.275519</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289898</v>
+        <v>0.289386</v>
       </c>
       <c r="C16" t="n">
-        <v>0.285554</v>
+        <v>0.285674</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276939</v>
+        <v>0.276631</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296776</v>
+        <v>0.296464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.288815</v>
+        <v>0.288921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.278075</v>
+        <v>0.27797</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306633</v>
+        <v>0.306169</v>
       </c>
       <c r="C18" t="n">
-        <v>0.295691</v>
+        <v>0.295697</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28039</v>
+        <v>0.28024</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.319197</v>
+        <v>0.318178</v>
       </c>
       <c r="C19" t="n">
-        <v>0.304482</v>
+        <v>0.304583</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283957</v>
+        <v>0.283237</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.338396</v>
+        <v>0.337483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.315533</v>
+        <v>0.31564</v>
       </c>
       <c r="D20" t="n">
-        <v>0.28775</v>
+        <v>0.287488</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.367153</v>
+        <v>0.365755</v>
       </c>
       <c r="C21" t="n">
-        <v>0.330622</v>
+        <v>0.330753</v>
       </c>
       <c r="D21" t="n">
-        <v>0.295002</v>
+        <v>0.294625</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.407338</v>
+        <v>0.404959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3609</v>
+        <v>0.361161</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308075</v>
+        <v>0.306954</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.464207</v>
+        <v>0.458901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4086</v>
+        <v>0.409578</v>
       </c>
       <c r="D23" t="n">
-        <v>0.27325</v>
+        <v>0.273232</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271992</v>
+        <v>0.271103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.274905</v>
+        <v>0.275143</v>
       </c>
       <c r="D24" t="n">
-        <v>0.275234</v>
+        <v>0.27371</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.273609</v>
+        <v>0.272688</v>
       </c>
       <c r="C25" t="n">
-        <v>0.279688</v>
+        <v>0.275361</v>
       </c>
       <c r="D25" t="n">
-        <v>0.290053</v>
+        <v>0.273731</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296779</v>
+        <v>0.274493</v>
       </c>
       <c r="C26" t="n">
-        <v>0.283951</v>
+        <v>0.276505</v>
       </c>
       <c r="D26" t="n">
-        <v>0.290553</v>
+        <v>0.274108</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.299013</v>
+        <v>0.276545</v>
       </c>
       <c r="C27" t="n">
-        <v>0.285149</v>
+        <v>0.277403</v>
       </c>
       <c r="D27" t="n">
-        <v>0.290885</v>
+        <v>0.27447</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.302168</v>
+        <v>0.279785</v>
       </c>
       <c r="C28" t="n">
-        <v>0.287517</v>
+        <v>0.279365</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291917</v>
+        <v>0.275376</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.305999</v>
+        <v>0.283389</v>
       </c>
       <c r="C29" t="n">
-        <v>0.290123</v>
+        <v>0.281442</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292344</v>
+        <v>0.275835</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310617</v>
+        <v>0.287853</v>
       </c>
       <c r="C30" t="n">
-        <v>0.293594</v>
+        <v>0.284344</v>
       </c>
       <c r="D30" t="n">
-        <v>0.293447</v>
+        <v>0.276851</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.317619</v>
+        <v>0.294502</v>
       </c>
       <c r="C31" t="n">
-        <v>0.297977</v>
+        <v>0.288804</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293513</v>
+        <v>0.278031</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.328574</v>
+        <v>0.304708</v>
       </c>
       <c r="C32" t="n">
-        <v>0.304816</v>
+        <v>0.294665</v>
       </c>
       <c r="D32" t="n">
-        <v>0.295735</v>
+        <v>0.280224</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.342078</v>
+        <v>0.317571</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315031</v>
+        <v>0.30401</v>
       </c>
       <c r="D33" t="n">
-        <v>0.29938</v>
+        <v>0.283917</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.361165</v>
+        <v>0.335474</v>
       </c>
       <c r="C34" t="n">
-        <v>0.328368</v>
+        <v>0.316466</v>
       </c>
       <c r="D34" t="n">
-        <v>0.303791</v>
+        <v>0.288522</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.364181</v>
+        <v>0.362855</v>
       </c>
       <c r="C35" t="n">
-        <v>0.333344</v>
+        <v>0.333337</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296019</v>
+        <v>0.296297</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402148</v>
+        <v>0.401265</v>
       </c>
       <c r="C36" t="n">
-        <v>0.362945</v>
+        <v>0.363105</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308885</v>
+        <v>0.308198</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.451155</v>
+        <v>0.449882</v>
       </c>
       <c r="C37" t="n">
-        <v>0.402801</v>
+        <v>0.403356</v>
       </c>
       <c r="D37" t="n">
-        <v>0.274944</v>
+        <v>0.273697</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271253</v>
+        <v>0.271144</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27454</v>
+        <v>0.28271</v>
       </c>
       <c r="D38" t="n">
-        <v>0.275152</v>
+        <v>0.289093</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.273019</v>
+        <v>0.272512</v>
       </c>
       <c r="C39" t="n">
-        <v>0.275405</v>
+        <v>0.275672</v>
       </c>
       <c r="D39" t="n">
-        <v>0.273983</v>
+        <v>0.274021</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274671</v>
+        <v>0.274302</v>
       </c>
       <c r="C40" t="n">
-        <v>0.283068</v>
+        <v>0.276711</v>
       </c>
       <c r="D40" t="n">
-        <v>0.289841</v>
+        <v>0.274366</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276614</v>
+        <v>0.276439</v>
       </c>
       <c r="C41" t="n">
-        <v>0.28426</v>
+        <v>0.277738</v>
       </c>
       <c r="D41" t="n">
-        <v>0.274823</v>
+        <v>0.27466</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279473</v>
+        <v>0.279164</v>
       </c>
       <c r="C42" t="n">
-        <v>0.279402</v>
+        <v>0.279651</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276989</v>
+        <v>0.277114</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283717</v>
+        <v>0.283524</v>
       </c>
       <c r="C43" t="n">
-        <v>0.281483</v>
+        <v>0.281644</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276044</v>
+        <v>0.276167</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288964</v>
+        <v>0.288475</v>
       </c>
       <c r="C44" t="n">
-        <v>0.284965</v>
+        <v>0.28858</v>
       </c>
       <c r="D44" t="n">
-        <v>0.278887</v>
+        <v>0.27714</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295746</v>
+        <v>0.295436</v>
       </c>
       <c r="C45" t="n">
-        <v>0.288635</v>
+        <v>0.298229</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278302</v>
+        <v>0.278285</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304875</v>
+        <v>0.304686</v>
       </c>
       <c r="C46" t="n">
-        <v>0.295315</v>
+        <v>0.305721</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281052</v>
+        <v>0.296491</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.316679</v>
+        <v>0.31618</v>
       </c>
       <c r="C47" t="n">
-        <v>0.303299</v>
+        <v>0.303493</v>
       </c>
       <c r="D47" t="n">
-        <v>0.285032</v>
+        <v>0.285359</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.333337</v>
+        <v>0.332694</v>
       </c>
       <c r="C48" t="n">
-        <v>0.313658</v>
+        <v>0.325714</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28804</v>
+        <v>0.304135</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.357504</v>
+        <v>0.356712</v>
       </c>
       <c r="C49" t="n">
-        <v>0.329911</v>
+        <v>0.330006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.294395</v>
+        <v>0.296358</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393905</v>
+        <v>0.392506</v>
       </c>
       <c r="C50" t="n">
-        <v>0.355801</v>
+        <v>0.355154</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306423</v>
+        <v>0.306883</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.442683</v>
+        <v>0.440667</v>
       </c>
       <c r="C51" t="n">
-        <v>0.40218</v>
+        <v>0.394</v>
       </c>
       <c r="D51" t="n">
-        <v>0.276171</v>
+        <v>0.274697</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.498039</v>
+        <v>0.49576</v>
       </c>
       <c r="C52" t="n">
-        <v>0.46392</v>
+        <v>0.448955</v>
       </c>
       <c r="D52" t="n">
-        <v>0.276752</v>
+        <v>0.275725</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.274371</v>
+        <v>0.273598</v>
       </c>
       <c r="C53" t="n">
-        <v>0.275831</v>
+        <v>0.276728</v>
       </c>
       <c r="D53" t="n">
-        <v>0.275924</v>
+        <v>0.277039</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.277028</v>
+        <v>0.276197</v>
       </c>
       <c r="C54" t="n">
-        <v>0.276715</v>
+        <v>0.286884</v>
       </c>
       <c r="D54" t="n">
-        <v>0.275865</v>
+        <v>0.29112</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.277834</v>
+        <v>0.27817</v>
       </c>
       <c r="C55" t="n">
-        <v>0.278303</v>
+        <v>0.278429</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277493</v>
+        <v>0.277697</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280771</v>
+        <v>0.280271</v>
       </c>
       <c r="C56" t="n">
-        <v>0.287625</v>
+        <v>0.289422</v>
       </c>
       <c r="D56" t="n">
-        <v>0.277524</v>
+        <v>0.292138</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.28447</v>
+        <v>0.284075</v>
       </c>
       <c r="C57" t="n">
-        <v>0.284112</v>
+        <v>0.282175</v>
       </c>
       <c r="D57" t="n">
-        <v>0.279257</v>
+        <v>0.277875</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.29028</v>
+        <v>0.289701</v>
       </c>
       <c r="C58" t="n">
-        <v>0.285944</v>
+        <v>0.294619</v>
       </c>
       <c r="D58" t="n">
-        <v>0.281833</v>
+        <v>0.293767</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295478</v>
+        <v>0.295562</v>
       </c>
       <c r="C59" t="n">
-        <v>0.300522</v>
+        <v>0.288381</v>
       </c>
       <c r="D59" t="n">
-        <v>0.284508</v>
+        <v>0.294911</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304878</v>
+        <v>0.303928</v>
       </c>
       <c r="C60" t="n">
-        <v>0.294841</v>
+        <v>0.298199</v>
       </c>
       <c r="D60" t="n">
-        <v>0.285472</v>
+        <v>0.283324</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.315641</v>
+        <v>0.315584</v>
       </c>
       <c r="C61" t="n">
-        <v>0.300443</v>
+        <v>0.311072</v>
       </c>
       <c r="D61" t="n">
-        <v>0.284638</v>
+        <v>0.299918</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.332374</v>
+        <v>0.333139</v>
       </c>
       <c r="C62" t="n">
-        <v>0.321847</v>
+        <v>0.311056</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288131</v>
+        <v>0.289989</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.355175</v>
+        <v>0.353979</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33851</v>
+        <v>0.325199</v>
       </c>
       <c r="D63" t="n">
-        <v>0.295762</v>
+        <v>0.295201</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.388249</v>
+        <v>0.386725</v>
       </c>
       <c r="C64" t="n">
-        <v>0.348273</v>
+        <v>0.348324</v>
       </c>
       <c r="D64" t="n">
-        <v>0.304427</v>
+        <v>0.3044</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.432777</v>
+        <v>0.431441</v>
       </c>
       <c r="C65" t="n">
-        <v>0.384377</v>
+        <v>0.383051</v>
       </c>
       <c r="D65" t="n">
-        <v>0.321071</v>
+        <v>0.322006</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.492902</v>
+        <v>0.489437</v>
       </c>
       <c r="C66" t="n">
-        <v>0.438786</v>
+        <v>0.437978</v>
       </c>
       <c r="D66" t="n">
-        <v>0.288161</v>
+        <v>0.28781</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.280938</v>
+        <v>0.2819</v>
       </c>
       <c r="C67" t="n">
-        <v>0.280913</v>
+        <v>0.281762</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288436</v>
+        <v>0.288782</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282601</v>
+        <v>0.282231</v>
       </c>
       <c r="C68" t="n">
-        <v>0.282246</v>
+        <v>0.2835</v>
       </c>
       <c r="D68" t="n">
-        <v>0.290073</v>
+        <v>0.290535</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285917</v>
+        <v>0.285542</v>
       </c>
       <c r="C69" t="n">
-        <v>0.284759</v>
+        <v>0.284114</v>
       </c>
       <c r="D69" t="n">
-        <v>0.292854</v>
+        <v>0.288468</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.288295</v>
+        <v>0.289282</v>
       </c>
       <c r="C70" t="n">
-        <v>0.284832</v>
+        <v>0.286447</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290193</v>
+        <v>0.291786</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.292081</v>
+        <v>0.291729</v>
       </c>
       <c r="C71" t="n">
-        <v>0.287135</v>
+        <v>0.288379</v>
       </c>
       <c r="D71" t="n">
-        <v>0.290306</v>
+        <v>0.291236</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.29756</v>
+        <v>0.297195</v>
       </c>
       <c r="C72" t="n">
-        <v>0.290016</v>
+        <v>0.290674</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292061</v>
+        <v>0.291629</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304368</v>
+        <v>0.302688</v>
       </c>
       <c r="C73" t="n">
-        <v>0.294243</v>
+        <v>0.294456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.293874</v>
+        <v>0.292295</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311283</v>
+        <v>0.311248</v>
       </c>
       <c r="C74" t="n">
-        <v>0.299187</v>
+        <v>0.299951</v>
       </c>
       <c r="D74" t="n">
-        <v>0.294271</v>
+        <v>0.294526</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324398</v>
+        <v>0.32354</v>
       </c>
       <c r="C75" t="n">
-        <v>0.307</v>
+        <v>0.307373</v>
       </c>
       <c r="D75" t="n">
-        <v>0.298621</v>
+        <v>0.29788</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.340511</v>
+        <v>0.340446</v>
       </c>
       <c r="C76" t="n">
-        <v>0.317978</v>
+        <v>0.317229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.300586</v>
+        <v>0.30179</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.362524</v>
+        <v>0.36285</v>
       </c>
       <c r="C77" t="n">
-        <v>0.333642</v>
+        <v>0.344046</v>
       </c>
       <c r="D77" t="n">
-        <v>0.30786</v>
+        <v>0.30776</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.395154</v>
+        <v>0.39257</v>
       </c>
       <c r="C78" t="n">
-        <v>0.354177</v>
+        <v>0.354991</v>
       </c>
       <c r="D78" t="n">
-        <v>0.316261</v>
+        <v>0.3156</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.442758</v>
+        <v>0.439234</v>
       </c>
       <c r="C79" t="n">
-        <v>0.391213</v>
+        <v>0.387757</v>
       </c>
       <c r="D79" t="n">
-        <v>0.332697</v>
+        <v>0.331078</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.501069</v>
+        <v>0.497755</v>
       </c>
       <c r="C80" t="n">
-        <v>0.439994</v>
+        <v>0.442146</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305104</v>
+        <v>0.305398</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294969</v>
+        <v>0.294709</v>
       </c>
       <c r="C81" t="n">
-        <v>0.291066</v>
+        <v>0.29228</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305884</v>
+        <v>0.305495</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.29653</v>
+        <v>0.296522</v>
       </c>
       <c r="C82" t="n">
-        <v>0.292456</v>
+        <v>0.293561</v>
       </c>
       <c r="D82" t="n">
-        <v>0.306124</v>
+        <v>0.305719</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.299133</v>
+        <v>0.29972</v>
       </c>
       <c r="C83" t="n">
-        <v>0.293317</v>
+        <v>0.294943</v>
       </c>
       <c r="D83" t="n">
-        <v>0.306491</v>
+        <v>0.306596</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302084</v>
+        <v>0.302892</v>
       </c>
       <c r="C84" t="n">
-        <v>0.295068</v>
+        <v>0.304786</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307567</v>
+        <v>0.307328</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.306163</v>
+        <v>0.306445</v>
       </c>
       <c r="C85" t="n">
-        <v>0.297359</v>
+        <v>0.304782</v>
       </c>
       <c r="D85" t="n">
-        <v>0.307854</v>
+        <v>0.308028</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.310958</v>
+        <v>0.31131</v>
       </c>
       <c r="C86" t="n">
-        <v>0.300386</v>
+        <v>0.301868</v>
       </c>
       <c r="D86" t="n">
-        <v>0.308917</v>
+        <v>0.308812</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317844</v>
+        <v>0.31822</v>
       </c>
       <c r="C87" t="n">
-        <v>0.304603</v>
+        <v>0.305282</v>
       </c>
       <c r="D87" t="n">
-        <v>0.310333</v>
+        <v>0.310307</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.325748</v>
+        <v>0.32603</v>
       </c>
       <c r="C88" t="n">
-        <v>0.31011</v>
+        <v>0.310631</v>
       </c>
       <c r="D88" t="n">
-        <v>0.311521</v>
+        <v>0.311457</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337908</v>
+        <v>0.337355</v>
       </c>
       <c r="C89" t="n">
-        <v>0.317665</v>
+        <v>0.318584</v>
       </c>
       <c r="D89" t="n">
-        <v>0.314329</v>
+        <v>0.314094</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352746</v>
+        <v>0.352483</v>
       </c>
       <c r="C90" t="n">
-        <v>0.34006</v>
+        <v>0.328466</v>
       </c>
       <c r="D90" t="n">
-        <v>0.317803</v>
+        <v>0.317564</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374378</v>
+        <v>0.374278</v>
       </c>
       <c r="C91" t="n">
-        <v>0.342993</v>
+        <v>0.343544</v>
       </c>
       <c r="D91" t="n">
-        <v>0.323334</v>
+        <v>0.3232</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.406438</v>
+        <v>0.422964</v>
       </c>
       <c r="C92" t="n">
-        <v>0.381347</v>
+        <v>0.365534</v>
       </c>
       <c r="D92" t="n">
-        <v>0.33228</v>
+        <v>0.331463</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.452176</v>
+        <v>0.449971</v>
       </c>
       <c r="C93" t="n">
-        <v>0.398911</v>
+        <v>0.399164</v>
       </c>
       <c r="D93" t="n">
-        <v>0.346136</v>
+        <v>0.34634</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5130400000000001</v>
+        <v>0.509033</v>
       </c>
       <c r="C94" t="n">
-        <v>0.450533</v>
+        <v>0.46735</v>
       </c>
       <c r="D94" t="n">
-        <v>0.316369</v>
+        <v>0.316169</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.304112</v>
+        <v>0.303892</v>
       </c>
       <c r="C95" t="n">
-        <v>0.299861</v>
+        <v>0.301503</v>
       </c>
       <c r="D95" t="n">
-        <v>0.316902</v>
+        <v>0.316869</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.306012</v>
+        <v>0.306423</v>
       </c>
       <c r="C96" t="n">
-        <v>0.301018</v>
+        <v>0.302836</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317376</v>
+        <v>0.317504</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.309685</v>
+        <v>0.309</v>
       </c>
       <c r="C97" t="n">
-        <v>0.302927</v>
+        <v>0.304325</v>
       </c>
       <c r="D97" t="n">
-        <v>0.31836</v>
+        <v>0.318221</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311573</v>
+        <v>0.311562</v>
       </c>
       <c r="C98" t="n">
-        <v>0.304392</v>
+        <v>0.306348</v>
       </c>
       <c r="D98" t="n">
-        <v>0.318686</v>
+        <v>0.318657</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315642</v>
+        <v>0.315352</v>
       </c>
       <c r="C99" t="n">
-        <v>0.307373</v>
+        <v>0.308783</v>
       </c>
       <c r="D99" t="n">
-        <v>0.319834</v>
+        <v>0.319368</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320597</v>
+        <v>0.320571</v>
       </c>
       <c r="C100" t="n">
-        <v>0.310307</v>
+        <v>0.312881</v>
       </c>
       <c r="D100" t="n">
-        <v>0.320831</v>
+        <v>0.320562</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.327456</v>
+        <v>0.326972</v>
       </c>
       <c r="C101" t="n">
-        <v>0.31514</v>
+        <v>0.317159</v>
       </c>
       <c r="D101" t="n">
-        <v>0.321711</v>
+        <v>0.321896</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.336161</v>
+        <v>0.335708</v>
       </c>
       <c r="C102" t="n">
-        <v>0.320944</v>
+        <v>0.324099</v>
       </c>
       <c r="D102" t="n">
-        <v>0.323804</v>
+        <v>0.323456</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347449</v>
+        <v>0.347147</v>
       </c>
       <c r="C103" t="n">
-        <v>0.329623</v>
+        <v>0.333227</v>
       </c>
       <c r="D103" t="n">
-        <v>0.325979</v>
+        <v>0.325908</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.36328</v>
+        <v>0.362203</v>
       </c>
       <c r="C104" t="n">
-        <v>0.340242</v>
+        <v>0.34453</v>
       </c>
       <c r="D104" t="n">
-        <v>0.329912</v>
+        <v>0.329418</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.385133</v>
+        <v>0.384204</v>
       </c>
       <c r="C105" t="n">
-        <v>0.366678</v>
+        <v>0.360745</v>
       </c>
       <c r="D105" t="n">
-        <v>0.334778</v>
+        <v>0.334876</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.416769</v>
+        <v>0.415468</v>
       </c>
       <c r="C106" t="n">
-        <v>0.382281</v>
+        <v>0.383633</v>
       </c>
       <c r="D106" t="n">
-        <v>0.342844</v>
+        <v>0.343212</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.462819</v>
+        <v>0.459747</v>
       </c>
       <c r="C107" t="n">
-        <v>0.416975</v>
+        <v>0.41823</v>
       </c>
       <c r="D107" t="n">
-        <v>0.35667</v>
+        <v>0.357155</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5278929999999999</v>
+        <v>0.525351</v>
       </c>
       <c r="C108" t="n">
-        <v>0.488866</v>
+        <v>0.47161</v>
       </c>
       <c r="D108" t="n">
-        <v>0.322782</v>
+        <v>0.322428</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.610171</v>
+        <v>0.611277</v>
       </c>
       <c r="C109" t="n">
-        <v>0.563276</v>
+        <v>0.549899</v>
       </c>
       <c r="D109" t="n">
-        <v>0.323501</v>
+        <v>0.323448</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312055</v>
+        <v>0.311865</v>
       </c>
       <c r="C110" t="n">
-        <v>0.319841</v>
+        <v>0.33005</v>
       </c>
       <c r="D110" t="n">
-        <v>0.324764</v>
+        <v>0.325009</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.315027</v>
+        <v>0.314805</v>
       </c>
       <c r="C111" t="n">
-        <v>0.325072</v>
+        <v>0.335949</v>
       </c>
       <c r="D111" t="n">
-        <v>0.325401</v>
+        <v>0.32567</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319101</v>
+        <v>0.318999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.330318</v>
+        <v>0.341688</v>
       </c>
       <c r="D112" t="n">
-        <v>0.327292</v>
+        <v>0.327347</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324022</v>
+        <v>0.323998</v>
       </c>
       <c r="C113" t="n">
-        <v>0.338084</v>
+        <v>0.347939</v>
       </c>
       <c r="D113" t="n">
-        <v>0.329008</v>
+        <v>0.329285</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330204</v>
+        <v>0.330176</v>
       </c>
       <c r="C114" t="n">
-        <v>0.345328</v>
+        <v>0.354072</v>
       </c>
       <c r="D114" t="n">
-        <v>0.331499</v>
+        <v>0.331192</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.338732</v>
+        <v>0.354141</v>
       </c>
       <c r="C115" t="n">
-        <v>0.367789</v>
+        <v>0.361872</v>
       </c>
       <c r="D115" t="n">
-        <v>0.333886</v>
+        <v>0.33414</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.350142</v>
+        <v>0.349844</v>
       </c>
       <c r="C116" t="n">
-        <v>0.365862</v>
+        <v>0.371368</v>
       </c>
       <c r="D116" t="n">
-        <v>0.337876</v>
+        <v>0.337195</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.365325</v>
+        <v>0.365005</v>
       </c>
       <c r="C117" t="n">
-        <v>0.377894</v>
+        <v>0.382687</v>
       </c>
       <c r="D117" t="n">
-        <v>0.342353</v>
+        <v>0.342451</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.384923</v>
+        <v>0.384298</v>
       </c>
       <c r="C118" t="n">
-        <v>0.393233</v>
+        <v>0.397174</v>
       </c>
       <c r="D118" t="n">
-        <v>0.348717</v>
+        <v>0.348687</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.411931</v>
+        <v>0.411083</v>
       </c>
       <c r="C119" t="n">
-        <v>0.413778</v>
+        <v>0.416085</v>
       </c>
       <c r="D119" t="n">
-        <v>0.357802</v>
+        <v>0.357283</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.447967</v>
+        <v>0.446496</v>
       </c>
       <c r="C120" t="n">
-        <v>0.441864</v>
+        <v>0.442676</v>
       </c>
       <c r="D120" t="n">
-        <v>0.369758</v>
+        <v>0.369863</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.499295</v>
+        <v>0.497337</v>
       </c>
       <c r="C121" t="n">
-        <v>0.481205</v>
+        <v>0.481218</v>
       </c>
       <c r="D121" t="n">
-        <v>0.387256</v>
+        <v>0.387145</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.570523</v>
+        <v>0.568261</v>
       </c>
       <c r="C122" t="n">
-        <v>0.540785</v>
+        <v>0.539633</v>
       </c>
       <c r="D122" t="n">
-        <v>0.416336</v>
+        <v>0.415851</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6653210000000001</v>
+        <v>0.672258</v>
       </c>
       <c r="C123" t="n">
-        <v>0.634168</v>
+        <v>0.630999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.354864</v>
+        <v>0.35704</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34572</v>
+        <v>0.342572</v>
       </c>
       <c r="C124" t="n">
-        <v>0.372758</v>
+        <v>0.380323</v>
       </c>
       <c r="D124" t="n">
-        <v>0.358755</v>
+        <v>0.358018</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.351165</v>
+        <v>0.348972</v>
       </c>
       <c r="C125" t="n">
-        <v>0.37787</v>
+        <v>0.381631</v>
       </c>
       <c r="D125" t="n">
-        <v>0.362653</v>
+        <v>0.362272</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.354642</v>
+        <v>0.35662</v>
       </c>
       <c r="C126" t="n">
-        <v>0.384142</v>
+        <v>0.390603</v>
       </c>
       <c r="D126" t="n">
-        <v>0.365803</v>
+        <v>0.363947</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.361463</v>
+        <v>0.366269</v>
       </c>
       <c r="C127" t="n">
-        <v>0.393688</v>
+        <v>0.392154</v>
       </c>
       <c r="D127" t="n">
-        <v>0.368696</v>
+        <v>0.367517</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.371253</v>
+        <v>0.370417</v>
       </c>
       <c r="C128" t="n">
-        <v>0.395851</v>
+        <v>0.399707</v>
       </c>
       <c r="D128" t="n">
-        <v>0.371816</v>
+        <v>0.372345</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3812</v>
+        <v>0.379577</v>
       </c>
       <c r="C129" t="n">
-        <v>0.405655</v>
+        <v>0.406877</v>
       </c>
       <c r="D129" t="n">
-        <v>0.375584</v>
+        <v>0.375336</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.393824</v>
+        <v>0.391</v>
       </c>
       <c r="C130" t="n">
-        <v>0.41436</v>
+        <v>0.418944</v>
       </c>
       <c r="D130" t="n">
-        <v>0.38087</v>
+        <v>0.380645</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406206</v>
+        <v>0.409994</v>
       </c>
       <c r="C131" t="n">
-        <v>0.428237</v>
+        <v>0.426711</v>
       </c>
       <c r="D131" t="n">
-        <v>0.384229</v>
+        <v>0.388099</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.426311</v>
+        <v>0.424583</v>
       </c>
       <c r="C132" t="n">
-        <v>0.445519</v>
+        <v>0.44416</v>
       </c>
       <c r="D132" t="n">
-        <v>0.39113</v>
+        <v>0.393839</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.451213</v>
+        <v>0.449911</v>
       </c>
       <c r="C133" t="n">
-        <v>0.464872</v>
+        <v>0.469244</v>
       </c>
       <c r="D133" t="n">
-        <v>0.399012</v>
+        <v>0.40184</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.487352</v>
+        <v>0.488698</v>
       </c>
       <c r="C134" t="n">
-        <v>0.502474</v>
+        <v>0.4945</v>
       </c>
       <c r="D134" t="n">
-        <v>0.409632</v>
+        <v>0.411462</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.537506</v>
+        <v>0.535494</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5327460000000001</v>
+        <v>0.538178</v>
       </c>
       <c r="D135" t="n">
-        <v>0.427301</v>
+        <v>0.425498</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.611962</v>
+        <v>0.607285</v>
       </c>
       <c r="C136" t="n">
-        <v>0.614271</v>
+        <v>0.597313</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452732</v>
+        <v>0.452906</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.714427</v>
+        <v>0.705798</v>
       </c>
       <c r="C137" t="n">
-        <v>0.693388</v>
+        <v>0.693235</v>
       </c>
       <c r="D137" t="n">
-        <v>0.534695</v>
+        <v>0.52998</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.524724</v>
+        <v>0.520807</v>
       </c>
       <c r="C138" t="n">
-        <v>0.55306</v>
+        <v>0.575646</v>
       </c>
       <c r="D138" t="n">
-        <v>0.532296</v>
+        <v>0.537031</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.535434</v>
+        <v>0.528999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.56484</v>
+        <v>0.581474</v>
       </c>
       <c r="D139" t="n">
-        <v>0.532753</v>
+        <v>0.534184</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.532911</v>
+        <v>0.535454</v>
       </c>
       <c r="C140" t="n">
-        <v>0.57268</v>
+        <v>0.593611</v>
       </c>
       <c r="D140" t="n">
-        <v>0.535002</v>
+        <v>0.547245</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.549454</v>
+        <v>0.541531</v>
       </c>
       <c r="C141" t="n">
-        <v>0.58531</v>
+        <v>0.606379</v>
       </c>
       <c r="D141" t="n">
-        <v>0.547876</v>
+        <v>0.535002</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.552972</v>
+        <v>0.555883</v>
       </c>
       <c r="C142" t="n">
-        <v>0.597912</v>
+        <v>0.604367</v>
       </c>
       <c r="D142" t="n">
-        <v>0.549826</v>
+        <v>0.5460429999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.558829</v>
+        <v>0.570302</v>
       </c>
       <c r="C143" t="n">
-        <v>0.609887</v>
+        <v>0.6250790000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.552895</v>
+        <v>0.552054</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.287221</v>
+        <v>0.287794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.287624</v>
+        <v>0.263743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.278183</v>
+        <v>0.277901</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293528</v>
+        <v>0.294153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.289351</v>
+        <v>0.265538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.278958</v>
+        <v>0.278938</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.302655</v>
+        <v>0.303353</v>
       </c>
       <c r="C4" t="n">
-        <v>0.295321</v>
+        <v>0.270952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2812</v>
+        <v>0.28135</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.317288</v>
+        <v>0.318025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.305183</v>
+        <v>0.280744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.285314</v>
+        <v>0.285754</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.336721</v>
+        <v>0.337339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.315824</v>
+        <v>0.291271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.289899</v>
+        <v>0.290583</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.368973</v>
+        <v>0.370027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.338236</v>
+        <v>0.313579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.298015</v>
+        <v>0.300255</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.411716</v>
+        <v>0.414062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.369748</v>
+        <v>0.344868</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314329</v>
+        <v>0.316365</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.459087</v>
+        <v>0.462097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.425578</v>
+        <v>0.399307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273446</v>
+        <v>0.273367</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.271287</v>
+        <v>0.271196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275224</v>
+        <v>0.253399</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273462</v>
+        <v>0.273355</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.272127</v>
+        <v>0.272199</v>
       </c>
       <c r="C11" t="n">
-        <v>0.275342</v>
+        <v>0.253627</v>
       </c>
       <c r="D11" t="n">
-        <v>0.27356</v>
+        <v>0.273471</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274271</v>
+        <v>0.274342</v>
       </c>
       <c r="C12" t="n">
-        <v>0.276972</v>
+        <v>0.25524</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274137</v>
+        <v>0.274105</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277027</v>
+        <v>0.277095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.278459</v>
+        <v>0.25682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274324</v>
+        <v>0.274272</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280163</v>
+        <v>0.280237</v>
       </c>
       <c r="C14" t="n">
-        <v>0.27979</v>
+        <v>0.258059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274792</v>
+        <v>0.274758</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284904</v>
+        <v>0.284978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282561</v>
+        <v>0.260515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275519</v>
+        <v>0.27554</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289386</v>
+        <v>0.289657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.285674</v>
+        <v>0.263553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276631</v>
+        <v>0.276798</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296464</v>
+        <v>0.296677</v>
       </c>
       <c r="C17" t="n">
-        <v>0.288921</v>
+        <v>0.266586</v>
       </c>
       <c r="D17" t="n">
-        <v>0.27797</v>
+        <v>0.277955</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306169</v>
+        <v>0.306691</v>
       </c>
       <c r="C18" t="n">
-        <v>0.295697</v>
+        <v>0.273235</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28024</v>
+        <v>0.280275</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318178</v>
+        <v>0.31901</v>
       </c>
       <c r="C19" t="n">
-        <v>0.304583</v>
+        <v>0.282004</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283237</v>
+        <v>0.283799</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337483</v>
+        <v>0.337703</v>
       </c>
       <c r="C20" t="n">
-        <v>0.31564</v>
+        <v>0.292456</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287488</v>
+        <v>0.287713</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.365755</v>
+        <v>0.366707</v>
       </c>
       <c r="C21" t="n">
-        <v>0.330753</v>
+        <v>0.30767</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294625</v>
+        <v>0.294958</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404959</v>
+        <v>0.406785</v>
       </c>
       <c r="C22" t="n">
-        <v>0.361161</v>
+        <v>0.33789</v>
       </c>
       <c r="D22" t="n">
-        <v>0.306954</v>
+        <v>0.308191</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.458901</v>
+        <v>0.461489</v>
       </c>
       <c r="C23" t="n">
-        <v>0.409578</v>
+        <v>0.384998</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273232</v>
+        <v>0.273282</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271103</v>
+        <v>0.271403</v>
       </c>
       <c r="C24" t="n">
-        <v>0.275143</v>
+        <v>0.256121</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27371</v>
+        <v>0.273681</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272688</v>
+        <v>0.272746</v>
       </c>
       <c r="C25" t="n">
-        <v>0.275361</v>
+        <v>0.256453</v>
       </c>
       <c r="D25" t="n">
-        <v>0.273731</v>
+        <v>0.273699</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274493</v>
+        <v>0.274581</v>
       </c>
       <c r="C26" t="n">
-        <v>0.276505</v>
+        <v>0.257384</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274108</v>
+        <v>0.274083</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276545</v>
+        <v>0.276617</v>
       </c>
       <c r="C27" t="n">
-        <v>0.277403</v>
+        <v>0.258261</v>
       </c>
       <c r="D27" t="n">
-        <v>0.27447</v>
+        <v>0.274447</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279785</v>
+        <v>0.279884</v>
       </c>
       <c r="C28" t="n">
-        <v>0.279365</v>
+        <v>0.260224</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275376</v>
+        <v>0.27535</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283389</v>
+        <v>0.283521</v>
       </c>
       <c r="C29" t="n">
-        <v>0.281442</v>
+        <v>0.262252</v>
       </c>
       <c r="D29" t="n">
-        <v>0.275835</v>
+        <v>0.275706</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287853</v>
+        <v>0.288079</v>
       </c>
       <c r="C30" t="n">
-        <v>0.284344</v>
+        <v>0.265029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276851</v>
+        <v>0.276799</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294502</v>
+        <v>0.294866</v>
       </c>
       <c r="C31" t="n">
-        <v>0.288804</v>
+        <v>0.269316</v>
       </c>
       <c r="D31" t="n">
-        <v>0.278031</v>
+        <v>0.277905</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304708</v>
+        <v>0.30519</v>
       </c>
       <c r="C32" t="n">
-        <v>0.294665</v>
+        <v>0.274871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280224</v>
+        <v>0.280099</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317571</v>
+        <v>0.318216</v>
       </c>
       <c r="C33" t="n">
-        <v>0.30401</v>
+        <v>0.283878</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283917</v>
+        <v>0.283831</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.335474</v>
+        <v>0.336111</v>
       </c>
       <c r="C34" t="n">
-        <v>0.316466</v>
+        <v>0.296164</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288522</v>
+        <v>0.288237</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.362855</v>
+        <v>0.363871</v>
       </c>
       <c r="C35" t="n">
-        <v>0.333337</v>
+        <v>0.312579</v>
       </c>
       <c r="D35" t="n">
-        <v>0.296297</v>
+        <v>0.295884</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401265</v>
+        <v>0.402521</v>
       </c>
       <c r="C36" t="n">
-        <v>0.363105</v>
+        <v>0.342057</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308198</v>
+        <v>0.308123</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.449882</v>
+        <v>0.453758</v>
       </c>
       <c r="C37" t="n">
-        <v>0.403356</v>
+        <v>0.380413</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273697</v>
+        <v>0.274758</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271144</v>
+        <v>0.271325</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28271</v>
+        <v>0.257363</v>
       </c>
       <c r="D38" t="n">
-        <v>0.289093</v>
+        <v>0.275014</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.272512</v>
+        <v>0.27279</v>
       </c>
       <c r="C39" t="n">
-        <v>0.275672</v>
+        <v>0.258158</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274021</v>
+        <v>0.273935</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274302</v>
+        <v>0.274423</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276711</v>
+        <v>0.258958</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274366</v>
+        <v>0.275893</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276439</v>
+        <v>0.276556</v>
       </c>
       <c r="C41" t="n">
-        <v>0.277738</v>
+        <v>0.260227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.27466</v>
+        <v>0.274625</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279164</v>
+        <v>0.279416</v>
       </c>
       <c r="C42" t="n">
-        <v>0.279651</v>
+        <v>0.262025</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277114</v>
+        <v>0.275266</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283524</v>
+        <v>0.283651</v>
       </c>
       <c r="C43" t="n">
-        <v>0.281644</v>
+        <v>0.264009</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276167</v>
+        <v>0.276042</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288475</v>
+        <v>0.288952</v>
       </c>
       <c r="C44" t="n">
-        <v>0.28858</v>
+        <v>0.267349</v>
       </c>
       <c r="D44" t="n">
-        <v>0.27714</v>
+        <v>0.278595</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295436</v>
+        <v>0.295824</v>
       </c>
       <c r="C45" t="n">
-        <v>0.298229</v>
+        <v>0.270762</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278285</v>
+        <v>0.278148</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304686</v>
+        <v>0.304973</v>
       </c>
       <c r="C46" t="n">
-        <v>0.305721</v>
+        <v>0.27692</v>
       </c>
       <c r="D46" t="n">
-        <v>0.296491</v>
+        <v>0.28045</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.31618</v>
+        <v>0.31677</v>
       </c>
       <c r="C47" t="n">
-        <v>0.303493</v>
+        <v>0.284902</v>
       </c>
       <c r="D47" t="n">
-        <v>0.285359</v>
+        <v>0.283173</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.332694</v>
+        <v>0.333502</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325714</v>
+        <v>0.294905</v>
       </c>
       <c r="D48" t="n">
-        <v>0.304135</v>
+        <v>0.28919</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.356712</v>
+        <v>0.357574</v>
       </c>
       <c r="C49" t="n">
-        <v>0.330006</v>
+        <v>0.310647</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296358</v>
+        <v>0.295393</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.392506</v>
+        <v>0.393577</v>
       </c>
       <c r="C50" t="n">
-        <v>0.355154</v>
+        <v>0.335079</v>
       </c>
       <c r="D50" t="n">
-        <v>0.306883</v>
+        <v>0.30615</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440667</v>
+        <v>0.442457</v>
       </c>
       <c r="C51" t="n">
-        <v>0.394</v>
+        <v>0.372887</v>
       </c>
       <c r="D51" t="n">
-        <v>0.274697</v>
+        <v>0.274625</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.49576</v>
+        <v>0.497933</v>
       </c>
       <c r="C52" t="n">
-        <v>0.448955</v>
+        <v>0.425451</v>
       </c>
       <c r="D52" t="n">
-        <v>0.275725</v>
+        <v>0.276317</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273598</v>
+        <v>0.275674</v>
       </c>
       <c r="C53" t="n">
-        <v>0.276728</v>
+        <v>0.260035</v>
       </c>
       <c r="D53" t="n">
-        <v>0.277039</v>
+        <v>0.275664</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.276197</v>
+        <v>0.276159</v>
       </c>
       <c r="C54" t="n">
-        <v>0.286884</v>
+        <v>0.260634</v>
       </c>
       <c r="D54" t="n">
-        <v>0.29112</v>
+        <v>0.277159</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.27817</v>
+        <v>0.278028</v>
       </c>
       <c r="C55" t="n">
-        <v>0.278429</v>
+        <v>0.277508</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277697</v>
+        <v>0.276278</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280271</v>
+        <v>0.280548</v>
       </c>
       <c r="C56" t="n">
-        <v>0.289422</v>
+        <v>0.279446</v>
       </c>
       <c r="D56" t="n">
-        <v>0.292138</v>
+        <v>0.277406</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284075</v>
+        <v>0.285886</v>
       </c>
       <c r="C57" t="n">
-        <v>0.282175</v>
+        <v>0.277836</v>
       </c>
       <c r="D57" t="n">
-        <v>0.277875</v>
+        <v>0.278007</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289701</v>
+        <v>0.289909</v>
       </c>
       <c r="C58" t="n">
-        <v>0.294619</v>
+        <v>0.284219</v>
       </c>
       <c r="D58" t="n">
-        <v>0.293767</v>
+        <v>0.278896</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295562</v>
+        <v>0.295741</v>
       </c>
       <c r="C59" t="n">
-        <v>0.288381</v>
+        <v>0.28881</v>
       </c>
       <c r="D59" t="n">
-        <v>0.294911</v>
+        <v>0.280399</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303928</v>
+        <v>0.304548</v>
       </c>
       <c r="C60" t="n">
-        <v>0.298199</v>
+        <v>0.295005</v>
       </c>
       <c r="D60" t="n">
-        <v>0.283324</v>
+        <v>0.283977</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.315584</v>
+        <v>0.315436</v>
       </c>
       <c r="C61" t="n">
-        <v>0.311072</v>
+        <v>0.283912</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299918</v>
+        <v>0.28533</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.333139</v>
+        <v>0.331726</v>
       </c>
       <c r="C62" t="n">
-        <v>0.311056</v>
+        <v>0.307171</v>
       </c>
       <c r="D62" t="n">
-        <v>0.289989</v>
+        <v>0.287566</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.353979</v>
+        <v>0.355041</v>
       </c>
       <c r="C63" t="n">
-        <v>0.325199</v>
+        <v>0.308685</v>
       </c>
       <c r="D63" t="n">
-        <v>0.295201</v>
+        <v>0.29361</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.386725</v>
+        <v>0.387962</v>
       </c>
       <c r="C64" t="n">
-        <v>0.348324</v>
+        <v>0.329002</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3044</v>
+        <v>0.304265</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.431441</v>
+        <v>0.432927</v>
       </c>
       <c r="C65" t="n">
-        <v>0.383051</v>
+        <v>0.372227</v>
       </c>
       <c r="D65" t="n">
-        <v>0.322006</v>
+        <v>0.321445</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.489437</v>
+        <v>0.489331</v>
       </c>
       <c r="C66" t="n">
-        <v>0.437978</v>
+        <v>0.416701</v>
       </c>
       <c r="D66" t="n">
-        <v>0.28781</v>
+        <v>0.286501</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2819</v>
+        <v>0.281347</v>
       </c>
       <c r="C67" t="n">
-        <v>0.281762</v>
+        <v>0.272142</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288782</v>
+        <v>0.289648</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282231</v>
+        <v>0.284567</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2835</v>
+        <v>0.271855</v>
       </c>
       <c r="D68" t="n">
-        <v>0.290535</v>
+        <v>0.288904</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285542</v>
+        <v>0.285911</v>
       </c>
       <c r="C69" t="n">
-        <v>0.284114</v>
+        <v>0.273773</v>
       </c>
       <c r="D69" t="n">
-        <v>0.288468</v>
+        <v>0.289963</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.289282</v>
+        <v>0.28826</v>
       </c>
       <c r="C70" t="n">
-        <v>0.286447</v>
+        <v>0.274368</v>
       </c>
       <c r="D70" t="n">
-        <v>0.291786</v>
+        <v>0.290686</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291729</v>
+        <v>0.291447</v>
       </c>
       <c r="C71" t="n">
-        <v>0.288379</v>
+        <v>0.27706</v>
       </c>
       <c r="D71" t="n">
-        <v>0.291236</v>
+        <v>0.291146</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.297195</v>
+        <v>0.296035</v>
       </c>
       <c r="C72" t="n">
-        <v>0.290674</v>
+        <v>0.280013</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291629</v>
+        <v>0.292745</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.302688</v>
+        <v>0.303631</v>
       </c>
       <c r="C73" t="n">
-        <v>0.294456</v>
+        <v>0.283501</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292295</v>
+        <v>0.292214</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311248</v>
+        <v>0.311616</v>
       </c>
       <c r="C74" t="n">
-        <v>0.299951</v>
+        <v>0.288742</v>
       </c>
       <c r="D74" t="n">
-        <v>0.294526</v>
+        <v>0.294767</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.32354</v>
+        <v>0.324879</v>
       </c>
       <c r="C75" t="n">
-        <v>0.307373</v>
+        <v>0.295102</v>
       </c>
       <c r="D75" t="n">
-        <v>0.29788</v>
+        <v>0.297838</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.340446</v>
+        <v>0.339075</v>
       </c>
       <c r="C76" t="n">
-        <v>0.317229</v>
+        <v>0.304164</v>
       </c>
       <c r="D76" t="n">
-        <v>0.30179</v>
+        <v>0.300558</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.36285</v>
+        <v>0.361656</v>
       </c>
       <c r="C77" t="n">
-        <v>0.344046</v>
+        <v>0.318393</v>
       </c>
       <c r="D77" t="n">
-        <v>0.30776</v>
+        <v>0.308226</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.39257</v>
+        <v>0.395233</v>
       </c>
       <c r="C78" t="n">
-        <v>0.354991</v>
+        <v>0.340037</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3156</v>
+        <v>0.31498</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.439234</v>
+        <v>0.440262</v>
       </c>
       <c r="C79" t="n">
-        <v>0.387757</v>
+        <v>0.371751</v>
       </c>
       <c r="D79" t="n">
-        <v>0.331078</v>
+        <v>0.331919</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.497755</v>
+        <v>0.496606</v>
       </c>
       <c r="C80" t="n">
-        <v>0.442146</v>
+        <v>0.426941</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305398</v>
+        <v>0.305194</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294709</v>
+        <v>0.294626</v>
       </c>
       <c r="C81" t="n">
-        <v>0.29228</v>
+        <v>0.286132</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305495</v>
+        <v>0.305657</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296522</v>
+        <v>0.29664</v>
       </c>
       <c r="C82" t="n">
-        <v>0.293561</v>
+        <v>0.299208</v>
       </c>
       <c r="D82" t="n">
-        <v>0.305719</v>
+        <v>0.305691</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.29972</v>
+        <v>0.299468</v>
       </c>
       <c r="C83" t="n">
-        <v>0.294943</v>
+        <v>0.28823</v>
       </c>
       <c r="D83" t="n">
-        <v>0.306596</v>
+        <v>0.30636</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302892</v>
+        <v>0.30219</v>
       </c>
       <c r="C84" t="n">
-        <v>0.304786</v>
+        <v>0.290112</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307328</v>
+        <v>0.307076</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.306445</v>
+        <v>0.306318</v>
       </c>
       <c r="C85" t="n">
-        <v>0.304782</v>
+        <v>0.292436</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308028</v>
+        <v>0.307764</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31131</v>
+        <v>0.310473</v>
       </c>
       <c r="C86" t="n">
-        <v>0.301868</v>
+        <v>0.29465</v>
       </c>
       <c r="D86" t="n">
-        <v>0.308812</v>
+        <v>0.308605</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.31822</v>
+        <v>0.317191</v>
       </c>
       <c r="C87" t="n">
-        <v>0.305282</v>
+        <v>0.297971</v>
       </c>
       <c r="D87" t="n">
-        <v>0.310307</v>
+        <v>0.309834</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.32603</v>
+        <v>0.325966</v>
       </c>
       <c r="C88" t="n">
-        <v>0.310631</v>
+        <v>0.302692</v>
       </c>
       <c r="D88" t="n">
-        <v>0.311457</v>
+        <v>0.311545</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337355</v>
+        <v>0.337438</v>
       </c>
       <c r="C89" t="n">
-        <v>0.318584</v>
+        <v>0.310253</v>
       </c>
       <c r="D89" t="n">
-        <v>0.314094</v>
+        <v>0.314209</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352483</v>
+        <v>0.372167</v>
       </c>
       <c r="C90" t="n">
-        <v>0.328466</v>
+        <v>0.319158</v>
       </c>
       <c r="D90" t="n">
-        <v>0.317564</v>
+        <v>0.317808</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374278</v>
+        <v>0.374299</v>
       </c>
       <c r="C91" t="n">
-        <v>0.343544</v>
+        <v>0.332656</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3232</v>
+        <v>0.323065</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.422964</v>
+        <v>0.406418</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365534</v>
+        <v>0.352567</v>
       </c>
       <c r="D92" t="n">
-        <v>0.331463</v>
+        <v>0.332174</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.449971</v>
+        <v>0.451093</v>
       </c>
       <c r="C93" t="n">
-        <v>0.399164</v>
+        <v>0.384385</v>
       </c>
       <c r="D93" t="n">
-        <v>0.34634</v>
+        <v>0.345827</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.509033</v>
+        <v>0.5134339999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.46735</v>
+        <v>0.43156</v>
       </c>
       <c r="D94" t="n">
-        <v>0.316169</v>
+        <v>0.316246</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.303892</v>
+        <v>0.304013</v>
       </c>
       <c r="C95" t="n">
-        <v>0.301503</v>
+        <v>0.296679</v>
       </c>
       <c r="D95" t="n">
-        <v>0.316869</v>
+        <v>0.317112</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.306423</v>
+        <v>0.305793</v>
       </c>
       <c r="C96" t="n">
-        <v>0.302836</v>
+        <v>0.298313</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317504</v>
+        <v>0.317393</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.309</v>
+        <v>0.30823</v>
       </c>
       <c r="C97" t="n">
-        <v>0.304325</v>
+        <v>0.299493</v>
       </c>
       <c r="D97" t="n">
-        <v>0.318221</v>
+        <v>0.317878</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311562</v>
+        <v>0.311486</v>
       </c>
       <c r="C98" t="n">
-        <v>0.306348</v>
+        <v>0.302085</v>
       </c>
       <c r="D98" t="n">
-        <v>0.318657</v>
+        <v>0.31876</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315352</v>
+        <v>0.315357</v>
       </c>
       <c r="C99" t="n">
-        <v>0.308783</v>
+        <v>0.303983</v>
       </c>
       <c r="D99" t="n">
-        <v>0.319368</v>
+        <v>0.319504</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320571</v>
+        <v>0.320695</v>
       </c>
       <c r="C100" t="n">
-        <v>0.312881</v>
+        <v>0.307125</v>
       </c>
       <c r="D100" t="n">
-        <v>0.320562</v>
+        <v>0.320293</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.326972</v>
+        <v>0.327005</v>
       </c>
       <c r="C101" t="n">
-        <v>0.317159</v>
+        <v>0.312115</v>
       </c>
       <c r="D101" t="n">
-        <v>0.321896</v>
+        <v>0.322113</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.335708</v>
+        <v>0.336413</v>
       </c>
       <c r="C102" t="n">
-        <v>0.324099</v>
+        <v>0.317289</v>
       </c>
       <c r="D102" t="n">
-        <v>0.323456</v>
+        <v>0.323539</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347147</v>
+        <v>0.347713</v>
       </c>
       <c r="C103" t="n">
-        <v>0.333227</v>
+        <v>0.325522</v>
       </c>
       <c r="D103" t="n">
-        <v>0.325908</v>
+        <v>0.325992</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.362203</v>
+        <v>0.363039</v>
       </c>
       <c r="C104" t="n">
-        <v>0.34453</v>
+        <v>0.335838</v>
       </c>
       <c r="D104" t="n">
-        <v>0.329418</v>
+        <v>0.329626</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.384204</v>
+        <v>0.384923</v>
       </c>
       <c r="C105" t="n">
-        <v>0.360745</v>
+        <v>0.35239</v>
       </c>
       <c r="D105" t="n">
-        <v>0.334876</v>
+        <v>0.334795</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.415468</v>
+        <v>0.41656</v>
       </c>
       <c r="C106" t="n">
-        <v>0.383633</v>
+        <v>0.37329</v>
       </c>
       <c r="D106" t="n">
-        <v>0.343212</v>
+        <v>0.343072</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.459747</v>
+        <v>0.462667</v>
       </c>
       <c r="C107" t="n">
-        <v>0.41823</v>
+        <v>0.405299</v>
       </c>
       <c r="D107" t="n">
-        <v>0.357155</v>
+        <v>0.356475</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.525351</v>
+        <v>0.527607</v>
       </c>
       <c r="C108" t="n">
-        <v>0.47161</v>
+        <v>0.454613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.322428</v>
+        <v>0.322703</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.611277</v>
+        <v>0.6072070000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.549899</v>
+        <v>0.534176</v>
       </c>
       <c r="D109" t="n">
-        <v>0.323448</v>
+        <v>0.323875</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.311865</v>
+        <v>0.312073</v>
       </c>
       <c r="C110" t="n">
-        <v>0.33005</v>
+        <v>0.32641</v>
       </c>
       <c r="D110" t="n">
-        <v>0.325009</v>
+        <v>0.32449</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314805</v>
+        <v>0.314951</v>
       </c>
       <c r="C111" t="n">
-        <v>0.335949</v>
+        <v>0.331064</v>
       </c>
       <c r="D111" t="n">
-        <v>0.32567</v>
+        <v>0.325595</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.318999</v>
+        <v>0.319192</v>
       </c>
       <c r="C112" t="n">
-        <v>0.341688</v>
+        <v>0.336607</v>
       </c>
       <c r="D112" t="n">
-        <v>0.327347</v>
+        <v>0.326957</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323998</v>
+        <v>0.323777</v>
       </c>
       <c r="C113" t="n">
-        <v>0.347939</v>
+        <v>0.343007</v>
       </c>
       <c r="D113" t="n">
-        <v>0.329285</v>
+        <v>0.328948</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330176</v>
+        <v>0.330334</v>
       </c>
       <c r="C114" t="n">
-        <v>0.354072</v>
+        <v>0.349754</v>
       </c>
       <c r="D114" t="n">
-        <v>0.331192</v>
+        <v>0.330795</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.354141</v>
+        <v>0.338919</v>
       </c>
       <c r="C115" t="n">
-        <v>0.361872</v>
+        <v>0.357069</v>
       </c>
       <c r="D115" t="n">
-        <v>0.33414</v>
+        <v>0.334199</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.349844</v>
+        <v>0.350005</v>
       </c>
       <c r="C116" t="n">
-        <v>0.371368</v>
+        <v>0.366164</v>
       </c>
       <c r="D116" t="n">
-        <v>0.337195</v>
+        <v>0.337199</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.365005</v>
+        <v>0.365093</v>
       </c>
       <c r="C117" t="n">
-        <v>0.382687</v>
+        <v>0.37607</v>
       </c>
       <c r="D117" t="n">
-        <v>0.342451</v>
+        <v>0.342156</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.384298</v>
+        <v>0.384556</v>
       </c>
       <c r="C118" t="n">
-        <v>0.397174</v>
+        <v>0.390037</v>
       </c>
       <c r="D118" t="n">
-        <v>0.348687</v>
+        <v>0.348436</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.411083</v>
+        <v>0.411466</v>
       </c>
       <c r="C119" t="n">
-        <v>0.416085</v>
+        <v>0.407195</v>
       </c>
       <c r="D119" t="n">
-        <v>0.357283</v>
+        <v>0.357094</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.446496</v>
+        <v>0.447648</v>
       </c>
       <c r="C120" t="n">
-        <v>0.442676</v>
+        <v>0.433288</v>
       </c>
       <c r="D120" t="n">
-        <v>0.369863</v>
+        <v>0.369621</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.497337</v>
+        <v>0.498682</v>
       </c>
       <c r="C121" t="n">
-        <v>0.481218</v>
+        <v>0.469409</v>
       </c>
       <c r="D121" t="n">
-        <v>0.387145</v>
+        <v>0.386614</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.568261</v>
+        <v>0.570322</v>
       </c>
       <c r="C122" t="n">
-        <v>0.539633</v>
+        <v>0.524581</v>
       </c>
       <c r="D122" t="n">
-        <v>0.415851</v>
+        <v>0.415499</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.672258</v>
+        <v>0.665143</v>
       </c>
       <c r="C123" t="n">
-        <v>0.630999</v>
+        <v>0.614116</v>
       </c>
       <c r="D123" t="n">
-        <v>0.35704</v>
+        <v>0.35438</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.342572</v>
+        <v>0.344456</v>
       </c>
       <c r="C124" t="n">
-        <v>0.380323</v>
+        <v>0.373024</v>
       </c>
       <c r="D124" t="n">
-        <v>0.358018</v>
+        <v>0.358168</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.348972</v>
+        <v>0.349595</v>
       </c>
       <c r="C125" t="n">
-        <v>0.381631</v>
+        <v>0.37889</v>
       </c>
       <c r="D125" t="n">
-        <v>0.362272</v>
+        <v>0.36125</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.35662</v>
+        <v>0.358733</v>
       </c>
       <c r="C126" t="n">
-        <v>0.390603</v>
+        <v>0.382949</v>
       </c>
       <c r="D126" t="n">
-        <v>0.363947</v>
+        <v>0.368768</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.366269</v>
+        <v>0.362882</v>
       </c>
       <c r="C127" t="n">
-        <v>0.392154</v>
+        <v>0.3893</v>
       </c>
       <c r="D127" t="n">
-        <v>0.367517</v>
+        <v>0.36898</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.370417</v>
+        <v>0.374053</v>
       </c>
       <c r="C128" t="n">
-        <v>0.399707</v>
+        <v>0.393498</v>
       </c>
       <c r="D128" t="n">
-        <v>0.372345</v>
+        <v>0.372147</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.379577</v>
+        <v>0.378844</v>
       </c>
       <c r="C129" t="n">
-        <v>0.406877</v>
+        <v>0.40137</v>
       </c>
       <c r="D129" t="n">
-        <v>0.375336</v>
+        <v>0.375144</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.391</v>
+        <v>0.392416</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418944</v>
+        <v>0.411563</v>
       </c>
       <c r="D130" t="n">
-        <v>0.380645</v>
+        <v>0.3794</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.409994</v>
+        <v>0.405852</v>
       </c>
       <c r="C131" t="n">
-        <v>0.426711</v>
+        <v>0.4232</v>
       </c>
       <c r="D131" t="n">
-        <v>0.388099</v>
+        <v>0.386281</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.424583</v>
+        <v>0.425972</v>
       </c>
       <c r="C132" t="n">
-        <v>0.44416</v>
+        <v>0.438106</v>
       </c>
       <c r="D132" t="n">
-        <v>0.393839</v>
+        <v>0.391272</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.449911</v>
+        <v>0.454131</v>
       </c>
       <c r="C133" t="n">
-        <v>0.469244</v>
+        <v>0.464308</v>
       </c>
       <c r="D133" t="n">
-        <v>0.40184</v>
+        <v>0.399572</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.488698</v>
+        <v>0.491027</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4945</v>
+        <v>0.497579</v>
       </c>
       <c r="D134" t="n">
-        <v>0.411462</v>
+        <v>0.409631</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.535494</v>
+        <v>0.538411</v>
       </c>
       <c r="C135" t="n">
-        <v>0.538178</v>
+        <v>0.526576</v>
       </c>
       <c r="D135" t="n">
-        <v>0.425498</v>
+        <v>0.425893</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.607285</v>
+        <v>0.608951</v>
       </c>
       <c r="C136" t="n">
-        <v>0.597313</v>
+        <v>0.581324</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452906</v>
+        <v>0.453038</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.705798</v>
+        <v>0.711819</v>
       </c>
       <c r="C137" t="n">
-        <v>0.693235</v>
+        <v>0.676544</v>
       </c>
       <c r="D137" t="n">
-        <v>0.52998</v>
+        <v>0.5310510000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.520807</v>
+        <v>0.523463</v>
       </c>
       <c r="C138" t="n">
-        <v>0.575646</v>
+        <v>0.573258</v>
       </c>
       <c r="D138" t="n">
-        <v>0.537031</v>
+        <v>0.5311979999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.528999</v>
+        <v>0.52386</v>
       </c>
       <c r="C139" t="n">
-        <v>0.581474</v>
+        <v>0.576995</v>
       </c>
       <c r="D139" t="n">
-        <v>0.534184</v>
+        <v>0.525902</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.535454</v>
+        <v>0.538207</v>
       </c>
       <c r="C140" t="n">
-        <v>0.593611</v>
+        <v>0.582398</v>
       </c>
       <c r="D140" t="n">
-        <v>0.547245</v>
+        <v>0.548399</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.541531</v>
+        <v>0.543396</v>
       </c>
       <c r="C141" t="n">
-        <v>0.606379</v>
+        <v>0.596616</v>
       </c>
       <c r="D141" t="n">
-        <v>0.535002</v>
+        <v>0.54064</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.555883</v>
+        <v>0.546979</v>
       </c>
       <c r="C142" t="n">
-        <v>0.604367</v>
+        <v>0.602751</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5460429999999999</v>
+        <v>0.556269</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.570302</v>
+        <v>0.558691</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6250790000000001</v>
+        <v>0.617859</v>
       </c>
       <c r="D143" t="n">
-        <v>0.552054</v>
+        <v>0.551282</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.287794</v>
+        <v>0.287712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.263743</v>
+        <v>0.263928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.277901</v>
+        <v>0.278017</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.294153</v>
+        <v>0.294316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.265538</v>
+        <v>0.265714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.278938</v>
+        <v>0.278955</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.303353</v>
+        <v>0.303495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.270952</v>
+        <v>0.271179</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28135</v>
+        <v>0.281387</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.318025</v>
+        <v>0.318119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.280744</v>
+        <v>0.280676</v>
       </c>
       <c r="D5" t="n">
-        <v>0.285754</v>
+        <v>0.285748</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337339</v>
+        <v>0.337514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291271</v>
+        <v>0.291352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290583</v>
+        <v>0.290686</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.370027</v>
+        <v>0.370596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313579</v>
+        <v>0.313943</v>
       </c>
       <c r="D7" t="n">
-        <v>0.300255</v>
+        <v>0.300528</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414062</v>
+        <v>0.414058</v>
       </c>
       <c r="C8" t="n">
-        <v>0.344868</v>
+        <v>0.345584</v>
       </c>
       <c r="D8" t="n">
-        <v>0.316365</v>
+        <v>0.316829</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.462097</v>
+        <v>0.467943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.399307</v>
+        <v>0.399284</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273367</v>
+        <v>0.273376</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.271196</v>
+        <v>0.271232</v>
       </c>
       <c r="C10" t="n">
-        <v>0.253399</v>
+        <v>0.253644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273355</v>
+        <v>0.273342</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.272199</v>
+        <v>0.272229</v>
       </c>
       <c r="C11" t="n">
-        <v>0.253627</v>
+        <v>0.253629</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273471</v>
+        <v>0.273462</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274342</v>
+        <v>0.274374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25524</v>
+        <v>0.255318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274105</v>
+        <v>0.274128</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277095</v>
+        <v>0.277218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25682</v>
+        <v>0.256646</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274272</v>
+        <v>0.274298</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280237</v>
+        <v>0.280382</v>
       </c>
       <c r="C14" t="n">
-        <v>0.258059</v>
+        <v>0.258072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274758</v>
+        <v>0.274689</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.284978</v>
+        <v>0.285071</v>
       </c>
       <c r="C15" t="n">
-        <v>0.260515</v>
+        <v>0.260487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27554</v>
+        <v>0.275568</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289657</v>
+        <v>0.289763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.263553</v>
+        <v>0.2634</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276798</v>
+        <v>0.276861</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296677</v>
+        <v>0.296852</v>
       </c>
       <c r="C17" t="n">
-        <v>0.266586</v>
+        <v>0.266871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.277955</v>
+        <v>0.278019</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306691</v>
+        <v>0.306705</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273235</v>
+        <v>0.272296</v>
       </c>
       <c r="D18" t="n">
-        <v>0.280275</v>
+        <v>0.280316</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.31901</v>
+        <v>0.318999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.282004</v>
+        <v>0.28161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.283799</v>
+        <v>0.28388</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337703</v>
+        <v>0.337932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.292456</v>
+        <v>0.292286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287713</v>
+        <v>0.287741</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.366707</v>
+        <v>0.36655</v>
       </c>
       <c r="C21" t="n">
-        <v>0.30767</v>
+        <v>0.307305</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294958</v>
+        <v>0.294972</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.406785</v>
+        <v>0.406788</v>
       </c>
       <c r="C22" t="n">
-        <v>0.33789</v>
+        <v>0.336712</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308191</v>
+        <v>0.308326</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.461489</v>
+        <v>0.461719</v>
       </c>
       <c r="C23" t="n">
-        <v>0.384998</v>
+        <v>0.384753</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273282</v>
+        <v>0.273271</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271403</v>
+        <v>0.271366</v>
       </c>
       <c r="C24" t="n">
-        <v>0.256121</v>
+        <v>0.256001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273681</v>
+        <v>0.273561</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272746</v>
+        <v>0.272816</v>
       </c>
       <c r="C25" t="n">
-        <v>0.256453</v>
+        <v>0.25639</v>
       </c>
       <c r="D25" t="n">
-        <v>0.273699</v>
+        <v>0.27371</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274581</v>
+        <v>0.274559</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257384</v>
+        <v>0.257466</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274083</v>
+        <v>0.274125</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276617</v>
+        <v>0.276614</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258261</v>
+        <v>0.258195</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274447</v>
+        <v>0.274455</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279884</v>
+        <v>0.279808</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260224</v>
+        <v>0.260335</v>
       </c>
       <c r="D28" t="n">
-        <v>0.27535</v>
+        <v>0.2754</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283521</v>
+        <v>0.283493</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262252</v>
+        <v>0.262313</v>
       </c>
       <c r="D29" t="n">
-        <v>0.275706</v>
+        <v>0.275847</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.288079</v>
+        <v>0.287978</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265029</v>
+        <v>0.26476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276799</v>
+        <v>0.276843</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294866</v>
+        <v>0.294761</v>
       </c>
       <c r="C31" t="n">
-        <v>0.269316</v>
+        <v>0.269313</v>
       </c>
       <c r="D31" t="n">
-        <v>0.277905</v>
+        <v>0.277998</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.30519</v>
+        <v>0.305151</v>
       </c>
       <c r="C32" t="n">
-        <v>0.274871</v>
+        <v>0.274808</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280099</v>
+        <v>0.280116</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.318216</v>
+        <v>0.317972</v>
       </c>
       <c r="C33" t="n">
-        <v>0.283878</v>
+        <v>0.283626</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283831</v>
+        <v>0.283802</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.336111</v>
+        <v>0.336012</v>
       </c>
       <c r="C34" t="n">
-        <v>0.296164</v>
+        <v>0.295664</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288237</v>
+        <v>0.288251</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.363871</v>
+        <v>0.363695</v>
       </c>
       <c r="C35" t="n">
-        <v>0.312579</v>
+        <v>0.313104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.295884</v>
+        <v>0.29601</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402521</v>
+        <v>0.405003</v>
       </c>
       <c r="C36" t="n">
-        <v>0.342057</v>
+        <v>0.341621</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308123</v>
+        <v>0.308371</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453758</v>
+        <v>0.453547</v>
       </c>
       <c r="C37" t="n">
-        <v>0.380413</v>
+        <v>0.38085</v>
       </c>
       <c r="D37" t="n">
-        <v>0.274758</v>
+        <v>0.273229</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.271325</v>
+        <v>0.27129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.257363</v>
+        <v>0.257303</v>
       </c>
       <c r="D38" t="n">
-        <v>0.275014</v>
+        <v>0.273439</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.27279</v>
+        <v>0.272792</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258158</v>
+        <v>0.258061</v>
       </c>
       <c r="D39" t="n">
-        <v>0.273935</v>
+        <v>0.273915</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274423</v>
+        <v>0.274518</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258958</v>
+        <v>0.258959</v>
       </c>
       <c r="D40" t="n">
-        <v>0.275893</v>
+        <v>0.274309</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.276556</v>
+        <v>0.27656</v>
       </c>
       <c r="C41" t="n">
-        <v>0.260227</v>
+        <v>0.260558</v>
       </c>
       <c r="D41" t="n">
-        <v>0.274625</v>
+        <v>0.275008</v>
       </c>
     </row>
     <row r="42">
@@ -3811,10 +3811,10 @@
         <v>0.279416</v>
       </c>
       <c r="C42" t="n">
-        <v>0.262025</v>
+        <v>0.262081</v>
       </c>
       <c r="D42" t="n">
-        <v>0.275266</v>
+        <v>0.275385</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283651</v>
+        <v>0.283725</v>
       </c>
       <c r="C43" t="n">
-        <v>0.264009</v>
+        <v>0.263927</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276042</v>
+        <v>0.276122</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288952</v>
+        <v>0.288898</v>
       </c>
       <c r="C44" t="n">
-        <v>0.267349</v>
+        <v>0.267221</v>
       </c>
       <c r="D44" t="n">
-        <v>0.278595</v>
+        <v>0.278019</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295824</v>
+        <v>0.295847</v>
       </c>
       <c r="C45" t="n">
-        <v>0.270762</v>
+        <v>0.270578</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278148</v>
+        <v>0.278397</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.304973</v>
+        <v>0.305029</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27692</v>
+        <v>0.2769</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28045</v>
+        <v>0.280145</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.31677</v>
+        <v>0.316976</v>
       </c>
       <c r="C47" t="n">
-        <v>0.284902</v>
+        <v>0.285199</v>
       </c>
       <c r="D47" t="n">
-        <v>0.283173</v>
+        <v>0.283681</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.333502</v>
+        <v>0.333616</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294905</v>
+        <v>0.294822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28919</v>
+        <v>0.288227</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.357574</v>
+        <v>0.357966</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310647</v>
+        <v>0.308813</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295393</v>
+        <v>0.294025</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393577</v>
+        <v>0.39362</v>
       </c>
       <c r="C50" t="n">
-        <v>0.335079</v>
+        <v>0.33536</v>
       </c>
       <c r="D50" t="n">
-        <v>0.30615</v>
+        <v>0.307208</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.442457</v>
+        <v>0.442823</v>
       </c>
       <c r="C51" t="n">
-        <v>0.372887</v>
+        <v>0.373099</v>
       </c>
       <c r="D51" t="n">
-        <v>0.274625</v>
+        <v>0.274547</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.497933</v>
+        <v>0.498068</v>
       </c>
       <c r="C52" t="n">
-        <v>0.425451</v>
+        <v>0.425442</v>
       </c>
       <c r="D52" t="n">
-        <v>0.276317</v>
+        <v>0.274889</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.275674</v>
+        <v>0.273755</v>
       </c>
       <c r="C53" t="n">
-        <v>0.260035</v>
+        <v>0.259533</v>
       </c>
       <c r="D53" t="n">
-        <v>0.275664</v>
+        <v>0.275334</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.276159</v>
+        <v>0.275734</v>
       </c>
       <c r="C54" t="n">
-        <v>0.260634</v>
+        <v>0.260653</v>
       </c>
       <c r="D54" t="n">
-        <v>0.277159</v>
+        <v>0.275777</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.278028</v>
+        <v>0.27837</v>
       </c>
       <c r="C55" t="n">
-        <v>0.277508</v>
+        <v>0.261747</v>
       </c>
       <c r="D55" t="n">
-        <v>0.276278</v>
+        <v>0.277459</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280548</v>
+        <v>0.280526</v>
       </c>
       <c r="C56" t="n">
-        <v>0.279446</v>
+        <v>0.263271</v>
       </c>
       <c r="D56" t="n">
-        <v>0.277406</v>
+        <v>0.278311</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285886</v>
+        <v>0.28488</v>
       </c>
       <c r="C57" t="n">
-        <v>0.277836</v>
+        <v>0.265307</v>
       </c>
       <c r="D57" t="n">
-        <v>0.278007</v>
+        <v>0.277543</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289909</v>
+        <v>0.289599</v>
       </c>
       <c r="C58" t="n">
-        <v>0.284219</v>
+        <v>0.267835</v>
       </c>
       <c r="D58" t="n">
-        <v>0.278896</v>
+        <v>0.279921</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.295741</v>
+        <v>0.2965</v>
       </c>
       <c r="C59" t="n">
-        <v>0.28881</v>
+        <v>0.271526</v>
       </c>
       <c r="D59" t="n">
-        <v>0.280399</v>
+        <v>0.279864</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304548</v>
+        <v>0.305399</v>
       </c>
       <c r="C60" t="n">
-        <v>0.295005</v>
+        <v>0.276775</v>
       </c>
       <c r="D60" t="n">
-        <v>0.283977</v>
+        <v>0.281883</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.315436</v>
+        <v>0.315737</v>
       </c>
       <c r="C61" t="n">
-        <v>0.283912</v>
+        <v>0.282836</v>
       </c>
       <c r="D61" t="n">
-        <v>0.28533</v>
+        <v>0.284157</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331726</v>
+        <v>0.331883</v>
       </c>
       <c r="C62" t="n">
-        <v>0.307171</v>
+        <v>0.293564</v>
       </c>
       <c r="D62" t="n">
-        <v>0.287566</v>
+        <v>0.288919</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.355041</v>
+        <v>0.355541</v>
       </c>
       <c r="C63" t="n">
-        <v>0.308685</v>
+        <v>0.306141</v>
       </c>
       <c r="D63" t="n">
-        <v>0.29361</v>
+        <v>0.294731</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.387962</v>
+        <v>0.388067</v>
       </c>
       <c r="C64" t="n">
-        <v>0.329002</v>
+        <v>0.329205</v>
       </c>
       <c r="D64" t="n">
-        <v>0.304265</v>
+        <v>0.303725</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.432927</v>
+        <v>0.434234</v>
       </c>
       <c r="C65" t="n">
-        <v>0.372227</v>
+        <v>0.36422</v>
       </c>
       <c r="D65" t="n">
-        <v>0.321445</v>
+        <v>0.320741</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.489331</v>
+        <v>0.491677</v>
       </c>
       <c r="C66" t="n">
-        <v>0.416701</v>
+        <v>0.415994</v>
       </c>
       <c r="D66" t="n">
-        <v>0.286501</v>
+        <v>0.288271</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.281347</v>
+        <v>0.281549</v>
       </c>
       <c r="C67" t="n">
-        <v>0.272142</v>
+        <v>0.271258</v>
       </c>
       <c r="D67" t="n">
-        <v>0.289648</v>
+        <v>0.288013</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.284567</v>
+        <v>0.282992</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271855</v>
+        <v>0.272937</v>
       </c>
       <c r="D68" t="n">
-        <v>0.288904</v>
+        <v>0.289442</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285911</v>
+        <v>0.286136</v>
       </c>
       <c r="C69" t="n">
-        <v>0.273773</v>
+        <v>0.273476</v>
       </c>
       <c r="D69" t="n">
-        <v>0.289963</v>
+        <v>0.289082</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.28826</v>
+        <v>0.288221</v>
       </c>
       <c r="C70" t="n">
-        <v>0.274368</v>
+        <v>0.275424</v>
       </c>
       <c r="D70" t="n">
-        <v>0.290686</v>
+        <v>0.289449</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291447</v>
+        <v>0.291526</v>
       </c>
       <c r="C71" t="n">
-        <v>0.27706</v>
+        <v>0.278129</v>
       </c>
       <c r="D71" t="n">
-        <v>0.291146</v>
+        <v>0.292771</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296035</v>
+        <v>0.296916</v>
       </c>
       <c r="C72" t="n">
-        <v>0.280013</v>
+        <v>0.279834</v>
       </c>
       <c r="D72" t="n">
-        <v>0.292745</v>
+        <v>0.291898</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.303631</v>
+        <v>0.304935</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283501</v>
+        <v>0.283374</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292214</v>
+        <v>0.293715</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311616</v>
+        <v>0.311879</v>
       </c>
       <c r="C74" t="n">
-        <v>0.288742</v>
+        <v>0.288702</v>
       </c>
       <c r="D74" t="n">
-        <v>0.294767</v>
+        <v>0.296553</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.324879</v>
+        <v>0.322913</v>
       </c>
       <c r="C75" t="n">
-        <v>0.295102</v>
+        <v>0.294546</v>
       </c>
       <c r="D75" t="n">
-        <v>0.297838</v>
+        <v>0.29647</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.339075</v>
+        <v>0.339802</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304164</v>
+        <v>0.304321</v>
       </c>
       <c r="D76" t="n">
-        <v>0.300558</v>
+        <v>0.301815</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.361656</v>
+        <v>0.362993</v>
       </c>
       <c r="C77" t="n">
-        <v>0.318393</v>
+        <v>0.318453</v>
       </c>
       <c r="D77" t="n">
-        <v>0.308226</v>
+        <v>0.306547</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.395233</v>
+        <v>0.396668</v>
       </c>
       <c r="C78" t="n">
-        <v>0.340037</v>
+        <v>0.338904</v>
       </c>
       <c r="D78" t="n">
-        <v>0.31498</v>
+        <v>0.316084</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.440262</v>
+        <v>0.440908</v>
       </c>
       <c r="C79" t="n">
-        <v>0.371751</v>
+        <v>0.369843</v>
       </c>
       <c r="D79" t="n">
-        <v>0.331919</v>
+        <v>0.331232</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.496606</v>
+        <v>0.498685</v>
       </c>
       <c r="C80" t="n">
-        <v>0.426941</v>
+        <v>0.421854</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305194</v>
+        <v>0.305298</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294626</v>
+        <v>0.294569</v>
       </c>
       <c r="C81" t="n">
-        <v>0.286132</v>
+        <v>0.28514</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305657</v>
+        <v>0.305992</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.29664</v>
+        <v>0.296741</v>
       </c>
       <c r="C82" t="n">
-        <v>0.299208</v>
+        <v>0.286415</v>
       </c>
       <c r="D82" t="n">
-        <v>0.305691</v>
+        <v>0.30573</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.299468</v>
+        <v>0.298974</v>
       </c>
       <c r="C83" t="n">
-        <v>0.28823</v>
+        <v>0.290489</v>
       </c>
       <c r="D83" t="n">
-        <v>0.30636</v>
+        <v>0.306634</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30219</v>
+        <v>0.302223</v>
       </c>
       <c r="C84" t="n">
-        <v>0.290112</v>
+        <v>0.289888</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307076</v>
+        <v>0.306742</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.306318</v>
+        <v>0.305752</v>
       </c>
       <c r="C85" t="n">
-        <v>0.292436</v>
+        <v>0.292149</v>
       </c>
       <c r="D85" t="n">
-        <v>0.307764</v>
+        <v>0.307798</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.310473</v>
+        <v>0.318063</v>
       </c>
       <c r="C86" t="n">
-        <v>0.29465</v>
+        <v>0.294195</v>
       </c>
       <c r="D86" t="n">
-        <v>0.308605</v>
+        <v>0.30883</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317191</v>
+        <v>0.31767</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297971</v>
+        <v>0.297572</v>
       </c>
       <c r="D87" t="n">
-        <v>0.309834</v>
+        <v>0.310211</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.325966</v>
+        <v>0.325827</v>
       </c>
       <c r="C88" t="n">
-        <v>0.302692</v>
+        <v>0.302535</v>
       </c>
       <c r="D88" t="n">
-        <v>0.311545</v>
+        <v>0.311357</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337438</v>
+        <v>0.337108</v>
       </c>
       <c r="C89" t="n">
-        <v>0.310253</v>
+        <v>0.309569</v>
       </c>
       <c r="D89" t="n">
-        <v>0.314209</v>
+        <v>0.313732</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372167</v>
+        <v>0.352809</v>
       </c>
       <c r="C90" t="n">
-        <v>0.319158</v>
+        <v>0.321143</v>
       </c>
       <c r="D90" t="n">
-        <v>0.317808</v>
+        <v>0.318043</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374299</v>
+        <v>0.374531</v>
       </c>
       <c r="C91" t="n">
-        <v>0.332656</v>
+        <v>0.338032</v>
       </c>
       <c r="D91" t="n">
-        <v>0.323065</v>
+        <v>0.322965</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.406418</v>
+        <v>0.406287</v>
       </c>
       <c r="C92" t="n">
-        <v>0.352567</v>
+        <v>0.352282</v>
       </c>
       <c r="D92" t="n">
-        <v>0.332174</v>
+        <v>0.331618</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.451093</v>
+        <v>0.451531</v>
       </c>
       <c r="C93" t="n">
-        <v>0.384385</v>
+        <v>0.38389</v>
       </c>
       <c r="D93" t="n">
-        <v>0.345827</v>
+        <v>0.346263</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5134339999999999</v>
+        <v>0.512769</v>
       </c>
       <c r="C94" t="n">
-        <v>0.43156</v>
+        <v>0.431564</v>
       </c>
       <c r="D94" t="n">
-        <v>0.316246</v>
+        <v>0.316254</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.304013</v>
+        <v>0.304122</v>
       </c>
       <c r="C95" t="n">
-        <v>0.296679</v>
+        <v>0.296665</v>
       </c>
       <c r="D95" t="n">
-        <v>0.317112</v>
+        <v>0.316812</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305793</v>
+        <v>0.305866</v>
       </c>
       <c r="C96" t="n">
-        <v>0.298313</v>
+        <v>0.297759</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317393</v>
+        <v>0.317334</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.30823</v>
+        <v>0.308168</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299493</v>
+        <v>0.299185</v>
       </c>
       <c r="D97" t="n">
-        <v>0.317878</v>
+        <v>0.317884</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311486</v>
+        <v>0.311766</v>
       </c>
       <c r="C98" t="n">
-        <v>0.302085</v>
+        <v>0.300758</v>
       </c>
       <c r="D98" t="n">
-        <v>0.31876</v>
+        <v>0.318907</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315357</v>
+        <v>0.315318</v>
       </c>
       <c r="C99" t="n">
-        <v>0.303983</v>
+        <v>0.302916</v>
       </c>
       <c r="D99" t="n">
-        <v>0.319504</v>
+        <v>0.319372</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320695</v>
+        <v>0.320766</v>
       </c>
       <c r="C100" t="n">
-        <v>0.307125</v>
+        <v>0.305704</v>
       </c>
       <c r="D100" t="n">
-        <v>0.320293</v>
+        <v>0.320531</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.327005</v>
+        <v>0.327185</v>
       </c>
       <c r="C101" t="n">
-        <v>0.312115</v>
+        <v>0.309445</v>
       </c>
       <c r="D101" t="n">
-        <v>0.322113</v>
+        <v>0.32164</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.336413</v>
+        <v>0.336078</v>
       </c>
       <c r="C102" t="n">
-        <v>0.317289</v>
+        <v>0.315432</v>
       </c>
       <c r="D102" t="n">
-        <v>0.323539</v>
+        <v>0.32386</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347713</v>
+        <v>0.347366</v>
       </c>
       <c r="C103" t="n">
-        <v>0.325522</v>
+        <v>0.323409</v>
       </c>
       <c r="D103" t="n">
-        <v>0.325992</v>
+        <v>0.325986</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.363039</v>
+        <v>0.363148</v>
       </c>
       <c r="C104" t="n">
-        <v>0.335838</v>
+        <v>0.333212</v>
       </c>
       <c r="D104" t="n">
-        <v>0.329626</v>
+        <v>0.329617</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.384923</v>
+        <v>0.385342</v>
       </c>
       <c r="C105" t="n">
-        <v>0.35239</v>
+        <v>0.348645</v>
       </c>
       <c r="D105" t="n">
-        <v>0.334795</v>
+        <v>0.334556</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.41656</v>
+        <v>0.417238</v>
       </c>
       <c r="C106" t="n">
-        <v>0.37329</v>
+        <v>0.371751</v>
       </c>
       <c r="D106" t="n">
-        <v>0.343072</v>
+        <v>0.343139</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.462667</v>
+        <v>0.462491</v>
       </c>
       <c r="C107" t="n">
-        <v>0.405299</v>
+        <v>0.403431</v>
       </c>
       <c r="D107" t="n">
-        <v>0.356475</v>
+        <v>0.356835</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.527607</v>
+        <v>0.5282480000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.454613</v>
+        <v>0.470831</v>
       </c>
       <c r="D108" t="n">
-        <v>0.322703</v>
+        <v>0.322799</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6072070000000001</v>
+        <v>0.605866</v>
       </c>
       <c r="C109" t="n">
-        <v>0.534176</v>
+        <v>0.530045</v>
       </c>
       <c r="D109" t="n">
-        <v>0.323875</v>
+        <v>0.323923</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.312073</v>
+        <v>0.311703</v>
       </c>
       <c r="C110" t="n">
-        <v>0.32641</v>
+        <v>0.317046</v>
       </c>
       <c r="D110" t="n">
-        <v>0.32449</v>
+        <v>0.324653</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.314951</v>
+        <v>0.315005</v>
       </c>
       <c r="C111" t="n">
-        <v>0.331064</v>
+        <v>0.322253</v>
       </c>
       <c r="D111" t="n">
-        <v>0.325595</v>
+        <v>0.326143</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319192</v>
+        <v>0.319061</v>
       </c>
       <c r="C112" t="n">
-        <v>0.336607</v>
+        <v>0.328214</v>
       </c>
       <c r="D112" t="n">
-        <v>0.326957</v>
+        <v>0.327157</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323777</v>
+        <v>0.323523</v>
       </c>
       <c r="C113" t="n">
-        <v>0.343007</v>
+        <v>0.334573</v>
       </c>
       <c r="D113" t="n">
-        <v>0.328948</v>
+        <v>0.328857</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.330334</v>
+        <v>0.33022</v>
       </c>
       <c r="C114" t="n">
-        <v>0.349754</v>
+        <v>0.341051</v>
       </c>
       <c r="D114" t="n">
-        <v>0.330795</v>
+        <v>0.331479</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.338919</v>
+        <v>0.339298</v>
       </c>
       <c r="C115" t="n">
-        <v>0.357069</v>
+        <v>0.350493</v>
       </c>
       <c r="D115" t="n">
-        <v>0.334199</v>
+        <v>0.334083</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.350005</v>
+        <v>0.350099</v>
       </c>
       <c r="C116" t="n">
-        <v>0.366164</v>
+        <v>0.359948</v>
       </c>
       <c r="D116" t="n">
-        <v>0.337199</v>
+        <v>0.337844</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.365093</v>
+        <v>0.365142</v>
       </c>
       <c r="C117" t="n">
-        <v>0.37607</v>
+        <v>0.371694</v>
       </c>
       <c r="D117" t="n">
-        <v>0.342156</v>
+        <v>0.342408</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.384556</v>
+        <v>0.385186</v>
       </c>
       <c r="C118" t="n">
-        <v>0.390037</v>
+        <v>0.386579</v>
       </c>
       <c r="D118" t="n">
-        <v>0.348436</v>
+        <v>0.349061</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.411466</v>
+        <v>0.411608</v>
       </c>
       <c r="C119" t="n">
-        <v>0.407195</v>
+        <v>0.404976</v>
       </c>
       <c r="D119" t="n">
-        <v>0.357094</v>
+        <v>0.357725</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.447648</v>
+        <v>0.447873</v>
       </c>
       <c r="C120" t="n">
-        <v>0.433288</v>
+        <v>0.430941</v>
       </c>
       <c r="D120" t="n">
-        <v>0.369621</v>
+        <v>0.369745</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.498682</v>
+        <v>0.499313</v>
       </c>
       <c r="C121" t="n">
-        <v>0.469409</v>
+        <v>0.466866</v>
       </c>
       <c r="D121" t="n">
-        <v>0.386614</v>
+        <v>0.387336</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.570322</v>
+        <v>0.57064</v>
       </c>
       <c r="C122" t="n">
-        <v>0.524581</v>
+        <v>0.524869</v>
       </c>
       <c r="D122" t="n">
-        <v>0.415499</v>
+        <v>0.415556</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.665143</v>
+        <v>0.669659</v>
       </c>
       <c r="C123" t="n">
-        <v>0.614116</v>
+        <v>0.614426</v>
       </c>
       <c r="D123" t="n">
-        <v>0.35438</v>
+        <v>0.356569</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.344456</v>
+        <v>0.342349</v>
       </c>
       <c r="C124" t="n">
-        <v>0.373024</v>
+        <v>0.371406</v>
       </c>
       <c r="D124" t="n">
-        <v>0.358168</v>
+        <v>0.36199</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349595</v>
+        <v>0.349454</v>
       </c>
       <c r="C125" t="n">
-        <v>0.37889</v>
+        <v>0.378355</v>
       </c>
       <c r="D125" t="n">
-        <v>0.36125</v>
+        <v>0.36049</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.358733</v>
+        <v>0.354773</v>
       </c>
       <c r="C126" t="n">
-        <v>0.382949</v>
+        <v>0.380978</v>
       </c>
       <c r="D126" t="n">
-        <v>0.368768</v>
+        <v>0.366416</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.362882</v>
+        <v>0.36122</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3893</v>
+        <v>0.385209</v>
       </c>
       <c r="D127" t="n">
-        <v>0.36898</v>
+        <v>0.367715</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.374053</v>
+        <v>0.370228</v>
       </c>
       <c r="C128" t="n">
-        <v>0.393498</v>
+        <v>0.392204</v>
       </c>
       <c r="D128" t="n">
-        <v>0.372147</v>
+        <v>0.372972</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.378844</v>
+        <v>0.382637</v>
       </c>
       <c r="C129" t="n">
-        <v>0.40137</v>
+        <v>0.401918</v>
       </c>
       <c r="D129" t="n">
-        <v>0.375144</v>
+        <v>0.381372</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.392416</v>
+        <v>0.395927</v>
       </c>
       <c r="C130" t="n">
-        <v>0.411563</v>
+        <v>0.408547</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3794</v>
+        <v>0.380192</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.405852</v>
+        <v>0.406324</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4232</v>
+        <v>0.423301</v>
       </c>
       <c r="D131" t="n">
-        <v>0.386281</v>
+        <v>0.383894</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.425972</v>
+        <v>0.425422</v>
       </c>
       <c r="C132" t="n">
-        <v>0.438106</v>
+        <v>0.438084</v>
       </c>
       <c r="D132" t="n">
-        <v>0.391272</v>
+        <v>0.390695</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.454131</v>
+        <v>0.454433</v>
       </c>
       <c r="C133" t="n">
-        <v>0.464308</v>
+        <v>0.455408</v>
       </c>
       <c r="D133" t="n">
-        <v>0.399572</v>
+        <v>0.400412</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.491027</v>
+        <v>0.485893</v>
       </c>
       <c r="C134" t="n">
-        <v>0.497579</v>
+        <v>0.482252</v>
       </c>
       <c r="D134" t="n">
-        <v>0.409631</v>
+        <v>0.408989</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.538411</v>
+        <v>0.5389429999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.526576</v>
+        <v>0.521979</v>
       </c>
       <c r="D135" t="n">
-        <v>0.425893</v>
+        <v>0.425609</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.608951</v>
+        <v>0.610958</v>
       </c>
       <c r="C136" t="n">
-        <v>0.581324</v>
+        <v>0.58074</v>
       </c>
       <c r="D136" t="n">
-        <v>0.453038</v>
+        <v>0.452366</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.711819</v>
+        <v>0.70794</v>
       </c>
       <c r="C137" t="n">
-        <v>0.676544</v>
+        <v>0.673582</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5310510000000001</v>
+        <v>0.52943</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.523463</v>
+        <v>0.51732</v>
       </c>
       <c r="C138" t="n">
-        <v>0.573258</v>
+        <v>0.555638</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5311979999999999</v>
+        <v>0.528441</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.52386</v>
+        <v>0.528474</v>
       </c>
       <c r="C139" t="n">
-        <v>0.576995</v>
+        <v>0.555996</v>
       </c>
       <c r="D139" t="n">
-        <v>0.525902</v>
+        <v>0.534347</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.538207</v>
+        <v>0.530398</v>
       </c>
       <c r="C140" t="n">
-        <v>0.582398</v>
+        <v>0.578384</v>
       </c>
       <c r="D140" t="n">
-        <v>0.548399</v>
+        <v>0.544755</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.543396</v>
+        <v>0.538676</v>
       </c>
       <c r="C141" t="n">
-        <v>0.596616</v>
+        <v>0.581937</v>
       </c>
       <c r="D141" t="n">
-        <v>0.54064</v>
+        <v>0.53829</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.546979</v>
+        <v>0.559574</v>
       </c>
       <c r="C142" t="n">
-        <v>0.602751</v>
+        <v>0.591843</v>
       </c>
       <c r="D142" t="n">
-        <v>0.556269</v>
+        <v>0.54147</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.558691</v>
+        <v>0.564944</v>
       </c>
       <c r="C143" t="n">
-        <v>0.617859</v>
+        <v>0.597289</v>
       </c>
       <c r="D143" t="n">
-        <v>0.551282</v>
+        <v>0.556079</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.287712</v>
+        <v>0.187914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.263928</v>
+        <v>0.186003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.278017</v>
+        <v>0.201189</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.294316</v>
+        <v>0.193018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.265714</v>
+        <v>0.187479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.278955</v>
+        <v>0.201484</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.303495</v>
+        <v>0.203013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.271179</v>
+        <v>0.191677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.281387</v>
+        <v>0.20365</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.318119</v>
+        <v>0.21753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.280676</v>
+        <v>0.200341</v>
       </c>
       <c r="D5" t="n">
-        <v>0.285748</v>
+        <v>0.206901</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.337514</v>
+        <v>0.239881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.291352</v>
+        <v>0.210346</v>
       </c>
       <c r="D6" t="n">
-        <v>0.290686</v>
+        <v>0.210415</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.370596</v>
+        <v>0.270244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313943</v>
+        <v>0.230315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.300528</v>
+        <v>0.217755</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414058</v>
+        <v>0.307204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.345584</v>
+        <v>0.264705</v>
       </c>
       <c r="D8" t="n">
-        <v>0.316829</v>
+        <v>0.232659</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.467943</v>
+        <v>0.349242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.399284</v>
+        <v>0.299354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273376</v>
+        <v>0.198088</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.271232</v>
+        <v>0.172479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.253644</v>
+        <v>0.179266</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273342</v>
+        <v>0.198306</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.272229</v>
+        <v>0.173302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.253629</v>
+        <v>0.179829</v>
       </c>
       <c r="D11" t="n">
-        <v>0.273462</v>
+        <v>0.198373</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.274374</v>
+        <v>0.175076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.255318</v>
+        <v>0.180683</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274128</v>
+        <v>0.198919</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.277218</v>
+        <v>0.176863</v>
       </c>
       <c r="C13" t="n">
-        <v>0.256646</v>
+        <v>0.181258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.274298</v>
+        <v>0.198987</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280382</v>
+        <v>0.179652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.258072</v>
+        <v>0.182946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.274689</v>
+        <v>0.199715</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.285071</v>
+        <v>0.183681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.260487</v>
+        <v>0.184258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275568</v>
+        <v>0.200081</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289763</v>
+        <v>0.18837</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2634</v>
+        <v>0.186326</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276861</v>
+        <v>0.200925</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296852</v>
+        <v>0.19492</v>
       </c>
       <c r="C17" t="n">
-        <v>0.266871</v>
+        <v>0.188945</v>
       </c>
       <c r="D17" t="n">
-        <v>0.278019</v>
+        <v>0.201763</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.306705</v>
+        <v>0.205194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.272296</v>
+        <v>0.193598</v>
       </c>
       <c r="D18" t="n">
-        <v>0.280316</v>
+        <v>0.203864</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.318999</v>
+        <v>0.219507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28161</v>
+        <v>0.198619</v>
       </c>
       <c r="D19" t="n">
-        <v>0.28388</v>
+        <v>0.205691</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337932</v>
+        <v>0.239544</v>
       </c>
       <c r="C20" t="n">
-        <v>0.292286</v>
+        <v>0.209861</v>
       </c>
       <c r="D20" t="n">
-        <v>0.287741</v>
+        <v>0.208898</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.36655</v>
+        <v>0.268065</v>
       </c>
       <c r="C21" t="n">
-        <v>0.307305</v>
+        <v>0.22599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.294972</v>
+        <v>0.215038</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.406788</v>
+        <v>0.305689</v>
       </c>
       <c r="C22" t="n">
-        <v>0.336712</v>
+        <v>0.252921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308326</v>
+        <v>0.22745</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.461719</v>
+        <v>0.349753</v>
       </c>
       <c r="C23" t="n">
-        <v>0.384753</v>
+        <v>0.295068</v>
       </c>
       <c r="D23" t="n">
-        <v>0.273271</v>
+        <v>0.198898</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.271366</v>
+        <v>0.178566</v>
       </c>
       <c r="C24" t="n">
-        <v>0.256001</v>
+        <v>0.180846</v>
       </c>
       <c r="D24" t="n">
-        <v>0.273561</v>
+        <v>0.199202</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272816</v>
+        <v>0.179434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25639</v>
+        <v>0.181174</v>
       </c>
       <c r="D25" t="n">
-        <v>0.27371</v>
+        <v>0.199234</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274559</v>
+        <v>0.181163</v>
       </c>
       <c r="C26" t="n">
-        <v>0.257466</v>
+        <v>0.181996</v>
       </c>
       <c r="D26" t="n">
-        <v>0.274125</v>
+        <v>0.199651</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.276614</v>
+        <v>0.183201</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258195</v>
+        <v>0.18368</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274455</v>
+        <v>0.199974</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.279808</v>
+        <v>0.185926</v>
       </c>
       <c r="C28" t="n">
-        <v>0.260335</v>
+        <v>0.184361</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2754</v>
+        <v>0.200639</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283493</v>
+        <v>0.189375</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262313</v>
+        <v>0.186102</v>
       </c>
       <c r="D29" t="n">
-        <v>0.275847</v>
+        <v>0.201116</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.287978</v>
+        <v>0.194225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.26476</v>
+        <v>0.188982</v>
       </c>
       <c r="D30" t="n">
-        <v>0.276843</v>
+        <v>0.202067</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.294761</v>
+        <v>0.201732</v>
       </c>
       <c r="C31" t="n">
-        <v>0.269313</v>
+        <v>0.191568</v>
       </c>
       <c r="D31" t="n">
-        <v>0.277998</v>
+        <v>0.202925</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.305151</v>
+        <v>0.210925</v>
       </c>
       <c r="C32" t="n">
-        <v>0.274808</v>
+        <v>0.196641</v>
       </c>
       <c r="D32" t="n">
-        <v>0.280116</v>
+        <v>0.214575</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317972</v>
+        <v>0.239105</v>
       </c>
       <c r="C33" t="n">
-        <v>0.283626</v>
+        <v>0.218073</v>
       </c>
       <c r="D33" t="n">
-        <v>0.283802</v>
+        <v>0.217406</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.336012</v>
+        <v>0.240952</v>
       </c>
       <c r="C34" t="n">
-        <v>0.295664</v>
+        <v>0.2139</v>
       </c>
       <c r="D34" t="n">
-        <v>0.288251</v>
+        <v>0.211029</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.363695</v>
+        <v>0.266628</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313104</v>
+        <v>0.230491</v>
       </c>
       <c r="D35" t="n">
-        <v>0.29601</v>
+        <v>0.21756</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.405003</v>
+        <v>0.301926</v>
       </c>
       <c r="C36" t="n">
-        <v>0.341621</v>
+        <v>0.255018</v>
       </c>
       <c r="D36" t="n">
-        <v>0.308371</v>
+        <v>0.229919</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453547</v>
+        <v>0.344403</v>
       </c>
       <c r="C37" t="n">
-        <v>0.38085</v>
+        <v>0.293733</v>
       </c>
       <c r="D37" t="n">
-        <v>0.273229</v>
+        <v>0.199945</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.27129</v>
+        <v>0.180754</v>
       </c>
       <c r="C38" t="n">
-        <v>0.257303</v>
+        <v>0.182579</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273439</v>
+        <v>0.200086</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.272792</v>
+        <v>0.182193</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258061</v>
+        <v>0.183637</v>
       </c>
       <c r="D39" t="n">
-        <v>0.273915</v>
+        <v>0.200525</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.274518</v>
+        <v>0.18366</v>
       </c>
       <c r="C40" t="n">
-        <v>0.258959</v>
+        <v>0.184195</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274309</v>
+        <v>0.200884</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.27656</v>
+        <v>0.185671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.260558</v>
+        <v>0.184961</v>
       </c>
       <c r="D41" t="n">
-        <v>0.275008</v>
+        <v>0.201124</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.279416</v>
+        <v>0.188623</v>
       </c>
       <c r="C42" t="n">
-        <v>0.262081</v>
+        <v>0.186382</v>
       </c>
       <c r="D42" t="n">
-        <v>0.275385</v>
+        <v>0.201803</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.283725</v>
+        <v>0.192534</v>
       </c>
       <c r="C43" t="n">
-        <v>0.263927</v>
+        <v>0.188001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.276122</v>
+        <v>0.202349</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.288898</v>
+        <v>0.198324</v>
       </c>
       <c r="C44" t="n">
-        <v>0.267221</v>
+        <v>0.190682</v>
       </c>
       <c r="D44" t="n">
-        <v>0.278019</v>
+        <v>0.203219</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.295847</v>
+        <v>0.204793</v>
       </c>
       <c r="C45" t="n">
-        <v>0.270578</v>
+        <v>0.194169</v>
       </c>
       <c r="D45" t="n">
-        <v>0.278397</v>
+        <v>0.204349</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.305029</v>
+        <v>0.214226</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2769</v>
+        <v>0.198499</v>
       </c>
       <c r="D46" t="n">
-        <v>0.280145</v>
+        <v>0.205941</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.316976</v>
+        <v>0.226596</v>
       </c>
       <c r="C47" t="n">
-        <v>0.285199</v>
+        <v>0.205381</v>
       </c>
       <c r="D47" t="n">
-        <v>0.283681</v>
+        <v>0.208514</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.333616</v>
+        <v>0.24334</v>
       </c>
       <c r="C48" t="n">
-        <v>0.294822</v>
+        <v>0.213902</v>
       </c>
       <c r="D48" t="n">
-        <v>0.288227</v>
+        <v>0.211807</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.357966</v>
+        <v>0.267052</v>
       </c>
       <c r="C49" t="n">
-        <v>0.308813</v>
+        <v>0.2277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.294025</v>
+        <v>0.229277</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.39362</v>
+        <v>0.300821</v>
       </c>
       <c r="C50" t="n">
-        <v>0.33536</v>
+        <v>0.266101</v>
       </c>
       <c r="D50" t="n">
-        <v>0.307208</v>
+        <v>0.228579</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.442823</v>
+        <v>0.364723</v>
       </c>
       <c r="C51" t="n">
-        <v>0.373099</v>
+        <v>0.284948</v>
       </c>
       <c r="D51" t="n">
-        <v>0.274547</v>
+        <v>0.201777</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.498068</v>
+        <v>0.386867</v>
       </c>
       <c r="C52" t="n">
-        <v>0.425442</v>
+        <v>0.354123</v>
       </c>
       <c r="D52" t="n">
-        <v>0.274889</v>
+        <v>0.201773</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.273755</v>
+        <v>0.185373</v>
       </c>
       <c r="C53" t="n">
-        <v>0.259533</v>
+        <v>0.18564</v>
       </c>
       <c r="D53" t="n">
-        <v>0.275334</v>
+        <v>0.202183</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.275734</v>
+        <v>0.187202</v>
       </c>
       <c r="C54" t="n">
-        <v>0.260653</v>
+        <v>0.186566</v>
       </c>
       <c r="D54" t="n">
-        <v>0.275777</v>
+        <v>0.202638</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.27837</v>
+        <v>0.189396</v>
       </c>
       <c r="C55" t="n">
-        <v>0.261747</v>
+        <v>0.18842</v>
       </c>
       <c r="D55" t="n">
-        <v>0.277459</v>
+        <v>0.203562</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.280526</v>
+        <v>0.192024</v>
       </c>
       <c r="C56" t="n">
-        <v>0.263271</v>
+        <v>0.193272</v>
       </c>
       <c r="D56" t="n">
-        <v>0.278311</v>
+        <v>0.203935</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.28488</v>
+        <v>0.195891</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265307</v>
+        <v>0.192517</v>
       </c>
       <c r="D57" t="n">
-        <v>0.277543</v>
+        <v>0.205829</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.289599</v>
+        <v>0.200629</v>
       </c>
       <c r="C58" t="n">
-        <v>0.267835</v>
+        <v>0.193636</v>
       </c>
       <c r="D58" t="n">
-        <v>0.279921</v>
+        <v>0.205696</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2965</v>
+        <v>0.206615</v>
       </c>
       <c r="C59" t="n">
-        <v>0.271526</v>
+        <v>0.196635</v>
       </c>
       <c r="D59" t="n">
-        <v>0.279864</v>
+        <v>0.206589</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.305399</v>
+        <v>0.215558</v>
       </c>
       <c r="C60" t="n">
-        <v>0.276775</v>
+        <v>0.200515</v>
       </c>
       <c r="D60" t="n">
-        <v>0.281883</v>
+        <v>0.207777</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.315737</v>
+        <v>0.226795</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282836</v>
+        <v>0.21249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.284157</v>
+        <v>0.210148</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.331883</v>
+        <v>0.241784</v>
       </c>
       <c r="C62" t="n">
-        <v>0.293564</v>
+        <v>0.214424</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288919</v>
+        <v>0.212996</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.355541</v>
+        <v>0.264423</v>
       </c>
       <c r="C63" t="n">
-        <v>0.306141</v>
+        <v>0.23092</v>
       </c>
       <c r="D63" t="n">
-        <v>0.294731</v>
+        <v>0.217988</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.388067</v>
+        <v>0.307447</v>
       </c>
       <c r="C64" t="n">
-        <v>0.329205</v>
+        <v>0.247456</v>
       </c>
       <c r="D64" t="n">
-        <v>0.303725</v>
+        <v>0.227256</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.434234</v>
+        <v>0.335866</v>
       </c>
       <c r="C65" t="n">
-        <v>0.36422</v>
+        <v>0.278238</v>
       </c>
       <c r="D65" t="n">
-        <v>0.320741</v>
+        <v>0.243695</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.491677</v>
+        <v>0.405759</v>
       </c>
       <c r="C66" t="n">
-        <v>0.415994</v>
+        <v>0.328506</v>
       </c>
       <c r="D66" t="n">
-        <v>0.288271</v>
+        <v>0.209212</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.281549</v>
+        <v>0.193199</v>
       </c>
       <c r="C67" t="n">
-        <v>0.271258</v>
+        <v>0.192929</v>
       </c>
       <c r="D67" t="n">
-        <v>0.288013</v>
+        <v>0.211236</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282992</v>
+        <v>0.195504</v>
       </c>
       <c r="C68" t="n">
-        <v>0.272937</v>
+        <v>0.193939</v>
       </c>
       <c r="D68" t="n">
-        <v>0.289442</v>
+        <v>0.211928</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.286136</v>
+        <v>0.196227</v>
       </c>
       <c r="C69" t="n">
-        <v>0.273476</v>
+        <v>0.195505</v>
       </c>
       <c r="D69" t="n">
-        <v>0.289082</v>
+        <v>0.222354</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.288221</v>
+        <v>0.200645</v>
       </c>
       <c r="C70" t="n">
-        <v>0.275424</v>
+        <v>0.196216</v>
       </c>
       <c r="D70" t="n">
-        <v>0.289449</v>
+        <v>0.212349</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.291526</v>
+        <v>0.20405</v>
       </c>
       <c r="C71" t="n">
-        <v>0.278129</v>
+        <v>0.198002</v>
       </c>
       <c r="D71" t="n">
-        <v>0.292771</v>
+        <v>0.222115</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.296916</v>
+        <v>0.208468</v>
       </c>
       <c r="C72" t="n">
-        <v>0.279834</v>
+        <v>0.200517</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291898</v>
+        <v>0.222849</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304935</v>
+        <v>0.215444</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283374</v>
+        <v>0.20297</v>
       </c>
       <c r="D73" t="n">
-        <v>0.293715</v>
+        <v>0.214482</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.311879</v>
+        <v>0.222747</v>
       </c>
       <c r="C74" t="n">
-        <v>0.288702</v>
+        <v>0.207559</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296553</v>
+        <v>0.216491</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.322913</v>
+        <v>0.234032</v>
       </c>
       <c r="C75" t="n">
-        <v>0.294546</v>
+        <v>0.214075</v>
       </c>
       <c r="D75" t="n">
-        <v>0.29647</v>
+        <v>0.218236</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.339802</v>
+        <v>0.248926</v>
       </c>
       <c r="C76" t="n">
-        <v>0.304321</v>
+        <v>0.22291</v>
       </c>
       <c r="D76" t="n">
-        <v>0.301815</v>
+        <v>0.222599</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.362993</v>
+        <v>0.275714</v>
       </c>
       <c r="C77" t="n">
-        <v>0.318453</v>
+        <v>0.234735</v>
       </c>
       <c r="D77" t="n">
-        <v>0.306547</v>
+        <v>0.22689</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.396668</v>
+        <v>0.300953</v>
       </c>
       <c r="C78" t="n">
-        <v>0.338904</v>
+        <v>0.257176</v>
       </c>
       <c r="D78" t="n">
-        <v>0.316084</v>
+        <v>0.245439</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.440908</v>
+        <v>0.340216</v>
       </c>
       <c r="C79" t="n">
-        <v>0.369843</v>
+        <v>0.300933</v>
       </c>
       <c r="D79" t="n">
-        <v>0.331232</v>
+        <v>0.249297</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.498685</v>
+        <v>0.419078</v>
       </c>
       <c r="C80" t="n">
-        <v>0.421854</v>
+        <v>0.347877</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305298</v>
+        <v>0.232024</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.294569</v>
+        <v>0.20382</v>
       </c>
       <c r="C81" t="n">
-        <v>0.28514</v>
+        <v>0.201865</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305992</v>
+        <v>0.222283</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.296741</v>
+        <v>0.205336</v>
       </c>
       <c r="C82" t="n">
-        <v>0.286415</v>
+        <v>0.207577</v>
       </c>
       <c r="D82" t="n">
-        <v>0.30573</v>
+        <v>0.232789</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298974</v>
+        <v>0.207414</v>
       </c>
       <c r="C83" t="n">
-        <v>0.290489</v>
+        <v>0.20645</v>
       </c>
       <c r="D83" t="n">
-        <v>0.306634</v>
+        <v>0.223491</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302223</v>
+        <v>0.210739</v>
       </c>
       <c r="C84" t="n">
-        <v>0.289888</v>
+        <v>0.219755</v>
       </c>
       <c r="D84" t="n">
-        <v>0.306742</v>
+        <v>0.234114</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.305752</v>
+        <v>0.222878</v>
       </c>
       <c r="C85" t="n">
-        <v>0.292149</v>
+        <v>0.22195</v>
       </c>
       <c r="D85" t="n">
-        <v>0.307798</v>
+        <v>0.224421</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318063</v>
+        <v>0.218626</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294195</v>
+        <v>0.211413</v>
       </c>
       <c r="D86" t="n">
-        <v>0.30883</v>
+        <v>0.225139</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.31767</v>
+        <v>0.225247</v>
       </c>
       <c r="C87" t="n">
-        <v>0.297572</v>
+        <v>0.212844</v>
       </c>
       <c r="D87" t="n">
-        <v>0.310211</v>
+        <v>0.236635</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.325827</v>
+        <v>0.248352</v>
       </c>
       <c r="C88" t="n">
-        <v>0.302535</v>
+        <v>0.232479</v>
       </c>
       <c r="D88" t="n">
-        <v>0.311357</v>
+        <v>0.238595</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.337108</v>
+        <v>0.243886</v>
       </c>
       <c r="C89" t="n">
-        <v>0.309569</v>
+        <v>0.238892</v>
       </c>
       <c r="D89" t="n">
-        <v>0.313732</v>
+        <v>0.230168</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352809</v>
+        <v>0.258142</v>
       </c>
       <c r="C90" t="n">
-        <v>0.321143</v>
+        <v>0.239192</v>
       </c>
       <c r="D90" t="n">
-        <v>0.318043</v>
+        <v>0.244365</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374531</v>
+        <v>0.29766</v>
       </c>
       <c r="C91" t="n">
-        <v>0.338032</v>
+        <v>0.257253</v>
       </c>
       <c r="D91" t="n">
-        <v>0.322965</v>
+        <v>0.238603</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.406287</v>
+        <v>0.328047</v>
       </c>
       <c r="C92" t="n">
-        <v>0.352282</v>
+        <v>0.284645</v>
       </c>
       <c r="D92" t="n">
-        <v>0.331618</v>
+        <v>0.258757</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.451531</v>
+        <v>0.3689</v>
       </c>
       <c r="C93" t="n">
-        <v>0.38389</v>
+        <v>0.307623</v>
       </c>
       <c r="D93" t="n">
-        <v>0.346263</v>
+        <v>0.273119</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.512769</v>
+        <v>0.423838</v>
       </c>
       <c r="C94" t="n">
-        <v>0.431564</v>
+        <v>0.355026</v>
       </c>
       <c r="D94" t="n">
-        <v>0.316254</v>
+        <v>0.230187</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.304122</v>
+        <v>0.210642</v>
       </c>
       <c r="C95" t="n">
-        <v>0.296665</v>
+        <v>0.209599</v>
       </c>
       <c r="D95" t="n">
-        <v>0.316812</v>
+        <v>0.230655</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.305866</v>
+        <v>0.212488</v>
       </c>
       <c r="C96" t="n">
-        <v>0.297759</v>
+        <v>0.2253</v>
       </c>
       <c r="D96" t="n">
-        <v>0.317334</v>
+        <v>0.231388</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.308168</v>
+        <v>0.214772</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299185</v>
+        <v>0.211915</v>
       </c>
       <c r="D97" t="n">
-        <v>0.317884</v>
+        <v>0.231869</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311766</v>
+        <v>0.217892</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300758</v>
+        <v>0.214169</v>
       </c>
       <c r="D98" t="n">
-        <v>0.318907</v>
+        <v>0.242921</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.315318</v>
+        <v>0.222573</v>
       </c>
       <c r="C99" t="n">
-        <v>0.302916</v>
+        <v>0.229184</v>
       </c>
       <c r="D99" t="n">
-        <v>0.319372</v>
+        <v>0.242401</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320766</v>
+        <v>0.225913</v>
       </c>
       <c r="C100" t="n">
-        <v>0.305704</v>
+        <v>0.222044</v>
       </c>
       <c r="D100" t="n">
-        <v>0.320531</v>
+        <v>0.234162</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.327185</v>
+        <v>0.231845</v>
       </c>
       <c r="C101" t="n">
-        <v>0.309445</v>
+        <v>0.23644</v>
       </c>
       <c r="D101" t="n">
-        <v>0.32164</v>
+        <v>0.23548</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.336078</v>
+        <v>0.240404</v>
       </c>
       <c r="C102" t="n">
-        <v>0.315432</v>
+        <v>0.234412</v>
       </c>
       <c r="D102" t="n">
-        <v>0.32386</v>
+        <v>0.237263</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.347366</v>
+        <v>0.250378</v>
       </c>
       <c r="C103" t="n">
-        <v>0.323409</v>
+        <v>0.247589</v>
       </c>
       <c r="D103" t="n">
-        <v>0.325986</v>
+        <v>0.239461</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.363148</v>
+        <v>0.269504</v>
       </c>
       <c r="C104" t="n">
-        <v>0.333212</v>
+        <v>0.252366</v>
       </c>
       <c r="D104" t="n">
-        <v>0.329617</v>
+        <v>0.243062</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.385342</v>
+        <v>0.283052</v>
       </c>
       <c r="C105" t="n">
-        <v>0.348645</v>
+        <v>0.265224</v>
       </c>
       <c r="D105" t="n">
-        <v>0.334556</v>
+        <v>0.257344</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.417238</v>
+        <v>0.309993</v>
       </c>
       <c r="C106" t="n">
-        <v>0.371751</v>
+        <v>0.275911</v>
       </c>
       <c r="D106" t="n">
-        <v>0.343139</v>
+        <v>0.255518</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.462491</v>
+        <v>0.369937</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403431</v>
+        <v>0.317322</v>
       </c>
       <c r="D107" t="n">
-        <v>0.356835</v>
+        <v>0.281114</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5282480000000001</v>
+        <v>0.441302</v>
       </c>
       <c r="C108" t="n">
-        <v>0.470831</v>
+        <v>0.361524</v>
       </c>
       <c r="D108" t="n">
-        <v>0.322799</v>
+        <v>0.235198</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.605866</v>
+        <v>0.507784</v>
       </c>
       <c r="C109" t="n">
-        <v>0.530045</v>
+        <v>0.42177</v>
       </c>
       <c r="D109" t="n">
-        <v>0.323923</v>
+        <v>0.236245</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.311703</v>
+        <v>0.217519</v>
       </c>
       <c r="C110" t="n">
-        <v>0.317046</v>
+        <v>0.227541</v>
       </c>
       <c r="D110" t="n">
-        <v>0.324653</v>
+        <v>0.237017</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.315005</v>
+        <v>0.220048</v>
       </c>
       <c r="C111" t="n">
-        <v>0.322253</v>
+        <v>0.231858</v>
       </c>
       <c r="D111" t="n">
-        <v>0.326143</v>
+        <v>0.237953</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319061</v>
+        <v>0.223528</v>
       </c>
       <c r="C112" t="n">
-        <v>0.328214</v>
+        <v>0.238272</v>
       </c>
       <c r="D112" t="n">
-        <v>0.327157</v>
+        <v>0.23951</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323523</v>
+        <v>0.227979</v>
       </c>
       <c r="C113" t="n">
-        <v>0.334573</v>
+        <v>0.244088</v>
       </c>
       <c r="D113" t="n">
-        <v>0.328857</v>
+        <v>0.241198</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.33022</v>
+        <v>0.234494</v>
       </c>
       <c r="C114" t="n">
-        <v>0.341051</v>
+        <v>0.251281</v>
       </c>
       <c r="D114" t="n">
-        <v>0.331479</v>
+        <v>0.243064</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.339298</v>
+        <v>0.241978</v>
       </c>
       <c r="C115" t="n">
-        <v>0.350493</v>
+        <v>0.258904</v>
       </c>
       <c r="D115" t="n">
-        <v>0.334083</v>
+        <v>0.246203</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.350099</v>
+        <v>0.252809</v>
       </c>
       <c r="C116" t="n">
-        <v>0.359948</v>
+        <v>0.268357</v>
       </c>
       <c r="D116" t="n">
-        <v>0.337844</v>
+        <v>0.249621</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.365142</v>
+        <v>0.265872</v>
       </c>
       <c r="C117" t="n">
-        <v>0.371694</v>
+        <v>0.279135</v>
       </c>
       <c r="D117" t="n">
-        <v>0.342408</v>
+        <v>0.254307</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.385186</v>
+        <v>0.283997</v>
       </c>
       <c r="C118" t="n">
-        <v>0.386579</v>
+        <v>0.301995</v>
       </c>
       <c r="D118" t="n">
-        <v>0.349061</v>
+        <v>0.260127</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.411608</v>
+        <v>0.312795</v>
       </c>
       <c r="C119" t="n">
-        <v>0.404976</v>
+        <v>0.308501</v>
       </c>
       <c r="D119" t="n">
-        <v>0.357725</v>
+        <v>0.273223</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.447873</v>
+        <v>0.354704</v>
       </c>
       <c r="C120" t="n">
-        <v>0.430941</v>
+        <v>0.348296</v>
       </c>
       <c r="D120" t="n">
-        <v>0.369745</v>
+        <v>0.287658</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.499313</v>
+        <v>0.40057</v>
       </c>
       <c r="C121" t="n">
-        <v>0.466866</v>
+        <v>0.382049</v>
       </c>
       <c r="D121" t="n">
-        <v>0.387336</v>
+        <v>0.308134</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.57064</v>
+        <v>0.476823</v>
       </c>
       <c r="C122" t="n">
-        <v>0.524869</v>
+        <v>0.432358</v>
       </c>
       <c r="D122" t="n">
-        <v>0.415556</v>
+        <v>0.331224</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.669659</v>
+        <v>0.557967</v>
       </c>
       <c r="C123" t="n">
-        <v>0.614426</v>
+        <v>0.513136</v>
       </c>
       <c r="D123" t="n">
-        <v>0.356569</v>
+        <v>0.264759</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.342349</v>
+        <v>0.244863</v>
       </c>
       <c r="C124" t="n">
-        <v>0.371406</v>
+        <v>0.276919</v>
       </c>
       <c r="D124" t="n">
-        <v>0.36199</v>
+        <v>0.268641</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349454</v>
+        <v>0.251364</v>
       </c>
       <c r="C125" t="n">
-        <v>0.378355</v>
+        <v>0.280294</v>
       </c>
       <c r="D125" t="n">
-        <v>0.36049</v>
+        <v>0.280249</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.354773</v>
+        <v>0.255716</v>
       </c>
       <c r="C126" t="n">
-        <v>0.380978</v>
+        <v>0.285147</v>
       </c>
       <c r="D126" t="n">
-        <v>0.366416</v>
+        <v>0.285984</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.36122</v>
+        <v>0.262492</v>
       </c>
       <c r="C127" t="n">
-        <v>0.385209</v>
+        <v>0.2911</v>
       </c>
       <c r="D127" t="n">
-        <v>0.367715</v>
+        <v>0.28088</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.370228</v>
+        <v>0.268263</v>
       </c>
       <c r="C128" t="n">
-        <v>0.392204</v>
+        <v>0.296126</v>
       </c>
       <c r="D128" t="n">
-        <v>0.372972</v>
+        <v>0.279789</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.382637</v>
+        <v>0.277957</v>
       </c>
       <c r="C129" t="n">
-        <v>0.401918</v>
+        <v>0.302727</v>
       </c>
       <c r="D129" t="n">
-        <v>0.381372</v>
+        <v>0.283952</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.395927</v>
+        <v>0.289963</v>
       </c>
       <c r="C130" t="n">
-        <v>0.408547</v>
+        <v>0.311294</v>
       </c>
       <c r="D130" t="n">
-        <v>0.380192</v>
+        <v>0.28909</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406324</v>
+        <v>0.303344</v>
       </c>
       <c r="C131" t="n">
-        <v>0.423301</v>
+        <v>0.321537</v>
       </c>
       <c r="D131" t="n">
-        <v>0.383894</v>
+        <v>0.293458</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.425422</v>
+        <v>0.322047</v>
       </c>
       <c r="C132" t="n">
-        <v>0.438084</v>
+        <v>0.337611</v>
       </c>
       <c r="D132" t="n">
-        <v>0.390695</v>
+        <v>0.309972</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.454433</v>
+        <v>0.351426</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455408</v>
+        <v>0.357345</v>
       </c>
       <c r="D133" t="n">
-        <v>0.400412</v>
+        <v>0.313199</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.485893</v>
+        <v>0.370595</v>
       </c>
       <c r="C134" t="n">
-        <v>0.482252</v>
+        <v>0.391451</v>
       </c>
       <c r="D134" t="n">
-        <v>0.408989</v>
+        <v>0.32775</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5389429999999999</v>
+        <v>0.412865</v>
       </c>
       <c r="C135" t="n">
-        <v>0.521979</v>
+        <v>0.411852</v>
       </c>
       <c r="D135" t="n">
-        <v>0.425609</v>
+        <v>0.333984</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.610958</v>
+        <v>0.503655</v>
       </c>
       <c r="C136" t="n">
-        <v>0.58074</v>
+        <v>0.478</v>
       </c>
       <c r="D136" t="n">
-        <v>0.452366</v>
+        <v>0.367929</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.70794</v>
+        <v>0.583367</v>
       </c>
       <c r="C137" t="n">
-        <v>0.673582</v>
+        <v>0.553234</v>
       </c>
       <c r="D137" t="n">
-        <v>0.52943</v>
+        <v>0.414159</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.51732</v>
+        <v>0.384899</v>
       </c>
       <c r="C138" t="n">
-        <v>0.555638</v>
+        <v>0.419375</v>
       </c>
       <c r="D138" t="n">
-        <v>0.528441</v>
+        <v>0.409062</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.528474</v>
+        <v>0.385914</v>
       </c>
       <c r="C139" t="n">
-        <v>0.555996</v>
+        <v>0.425824</v>
       </c>
       <c r="D139" t="n">
-        <v>0.534347</v>
+        <v>0.408853</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.530398</v>
+        <v>0.394278</v>
       </c>
       <c r="C140" t="n">
-        <v>0.578384</v>
+        <v>0.43204</v>
       </c>
       <c r="D140" t="n">
-        <v>0.544755</v>
+        <v>0.414636</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.538676</v>
+        <v>0.400642</v>
       </c>
       <c r="C141" t="n">
-        <v>0.581937</v>
+        <v>0.439574</v>
       </c>
       <c r="D141" t="n">
-        <v>0.53829</v>
+        <v>0.427065</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.559574</v>
+        <v>0.411089</v>
       </c>
       <c r="C142" t="n">
-        <v>0.591843</v>
+        <v>0.450918</v>
       </c>
       <c r="D142" t="n">
-        <v>0.54147</v>
+        <v>0.422676</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.564944</v>
+        <v>0.413591</v>
       </c>
       <c r="C143" t="n">
-        <v>0.597289</v>
+        <v>0.454364</v>
       </c>
       <c r="D143" t="n">
-        <v>0.556079</v>
+        <v>0.42291</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.187914</v>
+        <v>0.189895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.186003</v>
+        <v>0.184676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.201189</v>
+        <v>0.201416</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193018</v>
+        <v>0.195809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187479</v>
+        <v>0.18611</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201484</v>
+        <v>0.201919</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.203013</v>
+        <v>0.2054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191677</v>
+        <v>0.189744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20365</v>
+        <v>0.204278</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.21753</v>
+        <v>0.22031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200341</v>
+        <v>0.213518</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206901</v>
+        <v>0.216776</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.239881</v>
+        <v>0.259005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.210346</v>
+        <v>0.224771</v>
       </c>
       <c r="D6" t="n">
-        <v>0.210415</v>
+        <v>0.22131</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.270244</v>
+        <v>0.290348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.230315</v>
+        <v>0.246001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217755</v>
+        <v>0.229227</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.307204</v>
+        <v>0.331859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.264705</v>
+        <v>0.281501</v>
       </c>
       <c r="D8" t="n">
-        <v>0.232659</v>
+        <v>0.245285</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.349242</v>
+        <v>0.378958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.299354</v>
+        <v>0.318325</v>
       </c>
       <c r="D9" t="n">
-        <v>0.198088</v>
+        <v>0.206695</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.172479</v>
+        <v>0.186553</v>
       </c>
       <c r="C10" t="n">
-        <v>0.179266</v>
+        <v>0.191443</v>
       </c>
       <c r="D10" t="n">
-        <v>0.198306</v>
+        <v>0.206936</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.173302</v>
+        <v>0.187423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179829</v>
+        <v>0.192013</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198373</v>
+        <v>0.206998</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.175076</v>
+        <v>0.18944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.180683</v>
+        <v>0.19286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.198919</v>
+        <v>0.207585</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.176863</v>
+        <v>0.191326</v>
       </c>
       <c r="C13" t="n">
-        <v>0.181258</v>
+        <v>0.193551</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198987</v>
+        <v>0.207694</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.179652</v>
+        <v>0.194326</v>
       </c>
       <c r="C14" t="n">
-        <v>0.182946</v>
+        <v>0.195324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.199715</v>
+        <v>0.208518</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183681</v>
+        <v>0.198563</v>
       </c>
       <c r="C15" t="n">
-        <v>0.184258</v>
+        <v>0.196722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.200081</v>
+        <v>0.20902</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18837</v>
+        <v>0.203754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.186326</v>
+        <v>0.199158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.200925</v>
+        <v>0.209991</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.19492</v>
+        <v>0.210965</v>
       </c>
       <c r="C17" t="n">
-        <v>0.188945</v>
+        <v>0.201865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.201763</v>
+        <v>0.210999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.205194</v>
+        <v>0.221953</v>
       </c>
       <c r="C18" t="n">
-        <v>0.193598</v>
+        <v>0.192443</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203864</v>
+        <v>0.203999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.219507</v>
+        <v>0.222557</v>
       </c>
       <c r="C19" t="n">
-        <v>0.198619</v>
+        <v>0.197541</v>
       </c>
       <c r="D19" t="n">
-        <v>0.205691</v>
+        <v>0.206701</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.239544</v>
+        <v>0.24313</v>
       </c>
       <c r="C20" t="n">
-        <v>0.209861</v>
+        <v>0.208553</v>
       </c>
       <c r="D20" t="n">
-        <v>0.208898</v>
+        <v>0.210244</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.268065</v>
+        <v>0.271144</v>
       </c>
       <c r="C21" t="n">
-        <v>0.22599</v>
+        <v>0.224366</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215038</v>
+        <v>0.216919</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.305689</v>
+        <v>0.309047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.252921</v>
+        <v>0.251219</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22745</v>
+        <v>0.229607</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.349753</v>
+        <v>0.353581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.295068</v>
+        <v>0.291982</v>
       </c>
       <c r="D23" t="n">
-        <v>0.198898</v>
+        <v>0.199135</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.178566</v>
+        <v>0.179488</v>
       </c>
       <c r="C24" t="n">
-        <v>0.180846</v>
+        <v>0.180361</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199202</v>
+        <v>0.199532</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.179434</v>
+        <v>0.180355</v>
       </c>
       <c r="C25" t="n">
-        <v>0.181174</v>
+        <v>0.180545</v>
       </c>
       <c r="D25" t="n">
-        <v>0.199234</v>
+        <v>0.199561</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.181163</v>
+        <v>0.182043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.181996</v>
+        <v>0.193576</v>
       </c>
       <c r="D26" t="n">
-        <v>0.199651</v>
+        <v>0.199986</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.183201</v>
+        <v>0.184391</v>
       </c>
       <c r="C27" t="n">
-        <v>0.18368</v>
+        <v>0.182393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.199974</v>
+        <v>0.200411</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.185926</v>
+        <v>0.186955</v>
       </c>
       <c r="C28" t="n">
-        <v>0.184361</v>
+        <v>0.183795</v>
       </c>
       <c r="D28" t="n">
-        <v>0.200639</v>
+        <v>0.209708</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.189375</v>
+        <v>0.190512</v>
       </c>
       <c r="C29" t="n">
-        <v>0.186102</v>
+        <v>0.187518</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201116</v>
+        <v>0.201602</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.194225</v>
+        <v>0.195306</v>
       </c>
       <c r="C30" t="n">
-        <v>0.188982</v>
+        <v>0.201031</v>
       </c>
       <c r="D30" t="n">
-        <v>0.202067</v>
+        <v>0.202636</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.201732</v>
+        <v>0.203098</v>
       </c>
       <c r="C31" t="n">
-        <v>0.191568</v>
+        <v>0.191763</v>
       </c>
       <c r="D31" t="n">
-        <v>0.202925</v>
+        <v>0.203591</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.210925</v>
+        <v>0.212515</v>
       </c>
       <c r="C32" t="n">
-        <v>0.196641</v>
+        <v>0.209166</v>
       </c>
       <c r="D32" t="n">
-        <v>0.214575</v>
+        <v>0.205372</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.239105</v>
+        <v>0.225267</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218073</v>
+        <v>0.217017</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217406</v>
+        <v>0.208065</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.240952</v>
+        <v>0.24284</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2139</v>
+        <v>0.217537</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211029</v>
+        <v>0.21228</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266628</v>
+        <v>0.26924</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230491</v>
+        <v>0.228788</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21756</v>
+        <v>0.228221</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.301926</v>
+        <v>0.304451</v>
       </c>
       <c r="C36" t="n">
-        <v>0.255018</v>
+        <v>0.253201</v>
       </c>
       <c r="D36" t="n">
-        <v>0.229919</v>
+        <v>0.231885</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.344403</v>
+        <v>0.34816</v>
       </c>
       <c r="C37" t="n">
-        <v>0.293733</v>
+        <v>0.312555</v>
       </c>
       <c r="D37" t="n">
-        <v>0.199945</v>
+        <v>0.200319</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.180754</v>
+        <v>0.18152</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182579</v>
+        <v>0.182011</v>
       </c>
       <c r="D38" t="n">
-        <v>0.200086</v>
+        <v>0.200468</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.182193</v>
+        <v>0.183045</v>
       </c>
       <c r="C39" t="n">
-        <v>0.183637</v>
+        <v>0.182911</v>
       </c>
       <c r="D39" t="n">
-        <v>0.200525</v>
+        <v>0.201028</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.18366</v>
+        <v>0.18455</v>
       </c>
       <c r="C40" t="n">
-        <v>0.184195</v>
+        <v>0.183612</v>
       </c>
       <c r="D40" t="n">
-        <v>0.200884</v>
+        <v>0.201186</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.185671</v>
+        <v>0.186341</v>
       </c>
       <c r="C41" t="n">
-        <v>0.184961</v>
+        <v>0.184486</v>
       </c>
       <c r="D41" t="n">
-        <v>0.201124</v>
+        <v>0.201576</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.188623</v>
+        <v>0.18937</v>
       </c>
       <c r="C42" t="n">
-        <v>0.186382</v>
+        <v>0.185987</v>
       </c>
       <c r="D42" t="n">
-        <v>0.201803</v>
+        <v>0.202303</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.192534</v>
+        <v>0.193343</v>
       </c>
       <c r="C43" t="n">
-        <v>0.188001</v>
+        <v>0.199557</v>
       </c>
       <c r="D43" t="n">
-        <v>0.202349</v>
+        <v>0.2029</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.198324</v>
+        <v>0.198958</v>
       </c>
       <c r="C44" t="n">
-        <v>0.190682</v>
+        <v>0.190145</v>
       </c>
       <c r="D44" t="n">
-        <v>0.203219</v>
+        <v>0.203837</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.204793</v>
+        <v>0.205405</v>
       </c>
       <c r="C45" t="n">
-        <v>0.194169</v>
+        <v>0.193574</v>
       </c>
       <c r="D45" t="n">
-        <v>0.204349</v>
+        <v>0.205129</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.214226</v>
+        <v>0.215195</v>
       </c>
       <c r="C46" t="n">
-        <v>0.198499</v>
+        <v>0.197738</v>
       </c>
       <c r="D46" t="n">
-        <v>0.205941</v>
+        <v>0.206769</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.226596</v>
+        <v>0.227828</v>
       </c>
       <c r="C47" t="n">
-        <v>0.205381</v>
+        <v>0.210564</v>
       </c>
       <c r="D47" t="n">
-        <v>0.208514</v>
+        <v>0.209361</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.24334</v>
+        <v>0.244603</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213902</v>
+        <v>0.227233</v>
       </c>
       <c r="D48" t="n">
-        <v>0.211807</v>
+        <v>0.212898</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.267052</v>
+        <v>0.268711</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2277</v>
+        <v>0.226697</v>
       </c>
       <c r="D49" t="n">
-        <v>0.229277</v>
+        <v>0.219226</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.300821</v>
+        <v>0.302966</v>
       </c>
       <c r="C50" t="n">
-        <v>0.266101</v>
+        <v>0.276812</v>
       </c>
       <c r="D50" t="n">
-        <v>0.228579</v>
+        <v>0.230188</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.364723</v>
+        <v>0.3608</v>
       </c>
       <c r="C51" t="n">
-        <v>0.284948</v>
+        <v>0.283716</v>
       </c>
       <c r="D51" t="n">
-        <v>0.201777</v>
+        <v>0.202262</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.386867</v>
+        <v>0.389159</v>
       </c>
       <c r="C52" t="n">
-        <v>0.354123</v>
+        <v>0.331976</v>
       </c>
       <c r="D52" t="n">
-        <v>0.201773</v>
+        <v>0.202123</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.185373</v>
+        <v>0.185792</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18564</v>
+        <v>0.197307</v>
       </c>
       <c r="D53" t="n">
-        <v>0.202183</v>
+        <v>0.211217</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.187202</v>
+        <v>0.18723</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186566</v>
+        <v>0.185867</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202638</v>
+        <v>0.202803</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.189396</v>
+        <v>0.189601</v>
       </c>
       <c r="C55" t="n">
-        <v>0.18842</v>
+        <v>0.199399</v>
       </c>
       <c r="D55" t="n">
-        <v>0.203562</v>
+        <v>0.203227</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.192024</v>
+        <v>0.192391</v>
       </c>
       <c r="C56" t="n">
-        <v>0.193272</v>
+        <v>0.200944</v>
       </c>
       <c r="D56" t="n">
-        <v>0.203935</v>
+        <v>0.21276</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.195891</v>
+        <v>0.196576</v>
       </c>
       <c r="C57" t="n">
-        <v>0.192517</v>
+        <v>0.190873</v>
       </c>
       <c r="D57" t="n">
-        <v>0.205829</v>
+        <v>0.20461</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.200629</v>
+        <v>0.201213</v>
       </c>
       <c r="C58" t="n">
-        <v>0.193636</v>
+        <v>0.193107</v>
       </c>
       <c r="D58" t="n">
-        <v>0.205696</v>
+        <v>0.214448</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206615</v>
+        <v>0.207373</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196635</v>
+        <v>0.195859</v>
       </c>
       <c r="D59" t="n">
-        <v>0.206589</v>
+        <v>0.206541</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.215558</v>
+        <v>0.21634</v>
       </c>
       <c r="C60" t="n">
-        <v>0.200515</v>
+        <v>0.213187</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207777</v>
+        <v>0.208157</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.226795</v>
+        <v>0.227337</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21249</v>
+        <v>0.220221</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210148</v>
+        <v>0.210681</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.241784</v>
+        <v>0.243491</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214424</v>
+        <v>0.213659</v>
       </c>
       <c r="D62" t="n">
-        <v>0.212996</v>
+        <v>0.223165</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264423</v>
+        <v>0.265849</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23092</v>
+        <v>0.241319</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217988</v>
+        <v>0.218991</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.307447</v>
+        <v>0.306313</v>
       </c>
       <c r="C64" t="n">
-        <v>0.247456</v>
+        <v>0.254447</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227256</v>
+        <v>0.238453</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.335866</v>
+        <v>0.358147</v>
       </c>
       <c r="C65" t="n">
-        <v>0.278238</v>
+        <v>0.275904</v>
       </c>
       <c r="D65" t="n">
-        <v>0.243695</v>
+        <v>0.244671</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.405759</v>
+        <v>0.40955</v>
       </c>
       <c r="C66" t="n">
-        <v>0.328506</v>
+        <v>0.346145</v>
       </c>
       <c r="D66" t="n">
-        <v>0.209212</v>
+        <v>0.215678</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.193199</v>
+        <v>0.19391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192929</v>
+        <v>0.192951</v>
       </c>
       <c r="D67" t="n">
-        <v>0.211236</v>
+        <v>0.210786</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.195504</v>
+        <v>0.196499</v>
       </c>
       <c r="C68" t="n">
-        <v>0.193939</v>
+        <v>0.194309</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211928</v>
+        <v>0.210622</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.196227</v>
+        <v>0.197242</v>
       </c>
       <c r="C69" t="n">
-        <v>0.195505</v>
+        <v>0.194151</v>
       </c>
       <c r="D69" t="n">
-        <v>0.222354</v>
+        <v>0.211108</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.200645</v>
+        <v>0.201004</v>
       </c>
       <c r="C70" t="n">
-        <v>0.196216</v>
+        <v>0.19639</v>
       </c>
       <c r="D70" t="n">
-        <v>0.212349</v>
+        <v>0.213096</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.20405</v>
+        <v>0.204698</v>
       </c>
       <c r="C71" t="n">
-        <v>0.198002</v>
+        <v>0.212418</v>
       </c>
       <c r="D71" t="n">
-        <v>0.222115</v>
+        <v>0.213554</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.208468</v>
+        <v>0.209266</v>
       </c>
       <c r="C72" t="n">
-        <v>0.200517</v>
+        <v>0.200971</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222849</v>
+        <v>0.215091</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.215444</v>
+        <v>0.216048</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20297</v>
+        <v>0.217897</v>
       </c>
       <c r="D73" t="n">
-        <v>0.214482</v>
+        <v>0.219412</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.222747</v>
+        <v>0.224396</v>
       </c>
       <c r="C74" t="n">
-        <v>0.207559</v>
+        <v>0.207272</v>
       </c>
       <c r="D74" t="n">
-        <v>0.216491</v>
+        <v>0.216377</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.234032</v>
+        <v>0.23598</v>
       </c>
       <c r="C75" t="n">
-        <v>0.214075</v>
+        <v>0.228803</v>
       </c>
       <c r="D75" t="n">
-        <v>0.218236</v>
+        <v>0.218905</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.248926</v>
+        <v>0.25126</v>
       </c>
       <c r="C76" t="n">
-        <v>0.22291</v>
+        <v>0.221428</v>
       </c>
       <c r="D76" t="n">
-        <v>0.222599</v>
+        <v>0.222053</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.275714</v>
+        <v>0.272317</v>
       </c>
       <c r="C77" t="n">
-        <v>0.234735</v>
+        <v>0.24261</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22689</v>
+        <v>0.227647</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.300953</v>
+        <v>0.317931</v>
       </c>
       <c r="C78" t="n">
-        <v>0.257176</v>
+        <v>0.25937</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245439</v>
+        <v>0.235813</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.340216</v>
+        <v>0.353623</v>
       </c>
       <c r="C79" t="n">
-        <v>0.300933</v>
+        <v>0.290835</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249297</v>
+        <v>0.251588</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.419078</v>
+        <v>0.417085</v>
       </c>
       <c r="C80" t="n">
-        <v>0.347877</v>
+        <v>0.338916</v>
       </c>
       <c r="D80" t="n">
-        <v>0.232024</v>
+        <v>0.221764</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.20382</v>
+        <v>0.204028</v>
       </c>
       <c r="C81" t="n">
-        <v>0.201865</v>
+        <v>0.216236</v>
       </c>
       <c r="D81" t="n">
-        <v>0.222283</v>
+        <v>0.232621</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.205336</v>
+        <v>0.205617</v>
       </c>
       <c r="C82" t="n">
-        <v>0.207577</v>
+        <v>0.217312</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232789</v>
+        <v>0.233084</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.207414</v>
+        <v>0.208223</v>
       </c>
       <c r="C83" t="n">
-        <v>0.20645</v>
+        <v>0.217842</v>
       </c>
       <c r="D83" t="n">
-        <v>0.223491</v>
+        <v>0.223429</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.210739</v>
+        <v>0.211227</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219755</v>
+        <v>0.219404</v>
       </c>
       <c r="D84" t="n">
-        <v>0.234114</v>
+        <v>0.234108</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222878</v>
+        <v>0.214741</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22195</v>
+        <v>0.20663</v>
       </c>
       <c r="D85" t="n">
-        <v>0.224421</v>
+        <v>0.234218</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.218626</v>
+        <v>0.219531</v>
       </c>
       <c r="C86" t="n">
-        <v>0.211413</v>
+        <v>0.214161</v>
       </c>
       <c r="D86" t="n">
-        <v>0.225139</v>
+        <v>0.225652</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225247</v>
+        <v>0.225833</v>
       </c>
       <c r="C87" t="n">
-        <v>0.212844</v>
+        <v>0.234907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.236635</v>
+        <v>0.226929</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.248352</v>
+        <v>0.23437</v>
       </c>
       <c r="C88" t="n">
-        <v>0.232479</v>
+        <v>0.243199</v>
       </c>
       <c r="D88" t="n">
-        <v>0.238595</v>
+        <v>0.228298</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.243886</v>
+        <v>0.245154</v>
       </c>
       <c r="C89" t="n">
-        <v>0.238892</v>
+        <v>0.242046</v>
       </c>
       <c r="D89" t="n">
-        <v>0.230168</v>
+        <v>0.241123</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.258142</v>
+        <v>0.259619</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239192</v>
+        <v>0.238376</v>
       </c>
       <c r="D90" t="n">
-        <v>0.244365</v>
+        <v>0.234442</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.29766</v>
+        <v>0.297362</v>
       </c>
       <c r="C91" t="n">
-        <v>0.257253</v>
+        <v>0.253137</v>
       </c>
       <c r="D91" t="n">
-        <v>0.238603</v>
+        <v>0.250043</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.328047</v>
+        <v>0.311606</v>
       </c>
       <c r="C92" t="n">
-        <v>0.284645</v>
+        <v>0.287658</v>
       </c>
       <c r="D92" t="n">
-        <v>0.258757</v>
+        <v>0.248113</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3689</v>
+        <v>0.346496</v>
       </c>
       <c r="C93" t="n">
-        <v>0.307623</v>
+        <v>0.295949</v>
       </c>
       <c r="D93" t="n">
-        <v>0.273119</v>
+        <v>0.273636</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.423838</v>
+        <v>0.398881</v>
       </c>
       <c r="C94" t="n">
-        <v>0.355026</v>
+        <v>0.365325</v>
       </c>
       <c r="D94" t="n">
-        <v>0.230187</v>
+        <v>0.230236</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.210642</v>
+        <v>0.211478</v>
       </c>
       <c r="C95" t="n">
-        <v>0.209599</v>
+        <v>0.209927</v>
       </c>
       <c r="D95" t="n">
-        <v>0.230655</v>
+        <v>0.230816</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.212488</v>
+        <v>0.2132</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2253</v>
+        <v>0.210261</v>
       </c>
       <c r="D96" t="n">
-        <v>0.231388</v>
+        <v>0.241789</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.214772</v>
+        <v>0.215436</v>
       </c>
       <c r="C97" t="n">
-        <v>0.211915</v>
+        <v>0.217583</v>
       </c>
       <c r="D97" t="n">
-        <v>0.231869</v>
+        <v>0.231856</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.217892</v>
+        <v>0.218218</v>
       </c>
       <c r="C98" t="n">
-        <v>0.214169</v>
+        <v>0.21502</v>
       </c>
       <c r="D98" t="n">
-        <v>0.242921</v>
+        <v>0.232667</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.222573</v>
+        <v>0.222106</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229184</v>
+        <v>0.230268</v>
       </c>
       <c r="D99" t="n">
-        <v>0.242401</v>
+        <v>0.233391</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.225913</v>
+        <v>0.237457</v>
       </c>
       <c r="C100" t="n">
-        <v>0.222044</v>
+        <v>0.218319</v>
       </c>
       <c r="D100" t="n">
-        <v>0.234162</v>
+        <v>0.242881</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.231845</v>
+        <v>0.233058</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23644</v>
+        <v>0.221775</v>
       </c>
       <c r="D101" t="n">
-        <v>0.23548</v>
+        <v>0.23569</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.240404</v>
+        <v>0.24115</v>
       </c>
       <c r="C102" t="n">
-        <v>0.234412</v>
+        <v>0.242376</v>
       </c>
       <c r="D102" t="n">
-        <v>0.237263</v>
+        <v>0.237322</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.250378</v>
+        <v>0.251811</v>
       </c>
       <c r="C103" t="n">
-        <v>0.247589</v>
+        <v>0.252976</v>
       </c>
       <c r="D103" t="n">
-        <v>0.239461</v>
+        <v>0.239798</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.269504</v>
+        <v>0.26629</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252366</v>
+        <v>0.246944</v>
       </c>
       <c r="D104" t="n">
-        <v>0.243062</v>
+        <v>0.253501</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.283052</v>
+        <v>0.307114</v>
       </c>
       <c r="C105" t="n">
-        <v>0.265224</v>
+        <v>0.272615</v>
       </c>
       <c r="D105" t="n">
-        <v>0.257344</v>
+        <v>0.248151</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.309993</v>
+        <v>0.327192</v>
       </c>
       <c r="C106" t="n">
-        <v>0.275911</v>
+        <v>0.285777</v>
       </c>
       <c r="D106" t="n">
-        <v>0.255518</v>
+        <v>0.266976</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.369937</v>
+        <v>0.356335</v>
       </c>
       <c r="C107" t="n">
-        <v>0.317322</v>
+        <v>0.322568</v>
       </c>
       <c r="D107" t="n">
-        <v>0.281114</v>
+        <v>0.270459</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.441302</v>
+        <v>0.441083</v>
       </c>
       <c r="C108" t="n">
-        <v>0.361524</v>
+        <v>0.381851</v>
       </c>
       <c r="D108" t="n">
-        <v>0.235198</v>
+        <v>0.243834</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.507784</v>
+        <v>0.492496</v>
       </c>
       <c r="C109" t="n">
-        <v>0.42177</v>
+        <v>0.451217</v>
       </c>
       <c r="D109" t="n">
-        <v>0.236245</v>
+        <v>0.236054</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.217519</v>
+        <v>0.217945</v>
       </c>
       <c r="C110" t="n">
-        <v>0.227541</v>
+        <v>0.233777</v>
       </c>
       <c r="D110" t="n">
-        <v>0.237017</v>
+        <v>0.23677</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.220048</v>
+        <v>0.220965</v>
       </c>
       <c r="C111" t="n">
-        <v>0.231858</v>
+        <v>0.237034</v>
       </c>
       <c r="D111" t="n">
-        <v>0.237953</v>
+        <v>0.238178</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.223528</v>
+        <v>0.233151</v>
       </c>
       <c r="C112" t="n">
-        <v>0.238272</v>
+        <v>0.244505</v>
       </c>
       <c r="D112" t="n">
-        <v>0.23951</v>
+        <v>0.23936</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227979</v>
+        <v>0.229206</v>
       </c>
       <c r="C113" t="n">
-        <v>0.244088</v>
+        <v>0.258936</v>
       </c>
       <c r="D113" t="n">
-        <v>0.241198</v>
+        <v>0.241142</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234494</v>
+        <v>0.234931</v>
       </c>
       <c r="C114" t="n">
-        <v>0.251281</v>
+        <v>0.250307</v>
       </c>
       <c r="D114" t="n">
-        <v>0.243064</v>
+        <v>0.243367</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.241978</v>
+        <v>0.242564</v>
       </c>
       <c r="C115" t="n">
-        <v>0.258904</v>
+        <v>0.258473</v>
       </c>
       <c r="D115" t="n">
-        <v>0.246203</v>
+        <v>0.246337</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.252809</v>
+        <v>0.253052</v>
       </c>
       <c r="C116" t="n">
-        <v>0.268357</v>
+        <v>0.274199</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249621</v>
+        <v>0.24971</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.265872</v>
+        <v>0.267373</v>
       </c>
       <c r="C117" t="n">
-        <v>0.279135</v>
+        <v>0.281276</v>
       </c>
       <c r="D117" t="n">
-        <v>0.254307</v>
+        <v>0.254552</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283997</v>
+        <v>0.285151</v>
       </c>
       <c r="C118" t="n">
-        <v>0.301995</v>
+        <v>0.300087</v>
       </c>
       <c r="D118" t="n">
-        <v>0.260127</v>
+        <v>0.260732</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.312795</v>
+        <v>0.309165</v>
       </c>
       <c r="C119" t="n">
-        <v>0.308501</v>
+        <v>0.31045</v>
       </c>
       <c r="D119" t="n">
-        <v>0.273223</v>
+        <v>0.268545</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.354704</v>
+        <v>0.340583</v>
       </c>
       <c r="C120" t="n">
-        <v>0.348296</v>
+        <v>0.334745</v>
       </c>
       <c r="D120" t="n">
-        <v>0.287658</v>
+        <v>0.280232</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.40057</v>
+        <v>0.409015</v>
       </c>
       <c r="C121" t="n">
-        <v>0.382049</v>
+        <v>0.380614</v>
       </c>
       <c r="D121" t="n">
-        <v>0.308134</v>
+        <v>0.297113</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.476823</v>
+        <v>0.456479</v>
       </c>
       <c r="C122" t="n">
-        <v>0.432358</v>
+        <v>0.421301</v>
       </c>
       <c r="D122" t="n">
-        <v>0.331224</v>
+        <v>0.335197</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.557967</v>
+        <v>0.559274</v>
       </c>
       <c r="C123" t="n">
-        <v>0.513136</v>
+        <v>0.525581</v>
       </c>
       <c r="D123" t="n">
-        <v>0.264759</v>
+        <v>0.278959</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.244863</v>
+        <v>0.248552</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276919</v>
+        <v>0.276072</v>
       </c>
       <c r="D124" t="n">
-        <v>0.268641</v>
+        <v>0.270943</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.251364</v>
+        <v>0.250194</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280294</v>
+        <v>0.280144</v>
       </c>
       <c r="D125" t="n">
-        <v>0.280249</v>
+        <v>0.280344</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.255716</v>
+        <v>0.2551</v>
       </c>
       <c r="C126" t="n">
-        <v>0.285147</v>
+        <v>0.292763</v>
       </c>
       <c r="D126" t="n">
-        <v>0.285984</v>
+        <v>0.281548</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.262492</v>
+        <v>0.266697</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2911</v>
+        <v>0.297799</v>
       </c>
       <c r="D127" t="n">
-        <v>0.28088</v>
+        <v>0.277521</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.268263</v>
+        <v>0.269172</v>
       </c>
       <c r="C128" t="n">
-        <v>0.296126</v>
+        <v>0.297542</v>
       </c>
       <c r="D128" t="n">
-        <v>0.279789</v>
+        <v>0.291917</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.277957</v>
+        <v>0.278855</v>
       </c>
       <c r="C129" t="n">
-        <v>0.302727</v>
+        <v>0.302453</v>
       </c>
       <c r="D129" t="n">
-        <v>0.283952</v>
+        <v>0.289531</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.289963</v>
+        <v>0.288654</v>
       </c>
       <c r="C130" t="n">
-        <v>0.311294</v>
+        <v>0.321499</v>
       </c>
       <c r="D130" t="n">
-        <v>0.28909</v>
+        <v>0.297675</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.303344</v>
+        <v>0.303018</v>
       </c>
       <c r="C131" t="n">
-        <v>0.321537</v>
+        <v>0.322125</v>
       </c>
       <c r="D131" t="n">
-        <v>0.293458</v>
+        <v>0.304406</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.322047</v>
+        <v>0.319283</v>
       </c>
       <c r="C132" t="n">
-        <v>0.337611</v>
+        <v>0.340712</v>
       </c>
       <c r="D132" t="n">
-        <v>0.309972</v>
+        <v>0.31044</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.351426</v>
+        <v>0.350914</v>
       </c>
       <c r="C133" t="n">
-        <v>0.357345</v>
+        <v>0.351055</v>
       </c>
       <c r="D133" t="n">
-        <v>0.313199</v>
+        <v>0.32094</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370595</v>
+        <v>0.37203</v>
       </c>
       <c r="C134" t="n">
-        <v>0.391451</v>
+        <v>0.395868</v>
       </c>
       <c r="D134" t="n">
-        <v>0.32775</v>
+        <v>0.327482</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.412865</v>
+        <v>0.415129</v>
       </c>
       <c r="C135" t="n">
-        <v>0.411852</v>
+        <v>0.422975</v>
       </c>
       <c r="D135" t="n">
-        <v>0.333984</v>
+        <v>0.333429</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.503655</v>
+        <v>0.50193</v>
       </c>
       <c r="C136" t="n">
-        <v>0.478</v>
+        <v>0.485004</v>
       </c>
       <c r="D136" t="n">
-        <v>0.367929</v>
+        <v>0.370179</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.583367</v>
+        <v>0.598906</v>
       </c>
       <c r="C137" t="n">
-        <v>0.553234</v>
+        <v>0.5476839999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.414159</v>
+        <v>0.397542</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.384899</v>
+        <v>0.38746</v>
       </c>
       <c r="C138" t="n">
-        <v>0.419375</v>
+        <v>0.421444</v>
       </c>
       <c r="D138" t="n">
-        <v>0.409062</v>
+        <v>0.40521</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.385914</v>
+        <v>0.392831</v>
       </c>
       <c r="C139" t="n">
-        <v>0.425824</v>
+        <v>0.429069</v>
       </c>
       <c r="D139" t="n">
-        <v>0.408853</v>
+        <v>0.412242</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.394278</v>
+        <v>0.400981</v>
       </c>
       <c r="C140" t="n">
-        <v>0.43204</v>
+        <v>0.429815</v>
       </c>
       <c r="D140" t="n">
-        <v>0.414636</v>
+        <v>0.415728</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.400642</v>
+        <v>0.397734</v>
       </c>
       <c r="C141" t="n">
-        <v>0.439574</v>
+        <v>0.435055</v>
       </c>
       <c r="D141" t="n">
-        <v>0.427065</v>
+        <v>0.412876</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.411089</v>
+        <v>0.407347</v>
       </c>
       <c r="C142" t="n">
-        <v>0.450918</v>
+        <v>0.443846</v>
       </c>
       <c r="D142" t="n">
-        <v>0.422676</v>
+        <v>0.425713</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.413591</v>
+        <v>0.414957</v>
       </c>
       <c r="C143" t="n">
-        <v>0.454364</v>
+        <v>0.455718</v>
       </c>
       <c r="D143" t="n">
-        <v>0.42291</v>
+        <v>0.435073</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189895</v>
+        <v>0.0985413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184676</v>
+        <v>0.0801272</v>
       </c>
       <c r="D2" t="n">
-        <v>0.201416</v>
+        <v>0.114036</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195809</v>
+        <v>0.103008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18611</v>
+        <v>0.0819954</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201919</v>
+        <v>0.11487</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2054</v>
+        <v>0.112047</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189744</v>
+        <v>0.0849599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204278</v>
+        <v>0.116671</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22031</v>
+        <v>0.12856</v>
       </c>
       <c r="C5" t="n">
-        <v>0.213518</v>
+        <v>0.0926865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.216776</v>
+        <v>0.119093</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.259005</v>
+        <v>0.150602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224771</v>
+        <v>0.107755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.22131</v>
+        <v>0.122643</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.290348</v>
+        <v>0.184241</v>
       </c>
       <c r="C7" t="n">
-        <v>0.246001</v>
+        <v>0.127671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229227</v>
+        <v>0.12808</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331859</v>
+        <v>0.224335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281501</v>
+        <v>0.166807</v>
       </c>
       <c r="D8" t="n">
-        <v>0.245285</v>
+        <v>0.139991</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.378958</v>
+        <v>0.269861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.318325</v>
+        <v>0.207177</v>
       </c>
       <c r="D9" t="n">
-        <v>0.206695</v>
+        <v>0.110335</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.186553</v>
+        <v>0.0908259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.191443</v>
+        <v>0.078472</v>
       </c>
       <c r="D10" t="n">
-        <v>0.206936</v>
+        <v>0.110919</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.187423</v>
+        <v>0.09189079999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192013</v>
+        <v>0.0785447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.206998</v>
+        <v>0.111018</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.18944</v>
+        <v>0.093111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.19286</v>
+        <v>0.0790077</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207585</v>
+        <v>0.111422</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191326</v>
+        <v>0.0950824</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193551</v>
+        <v>0.0793649</v>
       </c>
       <c r="D13" t="n">
-        <v>0.207694</v>
+        <v>0.111837</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.194326</v>
+        <v>0.0974545</v>
       </c>
       <c r="C14" t="n">
-        <v>0.195324</v>
+        <v>0.0802007</v>
       </c>
       <c r="D14" t="n">
-        <v>0.208518</v>
+        <v>0.112419</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.198563</v>
+        <v>0.09996720000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.196722</v>
+        <v>0.08151990000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.20902</v>
+        <v>0.113046</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.203754</v>
+        <v>0.105466</v>
       </c>
       <c r="C16" t="n">
-        <v>0.199158</v>
+        <v>0.08456180000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209991</v>
+        <v>0.114081</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.210965</v>
+        <v>0.113279</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201865</v>
+        <v>0.087738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210999</v>
+        <v>0.115204</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.221953</v>
+        <v>0.123944</v>
       </c>
       <c r="C18" t="n">
-        <v>0.192443</v>
+        <v>0.0953913</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203999</v>
+        <v>0.117236</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.222557</v>
+        <v>0.138871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197541</v>
+        <v>0.105211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.206701</v>
+        <v>0.120019</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24313</v>
+        <v>0.159714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.208553</v>
+        <v>0.117656</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210244</v>
+        <v>0.123835</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.271144</v>
+        <v>0.188143</v>
       </c>
       <c r="C21" t="n">
-        <v>0.224366</v>
+        <v>0.135101</v>
       </c>
       <c r="D21" t="n">
-        <v>0.216919</v>
+        <v>0.130313</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.309047</v>
+        <v>0.225732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.251219</v>
+        <v>0.178774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.229607</v>
+        <v>0.144805</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.353581</v>
+        <v>0.26955</v>
       </c>
       <c r="C23" t="n">
-        <v>0.291982</v>
+        <v>0.216895</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199135</v>
+        <v>0.111783</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.179488</v>
+        <v>0.09551809999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.180361</v>
+        <v>0.0805308</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199532</v>
+        <v>0.111921</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.180355</v>
+        <v>0.0966516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180545</v>
+        <v>0.081231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.199561</v>
+        <v>0.112272</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.182043</v>
+        <v>0.0995347</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193576</v>
+        <v>0.081708</v>
       </c>
       <c r="D26" t="n">
-        <v>0.199986</v>
+        <v>0.112569</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.184391</v>
+        <v>0.101216</v>
       </c>
       <c r="C27" t="n">
-        <v>0.182393</v>
+        <v>0.0825121</v>
       </c>
       <c r="D27" t="n">
-        <v>0.200411</v>
+        <v>0.113097</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.186955</v>
+        <v>0.103808</v>
       </c>
       <c r="C28" t="n">
-        <v>0.183795</v>
+        <v>0.08414820000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.209708</v>
+        <v>0.113629</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.190512</v>
+        <v>0.107818</v>
       </c>
       <c r="C29" t="n">
-        <v>0.187518</v>
+        <v>0.0854453</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201602</v>
+        <v>0.11416</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.195306</v>
+        <v>0.114417</v>
       </c>
       <c r="C30" t="n">
-        <v>0.201031</v>
+        <v>0.0887863</v>
       </c>
       <c r="D30" t="n">
-        <v>0.202636</v>
+        <v>0.115014</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203098</v>
+        <v>0.119889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.191763</v>
+        <v>0.0928475</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203591</v>
+        <v>0.116271</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.212515</v>
+        <v>0.12963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209166</v>
+        <v>0.0978484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.205372</v>
+        <v>0.118024</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.225267</v>
+        <v>0.143475</v>
       </c>
       <c r="C33" t="n">
-        <v>0.217017</v>
+        <v>0.107871</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208065</v>
+        <v>0.120607</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.24284</v>
+        <v>0.16075</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217537</v>
+        <v>0.121131</v>
       </c>
       <c r="D34" t="n">
-        <v>0.21228</v>
+        <v>0.124929</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.26924</v>
+        <v>0.184286</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228788</v>
+        <v>0.142199</v>
       </c>
       <c r="D35" t="n">
-        <v>0.228221</v>
+        <v>0.132154</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.304451</v>
+        <v>0.22376</v>
       </c>
       <c r="C36" t="n">
-        <v>0.253201</v>
+        <v>0.161764</v>
       </c>
       <c r="D36" t="n">
-        <v>0.231885</v>
+        <v>0.144689</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.34816</v>
+        <v>0.265509</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312555</v>
+        <v>0.203927</v>
       </c>
       <c r="D37" t="n">
-        <v>0.200319</v>
+        <v>0.11322</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.18152</v>
+        <v>0.0983619</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182011</v>
+        <v>0.08291030000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.200468</v>
+        <v>0.113408</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.183045</v>
+        <v>0.09966319999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182911</v>
+        <v>0.0837157</v>
       </c>
       <c r="D39" t="n">
-        <v>0.201028</v>
+        <v>0.113755</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.18455</v>
+        <v>0.10164</v>
       </c>
       <c r="C40" t="n">
-        <v>0.183612</v>
+        <v>0.0843682</v>
       </c>
       <c r="D40" t="n">
-        <v>0.201186</v>
+        <v>0.114172</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.186341</v>
+        <v>0.103114</v>
       </c>
       <c r="C41" t="n">
-        <v>0.184486</v>
+        <v>0.0857504</v>
       </c>
       <c r="D41" t="n">
-        <v>0.201576</v>
+        <v>0.11474</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.18937</v>
+        <v>0.105983</v>
       </c>
       <c r="C42" t="n">
-        <v>0.185987</v>
+        <v>0.08695749999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.202303</v>
+        <v>0.115208</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.193343</v>
+        <v>0.109738</v>
       </c>
       <c r="C43" t="n">
-        <v>0.199557</v>
+        <v>0.08860129999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2029</v>
+        <v>0.115802</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.198958</v>
+        <v>0.114604</v>
       </c>
       <c r="C44" t="n">
-        <v>0.190145</v>
+        <v>0.0914925</v>
       </c>
       <c r="D44" t="n">
-        <v>0.203837</v>
+        <v>0.11676</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.205405</v>
+        <v>0.121025</v>
       </c>
       <c r="C45" t="n">
-        <v>0.193574</v>
+        <v>0.0952369</v>
       </c>
       <c r="D45" t="n">
-        <v>0.205129</v>
+        <v>0.117856</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.215195</v>
+        <v>0.13005</v>
       </c>
       <c r="C46" t="n">
-        <v>0.197738</v>
+        <v>0.100856</v>
       </c>
       <c r="D46" t="n">
-        <v>0.206769</v>
+        <v>0.119503</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.227828</v>
+        <v>0.142436</v>
       </c>
       <c r="C47" t="n">
-        <v>0.210564</v>
+        <v>0.106542</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209361</v>
+        <v>0.121621</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.244603</v>
+        <v>0.158191</v>
       </c>
       <c r="C48" t="n">
-        <v>0.227233</v>
+        <v>0.118999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.212898</v>
+        <v>0.125276</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.268711</v>
+        <v>0.181313</v>
       </c>
       <c r="C49" t="n">
-        <v>0.226697</v>
+        <v>0.130507</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219226</v>
+        <v>0.131138</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.302966</v>
+        <v>0.218709</v>
       </c>
       <c r="C50" t="n">
-        <v>0.276812</v>
+        <v>0.158074</v>
       </c>
       <c r="D50" t="n">
-        <v>0.230188</v>
+        <v>0.140905</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3608</v>
+        <v>0.255429</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283716</v>
+        <v>0.194695</v>
       </c>
       <c r="D51" t="n">
-        <v>0.202262</v>
+        <v>0.116343</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.389159</v>
+        <v>0.303302</v>
       </c>
       <c r="C52" t="n">
-        <v>0.331976</v>
+        <v>0.242776</v>
       </c>
       <c r="D52" t="n">
-        <v>0.202123</v>
+        <v>0.116414</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.185792</v>
+        <v>0.104313</v>
       </c>
       <c r="C53" t="n">
-        <v>0.197307</v>
+        <v>0.0859174</v>
       </c>
       <c r="D53" t="n">
-        <v>0.211217</v>
+        <v>0.116073</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.18723</v>
+        <v>0.105351</v>
       </c>
       <c r="C54" t="n">
-        <v>0.185867</v>
+        <v>0.0876963</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202803</v>
+        <v>0.116851</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.189601</v>
+        <v>0.107188</v>
       </c>
       <c r="C55" t="n">
-        <v>0.199399</v>
+        <v>0.0885774</v>
       </c>
       <c r="D55" t="n">
-        <v>0.203227</v>
+        <v>0.117375</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.192391</v>
+        <v>0.109454</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200944</v>
+        <v>0.0890932</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21276</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.196576</v>
+        <v>0.113642</v>
       </c>
       <c r="C57" t="n">
-        <v>0.190873</v>
+        <v>0.0921651</v>
       </c>
       <c r="D57" t="n">
-        <v>0.20461</v>
+        <v>0.118238</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.201213</v>
+        <v>0.119155</v>
       </c>
       <c r="C58" t="n">
-        <v>0.193107</v>
+        <v>0.0935103</v>
       </c>
       <c r="D58" t="n">
-        <v>0.214448</v>
+        <v>0.119179</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.207373</v>
+        <v>0.124694</v>
       </c>
       <c r="C59" t="n">
-        <v>0.195859</v>
+        <v>0.0979313</v>
       </c>
       <c r="D59" t="n">
-        <v>0.206541</v>
+        <v>0.119993</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.21634</v>
+        <v>0.133443</v>
       </c>
       <c r="C60" t="n">
-        <v>0.213187</v>
+        <v>0.102319</v>
       </c>
       <c r="D60" t="n">
-        <v>0.208157</v>
+        <v>0.121373</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.227337</v>
+        <v>0.14446</v>
       </c>
       <c r="C61" t="n">
-        <v>0.220221</v>
+        <v>0.108276</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210681</v>
+        <v>0.124311</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.243491</v>
+        <v>0.159051</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213659</v>
+        <v>0.119697</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223165</v>
+        <v>0.127406</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.265849</v>
+        <v>0.180444</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241319</v>
+        <v>0.134354</v>
       </c>
       <c r="D63" t="n">
-        <v>0.218991</v>
+        <v>0.13275</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.306313</v>
+        <v>0.209407</v>
       </c>
       <c r="C64" t="n">
-        <v>0.254447</v>
+        <v>0.156703</v>
       </c>
       <c r="D64" t="n">
-        <v>0.238453</v>
+        <v>0.141736</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.358147</v>
+        <v>0.249856</v>
       </c>
       <c r="C65" t="n">
-        <v>0.275904</v>
+        <v>0.185467</v>
       </c>
       <c r="D65" t="n">
-        <v>0.244671</v>
+        <v>0.158184</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.40955</v>
+        <v>0.299536</v>
       </c>
       <c r="C66" t="n">
-        <v>0.346145</v>
+        <v>0.23621</v>
       </c>
       <c r="D66" t="n">
-        <v>0.215678</v>
+        <v>0.125595</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.19391</v>
+        <v>0.114666</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192951</v>
+        <v>0.0944641</v>
       </c>
       <c r="D67" t="n">
-        <v>0.210786</v>
+        <v>0.126398</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.196499</v>
+        <v>0.116507</v>
       </c>
       <c r="C68" t="n">
-        <v>0.194309</v>
+        <v>0.094697</v>
       </c>
       <c r="D68" t="n">
-        <v>0.210622</v>
+        <v>0.125825</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.197242</v>
+        <v>0.118082</v>
       </c>
       <c r="C69" t="n">
-        <v>0.194151</v>
+        <v>0.0958306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211108</v>
+        <v>0.127483</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.201004</v>
+        <v>0.12091</v>
       </c>
       <c r="C70" t="n">
-        <v>0.19639</v>
+        <v>0.0963667</v>
       </c>
       <c r="D70" t="n">
-        <v>0.213096</v>
+        <v>0.12745</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.204698</v>
+        <v>0.124472</v>
       </c>
       <c r="C71" t="n">
-        <v>0.212418</v>
+        <v>0.0992633</v>
       </c>
       <c r="D71" t="n">
-        <v>0.213554</v>
+        <v>0.128005</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.209266</v>
+        <v>0.129498</v>
       </c>
       <c r="C72" t="n">
-        <v>0.200971</v>
+        <v>0.102454</v>
       </c>
       <c r="D72" t="n">
-        <v>0.215091</v>
+        <v>0.12886</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.216048</v>
+        <v>0.134605</v>
       </c>
       <c r="C73" t="n">
-        <v>0.217897</v>
+        <v>0.104269</v>
       </c>
       <c r="D73" t="n">
-        <v>0.219412</v>
+        <v>0.130372</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.224396</v>
+        <v>0.142282</v>
       </c>
       <c r="C74" t="n">
-        <v>0.207272</v>
+        <v>0.109025</v>
       </c>
       <c r="D74" t="n">
-        <v>0.216377</v>
+        <v>0.130963</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.23598</v>
+        <v>0.152282</v>
       </c>
       <c r="C75" t="n">
-        <v>0.228803</v>
+        <v>0.114458</v>
       </c>
       <c r="D75" t="n">
-        <v>0.218905</v>
+        <v>0.132917</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.25126</v>
+        <v>0.165354</v>
       </c>
       <c r="C76" t="n">
-        <v>0.221428</v>
+        <v>0.125758</v>
       </c>
       <c r="D76" t="n">
-        <v>0.222053</v>
+        <v>0.136168</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.272317</v>
+        <v>0.186231</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24261</v>
+        <v>0.139042</v>
       </c>
       <c r="D77" t="n">
-        <v>0.227647</v>
+        <v>0.141671</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.317931</v>
+        <v>0.213774</v>
       </c>
       <c r="C78" t="n">
-        <v>0.25937</v>
+        <v>0.15425</v>
       </c>
       <c r="D78" t="n">
-        <v>0.235813</v>
+        <v>0.150214</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.353623</v>
+        <v>0.252756</v>
       </c>
       <c r="C79" t="n">
-        <v>0.290835</v>
+        <v>0.183548</v>
       </c>
       <c r="D79" t="n">
-        <v>0.251588</v>
+        <v>0.163463</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.417085</v>
+        <v>0.302839</v>
       </c>
       <c r="C80" t="n">
-        <v>0.338916</v>
+        <v>0.239971</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221764</v>
+        <v>0.135238</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.204028</v>
+        <v>0.125806</v>
       </c>
       <c r="C81" t="n">
-        <v>0.216236</v>
+        <v>0.10205</v>
       </c>
       <c r="D81" t="n">
-        <v>0.232621</v>
+        <v>0.13583</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.205617</v>
+        <v>0.127267</v>
       </c>
       <c r="C82" t="n">
-        <v>0.217312</v>
+        <v>0.10421</v>
       </c>
       <c r="D82" t="n">
-        <v>0.233084</v>
+        <v>0.135953</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.208223</v>
+        <v>0.129564</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217842</v>
+        <v>0.104875</v>
       </c>
       <c r="D83" t="n">
-        <v>0.223429</v>
+        <v>0.136836</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.211227</v>
+        <v>0.132031</v>
       </c>
       <c r="C84" t="n">
-        <v>0.219404</v>
+        <v>0.106516</v>
       </c>
       <c r="D84" t="n">
-        <v>0.234108</v>
+        <v>0.137145</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.214741</v>
+        <v>0.135639</v>
       </c>
       <c r="C85" t="n">
-        <v>0.20663</v>
+        <v>0.107359</v>
       </c>
       <c r="D85" t="n">
-        <v>0.234218</v>
+        <v>0.138985</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219531</v>
+        <v>0.140854</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214161</v>
+        <v>0.109904</v>
       </c>
       <c r="D86" t="n">
-        <v>0.225652</v>
+        <v>0.138985</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.225833</v>
+        <v>0.144944</v>
       </c>
       <c r="C87" t="n">
-        <v>0.234907</v>
+        <v>0.114122</v>
       </c>
       <c r="D87" t="n">
-        <v>0.226929</v>
+        <v>0.140128</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.23437</v>
+        <v>0.152622</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243199</v>
+        <v>0.117772</v>
       </c>
       <c r="D88" t="n">
-        <v>0.228298</v>
+        <v>0.142047</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.245154</v>
+        <v>0.162466</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242046</v>
+        <v>0.123995</v>
       </c>
       <c r="D89" t="n">
-        <v>0.241123</v>
+        <v>0.144299</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.259619</v>
+        <v>0.176368</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238376</v>
+        <v>0.134601</v>
       </c>
       <c r="D90" t="n">
-        <v>0.234442</v>
+        <v>0.147165</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.297362</v>
+        <v>0.199193</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253137</v>
+        <v>0.149059</v>
       </c>
       <c r="D91" t="n">
-        <v>0.250043</v>
+        <v>0.152551</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.311606</v>
+        <v>0.223277</v>
       </c>
       <c r="C92" t="n">
-        <v>0.287658</v>
+        <v>0.163434</v>
       </c>
       <c r="D92" t="n">
-        <v>0.248113</v>
+        <v>0.159743</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.346496</v>
+        <v>0.260563</v>
       </c>
       <c r="C93" t="n">
-        <v>0.295949</v>
+        <v>0.198577</v>
       </c>
       <c r="D93" t="n">
-        <v>0.273636</v>
+        <v>0.17277</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.398881</v>
+        <v>0.320015</v>
       </c>
       <c r="C94" t="n">
-        <v>0.365325</v>
+        <v>0.234713</v>
       </c>
       <c r="D94" t="n">
-        <v>0.230236</v>
+        <v>0.143237</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.211478</v>
+        <v>0.134201</v>
       </c>
       <c r="C95" t="n">
-        <v>0.209927</v>
+        <v>0.117291</v>
       </c>
       <c r="D95" t="n">
-        <v>0.230816</v>
+        <v>0.143798</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2132</v>
+        <v>0.136663</v>
       </c>
       <c r="C96" t="n">
-        <v>0.210261</v>
+        <v>0.118325</v>
       </c>
       <c r="D96" t="n">
-        <v>0.241789</v>
+        <v>0.14513</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.215436</v>
+        <v>0.139402</v>
       </c>
       <c r="C97" t="n">
-        <v>0.217583</v>
+        <v>0.124928</v>
       </c>
       <c r="D97" t="n">
-        <v>0.231856</v>
+        <v>0.146096</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218218</v>
+        <v>0.14384</v>
       </c>
       <c r="C98" t="n">
-        <v>0.21502</v>
+        <v>0.128532</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232667</v>
+        <v>0.148537</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.222106</v>
+        <v>0.147925</v>
       </c>
       <c r="C99" t="n">
-        <v>0.230268</v>
+        <v>0.131805</v>
       </c>
       <c r="D99" t="n">
-        <v>0.233391</v>
+        <v>0.150553</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.237457</v>
+        <v>0.154261</v>
       </c>
       <c r="C100" t="n">
-        <v>0.218319</v>
+        <v>0.136958</v>
       </c>
       <c r="D100" t="n">
-        <v>0.242881</v>
+        <v>0.15287</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.233058</v>
+        <v>0.16226</v>
       </c>
       <c r="C101" t="n">
-        <v>0.221775</v>
+        <v>0.143177</v>
       </c>
       <c r="D101" t="n">
-        <v>0.23569</v>
+        <v>0.155781</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.24115</v>
+        <v>0.171646</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242376</v>
+        <v>0.150478</v>
       </c>
       <c r="D102" t="n">
-        <v>0.237322</v>
+        <v>0.160286</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251811</v>
+        <v>0.184163</v>
       </c>
       <c r="C103" t="n">
-        <v>0.252976</v>
+        <v>0.15881</v>
       </c>
       <c r="D103" t="n">
-        <v>0.239798</v>
+        <v>0.165377</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.26629</v>
+        <v>0.199564</v>
       </c>
       <c r="C104" t="n">
-        <v>0.246944</v>
+        <v>0.172433</v>
       </c>
       <c r="D104" t="n">
-        <v>0.253501</v>
+        <v>0.170426</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.307114</v>
+        <v>0.220633</v>
       </c>
       <c r="C105" t="n">
-        <v>0.272615</v>
+        <v>0.183587</v>
       </c>
       <c r="D105" t="n">
-        <v>0.248151</v>
+        <v>0.177457</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.327192</v>
+        <v>0.2492</v>
       </c>
       <c r="C106" t="n">
-        <v>0.285777</v>
+        <v>0.202976</v>
       </c>
       <c r="D106" t="n">
-        <v>0.266976</v>
+        <v>0.187131</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.356335</v>
+        <v>0.292073</v>
       </c>
       <c r="C107" t="n">
-        <v>0.322568</v>
+        <v>0.231704</v>
       </c>
       <c r="D107" t="n">
-        <v>0.270459</v>
+        <v>0.202586</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.441083</v>
+        <v>0.350219</v>
       </c>
       <c r="C108" t="n">
-        <v>0.381851</v>
+        <v>0.274617</v>
       </c>
       <c r="D108" t="n">
-        <v>0.243834</v>
+        <v>0.163851</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492496</v>
+        <v>0.427167</v>
       </c>
       <c r="C109" t="n">
-        <v>0.451217</v>
+        <v>0.347681</v>
       </c>
       <c r="D109" t="n">
-        <v>0.236054</v>
+        <v>0.16611</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.217945</v>
+        <v>0.159925</v>
       </c>
       <c r="C110" t="n">
-        <v>0.233777</v>
+        <v>0.153518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23677</v>
+        <v>0.168845</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.220965</v>
+        <v>0.163722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237034</v>
+        <v>0.157038</v>
       </c>
       <c r="D111" t="n">
-        <v>0.238178</v>
+        <v>0.170679</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233151</v>
+        <v>0.167972</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244505</v>
+        <v>0.160547</v>
       </c>
       <c r="D112" t="n">
-        <v>0.23936</v>
+        <v>0.173514</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.229206</v>
+        <v>0.172964</v>
       </c>
       <c r="C113" t="n">
-        <v>0.258936</v>
+        <v>0.164589</v>
       </c>
       <c r="D113" t="n">
-        <v>0.241142</v>
+        <v>0.175501</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234931</v>
+        <v>0.178862</v>
       </c>
       <c r="C114" t="n">
-        <v>0.250307</v>
+        <v>0.169317</v>
       </c>
       <c r="D114" t="n">
-        <v>0.243367</v>
+        <v>0.178375</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.242564</v>
+        <v>0.185983</v>
       </c>
       <c r="C115" t="n">
-        <v>0.258473</v>
+        <v>0.174858</v>
       </c>
       <c r="D115" t="n">
-        <v>0.246337</v>
+        <v>0.181006</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.253052</v>
+        <v>0.195145</v>
       </c>
       <c r="C116" t="n">
-        <v>0.274199</v>
+        <v>0.181596</v>
       </c>
       <c r="D116" t="n">
-        <v>0.24971</v>
+        <v>0.184398</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.267373</v>
+        <v>0.20667</v>
       </c>
       <c r="C117" t="n">
-        <v>0.281276</v>
+        <v>0.192088</v>
       </c>
       <c r="D117" t="n">
-        <v>0.254552</v>
+        <v>0.188303</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285151</v>
+        <v>0.221696</v>
       </c>
       <c r="C118" t="n">
-        <v>0.300087</v>
+        <v>0.204096</v>
       </c>
       <c r="D118" t="n">
-        <v>0.260732</v>
+        <v>0.193379</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309165</v>
+        <v>0.24175</v>
       </c>
       <c r="C119" t="n">
-        <v>0.31045</v>
+        <v>0.216797</v>
       </c>
       <c r="D119" t="n">
-        <v>0.268545</v>
+        <v>0.199826</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.340583</v>
+        <v>0.269642</v>
       </c>
       <c r="C120" t="n">
-        <v>0.334745</v>
+        <v>0.236061</v>
       </c>
       <c r="D120" t="n">
-        <v>0.280232</v>
+        <v>0.209049</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.409015</v>
+        <v>0.309167</v>
       </c>
       <c r="C121" t="n">
-        <v>0.380614</v>
+        <v>0.265372</v>
       </c>
       <c r="D121" t="n">
-        <v>0.297113</v>
+        <v>0.223627</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.456479</v>
+        <v>0.372971</v>
       </c>
       <c r="C122" t="n">
-        <v>0.421301</v>
+        <v>0.311417</v>
       </c>
       <c r="D122" t="n">
-        <v>0.335197</v>
+        <v>0.24679</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.559274</v>
+        <v>0.458896</v>
       </c>
       <c r="C123" t="n">
-        <v>0.525581</v>
+        <v>0.389907</v>
       </c>
       <c r="D123" t="n">
-        <v>0.278959</v>
+        <v>0.186032</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.248552</v>
+        <v>0.177868</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276072</v>
+        <v>0.175263</v>
       </c>
       <c r="D124" t="n">
-        <v>0.270943</v>
+        <v>0.19125</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.250194</v>
+        <v>0.181276</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280144</v>
+        <v>0.17784</v>
       </c>
       <c r="D125" t="n">
-        <v>0.280344</v>
+        <v>0.19084</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2551</v>
+        <v>0.183848</v>
       </c>
       <c r="C126" t="n">
-        <v>0.292763</v>
+        <v>0.183405</v>
       </c>
       <c r="D126" t="n">
-        <v>0.281548</v>
+        <v>0.19282</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.266697</v>
+        <v>0.189982</v>
       </c>
       <c r="C127" t="n">
-        <v>0.297799</v>
+        <v>0.188003</v>
       </c>
       <c r="D127" t="n">
-        <v>0.277521</v>
+        <v>0.196978</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.269172</v>
+        <v>0.196492</v>
       </c>
       <c r="C128" t="n">
-        <v>0.297542</v>
+        <v>0.191172</v>
       </c>
       <c r="D128" t="n">
-        <v>0.291917</v>
+        <v>0.195828</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.278855</v>
+        <v>0.201852</v>
       </c>
       <c r="C129" t="n">
-        <v>0.302453</v>
+        <v>0.198946</v>
       </c>
       <c r="D129" t="n">
-        <v>0.289531</v>
+        <v>0.199436</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.288654</v>
+        <v>0.216704</v>
       </c>
       <c r="C130" t="n">
-        <v>0.321499</v>
+        <v>0.206599</v>
       </c>
       <c r="D130" t="n">
-        <v>0.297675</v>
+        <v>0.204892</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.303018</v>
+        <v>0.224275</v>
       </c>
       <c r="C131" t="n">
-        <v>0.322125</v>
+        <v>0.213873</v>
       </c>
       <c r="D131" t="n">
-        <v>0.304406</v>
+        <v>0.208818</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.319283</v>
+        <v>0.238272</v>
       </c>
       <c r="C132" t="n">
-        <v>0.340712</v>
+        <v>0.226444</v>
       </c>
       <c r="D132" t="n">
-        <v>0.31044</v>
+        <v>0.211252</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.350914</v>
+        <v>0.259121</v>
       </c>
       <c r="C133" t="n">
-        <v>0.351055</v>
+        <v>0.241088</v>
       </c>
       <c r="D133" t="n">
-        <v>0.32094</v>
+        <v>0.21858</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.37203</v>
+        <v>0.28811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.395868</v>
+        <v>0.264609</v>
       </c>
       <c r="D134" t="n">
-        <v>0.327482</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.415129</v>
+        <v>0.329072</v>
       </c>
       <c r="C135" t="n">
-        <v>0.422975</v>
+        <v>0.29985</v>
       </c>
       <c r="D135" t="n">
-        <v>0.333429</v>
+        <v>0.24375</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.50193</v>
+        <v>0.391934</v>
       </c>
       <c r="C136" t="n">
-        <v>0.485004</v>
+        <v>0.341356</v>
       </c>
       <c r="D136" t="n">
-        <v>0.370179</v>
+        <v>0.26508</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.598906</v>
+        <v>0.479631</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5476839999999999</v>
+        <v>0.417117</v>
       </c>
       <c r="D137" t="n">
-        <v>0.397542</v>
+        <v>0.342563</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.38746</v>
+        <v>0.311173</v>
       </c>
       <c r="C138" t="n">
-        <v>0.421444</v>
+        <v>0.299067</v>
       </c>
       <c r="D138" t="n">
-        <v>0.40521</v>
+        <v>0.343976</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.392831</v>
+        <v>0.311858</v>
       </c>
       <c r="C139" t="n">
-        <v>0.429069</v>
+        <v>0.303569</v>
       </c>
       <c r="D139" t="n">
-        <v>0.412242</v>
+        <v>0.347589</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.400981</v>
+        <v>0.320419</v>
       </c>
       <c r="C140" t="n">
-        <v>0.429815</v>
+        <v>0.30849</v>
       </c>
       <c r="D140" t="n">
-        <v>0.415728</v>
+        <v>0.352753</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.397734</v>
+        <v>0.326131</v>
       </c>
       <c r="C141" t="n">
-        <v>0.435055</v>
+        <v>0.311738</v>
       </c>
       <c r="D141" t="n">
-        <v>0.412876</v>
+        <v>0.347785</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.407347</v>
+        <v>0.328854</v>
       </c>
       <c r="C142" t="n">
-        <v>0.443846</v>
+        <v>0.316096</v>
       </c>
       <c r="D142" t="n">
-        <v>0.425713</v>
+        <v>0.355124</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.414957</v>
+        <v>0.338229</v>
       </c>
       <c r="C143" t="n">
-        <v>0.455718</v>
+        <v>0.321469</v>
       </c>
       <c r="D143" t="n">
-        <v>0.435073</v>
+        <v>0.358852</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0985413</v>
+        <v>0.0939063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0801272</v>
+        <v>0.113994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.114036</v>
+        <v>0.113513</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.103008</v>
+        <v>0.0974399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0819954</v>
+        <v>0.116084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11487</v>
+        <v>0.114633</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112047</v>
+        <v>0.10617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0849599</v>
+        <v>0.121023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116671</v>
+        <v>0.116377</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12856</v>
+        <v>0.12387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0926865</v>
+        <v>0.129009</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119093</v>
+        <v>0.119028</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150602</v>
+        <v>0.14781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.107755</v>
+        <v>0.140756</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122643</v>
+        <v>0.122583</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.184241</v>
+        <v>0.181423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.127671</v>
+        <v>0.159865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12808</v>
+        <v>0.128463</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.224335</v>
+        <v>0.216324</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166807</v>
+        <v>0.200676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.139991</v>
+        <v>0.140867</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.269861</v>
+        <v>0.261532</v>
       </c>
       <c r="C9" t="n">
-        <v>0.207177</v>
+        <v>0.244076</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110335</v>
+        <v>0.109716</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0908259</v>
+        <v>0.086316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.078472</v>
+        <v>0.10652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110919</v>
+        <v>0.110275</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09189079999999999</v>
+        <v>0.0871566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0785447</v>
+        <v>0.107172</v>
       </c>
       <c r="D11" t="n">
-        <v>0.111018</v>
+        <v>0.110466</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.093111</v>
+        <v>0.0885064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0790077</v>
+        <v>0.107998</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111422</v>
+        <v>0.110903</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0950824</v>
+        <v>0.0902251</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0793649</v>
+        <v>0.108629</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111837</v>
+        <v>0.111338</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0974545</v>
+        <v>0.09215950000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0802007</v>
+        <v>0.110225</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112419</v>
+        <v>0.111903</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09996720000000001</v>
+        <v>0.09562130000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08151990000000001</v>
+        <v>0.112301</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113046</v>
+        <v>0.112593</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.105466</v>
+        <v>0.101643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08456180000000001</v>
+        <v>0.115776</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114081</v>
+        <v>0.113645</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.113279</v>
+        <v>0.109808</v>
       </c>
       <c r="C17" t="n">
-        <v>0.087738</v>
+        <v>0.119055</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115204</v>
+        <v>0.114844</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123944</v>
+        <v>0.12224</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0953913</v>
+        <v>0.126079</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117236</v>
+        <v>0.116959</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.138871</v>
+        <v>0.141648</v>
       </c>
       <c r="C19" t="n">
-        <v>0.105211</v>
+        <v>0.135365</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120019</v>
+        <v>0.120085</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159714</v>
+        <v>0.157817</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117656</v>
+        <v>0.148244</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123835</v>
+        <v>0.123918</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188143</v>
+        <v>0.185705</v>
       </c>
       <c r="C21" t="n">
-        <v>0.135101</v>
+        <v>0.16595</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130313</v>
+        <v>0.130361</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.225732</v>
+        <v>0.217886</v>
       </c>
       <c r="C22" t="n">
-        <v>0.178774</v>
+        <v>0.203069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.144805</v>
+        <v>0.145286</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.26955</v>
+        <v>0.277267</v>
       </c>
       <c r="C23" t="n">
-        <v>0.216895</v>
+        <v>0.249131</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111783</v>
+        <v>0.111445</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09551809999999999</v>
+        <v>0.0898548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0805308</v>
+        <v>0.109117</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111921</v>
+        <v>0.111508</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0966516</v>
+        <v>0.0913441</v>
       </c>
       <c r="C25" t="n">
-        <v>0.081231</v>
+        <v>0.11088</v>
       </c>
       <c r="D25" t="n">
-        <v>0.112272</v>
+        <v>0.111914</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0995347</v>
+        <v>0.0923882</v>
       </c>
       <c r="C26" t="n">
-        <v>0.081708</v>
+        <v>0.110532</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112569</v>
+        <v>0.112451</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.101216</v>
+        <v>0.094268</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0825121</v>
+        <v>0.111368</v>
       </c>
       <c r="D27" t="n">
-        <v>0.113097</v>
+        <v>0.112625</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.103808</v>
+        <v>0.097359</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08414820000000001</v>
+        <v>0.113238</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113629</v>
+        <v>0.113379</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.107818</v>
+        <v>0.101511</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0854453</v>
+        <v>0.116743</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11416</v>
+        <v>0.113673</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.114417</v>
+        <v>0.106999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0887863</v>
+        <v>0.120638</v>
       </c>
       <c r="D30" t="n">
-        <v>0.115014</v>
+        <v>0.114457</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.119889</v>
+        <v>0.114325</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0928475</v>
+        <v>0.122945</v>
       </c>
       <c r="D31" t="n">
-        <v>0.116271</v>
+        <v>0.11615</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.12963</v>
+        <v>0.124282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0978484</v>
+        <v>0.128705</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118024</v>
+        <v>0.118012</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143475</v>
+        <v>0.138472</v>
       </c>
       <c r="C33" t="n">
-        <v>0.107871</v>
+        <v>0.136446</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120607</v>
+        <v>0.120826</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.16075</v>
+        <v>0.156876</v>
       </c>
       <c r="C34" t="n">
-        <v>0.121131</v>
+        <v>0.154264</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124929</v>
+        <v>0.124887</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184286</v>
+        <v>0.179759</v>
       </c>
       <c r="C35" t="n">
-        <v>0.142199</v>
+        <v>0.169023</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132154</v>
+        <v>0.132649</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22376</v>
+        <v>0.21463</v>
       </c>
       <c r="C36" t="n">
-        <v>0.161764</v>
+        <v>0.195605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.144689</v>
+        <v>0.145231</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.265509</v>
+        <v>0.255841</v>
       </c>
       <c r="C37" t="n">
-        <v>0.203927</v>
+        <v>0.241965</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11322</v>
+        <v>0.112255</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0983619</v>
+        <v>0.0929865</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08291030000000001</v>
+        <v>0.111112</v>
       </c>
       <c r="D38" t="n">
-        <v>0.113408</v>
+        <v>0.112484</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09966319999999999</v>
+        <v>0.09398579999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0837157</v>
+        <v>0.112287</v>
       </c>
       <c r="D39" t="n">
-        <v>0.113755</v>
+        <v>0.112839</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.10164</v>
+        <v>0.0954888</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0843682</v>
+        <v>0.113942</v>
       </c>
       <c r="D40" t="n">
-        <v>0.114172</v>
+        <v>0.113301</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.103114</v>
+        <v>0.09769949999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0857504</v>
+        <v>0.114641</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11474</v>
+        <v>0.114875</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.105983</v>
+        <v>0.100535</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08695749999999999</v>
+        <v>0.1154</v>
       </c>
       <c r="D42" t="n">
-        <v>0.115208</v>
+        <v>0.114359</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.109738</v>
+        <v>0.104496</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08860129999999999</v>
+        <v>0.118083</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115802</v>
+        <v>0.115165</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.114604</v>
+        <v>0.110027</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0914925</v>
+        <v>0.120513</v>
       </c>
       <c r="D44" t="n">
-        <v>0.11676</v>
+        <v>0.115875</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.121025</v>
+        <v>0.116755</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0952369</v>
+        <v>0.124125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117856</v>
+        <v>0.117069</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.13005</v>
+        <v>0.125407</v>
       </c>
       <c r="C46" t="n">
-        <v>0.100856</v>
+        <v>0.128813</v>
       </c>
       <c r="D46" t="n">
-        <v>0.119503</v>
+        <v>0.118746</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.142436</v>
+        <v>0.136186</v>
       </c>
       <c r="C47" t="n">
-        <v>0.106542</v>
+        <v>0.136236</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121621</v>
+        <v>0.120963</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.158191</v>
+        <v>0.153457</v>
       </c>
       <c r="C48" t="n">
-        <v>0.118999</v>
+        <v>0.146499</v>
       </c>
       <c r="D48" t="n">
-        <v>0.125276</v>
+        <v>0.124705</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.181313</v>
+        <v>0.175751</v>
       </c>
       <c r="C49" t="n">
-        <v>0.130507</v>
+        <v>0.163817</v>
       </c>
       <c r="D49" t="n">
-        <v>0.131138</v>
+        <v>0.130792</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.218709</v>
+        <v>0.206166</v>
       </c>
       <c r="C50" t="n">
-        <v>0.158074</v>
+        <v>0.185105</v>
       </c>
       <c r="D50" t="n">
-        <v>0.140905</v>
+        <v>0.140816</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.255429</v>
+        <v>0.245495</v>
       </c>
       <c r="C51" t="n">
-        <v>0.194695</v>
+        <v>0.225364</v>
       </c>
       <c r="D51" t="n">
-        <v>0.116343</v>
+        <v>0.115113</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.303302</v>
+        <v>0.297796</v>
       </c>
       <c r="C52" t="n">
-        <v>0.242776</v>
+        <v>0.28568</v>
       </c>
       <c r="D52" t="n">
-        <v>0.116414</v>
+        <v>0.115239</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.104313</v>
+        <v>0.0971828</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0859174</v>
+        <v>0.116451</v>
       </c>
       <c r="D53" t="n">
-        <v>0.116073</v>
+        <v>0.115593</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.105351</v>
+        <v>0.10058</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0876963</v>
+        <v>0.115999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.116851</v>
+        <v>0.116079</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.107188</v>
+        <v>0.101181</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0885774</v>
+        <v>0.116789</v>
       </c>
       <c r="D55" t="n">
-        <v>0.117375</v>
+        <v>0.116335</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.109454</v>
+        <v>0.102817</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0890932</v>
+        <v>0.118808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1174</v>
+        <v>0.116348</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.113642</v>
+        <v>0.107224</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0921651</v>
+        <v>0.122821</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118238</v>
+        <v>0.117276</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119155</v>
+        <v>0.112882</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0935103</v>
+        <v>0.12542</v>
       </c>
       <c r="D58" t="n">
-        <v>0.119179</v>
+        <v>0.119592</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.124694</v>
+        <v>0.118349</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0979313</v>
+        <v>0.128874</v>
       </c>
       <c r="D59" t="n">
-        <v>0.119993</v>
+        <v>0.12066</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.133443</v>
+        <v>0.128175</v>
       </c>
       <c r="C60" t="n">
-        <v>0.102319</v>
+        <v>0.132964</v>
       </c>
       <c r="D60" t="n">
-        <v>0.121373</v>
+        <v>0.120648</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.14446</v>
+        <v>0.140458</v>
       </c>
       <c r="C61" t="n">
-        <v>0.108276</v>
+        <v>0.140736</v>
       </c>
       <c r="D61" t="n">
-        <v>0.124311</v>
+        <v>0.123799</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.159051</v>
+        <v>0.156659</v>
       </c>
       <c r="C62" t="n">
-        <v>0.119697</v>
+        <v>0.155691</v>
       </c>
       <c r="D62" t="n">
-        <v>0.127406</v>
+        <v>0.128352</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.180444</v>
+        <v>0.179999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.134354</v>
+        <v>0.164918</v>
       </c>
       <c r="D63" t="n">
-        <v>0.13275</v>
+        <v>0.133902</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.209407</v>
+        <v>0.205841</v>
       </c>
       <c r="C64" t="n">
-        <v>0.156703</v>
+        <v>0.187908</v>
       </c>
       <c r="D64" t="n">
-        <v>0.141736</v>
+        <v>0.143588</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249856</v>
+        <v>0.249325</v>
       </c>
       <c r="C65" t="n">
-        <v>0.185467</v>
+        <v>0.223268</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158184</v>
+        <v>0.158592</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.299536</v>
+        <v>0.292817</v>
       </c>
       <c r="C66" t="n">
-        <v>0.23621</v>
+        <v>0.278612</v>
       </c>
       <c r="D66" t="n">
-        <v>0.125595</v>
+        <v>0.124272</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.114666</v>
+        <v>0.107504</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0944641</v>
+        <v>0.124676</v>
       </c>
       <c r="D67" t="n">
-        <v>0.126398</v>
+        <v>0.124599</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.116507</v>
+        <v>0.10821</v>
       </c>
       <c r="C68" t="n">
-        <v>0.094697</v>
+        <v>0.125261</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125825</v>
+        <v>0.126138</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.118082</v>
+        <v>0.111487</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0958306</v>
+        <v>0.126278</v>
       </c>
       <c r="D69" t="n">
-        <v>0.127483</v>
+        <v>0.126007</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.12091</v>
+        <v>0.114847</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0963667</v>
+        <v>0.128678</v>
       </c>
       <c r="D70" t="n">
-        <v>0.12745</v>
+        <v>0.127293</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.124472</v>
+        <v>0.117779</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0992633</v>
+        <v>0.131152</v>
       </c>
       <c r="D71" t="n">
-        <v>0.128005</v>
+        <v>0.128244</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.129498</v>
+        <v>0.124505</v>
       </c>
       <c r="C72" t="n">
-        <v>0.102454</v>
+        <v>0.133562</v>
       </c>
       <c r="D72" t="n">
-        <v>0.12886</v>
+        <v>0.128551</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.134605</v>
+        <v>0.127853</v>
       </c>
       <c r="C73" t="n">
-        <v>0.104269</v>
+        <v>0.136326</v>
       </c>
       <c r="D73" t="n">
-        <v>0.130372</v>
+        <v>0.129145</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.142282</v>
+        <v>0.135405</v>
       </c>
       <c r="C74" t="n">
-        <v>0.109025</v>
+        <v>0.141961</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130963</v>
+        <v>0.130909</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.152282</v>
+        <v>0.146552</v>
       </c>
       <c r="C75" t="n">
-        <v>0.114458</v>
+        <v>0.147964</v>
       </c>
       <c r="D75" t="n">
-        <v>0.132917</v>
+        <v>0.132834</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.165354</v>
+        <v>0.164409</v>
       </c>
       <c r="C76" t="n">
-        <v>0.125758</v>
+        <v>0.157456</v>
       </c>
       <c r="D76" t="n">
-        <v>0.136168</v>
+        <v>0.135267</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.186231</v>
+        <v>0.180997</v>
       </c>
       <c r="C77" t="n">
-        <v>0.139042</v>
+        <v>0.17173</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141671</v>
+        <v>0.141661</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.213774</v>
+        <v>0.209189</v>
       </c>
       <c r="C78" t="n">
-        <v>0.15425</v>
+        <v>0.191848</v>
       </c>
       <c r="D78" t="n">
-        <v>0.150214</v>
+        <v>0.149193</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252756</v>
+        <v>0.253313</v>
       </c>
       <c r="C79" t="n">
-        <v>0.183548</v>
+        <v>0.224364</v>
       </c>
       <c r="D79" t="n">
-        <v>0.163463</v>
+        <v>0.165433</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302839</v>
+        <v>0.303108</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239971</v>
+        <v>0.273572</v>
       </c>
       <c r="D80" t="n">
-        <v>0.135238</v>
+        <v>0.13533</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.125806</v>
+        <v>0.120117</v>
       </c>
       <c r="C81" t="n">
-        <v>0.10205</v>
+        <v>0.135427</v>
       </c>
       <c r="D81" t="n">
-        <v>0.13583</v>
+        <v>0.135537</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.127267</v>
+        <v>0.123278</v>
       </c>
       <c r="C82" t="n">
-        <v>0.10421</v>
+        <v>0.137745</v>
       </c>
       <c r="D82" t="n">
-        <v>0.135953</v>
+        <v>0.135669</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.129564</v>
+        <v>0.12535</v>
       </c>
       <c r="C83" t="n">
-        <v>0.104875</v>
+        <v>0.139023</v>
       </c>
       <c r="D83" t="n">
-        <v>0.136836</v>
+        <v>0.135774</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.132031</v>
+        <v>0.128295</v>
       </c>
       <c r="C84" t="n">
-        <v>0.106516</v>
+        <v>0.141247</v>
       </c>
       <c r="D84" t="n">
-        <v>0.137145</v>
+        <v>0.137585</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.135639</v>
+        <v>0.130736</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107359</v>
+        <v>0.143596</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138985</v>
+        <v>0.138292</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.140854</v>
+        <v>0.134472</v>
       </c>
       <c r="C86" t="n">
-        <v>0.109904</v>
+        <v>0.145734</v>
       </c>
       <c r="D86" t="n">
-        <v>0.138985</v>
+        <v>0.138943</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.144944</v>
+        <v>0.142178</v>
       </c>
       <c r="C87" t="n">
-        <v>0.114122</v>
+        <v>0.150566</v>
       </c>
       <c r="D87" t="n">
-        <v>0.140128</v>
+        <v>0.140314</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.152622</v>
+        <v>0.14952</v>
       </c>
       <c r="C88" t="n">
-        <v>0.117772</v>
+        <v>0.156564</v>
       </c>
       <c r="D88" t="n">
-        <v>0.142047</v>
+        <v>0.140911</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.162466</v>
+        <v>0.161363</v>
       </c>
       <c r="C89" t="n">
-        <v>0.123995</v>
+        <v>0.164525</v>
       </c>
       <c r="D89" t="n">
-        <v>0.144299</v>
+        <v>0.144776</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176368</v>
+        <v>0.174729</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134601</v>
+        <v>0.176951</v>
       </c>
       <c r="D90" t="n">
-        <v>0.147165</v>
+        <v>0.148028</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.199193</v>
+        <v>0.196281</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149059</v>
+        <v>0.192766</v>
       </c>
       <c r="D91" t="n">
-        <v>0.152551</v>
+        <v>0.153643</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.223277</v>
+        <v>0.223568</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163434</v>
+        <v>0.217861</v>
       </c>
       <c r="D92" t="n">
-        <v>0.159743</v>
+        <v>0.161673</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.260563</v>
+        <v>0.268245</v>
       </c>
       <c r="C93" t="n">
-        <v>0.198577</v>
+        <v>0.250965</v>
       </c>
       <c r="D93" t="n">
-        <v>0.17277</v>
+        <v>0.176672</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.320015</v>
+        <v>0.324109</v>
       </c>
       <c r="C94" t="n">
-        <v>0.234713</v>
+        <v>0.304176</v>
       </c>
       <c r="D94" t="n">
-        <v>0.143237</v>
+        <v>0.141478</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134201</v>
+        <v>0.13035</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117291</v>
+        <v>0.155561</v>
       </c>
       <c r="D95" t="n">
-        <v>0.143798</v>
+        <v>0.143434</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136663</v>
+        <v>0.131203</v>
       </c>
       <c r="C96" t="n">
-        <v>0.118325</v>
+        <v>0.160138</v>
       </c>
       <c r="D96" t="n">
-        <v>0.14513</v>
+        <v>0.145647</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139402</v>
+        <v>0.134999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.124928</v>
+        <v>0.165107</v>
       </c>
       <c r="D97" t="n">
-        <v>0.146096</v>
+        <v>0.146588</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14384</v>
+        <v>0.140446</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128532</v>
+        <v>0.170477</v>
       </c>
       <c r="D98" t="n">
-        <v>0.148537</v>
+        <v>0.148558</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147925</v>
+        <v>0.145894</v>
       </c>
       <c r="C99" t="n">
-        <v>0.131805</v>
+        <v>0.177106</v>
       </c>
       <c r="D99" t="n">
-        <v>0.150553</v>
+        <v>0.149682</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154261</v>
+        <v>0.153148</v>
       </c>
       <c r="C100" t="n">
-        <v>0.136958</v>
+        <v>0.18388</v>
       </c>
       <c r="D100" t="n">
-        <v>0.15287</v>
+        <v>0.153173</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.16226</v>
+        <v>0.160836</v>
       </c>
       <c r="C101" t="n">
-        <v>0.143177</v>
+        <v>0.191476</v>
       </c>
       <c r="D101" t="n">
-        <v>0.155781</v>
+        <v>0.156758</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.171646</v>
+        <v>0.172849</v>
       </c>
       <c r="C102" t="n">
-        <v>0.150478</v>
+        <v>0.201202</v>
       </c>
       <c r="D102" t="n">
-        <v>0.160286</v>
+        <v>0.162942</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.184163</v>
+        <v>0.184911</v>
       </c>
       <c r="C103" t="n">
-        <v>0.15881</v>
+        <v>0.212144</v>
       </c>
       <c r="D103" t="n">
-        <v>0.165377</v>
+        <v>0.167187</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199564</v>
+        <v>0.205893</v>
       </c>
       <c r="C104" t="n">
-        <v>0.172433</v>
+        <v>0.22596</v>
       </c>
       <c r="D104" t="n">
-        <v>0.170426</v>
+        <v>0.175279</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.220633</v>
+        <v>0.230815</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183587</v>
+        <v>0.243763</v>
       </c>
       <c r="D105" t="n">
-        <v>0.177457</v>
+        <v>0.183656</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2492</v>
+        <v>0.257245</v>
       </c>
       <c r="C106" t="n">
-        <v>0.202976</v>
+        <v>0.267353</v>
       </c>
       <c r="D106" t="n">
-        <v>0.187131</v>
+        <v>0.195246</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.292073</v>
+        <v>0.30803</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231704</v>
+        <v>0.302255</v>
       </c>
       <c r="D107" t="n">
-        <v>0.202586</v>
+        <v>0.212592</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.350219</v>
+        <v>0.362012</v>
       </c>
       <c r="C108" t="n">
-        <v>0.274617</v>
+        <v>0.356115</v>
       </c>
       <c r="D108" t="n">
-        <v>0.163851</v>
+        <v>0.161653</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.427167</v>
+        <v>0.455508</v>
       </c>
       <c r="C109" t="n">
-        <v>0.347681</v>
+        <v>0.444114</v>
       </c>
       <c r="D109" t="n">
-        <v>0.16611</v>
+        <v>0.164331</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159925</v>
+        <v>0.154669</v>
       </c>
       <c r="C110" t="n">
-        <v>0.153518</v>
+        <v>0.193444</v>
       </c>
       <c r="D110" t="n">
-        <v>0.168845</v>
+        <v>0.166877</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.163722</v>
+        <v>0.160153</v>
       </c>
       <c r="C111" t="n">
-        <v>0.157038</v>
+        <v>0.197681</v>
       </c>
       <c r="D111" t="n">
-        <v>0.170679</v>
+        <v>0.169553</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.167972</v>
+        <v>0.164999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.160547</v>
+        <v>0.20159</v>
       </c>
       <c r="D112" t="n">
-        <v>0.173514</v>
+        <v>0.173372</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.172964</v>
+        <v>0.17065</v>
       </c>
       <c r="C113" t="n">
-        <v>0.164589</v>
+        <v>0.206697</v>
       </c>
       <c r="D113" t="n">
-        <v>0.175501</v>
+        <v>0.177377</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.178862</v>
+        <v>0.176953</v>
       </c>
       <c r="C114" t="n">
-        <v>0.169317</v>
+        <v>0.212406</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178375</v>
+        <v>0.177618</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.185983</v>
+        <v>0.182813</v>
       </c>
       <c r="C115" t="n">
-        <v>0.174858</v>
+        <v>0.218524</v>
       </c>
       <c r="D115" t="n">
-        <v>0.181006</v>
+        <v>0.182461</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.195145</v>
+        <v>0.192869</v>
       </c>
       <c r="C116" t="n">
-        <v>0.181596</v>
+        <v>0.226483</v>
       </c>
       <c r="D116" t="n">
-        <v>0.184398</v>
+        <v>0.185845</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20667</v>
+        <v>0.206786</v>
       </c>
       <c r="C117" t="n">
-        <v>0.192088</v>
+        <v>0.236669</v>
       </c>
       <c r="D117" t="n">
-        <v>0.188303</v>
+        <v>0.188604</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221696</v>
+        <v>0.221169</v>
       </c>
       <c r="C118" t="n">
-        <v>0.204096</v>
+        <v>0.249695</v>
       </c>
       <c r="D118" t="n">
-        <v>0.193379</v>
+        <v>0.19464</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.24175</v>
+        <v>0.247151</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216797</v>
+        <v>0.266504</v>
       </c>
       <c r="D119" t="n">
-        <v>0.199826</v>
+        <v>0.202233</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269642</v>
+        <v>0.277726</v>
       </c>
       <c r="C120" t="n">
-        <v>0.236061</v>
+        <v>0.290016</v>
       </c>
       <c r="D120" t="n">
-        <v>0.209049</v>
+        <v>0.211108</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.309167</v>
+        <v>0.320462</v>
       </c>
       <c r="C121" t="n">
-        <v>0.265372</v>
+        <v>0.324076</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223627</v>
+        <v>0.226108</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372971</v>
+        <v>0.381856</v>
       </c>
       <c r="C122" t="n">
-        <v>0.311417</v>
+        <v>0.375896</v>
       </c>
       <c r="D122" t="n">
-        <v>0.24679</v>
+        <v>0.251972</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.458896</v>
+        <v>0.473373</v>
       </c>
       <c r="C123" t="n">
-        <v>0.389907</v>
+        <v>0.461804</v>
       </c>
       <c r="D123" t="n">
-        <v>0.186032</v>
+        <v>0.183309</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.177868</v>
+        <v>0.170242</v>
       </c>
       <c r="C124" t="n">
-        <v>0.175263</v>
+        <v>0.214487</v>
       </c>
       <c r="D124" t="n">
-        <v>0.19125</v>
+        <v>0.185205</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.181276</v>
+        <v>0.173012</v>
       </c>
       <c r="C125" t="n">
-        <v>0.17784</v>
+        <v>0.220726</v>
       </c>
       <c r="D125" t="n">
-        <v>0.19084</v>
+        <v>0.188483</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.183848</v>
+        <v>0.180289</v>
       </c>
       <c r="C126" t="n">
-        <v>0.183405</v>
+        <v>0.226134</v>
       </c>
       <c r="D126" t="n">
-        <v>0.19282</v>
+        <v>0.195193</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.189982</v>
+        <v>0.18459</v>
       </c>
       <c r="C127" t="n">
-        <v>0.188003</v>
+        <v>0.231387</v>
       </c>
       <c r="D127" t="n">
-        <v>0.196978</v>
+        <v>0.195394</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.196492</v>
+        <v>0.191549</v>
       </c>
       <c r="C128" t="n">
-        <v>0.191172</v>
+        <v>0.235917</v>
       </c>
       <c r="D128" t="n">
-        <v>0.195828</v>
+        <v>0.193999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.201852</v>
+        <v>0.197055</v>
       </c>
       <c r="C129" t="n">
-        <v>0.198946</v>
+        <v>0.240488</v>
       </c>
       <c r="D129" t="n">
-        <v>0.199436</v>
+        <v>0.201334</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216704</v>
+        <v>0.210072</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206599</v>
+        <v>0.249983</v>
       </c>
       <c r="D130" t="n">
-        <v>0.204892</v>
+        <v>0.202544</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224275</v>
+        <v>0.223088</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213873</v>
+        <v>0.259431</v>
       </c>
       <c r="D131" t="n">
-        <v>0.208818</v>
+        <v>0.209004</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.238272</v>
+        <v>0.237559</v>
       </c>
       <c r="C132" t="n">
-        <v>0.226444</v>
+        <v>0.273711</v>
       </c>
       <c r="D132" t="n">
-        <v>0.211252</v>
+        <v>0.211545</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259121</v>
+        <v>0.258742</v>
       </c>
       <c r="C133" t="n">
-        <v>0.241088</v>
+        <v>0.288817</v>
       </c>
       <c r="D133" t="n">
-        <v>0.21858</v>
+        <v>0.218254</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.28811</v>
+        <v>0.292596</v>
       </c>
       <c r="C134" t="n">
-        <v>0.264609</v>
+        <v>0.315622</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2287</v>
+        <v>0.228097</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.329072</v>
+        <v>0.324709</v>
       </c>
       <c r="C135" t="n">
-        <v>0.29985</v>
+        <v>0.347083</v>
       </c>
       <c r="D135" t="n">
-        <v>0.24375</v>
+        <v>0.243094</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.391934</v>
+        <v>0.390619</v>
       </c>
       <c r="C136" t="n">
-        <v>0.341356</v>
+        <v>0.398712</v>
       </c>
       <c r="D136" t="n">
-        <v>0.26508</v>
+        <v>0.265578</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.479631</v>
+        <v>0.486578</v>
       </c>
       <c r="C137" t="n">
-        <v>0.417117</v>
+        <v>0.478045</v>
       </c>
       <c r="D137" t="n">
-        <v>0.342563</v>
+        <v>0.322204</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311173</v>
+        <v>0.311882</v>
       </c>
       <c r="C138" t="n">
-        <v>0.299067</v>
+        <v>0.349707</v>
       </c>
       <c r="D138" t="n">
-        <v>0.343976</v>
+        <v>0.323936</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.311858</v>
+        <v>0.319694</v>
       </c>
       <c r="C139" t="n">
-        <v>0.303569</v>
+        <v>0.357406</v>
       </c>
       <c r="D139" t="n">
-        <v>0.347589</v>
+        <v>0.325324</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.320419</v>
+        <v>0.322371</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30849</v>
+        <v>0.362413</v>
       </c>
       <c r="D140" t="n">
-        <v>0.352753</v>
+        <v>0.32809</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.326131</v>
+        <v>0.328268</v>
       </c>
       <c r="C141" t="n">
-        <v>0.311738</v>
+        <v>0.365028</v>
       </c>
       <c r="D141" t="n">
-        <v>0.347785</v>
+        <v>0.332604</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.328854</v>
+        <v>0.332007</v>
       </c>
       <c r="C142" t="n">
-        <v>0.316096</v>
+        <v>0.374188</v>
       </c>
       <c r="D142" t="n">
-        <v>0.355124</v>
+        <v>0.328838</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338229</v>
+        <v>0.337866</v>
       </c>
       <c r="C143" t="n">
-        <v>0.321469</v>
+        <v>0.37935</v>
       </c>
       <c r="D143" t="n">
-        <v>0.358852</v>
+        <v>0.336152</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0199746</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0223711</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0279843</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0374557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0541003</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0739308</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0908332</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.119418</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.0160955</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0165233</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0170052</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0176545</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.018734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.020118</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0231423</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0275752</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0337269</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.0441174</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0560327</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0735251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.09810720000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.118682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0168617</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.017117</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0179684</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.018842</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.020762</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0229493</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0261253</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0299548</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0351932</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0437828</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0554948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.07231650000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.09074749999999999</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.117374</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0170956</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0178543</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0189841</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0200948</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0217684</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0244338</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.0277674</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0324631</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0387566</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.044976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0559175</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0710027</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0908212</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.117424</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.140864</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0189027</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0201008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.021583</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0235148</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0261005</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0293833</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0337692</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0392899</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.046662</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0562823</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0701638</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0890341</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.114833</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.144939</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0197502</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0210028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0227789</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.0246593</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0270269</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302493</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.0342455</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.0395435</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0466214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0559597</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0685593</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0867699</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.111201</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.141494</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0200207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0212269</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0226945</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0246895</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0274303</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0301632</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.0343383</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.0393209</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0454285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0543419</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.06590409999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.08316999999999999</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.106615</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.136838</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.0207148</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0218231</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.0235618</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.0254205</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0277238</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.0309717</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.034493</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0401348</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0464552</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0546064</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.065411</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.08111790000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.10261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.131855</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.167859</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.0308739</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.032613</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.034221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.0360225</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.0383657</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.0408546</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.0441552</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.0485179</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.0552273</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.06492580000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.0791367</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.0999347</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.128094</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.163548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.0346339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.0355354</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.0372352</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.0385047</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.0411049</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.0439798</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.04739</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.0521658</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.0586895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.0680711</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.0820838</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.101855</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.12951</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.163867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.0468922</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.0482012</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.0491648</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.0527207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.0528154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.055782</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.0185839</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0180835</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0186575</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0219409</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0348619</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.046746</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0887013</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.119804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0180709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0184204</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0189457</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0193755</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.020306</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.0209034</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0227075</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0253999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0319034</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0383341</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0568493</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.0838647</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.131653</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0187591</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.0191409</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0197405</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.020439</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0212415</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0219892</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0234121</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0264304</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0302305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0366198</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0459437</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0594599</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0878531</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.129282</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0198852</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0203496</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0210131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0216736</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0228112</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0240973</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0257658</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0290975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.0349767</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0398391</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0491529</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.06340750000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0843724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.121267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.167097</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0213247</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0219345</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.022889</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0238477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0253224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0275992</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.0302451</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0345438</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0408319</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0492235</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.061553</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0805206</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.113447</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.161291</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.0217627</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.022553</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0235574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0246975</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0260874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0279758</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.030811</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.034622</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0402214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.047952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0592906</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.07559440000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.103124</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.148399</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0223391</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0231769</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0241129</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0252673</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0268372</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0286828</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0310672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0345672</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.0394295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0468561</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0569589</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.07245</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.09784569999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.139669</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.0237499</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0249294</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0266465</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.0293475</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0325618</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0359918</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.0391962</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0423199</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0459227</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0516739</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.0586182</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.07141210000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.09303640000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.131746</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.183631</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0382801</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0392846</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.040221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0413197</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.0426685</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.0443478</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0465075</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0495102</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.0538235</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.0601526</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.0710412</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.0895113</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.122948</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.172866</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.0424721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.0434258</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.044818</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.0458006</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.0473031</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.0493497</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.0516778</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.0546998</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.0591634</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.0653265</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.0752591</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.0919177</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.121142</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.1684</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.0552701</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.0564094</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.0574369</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.0586381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.0601686</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.0620335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0201621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0205927</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0213328</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0224255</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0228236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.0246502</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0289321</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.0176491</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.0179043</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0181965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0185586</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0189253</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0192987</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0198485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0203825</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.0208815</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0220019</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.022769</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0243123</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0273683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0323586</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.017563</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0179077</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0181191</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0185128</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0188997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0193475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0197701</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0202878</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0211156</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0221556</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249746</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0282488</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0352729</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.017949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0182123</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0184241</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0187582</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0191191</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0195615</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0201191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0206961</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0215587</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0226734</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0242101</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0265092</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0299203</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0362318</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.018616</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0188728</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0191354</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0194676</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0198285</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0202084</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.0207233</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0213995</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0222513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.023328</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0249404</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0313116</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0376983</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.0489477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.019011</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0193203</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0197232</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0201442</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0205764</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0210852</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0217122</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.022629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0237333</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0254197</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0277608</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0313383</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.037026</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0465119</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0192382</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0195643</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0199296</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0204282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0208927</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.021538</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0222851</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.0232149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0244507</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0259784</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0282943</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0314579</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0365879</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0450952</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.0208871</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.0214555</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0220137</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.0225922</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.0232915</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0246113</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0266287</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0293725</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.0323838</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0353862</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0384466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.0416202</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.0456443</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0519131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0324166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0334394</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0342435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.0350556</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.0358717</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.0366873</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.0376708</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.0386302</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.0398146</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.0412212</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.0429427</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.0455556</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.0491536</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.054736</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.0644487</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.0379716</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.0387374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.039425</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.0400483</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.0410584</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.0419449</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.0429313</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.0441977</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.0457638</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.0475294</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.0500786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.0536186</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.0591599</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.0689019</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.0534654</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.0539555</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.0548494</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.0553747</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.0561235</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.0611306</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.0579442</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0939063</v>
+        <v>0.09379709999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113994</v>
+        <v>0.11415</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113513</v>
+        <v>0.113654</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0974399</v>
+        <v>0.0976611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.116084</v>
+        <v>0.116348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114633</v>
+        <v>0.114603</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.10617</v>
+        <v>0.106213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.121023</v>
+        <v>0.121085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116377</v>
+        <v>0.116323</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12387</v>
+        <v>0.123722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.129009</v>
+        <v>0.129003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119028</v>
+        <v>0.119009</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.14781</v>
+        <v>0.147951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.140756</v>
+        <v>0.140726</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122583</v>
+        <v>0.122427</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181423</v>
+        <v>0.181777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159865</v>
+        <v>0.15975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128463</v>
+        <v>0.128163</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216324</v>
+        <v>0.216404</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200676</v>
+        <v>0.200796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140867</v>
+        <v>0.14085</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261532</v>
+        <v>0.261475</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244076</v>
+        <v>0.244732</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109716</v>
+        <v>0.10979</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.086316</v>
+        <v>0.0861632</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10652</v>
+        <v>0.106142</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110275</v>
+        <v>0.110132</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0871566</v>
+        <v>0.08721329999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.107172</v>
+        <v>0.106801</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110466</v>
+        <v>0.11044</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0885064</v>
+        <v>0.088544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107998</v>
+        <v>0.107643</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110903</v>
+        <v>0.110868</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0902251</v>
+        <v>0.0898158</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108629</v>
+        <v>0.108982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111338</v>
+        <v>0.111295</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09215950000000001</v>
+        <v>0.0918846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110225</v>
+        <v>0.11023</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111903</v>
+        <v>0.111875</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09562130000000001</v>
+        <v>0.095679</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112301</v>
+        <v>0.112458</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112593</v>
+        <v>0.112543</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101643</v>
+        <v>0.10206</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115776</v>
+        <v>0.117036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113645</v>
+        <v>0.113622</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109808</v>
+        <v>0.109983</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119055</v>
+        <v>0.119311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114844</v>
+        <v>0.114831</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12224</v>
+        <v>0.122341</v>
       </c>
       <c r="C18" t="n">
-        <v>0.126079</v>
+        <v>0.126112</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116959</v>
+        <v>0.116933</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.141648</v>
+        <v>0.138178</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135365</v>
+        <v>0.135429</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120085</v>
+        <v>0.120081</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.157817</v>
+        <v>0.163533</v>
       </c>
       <c r="C20" t="n">
-        <v>0.148244</v>
+        <v>0.14782</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123918</v>
+        <v>0.123876</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185705</v>
+        <v>0.185545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16595</v>
+        <v>0.173005</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130361</v>
+        <v>0.130269</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217886</v>
+        <v>0.228569</v>
       </c>
       <c r="C22" t="n">
-        <v>0.203069</v>
+        <v>0.202956</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145286</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.277267</v>
+        <v>0.263284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249131</v>
+        <v>0.249479</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111445</v>
+        <v>0.111078</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0898548</v>
+        <v>0.08985</v>
       </c>
       <c r="C24" t="n">
-        <v>0.109117</v>
+        <v>0.108955</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111508</v>
+        <v>0.111376</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0913441</v>
+        <v>0.0909498</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11088</v>
+        <v>0.109576</v>
       </c>
       <c r="D25" t="n">
-        <v>0.111914</v>
+        <v>0.111572</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0923882</v>
+        <v>0.0924297</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110532</v>
+        <v>0.1104</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112451</v>
+        <v>0.112037</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.094268</v>
+        <v>0.0943613</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111368</v>
+        <v>0.111478</v>
       </c>
       <c r="D27" t="n">
-        <v>0.112625</v>
+        <v>0.112562</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.097359</v>
+        <v>0.0974367</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113238</v>
+        <v>0.1149</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113379</v>
+        <v>0.113092</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.101511</v>
+        <v>0.101627</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116743</v>
+        <v>0.115959</v>
       </c>
       <c r="D29" t="n">
-        <v>0.113673</v>
+        <v>0.113552</v>
       </c>
     </row>
     <row r="30">
@@ -3640,10 +3640,10 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106999</v>
+        <v>0.106931</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120638</v>
+        <v>0.118686</v>
       </c>
       <c r="D30" t="n">
         <v>0.114457</v>
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114325</v>
+        <v>0.114422</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122945</v>
+        <v>0.121438</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11615</v>
+        <v>0.115695</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.124282</v>
+        <v>0.124278</v>
       </c>
       <c r="C32" t="n">
-        <v>0.128705</v>
+        <v>0.126912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118012</v>
+        <v>0.117585</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.138472</v>
+        <v>0.138349</v>
       </c>
       <c r="C33" t="n">
-        <v>0.136446</v>
+        <v>0.134997</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120826</v>
+        <v>0.120271</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.156876</v>
+        <v>0.156823</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154264</v>
+        <v>0.148983</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124887</v>
+        <v>0.124797</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179759</v>
+        <v>0.179647</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169023</v>
+        <v>0.168299</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132649</v>
+        <v>0.132305</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.21463</v>
+        <v>0.214504</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195605</v>
+        <v>0.196475</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145231</v>
+        <v>0.144865</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255841</v>
+        <v>0.26505</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241965</v>
+        <v>0.242877</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112255</v>
+        <v>0.112364</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0929865</v>
+        <v>0.0929075</v>
       </c>
       <c r="C38" t="n">
-        <v>0.111112</v>
+        <v>0.110689</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112484</v>
+        <v>0.112682</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09398579999999999</v>
+        <v>0.0941087</v>
       </c>
       <c r="C39" t="n">
-        <v>0.112287</v>
+        <v>0.111962</v>
       </c>
       <c r="D39" t="n">
-        <v>0.112839</v>
+        <v>0.112737</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0954888</v>
+        <v>0.0954405</v>
       </c>
       <c r="C40" t="n">
-        <v>0.113942</v>
+        <v>0.112797</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113301</v>
+        <v>0.113322</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09769949999999999</v>
+        <v>0.0983685</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114641</v>
+        <v>0.114099</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114875</v>
+        <v>0.113849</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100535</v>
+        <v>0.101296</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1154</v>
+        <v>0.115904</v>
       </c>
       <c r="D42" t="n">
-        <v>0.114359</v>
+        <v>0.114894</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104496</v>
+        <v>0.104462</v>
       </c>
       <c r="C43" t="n">
-        <v>0.118083</v>
+        <v>0.117765</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115165</v>
+        <v>0.115696</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110027</v>
+        <v>0.10983</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120513</v>
+        <v>0.119939</v>
       </c>
       <c r="D44" t="n">
-        <v>0.115875</v>
+        <v>0.116435</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116755</v>
+        <v>0.116739</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124125</v>
+        <v>0.124313</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117069</v>
+        <v>0.117766</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125407</v>
+        <v>0.12698</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128813</v>
+        <v>0.128965</v>
       </c>
       <c r="D46" t="n">
-        <v>0.118746</v>
+        <v>0.118799</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136186</v>
+        <v>0.138467</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136236</v>
+        <v>0.136566</v>
       </c>
       <c r="D47" t="n">
-        <v>0.120963</v>
+        <v>0.121047</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153457</v>
+        <v>0.153505</v>
       </c>
       <c r="C48" t="n">
-        <v>0.146499</v>
+        <v>0.146936</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124705</v>
+        <v>0.124735</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175751</v>
+        <v>0.175901</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163817</v>
+        <v>0.161433</v>
       </c>
       <c r="D49" t="n">
-        <v>0.130792</v>
+        <v>0.130765</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.206166</v>
+        <v>0.206152</v>
       </c>
       <c r="C50" t="n">
-        <v>0.185105</v>
+        <v>0.185761</v>
       </c>
       <c r="D50" t="n">
-        <v>0.140816</v>
+        <v>0.140813</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.245495</v>
+        <v>0.245425</v>
       </c>
       <c r="C51" t="n">
-        <v>0.225364</v>
+        <v>0.224723</v>
       </c>
       <c r="D51" t="n">
-        <v>0.115113</v>
+        <v>0.115426</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.297796</v>
+        <v>0.293948</v>
       </c>
       <c r="C52" t="n">
-        <v>0.28568</v>
+        <v>0.286126</v>
       </c>
       <c r="D52" t="n">
-        <v>0.115239</v>
+        <v>0.115072</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0971828</v>
+        <v>0.09793490000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.116451</v>
+        <v>0.116027</v>
       </c>
       <c r="D53" t="n">
-        <v>0.115593</v>
+        <v>0.115499</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.10058</v>
+        <v>0.0986243</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115999</v>
+        <v>0.116877</v>
       </c>
       <c r="D54" t="n">
-        <v>0.116079</v>
+        <v>0.116401</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101181</v>
+        <v>0.100818</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116789</v>
+        <v>0.117752</v>
       </c>
       <c r="D55" t="n">
-        <v>0.116335</v>
+        <v>0.115747</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102817</v>
+        <v>0.103988</v>
       </c>
       <c r="C56" t="n">
-        <v>0.118808</v>
+        <v>0.12097</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116348</v>
+        <v>0.117518</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107224</v>
+        <v>0.106734</v>
       </c>
       <c r="C57" t="n">
-        <v>0.122821</v>
+        <v>0.123165</v>
       </c>
       <c r="D57" t="n">
-        <v>0.117276</v>
+        <v>0.118352</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112882</v>
+        <v>0.112525</v>
       </c>
       <c r="C58" t="n">
-        <v>0.12542</v>
+        <v>0.126832</v>
       </c>
       <c r="D58" t="n">
-        <v>0.119592</v>
+        <v>0.120907</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118349</v>
+        <v>0.120251</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128874</v>
+        <v>0.128849</v>
       </c>
       <c r="D59" t="n">
-        <v>0.12066</v>
+        <v>0.120917</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128175</v>
+        <v>0.126617</v>
       </c>
       <c r="C60" t="n">
-        <v>0.132964</v>
+        <v>0.136211</v>
       </c>
       <c r="D60" t="n">
-        <v>0.120648</v>
+        <v>0.123509</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.140458</v>
+        <v>0.138473</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140736</v>
+        <v>0.141126</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123799</v>
+        <v>0.125051</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.156659</v>
+        <v>0.154986</v>
       </c>
       <c r="C62" t="n">
-        <v>0.155691</v>
+        <v>0.152041</v>
       </c>
       <c r="D62" t="n">
-        <v>0.128352</v>
+        <v>0.128071</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179999</v>
+        <v>0.171967</v>
       </c>
       <c r="C63" t="n">
-        <v>0.164918</v>
+        <v>0.1652</v>
       </c>
       <c r="D63" t="n">
-        <v>0.133902</v>
+        <v>0.134385</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.205841</v>
+        <v>0.210229</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187908</v>
+        <v>0.194365</v>
       </c>
       <c r="D64" t="n">
-        <v>0.143588</v>
+        <v>0.142787</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249325</v>
+        <v>0.245388</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223268</v>
+        <v>0.222255</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158592</v>
+        <v>0.158147</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.292817</v>
+        <v>0.298758</v>
       </c>
       <c r="C66" t="n">
-        <v>0.278612</v>
+        <v>0.278119</v>
       </c>
       <c r="D66" t="n">
-        <v>0.124272</v>
+        <v>0.126546</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107504</v>
+        <v>0.107955</v>
       </c>
       <c r="C67" t="n">
-        <v>0.124676</v>
+        <v>0.125906</v>
       </c>
       <c r="D67" t="n">
-        <v>0.124599</v>
+        <v>0.125516</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10821</v>
+        <v>0.109841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.125261</v>
+        <v>0.126588</v>
       </c>
       <c r="D68" t="n">
-        <v>0.126138</v>
+        <v>0.125481</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111487</v>
+        <v>0.112696</v>
       </c>
       <c r="C69" t="n">
-        <v>0.126278</v>
+        <v>0.127067</v>
       </c>
       <c r="D69" t="n">
-        <v>0.126007</v>
+        <v>0.126003</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114847</v>
+        <v>0.114616</v>
       </c>
       <c r="C70" t="n">
-        <v>0.128678</v>
+        <v>0.129249</v>
       </c>
       <c r="D70" t="n">
-        <v>0.127293</v>
+        <v>0.126818</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117779</v>
+        <v>0.119137</v>
       </c>
       <c r="C71" t="n">
-        <v>0.131152</v>
+        <v>0.130504</v>
       </c>
       <c r="D71" t="n">
-        <v>0.128244</v>
+        <v>0.12656</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.124505</v>
+        <v>0.122388</v>
       </c>
       <c r="C72" t="n">
-        <v>0.133562</v>
+        <v>0.133173</v>
       </c>
       <c r="D72" t="n">
-        <v>0.128551</v>
+        <v>0.128049</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127853</v>
+        <v>0.129128</v>
       </c>
       <c r="C73" t="n">
-        <v>0.136326</v>
+        <v>0.13973</v>
       </c>
       <c r="D73" t="n">
-        <v>0.129145</v>
+        <v>0.128918</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135405</v>
+        <v>0.136955</v>
       </c>
       <c r="C74" t="n">
-        <v>0.141961</v>
+        <v>0.144055</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130909</v>
+        <v>0.1314</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.146552</v>
+        <v>0.147535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.147964</v>
+        <v>0.1486</v>
       </c>
       <c r="D75" t="n">
-        <v>0.132834</v>
+        <v>0.133463</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.164409</v>
+        <v>0.163741</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157456</v>
+        <v>0.158002</v>
       </c>
       <c r="D76" t="n">
-        <v>0.135267</v>
+        <v>0.136885</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180997</v>
+        <v>0.183555</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17173</v>
+        <v>0.171861</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141661</v>
+        <v>0.141974</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.209189</v>
+        <v>0.213941</v>
       </c>
       <c r="C78" t="n">
-        <v>0.191848</v>
+        <v>0.190912</v>
       </c>
       <c r="D78" t="n">
-        <v>0.149193</v>
+        <v>0.148531</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253313</v>
+        <v>0.245338</v>
       </c>
       <c r="C79" t="n">
-        <v>0.224364</v>
+        <v>0.22324</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165433</v>
+        <v>0.163929</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.303108</v>
+        <v>0.29626</v>
       </c>
       <c r="C80" t="n">
-        <v>0.273572</v>
+        <v>0.274266</v>
       </c>
       <c r="D80" t="n">
-        <v>0.13533</v>
+        <v>0.134987</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120117</v>
+        <v>0.120468</v>
       </c>
       <c r="C81" t="n">
-        <v>0.135427</v>
+        <v>0.135843</v>
       </c>
       <c r="D81" t="n">
-        <v>0.135537</v>
+        <v>0.135633</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123278</v>
+        <v>0.121722</v>
       </c>
       <c r="C82" t="n">
-        <v>0.137745</v>
+        <v>0.136754</v>
       </c>
       <c r="D82" t="n">
-        <v>0.135669</v>
+        <v>0.135862</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12535</v>
+        <v>0.124977</v>
       </c>
       <c r="C83" t="n">
-        <v>0.139023</v>
+        <v>0.138184</v>
       </c>
       <c r="D83" t="n">
-        <v>0.135774</v>
+        <v>0.135683</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128295</v>
+        <v>0.126623</v>
       </c>
       <c r="C84" t="n">
-        <v>0.141247</v>
+        <v>0.140448</v>
       </c>
       <c r="D84" t="n">
-        <v>0.137585</v>
+        <v>0.137023</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130736</v>
+        <v>0.129743</v>
       </c>
       <c r="C85" t="n">
-        <v>0.143596</v>
+        <v>0.142796</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138292</v>
+        <v>0.138076</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134472</v>
+        <v>0.135171</v>
       </c>
       <c r="C86" t="n">
-        <v>0.145734</v>
+        <v>0.146192</v>
       </c>
       <c r="D86" t="n">
-        <v>0.138943</v>
+        <v>0.138587</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142178</v>
+        <v>0.142308</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150566</v>
+        <v>0.150211</v>
       </c>
       <c r="D87" t="n">
-        <v>0.140314</v>
+        <v>0.140401</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.14952</v>
+        <v>0.150304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.156564</v>
+        <v>0.156153</v>
       </c>
       <c r="D88" t="n">
-        <v>0.140911</v>
+        <v>0.141794</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161363</v>
+        <v>0.159635</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164525</v>
+        <v>0.164146</v>
       </c>
       <c r="D89" t="n">
-        <v>0.144776</v>
+        <v>0.144908</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.174729</v>
+        <v>0.175494</v>
       </c>
       <c r="C90" t="n">
-        <v>0.176951</v>
+        <v>0.176052</v>
       </c>
       <c r="D90" t="n">
-        <v>0.148028</v>
+        <v>0.146719</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196281</v>
+        <v>0.196014</v>
       </c>
       <c r="C91" t="n">
-        <v>0.192766</v>
+        <v>0.194989</v>
       </c>
       <c r="D91" t="n">
-        <v>0.153643</v>
+        <v>0.153001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.223568</v>
+        <v>0.224957</v>
       </c>
       <c r="C92" t="n">
-        <v>0.217861</v>
+        <v>0.214507</v>
       </c>
       <c r="D92" t="n">
-        <v>0.161673</v>
+        <v>0.161584</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.268245</v>
+        <v>0.258525</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250965</v>
+        <v>0.251792</v>
       </c>
       <c r="D93" t="n">
-        <v>0.176672</v>
+        <v>0.17617</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.324109</v>
+        <v>0.318917</v>
       </c>
       <c r="C94" t="n">
-        <v>0.304176</v>
+        <v>0.303002</v>
       </c>
       <c r="D94" t="n">
-        <v>0.141478</v>
+        <v>0.14045</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13035</v>
+        <v>0.128211</v>
       </c>
       <c r="C95" t="n">
-        <v>0.155561</v>
+        <v>0.155364</v>
       </c>
       <c r="D95" t="n">
-        <v>0.143434</v>
+        <v>0.141533</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.131203</v>
+        <v>0.132545</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160138</v>
+        <v>0.159652</v>
       </c>
       <c r="D96" t="n">
-        <v>0.145647</v>
+        <v>0.14578</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.134999</v>
+        <v>0.13427</v>
       </c>
       <c r="C97" t="n">
-        <v>0.165107</v>
+        <v>0.165208</v>
       </c>
       <c r="D97" t="n">
-        <v>0.146588</v>
+        <v>0.146243</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.140446</v>
+        <v>0.139751</v>
       </c>
       <c r="C98" t="n">
-        <v>0.170477</v>
+        <v>0.170353</v>
       </c>
       <c r="D98" t="n">
-        <v>0.148558</v>
+        <v>0.147771</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145894</v>
+        <v>0.144638</v>
       </c>
       <c r="C99" t="n">
-        <v>0.177106</v>
+        <v>0.17689</v>
       </c>
       <c r="D99" t="n">
-        <v>0.149682</v>
+        <v>0.150787</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153148</v>
+        <v>0.152434</v>
       </c>
       <c r="C100" t="n">
-        <v>0.18388</v>
+        <v>0.183218</v>
       </c>
       <c r="D100" t="n">
-        <v>0.153173</v>
+        <v>0.154222</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160836</v>
+        <v>0.160614</v>
       </c>
       <c r="C101" t="n">
-        <v>0.191476</v>
+        <v>0.191465</v>
       </c>
       <c r="D101" t="n">
-        <v>0.156758</v>
+        <v>0.157526</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.172849</v>
+        <v>0.172599</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201202</v>
+        <v>0.201437</v>
       </c>
       <c r="D102" t="n">
-        <v>0.162942</v>
+        <v>0.161945</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.184911</v>
+        <v>0.188003</v>
       </c>
       <c r="C103" t="n">
-        <v>0.212144</v>
+        <v>0.212499</v>
       </c>
       <c r="D103" t="n">
-        <v>0.167187</v>
+        <v>0.168408</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.205893</v>
+        <v>0.20299</v>
       </c>
       <c r="C104" t="n">
-        <v>0.22596</v>
+        <v>0.226552</v>
       </c>
       <c r="D104" t="n">
-        <v>0.175279</v>
+        <v>0.174118</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.230815</v>
+        <v>0.226405</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243763</v>
+        <v>0.243899</v>
       </c>
       <c r="D105" t="n">
-        <v>0.183656</v>
+        <v>0.184168</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257245</v>
+        <v>0.263848</v>
       </c>
       <c r="C106" t="n">
-        <v>0.267353</v>
+        <v>0.268007</v>
       </c>
       <c r="D106" t="n">
-        <v>0.195246</v>
+        <v>0.19652</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.30803</v>
+        <v>0.302909</v>
       </c>
       <c r="C107" t="n">
-        <v>0.302255</v>
+        <v>0.301999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212592</v>
+        <v>0.212781</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.362012</v>
+        <v>0.373076</v>
       </c>
       <c r="C108" t="n">
-        <v>0.356115</v>
+        <v>0.355947</v>
       </c>
       <c r="D108" t="n">
-        <v>0.161653</v>
+        <v>0.161918</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.455508</v>
+        <v>0.457123</v>
       </c>
       <c r="C109" t="n">
-        <v>0.444114</v>
+        <v>0.441976</v>
       </c>
       <c r="D109" t="n">
-        <v>0.164331</v>
+        <v>0.16428</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154669</v>
+        <v>0.156415</v>
       </c>
       <c r="C110" t="n">
-        <v>0.193444</v>
+        <v>0.193408</v>
       </c>
       <c r="D110" t="n">
-        <v>0.166877</v>
+        <v>0.166737</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.160153</v>
+        <v>0.160436</v>
       </c>
       <c r="C111" t="n">
-        <v>0.197681</v>
+        <v>0.197456</v>
       </c>
       <c r="D111" t="n">
-        <v>0.169553</v>
+        <v>0.170996</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.164999</v>
+        <v>0.164338</v>
       </c>
       <c r="C112" t="n">
-        <v>0.20159</v>
+        <v>0.2019</v>
       </c>
       <c r="D112" t="n">
-        <v>0.173372</v>
+        <v>0.171844</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.17065</v>
+        <v>0.170578</v>
       </c>
       <c r="C113" t="n">
-        <v>0.206697</v>
+        <v>0.206668</v>
       </c>
       <c r="D113" t="n">
-        <v>0.177377</v>
+        <v>0.174764</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.176953</v>
+        <v>0.175769</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212406</v>
+        <v>0.212731</v>
       </c>
       <c r="D114" t="n">
-        <v>0.177618</v>
+        <v>0.177565</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182813</v>
+        <v>0.18524</v>
       </c>
       <c r="C115" t="n">
-        <v>0.218524</v>
+        <v>0.218901</v>
       </c>
       <c r="D115" t="n">
-        <v>0.182461</v>
+        <v>0.181499</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.192869</v>
+        <v>0.194133</v>
       </c>
       <c r="C116" t="n">
-        <v>0.226483</v>
+        <v>0.226896</v>
       </c>
       <c r="D116" t="n">
-        <v>0.185845</v>
+        <v>0.184326</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206786</v>
+        <v>0.20513</v>
       </c>
       <c r="C117" t="n">
-        <v>0.236669</v>
+        <v>0.23672</v>
       </c>
       <c r="D117" t="n">
-        <v>0.188604</v>
+        <v>0.189699</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221169</v>
+        <v>0.224995</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249695</v>
+        <v>0.249779</v>
       </c>
       <c r="D118" t="n">
-        <v>0.19464</v>
+        <v>0.193814</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.247151</v>
+        <v>0.242415</v>
       </c>
       <c r="C119" t="n">
-        <v>0.266504</v>
+        <v>0.267002</v>
       </c>
       <c r="D119" t="n">
-        <v>0.202233</v>
+        <v>0.202167</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.277726</v>
+        <v>0.277727</v>
       </c>
       <c r="C120" t="n">
-        <v>0.290016</v>
+        <v>0.289964</v>
       </c>
       <c r="D120" t="n">
-        <v>0.211108</v>
+        <v>0.21081</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.320462</v>
+        <v>0.315719</v>
       </c>
       <c r="C121" t="n">
-        <v>0.324076</v>
+        <v>0.32341</v>
       </c>
       <c r="D121" t="n">
-        <v>0.226108</v>
+        <v>0.225613</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.381856</v>
+        <v>0.381138</v>
       </c>
       <c r="C122" t="n">
-        <v>0.375896</v>
+        <v>0.376508</v>
       </c>
       <c r="D122" t="n">
-        <v>0.251972</v>
+        <v>0.251798</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473373</v>
+        <v>0.471742</v>
       </c>
       <c r="C123" t="n">
-        <v>0.461804</v>
+        <v>0.46226</v>
       </c>
       <c r="D123" t="n">
-        <v>0.183309</v>
+        <v>0.183814</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170242</v>
+        <v>0.172015</v>
       </c>
       <c r="C124" t="n">
-        <v>0.214487</v>
+        <v>0.213384</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185205</v>
+        <v>0.18599</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173012</v>
+        <v>0.18013</v>
       </c>
       <c r="C125" t="n">
-        <v>0.220726</v>
+        <v>0.219219</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188483</v>
+        <v>0.187223</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180289</v>
+        <v>0.18031</v>
       </c>
       <c r="C126" t="n">
-        <v>0.226134</v>
+        <v>0.223867</v>
       </c>
       <c r="D126" t="n">
-        <v>0.195193</v>
+        <v>0.19125</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.18459</v>
+        <v>0.187242</v>
       </c>
       <c r="C127" t="n">
-        <v>0.231387</v>
+        <v>0.228234</v>
       </c>
       <c r="D127" t="n">
-        <v>0.195394</v>
+        <v>0.192261</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.191549</v>
+        <v>0.189867</v>
       </c>
       <c r="C128" t="n">
-        <v>0.235917</v>
+        <v>0.234762</v>
       </c>
       <c r="D128" t="n">
-        <v>0.193999</v>
+        <v>0.19672</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.197055</v>
+        <v>0.196932</v>
       </c>
       <c r="C129" t="n">
-        <v>0.240488</v>
+        <v>0.241665</v>
       </c>
       <c r="D129" t="n">
-        <v>0.201334</v>
+        <v>0.20041</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210072</v>
+        <v>0.207643</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249983</v>
+        <v>0.250141</v>
       </c>
       <c r="D130" t="n">
-        <v>0.202544</v>
+        <v>0.200052</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.223088</v>
+        <v>0.219633</v>
       </c>
       <c r="C131" t="n">
-        <v>0.259431</v>
+        <v>0.257849</v>
       </c>
       <c r="D131" t="n">
-        <v>0.209004</v>
+        <v>0.203258</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.237559</v>
+        <v>0.237408</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273711</v>
+        <v>0.273323</v>
       </c>
       <c r="D132" t="n">
-        <v>0.211545</v>
+        <v>0.209706</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258742</v>
+        <v>0.257083</v>
       </c>
       <c r="C133" t="n">
-        <v>0.288817</v>
+        <v>0.295098</v>
       </c>
       <c r="D133" t="n">
-        <v>0.218254</v>
+        <v>0.219247</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292596</v>
+        <v>0.289996</v>
       </c>
       <c r="C134" t="n">
-        <v>0.315622</v>
+        <v>0.314352</v>
       </c>
       <c r="D134" t="n">
-        <v>0.228097</v>
+        <v>0.231306</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324709</v>
+        <v>0.331201</v>
       </c>
       <c r="C135" t="n">
-        <v>0.347083</v>
+        <v>0.348584</v>
       </c>
       <c r="D135" t="n">
-        <v>0.243094</v>
+        <v>0.245395</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.390619</v>
+        <v>0.391116</v>
       </c>
       <c r="C136" t="n">
-        <v>0.398712</v>
+        <v>0.396686</v>
       </c>
       <c r="D136" t="n">
-        <v>0.265578</v>
+        <v>0.265316</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.486578</v>
+        <v>0.481272</v>
       </c>
       <c r="C137" t="n">
-        <v>0.478045</v>
+        <v>0.476702</v>
       </c>
       <c r="D137" t="n">
-        <v>0.322204</v>
+        <v>0.318004</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311882</v>
+        <v>0.314071</v>
       </c>
       <c r="C138" t="n">
-        <v>0.349707</v>
+        <v>0.353741</v>
       </c>
       <c r="D138" t="n">
-        <v>0.323936</v>
+        <v>0.319075</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319694</v>
+        <v>0.315885</v>
       </c>
       <c r="C139" t="n">
-        <v>0.357406</v>
+        <v>0.357346</v>
       </c>
       <c r="D139" t="n">
-        <v>0.325324</v>
+        <v>0.323493</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.322371</v>
+        <v>0.323787</v>
       </c>
       <c r="C140" t="n">
-        <v>0.362413</v>
+        <v>0.363448</v>
       </c>
       <c r="D140" t="n">
-        <v>0.32809</v>
+        <v>0.328296</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328268</v>
+        <v>0.327896</v>
       </c>
       <c r="C141" t="n">
-        <v>0.365028</v>
+        <v>0.36635</v>
       </c>
       <c r="D141" t="n">
-        <v>0.332604</v>
+        <v>0.325846</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332007</v>
+        <v>0.334656</v>
       </c>
       <c r="C142" t="n">
-        <v>0.374188</v>
+        <v>0.371594</v>
       </c>
       <c r="D142" t="n">
-        <v>0.328838</v>
+        <v>0.332683</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.337866</v>
+        <v>0.338644</v>
       </c>
       <c r="C143" t="n">
-        <v>0.37935</v>
+        <v>0.376484</v>
       </c>
       <c r="D143" t="n">
-        <v>0.336152</v>
+        <v>0.334959</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09379709999999999</v>
+        <v>0.0932785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11415</v>
+        <v>0.113325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113654</v>
+        <v>0.113964</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0976611</v>
+        <v>0.09687229999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.116348</v>
+        <v>0.115394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114603</v>
+        <v>0.114867</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.106213</v>
+        <v>0.104131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.121085</v>
+        <v>0.119772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116323</v>
+        <v>0.116502</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123722</v>
+        <v>0.121847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.129003</v>
+        <v>0.127454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119009</v>
+        <v>0.119314</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147951</v>
+        <v>0.145413</v>
       </c>
       <c r="C6" t="n">
-        <v>0.140726</v>
+        <v>0.139507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122427</v>
+        <v>0.122754</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181777</v>
+        <v>0.180739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15975</v>
+        <v>0.159643</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128163</v>
+        <v>0.128933</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.216404</v>
+        <v>0.218534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200796</v>
+        <v>0.201421</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14085</v>
+        <v>0.140833</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261475</v>
+        <v>0.26325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244732</v>
+        <v>0.247453</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10979</v>
+        <v>0.109854</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0861632</v>
+        <v>0.08590830000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.106142</v>
+        <v>0.105701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110132</v>
+        <v>0.110253</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08721329999999999</v>
+        <v>0.0865764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106801</v>
+        <v>0.106381</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11044</v>
+        <v>0.110562</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.088544</v>
+        <v>0.08803519999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107643</v>
+        <v>0.107156</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110868</v>
+        <v>0.110989</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0898158</v>
+        <v>0.0891371</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108982</v>
+        <v>0.108033</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111295</v>
+        <v>0.111436</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0918846</v>
+        <v>0.09112960000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11023</v>
+        <v>0.109705</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111875</v>
+        <v>0.112045</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.095679</v>
+        <v>0.09493740000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112458</v>
+        <v>0.111804</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112543</v>
+        <v>0.112686</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.10206</v>
+        <v>0.10104</v>
       </c>
       <c r="C16" t="n">
-        <v>0.117036</v>
+        <v>0.1155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113622</v>
+        <v>0.113792</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109983</v>
+        <v>0.108644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119311</v>
+        <v>0.118772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114831</v>
+        <v>0.115087</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.122341</v>
+        <v>0.120559</v>
       </c>
       <c r="C18" t="n">
-        <v>0.126112</v>
+        <v>0.130376</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116933</v>
+        <v>0.11721</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.138178</v>
+        <v>0.135844</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135429</v>
+        <v>0.135016</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120081</v>
+        <v>0.120337</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.163533</v>
+        <v>0.155885</v>
       </c>
       <c r="C20" t="n">
-        <v>0.14782</v>
+        <v>0.147488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123876</v>
+        <v>0.124312</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185545</v>
+        <v>0.185587</v>
       </c>
       <c r="C21" t="n">
-        <v>0.173005</v>
+        <v>0.166285</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130269</v>
+        <v>0.130813</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228569</v>
+        <v>0.220708</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202956</v>
+        <v>0.20422</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1452</v>
+        <v>0.145639</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263284</v>
+        <v>0.268436</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249479</v>
+        <v>0.252549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111078</v>
+        <v>0.111199</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08985</v>
+        <v>0.0895579</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108955</v>
+        <v>0.108813</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111376</v>
+        <v>0.111491</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0909498</v>
+        <v>0.0906134</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109576</v>
+        <v>0.109528</v>
       </c>
       <c r="D25" t="n">
-        <v>0.111572</v>
+        <v>0.111791</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0924297</v>
+        <v>0.09199690000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1104</v>
+        <v>0.110366</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112037</v>
+        <v>0.112063</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943613</v>
+        <v>0.0937765</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111478</v>
+        <v>0.111336</v>
       </c>
       <c r="D27" t="n">
-        <v>0.112562</v>
+        <v>0.112555</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0974367</v>
+        <v>0.0964293</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1149</v>
+        <v>0.113291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113092</v>
+        <v>0.113111</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.101627</v>
+        <v>0.100454</v>
       </c>
       <c r="C29" t="n">
-        <v>0.115959</v>
+        <v>0.115078</v>
       </c>
       <c r="D29" t="n">
-        <v>0.113552</v>
+        <v>0.11373</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106931</v>
+        <v>0.105541</v>
       </c>
       <c r="C30" t="n">
-        <v>0.118686</v>
+        <v>0.117673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114457</v>
+        <v>0.114583</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114422</v>
+        <v>0.112395</v>
       </c>
       <c r="C31" t="n">
-        <v>0.121438</v>
+        <v>0.121619</v>
       </c>
       <c r="D31" t="n">
-        <v>0.115695</v>
+        <v>0.115952</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.124278</v>
+        <v>0.121984</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126912</v>
+        <v>0.127324</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117585</v>
+        <v>0.11777</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.138349</v>
+        <v>0.135757</v>
       </c>
       <c r="C33" t="n">
-        <v>0.134997</v>
+        <v>0.135697</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120271</v>
+        <v>0.120437</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.156823</v>
+        <v>0.155049</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148983</v>
+        <v>0.150053</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124797</v>
+        <v>0.124894</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179647</v>
+        <v>0.177193</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168299</v>
+        <v>0.169987</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132305</v>
+        <v>0.132596</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.214504</v>
+        <v>0.215672</v>
       </c>
       <c r="C36" t="n">
-        <v>0.196475</v>
+        <v>0.197738</v>
       </c>
       <c r="D36" t="n">
-        <v>0.144865</v>
+        <v>0.145619</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.26505</v>
+        <v>0.258507</v>
       </c>
       <c r="C37" t="n">
-        <v>0.242877</v>
+        <v>0.244747</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112364</v>
+        <v>0.112157</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0929075</v>
+        <v>0.09213979999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.110689</v>
+        <v>0.110698</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112682</v>
+        <v>0.112483</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0941087</v>
+        <v>0.09289169999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.111962</v>
+        <v>0.111696</v>
       </c>
       <c r="D39" t="n">
-        <v>0.112737</v>
+        <v>0.112875</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0954405</v>
+        <v>0.09439989999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.112797</v>
+        <v>0.113068</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113322</v>
+        <v>0.114346</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0983685</v>
+        <v>0.0981042</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114099</v>
+        <v>0.114183</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113849</v>
+        <v>0.113856</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101296</v>
+        <v>0.0993116</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115904</v>
+        <v>0.115398</v>
       </c>
       <c r="D42" t="n">
-        <v>0.114894</v>
+        <v>0.11433</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104462</v>
+        <v>0.103066</v>
       </c>
       <c r="C43" t="n">
-        <v>0.117765</v>
+        <v>0.117487</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115696</v>
+        <v>0.116995</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.10983</v>
+        <v>0.1104</v>
       </c>
       <c r="C44" t="n">
-        <v>0.119939</v>
+        <v>0.119918</v>
       </c>
       <c r="D44" t="n">
-        <v>0.116435</v>
+        <v>0.11598</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116739</v>
+        <v>0.114564</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124313</v>
+        <v>0.123667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117766</v>
+        <v>0.117165</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12698</v>
+        <v>0.122862</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128965</v>
+        <v>0.129119</v>
       </c>
       <c r="D46" t="n">
-        <v>0.118799</v>
+        <v>0.118938</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.138467</v>
+        <v>0.138052</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136566</v>
+        <v>0.136727</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121047</v>
+        <v>0.121235</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153505</v>
+        <v>0.150367</v>
       </c>
       <c r="C48" t="n">
-        <v>0.146936</v>
+        <v>0.147579</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124735</v>
+        <v>0.12516</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175901</v>
+        <v>0.181276</v>
       </c>
       <c r="C49" t="n">
-        <v>0.161433</v>
+        <v>0.162593</v>
       </c>
       <c r="D49" t="n">
-        <v>0.130765</v>
+        <v>0.13132</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.206152</v>
+        <v>0.205343</v>
       </c>
       <c r="C50" t="n">
-        <v>0.185761</v>
+        <v>0.186925</v>
       </c>
       <c r="D50" t="n">
-        <v>0.140813</v>
+        <v>0.142762</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.245425</v>
+        <v>0.247893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224723</v>
+        <v>0.226701</v>
       </c>
       <c r="D51" t="n">
-        <v>0.115426</v>
+        <v>0.114643</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.293948</v>
+        <v>0.293855</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286126</v>
+        <v>0.286075</v>
       </c>
       <c r="D52" t="n">
-        <v>0.115072</v>
+        <v>0.116322</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09793490000000001</v>
+        <v>0.096869</v>
       </c>
       <c r="C53" t="n">
-        <v>0.116027</v>
+        <v>0.116079</v>
       </c>
       <c r="D53" t="n">
-        <v>0.115499</v>
+        <v>0.115297</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0986243</v>
+        <v>0.0991186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.116877</v>
+        <v>0.116064</v>
       </c>
       <c r="D54" t="n">
-        <v>0.116401</v>
+        <v>0.115289</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100818</v>
+        <v>0.100137</v>
       </c>
       <c r="C55" t="n">
-        <v>0.117752</v>
+        <v>0.117272</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115747</v>
+        <v>0.116013</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103988</v>
+        <v>0.101912</v>
       </c>
       <c r="C56" t="n">
-        <v>0.12097</v>
+        <v>0.118777</v>
       </c>
       <c r="D56" t="n">
-        <v>0.117518</v>
+        <v>0.116557</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106734</v>
+        <v>0.106499</v>
       </c>
       <c r="C57" t="n">
-        <v>0.123165</v>
+        <v>0.120473</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118352</v>
+        <v>0.116985</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112525</v>
+        <v>0.112055</v>
       </c>
       <c r="C58" t="n">
-        <v>0.126832</v>
+        <v>0.124283</v>
       </c>
       <c r="D58" t="n">
-        <v>0.120907</v>
+        <v>0.11832</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120251</v>
+        <v>0.116704</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128849</v>
+        <v>0.128177</v>
       </c>
       <c r="D59" t="n">
-        <v>0.120917</v>
+        <v>0.119438</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126617</v>
+        <v>0.126223</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136211</v>
+        <v>0.132392</v>
       </c>
       <c r="D60" t="n">
-        <v>0.123509</v>
+        <v>0.12082</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.138473</v>
+        <v>0.137815</v>
       </c>
       <c r="C61" t="n">
-        <v>0.141126</v>
+        <v>0.141069</v>
       </c>
       <c r="D61" t="n">
-        <v>0.125051</v>
+        <v>0.124427</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.154986</v>
+        <v>0.151256</v>
       </c>
       <c r="C62" t="n">
-        <v>0.152041</v>
+        <v>0.150666</v>
       </c>
       <c r="D62" t="n">
-        <v>0.128071</v>
+        <v>0.128947</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171967</v>
+        <v>0.172256</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1652</v>
+        <v>0.164977</v>
       </c>
       <c r="D63" t="n">
-        <v>0.134385</v>
+        <v>0.133957</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.210229</v>
+        <v>0.208182</v>
       </c>
       <c r="C64" t="n">
-        <v>0.194365</v>
+        <v>0.187029</v>
       </c>
       <c r="D64" t="n">
-        <v>0.142787</v>
+        <v>0.141703</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245388</v>
+        <v>0.242014</v>
       </c>
       <c r="C65" t="n">
-        <v>0.222255</v>
+        <v>0.231969</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158147</v>
+        <v>0.157956</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.298758</v>
+        <v>0.292256</v>
       </c>
       <c r="C66" t="n">
-        <v>0.278119</v>
+        <v>0.279307</v>
       </c>
       <c r="D66" t="n">
-        <v>0.126546</v>
+        <v>0.124266</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107955</v>
+        <v>0.10739</v>
       </c>
       <c r="C67" t="n">
-        <v>0.125906</v>
+        <v>0.124509</v>
       </c>
       <c r="D67" t="n">
-        <v>0.125516</v>
+        <v>0.124556</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109841</v>
+        <v>0.110116</v>
       </c>
       <c r="C68" t="n">
-        <v>0.126588</v>
+        <v>0.12703</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125481</v>
+        <v>0.125776</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112696</v>
+        <v>0.111636</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127067</v>
+        <v>0.12739</v>
       </c>
       <c r="D69" t="n">
-        <v>0.126003</v>
+        <v>0.125784</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114616</v>
+        <v>0.114112</v>
       </c>
       <c r="C70" t="n">
-        <v>0.129249</v>
+        <v>0.128593</v>
       </c>
       <c r="D70" t="n">
-        <v>0.126818</v>
+        <v>0.124881</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.119137</v>
+        <v>0.116175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.130504</v>
+        <v>0.133005</v>
       </c>
       <c r="D71" t="n">
-        <v>0.12656</v>
+        <v>0.127913</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122388</v>
+        <v>0.119975</v>
       </c>
       <c r="C72" t="n">
-        <v>0.133173</v>
+        <v>0.133726</v>
       </c>
       <c r="D72" t="n">
-        <v>0.128049</v>
+        <v>0.128505</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.129128</v>
+        <v>0.128322</v>
       </c>
       <c r="C73" t="n">
-        <v>0.13973</v>
+        <v>0.138232</v>
       </c>
       <c r="D73" t="n">
-        <v>0.128918</v>
+        <v>0.129247</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136955</v>
+        <v>0.137617</v>
       </c>
       <c r="C74" t="n">
-        <v>0.144055</v>
+        <v>0.142954</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1314</v>
+        <v>0.131499</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.147535</v>
+        <v>0.14518</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1486</v>
+        <v>0.150352</v>
       </c>
       <c r="D75" t="n">
-        <v>0.133463</v>
+        <v>0.134205</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.163741</v>
+        <v>0.159155</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158002</v>
+        <v>0.160833</v>
       </c>
       <c r="D76" t="n">
-        <v>0.136885</v>
+        <v>0.136336</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183555</v>
+        <v>0.178482</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171861</v>
+        <v>0.173768</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141974</v>
+        <v>0.141494</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.213941</v>
+        <v>0.207917</v>
       </c>
       <c r="C78" t="n">
-        <v>0.190912</v>
+        <v>0.194246</v>
       </c>
       <c r="D78" t="n">
-        <v>0.148531</v>
+        <v>0.151969</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245338</v>
+        <v>0.254038</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22324</v>
+        <v>0.228528</v>
       </c>
       <c r="D79" t="n">
-        <v>0.163929</v>
+        <v>0.165276</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.29626</v>
+        <v>0.308625</v>
       </c>
       <c r="C80" t="n">
-        <v>0.274266</v>
+        <v>0.278391</v>
       </c>
       <c r="D80" t="n">
-        <v>0.134987</v>
+        <v>0.1348</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120468</v>
+        <v>0.121575</v>
       </c>
       <c r="C81" t="n">
-        <v>0.135843</v>
+        <v>0.137147</v>
       </c>
       <c r="D81" t="n">
-        <v>0.135633</v>
+        <v>0.135691</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121722</v>
+        <v>0.121726</v>
       </c>
       <c r="C82" t="n">
-        <v>0.136754</v>
+        <v>0.139467</v>
       </c>
       <c r="D82" t="n">
-        <v>0.135862</v>
+        <v>0.137086</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124977</v>
+        <v>0.125507</v>
       </c>
       <c r="C83" t="n">
-        <v>0.138184</v>
+        <v>0.141656</v>
       </c>
       <c r="D83" t="n">
-        <v>0.135683</v>
+        <v>0.136897</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126623</v>
+        <v>0.128855</v>
       </c>
       <c r="C84" t="n">
-        <v>0.140448</v>
+        <v>0.143988</v>
       </c>
       <c r="D84" t="n">
-        <v>0.137023</v>
+        <v>0.137444</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129743</v>
+        <v>0.130689</v>
       </c>
       <c r="C85" t="n">
-        <v>0.142796</v>
+        <v>0.146326</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138076</v>
+        <v>0.139075</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.135171</v>
+        <v>0.137857</v>
       </c>
       <c r="C86" t="n">
-        <v>0.146192</v>
+        <v>0.151067</v>
       </c>
       <c r="D86" t="n">
-        <v>0.138587</v>
+        <v>0.139992</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142308</v>
+        <v>0.141237</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150211</v>
+        <v>0.15633</v>
       </c>
       <c r="D87" t="n">
-        <v>0.140401</v>
+        <v>0.142213</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150304</v>
+        <v>0.150911</v>
       </c>
       <c r="C88" t="n">
-        <v>0.156153</v>
+        <v>0.162304</v>
       </c>
       <c r="D88" t="n">
-        <v>0.141794</v>
+        <v>0.14517</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.159635</v>
+        <v>0.161781</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164146</v>
+        <v>0.172242</v>
       </c>
       <c r="D89" t="n">
-        <v>0.144908</v>
+        <v>0.148105</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.175494</v>
+        <v>0.180951</v>
       </c>
       <c r="C90" t="n">
-        <v>0.176052</v>
+        <v>0.183483</v>
       </c>
       <c r="D90" t="n">
-        <v>0.146719</v>
+        <v>0.15338</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196014</v>
+        <v>0.195331</v>
       </c>
       <c r="C91" t="n">
-        <v>0.194989</v>
+        <v>0.198898</v>
       </c>
       <c r="D91" t="n">
-        <v>0.153001</v>
+        <v>0.158527</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.224957</v>
+        <v>0.227762</v>
       </c>
       <c r="C92" t="n">
-        <v>0.214507</v>
+        <v>0.220542</v>
       </c>
       <c r="D92" t="n">
-        <v>0.161584</v>
+        <v>0.168466</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.258525</v>
+        <v>0.267384</v>
       </c>
       <c r="C93" t="n">
-        <v>0.251792</v>
+        <v>0.25418</v>
       </c>
       <c r="D93" t="n">
-        <v>0.17617</v>
+        <v>0.184509</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.318917</v>
+        <v>0.325206</v>
       </c>
       <c r="C94" t="n">
-        <v>0.303002</v>
+        <v>0.305201</v>
       </c>
       <c r="D94" t="n">
-        <v>0.14045</v>
+        <v>0.146157</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128211</v>
+        <v>0.134792</v>
       </c>
       <c r="C95" t="n">
-        <v>0.155364</v>
+        <v>0.159325</v>
       </c>
       <c r="D95" t="n">
-        <v>0.141533</v>
+        <v>0.148816</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.132545</v>
+        <v>0.1384</v>
       </c>
       <c r="C96" t="n">
-        <v>0.159652</v>
+        <v>0.162812</v>
       </c>
       <c r="D96" t="n">
-        <v>0.14578</v>
+        <v>0.150148</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.13427</v>
+        <v>0.141007</v>
       </c>
       <c r="C97" t="n">
-        <v>0.165208</v>
+        <v>0.165922</v>
       </c>
       <c r="D97" t="n">
-        <v>0.146243</v>
+        <v>0.152031</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.139751</v>
+        <v>0.143307</v>
       </c>
       <c r="C98" t="n">
-        <v>0.170353</v>
+        <v>0.169536</v>
       </c>
       <c r="D98" t="n">
-        <v>0.147771</v>
+        <v>0.15354</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144638</v>
+        <v>0.147803</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17689</v>
+        <v>0.173378</v>
       </c>
       <c r="D99" t="n">
-        <v>0.150787</v>
+        <v>0.155516</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152434</v>
+        <v>0.155905</v>
       </c>
       <c r="C100" t="n">
-        <v>0.183218</v>
+        <v>0.178334</v>
       </c>
       <c r="D100" t="n">
-        <v>0.154222</v>
+        <v>0.157897</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160614</v>
+        <v>0.160355</v>
       </c>
       <c r="C101" t="n">
-        <v>0.191465</v>
+        <v>0.184431</v>
       </c>
       <c r="D101" t="n">
-        <v>0.157526</v>
+        <v>0.160448</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.172599</v>
+        <v>0.170015</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201437</v>
+        <v>0.19198</v>
       </c>
       <c r="D102" t="n">
-        <v>0.161945</v>
+        <v>0.163722</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.188003</v>
+        <v>0.179793</v>
       </c>
       <c r="C103" t="n">
-        <v>0.212499</v>
+        <v>0.203237</v>
       </c>
       <c r="D103" t="n">
-        <v>0.168408</v>
+        <v>0.166771</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.20299</v>
+        <v>0.194993</v>
       </c>
       <c r="C104" t="n">
-        <v>0.226552</v>
+        <v>0.218614</v>
       </c>
       <c r="D104" t="n">
-        <v>0.174118</v>
+        <v>0.17159</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.226405</v>
+        <v>0.219161</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243899</v>
+        <v>0.237435</v>
       </c>
       <c r="D105" t="n">
-        <v>0.184168</v>
+        <v>0.177973</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.263848</v>
+        <v>0.253361</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268007</v>
+        <v>0.262948</v>
       </c>
       <c r="D106" t="n">
-        <v>0.19652</v>
+        <v>0.190463</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302909</v>
+        <v>0.299196</v>
       </c>
       <c r="C107" t="n">
-        <v>0.301999</v>
+        <v>0.299181</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212781</v>
+        <v>0.207617</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.373076</v>
+        <v>0.361023</v>
       </c>
       <c r="C108" t="n">
-        <v>0.355947</v>
+        <v>0.354809</v>
       </c>
       <c r="D108" t="n">
-        <v>0.161918</v>
+        <v>0.159698</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.457123</v>
+        <v>0.45223</v>
       </c>
       <c r="C109" t="n">
-        <v>0.441976</v>
+        <v>0.442537</v>
       </c>
       <c r="D109" t="n">
-        <v>0.16428</v>
+        <v>0.162195</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.156415</v>
+        <v>0.15249</v>
       </c>
       <c r="C110" t="n">
-        <v>0.193408</v>
+        <v>0.192181</v>
       </c>
       <c r="D110" t="n">
-        <v>0.166737</v>
+        <v>0.16568</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.160436</v>
+        <v>0.15962</v>
       </c>
       <c r="C111" t="n">
-        <v>0.197456</v>
+        <v>0.196758</v>
       </c>
       <c r="D111" t="n">
-        <v>0.170996</v>
+        <v>0.168167</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.164338</v>
+        <v>0.164256</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2019</v>
+        <v>0.201311</v>
       </c>
       <c r="D112" t="n">
-        <v>0.171844</v>
+        <v>0.171397</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.170578</v>
+        <v>0.167955</v>
       </c>
       <c r="C113" t="n">
-        <v>0.206668</v>
+        <v>0.206027</v>
       </c>
       <c r="D113" t="n">
-        <v>0.174764</v>
+        <v>0.174375</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.175769</v>
+        <v>0.174445</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212731</v>
+        <v>0.211752</v>
       </c>
       <c r="D114" t="n">
-        <v>0.177565</v>
+        <v>0.177371</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.18524</v>
+        <v>0.181894</v>
       </c>
       <c r="C115" t="n">
-        <v>0.218901</v>
+        <v>0.218005</v>
       </c>
       <c r="D115" t="n">
-        <v>0.181499</v>
+        <v>0.180737</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.194133</v>
+        <v>0.192035</v>
       </c>
       <c r="C116" t="n">
-        <v>0.226896</v>
+        <v>0.226059</v>
       </c>
       <c r="D116" t="n">
-        <v>0.184326</v>
+        <v>0.185619</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20513</v>
+        <v>0.204579</v>
       </c>
       <c r="C117" t="n">
-        <v>0.23672</v>
+        <v>0.236157</v>
       </c>
       <c r="D117" t="n">
-        <v>0.189699</v>
+        <v>0.188497</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.224995</v>
+        <v>0.220123</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249779</v>
+        <v>0.248515</v>
       </c>
       <c r="D118" t="n">
-        <v>0.193814</v>
+        <v>0.194865</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.242415</v>
+        <v>0.240071</v>
       </c>
       <c r="C119" t="n">
-        <v>0.267002</v>
+        <v>0.266056</v>
       </c>
       <c r="D119" t="n">
-        <v>0.202167</v>
+        <v>0.200773</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.277727</v>
+        <v>0.269245</v>
       </c>
       <c r="C120" t="n">
-        <v>0.289964</v>
+        <v>0.288633</v>
       </c>
       <c r="D120" t="n">
-        <v>0.21081</v>
+        <v>0.211528</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315719</v>
+        <v>0.311463</v>
       </c>
       <c r="C121" t="n">
-        <v>0.32341</v>
+        <v>0.322929</v>
       </c>
       <c r="D121" t="n">
-        <v>0.225613</v>
+        <v>0.22625</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.381138</v>
+        <v>0.373862</v>
       </c>
       <c r="C122" t="n">
-        <v>0.376508</v>
+        <v>0.376351</v>
       </c>
       <c r="D122" t="n">
-        <v>0.251798</v>
+        <v>0.250469</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471742</v>
+        <v>0.473024</v>
       </c>
       <c r="C123" t="n">
-        <v>0.46226</v>
+        <v>0.463102</v>
       </c>
       <c r="D123" t="n">
-        <v>0.183814</v>
+        <v>0.187098</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172015</v>
+        <v>0.170814</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213384</v>
+        <v>0.214041</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18599</v>
+        <v>0.186118</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.18013</v>
+        <v>0.178325</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219219</v>
+        <v>0.224176</v>
       </c>
       <c r="D125" t="n">
-        <v>0.187223</v>
+        <v>0.189649</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.18031</v>
+        <v>0.179383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.223867</v>
+        <v>0.230101</v>
       </c>
       <c r="D126" t="n">
-        <v>0.19125</v>
+        <v>0.188755</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.187242</v>
+        <v>0.183587</v>
       </c>
       <c r="C127" t="n">
-        <v>0.228234</v>
+        <v>0.230207</v>
       </c>
       <c r="D127" t="n">
-        <v>0.192261</v>
+        <v>0.192666</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.189867</v>
+        <v>0.192462</v>
       </c>
       <c r="C128" t="n">
-        <v>0.234762</v>
+        <v>0.233876</v>
       </c>
       <c r="D128" t="n">
-        <v>0.19672</v>
+        <v>0.197144</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.196932</v>
+        <v>0.197998</v>
       </c>
       <c r="C129" t="n">
-        <v>0.241665</v>
+        <v>0.240564</v>
       </c>
       <c r="D129" t="n">
-        <v>0.20041</v>
+        <v>0.200297</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207643</v>
+        <v>0.207556</v>
       </c>
       <c r="C130" t="n">
-        <v>0.250141</v>
+        <v>0.250801</v>
       </c>
       <c r="D130" t="n">
-        <v>0.200052</v>
+        <v>0.200381</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219633</v>
+        <v>0.219378</v>
       </c>
       <c r="C131" t="n">
-        <v>0.257849</v>
+        <v>0.2572</v>
       </c>
       <c r="D131" t="n">
-        <v>0.203258</v>
+        <v>0.204107</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.237408</v>
+        <v>0.238191</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273323</v>
+        <v>0.275842</v>
       </c>
       <c r="D132" t="n">
-        <v>0.209706</v>
+        <v>0.213106</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257083</v>
+        <v>0.256077</v>
       </c>
       <c r="C133" t="n">
-        <v>0.295098</v>
+        <v>0.290605</v>
       </c>
       <c r="D133" t="n">
-        <v>0.219247</v>
+        <v>0.220433</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.289996</v>
+        <v>0.286302</v>
       </c>
       <c r="C134" t="n">
-        <v>0.314352</v>
+        <v>0.313851</v>
       </c>
       <c r="D134" t="n">
-        <v>0.231306</v>
+        <v>0.229034</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.331201</v>
+        <v>0.327006</v>
       </c>
       <c r="C135" t="n">
-        <v>0.348584</v>
+        <v>0.347785</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245395</v>
+        <v>0.245367</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.391116</v>
+        <v>0.387176</v>
       </c>
       <c r="C136" t="n">
-        <v>0.396686</v>
+        <v>0.396229</v>
       </c>
       <c r="D136" t="n">
-        <v>0.265316</v>
+        <v>0.268016</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481272</v>
+        <v>0.489045</v>
       </c>
       <c r="C137" t="n">
-        <v>0.476702</v>
+        <v>0.477616</v>
       </c>
       <c r="D137" t="n">
-        <v>0.318004</v>
+        <v>0.322732</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314071</v>
+        <v>0.309836</v>
       </c>
       <c r="C138" t="n">
-        <v>0.353741</v>
+        <v>0.35415</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319075</v>
+        <v>0.320405</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.315885</v>
+        <v>0.315651</v>
       </c>
       <c r="C139" t="n">
-        <v>0.357346</v>
+        <v>0.357106</v>
       </c>
       <c r="D139" t="n">
-        <v>0.323493</v>
+        <v>0.324679</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323787</v>
+        <v>0.317154</v>
       </c>
       <c r="C140" t="n">
-        <v>0.363448</v>
+        <v>0.360731</v>
       </c>
       <c r="D140" t="n">
-        <v>0.328296</v>
+        <v>0.327405</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327896</v>
+        <v>0.326339</v>
       </c>
       <c r="C141" t="n">
-        <v>0.36635</v>
+        <v>0.366883</v>
       </c>
       <c r="D141" t="n">
-        <v>0.325846</v>
+        <v>0.336707</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.334656</v>
+        <v>0.331377</v>
       </c>
       <c r="C142" t="n">
-        <v>0.371594</v>
+        <v>0.373991</v>
       </c>
       <c r="D142" t="n">
-        <v>0.332683</v>
+        <v>0.331185</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338644</v>
+        <v>0.337637</v>
       </c>
       <c r="C143" t="n">
-        <v>0.376484</v>
+        <v>0.381165</v>
       </c>
       <c r="D143" t="n">
-        <v>0.334959</v>
+        <v>0.333527</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0932785</v>
+        <v>0.0934577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113325</v>
+        <v>0.113254</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113964</v>
+        <v>0.113971</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09687229999999999</v>
+        <v>0.0969207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115394</v>
+        <v>0.115404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114867</v>
+        <v>0.114873</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.104131</v>
+        <v>0.10433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119772</v>
+        <v>0.119763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116502</v>
+        <v>0.116472</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121847</v>
+        <v>0.121371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127454</v>
+        <v>0.127366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119314</v>
+        <v>0.119243</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145413</v>
+        <v>0.144934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.139507</v>
+        <v>0.139414</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122754</v>
+        <v>0.122737</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180739</v>
+        <v>0.180556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159643</v>
+        <v>0.159526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128933</v>
+        <v>0.128873</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218534</v>
+        <v>0.218734</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201421</v>
+        <v>0.201487</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140833</v>
+        <v>0.140789</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.26325</v>
+        <v>0.270234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.247453</v>
+        <v>0.247117</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109854</v>
+        <v>0.109909</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08590830000000001</v>
+        <v>0.0856379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.105701</v>
+        <v>0.105581</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110253</v>
+        <v>0.110235</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865764</v>
+        <v>0.0862629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106381</v>
+        <v>0.106364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110562</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08803519999999999</v>
+        <v>0.0875722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107156</v>
+        <v>0.10812</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110989</v>
+        <v>0.110944</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0891371</v>
+        <v>0.0891193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108033</v>
+        <v>0.10813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111436</v>
+        <v>0.111396</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09112960000000001</v>
+        <v>0.0910617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.109705</v>
+        <v>0.111525</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112045</v>
+        <v>0.112004</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09493740000000001</v>
+        <v>0.09496259999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111804</v>
+        <v>0.111798</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112686</v>
+        <v>0.112685</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.10104</v>
+        <v>0.100601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1155</v>
+        <v>0.118105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113792</v>
+        <v>0.113796</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108644</v>
+        <v>0.108434</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118772</v>
+        <v>0.118848</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115087</v>
+        <v>0.115013</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120559</v>
+        <v>0.120085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.130376</v>
+        <v>0.127078</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11721</v>
+        <v>0.117231</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135844</v>
+        <v>0.135721</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135016</v>
+        <v>0.136838</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120337</v>
+        <v>0.120378</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155885</v>
+        <v>0.158858</v>
       </c>
       <c r="C20" t="n">
-        <v>0.147488</v>
+        <v>0.147745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124312</v>
+        <v>0.124352</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185587</v>
+        <v>0.185652</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166285</v>
+        <v>0.166436</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130813</v>
+        <v>0.130915</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.220708</v>
+        <v>0.228914</v>
       </c>
       <c r="C22" t="n">
-        <v>0.20422</v>
+        <v>0.204201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145639</v>
+        <v>0.145765</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.268436</v>
+        <v>0.265406</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252549</v>
+        <v>0.252125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111199</v>
+        <v>0.113475</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0895579</v>
+        <v>0.0896685</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108813</v>
+        <v>0.109156</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111491</v>
+        <v>0.111606</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0906134</v>
+        <v>0.09072719999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109528</v>
+        <v>0.110242</v>
       </c>
       <c r="D25" t="n">
-        <v>0.111791</v>
+        <v>0.113209</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09199690000000001</v>
+        <v>0.0920546</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110366</v>
+        <v>0.110684</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112063</v>
+        <v>0.112236</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0937765</v>
+        <v>0.0943943</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111336</v>
+        <v>0.111658</v>
       </c>
       <c r="D27" t="n">
-        <v>0.112555</v>
+        <v>0.114557</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0964293</v>
+        <v>0.09651709999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113291</v>
+        <v>0.113381</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113111</v>
+        <v>0.113186</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100454</v>
+        <v>0.10053</v>
       </c>
       <c r="C29" t="n">
-        <v>0.115078</v>
+        <v>0.115244</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11373</v>
+        <v>0.113712</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.105541</v>
+        <v>0.106352</v>
       </c>
       <c r="C30" t="n">
-        <v>0.117673</v>
+        <v>0.117852</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114583</v>
+        <v>0.114621</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112395</v>
+        <v>0.112535</v>
       </c>
       <c r="C31" t="n">
-        <v>0.121619</v>
+        <v>0.12181</v>
       </c>
       <c r="D31" t="n">
-        <v>0.115952</v>
+        <v>0.116061</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121984</v>
+        <v>0.122129</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127324</v>
+        <v>0.128643</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11777</v>
+        <v>0.118107</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135757</v>
+        <v>0.135963</v>
       </c>
       <c r="C33" t="n">
-        <v>0.135697</v>
+        <v>0.135784</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120437</v>
+        <v>0.120468</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155049</v>
+        <v>0.154402</v>
       </c>
       <c r="C34" t="n">
-        <v>0.150053</v>
+        <v>0.150235</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124894</v>
+        <v>0.125134</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177193</v>
+        <v>0.177277</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169987</v>
+        <v>0.17002</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132596</v>
+        <v>0.132602</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.215672</v>
+        <v>0.215007</v>
       </c>
       <c r="C36" t="n">
-        <v>0.197738</v>
+        <v>0.198073</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145619</v>
+        <v>0.145478</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258507</v>
+        <v>0.25846</v>
       </c>
       <c r="C37" t="n">
-        <v>0.244747</v>
+        <v>0.245179</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112157</v>
+        <v>0.11268</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09213979999999999</v>
+        <v>0.0930009</v>
       </c>
       <c r="C38" t="n">
-        <v>0.110698</v>
+        <v>0.110862</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112483</v>
+        <v>0.112782</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09289169999999999</v>
+        <v>0.0933148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.111696</v>
+        <v>0.112512</v>
       </c>
       <c r="D39" t="n">
-        <v>0.112875</v>
+        <v>0.114898</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09439989999999999</v>
+        <v>0.09497849999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.113068</v>
+        <v>0.112738</v>
       </c>
       <c r="D40" t="n">
-        <v>0.114346</v>
+        <v>0.113264</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0981042</v>
+        <v>0.0965216</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114183</v>
+        <v>0.116065</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113856</v>
+        <v>0.115547</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0993116</v>
+        <v>0.0995346</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115398</v>
+        <v>0.116619</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11433</v>
+        <v>0.11446</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103066</v>
+        <v>0.103044</v>
       </c>
       <c r="C43" t="n">
-        <v>0.117487</v>
+        <v>0.117683</v>
       </c>
       <c r="D43" t="n">
-        <v>0.116995</v>
+        <v>0.116885</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1104</v>
+        <v>0.108207</v>
       </c>
       <c r="C44" t="n">
-        <v>0.119918</v>
+        <v>0.120116</v>
       </c>
       <c r="D44" t="n">
-        <v>0.11598</v>
+        <v>0.115958</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114564</v>
+        <v>0.11459</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123667</v>
+        <v>0.123884</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117165</v>
+        <v>0.117302</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122862</v>
+        <v>0.126953</v>
       </c>
       <c r="C46" t="n">
-        <v>0.129119</v>
+        <v>0.129181</v>
       </c>
       <c r="D46" t="n">
-        <v>0.118938</v>
+        <v>0.118882</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.138052</v>
+        <v>0.133879</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136727</v>
+        <v>0.137133</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121235</v>
+        <v>0.121186</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150367</v>
+        <v>0.150735</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147579</v>
+        <v>0.148159</v>
       </c>
       <c r="D48" t="n">
-        <v>0.12516</v>
+        <v>0.125134</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.181276</v>
+        <v>0.181245</v>
       </c>
       <c r="C49" t="n">
-        <v>0.162593</v>
+        <v>0.163081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.13132</v>
+        <v>0.131085</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.205343</v>
+        <v>0.205619</v>
       </c>
       <c r="C50" t="n">
-        <v>0.186925</v>
+        <v>0.187826</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142762</v>
+        <v>0.14309</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247893</v>
+        <v>0.247145</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226701</v>
+        <v>0.23489</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114643</v>
+        <v>0.117346</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.293855</v>
+        <v>0.294044</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286075</v>
+        <v>0.286886</v>
       </c>
       <c r="D52" t="n">
-        <v>0.116322</v>
+        <v>0.117206</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.096869</v>
+        <v>0.097825</v>
       </c>
       <c r="C53" t="n">
-        <v>0.116079</v>
+        <v>0.117022</v>
       </c>
       <c r="D53" t="n">
-        <v>0.115297</v>
+        <v>0.116399</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0991186</v>
+        <v>0.09823179999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.116064</v>
+        <v>0.119214</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115289</v>
+        <v>0.119132</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100137</v>
+        <v>0.10147</v>
       </c>
       <c r="C55" t="n">
-        <v>0.117272</v>
+        <v>0.120361</v>
       </c>
       <c r="D55" t="n">
-        <v>0.116013</v>
+        <v>0.118315</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.101912</v>
+        <v>0.102906</v>
       </c>
       <c r="C56" t="n">
-        <v>0.118777</v>
+        <v>0.120424</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116557</v>
+        <v>0.118438</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106499</v>
+        <v>0.107381</v>
       </c>
       <c r="C57" t="n">
-        <v>0.120473</v>
+        <v>0.12302</v>
       </c>
       <c r="D57" t="n">
-        <v>0.116985</v>
+        <v>0.118803</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112055</v>
+        <v>0.113472</v>
       </c>
       <c r="C58" t="n">
-        <v>0.124283</v>
+        <v>0.126425</v>
       </c>
       <c r="D58" t="n">
-        <v>0.11832</v>
+        <v>0.120405</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116704</v>
+        <v>0.11999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128177</v>
+        <v>0.128427</v>
       </c>
       <c r="D59" t="n">
-        <v>0.119438</v>
+        <v>0.119668</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126223</v>
+        <v>0.127427</v>
       </c>
       <c r="C60" t="n">
-        <v>0.132392</v>
+        <v>0.133737</v>
       </c>
       <c r="D60" t="n">
-        <v>0.12082</v>
+        <v>0.12246</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137815</v>
+        <v>0.136914</v>
       </c>
       <c r="C61" t="n">
-        <v>0.141069</v>
+        <v>0.141969</v>
       </c>
       <c r="D61" t="n">
-        <v>0.124427</v>
+        <v>0.123728</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151256</v>
+        <v>0.151056</v>
       </c>
       <c r="C62" t="n">
-        <v>0.150666</v>
+        <v>0.151102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.128947</v>
+        <v>0.127419</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172256</v>
+        <v>0.16915</v>
       </c>
       <c r="C63" t="n">
-        <v>0.164977</v>
+        <v>0.164658</v>
       </c>
       <c r="D63" t="n">
-        <v>0.133957</v>
+        <v>0.13278</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.208182</v>
+        <v>0.203967</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187029</v>
+        <v>0.18658</v>
       </c>
       <c r="D64" t="n">
-        <v>0.141703</v>
+        <v>0.142083</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242014</v>
+        <v>0.250064</v>
       </c>
       <c r="C65" t="n">
-        <v>0.231969</v>
+        <v>0.223979</v>
       </c>
       <c r="D65" t="n">
-        <v>0.157956</v>
+        <v>0.158002</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.292256</v>
+        <v>0.296855</v>
       </c>
       <c r="C66" t="n">
-        <v>0.279307</v>
+        <v>0.278973</v>
       </c>
       <c r="D66" t="n">
-        <v>0.124266</v>
+        <v>0.124426</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10739</v>
+        <v>0.107409</v>
       </c>
       <c r="C67" t="n">
-        <v>0.124509</v>
+        <v>0.126644</v>
       </c>
       <c r="D67" t="n">
-        <v>0.124556</v>
+        <v>0.124273</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.110116</v>
+        <v>0.108166</v>
       </c>
       <c r="C68" t="n">
-        <v>0.12703</v>
+        <v>0.125462</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125776</v>
+        <v>0.125096</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111636</v>
+        <v>0.112477</v>
       </c>
       <c r="C69" t="n">
-        <v>0.12739</v>
+        <v>0.127209</v>
       </c>
       <c r="D69" t="n">
-        <v>0.125784</v>
+        <v>0.12547</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114112</v>
+        <v>0.113577</v>
       </c>
       <c r="C70" t="n">
-        <v>0.128593</v>
+        <v>0.129992</v>
       </c>
       <c r="D70" t="n">
-        <v>0.124881</v>
+        <v>0.12727</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.116175</v>
+        <v>0.118715</v>
       </c>
       <c r="C71" t="n">
-        <v>0.133005</v>
+        <v>0.131381</v>
       </c>
       <c r="D71" t="n">
-        <v>0.127913</v>
+        <v>0.12742</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.119975</v>
+        <v>0.120903</v>
       </c>
       <c r="C72" t="n">
-        <v>0.133726</v>
+        <v>0.135653</v>
       </c>
       <c r="D72" t="n">
-        <v>0.128505</v>
+        <v>0.128806</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128322</v>
+        <v>0.126737</v>
       </c>
       <c r="C73" t="n">
-        <v>0.138232</v>
+        <v>0.138613</v>
       </c>
       <c r="D73" t="n">
-        <v>0.129247</v>
+        <v>0.130511</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137617</v>
+        <v>0.133385</v>
       </c>
       <c r="C74" t="n">
-        <v>0.142954</v>
+        <v>0.143105</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131499</v>
+        <v>0.131148</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14518</v>
+        <v>0.14683</v>
       </c>
       <c r="C75" t="n">
-        <v>0.150352</v>
+        <v>0.148568</v>
       </c>
       <c r="D75" t="n">
-        <v>0.134205</v>
+        <v>0.132963</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159155</v>
+        <v>0.160823</v>
       </c>
       <c r="C76" t="n">
-        <v>0.160833</v>
+        <v>0.159957</v>
       </c>
       <c r="D76" t="n">
-        <v>0.136336</v>
+        <v>0.137496</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178482</v>
+        <v>0.179656</v>
       </c>
       <c r="C77" t="n">
-        <v>0.173768</v>
+        <v>0.172745</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141494</v>
+        <v>0.141673</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207917</v>
+        <v>0.209138</v>
       </c>
       <c r="C78" t="n">
-        <v>0.194246</v>
+        <v>0.192908</v>
       </c>
       <c r="D78" t="n">
-        <v>0.151969</v>
+        <v>0.149339</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.254038</v>
+        <v>0.25417</v>
       </c>
       <c r="C79" t="n">
-        <v>0.228528</v>
+        <v>0.226965</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165276</v>
+        <v>0.164387</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.308625</v>
+        <v>0.299604</v>
       </c>
       <c r="C80" t="n">
-        <v>0.278391</v>
+        <v>0.277189</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1348</v>
+        <v>0.134632</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121575</v>
+        <v>0.120497</v>
       </c>
       <c r="C81" t="n">
-        <v>0.137147</v>
+        <v>0.137307</v>
       </c>
       <c r="D81" t="n">
-        <v>0.135691</v>
+        <v>0.134453</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121726</v>
+        <v>0.121821</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139467</v>
+        <v>0.138964</v>
       </c>
       <c r="D82" t="n">
-        <v>0.137086</v>
+        <v>0.136353</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.125507</v>
+        <v>0.124433</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141656</v>
+        <v>0.141166</v>
       </c>
       <c r="D83" t="n">
-        <v>0.136897</v>
+        <v>0.137814</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128855</v>
+        <v>0.128947</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143988</v>
+        <v>0.143834</v>
       </c>
       <c r="D84" t="n">
-        <v>0.137444</v>
+        <v>0.136724</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130689</v>
+        <v>0.130123</v>
       </c>
       <c r="C85" t="n">
-        <v>0.146326</v>
+        <v>0.147229</v>
       </c>
       <c r="D85" t="n">
-        <v>0.139075</v>
+        <v>0.139861</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137857</v>
+        <v>0.136094</v>
       </c>
       <c r="C86" t="n">
-        <v>0.151067</v>
+        <v>0.150763</v>
       </c>
       <c r="D86" t="n">
-        <v>0.139992</v>
+        <v>0.140186</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141237</v>
+        <v>0.144794</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15633</v>
+        <v>0.157221</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142213</v>
+        <v>0.142601</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150911</v>
+        <v>0.14982</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162304</v>
+        <v>0.163118</v>
       </c>
       <c r="D88" t="n">
-        <v>0.14517</v>
+        <v>0.144062</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161781</v>
+        <v>0.160497</v>
       </c>
       <c r="C89" t="n">
-        <v>0.172242</v>
+        <v>0.172934</v>
       </c>
       <c r="D89" t="n">
-        <v>0.148105</v>
+        <v>0.147879</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180951</v>
+        <v>0.180375</v>
       </c>
       <c r="C90" t="n">
-        <v>0.183483</v>
+        <v>0.184106</v>
       </c>
       <c r="D90" t="n">
-        <v>0.15338</v>
+        <v>0.152911</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195331</v>
+        <v>0.198317</v>
       </c>
       <c r="C91" t="n">
-        <v>0.198898</v>
+        <v>0.199082</v>
       </c>
       <c r="D91" t="n">
-        <v>0.158527</v>
+        <v>0.159453</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.227762</v>
+        <v>0.226902</v>
       </c>
       <c r="C92" t="n">
-        <v>0.220542</v>
+        <v>0.221205</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168466</v>
+        <v>0.168896</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267384</v>
+        <v>0.274784</v>
       </c>
       <c r="C93" t="n">
-        <v>0.25418</v>
+        <v>0.254954</v>
       </c>
       <c r="D93" t="n">
-        <v>0.184509</v>
+        <v>0.183914</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.325206</v>
+        <v>0.33204</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305201</v>
+        <v>0.306188</v>
       </c>
       <c r="D94" t="n">
-        <v>0.146157</v>
+        <v>0.146884</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134792</v>
+        <v>0.134041</v>
       </c>
       <c r="C95" t="n">
-        <v>0.159325</v>
+        <v>0.159172</v>
       </c>
       <c r="D95" t="n">
-        <v>0.148816</v>
+        <v>0.148981</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1384</v>
+        <v>0.13808</v>
       </c>
       <c r="C96" t="n">
-        <v>0.162812</v>
+        <v>0.162457</v>
       </c>
       <c r="D96" t="n">
-        <v>0.150148</v>
+        <v>0.149687</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141007</v>
+        <v>0.142401</v>
       </c>
       <c r="C97" t="n">
-        <v>0.165922</v>
+        <v>0.16553</v>
       </c>
       <c r="D97" t="n">
-        <v>0.152031</v>
+        <v>0.151897</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143307</v>
+        <v>0.143553</v>
       </c>
       <c r="C98" t="n">
-        <v>0.169536</v>
+        <v>0.169603</v>
       </c>
       <c r="D98" t="n">
-        <v>0.15354</v>
+        <v>0.153554</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147803</v>
+        <v>0.149068</v>
       </c>
       <c r="C99" t="n">
-        <v>0.173378</v>
+        <v>0.174066</v>
       </c>
       <c r="D99" t="n">
-        <v>0.155516</v>
+        <v>0.157345</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155905</v>
+        <v>0.154455</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178334</v>
+        <v>0.178292</v>
       </c>
       <c r="D100" t="n">
-        <v>0.157897</v>
+        <v>0.158389</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160355</v>
+        <v>0.16136</v>
       </c>
       <c r="C101" t="n">
-        <v>0.184431</v>
+        <v>0.184765</v>
       </c>
       <c r="D101" t="n">
-        <v>0.160448</v>
+        <v>0.159283</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170015</v>
+        <v>0.170161</v>
       </c>
       <c r="C102" t="n">
-        <v>0.19198</v>
+        <v>0.192105</v>
       </c>
       <c r="D102" t="n">
-        <v>0.163722</v>
+        <v>0.162219</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.179793</v>
+        <v>0.179846</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203237</v>
+        <v>0.201657</v>
       </c>
       <c r="D103" t="n">
-        <v>0.166771</v>
+        <v>0.167106</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194993</v>
+        <v>0.195957</v>
       </c>
       <c r="C104" t="n">
-        <v>0.218614</v>
+        <v>0.215135</v>
       </c>
       <c r="D104" t="n">
-        <v>0.17159</v>
+        <v>0.172051</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.219161</v>
+        <v>0.220178</v>
       </c>
       <c r="C105" t="n">
-        <v>0.237435</v>
+        <v>0.232948</v>
       </c>
       <c r="D105" t="n">
-        <v>0.177973</v>
+        <v>0.17769</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253361</v>
+        <v>0.250561</v>
       </c>
       <c r="C106" t="n">
-        <v>0.262948</v>
+        <v>0.258314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.190463</v>
+        <v>0.187412</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.299196</v>
+        <v>0.286997</v>
       </c>
       <c r="C107" t="n">
-        <v>0.299181</v>
+        <v>0.293682</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207617</v>
+        <v>0.2025</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.361023</v>
+        <v>0.363581</v>
       </c>
       <c r="C108" t="n">
-        <v>0.354809</v>
+        <v>0.350599</v>
       </c>
       <c r="D108" t="n">
-        <v>0.159698</v>
+        <v>0.155618</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.45223</v>
+        <v>0.441962</v>
       </c>
       <c r="C109" t="n">
-        <v>0.442537</v>
+        <v>0.43783</v>
       </c>
       <c r="D109" t="n">
-        <v>0.162195</v>
+        <v>0.157117</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.15249</v>
+        <v>0.147173</v>
       </c>
       <c r="C110" t="n">
-        <v>0.192181</v>
+        <v>0.183028</v>
       </c>
       <c r="D110" t="n">
-        <v>0.16568</v>
+        <v>0.157564</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15962</v>
+        <v>0.147846</v>
       </c>
       <c r="C111" t="n">
-        <v>0.196758</v>
+        <v>0.187565</v>
       </c>
       <c r="D111" t="n">
-        <v>0.168167</v>
+        <v>0.159444</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.164256</v>
+        <v>0.152137</v>
       </c>
       <c r="C112" t="n">
-        <v>0.201311</v>
+        <v>0.193261</v>
       </c>
       <c r="D112" t="n">
-        <v>0.171397</v>
+        <v>0.161205</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.167955</v>
+        <v>0.158793</v>
       </c>
       <c r="C113" t="n">
-        <v>0.206027</v>
+        <v>0.199035</v>
       </c>
       <c r="D113" t="n">
-        <v>0.174375</v>
+        <v>0.164882</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174445</v>
+        <v>0.163432</v>
       </c>
       <c r="C114" t="n">
-        <v>0.211752</v>
+        <v>0.205282</v>
       </c>
       <c r="D114" t="n">
-        <v>0.177371</v>
+        <v>0.165912</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.181894</v>
+        <v>0.171173</v>
       </c>
       <c r="C115" t="n">
-        <v>0.218005</v>
+        <v>0.212348</v>
       </c>
       <c r="D115" t="n">
-        <v>0.180737</v>
+        <v>0.168972</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.192035</v>
+        <v>0.181034</v>
       </c>
       <c r="C116" t="n">
-        <v>0.226059</v>
+        <v>0.221661</v>
       </c>
       <c r="D116" t="n">
-        <v>0.185619</v>
+        <v>0.173849</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204579</v>
+        <v>0.193657</v>
       </c>
       <c r="C117" t="n">
-        <v>0.236157</v>
+        <v>0.232477</v>
       </c>
       <c r="D117" t="n">
-        <v>0.188497</v>
+        <v>0.17829</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.220123</v>
+        <v>0.210826</v>
       </c>
       <c r="C118" t="n">
-        <v>0.248515</v>
+        <v>0.245922</v>
       </c>
       <c r="D118" t="n">
-        <v>0.194865</v>
+        <v>0.185663</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240071</v>
+        <v>0.236908</v>
       </c>
       <c r="C119" t="n">
-        <v>0.266056</v>
+        <v>0.263341</v>
       </c>
       <c r="D119" t="n">
-        <v>0.200773</v>
+        <v>0.19393</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269245</v>
+        <v>0.267349</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288633</v>
+        <v>0.287098</v>
       </c>
       <c r="D120" t="n">
-        <v>0.211528</v>
+        <v>0.205034</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.311463</v>
+        <v>0.31572</v>
       </c>
       <c r="C121" t="n">
-        <v>0.322929</v>
+        <v>0.322728</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22625</v>
+        <v>0.222554</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373862</v>
+        <v>0.374044</v>
       </c>
       <c r="C122" t="n">
-        <v>0.376351</v>
+        <v>0.375402</v>
       </c>
       <c r="D122" t="n">
-        <v>0.250469</v>
+        <v>0.249071</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473024</v>
+        <v>0.467055</v>
       </c>
       <c r="C123" t="n">
-        <v>0.463102</v>
+        <v>0.474903</v>
       </c>
       <c r="D123" t="n">
-        <v>0.187098</v>
+        <v>0.18309</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170814</v>
+        <v>0.171267</v>
       </c>
       <c r="C124" t="n">
-        <v>0.214041</v>
+        <v>0.217304</v>
       </c>
       <c r="D124" t="n">
-        <v>0.186118</v>
+        <v>0.184614</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.178325</v>
+        <v>0.176033</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224176</v>
+        <v>0.22081</v>
       </c>
       <c r="D125" t="n">
-        <v>0.189649</v>
+        <v>0.187248</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179383</v>
+        <v>0.177872</v>
       </c>
       <c r="C126" t="n">
-        <v>0.230101</v>
+        <v>0.226755</v>
       </c>
       <c r="D126" t="n">
-        <v>0.188755</v>
+        <v>0.190934</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183587</v>
+        <v>0.181922</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230207</v>
+        <v>0.228524</v>
       </c>
       <c r="D127" t="n">
-        <v>0.192666</v>
+        <v>0.192646</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.192462</v>
+        <v>0.19402</v>
       </c>
       <c r="C128" t="n">
-        <v>0.233876</v>
+        <v>0.23596</v>
       </c>
       <c r="D128" t="n">
-        <v>0.197144</v>
+        <v>0.198162</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.197998</v>
+        <v>0.198113</v>
       </c>
       <c r="C129" t="n">
-        <v>0.240564</v>
+        <v>0.240841</v>
       </c>
       <c r="D129" t="n">
-        <v>0.200297</v>
+        <v>0.199472</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207556</v>
+        <v>0.205675</v>
       </c>
       <c r="C130" t="n">
-        <v>0.250801</v>
+        <v>0.253668</v>
       </c>
       <c r="D130" t="n">
-        <v>0.200381</v>
+        <v>0.203186</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219378</v>
+        <v>0.218463</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2572</v>
+        <v>0.258877</v>
       </c>
       <c r="D131" t="n">
-        <v>0.204107</v>
+        <v>0.207016</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.238191</v>
+        <v>0.23837</v>
       </c>
       <c r="C132" t="n">
-        <v>0.275842</v>
+        <v>0.275883</v>
       </c>
       <c r="D132" t="n">
-        <v>0.213106</v>
+        <v>0.214635</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.256077</v>
+        <v>0.258213</v>
       </c>
       <c r="C133" t="n">
-        <v>0.290605</v>
+        <v>0.290837</v>
       </c>
       <c r="D133" t="n">
-        <v>0.220433</v>
+        <v>0.220068</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.286302</v>
+        <v>0.287258</v>
       </c>
       <c r="C134" t="n">
-        <v>0.313851</v>
+        <v>0.316005</v>
       </c>
       <c r="D134" t="n">
-        <v>0.229034</v>
+        <v>0.229602</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.327006</v>
+        <v>0.323389</v>
       </c>
       <c r="C135" t="n">
-        <v>0.347785</v>
+        <v>0.34605</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245367</v>
+        <v>0.242408</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.387176</v>
+        <v>0.390409</v>
       </c>
       <c r="C136" t="n">
-        <v>0.396229</v>
+        <v>0.400386</v>
       </c>
       <c r="D136" t="n">
-        <v>0.268016</v>
+        <v>0.268743</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.489045</v>
+        <v>0.482707</v>
       </c>
       <c r="C137" t="n">
-        <v>0.477616</v>
+        <v>0.485085</v>
       </c>
       <c r="D137" t="n">
-        <v>0.322732</v>
+        <v>0.318739</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.309836</v>
+        <v>0.314653</v>
       </c>
       <c r="C138" t="n">
-        <v>0.35415</v>
+        <v>0.350801</v>
       </c>
       <c r="D138" t="n">
-        <v>0.320405</v>
+        <v>0.320672</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.315651</v>
+        <v>0.315711</v>
       </c>
       <c r="C139" t="n">
-        <v>0.357106</v>
+        <v>0.354978</v>
       </c>
       <c r="D139" t="n">
-        <v>0.324679</v>
+        <v>0.324155</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.317154</v>
+        <v>0.318791</v>
       </c>
       <c r="C140" t="n">
-        <v>0.360731</v>
+        <v>0.361001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.327405</v>
+        <v>0.326995</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.326339</v>
+        <v>0.324839</v>
       </c>
       <c r="C141" t="n">
-        <v>0.366883</v>
+        <v>0.366451</v>
       </c>
       <c r="D141" t="n">
-        <v>0.336707</v>
+        <v>0.326931</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331377</v>
+        <v>0.330185</v>
       </c>
       <c r="C142" t="n">
-        <v>0.373991</v>
+        <v>0.369731</v>
       </c>
       <c r="D142" t="n">
-        <v>0.331185</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.337637</v>
+        <v>0.336909</v>
       </c>
       <c r="C143" t="n">
-        <v>0.381165</v>
+        <v>0.378205</v>
       </c>
       <c r="D143" t="n">
-        <v>0.333527</v>
+        <v>0.337624</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0934577</v>
+        <v>0.0932793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113254</v>
+        <v>0.113169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113971</v>
+        <v>0.113552</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0969207</v>
+        <v>0.0967795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115404</v>
+        <v>0.115486</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114873</v>
+        <v>0.114544</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.10433</v>
+        <v>0.104519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119763</v>
+        <v>0.119825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116472</v>
+        <v>0.116316</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121371</v>
+        <v>0.121473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127366</v>
+        <v>0.127213</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119243</v>
+        <v>0.118933</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.144934</v>
+        <v>0.144892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.139414</v>
+        <v>0.139464</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122737</v>
+        <v>0.122464</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180556</v>
+        <v>0.180661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159526</v>
+        <v>0.159565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128873</v>
+        <v>0.128251</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218734</v>
+        <v>0.218416</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201487</v>
+        <v>0.20133</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140789</v>
+        <v>0.140203</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.270234</v>
+        <v>0.263431</v>
       </c>
       <c r="C9" t="n">
-        <v>0.247117</v>
+        <v>0.246816</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109909</v>
+        <v>0.10977</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0856379</v>
+        <v>0.0859187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.105581</v>
+        <v>0.106009</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110235</v>
+        <v>0.110131</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0862629</v>
+        <v>0.08662830000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106364</v>
+        <v>0.106768</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1105</v>
+        <v>0.110407</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0875722</v>
+        <v>0.08800959999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10812</v>
+        <v>0.10792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110944</v>
+        <v>0.110816</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0891193</v>
+        <v>0.0895336</v>
       </c>
       <c r="C13" t="n">
-        <v>0.10813</v>
+        <v>0.111736</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111396</v>
+        <v>0.111254</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0910617</v>
+        <v>0.0910971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.111525</v>
+        <v>0.109729</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112004</v>
+        <v>0.111873</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09496259999999999</v>
+        <v>0.0948953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111798</v>
+        <v>0.116316</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112685</v>
+        <v>0.112524</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100601</v>
+        <v>0.100958</v>
       </c>
       <c r="C16" t="n">
-        <v>0.118105</v>
+        <v>0.115493</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113796</v>
+        <v>0.113626</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108434</v>
+        <v>0.108806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118848</v>
+        <v>0.121144</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115013</v>
+        <v>0.114855</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120085</v>
+        <v>0.120562</v>
       </c>
       <c r="C18" t="n">
-        <v>0.127078</v>
+        <v>0.125605</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117231</v>
+        <v>0.116985</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135721</v>
+        <v>0.13574</v>
       </c>
       <c r="C19" t="n">
-        <v>0.136838</v>
+        <v>0.135033</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120378</v>
+        <v>0.119932</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.158858</v>
+        <v>0.155948</v>
       </c>
       <c r="C20" t="n">
-        <v>0.147745</v>
+        <v>0.149912</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124352</v>
+        <v>0.123862</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185652</v>
+        <v>0.185569</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166436</v>
+        <v>0.166308</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130915</v>
+        <v>0.130421</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228914</v>
+        <v>0.220116</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204201</v>
+        <v>0.213159</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145765</v>
+        <v>0.145517</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265406</v>
+        <v>0.274509</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252125</v>
+        <v>0.252739</v>
       </c>
       <c r="D23" t="n">
-        <v>0.113475</v>
+        <v>0.111079</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0896685</v>
+        <v>0.0895576</v>
       </c>
       <c r="C24" t="n">
-        <v>0.109156</v>
+        <v>0.109042</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111606</v>
+        <v>0.111371</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09072719999999999</v>
+        <v>0.0917562</v>
       </c>
       <c r="C25" t="n">
-        <v>0.110242</v>
+        <v>0.109624</v>
       </c>
       <c r="D25" t="n">
-        <v>0.113209</v>
+        <v>0.111675</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0920546</v>
+        <v>0.0918453</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110684</v>
+        <v>0.110511</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112236</v>
+        <v>0.11201</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943943</v>
+        <v>0.0936823</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111658</v>
+        <v>0.111674</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114557</v>
+        <v>0.112428</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09651709999999999</v>
+        <v>0.0964039</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113381</v>
+        <v>0.113395</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113186</v>
+        <v>0.113017</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.10053</v>
+        <v>0.100386</v>
       </c>
       <c r="C29" t="n">
-        <v>0.115244</v>
+        <v>0.115246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.113712</v>
+        <v>0.113582</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106352</v>
+        <v>0.105573</v>
       </c>
       <c r="C30" t="n">
-        <v>0.117852</v>
+        <v>0.117819</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114621</v>
+        <v>0.114519</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112535</v>
+        <v>0.112478</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12181</v>
+        <v>0.121871</v>
       </c>
       <c r="D31" t="n">
-        <v>0.116061</v>
+        <v>0.115846</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.122129</v>
+        <v>0.122107</v>
       </c>
       <c r="C32" t="n">
-        <v>0.128643</v>
+        <v>0.127641</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118107</v>
+        <v>0.117578</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135963</v>
+        <v>0.135979</v>
       </c>
       <c r="C33" t="n">
-        <v>0.135784</v>
+        <v>0.135807</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120468</v>
+        <v>0.120436</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154402</v>
+        <v>0.154376</v>
       </c>
       <c r="C34" t="n">
-        <v>0.150235</v>
+        <v>0.150005</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125134</v>
+        <v>0.125159</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177277</v>
+        <v>0.177425</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17002</v>
+        <v>0.170013</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132602</v>
+        <v>0.132424</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.215007</v>
+        <v>0.21522</v>
       </c>
       <c r="C36" t="n">
-        <v>0.198073</v>
+        <v>0.197698</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145478</v>
+        <v>0.146698</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.25846</v>
+        <v>0.258365</v>
       </c>
       <c r="C37" t="n">
-        <v>0.245179</v>
+        <v>0.256381</v>
       </c>
       <c r="D37" t="n">
-        <v>0.11268</v>
+        <v>0.112186</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0930009</v>
+        <v>0.09249</v>
       </c>
       <c r="C38" t="n">
-        <v>0.110862</v>
+        <v>0.110939</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112782</v>
+        <v>0.112413</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0933148</v>
+        <v>0.0932356</v>
       </c>
       <c r="C39" t="n">
-        <v>0.112512</v>
+        <v>0.111841</v>
       </c>
       <c r="D39" t="n">
-        <v>0.114898</v>
+        <v>0.112849</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09497849999999999</v>
+        <v>0.0948261</v>
       </c>
       <c r="C40" t="n">
-        <v>0.112738</v>
+        <v>0.11327</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113264</v>
+        <v>0.113563</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0965216</v>
+        <v>0.09673900000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.116065</v>
+        <v>0.114261</v>
       </c>
       <c r="D41" t="n">
-        <v>0.115547</v>
+        <v>0.114107</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0995346</v>
+        <v>0.0996133</v>
       </c>
       <c r="C42" t="n">
-        <v>0.116619</v>
+        <v>0.115571</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11446</v>
+        <v>0.11437</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103044</v>
+        <v>0.103367</v>
       </c>
       <c r="C43" t="n">
-        <v>0.117683</v>
+        <v>0.117706</v>
       </c>
       <c r="D43" t="n">
-        <v>0.116885</v>
+        <v>0.114897</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108207</v>
+        <v>0.108649</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120116</v>
+        <v>0.120245</v>
       </c>
       <c r="D44" t="n">
-        <v>0.115958</v>
+        <v>0.115955</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.11459</v>
+        <v>0.114881</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123884</v>
+        <v>0.123695</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117302</v>
+        <v>0.117089</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126953</v>
+        <v>0.123153</v>
       </c>
       <c r="C46" t="n">
-        <v>0.129181</v>
+        <v>0.129172</v>
       </c>
       <c r="D46" t="n">
-        <v>0.118882</v>
+        <v>0.118887</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133879</v>
+        <v>0.133553</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137133</v>
+        <v>0.138324</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121186</v>
+        <v>0.121899</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150735</v>
+        <v>0.150507</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148159</v>
+        <v>0.147726</v>
       </c>
       <c r="D48" t="n">
-        <v>0.125134</v>
+        <v>0.124808</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.181245</v>
+        <v>0.172737</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163081</v>
+        <v>0.163206</v>
       </c>
       <c r="D49" t="n">
-        <v>0.131085</v>
+        <v>0.131039</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.205619</v>
+        <v>0.205232</v>
       </c>
       <c r="C50" t="n">
-        <v>0.187826</v>
+        <v>0.187063</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14309</v>
+        <v>0.14095</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247145</v>
+        <v>0.247907</v>
       </c>
       <c r="C51" t="n">
-        <v>0.23489</v>
+        <v>0.226084</v>
       </c>
       <c r="D51" t="n">
-        <v>0.117346</v>
+        <v>0.114061</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294044</v>
+        <v>0.294213</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286886</v>
+        <v>0.286093</v>
       </c>
       <c r="D52" t="n">
-        <v>0.117206</v>
+        <v>0.114338</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097825</v>
+        <v>0.0962958</v>
       </c>
       <c r="C53" t="n">
-        <v>0.117022</v>
+        <v>0.115262</v>
       </c>
       <c r="D53" t="n">
-        <v>0.116399</v>
+        <v>0.115735</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09823179999999999</v>
+        <v>0.099426</v>
       </c>
       <c r="C54" t="n">
-        <v>0.119214</v>
+        <v>0.116506</v>
       </c>
       <c r="D54" t="n">
-        <v>0.119132</v>
+        <v>0.115605</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.10147</v>
+        <v>0.100026</v>
       </c>
       <c r="C55" t="n">
-        <v>0.120361</v>
+        <v>0.116659</v>
       </c>
       <c r="D55" t="n">
-        <v>0.118315</v>
+        <v>0.116031</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102906</v>
+        <v>0.102398</v>
       </c>
       <c r="C56" t="n">
-        <v>0.120424</v>
+        <v>0.119718</v>
       </c>
       <c r="D56" t="n">
-        <v>0.118438</v>
+        <v>0.116358</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107381</v>
+        <v>0.106631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.12302</v>
+        <v>0.1211</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118803</v>
+        <v>0.11784</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113472</v>
+        <v>0.110958</v>
       </c>
       <c r="C58" t="n">
-        <v>0.126425</v>
+        <v>0.123737</v>
       </c>
       <c r="D58" t="n">
-        <v>0.120405</v>
+        <v>0.118588</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.11999</v>
+        <v>0.116625</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128427</v>
+        <v>0.127653</v>
       </c>
       <c r="D59" t="n">
-        <v>0.119668</v>
+        <v>0.11929</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127427</v>
+        <v>0.125059</v>
       </c>
       <c r="C60" t="n">
-        <v>0.133737</v>
+        <v>0.132075</v>
       </c>
       <c r="D60" t="n">
-        <v>0.12246</v>
+        <v>0.120552</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.136914</v>
+        <v>0.134773</v>
       </c>
       <c r="C61" t="n">
-        <v>0.141969</v>
+        <v>0.138607</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123728</v>
+        <v>0.123002</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151056</v>
+        <v>0.149728</v>
       </c>
       <c r="C62" t="n">
-        <v>0.151102</v>
+        <v>0.149024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.127419</v>
+        <v>0.126923</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.16915</v>
+        <v>0.171391</v>
       </c>
       <c r="C63" t="n">
-        <v>0.164658</v>
+        <v>0.163804</v>
       </c>
       <c r="D63" t="n">
-        <v>0.13278</v>
+        <v>0.132239</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.203967</v>
+        <v>0.200491</v>
       </c>
       <c r="C64" t="n">
-        <v>0.18658</v>
+        <v>0.186414</v>
       </c>
       <c r="D64" t="n">
-        <v>0.142083</v>
+        <v>0.142016</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.250064</v>
+        <v>0.246215</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223979</v>
+        <v>0.223994</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158002</v>
+        <v>0.158105</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296855</v>
+        <v>0.289507</v>
       </c>
       <c r="C66" t="n">
-        <v>0.278973</v>
+        <v>0.280142</v>
       </c>
       <c r="D66" t="n">
-        <v>0.124426</v>
+        <v>0.125228</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107409</v>
+        <v>0.107275</v>
       </c>
       <c r="C67" t="n">
-        <v>0.126644</v>
+        <v>0.12299</v>
       </c>
       <c r="D67" t="n">
-        <v>0.124273</v>
+        <v>0.124766</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108166</v>
+        <v>0.108698</v>
       </c>
       <c r="C68" t="n">
-        <v>0.125462</v>
+        <v>0.126856</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125096</v>
+        <v>0.125923</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112477</v>
+        <v>0.110859</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127209</v>
+        <v>0.127182</v>
       </c>
       <c r="D69" t="n">
-        <v>0.12547</v>
+        <v>0.126582</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113577</v>
+        <v>0.115147</v>
       </c>
       <c r="C70" t="n">
-        <v>0.129992</v>
+        <v>0.129111</v>
       </c>
       <c r="D70" t="n">
-        <v>0.12727</v>
+        <v>0.125997</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118715</v>
+        <v>0.116791</v>
       </c>
       <c r="C71" t="n">
-        <v>0.131381</v>
+        <v>0.130459</v>
       </c>
       <c r="D71" t="n">
-        <v>0.12742</v>
+        <v>0.126454</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.120903</v>
+        <v>0.121234</v>
       </c>
       <c r="C72" t="n">
-        <v>0.135653</v>
+        <v>0.133913</v>
       </c>
       <c r="D72" t="n">
-        <v>0.128806</v>
+        <v>0.127305</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126737</v>
+        <v>0.126874</v>
       </c>
       <c r="C73" t="n">
-        <v>0.138613</v>
+        <v>0.137231</v>
       </c>
       <c r="D73" t="n">
-        <v>0.130511</v>
+        <v>0.129036</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.133385</v>
+        <v>0.135273</v>
       </c>
       <c r="C74" t="n">
-        <v>0.143105</v>
+        <v>0.143493</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131148</v>
+        <v>0.131494</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14683</v>
+        <v>0.14686</v>
       </c>
       <c r="C75" t="n">
-        <v>0.148568</v>
+        <v>0.147722</v>
       </c>
       <c r="D75" t="n">
-        <v>0.132963</v>
+        <v>0.132777</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160823</v>
+        <v>0.163643</v>
       </c>
       <c r="C76" t="n">
-        <v>0.159957</v>
+        <v>0.160096</v>
       </c>
       <c r="D76" t="n">
-        <v>0.137496</v>
+        <v>0.135373</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.179656</v>
+        <v>0.176291</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172745</v>
+        <v>0.172048</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141673</v>
+        <v>0.142301</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.209138</v>
+        <v>0.206347</v>
       </c>
       <c r="C78" t="n">
-        <v>0.192908</v>
+        <v>0.19271</v>
       </c>
       <c r="D78" t="n">
-        <v>0.149339</v>
+        <v>0.149313</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25417</v>
+        <v>0.246443</v>
       </c>
       <c r="C79" t="n">
-        <v>0.226965</v>
+        <v>0.225331</v>
       </c>
       <c r="D79" t="n">
-        <v>0.164387</v>
+        <v>0.163431</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.299604</v>
+        <v>0.29751</v>
       </c>
       <c r="C80" t="n">
-        <v>0.277189</v>
+        <v>0.27763</v>
       </c>
       <c r="D80" t="n">
-        <v>0.134632</v>
+        <v>0.13514</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120497</v>
+        <v>0.120507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.137307</v>
+        <v>0.136425</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134453</v>
+        <v>0.133732</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121821</v>
+        <v>0.121966</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138964</v>
+        <v>0.135482</v>
       </c>
       <c r="D82" t="n">
-        <v>0.136353</v>
+        <v>0.136449</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124433</v>
+        <v>0.125134</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141166</v>
+        <v>0.139985</v>
       </c>
       <c r="D83" t="n">
-        <v>0.137814</v>
+        <v>0.136981</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128947</v>
+        <v>0.127454</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143834</v>
+        <v>0.142994</v>
       </c>
       <c r="D84" t="n">
-        <v>0.136724</v>
+        <v>0.137817</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130123</v>
+        <v>0.130082</v>
       </c>
       <c r="C85" t="n">
-        <v>0.147229</v>
+        <v>0.14337</v>
       </c>
       <c r="D85" t="n">
-        <v>0.139861</v>
+        <v>0.13852</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.136094</v>
+        <v>0.137473</v>
       </c>
       <c r="C86" t="n">
-        <v>0.150763</v>
+        <v>0.150005</v>
       </c>
       <c r="D86" t="n">
-        <v>0.140186</v>
+        <v>0.140572</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.144794</v>
+        <v>0.141075</v>
       </c>
       <c r="C87" t="n">
-        <v>0.157221</v>
+        <v>0.155807</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142601</v>
+        <v>0.139439</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.14982</v>
+        <v>0.150338</v>
       </c>
       <c r="C88" t="n">
-        <v>0.163118</v>
+        <v>0.162121</v>
       </c>
       <c r="D88" t="n">
-        <v>0.144062</v>
+        <v>0.143234</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160497</v>
+        <v>0.161938</v>
       </c>
       <c r="C89" t="n">
-        <v>0.172934</v>
+        <v>0.17177</v>
       </c>
       <c r="D89" t="n">
-        <v>0.147879</v>
+        <v>0.146962</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180375</v>
+        <v>0.174928</v>
       </c>
       <c r="C90" t="n">
-        <v>0.184106</v>
+        <v>0.183844</v>
       </c>
       <c r="D90" t="n">
-        <v>0.152911</v>
+        <v>0.152553</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198317</v>
+        <v>0.199868</v>
       </c>
       <c r="C91" t="n">
-        <v>0.199082</v>
+        <v>0.198114</v>
       </c>
       <c r="D91" t="n">
-        <v>0.159453</v>
+        <v>0.159001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.226902</v>
+        <v>0.224145</v>
       </c>
       <c r="C92" t="n">
-        <v>0.221205</v>
+        <v>0.220742</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168896</v>
+        <v>0.167679</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.274784</v>
+        <v>0.274822</v>
       </c>
       <c r="C93" t="n">
-        <v>0.254954</v>
+        <v>0.252249</v>
       </c>
       <c r="D93" t="n">
-        <v>0.183914</v>
+        <v>0.181347</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.33204</v>
+        <v>0.332665</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306188</v>
+        <v>0.306683</v>
       </c>
       <c r="D94" t="n">
-        <v>0.146884</v>
+        <v>0.145573</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134041</v>
+        <v>0.133536</v>
       </c>
       <c r="C95" t="n">
-        <v>0.159172</v>
+        <v>0.156486</v>
       </c>
       <c r="D95" t="n">
-        <v>0.148981</v>
+        <v>0.147892</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13808</v>
+        <v>0.136544</v>
       </c>
       <c r="C96" t="n">
-        <v>0.162457</v>
+        <v>0.160616</v>
       </c>
       <c r="D96" t="n">
-        <v>0.149687</v>
+        <v>0.148385</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.142401</v>
+        <v>0.141309</v>
       </c>
       <c r="C97" t="n">
-        <v>0.16553</v>
+        <v>0.163421</v>
       </c>
       <c r="D97" t="n">
-        <v>0.151897</v>
+        <v>0.150799</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143553</v>
+        <v>0.145752</v>
       </c>
       <c r="C98" t="n">
-        <v>0.169603</v>
+        <v>0.166813</v>
       </c>
       <c r="D98" t="n">
-        <v>0.153554</v>
+        <v>0.154435</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149068</v>
+        <v>0.150978</v>
       </c>
       <c r="C99" t="n">
-        <v>0.174066</v>
+        <v>0.174122</v>
       </c>
       <c r="D99" t="n">
-        <v>0.157345</v>
+        <v>0.155332</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154455</v>
+        <v>0.15393</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178292</v>
+        <v>0.179703</v>
       </c>
       <c r="D100" t="n">
-        <v>0.158389</v>
+        <v>0.157464</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.16136</v>
+        <v>0.160495</v>
       </c>
       <c r="C101" t="n">
-        <v>0.184765</v>
+        <v>0.185082</v>
       </c>
       <c r="D101" t="n">
-        <v>0.159283</v>
+        <v>0.159535</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170161</v>
+        <v>0.169089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.192105</v>
+        <v>0.189381</v>
       </c>
       <c r="D102" t="n">
-        <v>0.162219</v>
+        <v>0.162355</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.179846</v>
+        <v>0.181821</v>
       </c>
       <c r="C103" t="n">
-        <v>0.201657</v>
+        <v>0.202665</v>
       </c>
       <c r="D103" t="n">
-        <v>0.167106</v>
+        <v>0.167253</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.195957</v>
+        <v>0.200938</v>
       </c>
       <c r="C104" t="n">
-        <v>0.215135</v>
+        <v>0.21624</v>
       </c>
       <c r="D104" t="n">
-        <v>0.172051</v>
+        <v>0.172414</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.220178</v>
+        <v>0.222371</v>
       </c>
       <c r="C105" t="n">
-        <v>0.232948</v>
+        <v>0.229779</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17769</v>
+        <v>0.177147</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250561</v>
+        <v>0.245129</v>
       </c>
       <c r="C106" t="n">
-        <v>0.258314</v>
+        <v>0.254792</v>
       </c>
       <c r="D106" t="n">
-        <v>0.187412</v>
+        <v>0.187516</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286997</v>
+        <v>0.297314</v>
       </c>
       <c r="C107" t="n">
-        <v>0.293682</v>
+        <v>0.29081</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2025</v>
+        <v>0.199963</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363581</v>
+        <v>0.358074</v>
       </c>
       <c r="C108" t="n">
-        <v>0.350599</v>
+        <v>0.351263</v>
       </c>
       <c r="D108" t="n">
-        <v>0.155618</v>
+        <v>0.154511</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.441962</v>
+        <v>0.447845</v>
       </c>
       <c r="C109" t="n">
-        <v>0.43783</v>
+        <v>0.440534</v>
       </c>
       <c r="D109" t="n">
-        <v>0.157117</v>
+        <v>0.15645</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.147173</v>
+        <v>0.145043</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183028</v>
+        <v>0.184478</v>
       </c>
       <c r="D110" t="n">
-        <v>0.157564</v>
+        <v>0.159072</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.147846</v>
+        <v>0.148689</v>
       </c>
       <c r="C111" t="n">
-        <v>0.187565</v>
+        <v>0.189325</v>
       </c>
       <c r="D111" t="n">
-        <v>0.159444</v>
+        <v>0.159346</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152137</v>
+        <v>0.154153</v>
       </c>
       <c r="C112" t="n">
-        <v>0.193261</v>
+        <v>0.194246</v>
       </c>
       <c r="D112" t="n">
-        <v>0.161205</v>
+        <v>0.162856</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158793</v>
+        <v>0.156917</v>
       </c>
       <c r="C113" t="n">
-        <v>0.199035</v>
+        <v>0.199749</v>
       </c>
       <c r="D113" t="n">
-        <v>0.164882</v>
+        <v>0.162583</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.163432</v>
+        <v>0.163484</v>
       </c>
       <c r="C114" t="n">
-        <v>0.205282</v>
+        <v>0.205839</v>
       </c>
       <c r="D114" t="n">
-        <v>0.165912</v>
+        <v>0.165248</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171173</v>
+        <v>0.171844</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212348</v>
+        <v>0.212486</v>
       </c>
       <c r="D115" t="n">
-        <v>0.168972</v>
+        <v>0.169524</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.181034</v>
+        <v>0.181</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221661</v>
+        <v>0.222341</v>
       </c>
       <c r="D116" t="n">
-        <v>0.173849</v>
+        <v>0.174529</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.193657</v>
+        <v>0.194379</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232477</v>
+        <v>0.23265</v>
       </c>
       <c r="D117" t="n">
-        <v>0.17829</v>
+        <v>0.179415</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.210826</v>
+        <v>0.217675</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245922</v>
+        <v>0.246493</v>
       </c>
       <c r="D118" t="n">
-        <v>0.185663</v>
+        <v>0.185986</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.236908</v>
+        <v>0.240783</v>
       </c>
       <c r="C119" t="n">
-        <v>0.263341</v>
+        <v>0.263576</v>
       </c>
       <c r="D119" t="n">
-        <v>0.19393</v>
+        <v>0.193833</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.267349</v>
+        <v>0.273785</v>
       </c>
       <c r="C120" t="n">
-        <v>0.287098</v>
+        <v>0.28757</v>
       </c>
       <c r="D120" t="n">
-        <v>0.205034</v>
+        <v>0.205626</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.31572</v>
+        <v>0.310303</v>
       </c>
       <c r="C121" t="n">
-        <v>0.322728</v>
+        <v>0.322367</v>
       </c>
       <c r="D121" t="n">
-        <v>0.222554</v>
+        <v>0.222357</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.374044</v>
+        <v>0.373435</v>
       </c>
       <c r="C122" t="n">
-        <v>0.375402</v>
+        <v>0.376638</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249071</v>
+        <v>0.248637</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.467055</v>
+        <v>0.471653</v>
       </c>
       <c r="C123" t="n">
-        <v>0.474903</v>
+        <v>0.477302</v>
       </c>
       <c r="D123" t="n">
-        <v>0.18309</v>
+        <v>0.188428</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171267</v>
+        <v>0.177393</v>
       </c>
       <c r="C124" t="n">
-        <v>0.217304</v>
+        <v>0.224107</v>
       </c>
       <c r="D124" t="n">
-        <v>0.184614</v>
+        <v>0.187498</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.176033</v>
+        <v>0.182651</v>
       </c>
       <c r="C125" t="n">
-        <v>0.22081</v>
+        <v>0.221028</v>
       </c>
       <c r="D125" t="n">
-        <v>0.187248</v>
+        <v>0.194348</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.177872</v>
+        <v>0.182203</v>
       </c>
       <c r="C126" t="n">
-        <v>0.226755</v>
+        <v>0.226119</v>
       </c>
       <c r="D126" t="n">
-        <v>0.190934</v>
+        <v>0.190377</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.181922</v>
+        <v>0.187983</v>
       </c>
       <c r="C127" t="n">
-        <v>0.228524</v>
+        <v>0.235004</v>
       </c>
       <c r="D127" t="n">
-        <v>0.192646</v>
+        <v>0.192672</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.19402</v>
+        <v>0.192452</v>
       </c>
       <c r="C128" t="n">
-        <v>0.23596</v>
+        <v>0.238303</v>
       </c>
       <c r="D128" t="n">
-        <v>0.198162</v>
+        <v>0.203035</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198113</v>
+        <v>0.205862</v>
       </c>
       <c r="C129" t="n">
-        <v>0.240841</v>
+        <v>0.244087</v>
       </c>
       <c r="D129" t="n">
-        <v>0.199472</v>
+        <v>0.201724</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.205675</v>
+        <v>0.208627</v>
       </c>
       <c r="C130" t="n">
-        <v>0.253668</v>
+        <v>0.252177</v>
       </c>
       <c r="D130" t="n">
-        <v>0.203186</v>
+        <v>0.206576</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.218463</v>
+        <v>0.229194</v>
       </c>
       <c r="C131" t="n">
-        <v>0.258877</v>
+        <v>0.262344</v>
       </c>
       <c r="D131" t="n">
-        <v>0.207016</v>
+        <v>0.209185</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.23837</v>
+        <v>0.239154</v>
       </c>
       <c r="C132" t="n">
-        <v>0.275883</v>
+        <v>0.281547</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214635</v>
+        <v>0.221281</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258213</v>
+        <v>0.26118</v>
       </c>
       <c r="C133" t="n">
-        <v>0.290837</v>
+        <v>0.293915</v>
       </c>
       <c r="D133" t="n">
-        <v>0.220068</v>
+        <v>0.229101</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.287258</v>
+        <v>0.296865</v>
       </c>
       <c r="C134" t="n">
-        <v>0.316005</v>
+        <v>0.313071</v>
       </c>
       <c r="D134" t="n">
-        <v>0.229602</v>
+        <v>0.231359</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.323389</v>
+        <v>0.328394</v>
       </c>
       <c r="C135" t="n">
-        <v>0.34605</v>
+        <v>0.349269</v>
       </c>
       <c r="D135" t="n">
-        <v>0.242408</v>
+        <v>0.243738</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.390409</v>
+        <v>0.397388</v>
       </c>
       <c r="C136" t="n">
-        <v>0.400386</v>
+        <v>0.401831</v>
       </c>
       <c r="D136" t="n">
-        <v>0.268743</v>
+        <v>0.268212</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482707</v>
+        <v>0.492655</v>
       </c>
       <c r="C137" t="n">
-        <v>0.485085</v>
+        <v>0.483275</v>
       </c>
       <c r="D137" t="n">
-        <v>0.318739</v>
+        <v>0.330917</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314653</v>
+        <v>0.321902</v>
       </c>
       <c r="C138" t="n">
-        <v>0.350801</v>
+        <v>0.362723</v>
       </c>
       <c r="D138" t="n">
-        <v>0.320672</v>
+        <v>0.335177</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.315711</v>
+        <v>0.32428</v>
       </c>
       <c r="C139" t="n">
-        <v>0.354978</v>
+        <v>0.366693</v>
       </c>
       <c r="D139" t="n">
-        <v>0.324155</v>
+        <v>0.329656</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.318791</v>
+        <v>0.32839</v>
       </c>
       <c r="C140" t="n">
-        <v>0.361001</v>
+        <v>0.371844</v>
       </c>
       <c r="D140" t="n">
-        <v>0.326995</v>
+        <v>0.339946</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.324839</v>
+        <v>0.329977</v>
       </c>
       <c r="C141" t="n">
-        <v>0.366451</v>
+        <v>0.378049</v>
       </c>
       <c r="D141" t="n">
-        <v>0.326931</v>
+        <v>0.33776</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.330185</v>
+        <v>0.342282</v>
       </c>
       <c r="C142" t="n">
-        <v>0.369731</v>
+        <v>0.381605</v>
       </c>
       <c r="D142" t="n">
-        <v>0.335</v>
+        <v>0.347881</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.336909</v>
+        <v>0.346003</v>
       </c>
       <c r="C143" t="n">
-        <v>0.378205</v>
+        <v>0.390724</v>
       </c>
       <c r="D143" t="n">
-        <v>0.337624</v>
+        <v>0.347413</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0932793</v>
+        <v>0.0933875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113169</v>
+        <v>0.113374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113552</v>
+        <v>0.113718</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0967795</v>
+        <v>0.0968738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115486</v>
+        <v>0.115605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114544</v>
+        <v>0.11463</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.104519</v>
+        <v>0.104431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119825</v>
+        <v>0.12014</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116316</v>
+        <v>0.116436</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121473</v>
+        <v>0.122083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127213</v>
+        <v>0.127544</v>
       </c>
       <c r="D5" t="n">
-        <v>0.118933</v>
+        <v>0.119079</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.144892</v>
+        <v>0.145165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.139464</v>
+        <v>0.139793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122464</v>
+        <v>0.12256</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180661</v>
+        <v>0.180844</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159565</v>
+        <v>0.159324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128251</v>
+        <v>0.128441</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218416</v>
+        <v>0.218748</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20133</v>
+        <v>0.201383</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140203</v>
+        <v>0.140399</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.263431</v>
+        <v>0.263391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246816</v>
+        <v>0.246831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10977</v>
+        <v>0.109681</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0859187</v>
+        <v>0.0860088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.106009</v>
+        <v>0.10615</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110131</v>
+        <v>0.110153</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08662830000000001</v>
+        <v>0.08669350000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106768</v>
+        <v>0.10645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110407</v>
+        <v>0.110421</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08800959999999999</v>
+        <v>0.087669</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10792</v>
+        <v>0.107426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110816</v>
+        <v>0.110867</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0895336</v>
+        <v>0.0895436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111736</v>
+        <v>0.108267</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111254</v>
+        <v>0.1113</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0910971</v>
+        <v>0.0912681</v>
       </c>
       <c r="C14" t="n">
-        <v>0.109729</v>
+        <v>0.109935</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111873</v>
+        <v>0.111908</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0948953</v>
+        <v>0.09456349999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.116316</v>
+        <v>0.112418</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112524</v>
+        <v>0.112561</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100958</v>
+        <v>0.101098</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115493</v>
+        <v>0.115558</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113626</v>
+        <v>0.113659</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108806</v>
+        <v>0.108303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121144</v>
+        <v>0.118831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114855</v>
+        <v>0.114877</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120562</v>
+        <v>0.12014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125605</v>
+        <v>0.125685</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116985</v>
+        <v>0.11689</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13574</v>
+        <v>0.135245</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135033</v>
+        <v>0.135069</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119932</v>
+        <v>0.119988</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155948</v>
+        <v>0.155381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.149912</v>
+        <v>0.148242</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123862</v>
+        <v>0.123871</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185569</v>
+        <v>0.184771</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166308</v>
+        <v>0.16635</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130421</v>
+        <v>0.130337</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.220116</v>
+        <v>0.219505</v>
       </c>
       <c r="C22" t="n">
-        <v>0.213159</v>
+        <v>0.204186</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145517</v>
+        <v>0.145415</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.274509</v>
+        <v>0.265396</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252739</v>
+        <v>0.251955</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111079</v>
+        <v>0.111059</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0895576</v>
+        <v>0.0895599</v>
       </c>
       <c r="C24" t="n">
-        <v>0.109042</v>
+        <v>0.109028</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111371</v>
+        <v>0.111375</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0917562</v>
+        <v>0.0906222</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109624</v>
+        <v>0.109701</v>
       </c>
       <c r="D25" t="n">
-        <v>0.111675</v>
+        <v>0.11158</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0918453</v>
+        <v>0.0920252</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110511</v>
+        <v>0.110541</v>
       </c>
       <c r="D26" t="n">
-        <v>0.11201</v>
+        <v>0.111952</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0936823</v>
+        <v>0.0939253</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111674</v>
+        <v>0.111335</v>
       </c>
       <c r="D27" t="n">
-        <v>0.112428</v>
+        <v>0.112419</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0964039</v>
+        <v>0.0965519</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113395</v>
+        <v>0.113331</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113017</v>
+        <v>0.112993</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100386</v>
+        <v>0.100542</v>
       </c>
       <c r="C29" t="n">
-        <v>0.115246</v>
+        <v>0.115218</v>
       </c>
       <c r="D29" t="n">
-        <v>0.113582</v>
+        <v>0.113509</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.105573</v>
+        <v>0.10568</v>
       </c>
       <c r="C30" t="n">
-        <v>0.117819</v>
+        <v>0.117749</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114519</v>
+        <v>0.114432</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112478</v>
+        <v>0.112555</v>
       </c>
       <c r="C31" t="n">
-        <v>0.121871</v>
+        <v>0.121389</v>
       </c>
       <c r="D31" t="n">
-        <v>0.115846</v>
+        <v>0.115698</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.122107</v>
+        <v>0.121979</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127641</v>
+        <v>0.127463</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117578</v>
+        <v>0.117552</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135979</v>
+        <v>0.135871</v>
       </c>
       <c r="C33" t="n">
-        <v>0.135807</v>
+        <v>0.135744</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120436</v>
+        <v>0.120307</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154376</v>
+        <v>0.154215</v>
       </c>
       <c r="C34" t="n">
-        <v>0.150005</v>
+        <v>0.149629</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125159</v>
+        <v>0.124766</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177425</v>
+        <v>0.17731</v>
       </c>
       <c r="C35" t="n">
-        <v>0.170013</v>
+        <v>0.169935</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132424</v>
+        <v>0.132285</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.21522</v>
+        <v>0.214844</v>
       </c>
       <c r="C36" t="n">
-        <v>0.197698</v>
+        <v>0.196998</v>
       </c>
       <c r="D36" t="n">
-        <v>0.146698</v>
+        <v>0.145006</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258365</v>
+        <v>0.258433</v>
       </c>
       <c r="C37" t="n">
-        <v>0.256381</v>
+        <v>0.244049</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112186</v>
+        <v>0.112035</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09249</v>
+        <v>0.091895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.110939</v>
+        <v>0.110991</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112413</v>
+        <v>0.112325</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0932356</v>
+        <v>0.092969</v>
       </c>
       <c r="C39" t="n">
-        <v>0.111841</v>
+        <v>0.111698</v>
       </c>
       <c r="D39" t="n">
-        <v>0.112849</v>
+        <v>0.112663</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0948261</v>
+        <v>0.0944493</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11327</v>
+        <v>0.112847</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113563</v>
+        <v>0.113085</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09673900000000001</v>
+        <v>0.0966209</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114261</v>
+        <v>0.114126</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114107</v>
+        <v>0.113602</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0996133</v>
+        <v>0.0994936</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115571</v>
+        <v>0.115437</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11437</v>
+        <v>0.114147</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103367</v>
+        <v>0.103092</v>
       </c>
       <c r="C43" t="n">
-        <v>0.117706</v>
+        <v>0.117611</v>
       </c>
       <c r="D43" t="n">
-        <v>0.114897</v>
+        <v>0.114727</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108649</v>
+        <v>0.108178</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120245</v>
+        <v>0.120108</v>
       </c>
       <c r="D44" t="n">
-        <v>0.115955</v>
+        <v>0.115728</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114881</v>
+        <v>0.114545</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123695</v>
+        <v>0.12368</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117089</v>
+        <v>0.116888</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123153</v>
+        <v>0.122822</v>
       </c>
       <c r="C46" t="n">
-        <v>0.129172</v>
+        <v>0.129545</v>
       </c>
       <c r="D46" t="n">
-        <v>0.118887</v>
+        <v>0.118676</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133553</v>
+        <v>0.133363</v>
       </c>
       <c r="C47" t="n">
-        <v>0.138324</v>
+        <v>0.136741</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121899</v>
+        <v>0.120801</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150507</v>
+        <v>0.150297</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147726</v>
+        <v>0.147581</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124808</v>
+        <v>0.124691</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172737</v>
+        <v>0.173592</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163206</v>
+        <v>0.163267</v>
       </c>
       <c r="D49" t="n">
-        <v>0.131039</v>
+        <v>0.130962</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.205232</v>
+        <v>0.205499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.187063</v>
+        <v>0.187326</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14095</v>
+        <v>0.140828</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247907</v>
+        <v>0.247418</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226084</v>
+        <v>0.226058</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114061</v>
+        <v>0.114494</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294213</v>
+        <v>0.294791</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286093</v>
+        <v>0.286396</v>
       </c>
       <c r="D52" t="n">
-        <v>0.114338</v>
+        <v>0.11446</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0962958</v>
+        <v>0.0956251</v>
       </c>
       <c r="C53" t="n">
-        <v>0.115262</v>
+        <v>0.114989</v>
       </c>
       <c r="D53" t="n">
-        <v>0.115735</v>
+        <v>0.114954</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.099426</v>
+        <v>0.09754740000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.116506</v>
+        <v>0.11617</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115605</v>
+        <v>0.115575</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100026</v>
+        <v>0.100174</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116659</v>
+        <v>0.117274</v>
       </c>
       <c r="D55" t="n">
-        <v>0.116031</v>
+        <v>0.11567</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102398</v>
+        <v>0.102778</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119718</v>
+        <v>0.118971</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116358</v>
+        <v>0.116461</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106631</v>
+        <v>0.105696</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1211</v>
+        <v>0.121791</v>
       </c>
       <c r="D57" t="n">
-        <v>0.11784</v>
+        <v>0.117679</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.110958</v>
+        <v>0.111147</v>
       </c>
       <c r="C58" t="n">
-        <v>0.123737</v>
+        <v>0.124693</v>
       </c>
       <c r="D58" t="n">
-        <v>0.118588</v>
+        <v>0.118457</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116625</v>
+        <v>0.116166</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127653</v>
+        <v>0.128003</v>
       </c>
       <c r="D59" t="n">
-        <v>0.11929</v>
+        <v>0.119473</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125059</v>
+        <v>0.124051</v>
       </c>
       <c r="C60" t="n">
-        <v>0.132075</v>
+        <v>0.133188</v>
       </c>
       <c r="D60" t="n">
-        <v>0.120552</v>
+        <v>0.121194</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.134773</v>
+        <v>0.13529</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138607</v>
+        <v>0.139775</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123002</v>
+        <v>0.123574</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.149728</v>
+        <v>0.149613</v>
       </c>
       <c r="C62" t="n">
-        <v>0.149024</v>
+        <v>0.150699</v>
       </c>
       <c r="D62" t="n">
-        <v>0.126923</v>
+        <v>0.127472</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171391</v>
+        <v>0.169201</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163804</v>
+        <v>0.164826</v>
       </c>
       <c r="D63" t="n">
-        <v>0.132239</v>
+        <v>0.132551</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200491</v>
+        <v>0.200118</v>
       </c>
       <c r="C64" t="n">
-        <v>0.186414</v>
+        <v>0.187203</v>
       </c>
       <c r="D64" t="n">
-        <v>0.142016</v>
+        <v>0.142076</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246215</v>
+        <v>0.242374</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223994</v>
+        <v>0.223837</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158105</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.289507</v>
+        <v>0.293203</v>
       </c>
       <c r="C66" t="n">
-        <v>0.280142</v>
+        <v>0.27923</v>
       </c>
       <c r="D66" t="n">
-        <v>0.125228</v>
+        <v>0.124312</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107275</v>
+        <v>0.106978</v>
       </c>
       <c r="C67" t="n">
-        <v>0.12299</v>
+        <v>0.124704</v>
       </c>
       <c r="D67" t="n">
-        <v>0.124766</v>
+        <v>0.124786</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108698</v>
+        <v>0.108201</v>
       </c>
       <c r="C68" t="n">
-        <v>0.126856</v>
+        <v>0.127906</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125923</v>
+        <v>0.125686</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110859</v>
+        <v>0.110875</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127182</v>
+        <v>0.127631</v>
       </c>
       <c r="D69" t="n">
-        <v>0.126582</v>
+        <v>0.124679</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115147</v>
+        <v>0.112511</v>
       </c>
       <c r="C70" t="n">
-        <v>0.129111</v>
+        <v>0.128852</v>
       </c>
       <c r="D70" t="n">
-        <v>0.125997</v>
+        <v>0.125387</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.116791</v>
+        <v>0.116235</v>
       </c>
       <c r="C71" t="n">
-        <v>0.130459</v>
+        <v>0.131329</v>
       </c>
       <c r="D71" t="n">
-        <v>0.126454</v>
+        <v>0.127096</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121234</v>
+        <v>0.120691</v>
       </c>
       <c r="C72" t="n">
-        <v>0.133913</v>
+        <v>0.133243</v>
       </c>
       <c r="D72" t="n">
-        <v>0.127305</v>
+        <v>0.126571</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126874</v>
+        <v>0.125464</v>
       </c>
       <c r="C73" t="n">
-        <v>0.137231</v>
+        <v>0.138047</v>
       </c>
       <c r="D73" t="n">
-        <v>0.129036</v>
+        <v>0.128677</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135273</v>
+        <v>0.133294</v>
       </c>
       <c r="C74" t="n">
-        <v>0.143493</v>
+        <v>0.143197</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131494</v>
+        <v>0.130717</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14686</v>
+        <v>0.144448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.147722</v>
+        <v>0.149286</v>
       </c>
       <c r="D75" t="n">
-        <v>0.132777</v>
+        <v>0.132294</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.163643</v>
+        <v>0.160296</v>
       </c>
       <c r="C76" t="n">
-        <v>0.160096</v>
+        <v>0.159599</v>
       </c>
       <c r="D76" t="n">
-        <v>0.135373</v>
+        <v>0.136265</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.176291</v>
+        <v>0.178446</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172048</v>
+        <v>0.174015</v>
       </c>
       <c r="D77" t="n">
-        <v>0.142301</v>
+        <v>0.141658</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206347</v>
+        <v>0.207308</v>
       </c>
       <c r="C78" t="n">
-        <v>0.19271</v>
+        <v>0.19406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.149313</v>
+        <v>0.149735</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246443</v>
+        <v>0.251041</v>
       </c>
       <c r="C79" t="n">
-        <v>0.225331</v>
+        <v>0.225991</v>
       </c>
       <c r="D79" t="n">
-        <v>0.163431</v>
+        <v>0.164728</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.29751</v>
+        <v>0.298025</v>
       </c>
       <c r="C80" t="n">
-        <v>0.27763</v>
+        <v>0.279016</v>
       </c>
       <c r="D80" t="n">
-        <v>0.13514</v>
+        <v>0.134018</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120507</v>
+        <v>0.120445</v>
       </c>
       <c r="C81" t="n">
-        <v>0.136425</v>
+        <v>0.136909</v>
       </c>
       <c r="D81" t="n">
-        <v>0.133732</v>
+        <v>0.134055</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121966</v>
+        <v>0.122582</v>
       </c>
       <c r="C82" t="n">
-        <v>0.135482</v>
+        <v>0.13859</v>
       </c>
       <c r="D82" t="n">
-        <v>0.136449</v>
+        <v>0.134922</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.125134</v>
+        <v>0.12452</v>
       </c>
       <c r="C83" t="n">
-        <v>0.139985</v>
+        <v>0.140057</v>
       </c>
       <c r="D83" t="n">
-        <v>0.136981</v>
+        <v>0.13538</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127454</v>
+        <v>0.127378</v>
       </c>
       <c r="C84" t="n">
-        <v>0.142994</v>
+        <v>0.143047</v>
       </c>
       <c r="D84" t="n">
-        <v>0.137817</v>
+        <v>0.136353</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130082</v>
+        <v>0.131509</v>
       </c>
       <c r="C85" t="n">
-        <v>0.14337</v>
+        <v>0.146156</v>
       </c>
       <c r="D85" t="n">
-        <v>0.13852</v>
+        <v>0.138665</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137473</v>
+        <v>0.137518</v>
       </c>
       <c r="C86" t="n">
-        <v>0.150005</v>
+        <v>0.150966</v>
       </c>
       <c r="D86" t="n">
-        <v>0.140572</v>
+        <v>0.1386</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141075</v>
+        <v>0.144584</v>
       </c>
       <c r="C87" t="n">
-        <v>0.155807</v>
+        <v>0.155682</v>
       </c>
       <c r="D87" t="n">
-        <v>0.139439</v>
+        <v>0.142015</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150338</v>
+        <v>0.149302</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162121</v>
+        <v>0.162548</v>
       </c>
       <c r="D88" t="n">
-        <v>0.143234</v>
+        <v>0.144224</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161938</v>
+        <v>0.164925</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17177</v>
+        <v>0.171389</v>
       </c>
       <c r="D89" t="n">
-        <v>0.146962</v>
+        <v>0.147295</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.174928</v>
+        <v>0.176871</v>
       </c>
       <c r="C90" t="n">
-        <v>0.183844</v>
+        <v>0.184028</v>
       </c>
       <c r="D90" t="n">
-        <v>0.152553</v>
+        <v>0.152561</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.199868</v>
+        <v>0.197658</v>
       </c>
       <c r="C91" t="n">
-        <v>0.198114</v>
+        <v>0.19865</v>
       </c>
       <c r="D91" t="n">
-        <v>0.159001</v>
+        <v>0.157536</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.224145</v>
+        <v>0.226833</v>
       </c>
       <c r="C92" t="n">
-        <v>0.220742</v>
+        <v>0.221348</v>
       </c>
       <c r="D92" t="n">
-        <v>0.167679</v>
+        <v>0.168152</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.274822</v>
+        <v>0.270077</v>
       </c>
       <c r="C93" t="n">
-        <v>0.252249</v>
+        <v>0.255143</v>
       </c>
       <c r="D93" t="n">
-        <v>0.181347</v>
+        <v>0.183162</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332665</v>
+        <v>0.32477</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306683</v>
+        <v>0.305904</v>
       </c>
       <c r="D94" t="n">
-        <v>0.145573</v>
+        <v>0.146651</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133536</v>
+        <v>0.133237</v>
       </c>
       <c r="C95" t="n">
-        <v>0.156486</v>
+        <v>0.157074</v>
       </c>
       <c r="D95" t="n">
-        <v>0.147892</v>
+        <v>0.147098</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136544</v>
+        <v>0.138463</v>
       </c>
       <c r="C96" t="n">
-        <v>0.160616</v>
+        <v>0.159893</v>
       </c>
       <c r="D96" t="n">
-        <v>0.148385</v>
+        <v>0.148714</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141309</v>
+        <v>0.142115</v>
       </c>
       <c r="C97" t="n">
-        <v>0.163421</v>
+        <v>0.165692</v>
       </c>
       <c r="D97" t="n">
-        <v>0.150799</v>
+        <v>0.150729</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145752</v>
+        <v>0.144136</v>
       </c>
       <c r="C98" t="n">
-        <v>0.166813</v>
+        <v>0.169402</v>
       </c>
       <c r="D98" t="n">
-        <v>0.154435</v>
+        <v>0.152466</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.150978</v>
+        <v>0.150568</v>
       </c>
       <c r="C99" t="n">
-        <v>0.174122</v>
+        <v>0.171699</v>
       </c>
       <c r="D99" t="n">
-        <v>0.155332</v>
+        <v>0.154702</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.15393</v>
+        <v>0.154423</v>
       </c>
       <c r="C100" t="n">
-        <v>0.179703</v>
+        <v>0.176093</v>
       </c>
       <c r="D100" t="n">
-        <v>0.157464</v>
+        <v>0.156189</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160495</v>
+        <v>0.161499</v>
       </c>
       <c r="C101" t="n">
-        <v>0.185082</v>
+        <v>0.185255</v>
       </c>
       <c r="D101" t="n">
-        <v>0.159535</v>
+        <v>0.157587</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169089</v>
+        <v>0.168991</v>
       </c>
       <c r="C102" t="n">
-        <v>0.189381</v>
+        <v>0.192828</v>
       </c>
       <c r="D102" t="n">
-        <v>0.162355</v>
+        <v>0.162995</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.181821</v>
+        <v>0.180828</v>
       </c>
       <c r="C103" t="n">
-        <v>0.202665</v>
+        <v>0.202208</v>
       </c>
       <c r="D103" t="n">
-        <v>0.167253</v>
+        <v>0.165943</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200938</v>
+        <v>0.194917</v>
       </c>
       <c r="C104" t="n">
-        <v>0.21624</v>
+        <v>0.215746</v>
       </c>
       <c r="D104" t="n">
-        <v>0.172414</v>
+        <v>0.169663</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.222371</v>
+        <v>0.215396</v>
       </c>
       <c r="C105" t="n">
-        <v>0.229779</v>
+        <v>0.234188</v>
       </c>
       <c r="D105" t="n">
-        <v>0.177147</v>
+        <v>0.175414</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.245129</v>
+        <v>0.247115</v>
       </c>
       <c r="C106" t="n">
-        <v>0.254792</v>
+        <v>0.254578</v>
       </c>
       <c r="D106" t="n">
-        <v>0.187516</v>
+        <v>0.184839</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.297314</v>
+        <v>0.291086</v>
       </c>
       <c r="C107" t="n">
-        <v>0.29081</v>
+        <v>0.295287</v>
       </c>
       <c r="D107" t="n">
-        <v>0.199963</v>
+        <v>0.201837</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.358074</v>
+        <v>0.352</v>
       </c>
       <c r="C108" t="n">
-        <v>0.351263</v>
+        <v>0.346569</v>
       </c>
       <c r="D108" t="n">
-        <v>0.154511</v>
+        <v>0.154941</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.447845</v>
+        <v>0.450232</v>
       </c>
       <c r="C109" t="n">
-        <v>0.440534</v>
+        <v>0.434578</v>
       </c>
       <c r="D109" t="n">
-        <v>0.15645</v>
+        <v>0.158108</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145043</v>
+        <v>0.145875</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184478</v>
+        <v>0.18384</v>
       </c>
       <c r="D110" t="n">
-        <v>0.159072</v>
+        <v>0.157499</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.148689</v>
+        <v>0.149897</v>
       </c>
       <c r="C111" t="n">
-        <v>0.189325</v>
+        <v>0.18923</v>
       </c>
       <c r="D111" t="n">
-        <v>0.159346</v>
+        <v>0.16043</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154153</v>
+        <v>0.15179</v>
       </c>
       <c r="C112" t="n">
-        <v>0.194246</v>
+        <v>0.193502</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162856</v>
+        <v>0.161077</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.156917</v>
+        <v>0.156767</v>
       </c>
       <c r="C113" t="n">
-        <v>0.199749</v>
+        <v>0.198734</v>
       </c>
       <c r="D113" t="n">
-        <v>0.162583</v>
+        <v>0.163233</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.163484</v>
+        <v>0.162964</v>
       </c>
       <c r="C114" t="n">
-        <v>0.205839</v>
+        <v>0.205827</v>
       </c>
       <c r="D114" t="n">
-        <v>0.165248</v>
+        <v>0.167164</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171844</v>
+        <v>0.170583</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212486</v>
+        <v>0.213688</v>
       </c>
       <c r="D115" t="n">
-        <v>0.169524</v>
+        <v>0.170328</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.181</v>
+        <v>0.183054</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222341</v>
+        <v>0.222354</v>
       </c>
       <c r="D116" t="n">
-        <v>0.174529</v>
+        <v>0.173257</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.194379</v>
+        <v>0.194451</v>
       </c>
       <c r="C117" t="n">
-        <v>0.23265</v>
+        <v>0.232566</v>
       </c>
       <c r="D117" t="n">
-        <v>0.179415</v>
+        <v>0.178253</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.217675</v>
+        <v>0.211953</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246493</v>
+        <v>0.24671</v>
       </c>
       <c r="D118" t="n">
-        <v>0.185986</v>
+        <v>0.185714</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240783</v>
+        <v>0.234944</v>
       </c>
       <c r="C119" t="n">
-        <v>0.263576</v>
+        <v>0.264944</v>
       </c>
       <c r="D119" t="n">
-        <v>0.193833</v>
+        <v>0.193853</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273785</v>
+        <v>0.266295</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28757</v>
+        <v>0.288724</v>
       </c>
       <c r="D120" t="n">
-        <v>0.205626</v>
+        <v>0.206317</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310303</v>
+        <v>0.310186</v>
       </c>
       <c r="C121" t="n">
-        <v>0.322367</v>
+        <v>0.323659</v>
       </c>
       <c r="D121" t="n">
-        <v>0.222357</v>
+        <v>0.222535</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373435</v>
+        <v>0.381724</v>
       </c>
       <c r="C122" t="n">
-        <v>0.376638</v>
+        <v>0.376514</v>
       </c>
       <c r="D122" t="n">
-        <v>0.248637</v>
+        <v>0.250373</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471653</v>
+        <v>0.465143</v>
       </c>
       <c r="C123" t="n">
-        <v>0.477302</v>
+        <v>0.477018</v>
       </c>
       <c r="D123" t="n">
-        <v>0.188428</v>
+        <v>0.179854</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.177393</v>
+        <v>0.172307</v>
       </c>
       <c r="C124" t="n">
-        <v>0.224107</v>
+        <v>0.214958</v>
       </c>
       <c r="D124" t="n">
-        <v>0.187498</v>
+        <v>0.183991</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.182651</v>
+        <v>0.174465</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221028</v>
+        <v>0.221118</v>
       </c>
       <c r="D125" t="n">
-        <v>0.194348</v>
+        <v>0.185834</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.182203</v>
+        <v>0.180306</v>
       </c>
       <c r="C126" t="n">
-        <v>0.226119</v>
+        <v>0.224089</v>
       </c>
       <c r="D126" t="n">
-        <v>0.190377</v>
+        <v>0.194983</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.187983</v>
+        <v>0.186016</v>
       </c>
       <c r="C127" t="n">
-        <v>0.235004</v>
+        <v>0.228952</v>
       </c>
       <c r="D127" t="n">
-        <v>0.192672</v>
+        <v>0.19319</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.192452</v>
+        <v>0.191851</v>
       </c>
       <c r="C128" t="n">
-        <v>0.238303</v>
+        <v>0.236112</v>
       </c>
       <c r="D128" t="n">
-        <v>0.203035</v>
+        <v>0.196089</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.205862</v>
+        <v>0.199153</v>
       </c>
       <c r="C129" t="n">
-        <v>0.244087</v>
+        <v>0.242395</v>
       </c>
       <c r="D129" t="n">
-        <v>0.201724</v>
+        <v>0.196386</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208627</v>
+        <v>0.208553</v>
       </c>
       <c r="C130" t="n">
-        <v>0.252177</v>
+        <v>0.249475</v>
       </c>
       <c r="D130" t="n">
-        <v>0.206576</v>
+        <v>0.201339</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.229194</v>
+        <v>0.219042</v>
       </c>
       <c r="C131" t="n">
-        <v>0.262344</v>
+        <v>0.26299</v>
       </c>
       <c r="D131" t="n">
-        <v>0.209185</v>
+        <v>0.208031</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.239154</v>
+        <v>0.236237</v>
       </c>
       <c r="C132" t="n">
-        <v>0.281547</v>
+        <v>0.276134</v>
       </c>
       <c r="D132" t="n">
-        <v>0.221281</v>
+        <v>0.215487</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.26118</v>
+        <v>0.25973</v>
       </c>
       <c r="C133" t="n">
-        <v>0.293915</v>
+        <v>0.2926</v>
       </c>
       <c r="D133" t="n">
-        <v>0.229101</v>
+        <v>0.218858</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.296865</v>
+        <v>0.285337</v>
       </c>
       <c r="C134" t="n">
-        <v>0.313071</v>
+        <v>0.314068</v>
       </c>
       <c r="D134" t="n">
-        <v>0.231359</v>
+        <v>0.229286</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.328394</v>
+        <v>0.325929</v>
       </c>
       <c r="C135" t="n">
-        <v>0.349269</v>
+        <v>0.348663</v>
       </c>
       <c r="D135" t="n">
-        <v>0.243738</v>
+        <v>0.245454</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.397388</v>
+        <v>0.391326</v>
       </c>
       <c r="C136" t="n">
-        <v>0.401831</v>
+        <v>0.398664</v>
       </c>
       <c r="D136" t="n">
-        <v>0.268212</v>
+        <v>0.269755</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.492655</v>
+        <v>0.483486</v>
       </c>
       <c r="C137" t="n">
-        <v>0.483275</v>
+        <v>0.477594</v>
       </c>
       <c r="D137" t="n">
-        <v>0.330917</v>
+        <v>0.316112</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.321902</v>
+        <v>0.31566</v>
       </c>
       <c r="C138" t="n">
-        <v>0.362723</v>
+        <v>0.35496</v>
       </c>
       <c r="D138" t="n">
-        <v>0.335177</v>
+        <v>0.325547</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.32428</v>
+        <v>0.318704</v>
       </c>
       <c r="C139" t="n">
-        <v>0.366693</v>
+        <v>0.358734</v>
       </c>
       <c r="D139" t="n">
-        <v>0.329656</v>
+        <v>0.326476</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.32839</v>
+        <v>0.322494</v>
       </c>
       <c r="C140" t="n">
-        <v>0.371844</v>
+        <v>0.362559</v>
       </c>
       <c r="D140" t="n">
-        <v>0.339946</v>
+        <v>0.328461</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329977</v>
+        <v>0.325213</v>
       </c>
       <c r="C141" t="n">
-        <v>0.378049</v>
+        <v>0.365762</v>
       </c>
       <c r="D141" t="n">
-        <v>0.33776</v>
+        <v>0.330366</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.342282</v>
+        <v>0.333681</v>
       </c>
       <c r="C142" t="n">
-        <v>0.381605</v>
+        <v>0.373181</v>
       </c>
       <c r="D142" t="n">
-        <v>0.347881</v>
+        <v>0.331805</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.346003</v>
+        <v>0.339701</v>
       </c>
       <c r="C143" t="n">
-        <v>0.390724</v>
+        <v>0.37919</v>
       </c>
       <c r="D143" t="n">
-        <v>0.347413</v>
+        <v>0.334444</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0933875</v>
+        <v>0.0934715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113374</v>
+        <v>0.113223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113718</v>
+        <v>0.113636</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0968738</v>
+        <v>0.09698130000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115605</v>
+        <v>0.115422</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11463</v>
+        <v>0.114526</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.104431</v>
+        <v>0.104143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.12014</v>
+        <v>0.119764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116436</v>
+        <v>0.116238</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122083</v>
+        <v>0.121585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127544</v>
+        <v>0.127118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119079</v>
+        <v>0.118867</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145165</v>
+        <v>0.145156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.139793</v>
+        <v>0.139314</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12256</v>
+        <v>0.122521</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180844</v>
+        <v>0.180215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159324</v>
+        <v>0.159364</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128441</v>
+        <v>0.12817</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218748</v>
+        <v>0.218025</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201383</v>
+        <v>0.201163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140399</v>
+        <v>0.140251</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.263391</v>
+        <v>0.262988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246831</v>
+        <v>0.247191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109681</v>
+        <v>0.109727</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0860088</v>
+        <v>0.0858505</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10615</v>
+        <v>0.105619</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110153</v>
+        <v>0.110099</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08669350000000001</v>
+        <v>0.08670120000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10645</v>
+        <v>0.106259</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110421</v>
+        <v>0.110347</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.087669</v>
+        <v>0.0880266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107426</v>
+        <v>0.109551</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110867</v>
+        <v>0.110802</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0895436</v>
+        <v>0.0901151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108267</v>
+        <v>0.111586</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1113</v>
+        <v>0.111287</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0912681</v>
+        <v>0.0918626</v>
       </c>
       <c r="C14" t="n">
-        <v>0.109935</v>
+        <v>0.115235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111908</v>
+        <v>0.111901</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09456349999999999</v>
+        <v>0.0971976</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112418</v>
+        <v>0.111737</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112561</v>
+        <v>0.112536</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101098</v>
+        <v>0.10252</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115558</v>
+        <v>0.119402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113659</v>
+        <v>0.113595</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108303</v>
+        <v>0.108305</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118831</v>
+        <v>0.120065</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114877</v>
+        <v>0.114835</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12014</v>
+        <v>0.123493</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125685</v>
+        <v>0.125733</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11689</v>
+        <v>0.116858</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135245</v>
+        <v>0.135347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135069</v>
+        <v>0.135876</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119988</v>
+        <v>0.11988</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155381</v>
+        <v>0.164155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.148242</v>
+        <v>0.147431</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123871</v>
+        <v>0.124539</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184771</v>
+        <v>0.19509</v>
       </c>
       <c r="C21" t="n">
-        <v>0.16635</v>
+        <v>0.166109</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130337</v>
+        <v>0.130658</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.219505</v>
+        <v>0.226721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204186</v>
+        <v>0.204247</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145415</v>
+        <v>0.14548</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265396</v>
+        <v>0.27485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251955</v>
+        <v>0.251915</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111059</v>
+        <v>0.113737</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0895599</v>
+        <v>0.0907596</v>
       </c>
       <c r="C24" t="n">
-        <v>0.109028</v>
+        <v>0.110589</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111375</v>
+        <v>0.111717</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0906222</v>
+        <v>0.0906695</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109701</v>
+        <v>0.109681</v>
       </c>
       <c r="D25" t="n">
-        <v>0.11158</v>
+        <v>0.111961</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0920252</v>
+        <v>0.0920058</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110541</v>
+        <v>0.111326</v>
       </c>
       <c r="D26" t="n">
-        <v>0.111952</v>
+        <v>0.112507</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0939253</v>
+        <v>0.0938687</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111335</v>
+        <v>0.112451</v>
       </c>
       <c r="D27" t="n">
-        <v>0.112419</v>
+        <v>0.112734</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0965519</v>
+        <v>0.096527</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113331</v>
+        <v>0.113428</v>
       </c>
       <c r="D28" t="n">
-        <v>0.112993</v>
+        <v>0.115416</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100542</v>
+        <v>0.102656</v>
       </c>
       <c r="C29" t="n">
-        <v>0.115218</v>
+        <v>0.116271</v>
       </c>
       <c r="D29" t="n">
-        <v>0.113509</v>
+        <v>0.114006</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.10568</v>
+        <v>0.108357</v>
       </c>
       <c r="C30" t="n">
-        <v>0.117749</v>
+        <v>0.118134</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114432</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112555</v>
+        <v>0.113236</v>
       </c>
       <c r="C31" t="n">
-        <v>0.121389</v>
+        <v>0.12309</v>
       </c>
       <c r="D31" t="n">
-        <v>0.115698</v>
+        <v>0.116236</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121979</v>
+        <v>0.122215</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127463</v>
+        <v>0.130835</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117552</v>
+        <v>0.117918</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135871</v>
+        <v>0.135971</v>
       </c>
       <c r="C33" t="n">
-        <v>0.135744</v>
+        <v>0.137098</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120307</v>
+        <v>0.120845</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154215</v>
+        <v>0.154276</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149629</v>
+        <v>0.149797</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124766</v>
+        <v>0.125209</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.17731</v>
+        <v>0.177404</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169935</v>
+        <v>0.169456</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132285</v>
+        <v>0.132538</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.214844</v>
+        <v>0.21468</v>
       </c>
       <c r="C36" t="n">
-        <v>0.196998</v>
+        <v>0.197406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145006</v>
+        <v>0.145449</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258433</v>
+        <v>0.258435</v>
       </c>
       <c r="C37" t="n">
-        <v>0.244049</v>
+        <v>0.244665</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112035</v>
+        <v>0.112567</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.091895</v>
+        <v>0.0928494</v>
       </c>
       <c r="C38" t="n">
-        <v>0.110991</v>
+        <v>0.112269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112325</v>
+        <v>0.112561</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.092969</v>
+        <v>0.0930821</v>
       </c>
       <c r="C39" t="n">
-        <v>0.111698</v>
+        <v>0.111653</v>
       </c>
       <c r="D39" t="n">
-        <v>0.112663</v>
+        <v>0.112708</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0944493</v>
+        <v>0.09620910000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.112847</v>
+        <v>0.114397</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113085</v>
+        <v>0.113669</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0966209</v>
+        <v>0.0968334</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114126</v>
+        <v>0.11412</v>
       </c>
       <c r="D41" t="n">
-        <v>0.113602</v>
+        <v>0.11378</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0994936</v>
+        <v>0.09940499999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115437</v>
+        <v>0.115464</v>
       </c>
       <c r="D42" t="n">
-        <v>0.114147</v>
+        <v>0.114535</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103092</v>
+        <v>0.103137</v>
       </c>
       <c r="C43" t="n">
-        <v>0.117611</v>
+        <v>0.117501</v>
       </c>
       <c r="D43" t="n">
-        <v>0.114727</v>
+        <v>0.114741</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108178</v>
+        <v>0.108189</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120108</v>
+        <v>0.119936</v>
       </c>
       <c r="D44" t="n">
-        <v>0.115728</v>
+        <v>0.115869</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114545</v>
+        <v>0.114646</v>
       </c>
       <c r="C45" t="n">
-        <v>0.12368</v>
+        <v>0.123732</v>
       </c>
       <c r="D45" t="n">
-        <v>0.116888</v>
+        <v>0.117154</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122822</v>
+        <v>0.123581</v>
       </c>
       <c r="C46" t="n">
-        <v>0.129545</v>
+        <v>0.129182</v>
       </c>
       <c r="D46" t="n">
-        <v>0.118676</v>
+        <v>0.118843</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133363</v>
+        <v>0.134571</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136741</v>
+        <v>0.138656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.120801</v>
+        <v>0.122155</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150297</v>
+        <v>0.150694</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147581</v>
+        <v>0.147578</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124691</v>
+        <v>0.124577</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173592</v>
+        <v>0.17423</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163267</v>
+        <v>0.163161</v>
       </c>
       <c r="D49" t="n">
-        <v>0.130962</v>
+        <v>0.130875</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.205499</v>
+        <v>0.205348</v>
       </c>
       <c r="C50" t="n">
-        <v>0.187326</v>
+        <v>0.193703</v>
       </c>
       <c r="D50" t="n">
-        <v>0.140828</v>
+        <v>0.141034</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247418</v>
+        <v>0.256016</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226058</v>
+        <v>0.236073</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114494</v>
+        <v>0.115302</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294791</v>
+        <v>0.293715</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286396</v>
+        <v>0.287914</v>
       </c>
       <c r="D52" t="n">
-        <v>0.11446</v>
+        <v>0.116008</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0956251</v>
+        <v>0.0980322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.114989</v>
+        <v>0.117554</v>
       </c>
       <c r="D53" t="n">
-        <v>0.114954</v>
+        <v>0.11533</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09754740000000001</v>
+        <v>0.0992681</v>
       </c>
       <c r="C54" t="n">
-        <v>0.11617</v>
+        <v>0.118921</v>
       </c>
       <c r="D54" t="n">
-        <v>0.115575</v>
+        <v>0.117876</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100174</v>
+        <v>0.101288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.117274</v>
+        <v>0.12046</v>
       </c>
       <c r="D55" t="n">
-        <v>0.11567</v>
+        <v>0.118298</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102778</v>
+        <v>0.105174</v>
       </c>
       <c r="C56" t="n">
-        <v>0.118971</v>
+        <v>0.122124</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116461</v>
+        <v>0.118991</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.105696</v>
+        <v>0.107896</v>
       </c>
       <c r="C57" t="n">
-        <v>0.121791</v>
+        <v>0.124946</v>
       </c>
       <c r="D57" t="n">
-        <v>0.117679</v>
+        <v>0.120025</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111147</v>
+        <v>0.111437</v>
       </c>
       <c r="C58" t="n">
-        <v>0.124693</v>
+        <v>0.126469</v>
       </c>
       <c r="D58" t="n">
-        <v>0.118457</v>
+        <v>0.119544</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116166</v>
+        <v>0.118825</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128003</v>
+        <v>0.130958</v>
       </c>
       <c r="D59" t="n">
-        <v>0.119473</v>
+        <v>0.121189</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.124051</v>
+        <v>0.128576</v>
       </c>
       <c r="C60" t="n">
-        <v>0.133188</v>
+        <v>0.135595</v>
       </c>
       <c r="D60" t="n">
-        <v>0.121194</v>
+        <v>0.122315</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.13529</v>
+        <v>0.136343</v>
       </c>
       <c r="C61" t="n">
-        <v>0.139775</v>
+        <v>0.140948</v>
       </c>
       <c r="D61" t="n">
-        <v>0.123574</v>
+        <v>0.124124</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.149613</v>
+        <v>0.153747</v>
       </c>
       <c r="C62" t="n">
-        <v>0.150699</v>
+        <v>0.153055</v>
       </c>
       <c r="D62" t="n">
-        <v>0.127472</v>
+        <v>0.127994</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169201</v>
+        <v>0.169717</v>
       </c>
       <c r="C63" t="n">
-        <v>0.164826</v>
+        <v>0.168935</v>
       </c>
       <c r="D63" t="n">
-        <v>0.132551</v>
+        <v>0.133986</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200118</v>
+        <v>0.201208</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187203</v>
+        <v>0.193538</v>
       </c>
       <c r="D64" t="n">
-        <v>0.142076</v>
+        <v>0.14208</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242374</v>
+        <v>0.241986</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223837</v>
+        <v>0.232631</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1578</v>
+        <v>0.157871</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.293203</v>
+        <v>0.290091</v>
       </c>
       <c r="C66" t="n">
-        <v>0.27923</v>
+        <v>0.278894</v>
       </c>
       <c r="D66" t="n">
-        <v>0.124312</v>
+        <v>0.124929</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106978</v>
+        <v>0.10649</v>
       </c>
       <c r="C67" t="n">
-        <v>0.124704</v>
+        <v>0.126494</v>
       </c>
       <c r="D67" t="n">
-        <v>0.124786</v>
+        <v>0.126201</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108201</v>
+        <v>0.109516</v>
       </c>
       <c r="C68" t="n">
-        <v>0.127906</v>
+        <v>0.126176</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125686</v>
+        <v>0.125709</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110875</v>
+        <v>0.111248</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127631</v>
+        <v>0.128451</v>
       </c>
       <c r="D69" t="n">
-        <v>0.124679</v>
+        <v>0.124837</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.112511</v>
+        <v>0.11363</v>
       </c>
       <c r="C70" t="n">
-        <v>0.128852</v>
+        <v>0.129055</v>
       </c>
       <c r="D70" t="n">
-        <v>0.125387</v>
+        <v>0.126308</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.116235</v>
+        <v>0.117398</v>
       </c>
       <c r="C71" t="n">
-        <v>0.131329</v>
+        <v>0.132862</v>
       </c>
       <c r="D71" t="n">
-        <v>0.127096</v>
+        <v>0.128145</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.120691</v>
+        <v>0.123105</v>
       </c>
       <c r="C72" t="n">
-        <v>0.133243</v>
+        <v>0.134142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.126571</v>
+        <v>0.127338</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.125464</v>
+        <v>0.128203</v>
       </c>
       <c r="C73" t="n">
-        <v>0.138047</v>
+        <v>0.137585</v>
       </c>
       <c r="D73" t="n">
-        <v>0.128677</v>
+        <v>0.130326</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.133294</v>
+        <v>0.13471</v>
       </c>
       <c r="C74" t="n">
-        <v>0.143197</v>
+        <v>0.142615</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130717</v>
+        <v>0.130805</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144448</v>
+        <v>0.143576</v>
       </c>
       <c r="C75" t="n">
-        <v>0.149286</v>
+        <v>0.149443</v>
       </c>
       <c r="D75" t="n">
-        <v>0.132294</v>
+        <v>0.132921</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160296</v>
+        <v>0.157656</v>
       </c>
       <c r="C76" t="n">
-        <v>0.159599</v>
+        <v>0.162142</v>
       </c>
       <c r="D76" t="n">
-        <v>0.136265</v>
+        <v>0.136017</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178446</v>
+        <v>0.177903</v>
       </c>
       <c r="C77" t="n">
-        <v>0.174015</v>
+        <v>0.173696</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141658</v>
+        <v>0.141054</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207308</v>
+        <v>0.211439</v>
       </c>
       <c r="C78" t="n">
-        <v>0.19406</v>
+        <v>0.193712</v>
       </c>
       <c r="D78" t="n">
-        <v>0.149735</v>
+        <v>0.150801</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251041</v>
+        <v>0.255357</v>
       </c>
       <c r="C79" t="n">
-        <v>0.225991</v>
+        <v>0.234867</v>
       </c>
       <c r="D79" t="n">
-        <v>0.164728</v>
+        <v>0.165235</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.298025</v>
+        <v>0.298413</v>
       </c>
       <c r="C80" t="n">
-        <v>0.279016</v>
+        <v>0.282461</v>
       </c>
       <c r="D80" t="n">
-        <v>0.134018</v>
+        <v>0.135288</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120445</v>
+        <v>0.121205</v>
       </c>
       <c r="C81" t="n">
-        <v>0.136909</v>
+        <v>0.136958</v>
       </c>
       <c r="D81" t="n">
-        <v>0.134055</v>
+        <v>0.13557</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122582</v>
+        <v>0.121655</v>
       </c>
       <c r="C82" t="n">
-        <v>0.13859</v>
+        <v>0.1385</v>
       </c>
       <c r="D82" t="n">
-        <v>0.134922</v>
+        <v>0.136037</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12452</v>
+        <v>0.12435</v>
       </c>
       <c r="C83" t="n">
-        <v>0.140057</v>
+        <v>0.141411</v>
       </c>
       <c r="D83" t="n">
-        <v>0.13538</v>
+        <v>0.135622</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127378</v>
+        <v>0.127249</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143047</v>
+        <v>0.143588</v>
       </c>
       <c r="D84" t="n">
-        <v>0.136353</v>
+        <v>0.138196</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131509</v>
+        <v>0.130944</v>
       </c>
       <c r="C85" t="n">
-        <v>0.146156</v>
+        <v>0.146504</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138665</v>
+        <v>0.138329</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137518</v>
+        <v>0.13686</v>
       </c>
       <c r="C86" t="n">
-        <v>0.150966</v>
+        <v>0.151328</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1386</v>
+        <v>0.139753</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.144584</v>
+        <v>0.141032</v>
       </c>
       <c r="C87" t="n">
-        <v>0.155682</v>
+        <v>0.156203</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142015</v>
+        <v>0.141381</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.149302</v>
+        <v>0.149418</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162548</v>
+        <v>0.163573</v>
       </c>
       <c r="D88" t="n">
-        <v>0.144224</v>
+        <v>0.144969</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.164925</v>
+        <v>0.162017</v>
       </c>
       <c r="C89" t="n">
-        <v>0.171389</v>
+        <v>0.171335</v>
       </c>
       <c r="D89" t="n">
-        <v>0.147295</v>
+        <v>0.148025</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176871</v>
+        <v>0.177339</v>
       </c>
       <c r="C90" t="n">
-        <v>0.184028</v>
+        <v>0.184295</v>
       </c>
       <c r="D90" t="n">
-        <v>0.152561</v>
+        <v>0.153408</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197658</v>
+        <v>0.202698</v>
       </c>
       <c r="C91" t="n">
-        <v>0.19865</v>
+        <v>0.199039</v>
       </c>
       <c r="D91" t="n">
-        <v>0.157536</v>
+        <v>0.159461</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.226833</v>
+        <v>0.233473</v>
       </c>
       <c r="C92" t="n">
-        <v>0.221348</v>
+        <v>0.225275</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168152</v>
+        <v>0.168951</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.270077</v>
+        <v>0.266602</v>
       </c>
       <c r="C93" t="n">
-        <v>0.255143</v>
+        <v>0.255338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.183162</v>
+        <v>0.183508</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.32477</v>
+        <v>0.331306</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305904</v>
+        <v>0.307037</v>
       </c>
       <c r="D94" t="n">
-        <v>0.146651</v>
+        <v>0.144465</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133237</v>
+        <v>0.134915</v>
       </c>
       <c r="C95" t="n">
-        <v>0.157074</v>
+        <v>0.159786</v>
       </c>
       <c r="D95" t="n">
-        <v>0.147098</v>
+        <v>0.149023</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.138463</v>
+        <v>0.136913</v>
       </c>
       <c r="C96" t="n">
-        <v>0.159893</v>
+        <v>0.162816</v>
       </c>
       <c r="D96" t="n">
-        <v>0.148714</v>
+        <v>0.150464</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.142115</v>
+        <v>0.140572</v>
       </c>
       <c r="C97" t="n">
-        <v>0.165692</v>
+        <v>0.163492</v>
       </c>
       <c r="D97" t="n">
-        <v>0.150729</v>
+        <v>0.152382</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144136</v>
+        <v>0.145954</v>
       </c>
       <c r="C98" t="n">
-        <v>0.169402</v>
+        <v>0.170365</v>
       </c>
       <c r="D98" t="n">
-        <v>0.152466</v>
+        <v>0.152907</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.150568</v>
+        <v>0.148457</v>
       </c>
       <c r="C99" t="n">
-        <v>0.171699</v>
+        <v>0.171433</v>
       </c>
       <c r="D99" t="n">
-        <v>0.154702</v>
+        <v>0.156307</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154423</v>
+        <v>0.156491</v>
       </c>
       <c r="C100" t="n">
-        <v>0.176093</v>
+        <v>0.178713</v>
       </c>
       <c r="D100" t="n">
-        <v>0.156189</v>
+        <v>0.157082</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161499</v>
+        <v>0.163777</v>
       </c>
       <c r="C101" t="n">
-        <v>0.185255</v>
+        <v>0.181709</v>
       </c>
       <c r="D101" t="n">
-        <v>0.157587</v>
+        <v>0.160836</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168991</v>
+        <v>0.173157</v>
       </c>
       <c r="C102" t="n">
-        <v>0.192828</v>
+        <v>0.189731</v>
       </c>
       <c r="D102" t="n">
-        <v>0.162995</v>
+        <v>0.162316</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180828</v>
+        <v>0.184611</v>
       </c>
       <c r="C103" t="n">
-        <v>0.202208</v>
+        <v>0.203002</v>
       </c>
       <c r="D103" t="n">
-        <v>0.165943</v>
+        <v>0.16637</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194917</v>
+        <v>0.196599</v>
       </c>
       <c r="C104" t="n">
-        <v>0.215746</v>
+        <v>0.216254</v>
       </c>
       <c r="D104" t="n">
-        <v>0.169663</v>
+        <v>0.171745</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215396</v>
+        <v>0.221546</v>
       </c>
       <c r="C105" t="n">
-        <v>0.234188</v>
+        <v>0.230163</v>
       </c>
       <c r="D105" t="n">
-        <v>0.175414</v>
+        <v>0.178161</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247115</v>
+        <v>0.252232</v>
       </c>
       <c r="C106" t="n">
-        <v>0.254578</v>
+        <v>0.25876</v>
       </c>
       <c r="D106" t="n">
-        <v>0.184839</v>
+        <v>0.186805</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.291086</v>
+        <v>0.290489</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295287</v>
+        <v>0.295554</v>
       </c>
       <c r="D107" t="n">
-        <v>0.201837</v>
+        <v>0.203281</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.352</v>
+        <v>0.357703</v>
       </c>
       <c r="C108" t="n">
-        <v>0.346569</v>
+        <v>0.351241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.154941</v>
+        <v>0.155618</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450232</v>
+        <v>0.448433</v>
       </c>
       <c r="C109" t="n">
-        <v>0.434578</v>
+        <v>0.441779</v>
       </c>
       <c r="D109" t="n">
-        <v>0.158108</v>
+        <v>0.157483</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145875</v>
+        <v>0.146885</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18384</v>
+        <v>0.184913</v>
       </c>
       <c r="D110" t="n">
-        <v>0.157499</v>
+        <v>0.159322</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149897</v>
+        <v>0.14835</v>
       </c>
       <c r="C111" t="n">
-        <v>0.18923</v>
+        <v>0.189422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.16043</v>
+        <v>0.161346</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15179</v>
+        <v>0.153419</v>
       </c>
       <c r="C112" t="n">
-        <v>0.193502</v>
+        <v>0.194333</v>
       </c>
       <c r="D112" t="n">
-        <v>0.161077</v>
+        <v>0.161097</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.156767</v>
+        <v>0.159077</v>
       </c>
       <c r="C113" t="n">
-        <v>0.198734</v>
+        <v>0.199319</v>
       </c>
       <c r="D113" t="n">
-        <v>0.163233</v>
+        <v>0.165352</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.162964</v>
+        <v>0.165265</v>
       </c>
       <c r="C114" t="n">
-        <v>0.205827</v>
+        <v>0.205685</v>
       </c>
       <c r="D114" t="n">
-        <v>0.167164</v>
+        <v>0.167314</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.170583</v>
+        <v>0.170392</v>
       </c>
       <c r="C115" t="n">
-        <v>0.213688</v>
+        <v>0.21342</v>
       </c>
       <c r="D115" t="n">
-        <v>0.170328</v>
+        <v>0.17077</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.183054</v>
+        <v>0.180967</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222354</v>
+        <v>0.221777</v>
       </c>
       <c r="D116" t="n">
-        <v>0.173257</v>
+        <v>0.174844</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.194451</v>
+        <v>0.195076</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232566</v>
+        <v>0.232778</v>
       </c>
       <c r="D117" t="n">
-        <v>0.178253</v>
+        <v>0.179466</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211953</v>
+        <v>0.211797</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24671</v>
+        <v>0.246952</v>
       </c>
       <c r="D118" t="n">
-        <v>0.185714</v>
+        <v>0.186388</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.234944</v>
+        <v>0.24336</v>
       </c>
       <c r="C119" t="n">
-        <v>0.264944</v>
+        <v>0.264736</v>
       </c>
       <c r="D119" t="n">
-        <v>0.193853</v>
+        <v>0.194937</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.266295</v>
+        <v>0.266584</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288724</v>
+        <v>0.28773</v>
       </c>
       <c r="D120" t="n">
-        <v>0.206317</v>
+        <v>0.207307</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310186</v>
+        <v>0.316231</v>
       </c>
       <c r="C121" t="n">
-        <v>0.323659</v>
+        <v>0.323947</v>
       </c>
       <c r="D121" t="n">
-        <v>0.222535</v>
+        <v>0.223472</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.381724</v>
+        <v>0.38198</v>
       </c>
       <c r="C122" t="n">
-        <v>0.376514</v>
+        <v>0.377336</v>
       </c>
       <c r="D122" t="n">
-        <v>0.250373</v>
+        <v>0.249629</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465143</v>
+        <v>0.471428</v>
       </c>
       <c r="C123" t="n">
-        <v>0.477018</v>
+        <v>0.467263</v>
       </c>
       <c r="D123" t="n">
-        <v>0.179854</v>
+        <v>0.181685</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172307</v>
+        <v>0.176311</v>
       </c>
       <c r="C124" t="n">
-        <v>0.214958</v>
+        <v>0.212038</v>
       </c>
       <c r="D124" t="n">
-        <v>0.183991</v>
+        <v>0.184237</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.174465</v>
+        <v>0.178851</v>
       </c>
       <c r="C125" t="n">
-        <v>0.221118</v>
+        <v>0.219516</v>
       </c>
       <c r="D125" t="n">
-        <v>0.185834</v>
+        <v>0.187965</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180306</v>
+        <v>0.178524</v>
       </c>
       <c r="C126" t="n">
-        <v>0.224089</v>
+        <v>0.222499</v>
       </c>
       <c r="D126" t="n">
-        <v>0.194983</v>
+        <v>0.188878</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.186016</v>
+        <v>0.182571</v>
       </c>
       <c r="C127" t="n">
-        <v>0.228952</v>
+        <v>0.230731</v>
       </c>
       <c r="D127" t="n">
-        <v>0.19319</v>
+        <v>0.192311</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.191851</v>
+        <v>0.19041</v>
       </c>
       <c r="C128" t="n">
-        <v>0.236112</v>
+        <v>0.240152</v>
       </c>
       <c r="D128" t="n">
-        <v>0.196089</v>
+        <v>0.197913</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.199153</v>
+        <v>0.197314</v>
       </c>
       <c r="C129" t="n">
-        <v>0.242395</v>
+        <v>0.243245</v>
       </c>
       <c r="D129" t="n">
-        <v>0.196386</v>
+        <v>0.199972</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208553</v>
+        <v>0.210926</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249475</v>
+        <v>0.249684</v>
       </c>
       <c r="D130" t="n">
-        <v>0.201339</v>
+        <v>0.20447</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219042</v>
+        <v>0.220639</v>
       </c>
       <c r="C131" t="n">
-        <v>0.26299</v>
+        <v>0.260926</v>
       </c>
       <c r="D131" t="n">
-        <v>0.208031</v>
+        <v>0.20686</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236237</v>
+        <v>0.234967</v>
       </c>
       <c r="C132" t="n">
-        <v>0.276134</v>
+        <v>0.273</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215487</v>
+        <v>0.211322</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25973</v>
+        <v>0.254916</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2926</v>
+        <v>0.291703</v>
       </c>
       <c r="D133" t="n">
-        <v>0.218858</v>
+        <v>0.220353</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.285337</v>
+        <v>0.284635</v>
       </c>
       <c r="C134" t="n">
-        <v>0.314068</v>
+        <v>0.314307</v>
       </c>
       <c r="D134" t="n">
-        <v>0.229286</v>
+        <v>0.227375</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.325929</v>
+        <v>0.327168</v>
       </c>
       <c r="C135" t="n">
-        <v>0.348663</v>
+        <v>0.347155</v>
       </c>
       <c r="D135" t="n">
-        <v>0.245454</v>
+        <v>0.246035</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.391326</v>
+        <v>0.387472</v>
       </c>
       <c r="C136" t="n">
-        <v>0.398664</v>
+        <v>0.400621</v>
       </c>
       <c r="D136" t="n">
-        <v>0.269755</v>
+        <v>0.265018</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.483486</v>
+        <v>0.48615</v>
       </c>
       <c r="C137" t="n">
-        <v>0.477594</v>
+        <v>0.483148</v>
       </c>
       <c r="D137" t="n">
-        <v>0.316112</v>
+        <v>0.318515</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.31566</v>
+        <v>0.312721</v>
       </c>
       <c r="C138" t="n">
-        <v>0.35496</v>
+        <v>0.354212</v>
       </c>
       <c r="D138" t="n">
-        <v>0.325547</v>
+        <v>0.323933</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318704</v>
+        <v>0.317326</v>
       </c>
       <c r="C139" t="n">
-        <v>0.358734</v>
+        <v>0.357497</v>
       </c>
       <c r="D139" t="n">
-        <v>0.326476</v>
+        <v>0.325576</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.322494</v>
+        <v>0.321838</v>
       </c>
       <c r="C140" t="n">
-        <v>0.362559</v>
+        <v>0.362142</v>
       </c>
       <c r="D140" t="n">
-        <v>0.328461</v>
+        <v>0.33181</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.325213</v>
+        <v>0.328934</v>
       </c>
       <c r="C141" t="n">
-        <v>0.365762</v>
+        <v>0.366985</v>
       </c>
       <c r="D141" t="n">
-        <v>0.330366</v>
+        <v>0.33147</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333681</v>
+        <v>0.333622</v>
       </c>
       <c r="C142" t="n">
-        <v>0.373181</v>
+        <v>0.373481</v>
       </c>
       <c r="D142" t="n">
-        <v>0.331805</v>
+        <v>0.330858</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339701</v>
+        <v>0.340631</v>
       </c>
       <c r="C143" t="n">
-        <v>0.37919</v>
+        <v>0.378746</v>
       </c>
       <c r="D143" t="n">
-        <v>0.334444</v>
+        <v>0.334334</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0934715</v>
+        <v>0.09331830000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113223</v>
+        <v>0.113308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113636</v>
+        <v>0.113687</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09698130000000001</v>
+        <v>0.0969421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115422</v>
+        <v>0.115454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114526</v>
+        <v>0.114653</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.104143</v>
+        <v>0.104485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119764</v>
+        <v>0.119849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116238</v>
+        <v>0.116286</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121585</v>
+        <v>0.121838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127118</v>
+        <v>0.127445</v>
       </c>
       <c r="D5" t="n">
-        <v>0.118867</v>
+        <v>0.119032</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145156</v>
+        <v>0.145078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.139314</v>
+        <v>0.139482</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122521</v>
+        <v>0.122666</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180215</v>
+        <v>0.180666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159364</v>
+        <v>0.159833</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12817</v>
+        <v>0.128237</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218025</v>
+        <v>0.223171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201163</v>
+        <v>0.201768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140251</v>
+        <v>0.140362</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.262988</v>
+        <v>0.26939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.247191</v>
+        <v>0.246942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109727</v>
+        <v>0.109695</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0858505</v>
+        <v>0.0867835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.105619</v>
+        <v>0.10773</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110099</v>
+        <v>0.110206</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08670120000000001</v>
+        <v>0.0881929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106259</v>
+        <v>0.10916</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110347</v>
+        <v>0.110437</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0880266</v>
+        <v>0.0877164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.109551</v>
+        <v>0.111365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110802</v>
+        <v>0.11089</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0901151</v>
+        <v>0.09113499999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111586</v>
+        <v>0.109636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111287</v>
+        <v>0.111302</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0918626</v>
+        <v>0.092183</v>
       </c>
       <c r="C14" t="n">
-        <v>0.115235</v>
+        <v>0.111908</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111901</v>
+        <v>0.112011</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0971976</v>
+        <v>0.09454650000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111737</v>
+        <v>0.111811</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112536</v>
+        <v>0.112907</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.10252</v>
+        <v>0.1008</v>
       </c>
       <c r="C16" t="n">
-        <v>0.119402</v>
+        <v>0.116493</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113595</v>
+        <v>0.114007</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108305</v>
+        <v>0.112739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.120065</v>
+        <v>0.120272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114835</v>
+        <v>0.115026</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123493</v>
+        <v>0.122174</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125733</v>
+        <v>0.128246</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116858</v>
+        <v>0.117129</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135347</v>
+        <v>0.141814</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135876</v>
+        <v>0.134913</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11988</v>
+        <v>0.12027</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.164155</v>
+        <v>0.163378</v>
       </c>
       <c r="C20" t="n">
-        <v>0.147431</v>
+        <v>0.147573</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124539</v>
+        <v>0.124766</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.19509</v>
+        <v>0.188718</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166109</v>
+        <v>0.166295</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130658</v>
+        <v>0.130757</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.226721</v>
+        <v>0.224349</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204247</v>
+        <v>0.204052</v>
       </c>
       <c r="D22" t="n">
-        <v>0.14548</v>
+        <v>0.145473</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.27485</v>
+        <v>0.265338</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251915</v>
+        <v>0.252024</v>
       </c>
       <c r="D23" t="n">
-        <v>0.113737</v>
+        <v>0.111317</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0907596</v>
+        <v>0.089993</v>
       </c>
       <c r="C24" t="n">
-        <v>0.110589</v>
+        <v>0.110055</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111717</v>
+        <v>0.111974</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0906695</v>
+        <v>0.0919706</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109681</v>
+        <v>0.110721</v>
       </c>
       <c r="D25" t="n">
-        <v>0.111961</v>
+        <v>0.112152</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0920058</v>
+        <v>0.0937349</v>
       </c>
       <c r="C26" t="n">
-        <v>0.111326</v>
+        <v>0.111984</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112507</v>
+        <v>0.112391</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0938687</v>
+        <v>0.0939112</v>
       </c>
       <c r="C27" t="n">
-        <v>0.112451</v>
+        <v>0.112195</v>
       </c>
       <c r="D27" t="n">
-        <v>0.112734</v>
+        <v>0.112809</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.096527</v>
+        <v>0.0965121</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113428</v>
+        <v>0.114478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.115416</v>
+        <v>0.113209</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.102656</v>
+        <v>0.100695</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116271</v>
+        <v>0.114807</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114006</v>
+        <v>0.115871</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108357</v>
+        <v>0.108346</v>
       </c>
       <c r="C30" t="n">
-        <v>0.118134</v>
+        <v>0.117553</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1146</v>
+        <v>0.114676</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113236</v>
+        <v>0.113475</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12309</v>
+        <v>0.121453</v>
       </c>
       <c r="D31" t="n">
-        <v>0.116236</v>
+        <v>0.11644</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.122215</v>
+        <v>0.123463</v>
       </c>
       <c r="C32" t="n">
-        <v>0.130835</v>
+        <v>0.127507</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117918</v>
+        <v>0.119173</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135971</v>
+        <v>0.137704</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137098</v>
+        <v>0.135268</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120845</v>
+        <v>0.120573</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154276</v>
+        <v>0.154171</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149797</v>
+        <v>0.149483</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125209</v>
+        <v>0.124986</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177404</v>
+        <v>0.177393</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169456</v>
+        <v>0.169099</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132538</v>
+        <v>0.132469</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.21468</v>
+        <v>0.214842</v>
       </c>
       <c r="C36" t="n">
-        <v>0.197406</v>
+        <v>0.196984</v>
       </c>
       <c r="D36" t="n">
-        <v>0.145449</v>
+        <v>0.146113</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258435</v>
+        <v>0.259912</v>
       </c>
       <c r="C37" t="n">
-        <v>0.244665</v>
+        <v>0.244286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112567</v>
+        <v>0.112743</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0928494</v>
+        <v>0.0926939</v>
       </c>
       <c r="C38" t="n">
-        <v>0.112269</v>
+        <v>0.111525</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112561</v>
+        <v>0.11319</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0930821</v>
+        <v>0.09330479999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.111653</v>
+        <v>0.11154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.112708</v>
+        <v>0.113529</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09620910000000001</v>
+        <v>0.09456870000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.114397</v>
+        <v>0.115389</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113669</v>
+        <v>0.113805</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0968334</v>
+        <v>0.0966714</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11412</v>
+        <v>0.114121</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11378</v>
+        <v>0.114212</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09940499999999999</v>
+        <v>0.0995651</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115464</v>
+        <v>0.119463</v>
       </c>
       <c r="D42" t="n">
-        <v>0.114535</v>
+        <v>0.116815</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103137</v>
+        <v>0.103421</v>
       </c>
       <c r="C43" t="n">
-        <v>0.117501</v>
+        <v>0.118144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.114741</v>
+        <v>0.115181</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108189</v>
+        <v>0.111376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.119936</v>
+        <v>0.122282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.115869</v>
+        <v>0.117858</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114646</v>
+        <v>0.114612</v>
       </c>
       <c r="C45" t="n">
-        <v>0.123732</v>
+        <v>0.127229</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117154</v>
+        <v>0.117612</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123581</v>
+        <v>0.122877</v>
       </c>
       <c r="C46" t="n">
-        <v>0.129182</v>
+        <v>0.131843</v>
       </c>
       <c r="D46" t="n">
-        <v>0.118843</v>
+        <v>0.120609</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.134571</v>
+        <v>0.133596</v>
       </c>
       <c r="C47" t="n">
-        <v>0.138656</v>
+        <v>0.137697</v>
       </c>
       <c r="D47" t="n">
-        <v>0.122155</v>
+        <v>0.121769</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150694</v>
+        <v>0.150308</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147578</v>
+        <v>0.147572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.124577</v>
+        <v>0.126821</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17423</v>
+        <v>0.172987</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163161</v>
+        <v>0.163182</v>
       </c>
       <c r="D49" t="n">
-        <v>0.130875</v>
+        <v>0.131036</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.205348</v>
+        <v>0.205358</v>
       </c>
       <c r="C50" t="n">
-        <v>0.193703</v>
+        <v>0.187025</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141034</v>
+        <v>0.142768</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.256016</v>
+        <v>0.251661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236073</v>
+        <v>0.225913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.115302</v>
+        <v>0.116208</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.293715</v>
+        <v>0.29729</v>
       </c>
       <c r="C52" t="n">
-        <v>0.287914</v>
+        <v>0.28639</v>
       </c>
       <c r="D52" t="n">
-        <v>0.116008</v>
+        <v>0.116341</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0980322</v>
+        <v>0.0958693</v>
       </c>
       <c r="C53" t="n">
-        <v>0.117554</v>
+        <v>0.11706</v>
       </c>
       <c r="D53" t="n">
-        <v>0.11533</v>
+        <v>0.117682</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0992681</v>
+        <v>0.0987146</v>
       </c>
       <c r="C54" t="n">
-        <v>0.118921</v>
+        <v>0.117595</v>
       </c>
       <c r="D54" t="n">
-        <v>0.117876</v>
+        <v>0.11724</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101288</v>
+        <v>0.102227</v>
       </c>
       <c r="C55" t="n">
-        <v>0.12046</v>
+        <v>0.118561</v>
       </c>
       <c r="D55" t="n">
-        <v>0.118298</v>
+        <v>0.116911</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.105174</v>
+        <v>0.103005</v>
       </c>
       <c r="C56" t="n">
-        <v>0.122124</v>
+        <v>0.119831</v>
       </c>
       <c r="D56" t="n">
-        <v>0.118991</v>
+        <v>0.117984</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107896</v>
+        <v>0.106206</v>
       </c>
       <c r="C57" t="n">
-        <v>0.124946</v>
+        <v>0.122159</v>
       </c>
       <c r="D57" t="n">
-        <v>0.120025</v>
+        <v>0.118449</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111437</v>
+        <v>0.111493</v>
       </c>
       <c r="C58" t="n">
-        <v>0.126469</v>
+        <v>0.124109</v>
       </c>
       <c r="D58" t="n">
-        <v>0.119544</v>
+        <v>0.118673</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118825</v>
+        <v>0.119829</v>
       </c>
       <c r="C59" t="n">
-        <v>0.130958</v>
+        <v>0.128475</v>
       </c>
       <c r="D59" t="n">
-        <v>0.121189</v>
+        <v>0.120319</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128576</v>
+        <v>0.125298</v>
       </c>
       <c r="C60" t="n">
-        <v>0.135595</v>
+        <v>0.133208</v>
       </c>
       <c r="D60" t="n">
-        <v>0.122315</v>
+        <v>0.122815</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.136343</v>
+        <v>0.139488</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140948</v>
+        <v>0.142853</v>
       </c>
       <c r="D61" t="n">
-        <v>0.124124</v>
+        <v>0.125209</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.153747</v>
+        <v>0.150598</v>
       </c>
       <c r="C62" t="n">
-        <v>0.153055</v>
+        <v>0.153016</v>
       </c>
       <c r="D62" t="n">
-        <v>0.127994</v>
+        <v>0.129325</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169717</v>
+        <v>0.176268</v>
       </c>
       <c r="C63" t="n">
-        <v>0.168935</v>
+        <v>0.169019</v>
       </c>
       <c r="D63" t="n">
-        <v>0.133986</v>
+        <v>0.13386</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201208</v>
+        <v>0.204417</v>
       </c>
       <c r="C64" t="n">
-        <v>0.193538</v>
+        <v>0.187807</v>
       </c>
       <c r="D64" t="n">
-        <v>0.14208</v>
+        <v>0.143249</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241986</v>
+        <v>0.249937</v>
       </c>
       <c r="C65" t="n">
-        <v>0.232631</v>
+        <v>0.224543</v>
       </c>
       <c r="D65" t="n">
-        <v>0.157871</v>
+        <v>0.158761</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.290091</v>
+        <v>0.293187</v>
       </c>
       <c r="C66" t="n">
-        <v>0.278894</v>
+        <v>0.279388</v>
       </c>
       <c r="D66" t="n">
-        <v>0.124929</v>
+        <v>0.125396</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10649</v>
+        <v>0.107175</v>
       </c>
       <c r="C67" t="n">
-        <v>0.126494</v>
+        <v>0.125849</v>
       </c>
       <c r="D67" t="n">
-        <v>0.126201</v>
+        <v>0.125362</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109516</v>
+        <v>0.108987</v>
       </c>
       <c r="C68" t="n">
-        <v>0.126176</v>
+        <v>0.126485</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125709</v>
+        <v>0.125783</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111248</v>
+        <v>0.112665</v>
       </c>
       <c r="C69" t="n">
-        <v>0.128451</v>
+        <v>0.127003</v>
       </c>
       <c r="D69" t="n">
-        <v>0.124837</v>
+        <v>0.124762</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.11363</v>
+        <v>0.113618</v>
       </c>
       <c r="C70" t="n">
-        <v>0.129055</v>
+        <v>0.129792</v>
       </c>
       <c r="D70" t="n">
-        <v>0.126308</v>
+        <v>0.127743</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117398</v>
+        <v>0.118982</v>
       </c>
       <c r="C71" t="n">
-        <v>0.132862</v>
+        <v>0.13094</v>
       </c>
       <c r="D71" t="n">
-        <v>0.128145</v>
+        <v>0.126762</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123105</v>
+        <v>0.121937</v>
       </c>
       <c r="C72" t="n">
-        <v>0.134142</v>
+        <v>0.135886</v>
       </c>
       <c r="D72" t="n">
-        <v>0.127338</v>
+        <v>0.128427</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128203</v>
+        <v>0.127235</v>
       </c>
       <c r="C73" t="n">
-        <v>0.137585</v>
+        <v>0.139648</v>
       </c>
       <c r="D73" t="n">
-        <v>0.130326</v>
+        <v>0.129187</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.13471</v>
+        <v>0.134838</v>
       </c>
       <c r="C74" t="n">
-        <v>0.142615</v>
+        <v>0.14431</v>
       </c>
       <c r="D74" t="n">
-        <v>0.130805</v>
+        <v>0.131974</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.143576</v>
+        <v>0.145709</v>
       </c>
       <c r="C75" t="n">
-        <v>0.149443</v>
+        <v>0.14914</v>
       </c>
       <c r="D75" t="n">
-        <v>0.132921</v>
+        <v>0.132038</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157656</v>
+        <v>0.159455</v>
       </c>
       <c r="C76" t="n">
-        <v>0.162142</v>
+        <v>0.161643</v>
       </c>
       <c r="D76" t="n">
-        <v>0.136017</v>
+        <v>0.137258</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.177903</v>
+        <v>0.178519</v>
       </c>
       <c r="C77" t="n">
-        <v>0.173696</v>
+        <v>0.175099</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141054</v>
+        <v>0.141383</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.211439</v>
+        <v>0.207341</v>
       </c>
       <c r="C78" t="n">
-        <v>0.193712</v>
+        <v>0.196562</v>
       </c>
       <c r="D78" t="n">
-        <v>0.150801</v>
+        <v>0.150204</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.255357</v>
+        <v>0.249304</v>
       </c>
       <c r="C79" t="n">
-        <v>0.234867</v>
+        <v>0.226607</v>
       </c>
       <c r="D79" t="n">
-        <v>0.165235</v>
+        <v>0.164455</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.298413</v>
+        <v>0.302282</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282461</v>
+        <v>0.279425</v>
       </c>
       <c r="D80" t="n">
-        <v>0.135288</v>
+        <v>0.135132</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121205</v>
+        <v>0.121298</v>
       </c>
       <c r="C81" t="n">
-        <v>0.136958</v>
+        <v>0.136788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.13557</v>
+        <v>0.135757</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121655</v>
+        <v>0.123202</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1385</v>
+        <v>0.138817</v>
       </c>
       <c r="D82" t="n">
-        <v>0.136037</v>
+        <v>0.136337</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12435</v>
+        <v>0.124303</v>
       </c>
       <c r="C83" t="n">
-        <v>0.141411</v>
+        <v>0.140561</v>
       </c>
       <c r="D83" t="n">
-        <v>0.135622</v>
+        <v>0.138011</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127249</v>
+        <v>0.129022</v>
       </c>
       <c r="C84" t="n">
-        <v>0.143588</v>
+        <v>0.142927</v>
       </c>
       <c r="D84" t="n">
-        <v>0.138196</v>
+        <v>0.137777</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130944</v>
+        <v>0.130881</v>
       </c>
       <c r="C85" t="n">
-        <v>0.146504</v>
+        <v>0.146525</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138329</v>
+        <v>0.138908</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13686</v>
+        <v>0.13484</v>
       </c>
       <c r="C86" t="n">
-        <v>0.151328</v>
+        <v>0.150679</v>
       </c>
       <c r="D86" t="n">
-        <v>0.139753</v>
+        <v>0.139624</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141032</v>
+        <v>0.142053</v>
       </c>
       <c r="C87" t="n">
-        <v>0.156203</v>
+        <v>0.156281</v>
       </c>
       <c r="D87" t="n">
-        <v>0.141381</v>
+        <v>0.141192</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.149418</v>
+        <v>0.152922</v>
       </c>
       <c r="C88" t="n">
-        <v>0.163573</v>
+        <v>0.163119</v>
       </c>
       <c r="D88" t="n">
-        <v>0.144969</v>
+        <v>0.144897</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.162017</v>
+        <v>0.161554</v>
       </c>
       <c r="C89" t="n">
-        <v>0.171335</v>
+        <v>0.172597</v>
       </c>
       <c r="D89" t="n">
-        <v>0.148025</v>
+        <v>0.149363</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177339</v>
+        <v>0.180217</v>
       </c>
       <c r="C90" t="n">
-        <v>0.184295</v>
+        <v>0.183973</v>
       </c>
       <c r="D90" t="n">
-        <v>0.153408</v>
+        <v>0.152325</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.202698</v>
+        <v>0.197572</v>
       </c>
       <c r="C91" t="n">
-        <v>0.199039</v>
+        <v>0.199093</v>
       </c>
       <c r="D91" t="n">
-        <v>0.159461</v>
+        <v>0.158259</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.233473</v>
+        <v>0.232544</v>
       </c>
       <c r="C92" t="n">
-        <v>0.225275</v>
+        <v>0.222011</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168951</v>
+        <v>0.168156</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266602</v>
+        <v>0.271874</v>
       </c>
       <c r="C93" t="n">
-        <v>0.255338</v>
+        <v>0.255483</v>
       </c>
       <c r="D93" t="n">
-        <v>0.183508</v>
+        <v>0.183683</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331306</v>
+        <v>0.329649</v>
       </c>
       <c r="C94" t="n">
-        <v>0.307037</v>
+        <v>0.307534</v>
       </c>
       <c r="D94" t="n">
-        <v>0.144465</v>
+        <v>0.147088</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134915</v>
+        <v>0.135383</v>
       </c>
       <c r="C95" t="n">
-        <v>0.159786</v>
+        <v>0.160522</v>
       </c>
       <c r="D95" t="n">
-        <v>0.149023</v>
+        <v>0.146553</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136913</v>
+        <v>0.137231</v>
       </c>
       <c r="C96" t="n">
-        <v>0.162816</v>
+        <v>0.162862</v>
       </c>
       <c r="D96" t="n">
-        <v>0.150464</v>
+        <v>0.150403</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140572</v>
+        <v>0.141742</v>
       </c>
       <c r="C97" t="n">
-        <v>0.163492</v>
+        <v>0.167195</v>
       </c>
       <c r="D97" t="n">
-        <v>0.152382</v>
+        <v>0.15101</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145954</v>
+        <v>0.146067</v>
       </c>
       <c r="C98" t="n">
-        <v>0.170365</v>
+        <v>0.170268</v>
       </c>
       <c r="D98" t="n">
-        <v>0.152907</v>
+        <v>0.155359</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148457</v>
+        <v>0.151583</v>
       </c>
       <c r="C99" t="n">
-        <v>0.171433</v>
+        <v>0.174591</v>
       </c>
       <c r="D99" t="n">
-        <v>0.156307</v>
+        <v>0.155898</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156491</v>
+        <v>0.156752</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178713</v>
+        <v>0.179232</v>
       </c>
       <c r="D100" t="n">
-        <v>0.157082</v>
+        <v>0.15818</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163777</v>
+        <v>0.161443</v>
       </c>
       <c r="C101" t="n">
-        <v>0.181709</v>
+        <v>0.185144</v>
       </c>
       <c r="D101" t="n">
-        <v>0.160836</v>
+        <v>0.161066</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.173157</v>
+        <v>0.170879</v>
       </c>
       <c r="C102" t="n">
-        <v>0.189731</v>
+        <v>0.193245</v>
       </c>
       <c r="D102" t="n">
-        <v>0.162316</v>
+        <v>0.16424</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.184611</v>
+        <v>0.182428</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203002</v>
+        <v>0.203053</v>
       </c>
       <c r="D103" t="n">
-        <v>0.16637</v>
+        <v>0.167686</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196599</v>
+        <v>0.196831</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216254</v>
+        <v>0.212987</v>
       </c>
       <c r="D104" t="n">
-        <v>0.171745</v>
+        <v>0.170681</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.221546</v>
+        <v>0.22216</v>
       </c>
       <c r="C105" t="n">
-        <v>0.230163</v>
+        <v>0.230804</v>
       </c>
       <c r="D105" t="n">
-        <v>0.178161</v>
+        <v>0.177877</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252232</v>
+        <v>0.244703</v>
       </c>
       <c r="C106" t="n">
-        <v>0.25876</v>
+        <v>0.254704</v>
       </c>
       <c r="D106" t="n">
-        <v>0.186805</v>
+        <v>0.187494</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.290489</v>
+        <v>0.296326</v>
       </c>
       <c r="C107" t="n">
-        <v>0.295554</v>
+        <v>0.294496</v>
       </c>
       <c r="D107" t="n">
-        <v>0.203281</v>
+        <v>0.20267</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.357703</v>
+        <v>0.360381</v>
       </c>
       <c r="C108" t="n">
-        <v>0.351241</v>
+        <v>0.351005</v>
       </c>
       <c r="D108" t="n">
-        <v>0.155618</v>
+        <v>0.157229</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.448433</v>
+        <v>0.447586</v>
       </c>
       <c r="C109" t="n">
-        <v>0.441779</v>
+        <v>0.440739</v>
       </c>
       <c r="D109" t="n">
-        <v>0.157483</v>
+        <v>0.158542</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146885</v>
+        <v>0.145552</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184913</v>
+        <v>0.184109</v>
       </c>
       <c r="D110" t="n">
-        <v>0.159322</v>
+        <v>0.159305</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14835</v>
+        <v>0.14823</v>
       </c>
       <c r="C111" t="n">
-        <v>0.189422</v>
+        <v>0.188926</v>
       </c>
       <c r="D111" t="n">
-        <v>0.161346</v>
+        <v>0.161677</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153419</v>
+        <v>0.152732</v>
       </c>
       <c r="C112" t="n">
-        <v>0.194333</v>
+        <v>0.194096</v>
       </c>
       <c r="D112" t="n">
-        <v>0.161097</v>
+        <v>0.162663</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.159077</v>
+        <v>0.159227</v>
       </c>
       <c r="C113" t="n">
-        <v>0.199319</v>
+        <v>0.199892</v>
       </c>
       <c r="D113" t="n">
-        <v>0.165352</v>
+        <v>0.164914</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165265</v>
+        <v>0.166105</v>
       </c>
       <c r="C114" t="n">
-        <v>0.205685</v>
+        <v>0.206374</v>
       </c>
       <c r="D114" t="n">
-        <v>0.167314</v>
+        <v>0.166276</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.170392</v>
+        <v>0.173696</v>
       </c>
       <c r="C115" t="n">
-        <v>0.21342</v>
+        <v>0.212728</v>
       </c>
       <c r="D115" t="n">
-        <v>0.17077</v>
+        <v>0.170696</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.180967</v>
+        <v>0.18263</v>
       </c>
       <c r="C116" t="n">
-        <v>0.221777</v>
+        <v>0.222504</v>
       </c>
       <c r="D116" t="n">
-        <v>0.174844</v>
+        <v>0.174125</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.195076</v>
+        <v>0.198105</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232778</v>
+        <v>0.232696</v>
       </c>
       <c r="D117" t="n">
-        <v>0.179466</v>
+        <v>0.180022</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211797</v>
+        <v>0.21216</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246952</v>
+        <v>0.246026</v>
       </c>
       <c r="D118" t="n">
-        <v>0.186388</v>
+        <v>0.186659</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.24336</v>
+        <v>0.238515</v>
       </c>
       <c r="C119" t="n">
-        <v>0.264736</v>
+        <v>0.264541</v>
       </c>
       <c r="D119" t="n">
-        <v>0.194937</v>
+        <v>0.193467</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.266584</v>
+        <v>0.273612</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28773</v>
+        <v>0.288704</v>
       </c>
       <c r="D120" t="n">
-        <v>0.207307</v>
+        <v>0.205801</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.316231</v>
+        <v>0.310555</v>
       </c>
       <c r="C121" t="n">
-        <v>0.323947</v>
+        <v>0.321849</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223472</v>
+        <v>0.223502</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.38198</v>
+        <v>0.380667</v>
       </c>
       <c r="C122" t="n">
-        <v>0.377336</v>
+        <v>0.376991</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249629</v>
+        <v>0.249967</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471428</v>
+        <v>0.472632</v>
       </c>
       <c r="C123" t="n">
-        <v>0.467263</v>
+        <v>0.462777</v>
       </c>
       <c r="D123" t="n">
-        <v>0.181685</v>
+        <v>0.182382</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.176311</v>
+        <v>0.17487</v>
       </c>
       <c r="C124" t="n">
-        <v>0.212038</v>
+        <v>0.214486</v>
       </c>
       <c r="D124" t="n">
-        <v>0.184237</v>
+        <v>0.185155</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.178851</v>
+        <v>0.17735</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219516</v>
+        <v>0.218623</v>
       </c>
       <c r="D125" t="n">
-        <v>0.187965</v>
+        <v>0.188252</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.178524</v>
+        <v>0.181988</v>
       </c>
       <c r="C126" t="n">
-        <v>0.222499</v>
+        <v>0.224088</v>
       </c>
       <c r="D126" t="n">
-        <v>0.188878</v>
+        <v>0.192432</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.182571</v>
+        <v>0.187973</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230731</v>
+        <v>0.228981</v>
       </c>
       <c r="D127" t="n">
-        <v>0.192311</v>
+        <v>0.192873</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.19041</v>
+        <v>0.193233</v>
       </c>
       <c r="C128" t="n">
-        <v>0.240152</v>
+        <v>0.233907</v>
       </c>
       <c r="D128" t="n">
-        <v>0.197913</v>
+        <v>0.19663</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.197314</v>
+        <v>0.200537</v>
       </c>
       <c r="C129" t="n">
-        <v>0.243245</v>
+        <v>0.24105</v>
       </c>
       <c r="D129" t="n">
-        <v>0.199972</v>
+        <v>0.199003</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210926</v>
+        <v>0.207793</v>
       </c>
       <c r="C130" t="n">
-        <v>0.249684</v>
+        <v>0.254887</v>
       </c>
       <c r="D130" t="n">
-        <v>0.20447</v>
+        <v>0.204419</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.220639</v>
+        <v>0.220563</v>
       </c>
       <c r="C131" t="n">
-        <v>0.260926</v>
+        <v>0.262877</v>
       </c>
       <c r="D131" t="n">
-        <v>0.20686</v>
+        <v>0.21111</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.234967</v>
+        <v>0.241733</v>
       </c>
       <c r="C132" t="n">
-        <v>0.273</v>
+        <v>0.27643</v>
       </c>
       <c r="D132" t="n">
-        <v>0.211322</v>
+        <v>0.21259</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.254916</v>
+        <v>0.25868</v>
       </c>
       <c r="C133" t="n">
-        <v>0.291703</v>
+        <v>0.291164</v>
       </c>
       <c r="D133" t="n">
-        <v>0.220353</v>
+        <v>0.220707</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.284635</v>
+        <v>0.2849</v>
       </c>
       <c r="C134" t="n">
-        <v>0.314307</v>
+        <v>0.317679</v>
       </c>
       <c r="D134" t="n">
-        <v>0.227375</v>
+        <v>0.23071</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.327168</v>
+        <v>0.336782</v>
       </c>
       <c r="C135" t="n">
-        <v>0.347155</v>
+        <v>0.353392</v>
       </c>
       <c r="D135" t="n">
-        <v>0.246035</v>
+        <v>0.243682</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.387472</v>
+        <v>0.391411</v>
       </c>
       <c r="C136" t="n">
-        <v>0.400621</v>
+        <v>0.39723</v>
       </c>
       <c r="D136" t="n">
-        <v>0.265018</v>
+        <v>0.267385</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.48615</v>
+        <v>0.486605</v>
       </c>
       <c r="C137" t="n">
-        <v>0.483148</v>
+        <v>0.477379</v>
       </c>
       <c r="D137" t="n">
-        <v>0.318515</v>
+        <v>0.32014</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.312721</v>
+        <v>0.314269</v>
       </c>
       <c r="C138" t="n">
-        <v>0.354212</v>
+        <v>0.353396</v>
       </c>
       <c r="D138" t="n">
-        <v>0.323933</v>
+        <v>0.319782</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317326</v>
+        <v>0.317659</v>
       </c>
       <c r="C139" t="n">
-        <v>0.357497</v>
+        <v>0.358327</v>
       </c>
       <c r="D139" t="n">
-        <v>0.325576</v>
+        <v>0.327254</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.321838</v>
+        <v>0.32516</v>
       </c>
       <c r="C140" t="n">
-        <v>0.362142</v>
+        <v>0.362859</v>
       </c>
       <c r="D140" t="n">
-        <v>0.33181</v>
+        <v>0.324699</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328934</v>
+        <v>0.325881</v>
       </c>
       <c r="C141" t="n">
-        <v>0.366985</v>
+        <v>0.364485</v>
       </c>
       <c r="D141" t="n">
-        <v>0.33147</v>
+        <v>0.327922</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333622</v>
+        <v>0.331503</v>
       </c>
       <c r="C142" t="n">
-        <v>0.373481</v>
+        <v>0.372726</v>
       </c>
       <c r="D142" t="n">
-        <v>0.330858</v>
+        <v>0.332752</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340631</v>
+        <v>0.338617</v>
       </c>
       <c r="C143" t="n">
-        <v>0.378746</v>
+        <v>0.37803</v>
       </c>
       <c r="D143" t="n">
-        <v>0.334334</v>
+        <v>0.338643</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09331830000000001</v>
+        <v>0.0928553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113308</v>
+        <v>0.0690158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113687</v>
+        <v>0.0740524</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0969421</v>
+        <v>0.09759039999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.115454</v>
+        <v>0.07030210000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.114653</v>
+        <v>0.0744795</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.104485</v>
+        <v>0.106061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119849</v>
+        <v>0.0742659</v>
       </c>
       <c r="D4" t="n">
-        <v>0.116286</v>
+        <v>0.0752549</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121838</v>
+        <v>0.12052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127445</v>
+        <v>0.0832195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119032</v>
+        <v>0.0761497</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.145078</v>
+        <v>0.146732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.139482</v>
+        <v>0.0931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122666</v>
+        <v>0.07845249999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180666</v>
+        <v>0.177711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159833</v>
+        <v>0.112763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128237</v>
+        <v>0.08240210000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223171</v>
+        <v>0.219851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201768</v>
+        <v>0.147911</v>
       </c>
       <c r="D8" t="n">
-        <v>0.140362</v>
+        <v>0.0933372</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.26939</v>
+        <v>0.26417</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246942</v>
+        <v>0.184966</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109695</v>
+        <v>0.0717657</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0867835</v>
+        <v>0.0863487</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10773</v>
+        <v>0.06817670000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110206</v>
+        <v>0.0722082</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0881929</v>
+        <v>0.0874569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10916</v>
+        <v>0.0683346</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110437</v>
+        <v>0.0725465</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0877164</v>
+        <v>0.0884673</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111365</v>
+        <v>0.0687933</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11089</v>
+        <v>0.0730944</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09113499999999999</v>
+        <v>0.0900297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.109636</v>
+        <v>0.0692088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111302</v>
+        <v>0.07315389999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.092183</v>
+        <v>0.09231200000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.111908</v>
+        <v>0.0698782</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112011</v>
+        <v>0.07342070000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09454650000000001</v>
+        <v>0.095266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111811</v>
+        <v>0.0708854</v>
       </c>
       <c r="D15" t="n">
-        <v>0.112907</v>
+        <v>0.0739388</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1008</v>
+        <v>0.0998544</v>
       </c>
       <c r="C16" t="n">
-        <v>0.116493</v>
+        <v>0.073578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114007</v>
+        <v>0.0743601</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.112739</v>
+        <v>0.10751</v>
       </c>
       <c r="C17" t="n">
-        <v>0.120272</v>
+        <v>0.0767789</v>
       </c>
       <c r="D17" t="n">
-        <v>0.115026</v>
+        <v>0.07515910000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.122174</v>
+        <v>0.118512</v>
       </c>
       <c r="C18" t="n">
-        <v>0.128246</v>
+        <v>0.0839801</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117129</v>
+        <v>0.076609</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.141814</v>
+        <v>0.133112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.134913</v>
+        <v>0.09273919999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.12027</v>
+        <v>0.0785883</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.163378</v>
+        <v>0.153399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.147573</v>
+        <v>0.104408</v>
       </c>
       <c r="D20" t="n">
-        <v>0.124766</v>
+        <v>0.0815847</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188718</v>
+        <v>0.181756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166295</v>
+        <v>0.119598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130757</v>
+        <v>0.0872966</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224349</v>
+        <v>0.216472</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204052</v>
+        <v>0.150111</v>
       </c>
       <c r="D22" t="n">
-        <v>0.145473</v>
+        <v>0.101922</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265338</v>
+        <v>0.258858</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252024</v>
+        <v>0.189236</v>
       </c>
       <c r="D23" t="n">
-        <v>0.111317</v>
+        <v>0.0731286</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.089993</v>
+        <v>0.0908799</v>
       </c>
       <c r="C24" t="n">
-        <v>0.110055</v>
+        <v>0.0706566</v>
       </c>
       <c r="D24" t="n">
-        <v>0.111974</v>
+        <v>0.0734689</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0919706</v>
+        <v>0.0920607</v>
       </c>
       <c r="C25" t="n">
-        <v>0.110721</v>
+        <v>0.0710187</v>
       </c>
       <c r="D25" t="n">
-        <v>0.112152</v>
+        <v>0.07375760000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0937349</v>
+        <v>0.0937236</v>
       </c>
       <c r="C26" t="n">
-        <v>0.111984</v>
+        <v>0.0716942</v>
       </c>
       <c r="D26" t="n">
-        <v>0.112391</v>
+        <v>0.0739899</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0939112</v>
+        <v>0.0957117</v>
       </c>
       <c r="C27" t="n">
-        <v>0.112195</v>
+        <v>0.07235759999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.112809</v>
+        <v>0.07463599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0965121</v>
+        <v>0.0988588</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114478</v>
+        <v>0.0733829</v>
       </c>
       <c r="D28" t="n">
-        <v>0.113209</v>
+        <v>0.074998</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100695</v>
+        <v>0.102865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.114807</v>
+        <v>0.07484780000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.115871</v>
+        <v>0.0753437</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108346</v>
+        <v>0.107946</v>
       </c>
       <c r="C30" t="n">
-        <v>0.117553</v>
+        <v>0.0772424</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114676</v>
+        <v>0.07582270000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113475</v>
+        <v>0.11501</v>
       </c>
       <c r="C31" t="n">
-        <v>0.121453</v>
+        <v>0.08100549999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11644</v>
+        <v>0.0767755</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123463</v>
+        <v>0.124077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127507</v>
+        <v>0.0863305</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119173</v>
+        <v>0.07793120000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137704</v>
+        <v>0.135155</v>
       </c>
       <c r="C33" t="n">
-        <v>0.135268</v>
+        <v>0.0936172</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120573</v>
+        <v>0.0800211</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154171</v>
+        <v>0.153382</v>
       </c>
       <c r="C34" t="n">
-        <v>0.149483</v>
+        <v>0.105651</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124986</v>
+        <v>0.0839678</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177393</v>
+        <v>0.177412</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169099</v>
+        <v>0.121458</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132469</v>
+        <v>0.0911068</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.214842</v>
+        <v>0.210643</v>
       </c>
       <c r="C36" t="n">
-        <v>0.196984</v>
+        <v>0.143689</v>
       </c>
       <c r="D36" t="n">
-        <v>0.146113</v>
+        <v>0.102778</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.259912</v>
+        <v>0.254287</v>
       </c>
       <c r="C37" t="n">
-        <v>0.244286</v>
+        <v>0.183031</v>
       </c>
       <c r="D37" t="n">
-        <v>0.112743</v>
+        <v>0.07404570000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0926939</v>
+        <v>0.0920885</v>
       </c>
       <c r="C38" t="n">
-        <v>0.111525</v>
+        <v>0.0722686</v>
       </c>
       <c r="D38" t="n">
-        <v>0.11319</v>
+        <v>0.074361</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09330479999999999</v>
+        <v>0.09349159999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.11154</v>
+        <v>0.0741349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.113529</v>
+        <v>0.0749131</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09456870000000001</v>
+        <v>0.09458179999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.115389</v>
+        <v>0.07390969999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113805</v>
+        <v>0.0752295</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0966714</v>
+        <v>0.09684719999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.114121</v>
+        <v>0.0747096</v>
       </c>
       <c r="D41" t="n">
-        <v>0.114212</v>
+        <v>0.0755875</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0995651</v>
+        <v>0.101284</v>
       </c>
       <c r="C42" t="n">
-        <v>0.119463</v>
+        <v>0.0757857</v>
       </c>
       <c r="D42" t="n">
-        <v>0.116815</v>
+        <v>0.0760314</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103421</v>
+        <v>0.103018</v>
       </c>
       <c r="C43" t="n">
-        <v>0.118144</v>
+        <v>0.0777336</v>
       </c>
       <c r="D43" t="n">
-        <v>0.115181</v>
+        <v>0.0766112</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.111376</v>
+        <v>0.107643</v>
       </c>
       <c r="C44" t="n">
-        <v>0.122282</v>
+        <v>0.0798994</v>
       </c>
       <c r="D44" t="n">
-        <v>0.117858</v>
+        <v>0.0771367</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114612</v>
+        <v>0.114186</v>
       </c>
       <c r="C45" t="n">
-        <v>0.127229</v>
+        <v>0.083055</v>
       </c>
       <c r="D45" t="n">
-        <v>0.117612</v>
+        <v>0.0780424</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122877</v>
+        <v>0.122654</v>
       </c>
       <c r="C46" t="n">
-        <v>0.131843</v>
+        <v>0.08782239999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.120609</v>
+        <v>0.0793319</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133596</v>
+        <v>0.134</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137697</v>
+        <v>0.0939576</v>
       </c>
       <c r="D47" t="n">
-        <v>0.121769</v>
+        <v>0.0809709</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150308</v>
+        <v>0.14808</v>
       </c>
       <c r="C48" t="n">
-        <v>0.147572</v>
+        <v>0.103062</v>
       </c>
       <c r="D48" t="n">
-        <v>0.126821</v>
+        <v>0.0845046</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172987</v>
+        <v>0.171101</v>
       </c>
       <c r="C49" t="n">
-        <v>0.163182</v>
+        <v>0.115755</v>
       </c>
       <c r="D49" t="n">
-        <v>0.131036</v>
+        <v>0.09007030000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.205358</v>
+        <v>0.202397</v>
       </c>
       <c r="C50" t="n">
-        <v>0.187025</v>
+        <v>0.135189</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142768</v>
+        <v>0.09893680000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.251661</v>
+        <v>0.246943</v>
       </c>
       <c r="C51" t="n">
-        <v>0.225913</v>
+        <v>0.167311</v>
       </c>
       <c r="D51" t="n">
-        <v>0.116208</v>
+        <v>0.0767864</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.29729</v>
+        <v>0.293105</v>
       </c>
       <c r="C52" t="n">
-        <v>0.28639</v>
+        <v>0.219051</v>
       </c>
       <c r="D52" t="n">
-        <v>0.116341</v>
+        <v>0.0769026</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0958693</v>
+        <v>0.0967573</v>
       </c>
       <c r="C53" t="n">
-        <v>0.11706</v>
+        <v>0.0764425</v>
       </c>
       <c r="D53" t="n">
-        <v>0.117682</v>
+        <v>0.07709149999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987146</v>
+        <v>0.0978368</v>
       </c>
       <c r="C54" t="n">
-        <v>0.117595</v>
+        <v>0.0771867</v>
       </c>
       <c r="D54" t="n">
-        <v>0.11724</v>
+        <v>0.0773928</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.102227</v>
+        <v>0.100124</v>
       </c>
       <c r="C55" t="n">
-        <v>0.118561</v>
+        <v>0.07826859999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.116911</v>
+        <v>0.0778045</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103005</v>
+        <v>0.102469</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119831</v>
+        <v>0.0801211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.117984</v>
+        <v>0.07821699999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106206</v>
+        <v>0.106305</v>
       </c>
       <c r="C57" t="n">
-        <v>0.122159</v>
+        <v>0.0813596</v>
       </c>
       <c r="D57" t="n">
-        <v>0.118449</v>
+        <v>0.0787863</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111493</v>
+        <v>0.110932</v>
       </c>
       <c r="C58" t="n">
-        <v>0.124109</v>
+        <v>0.0841282</v>
       </c>
       <c r="D58" t="n">
-        <v>0.118673</v>
+        <v>0.08014789999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119829</v>
+        <v>0.116616</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128475</v>
+        <v>0.08703130000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.120319</v>
+        <v>0.0809381</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125298</v>
+        <v>0.124643</v>
       </c>
       <c r="C60" t="n">
-        <v>0.133208</v>
+        <v>0.0909679</v>
       </c>
       <c r="D60" t="n">
-        <v>0.122815</v>
+        <v>0.0822548</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139488</v>
+        <v>0.135789</v>
       </c>
       <c r="C61" t="n">
-        <v>0.142853</v>
+        <v>0.0979759</v>
       </c>
       <c r="D61" t="n">
-        <v>0.125209</v>
+        <v>0.0848633</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.150598</v>
+        <v>0.150522</v>
       </c>
       <c r="C62" t="n">
-        <v>0.153016</v>
+        <v>0.105024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.129325</v>
+        <v>0.0868152</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176268</v>
+        <v>0.170617</v>
       </c>
       <c r="C63" t="n">
-        <v>0.169019</v>
+        <v>0.123272</v>
       </c>
       <c r="D63" t="n">
-        <v>0.13386</v>
+        <v>0.0917738</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.204417</v>
+        <v>0.200662</v>
       </c>
       <c r="C64" t="n">
-        <v>0.187807</v>
+        <v>0.144998</v>
       </c>
       <c r="D64" t="n">
-        <v>0.143249</v>
+        <v>0.100356</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249937</v>
+        <v>0.251205</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224543</v>
+        <v>0.16718</v>
       </c>
       <c r="D65" t="n">
-        <v>0.158761</v>
+        <v>0.114425</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.293187</v>
+        <v>0.295855</v>
       </c>
       <c r="C66" t="n">
-        <v>0.279388</v>
+        <v>0.214377</v>
       </c>
       <c r="D66" t="n">
-        <v>0.125396</v>
+        <v>0.0850378</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107175</v>
+        <v>0.107337</v>
       </c>
       <c r="C67" t="n">
-        <v>0.125849</v>
+        <v>0.0852001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.125362</v>
+        <v>0.0856122</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108987</v>
+        <v>0.109576</v>
       </c>
       <c r="C68" t="n">
-        <v>0.126485</v>
+        <v>0.08673889999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.125783</v>
+        <v>0.08522490000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112665</v>
+        <v>0.11241</v>
       </c>
       <c r="C69" t="n">
-        <v>0.127003</v>
+        <v>0.0877015</v>
       </c>
       <c r="D69" t="n">
-        <v>0.124762</v>
+        <v>0.08663559999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113618</v>
+        <v>0.114301</v>
       </c>
       <c r="C70" t="n">
-        <v>0.129792</v>
+        <v>0.08930689999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.127743</v>
+        <v>0.0868694</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118982</v>
+        <v>0.117124</v>
       </c>
       <c r="C71" t="n">
-        <v>0.13094</v>
+        <v>0.0896889</v>
       </c>
       <c r="D71" t="n">
-        <v>0.126762</v>
+        <v>0.08729099999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121937</v>
+        <v>0.121892</v>
       </c>
       <c r="C72" t="n">
-        <v>0.135886</v>
+        <v>0.09220780000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.128427</v>
+        <v>0.0879514</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127235</v>
+        <v>0.126607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.139648</v>
+        <v>0.0957204</v>
       </c>
       <c r="D73" t="n">
-        <v>0.129187</v>
+        <v>0.089447</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.134838</v>
+        <v>0.135061</v>
       </c>
       <c r="C74" t="n">
-        <v>0.14431</v>
+        <v>0.0990051</v>
       </c>
       <c r="D74" t="n">
-        <v>0.131974</v>
+        <v>0.0900138</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145709</v>
+        <v>0.144544</v>
       </c>
       <c r="C75" t="n">
-        <v>0.14914</v>
+        <v>0.104377</v>
       </c>
       <c r="D75" t="n">
-        <v>0.132038</v>
+        <v>0.09146170000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159455</v>
+        <v>0.159605</v>
       </c>
       <c r="C76" t="n">
-        <v>0.161643</v>
+        <v>0.113458</v>
       </c>
       <c r="D76" t="n">
-        <v>0.137258</v>
+        <v>0.0948283</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178519</v>
+        <v>0.177911</v>
       </c>
       <c r="C77" t="n">
-        <v>0.175099</v>
+        <v>0.124546</v>
       </c>
       <c r="D77" t="n">
-        <v>0.141383</v>
+        <v>0.0997937</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207341</v>
+        <v>0.207334</v>
       </c>
       <c r="C78" t="n">
-        <v>0.196562</v>
+        <v>0.14744</v>
       </c>
       <c r="D78" t="n">
-        <v>0.150204</v>
+        <v>0.106646</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.249304</v>
+        <v>0.249297</v>
       </c>
       <c r="C79" t="n">
-        <v>0.226607</v>
+        <v>0.168477</v>
       </c>
       <c r="D79" t="n">
-        <v>0.164455</v>
+        <v>0.119096</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302282</v>
+        <v>0.301572</v>
       </c>
       <c r="C80" t="n">
-        <v>0.279425</v>
+        <v>0.213043</v>
       </c>
       <c r="D80" t="n">
-        <v>0.135132</v>
+        <v>0.09318079999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121298</v>
+        <v>0.119794</v>
       </c>
       <c r="C81" t="n">
-        <v>0.136788</v>
+        <v>0.0958315</v>
       </c>
       <c r="D81" t="n">
-        <v>0.135757</v>
+        <v>0.0938078</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123202</v>
+        <v>0.121521</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138817</v>
+        <v>0.09691039999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.136337</v>
+        <v>0.0943157</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124303</v>
+        <v>0.123409</v>
       </c>
       <c r="C83" t="n">
-        <v>0.140561</v>
+        <v>0.0995637</v>
       </c>
       <c r="D83" t="n">
-        <v>0.138011</v>
+        <v>0.0950298</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.129022</v>
+        <v>0.126387</v>
       </c>
       <c r="C84" t="n">
-        <v>0.142927</v>
+        <v>0.101055</v>
       </c>
       <c r="D84" t="n">
-        <v>0.137777</v>
+        <v>0.0956621</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130881</v>
+        <v>0.129786</v>
       </c>
       <c r="C85" t="n">
-        <v>0.146525</v>
+        <v>0.105444</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138908</v>
+        <v>0.0968157</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13484</v>
+        <v>0.134598</v>
       </c>
       <c r="C86" t="n">
-        <v>0.150679</v>
+        <v>0.108179</v>
       </c>
       <c r="D86" t="n">
-        <v>0.139624</v>
+        <v>0.09773080000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142053</v>
+        <v>0.14137</v>
       </c>
       <c r="C87" t="n">
-        <v>0.156281</v>
+        <v>0.113745</v>
       </c>
       <c r="D87" t="n">
-        <v>0.141192</v>
+        <v>0.0999303</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.152922</v>
+        <v>0.150143</v>
       </c>
       <c r="C88" t="n">
-        <v>0.163119</v>
+        <v>0.119784</v>
       </c>
       <c r="D88" t="n">
-        <v>0.144897</v>
+        <v>0.10245</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161554</v>
+        <v>0.161102</v>
       </c>
       <c r="C89" t="n">
-        <v>0.172597</v>
+        <v>0.127783</v>
       </c>
       <c r="D89" t="n">
-        <v>0.149363</v>
+        <v>0.105148</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180217</v>
+        <v>0.176266</v>
       </c>
       <c r="C90" t="n">
-        <v>0.183973</v>
+        <v>0.138736</v>
       </c>
       <c r="D90" t="n">
-        <v>0.152325</v>
+        <v>0.109015</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197572</v>
+        <v>0.197448</v>
       </c>
       <c r="C91" t="n">
-        <v>0.199093</v>
+        <v>0.15283</v>
       </c>
       <c r="D91" t="n">
-        <v>0.158259</v>
+        <v>0.114906</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.232544</v>
+        <v>0.228095</v>
       </c>
       <c r="C92" t="n">
-        <v>0.222011</v>
+        <v>0.177766</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168156</v>
+        <v>0.124277</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.271874</v>
+        <v>0.271993</v>
       </c>
       <c r="C93" t="n">
-        <v>0.255483</v>
+        <v>0.201948</v>
       </c>
       <c r="D93" t="n">
-        <v>0.183683</v>
+        <v>0.137849</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.329649</v>
+        <v>0.336605</v>
       </c>
       <c r="C94" t="n">
-        <v>0.307534</v>
+        <v>0.247168</v>
       </c>
       <c r="D94" t="n">
-        <v>0.147088</v>
+        <v>0.105448</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.135383</v>
+        <v>0.134087</v>
       </c>
       <c r="C95" t="n">
-        <v>0.160522</v>
+        <v>0.120047</v>
       </c>
       <c r="D95" t="n">
-        <v>0.146553</v>
+        <v>0.106753</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.137231</v>
+        <v>0.137067</v>
       </c>
       <c r="C96" t="n">
-        <v>0.162862</v>
+        <v>0.124145</v>
       </c>
       <c r="D96" t="n">
-        <v>0.150403</v>
+        <v>0.108852</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141742</v>
+        <v>0.140573</v>
       </c>
       <c r="C97" t="n">
-        <v>0.167195</v>
+        <v>0.126358</v>
       </c>
       <c r="D97" t="n">
-        <v>0.15101</v>
+        <v>0.111066</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146067</v>
+        <v>0.14488</v>
       </c>
       <c r="C98" t="n">
-        <v>0.170268</v>
+        <v>0.130444</v>
       </c>
       <c r="D98" t="n">
-        <v>0.155359</v>
+        <v>0.113017</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.151583</v>
+        <v>0.149882</v>
       </c>
       <c r="C99" t="n">
-        <v>0.174591</v>
+        <v>0.134777</v>
       </c>
       <c r="D99" t="n">
-        <v>0.155898</v>
+        <v>0.11486</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156752</v>
+        <v>0.155341</v>
       </c>
       <c r="C100" t="n">
-        <v>0.179232</v>
+        <v>0.13811</v>
       </c>
       <c r="D100" t="n">
-        <v>0.15818</v>
+        <v>0.117027</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161443</v>
+        <v>0.162224</v>
       </c>
       <c r="C101" t="n">
-        <v>0.185144</v>
+        <v>0.144427</v>
       </c>
       <c r="D101" t="n">
-        <v>0.161066</v>
+        <v>0.119887</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170879</v>
+        <v>0.170869</v>
       </c>
       <c r="C102" t="n">
-        <v>0.193245</v>
+        <v>0.151167</v>
       </c>
       <c r="D102" t="n">
-        <v>0.16424</v>
+        <v>0.122132</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.182428</v>
+        <v>0.181829</v>
       </c>
       <c r="C103" t="n">
-        <v>0.203053</v>
+        <v>0.15952</v>
       </c>
       <c r="D103" t="n">
-        <v>0.167686</v>
+        <v>0.125229</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196831</v>
+        <v>0.196785</v>
       </c>
       <c r="C104" t="n">
-        <v>0.212987</v>
+        <v>0.17243</v>
       </c>
       <c r="D104" t="n">
-        <v>0.170681</v>
+        <v>0.129269</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.22216</v>
+        <v>0.217399</v>
       </c>
       <c r="C105" t="n">
-        <v>0.230804</v>
+        <v>0.188182</v>
       </c>
       <c r="D105" t="n">
-        <v>0.177877</v>
+        <v>0.134915</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.244703</v>
+        <v>0.253237</v>
       </c>
       <c r="C106" t="n">
-        <v>0.254704</v>
+        <v>0.209369</v>
       </c>
       <c r="D106" t="n">
-        <v>0.187494</v>
+        <v>0.143356</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.296326</v>
+        <v>0.292443</v>
       </c>
       <c r="C107" t="n">
-        <v>0.294496</v>
+        <v>0.2421</v>
       </c>
       <c r="D107" t="n">
-        <v>0.20267</v>
+        <v>0.157084</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.360381</v>
+        <v>0.369122</v>
       </c>
       <c r="C108" t="n">
-        <v>0.351005</v>
+        <v>0.291289</v>
       </c>
       <c r="D108" t="n">
-        <v>0.157229</v>
+        <v>0.114917</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.447586</v>
+        <v>0.457169</v>
       </c>
       <c r="C109" t="n">
-        <v>0.440739</v>
+        <v>0.385708</v>
       </c>
       <c r="D109" t="n">
-        <v>0.158542</v>
+        <v>0.116705</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145552</v>
+        <v>0.146442</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184109</v>
+        <v>0.14513</v>
       </c>
       <c r="D110" t="n">
-        <v>0.159305</v>
+        <v>0.117906</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14823</v>
+        <v>0.149919</v>
       </c>
       <c r="C111" t="n">
-        <v>0.188926</v>
+        <v>0.150292</v>
       </c>
       <c r="D111" t="n">
-        <v>0.161677</v>
+        <v>0.119259</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152732</v>
+        <v>0.153589</v>
       </c>
       <c r="C112" t="n">
-        <v>0.194096</v>
+        <v>0.153867</v>
       </c>
       <c r="D112" t="n">
-        <v>0.162663</v>
+        <v>0.121418</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.159227</v>
+        <v>0.158632</v>
       </c>
       <c r="C113" t="n">
-        <v>0.199892</v>
+        <v>0.158977</v>
       </c>
       <c r="D113" t="n">
-        <v>0.164914</v>
+        <v>0.123109</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.166105</v>
+        <v>0.164573</v>
       </c>
       <c r="C114" t="n">
-        <v>0.206374</v>
+        <v>0.165415</v>
       </c>
       <c r="D114" t="n">
-        <v>0.166276</v>
+        <v>0.126281</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.173696</v>
+        <v>0.172396</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212728</v>
+        <v>0.172125</v>
       </c>
       <c r="D115" t="n">
-        <v>0.170696</v>
+        <v>0.128587</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.18263</v>
+        <v>0.183301</v>
       </c>
       <c r="C116" t="n">
-        <v>0.222504</v>
+        <v>0.180094</v>
       </c>
       <c r="D116" t="n">
-        <v>0.174125</v>
+        <v>0.132096</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.198105</v>
+        <v>0.197672</v>
       </c>
       <c r="C117" t="n">
-        <v>0.232696</v>
+        <v>0.190122</v>
       </c>
       <c r="D117" t="n">
-        <v>0.180022</v>
+        <v>0.137178</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21216</v>
+        <v>0.215856</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246026</v>
+        <v>0.202833</v>
       </c>
       <c r="D118" t="n">
-        <v>0.186659</v>
+        <v>0.143778</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238515</v>
+        <v>0.240797</v>
       </c>
       <c r="C119" t="n">
-        <v>0.264541</v>
+        <v>0.219576</v>
       </c>
       <c r="D119" t="n">
-        <v>0.193467</v>
+        <v>0.152804</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273612</v>
+        <v>0.280631</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288704</v>
+        <v>0.2397</v>
       </c>
       <c r="D120" t="n">
-        <v>0.205801</v>
+        <v>0.164323</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310555</v>
+        <v>0.317622</v>
       </c>
       <c r="C121" t="n">
-        <v>0.321849</v>
+        <v>0.269949</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223502</v>
+        <v>0.179862</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.380667</v>
+        <v>0.387173</v>
       </c>
       <c r="C122" t="n">
-        <v>0.376991</v>
+        <v>0.319171</v>
       </c>
       <c r="D122" t="n">
-        <v>0.249967</v>
+        <v>0.204301</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472632</v>
+        <v>0.485146</v>
       </c>
       <c r="C123" t="n">
-        <v>0.462777</v>
+        <v>0.404897</v>
       </c>
       <c r="D123" t="n">
-        <v>0.182382</v>
+        <v>0.149944</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.17487</v>
+        <v>0.173855</v>
       </c>
       <c r="C124" t="n">
-        <v>0.214486</v>
+        <v>0.174736</v>
       </c>
       <c r="D124" t="n">
-        <v>0.185155</v>
+        <v>0.14815</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.17735</v>
+        <v>0.179795</v>
       </c>
       <c r="C125" t="n">
-        <v>0.218623</v>
+        <v>0.183005</v>
       </c>
       <c r="D125" t="n">
-        <v>0.188252</v>
+        <v>0.147224</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.181988</v>
+        <v>0.182084</v>
       </c>
       <c r="C126" t="n">
-        <v>0.224088</v>
+        <v>0.187484</v>
       </c>
       <c r="D126" t="n">
-        <v>0.192432</v>
+        <v>0.153426</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.187973</v>
+        <v>0.194304</v>
       </c>
       <c r="C127" t="n">
-        <v>0.228981</v>
+        <v>0.189072</v>
       </c>
       <c r="D127" t="n">
-        <v>0.192873</v>
+        <v>0.154387</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193233</v>
+        <v>0.194258</v>
       </c>
       <c r="C128" t="n">
-        <v>0.233907</v>
+        <v>0.192456</v>
       </c>
       <c r="D128" t="n">
-        <v>0.19663</v>
+        <v>0.157443</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.200537</v>
+        <v>0.206009</v>
       </c>
       <c r="C129" t="n">
-        <v>0.24105</v>
+        <v>0.199338</v>
       </c>
       <c r="D129" t="n">
-        <v>0.199003</v>
+        <v>0.158022</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207793</v>
+        <v>0.213812</v>
       </c>
       <c r="C130" t="n">
-        <v>0.254887</v>
+        <v>0.206552</v>
       </c>
       <c r="D130" t="n">
-        <v>0.204419</v>
+        <v>0.162838</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.220563</v>
+        <v>0.228141</v>
       </c>
       <c r="C131" t="n">
-        <v>0.262877</v>
+        <v>0.213163</v>
       </c>
       <c r="D131" t="n">
-        <v>0.21111</v>
+        <v>0.169201</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.241733</v>
+        <v>0.242173</v>
       </c>
       <c r="C132" t="n">
-        <v>0.27643</v>
+        <v>0.225914</v>
       </c>
       <c r="D132" t="n">
-        <v>0.21259</v>
+        <v>0.171789</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25868</v>
+        <v>0.266119</v>
       </c>
       <c r="C133" t="n">
-        <v>0.291164</v>
+        <v>0.243226</v>
       </c>
       <c r="D133" t="n">
-        <v>0.220707</v>
+        <v>0.179051</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.2849</v>
+        <v>0.292647</v>
       </c>
       <c r="C134" t="n">
-        <v>0.317679</v>
+        <v>0.264927</v>
       </c>
       <c r="D134" t="n">
-        <v>0.23071</v>
+        <v>0.18577</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.336782</v>
+        <v>0.336086</v>
       </c>
       <c r="C135" t="n">
-        <v>0.353392</v>
+        <v>0.296436</v>
       </c>
       <c r="D135" t="n">
-        <v>0.243682</v>
+        <v>0.198484</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.391411</v>
+        <v>0.398515</v>
       </c>
       <c r="C136" t="n">
-        <v>0.39723</v>
+        <v>0.336632</v>
       </c>
       <c r="D136" t="n">
-        <v>0.267385</v>
+        <v>0.219527</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.486605</v>
+        <v>0.496785</v>
       </c>
       <c r="C137" t="n">
-        <v>0.477379</v>
+        <v>0.41197</v>
       </c>
       <c r="D137" t="n">
-        <v>0.32014</v>
+        <v>0.288614</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314269</v>
+        <v>0.332173</v>
       </c>
       <c r="C138" t="n">
-        <v>0.353396</v>
+        <v>0.300887</v>
       </c>
       <c r="D138" t="n">
-        <v>0.319782</v>
+        <v>0.297099</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317659</v>
+        <v>0.343614</v>
       </c>
       <c r="C139" t="n">
-        <v>0.358327</v>
+        <v>0.301805</v>
       </c>
       <c r="D139" t="n">
-        <v>0.327254</v>
+        <v>0.296242</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.32516</v>
+        <v>0.344339</v>
       </c>
       <c r="C140" t="n">
-        <v>0.362859</v>
+        <v>0.308187</v>
       </c>
       <c r="D140" t="n">
-        <v>0.324699</v>
+        <v>0.29664</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.325881</v>
+        <v>0.349186</v>
       </c>
       <c r="C141" t="n">
-        <v>0.364485</v>
+        <v>0.31136</v>
       </c>
       <c r="D141" t="n">
-        <v>0.327922</v>
+        <v>0.302015</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331503</v>
+        <v>0.359021</v>
       </c>
       <c r="C142" t="n">
-        <v>0.372726</v>
+        <v>0.317284</v>
       </c>
       <c r="D142" t="n">
-        <v>0.332752</v>
+        <v>0.302026</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338617</v>
+        <v>0.366282</v>
       </c>
       <c r="C143" t="n">
-        <v>0.37803</v>
+        <v>0.325148</v>
       </c>
       <c r="D143" t="n">
-        <v>0.338643</v>
+        <v>0.307525</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0928553</v>
+        <v>0.0940328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0690158</v>
+        <v>0.0704023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0740524</v>
+        <v>0.0741689</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09759039999999999</v>
+        <v>0.0999029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07030210000000001</v>
+        <v>0.0711118</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0744795</v>
+        <v>0.0746387</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.106061</v>
+        <v>0.111732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0742659</v>
+        <v>0.0735367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0752549</v>
+        <v>0.0753665</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12052</v>
+        <v>0.123204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0832195</v>
+        <v>0.08116760000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0761497</v>
+        <v>0.07626139999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.146732</v>
+        <v>0.152603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0931</v>
+        <v>0.09333180000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07845249999999999</v>
+        <v>0.0788401</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.177711</v>
+        <v>0.181327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112763</v>
+        <v>0.112395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08240210000000001</v>
+        <v>0.0825856</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.219851</v>
+        <v>0.232393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.147911</v>
+        <v>0.146992</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0933372</v>
+        <v>0.0931309</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.26417</v>
+        <v>0.271401</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184966</v>
+        <v>0.184531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0717657</v>
+        <v>0.0719303</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0863487</v>
+        <v>0.08623069999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06817670000000001</v>
+        <v>0.06752320000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0722082</v>
+        <v>0.0724085</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0874569</v>
+        <v>0.0872865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0683346</v>
+        <v>0.06788230000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0725465</v>
+        <v>0.0734817</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0884673</v>
+        <v>0.0884245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0687933</v>
+        <v>0.06834320000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0730944</v>
+        <v>0.0731247</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0900297</v>
+        <v>0.0899861</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0692088</v>
+        <v>0.0685627</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07315389999999999</v>
+        <v>0.0733605</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09231200000000001</v>
+        <v>0.0922786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0698782</v>
+        <v>0.0694948</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07342070000000001</v>
+        <v>0.0735579</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.095266</v>
+        <v>0.0960116</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0708854</v>
+        <v>0.07425610000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0739388</v>
+        <v>0.074022</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0998544</v>
+        <v>0.102148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.073578</v>
+        <v>0.076136</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0743601</v>
+        <v>0.0767447</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10751</v>
+        <v>0.10815</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0767789</v>
+        <v>0.079566</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07515910000000001</v>
+        <v>0.0778928</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118512</v>
+        <v>0.122378</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0839801</v>
+        <v>0.082673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.076609</v>
+        <v>0.07647710000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.133112</v>
+        <v>0.134242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09273919999999999</v>
+        <v>0.0934938</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0785883</v>
+        <v>0.07850269999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153399</v>
+        <v>0.154431</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104408</v>
+        <v>0.109837</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0815847</v>
+        <v>0.0835518</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181756</v>
+        <v>0.183941</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119598</v>
+        <v>0.127437</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0872966</v>
+        <v>0.0875237</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216472</v>
+        <v>0.214821</v>
       </c>
       <c r="C22" t="n">
-        <v>0.150111</v>
+        <v>0.155149</v>
       </c>
       <c r="D22" t="n">
-        <v>0.101922</v>
+        <v>0.101908</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258858</v>
+        <v>0.266414</v>
       </c>
       <c r="C23" t="n">
-        <v>0.189236</v>
+        <v>0.195113</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0731286</v>
+        <v>0.0741655</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0908799</v>
+        <v>0.0912568</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0706566</v>
+        <v>0.07197389999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0734689</v>
+        <v>0.0736415</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0920607</v>
+        <v>0.0923934</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0710187</v>
+        <v>0.0730753</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07375760000000001</v>
+        <v>0.0759276</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0937236</v>
+        <v>0.0942779</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0716942</v>
+        <v>0.0729041</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0739899</v>
+        <v>0.0747597</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0957117</v>
+        <v>0.0964111</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07235759999999999</v>
+        <v>0.0729761</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07463599999999999</v>
+        <v>0.0762292</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0988588</v>
+        <v>0.0997908</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0733829</v>
+        <v>0.0752481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.074998</v>
+        <v>0.0770464</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.102865</v>
+        <v>0.103734</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07484780000000001</v>
+        <v>0.07700120000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0753437</v>
+        <v>0.07610699999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.107946</v>
+        <v>0.109096</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0772424</v>
+        <v>0.07694579999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07582270000000001</v>
+        <v>0.0760627</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11501</v>
+        <v>0.116733</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08100549999999999</v>
+        <v>0.08222889999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0767755</v>
+        <v>0.0775916</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.124077</v>
+        <v>0.127972</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0863305</v>
+        <v>0.0868897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07793120000000001</v>
+        <v>0.07802050000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135155</v>
+        <v>0.140276</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0936172</v>
+        <v>0.0969695</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0800211</v>
+        <v>0.08094469999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.153382</v>
+        <v>0.159811</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105651</v>
+        <v>0.1091</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0839678</v>
+        <v>0.085063</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177412</v>
+        <v>0.179294</v>
       </c>
       <c r="C35" t="n">
-        <v>0.121458</v>
+        <v>0.127856</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0911068</v>
+        <v>0.0933268</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210643</v>
+        <v>0.219775</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143689</v>
+        <v>0.142497</v>
       </c>
       <c r="D36" t="n">
-        <v>0.102778</v>
+        <v>0.104416</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.254287</v>
+        <v>0.263767</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183031</v>
+        <v>0.182236</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07404570000000001</v>
+        <v>0.0755628</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0920885</v>
+        <v>0.0923529</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0722686</v>
+        <v>0.07339710000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.074361</v>
+        <v>0.0761343</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09349159999999999</v>
+        <v>0.09446839999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0741349</v>
+        <v>0.0723273</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0749131</v>
+        <v>0.07549260000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09458179999999999</v>
+        <v>0.0951601</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07390969999999999</v>
+        <v>0.0751233</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0752295</v>
+        <v>0.0759281</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09684719999999999</v>
+        <v>0.0974674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0747096</v>
+        <v>0.0754814</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0755875</v>
+        <v>0.07586519999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101284</v>
+        <v>0.100598</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0757857</v>
+        <v>0.0774777</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0760314</v>
+        <v>0.0777742</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103018</v>
+        <v>0.104493</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0777336</v>
+        <v>0.0794555</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0766112</v>
+        <v>0.077903</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.107643</v>
+        <v>0.109077</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0798994</v>
+        <v>0.0812022</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0771367</v>
+        <v>0.0791179</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114186</v>
+        <v>0.115927</v>
       </c>
       <c r="C45" t="n">
-        <v>0.083055</v>
+        <v>0.08361200000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0780424</v>
+        <v>0.0788915</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122654</v>
+        <v>0.12479</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08782239999999999</v>
+        <v>0.0876963</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0793319</v>
+        <v>0.0805043</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.134</v>
+        <v>0.136179</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0939576</v>
+        <v>0.09464690000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0809709</v>
+        <v>0.0813569</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.14808</v>
+        <v>0.150631</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103062</v>
+        <v>0.106416</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0845046</v>
+        <v>0.0866092</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171101</v>
+        <v>0.17346</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115755</v>
+        <v>0.119973</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09007030000000001</v>
+        <v>0.0914456</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202397</v>
+        <v>0.208095</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135189</v>
+        <v>0.134385</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09893680000000001</v>
+        <v>0.100507</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.246943</v>
+        <v>0.243104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167311</v>
+        <v>0.166157</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0767864</v>
+        <v>0.075919</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.293105</v>
+        <v>0.290909</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219051</v>
+        <v>0.234367</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0769026</v>
+        <v>0.0777539</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0967573</v>
+        <v>0.097298</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0764425</v>
+        <v>0.07715320000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07709149999999999</v>
+        <v>0.07702920000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0978368</v>
+        <v>0.09942579999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0771867</v>
+        <v>0.0789222</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0773928</v>
+        <v>0.0787451</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100124</v>
+        <v>0.101333</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07826859999999999</v>
+        <v>0.0793267</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0778045</v>
+        <v>0.0793999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102469</v>
+        <v>0.104382</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0801211</v>
+        <v>0.0816144</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07821699999999999</v>
+        <v>0.08049009999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106305</v>
+        <v>0.10805</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0813596</v>
+        <v>0.08290640000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0787863</v>
+        <v>0.0805864</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.110932</v>
+        <v>0.11313</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0841282</v>
+        <v>0.08563</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08014789999999999</v>
+        <v>0.0812146</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116616</v>
+        <v>0.118025</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08703130000000001</v>
+        <v>0.0885117</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0809381</v>
+        <v>0.08089540000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.124643</v>
+        <v>0.126565</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0909679</v>
+        <v>0.092627</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0822548</v>
+        <v>0.082592</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135789</v>
+        <v>0.140163</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0979759</v>
+        <v>0.09906379999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0848633</v>
+        <v>0.0836069</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.150522</v>
+        <v>0.151747</v>
       </c>
       <c r="C62" t="n">
-        <v>0.105024</v>
+        <v>0.104378</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0868152</v>
+        <v>0.087258</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170617</v>
+        <v>0.17265</v>
       </c>
       <c r="C63" t="n">
-        <v>0.123272</v>
+        <v>0.116388</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0917738</v>
+        <v>0.09210169999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200662</v>
+        <v>0.200684</v>
       </c>
       <c r="C64" t="n">
-        <v>0.144998</v>
+        <v>0.140935</v>
       </c>
       <c r="D64" t="n">
-        <v>0.100356</v>
+        <v>0.099511</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.251205</v>
+        <v>0.239498</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16718</v>
+        <v>0.164906</v>
       </c>
       <c r="D65" t="n">
-        <v>0.114425</v>
+        <v>0.115218</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.295855</v>
+        <v>0.286496</v>
       </c>
       <c r="C66" t="n">
-        <v>0.214377</v>
+        <v>0.22495</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0850378</v>
+        <v>0.08494160000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107337</v>
+        <v>0.108008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0852001</v>
+        <v>0.0856198</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0856122</v>
+        <v>0.085397</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109576</v>
+        <v>0.108493</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08673889999999999</v>
+        <v>0.0860273</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08522490000000001</v>
+        <v>0.0858828</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11241</v>
+        <v>0.111314</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0877015</v>
+        <v>0.0872383</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08663559999999999</v>
+        <v>0.08627559999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114301</v>
+        <v>0.113166</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08930689999999999</v>
+        <v>0.08885319999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0868694</v>
+        <v>0.0867097</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117124</v>
+        <v>0.117751</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0896889</v>
+        <v>0.0910219</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08729099999999999</v>
+        <v>0.08676739999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121892</v>
+        <v>0.121881</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09220780000000001</v>
+        <v>0.0925248</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0879514</v>
+        <v>0.088035</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126607</v>
+        <v>0.127389</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0957204</v>
+        <v>0.096557</v>
       </c>
       <c r="D73" t="n">
-        <v>0.089447</v>
+        <v>0.0892908</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135061</v>
+        <v>0.135052</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0990051</v>
+        <v>0.101849</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0900138</v>
+        <v>0.09077259999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144544</v>
+        <v>0.14616</v>
       </c>
       <c r="C75" t="n">
-        <v>0.104377</v>
+        <v>0.107049</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09146170000000001</v>
+        <v>0.092414</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159605</v>
+        <v>0.160714</v>
       </c>
       <c r="C76" t="n">
-        <v>0.113458</v>
+        <v>0.114397</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0948283</v>
+        <v>0.0956391</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.177911</v>
+        <v>0.1848</v>
       </c>
       <c r="C77" t="n">
-        <v>0.124546</v>
+        <v>0.125216</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0997937</v>
+        <v>0.0994497</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207334</v>
+        <v>0.20798</v>
       </c>
       <c r="C78" t="n">
-        <v>0.14744</v>
+        <v>0.145455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.106646</v>
+        <v>0.107133</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.249297</v>
+        <v>0.24971</v>
       </c>
       <c r="C79" t="n">
-        <v>0.168477</v>
+        <v>0.174135</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119096</v>
+        <v>0.119216</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301572</v>
+        <v>0.302202</v>
       </c>
       <c r="C80" t="n">
-        <v>0.213043</v>
+        <v>0.222326</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09318079999999999</v>
+        <v>0.0937554</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119794</v>
+        <v>0.120255</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0958315</v>
+        <v>0.09631679999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0938078</v>
+        <v>0.094185</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121521</v>
+        <v>0.123318</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09691039999999999</v>
+        <v>0.0971708</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0943157</v>
+        <v>0.0949116</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123409</v>
+        <v>0.124068</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0995637</v>
+        <v>0.0986086</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0950298</v>
+        <v>0.0953642</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126387</v>
+        <v>0.128386</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101055</v>
+        <v>0.101714</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0956621</v>
+        <v>0.0960799</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129786</v>
+        <v>0.130707</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105444</v>
+        <v>0.104265</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0968157</v>
+        <v>0.0975089</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134598</v>
+        <v>0.137703</v>
       </c>
       <c r="C86" t="n">
-        <v>0.108179</v>
+        <v>0.107547</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09773080000000001</v>
+        <v>0.09885099999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.14137</v>
+        <v>0.14241</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113745</v>
+        <v>0.112463</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0999303</v>
+        <v>0.100215</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150143</v>
+        <v>0.153577</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119784</v>
+        <v>0.119156</v>
       </c>
       <c r="D88" t="n">
-        <v>0.10245</v>
+        <v>0.102064</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161102</v>
+        <v>0.161539</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127783</v>
+        <v>0.128183</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105148</v>
+        <v>0.104752</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176266</v>
+        <v>0.180659</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138736</v>
+        <v>0.13933</v>
       </c>
       <c r="D90" t="n">
-        <v>0.109015</v>
+        <v>0.108889</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197448</v>
+        <v>0.20143</v>
       </c>
       <c r="C91" t="n">
-        <v>0.15283</v>
+        <v>0.151547</v>
       </c>
       <c r="D91" t="n">
-        <v>0.114906</v>
+        <v>0.114878</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.228095</v>
+        <v>0.230155</v>
       </c>
       <c r="C92" t="n">
-        <v>0.177766</v>
+        <v>0.166048</v>
       </c>
       <c r="D92" t="n">
-        <v>0.124277</v>
+        <v>0.122709</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.271993</v>
+        <v>0.267859</v>
       </c>
       <c r="C93" t="n">
-        <v>0.201948</v>
+        <v>0.194787</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137849</v>
+        <v>0.136253</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.336605</v>
+        <v>0.324754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.247168</v>
+        <v>0.236303</v>
       </c>
       <c r="D94" t="n">
-        <v>0.105448</v>
+        <v>0.10433</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134087</v>
+        <v>0.133519</v>
       </c>
       <c r="C95" t="n">
-        <v>0.120047</v>
+        <v>0.117345</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106753</v>
+        <v>0.106238</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.137067</v>
+        <v>0.137791</v>
       </c>
       <c r="C96" t="n">
-        <v>0.124145</v>
+        <v>0.119587</v>
       </c>
       <c r="D96" t="n">
-        <v>0.108852</v>
+        <v>0.108138</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140573</v>
+        <v>0.139986</v>
       </c>
       <c r="C97" t="n">
-        <v>0.126358</v>
+        <v>0.124077</v>
       </c>
       <c r="D97" t="n">
-        <v>0.111066</v>
+        <v>0.109525</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14488</v>
+        <v>0.145272</v>
       </c>
       <c r="C98" t="n">
-        <v>0.130444</v>
+        <v>0.125933</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113017</v>
+        <v>0.110996</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149882</v>
+        <v>0.148842</v>
       </c>
       <c r="C99" t="n">
-        <v>0.134777</v>
+        <v>0.130426</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11486</v>
+        <v>0.113335</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155341</v>
+        <v>0.154295</v>
       </c>
       <c r="C100" t="n">
-        <v>0.13811</v>
+        <v>0.133865</v>
       </c>
       <c r="D100" t="n">
-        <v>0.117027</v>
+        <v>0.115659</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.162224</v>
+        <v>0.161215</v>
       </c>
       <c r="C101" t="n">
-        <v>0.144427</v>
+        <v>0.140513</v>
       </c>
       <c r="D101" t="n">
-        <v>0.119887</v>
+        <v>0.117515</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170869</v>
+        <v>0.169605</v>
       </c>
       <c r="C102" t="n">
-        <v>0.151167</v>
+        <v>0.145856</v>
       </c>
       <c r="D102" t="n">
-        <v>0.122132</v>
+        <v>0.120078</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.181829</v>
+        <v>0.180338</v>
       </c>
       <c r="C103" t="n">
-        <v>0.15952</v>
+        <v>0.155694</v>
       </c>
       <c r="D103" t="n">
-        <v>0.125229</v>
+        <v>0.122979</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196785</v>
+        <v>0.194982</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17243</v>
+        <v>0.167554</v>
       </c>
       <c r="D104" t="n">
-        <v>0.129269</v>
+        <v>0.127501</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.217399</v>
+        <v>0.218993</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188182</v>
+        <v>0.181063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.134915</v>
+        <v>0.132909</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253237</v>
+        <v>0.243541</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209369</v>
+        <v>0.203419</v>
       </c>
       <c r="D106" t="n">
-        <v>0.143356</v>
+        <v>0.140937</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.292443</v>
+        <v>0.286056</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2421</v>
+        <v>0.231574</v>
       </c>
       <c r="D107" t="n">
-        <v>0.157084</v>
+        <v>0.155021</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.369122</v>
+        <v>0.349519</v>
       </c>
       <c r="C108" t="n">
-        <v>0.291289</v>
+        <v>0.288666</v>
       </c>
       <c r="D108" t="n">
-        <v>0.114917</v>
+        <v>0.114091</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.457169</v>
+        <v>0.443693</v>
       </c>
       <c r="C109" t="n">
-        <v>0.385708</v>
+        <v>0.369731</v>
       </c>
       <c r="D109" t="n">
-        <v>0.116705</v>
+        <v>0.115041</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146442</v>
+        <v>0.146808</v>
       </c>
       <c r="C110" t="n">
-        <v>0.14513</v>
+        <v>0.139059</v>
       </c>
       <c r="D110" t="n">
-        <v>0.117906</v>
+        <v>0.116292</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149919</v>
+        <v>0.15007</v>
       </c>
       <c r="C111" t="n">
-        <v>0.150292</v>
+        <v>0.143926</v>
       </c>
       <c r="D111" t="n">
-        <v>0.119259</v>
+        <v>0.117607</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153589</v>
+        <v>0.153835</v>
       </c>
       <c r="C112" t="n">
-        <v>0.153867</v>
+        <v>0.149769</v>
       </c>
       <c r="D112" t="n">
-        <v>0.121418</v>
+        <v>0.119605</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158632</v>
+        <v>0.159122</v>
       </c>
       <c r="C113" t="n">
-        <v>0.158977</v>
+        <v>0.153726</v>
       </c>
       <c r="D113" t="n">
-        <v>0.123109</v>
+        <v>0.121584</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.164573</v>
+        <v>0.166557</v>
       </c>
       <c r="C114" t="n">
-        <v>0.165415</v>
+        <v>0.160034</v>
       </c>
       <c r="D114" t="n">
-        <v>0.126281</v>
+        <v>0.125298</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.172396</v>
+        <v>0.174268</v>
       </c>
       <c r="C115" t="n">
-        <v>0.172125</v>
+        <v>0.167795</v>
       </c>
       <c r="D115" t="n">
-        <v>0.128587</v>
+        <v>0.128946</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.183301</v>
+        <v>0.188196</v>
       </c>
       <c r="C116" t="n">
-        <v>0.180094</v>
+        <v>0.175749</v>
       </c>
       <c r="D116" t="n">
-        <v>0.132096</v>
+        <v>0.134032</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.197672</v>
+        <v>0.203287</v>
       </c>
       <c r="C117" t="n">
-        <v>0.190122</v>
+        <v>0.185768</v>
       </c>
       <c r="D117" t="n">
-        <v>0.137178</v>
+        <v>0.139612</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.215856</v>
+        <v>0.221264</v>
       </c>
       <c r="C118" t="n">
-        <v>0.202833</v>
+        <v>0.195107</v>
       </c>
       <c r="D118" t="n">
-        <v>0.143778</v>
+        <v>0.145915</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240797</v>
+        <v>0.23945</v>
       </c>
       <c r="C119" t="n">
-        <v>0.219576</v>
+        <v>0.209556</v>
       </c>
       <c r="D119" t="n">
-        <v>0.152804</v>
+        <v>0.153361</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.280631</v>
+        <v>0.275159</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2397</v>
+        <v>0.229617</v>
       </c>
       <c r="D120" t="n">
-        <v>0.164323</v>
+        <v>0.162717</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.317622</v>
+        <v>0.317783</v>
       </c>
       <c r="C121" t="n">
-        <v>0.269949</v>
+        <v>0.259169</v>
       </c>
       <c r="D121" t="n">
-        <v>0.179862</v>
+        <v>0.176377</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.387173</v>
+        <v>0.380111</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319171</v>
+        <v>0.302674</v>
       </c>
       <c r="D122" t="n">
-        <v>0.204301</v>
+        <v>0.198964</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.485146</v>
+        <v>0.465148</v>
       </c>
       <c r="C123" t="n">
-        <v>0.404897</v>
+        <v>0.390749</v>
       </c>
       <c r="D123" t="n">
-        <v>0.149944</v>
+        <v>0.139723</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173855</v>
+        <v>0.172685</v>
       </c>
       <c r="C124" t="n">
-        <v>0.174736</v>
+        <v>0.171597</v>
       </c>
       <c r="D124" t="n">
-        <v>0.14815</v>
+        <v>0.141895</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.179795</v>
+        <v>0.176885</v>
       </c>
       <c r="C125" t="n">
-        <v>0.183005</v>
+        <v>0.1735</v>
       </c>
       <c r="D125" t="n">
-        <v>0.147224</v>
+        <v>0.144257</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.182084</v>
+        <v>0.179681</v>
       </c>
       <c r="C126" t="n">
-        <v>0.187484</v>
+        <v>0.174616</v>
       </c>
       <c r="D126" t="n">
-        <v>0.153426</v>
+        <v>0.145159</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.194304</v>
+        <v>0.185601</v>
       </c>
       <c r="C127" t="n">
-        <v>0.189072</v>
+        <v>0.179101</v>
       </c>
       <c r="D127" t="n">
-        <v>0.154387</v>
+        <v>0.14824</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194258</v>
+        <v>0.193264</v>
       </c>
       <c r="C128" t="n">
-        <v>0.192456</v>
+        <v>0.183974</v>
       </c>
       <c r="D128" t="n">
-        <v>0.157443</v>
+        <v>0.154428</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.206009</v>
+        <v>0.197407</v>
       </c>
       <c r="C129" t="n">
-        <v>0.199338</v>
+        <v>0.190541</v>
       </c>
       <c r="D129" t="n">
-        <v>0.158022</v>
+        <v>0.152937</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213812</v>
+        <v>0.208762</v>
       </c>
       <c r="C130" t="n">
-        <v>0.206552</v>
+        <v>0.19847</v>
       </c>
       <c r="D130" t="n">
-        <v>0.162838</v>
+        <v>0.155624</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.228141</v>
+        <v>0.222006</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213163</v>
+        <v>0.206854</v>
       </c>
       <c r="D131" t="n">
-        <v>0.169201</v>
+        <v>0.15963</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.242173</v>
+        <v>0.233967</v>
       </c>
       <c r="C132" t="n">
-        <v>0.225914</v>
+        <v>0.217061</v>
       </c>
       <c r="D132" t="n">
-        <v>0.171789</v>
+        <v>0.167421</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.266119</v>
+        <v>0.260759</v>
       </c>
       <c r="C133" t="n">
-        <v>0.243226</v>
+        <v>0.231337</v>
       </c>
       <c r="D133" t="n">
-        <v>0.179051</v>
+        <v>0.174099</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292647</v>
+        <v>0.291726</v>
       </c>
       <c r="C134" t="n">
-        <v>0.264927</v>
+        <v>0.253997</v>
       </c>
       <c r="D134" t="n">
-        <v>0.18577</v>
+        <v>0.180279</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.336086</v>
+        <v>0.326652</v>
       </c>
       <c r="C135" t="n">
-        <v>0.296436</v>
+        <v>0.284225</v>
       </c>
       <c r="D135" t="n">
-        <v>0.198484</v>
+        <v>0.191445</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.398515</v>
+        <v>0.385159</v>
       </c>
       <c r="C136" t="n">
-        <v>0.336632</v>
+        <v>0.328444</v>
       </c>
       <c r="D136" t="n">
-        <v>0.219527</v>
+        <v>0.21211</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.496785</v>
+        <v>0.479889</v>
       </c>
       <c r="C137" t="n">
-        <v>0.41197</v>
+        <v>0.404435</v>
       </c>
       <c r="D137" t="n">
-        <v>0.288614</v>
+        <v>0.26864</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.332173</v>
+        <v>0.313251</v>
       </c>
       <c r="C138" t="n">
-        <v>0.300887</v>
+        <v>0.276684</v>
       </c>
       <c r="D138" t="n">
-        <v>0.297099</v>
+        <v>0.271992</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.343614</v>
+        <v>0.318295</v>
       </c>
       <c r="C139" t="n">
-        <v>0.301805</v>
+        <v>0.281735</v>
       </c>
       <c r="D139" t="n">
-        <v>0.296242</v>
+        <v>0.279063</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344339</v>
+        <v>0.320208</v>
       </c>
       <c r="C140" t="n">
-        <v>0.308187</v>
+        <v>0.287056</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29664</v>
+        <v>0.276906</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.349186</v>
+        <v>0.327393</v>
       </c>
       <c r="C141" t="n">
-        <v>0.31136</v>
+        <v>0.292119</v>
       </c>
       <c r="D141" t="n">
-        <v>0.302015</v>
+        <v>0.281879</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.359021</v>
+        <v>0.332799</v>
       </c>
       <c r="C142" t="n">
-        <v>0.317284</v>
+        <v>0.293822</v>
       </c>
       <c r="D142" t="n">
-        <v>0.302026</v>
+        <v>0.282257</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.366282</v>
+        <v>0.34223</v>
       </c>
       <c r="C143" t="n">
-        <v>0.325148</v>
+        <v>0.298415</v>
       </c>
       <c r="D143" t="n">
-        <v>0.307525</v>
+        <v>0.281999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0940328</v>
+        <v>0.09306929999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0704023</v>
+        <v>0.132853</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0741689</v>
+        <v>0.0778741</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0999029</v>
+        <v>0.0976334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0711118</v>
+        <v>0.136846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0746387</v>
+        <v>0.0784087</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111732</v>
+        <v>0.107072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0735367</v>
+        <v>0.144169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0753665</v>
+        <v>0.0795365</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123204</v>
+        <v>0.122601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08116760000000001</v>
+        <v>0.152382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07626139999999999</v>
+        <v>0.08093409999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152603</v>
+        <v>0.148469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09333180000000001</v>
+        <v>0.165659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0788401</v>
+        <v>0.0827587</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181327</v>
+        <v>0.177718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112395</v>
+        <v>0.18563</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0825856</v>
+        <v>0.0871898</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232393</v>
+        <v>0.218865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.146992</v>
+        <v>0.121186</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0931309</v>
+        <v>0.0970509</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.271401</v>
+        <v>0.26501</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184531</v>
+        <v>0.121799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0719303</v>
+        <v>0.075944</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08623069999999999</v>
+        <v>0.0867802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06752320000000001</v>
+        <v>0.123669</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0724085</v>
+        <v>0.076153</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0872865</v>
+        <v>0.0873862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06788230000000001</v>
+        <v>0.123763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0734817</v>
+        <v>0.0763472</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0884245</v>
+        <v>0.0887018</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06834320000000001</v>
+        <v>0.125168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0731247</v>
+        <v>0.07652249999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899861</v>
+        <v>0.0898555</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0685627</v>
+        <v>0.126743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0733605</v>
+        <v>0.0769254</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0922786</v>
+        <v>0.0923359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0694948</v>
+        <v>0.128191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0735579</v>
+        <v>0.0772977</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0960116</v>
+        <v>0.09525069999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07425610000000001</v>
+        <v>0.130574</v>
       </c>
       <c r="D15" t="n">
-        <v>0.074022</v>
+        <v>0.0777154</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.102148</v>
+        <v>0.100305</v>
       </c>
       <c r="C16" t="n">
-        <v>0.076136</v>
+        <v>0.134038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0767447</v>
+        <v>0.0782096</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10815</v>
+        <v>0.10775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.079566</v>
+        <v>0.139502</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0778928</v>
+        <v>0.0789164</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.122378</v>
+        <v>0.119299</v>
       </c>
       <c r="C18" t="n">
-        <v>0.082673</v>
+        <v>0.146737</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07647710000000001</v>
+        <v>0.08022600000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134242</v>
+        <v>0.133532</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0934938</v>
+        <v>0.156005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07850269999999999</v>
+        <v>0.0820673</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154431</v>
+        <v>0.153444</v>
       </c>
       <c r="C20" t="n">
-        <v>0.109837</v>
+        <v>0.168705</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0835518</v>
+        <v>0.08504490000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183941</v>
+        <v>0.181216</v>
       </c>
       <c r="C21" t="n">
-        <v>0.127437</v>
+        <v>0.187974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0875237</v>
+        <v>0.08990480000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214821</v>
+        <v>0.215148</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155149</v>
+        <v>0.131329</v>
       </c>
       <c r="D22" t="n">
-        <v>0.101908</v>
+        <v>0.101792</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.266414</v>
+        <v>0.258678</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195113</v>
+        <v>0.131711</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0741655</v>
+        <v>0.0775677</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0912568</v>
+        <v>0.0913172</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07197389999999999</v>
+        <v>0.132229</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0736415</v>
+        <v>0.07771110000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923934</v>
+        <v>0.09250990000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0730753</v>
+        <v>0.133265</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0759276</v>
+        <v>0.07815229999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0942779</v>
+        <v>0.0940008</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0729041</v>
+        <v>0.13454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0747597</v>
+        <v>0.07851660000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0964111</v>
+        <v>0.0959716</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0729761</v>
+        <v>0.135881</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0762292</v>
+        <v>0.0787945</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0997908</v>
+        <v>0.09947830000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0752481</v>
+        <v>0.137185</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0770464</v>
+        <v>0.0791152</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103734</v>
+        <v>0.103328</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07700120000000001</v>
+        <v>0.139727</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07610699999999999</v>
+        <v>0.0795989</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109096</v>
+        <v>0.108498</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07694579999999999</v>
+        <v>0.143176</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0760627</v>
+        <v>0.0802172</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116733</v>
+        <v>0.116342</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08222889999999999</v>
+        <v>0.148342</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0775916</v>
+        <v>0.08086889999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.127972</v>
+        <v>0.125155</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0868897</v>
+        <v>0.154144</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07802050000000001</v>
+        <v>0.0823917</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.140276</v>
+        <v>0.136494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0969695</v>
+        <v>0.162414</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08094469999999999</v>
+        <v>0.08440640000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.159811</v>
+        <v>0.154781</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1091</v>
+        <v>0.175157</v>
       </c>
       <c r="D34" t="n">
-        <v>0.085063</v>
+        <v>0.0873376</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179294</v>
+        <v>0.178597</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127856</v>
+        <v>0.192866</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0933268</v>
+        <v>0.0930023</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.219775</v>
+        <v>0.211207</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142497</v>
+        <v>0.213917</v>
       </c>
       <c r="D36" t="n">
-        <v>0.104416</v>
+        <v>0.102475</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.263767</v>
+        <v>0.255144</v>
       </c>
       <c r="C37" t="n">
-        <v>0.182236</v>
+        <v>0.140679</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0755628</v>
+        <v>0.07814939999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923529</v>
+        <v>0.09256440000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07339710000000001</v>
+        <v>0.141105</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0761343</v>
+        <v>0.0785521</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09446839999999999</v>
+        <v>0.0935964</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0723273</v>
+        <v>0.142392</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07549260000000001</v>
+        <v>0.0787445</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951601</v>
+        <v>0.0951866</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0751233</v>
+        <v>0.143547</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0759281</v>
+        <v>0.0790985</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0974674</v>
+        <v>0.0971875</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0754814</v>
+        <v>0.144908</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07586519999999999</v>
+        <v>0.0794248</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100598</v>
+        <v>0.100307</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0774777</v>
+        <v>0.146972</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0777742</v>
+        <v>0.07978970000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104493</v>
+        <v>0.103897</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0794555</v>
+        <v>0.149452</v>
       </c>
       <c r="D43" t="n">
-        <v>0.077903</v>
+        <v>0.0804429</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109077</v>
+        <v>0.10867</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0812022</v>
+        <v>0.152835</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0791179</v>
+        <v>0.0813016</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115927</v>
+        <v>0.115351</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08361200000000001</v>
+        <v>0.158524</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0788915</v>
+        <v>0.0821962</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12479</v>
+        <v>0.123979</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0876963</v>
+        <v>0.164163</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0805043</v>
+        <v>0.0834472</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136179</v>
+        <v>0.135065</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09464690000000001</v>
+        <v>0.173604</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0813569</v>
+        <v>0.08563419999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150631</v>
+        <v>0.150149</v>
       </c>
       <c r="C48" t="n">
-        <v>0.106416</v>
+        <v>0.185763</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0866092</v>
+        <v>0.08882420000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17346</v>
+        <v>0.171933</v>
       </c>
       <c r="C49" t="n">
-        <v>0.119973</v>
+        <v>0.201744</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0914456</v>
+        <v>0.0941813</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.208095</v>
+        <v>0.203425</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134385</v>
+        <v>0.222492</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100507</v>
+        <v>0.103245</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243104</v>
+        <v>0.247749</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166157</v>
+        <v>0.145057</v>
       </c>
       <c r="D51" t="n">
-        <v>0.075919</v>
+        <v>0.0807785</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.290909</v>
+        <v>0.306293</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234367</v>
+        <v>0.146076</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0777539</v>
+        <v>0.0811214</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097298</v>
+        <v>0.097369</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07715320000000001</v>
+        <v>0.146868</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07702920000000001</v>
+        <v>0.08098420000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09942579999999999</v>
+        <v>0.09928480000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0789222</v>
+        <v>0.148089</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0787451</v>
+        <v>0.0822345</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101333</v>
+        <v>0.100591</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0793267</v>
+        <v>0.149752</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0793999</v>
+        <v>0.0824493</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104382</v>
+        <v>0.103122</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0816144</v>
+        <v>0.151619</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08049009999999999</v>
+        <v>0.0836413</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10805</v>
+        <v>0.106738</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08290640000000001</v>
+        <v>0.154051</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0805864</v>
+        <v>0.0836919</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.11313</v>
+        <v>0.112098</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08563</v>
+        <v>0.15733</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0812146</v>
+        <v>0.0845904</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118025</v>
+        <v>0.118073</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0885117</v>
+        <v>0.16232</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08089540000000001</v>
+        <v>0.0852861</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126565</v>
+        <v>0.126644</v>
       </c>
       <c r="C60" t="n">
-        <v>0.092627</v>
+        <v>0.168781</v>
       </c>
       <c r="D60" t="n">
-        <v>0.082592</v>
+        <v>0.0857383</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.140163</v>
+        <v>0.136764</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09906379999999999</v>
+        <v>0.177653</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0836069</v>
+        <v>0.0885155</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151747</v>
+        <v>0.151605</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104378</v>
+        <v>0.190025</v>
       </c>
       <c r="D62" t="n">
-        <v>0.087258</v>
+        <v>0.0915724</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17265</v>
+        <v>0.171938</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116388</v>
+        <v>0.20399</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09210169999999999</v>
+        <v>0.097028</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200684</v>
+        <v>0.202688</v>
       </c>
       <c r="C64" t="n">
-        <v>0.140935</v>
+        <v>0.223726</v>
       </c>
       <c r="D64" t="n">
-        <v>0.099511</v>
+        <v>0.106411</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239498</v>
+        <v>0.24286</v>
       </c>
       <c r="C65" t="n">
-        <v>0.164906</v>
+        <v>0.146815</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115218</v>
+        <v>0.120453</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.286496</v>
+        <v>0.291901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.22495</v>
+        <v>0.14761</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08494160000000001</v>
+        <v>0.08835469999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108008</v>
+        <v>0.107019</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0856198</v>
+        <v>0.148642</v>
       </c>
       <c r="D67" t="n">
-        <v>0.085397</v>
+        <v>0.0891116</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108493</v>
+        <v>0.109022</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0860273</v>
+        <v>0.149892</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0858828</v>
+        <v>0.0888837</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111314</v>
+        <v>0.111604</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0872383</v>
+        <v>0.151124</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08627559999999999</v>
+        <v>0.0890798</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113166</v>
+        <v>0.115019</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08885319999999999</v>
+        <v>0.153308</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0867097</v>
+        <v>0.09014469999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117751</v>
+        <v>0.118376</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0910219</v>
+        <v>0.15574</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08676739999999999</v>
+        <v>0.09052449999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121881</v>
+        <v>0.122372</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0925248</v>
+        <v>0.159246</v>
       </c>
       <c r="D72" t="n">
-        <v>0.088035</v>
+        <v>0.0914237</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127389</v>
+        <v>0.127624</v>
       </c>
       <c r="C73" t="n">
-        <v>0.096557</v>
+        <v>0.163581</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0892908</v>
+        <v>0.09273289999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135052</v>
+        <v>0.134913</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101849</v>
+        <v>0.169871</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09077259999999999</v>
+        <v>0.09365</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14616</v>
+        <v>0.145268</v>
       </c>
       <c r="C75" t="n">
-        <v>0.107049</v>
+        <v>0.17805</v>
       </c>
       <c r="D75" t="n">
-        <v>0.092414</v>
+        <v>0.0960661</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160714</v>
+        <v>0.159398</v>
       </c>
       <c r="C76" t="n">
-        <v>0.114397</v>
+        <v>0.189621</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0956391</v>
+        <v>0.0983174</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1848</v>
+        <v>0.177913</v>
       </c>
       <c r="C77" t="n">
-        <v>0.125216</v>
+        <v>0.204165</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0994497</v>
+        <v>0.103706</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.20798</v>
+        <v>0.206477</v>
       </c>
       <c r="C78" t="n">
-        <v>0.145455</v>
+        <v>0.222463</v>
       </c>
       <c r="D78" t="n">
-        <v>0.107133</v>
+        <v>0.109824</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24971</v>
+        <v>0.245679</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174135</v>
+        <v>0.154374</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119216</v>
+        <v>0.123629</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302202</v>
+        <v>0.300715</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222326</v>
+        <v>0.156258</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0937554</v>
+        <v>0.09632060000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120255</v>
+        <v>0.12007</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09631679999999999</v>
+        <v>0.156671</v>
       </c>
       <c r="D81" t="n">
-        <v>0.094185</v>
+        <v>0.0970583</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123318</v>
+        <v>0.123148</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0971708</v>
+        <v>0.160067</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0949116</v>
+        <v>0.0981046</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124068</v>
+        <v>0.124077</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0986086</v>
+        <v>0.163605</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0953642</v>
+        <v>0.0984232</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128386</v>
+        <v>0.127282</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101714</v>
+        <v>0.158307</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0960799</v>
+        <v>0.0991354</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130707</v>
+        <v>0.130831</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104265</v>
+        <v>0.163769</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0975089</v>
+        <v>0.0984358</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137703</v>
+        <v>0.135569</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107547</v>
+        <v>0.16784</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09885099999999999</v>
+        <v>0.101652</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.14241</v>
+        <v>0.143797</v>
       </c>
       <c r="C87" t="n">
-        <v>0.112463</v>
+        <v>0.171606</v>
       </c>
       <c r="D87" t="n">
-        <v>0.100215</v>
+        <v>0.103268</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.153577</v>
+        <v>0.150328</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119156</v>
+        <v>0.177715</v>
       </c>
       <c r="D88" t="n">
-        <v>0.102064</v>
+        <v>0.105349</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161539</v>
+        <v>0.161372</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128183</v>
+        <v>0.18595</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104752</v>
+        <v>0.10826</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180659</v>
+        <v>0.176543</v>
       </c>
       <c r="C90" t="n">
-        <v>0.13933</v>
+        <v>0.197292</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108889</v>
+        <v>0.112193</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.20143</v>
+        <v>0.196841</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151547</v>
+        <v>0.209495</v>
       </c>
       <c r="D91" t="n">
-        <v>0.114878</v>
+        <v>0.116549</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.230155</v>
+        <v>0.232266</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166048</v>
+        <v>0.227889</v>
       </c>
       <c r="D92" t="n">
-        <v>0.122709</v>
+        <v>0.124811</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267859</v>
+        <v>0.267349</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194787</v>
+        <v>0.250459</v>
       </c>
       <c r="D93" t="n">
-        <v>0.136253</v>
+        <v>0.139861</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.324754</v>
+        <v>0.337506</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236303</v>
+        <v>0.311876</v>
       </c>
       <c r="D94" t="n">
-        <v>0.10433</v>
+        <v>0.106091</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133519</v>
+        <v>0.134999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117345</v>
+        <v>0.318732</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106238</v>
+        <v>0.107495</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.137791</v>
+        <v>0.137519</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119587</v>
+        <v>0.324425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.108138</v>
+        <v>0.109998</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139986</v>
+        <v>0.14076</v>
       </c>
       <c r="C97" t="n">
-        <v>0.124077</v>
+        <v>0.316905</v>
       </c>
       <c r="D97" t="n">
-        <v>0.109525</v>
+        <v>0.111763</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145272</v>
+        <v>0.143362</v>
       </c>
       <c r="C98" t="n">
-        <v>0.125933</v>
+        <v>0.314099</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110996</v>
+        <v>0.113862</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148842</v>
+        <v>0.148129</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130426</v>
+        <v>0.331462</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113335</v>
+        <v>0.114138</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154295</v>
+        <v>0.153998</v>
       </c>
       <c r="C100" t="n">
-        <v>0.133865</v>
+        <v>0.326362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115659</v>
+        <v>0.118234</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161215</v>
+        <v>0.160846</v>
       </c>
       <c r="C101" t="n">
-        <v>0.140513</v>
+        <v>0.34535</v>
       </c>
       <c r="D101" t="n">
-        <v>0.117515</v>
+        <v>0.120352</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169605</v>
+        <v>0.170417</v>
       </c>
       <c r="C102" t="n">
-        <v>0.145856</v>
+        <v>0.333554</v>
       </c>
       <c r="D102" t="n">
-        <v>0.120078</v>
+        <v>0.12266</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180338</v>
+        <v>0.179818</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155694</v>
+        <v>0.352774</v>
       </c>
       <c r="D103" t="n">
-        <v>0.122979</v>
+        <v>0.125816</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194982</v>
+        <v>0.194531</v>
       </c>
       <c r="C104" t="n">
-        <v>0.167554</v>
+        <v>0.35729</v>
       </c>
       <c r="D104" t="n">
-        <v>0.127501</v>
+        <v>0.130028</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.218993</v>
+        <v>0.219332</v>
       </c>
       <c r="C105" t="n">
-        <v>0.181063</v>
+        <v>0.369178</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132909</v>
+        <v>0.133493</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243541</v>
+        <v>0.24459</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203419</v>
+        <v>0.374191</v>
       </c>
       <c r="D106" t="n">
-        <v>0.140937</v>
+        <v>0.144007</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286056</v>
+        <v>0.287034</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231574</v>
+        <v>0.40165</v>
       </c>
       <c r="D107" t="n">
-        <v>0.155021</v>
+        <v>0.157001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.349519</v>
+        <v>0.35289</v>
       </c>
       <c r="C108" t="n">
-        <v>0.288666</v>
+        <v>0.556218</v>
       </c>
       <c r="D108" t="n">
-        <v>0.114091</v>
+        <v>0.11612</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.443693</v>
+        <v>0.44967</v>
       </c>
       <c r="C109" t="n">
-        <v>0.369731</v>
+        <v>0.557253</v>
       </c>
       <c r="D109" t="n">
-        <v>0.115041</v>
+        <v>0.117705</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146808</v>
+        <v>0.146135</v>
       </c>
       <c r="C110" t="n">
-        <v>0.139059</v>
+        <v>0.557386</v>
       </c>
       <c r="D110" t="n">
-        <v>0.116292</v>
+        <v>0.119273</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15007</v>
+        <v>0.147944</v>
       </c>
       <c r="C111" t="n">
-        <v>0.143926</v>
+        <v>0.559105</v>
       </c>
       <c r="D111" t="n">
-        <v>0.117607</v>
+        <v>0.120428</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153835</v>
+        <v>0.153226</v>
       </c>
       <c r="C112" t="n">
-        <v>0.149769</v>
+        <v>0.561285</v>
       </c>
       <c r="D112" t="n">
-        <v>0.119605</v>
+        <v>0.121738</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.159122</v>
+        <v>0.158004</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153726</v>
+        <v>0.5621429999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.121584</v>
+        <v>0.123942</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.166557</v>
+        <v>0.162771</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160034</v>
+        <v>0.564961</v>
       </c>
       <c r="D114" t="n">
-        <v>0.125298</v>
+        <v>0.12616</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.174268</v>
+        <v>0.170765</v>
       </c>
       <c r="C115" t="n">
-        <v>0.167795</v>
+        <v>0.5689650000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.128946</v>
+        <v>0.129057</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.188196</v>
+        <v>0.182942</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175749</v>
+        <v>0.572887</v>
       </c>
       <c r="D116" t="n">
-        <v>0.134032</v>
+        <v>0.132669</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203287</v>
+        <v>0.195645</v>
       </c>
       <c r="C117" t="n">
-        <v>0.185768</v>
+        <v>0.579579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.139612</v>
+        <v>0.13695</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221264</v>
+        <v>0.211725</v>
       </c>
       <c r="C118" t="n">
-        <v>0.195107</v>
+        <v>0.587824</v>
       </c>
       <c r="D118" t="n">
-        <v>0.145915</v>
+        <v>0.142446</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23945</v>
+        <v>0.234696</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209556</v>
+        <v>0.597575</v>
       </c>
       <c r="D119" t="n">
-        <v>0.153361</v>
+        <v>0.149913</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275159</v>
+        <v>0.270958</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229617</v>
+        <v>0.612636</v>
       </c>
       <c r="D120" t="n">
-        <v>0.162717</v>
+        <v>0.160592</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.317783</v>
+        <v>0.317299</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259169</v>
+        <v>0.6316040000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176377</v>
+        <v>0.177007</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.380111</v>
+        <v>0.37669</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302674</v>
+        <v>0.654524</v>
       </c>
       <c r="D122" t="n">
-        <v>0.198964</v>
+        <v>0.196965</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465148</v>
+        <v>0.471279</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390749</v>
+        <v>0.653701</v>
       </c>
       <c r="D123" t="n">
-        <v>0.139723</v>
+        <v>0.144044</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172685</v>
+        <v>0.175659</v>
       </c>
       <c r="C124" t="n">
-        <v>0.171597</v>
+        <v>0.654661</v>
       </c>
       <c r="D124" t="n">
-        <v>0.141895</v>
+        <v>0.144237</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.176885</v>
+        <v>0.177748</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1735</v>
+        <v>0.655408</v>
       </c>
       <c r="D125" t="n">
-        <v>0.144257</v>
+        <v>0.145848</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179681</v>
+        <v>0.181698</v>
       </c>
       <c r="C126" t="n">
-        <v>0.174616</v>
+        <v>0.657832</v>
       </c>
       <c r="D126" t="n">
-        <v>0.145159</v>
+        <v>0.14925</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.185601</v>
+        <v>0.189574</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179101</v>
+        <v>0.647629</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14824</v>
+        <v>0.152591</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193264</v>
+        <v>0.200191</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183974</v>
+        <v>0.661653</v>
       </c>
       <c r="D128" t="n">
-        <v>0.154428</v>
+        <v>0.153437</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.197407</v>
+        <v>0.204927</v>
       </c>
       <c r="C129" t="n">
-        <v>0.190541</v>
+        <v>0.665604</v>
       </c>
       <c r="D129" t="n">
-        <v>0.152937</v>
+        <v>0.157603</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208762</v>
+        <v>0.209664</v>
       </c>
       <c r="C130" t="n">
-        <v>0.19847</v>
+        <v>0.67042</v>
       </c>
       <c r="D130" t="n">
-        <v>0.155624</v>
+        <v>0.162632</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222006</v>
+        <v>0.226116</v>
       </c>
       <c r="C131" t="n">
-        <v>0.206854</v>
+        <v>0.6764790000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.15963</v>
+        <v>0.164333</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233967</v>
+        <v>0.242035</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217061</v>
+        <v>0.682756</v>
       </c>
       <c r="D132" t="n">
-        <v>0.167421</v>
+        <v>0.167003</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.260759</v>
+        <v>0.258131</v>
       </c>
       <c r="C133" t="n">
-        <v>0.231337</v>
+        <v>0.6933</v>
       </c>
       <c r="D133" t="n">
-        <v>0.174099</v>
+        <v>0.174889</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291726</v>
+        <v>0.291298</v>
       </c>
       <c r="C134" t="n">
-        <v>0.253997</v>
+        <v>0.707587</v>
       </c>
       <c r="D134" t="n">
-        <v>0.180279</v>
+        <v>0.18843</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.326652</v>
+        <v>0.337583</v>
       </c>
       <c r="C135" t="n">
-        <v>0.284225</v>
+        <v>0.728544</v>
       </c>
       <c r="D135" t="n">
-        <v>0.191445</v>
+        <v>0.197033</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.385159</v>
+        <v>0.396601</v>
       </c>
       <c r="C136" t="n">
-        <v>0.328444</v>
+        <v>0.700721</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21211</v>
+        <v>0.21571</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.479889</v>
+        <v>0.483518</v>
       </c>
       <c r="C137" t="n">
-        <v>0.404435</v>
+        <v>0.701572</v>
       </c>
       <c r="D137" t="n">
-        <v>0.26864</v>
+        <v>0.266117</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313251</v>
+        <v>0.311986</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276684</v>
+        <v>0.702242</v>
       </c>
       <c r="D138" t="n">
-        <v>0.271992</v>
+        <v>0.274212</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318295</v>
+        <v>0.311907</v>
       </c>
       <c r="C139" t="n">
-        <v>0.281735</v>
+        <v>0.7040689999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.279063</v>
+        <v>0.277742</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.320208</v>
+        <v>0.321636</v>
       </c>
       <c r="C140" t="n">
-        <v>0.287056</v>
+        <v>0.706271</v>
       </c>
       <c r="D140" t="n">
-        <v>0.276906</v>
+        <v>0.275339</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327393</v>
+        <v>0.327348</v>
       </c>
       <c r="C141" t="n">
-        <v>0.292119</v>
+        <v>0.700819</v>
       </c>
       <c r="D141" t="n">
-        <v>0.281879</v>
+        <v>0.279058</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332799</v>
+        <v>0.335056</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293822</v>
+        <v>0.7103080000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.282257</v>
+        <v>0.283087</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34223</v>
+        <v>0.343402</v>
       </c>
       <c r="C143" t="n">
-        <v>0.298415</v>
+        <v>0.71245</v>
       </c>
       <c r="D143" t="n">
-        <v>0.281999</v>
+        <v>0.286693</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.0177347</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0188852</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0234555</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0338857</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.0472317</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.0575473</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.114971</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.0165384</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0169788</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.017486</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.0179473</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0190006</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0210354</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0232111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0273704</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.033242</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0424186</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0554736</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0712052</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.095737</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.120816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0166553</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.0171951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0178482</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0186904</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0199208</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0220798</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0261723</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0299174</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0360282</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0442657</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0555848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.07283770000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.0951668</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118945</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0173426</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0180617</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.018949</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.020392</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.024542</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0279483</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0324731</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0380715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0466525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.056909</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0714974</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0912895</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.117883</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.142422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.019195</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0203607</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0218136</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0236284</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0264708</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297098</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0338513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0398965</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0472513</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0571737</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0718768</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.09075809999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.116281</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.146073</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0198702</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.0212214</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0226574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0247929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.0271637</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0304312</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0345894</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0396103</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0467754</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.0560361</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0688766</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.08715820000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.111126</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.021371</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0231017</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0250312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0273671</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.030302</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.0342767</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392133</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0459474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.0545635</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.066873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.08354640000000001</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.106964</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0212266</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0219642</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0233059</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.024965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.027507</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0303621</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0402101</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.0463648</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0548707</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0654704</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0815046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103387</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132347</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.031373</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.032779</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0342392</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.036179</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0382276</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0406218</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0440363</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0485942</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0553814</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.06523229999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.0794011</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128268</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163701</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0346198</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354654</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0366085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0388945</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0409798</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0433231</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0478824</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0522531</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0589284</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0684761</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08256520000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.102351</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.129668</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.164095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0467531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0489469</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0492735</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0513704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529331</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0552064</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0281637</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0303387</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.0343874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0402264</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0512406</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.0595602</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.0203069</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.0208109</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0212582</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0219184</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0229526</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.0241664</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0254836</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0273195</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0296545</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0332014</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0379014</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0448099</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0539658</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.06603249999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.020671</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.0211785</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0218233</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0225927</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0234831</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0247358</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0261932</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.0277728</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0302705</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0337553</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.038208</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0438485</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.053142</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06538140000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.081438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.0211673</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0217646</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0225445</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0235978</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.0247356</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0261785</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.028181</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0306195</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0343078</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0390459</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0453654</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0534848</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0640006</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0778128</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.0213048</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.0219901</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0226809</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0235119</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0248035</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0261888</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0281</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0307155</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0340517</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.039017</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.0450472</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0537333</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0640087</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.0761191</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.0215671</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.022204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0229249</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0238263</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.0250022</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0265029</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0283501</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0309632</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0342816</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0384953</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0444329</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0524612</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0624264</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0748988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.025562</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.0275782</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0280806</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.0285806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0282565</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0294624</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.0308743</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0341176</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0361708</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0410182</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0463375</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0537404</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.06263730000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0750686</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.09099740000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.0543355</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.055378</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0553167</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0560005</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0571877</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0572869</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.059316</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0627822</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0641979</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0676554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0737056</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.0815784</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.0931374</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.0822619</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.08355269999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.08275150000000001</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0835095</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0843792</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0856725</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0874267</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0900903</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.093279</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.09896530000000001</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.106256</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.117781</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.133615</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.093722</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.094073</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0945521</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0951642</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.09592340000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.09669759999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.100979</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0998585</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.106291</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.106045</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.114325</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.118703</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.132586</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.144449</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.100829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.101255</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.101684</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.103294</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.104327</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.108111</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.107678</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0250893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.026459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0281826</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0301669</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0330464</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.0400324</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0515425</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0219549</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0220185</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0223959</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0226063</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.022828</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0238637</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0243176</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.0252184</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0262676</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0283896</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0314271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.0373705</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0483472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0216108</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0218212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0221418</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0227307</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0232391</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.0238749</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0245752</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0255408</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.026853</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0288755</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0325576</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0451778</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.0225246</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.022845</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0231005</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0234427</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0238108</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0242156</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0247109</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0253455</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0263488</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0275133</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0294802</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0325566</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0372371</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0445091</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0233299</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0235644</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.0237683</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0240722</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0244168</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0249086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0254511</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0261448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.027135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0284505</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0303024</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0330686</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0376382</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0447934</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.057162</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.024014</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0243849</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.02468</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0250072</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.02551</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0259831</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0267313</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0276698</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0288476</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0307247</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0333151</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0375379</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.043859</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0545188</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.0242604</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0245599</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0248882</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.025275</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0257971</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.02637</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.027152</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0281046</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0295407</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.0311837</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0336176</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0371264</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.0426593</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0519684</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0258587</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0264334</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0269028</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0275923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0285702</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0300087</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0323097</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0365878</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0391818</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0416919</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0450736</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0484289</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0531234</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.059985</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0387026</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.039979</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0407366</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0414101</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0421872</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.0431039</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0440965</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0454494</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.046805</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.0482005</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0502533</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0531382</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0571138</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0631661</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0734669</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.045661</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0461072</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.047175</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.0476817</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0488919</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.0497329</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0514961</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0522748</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0539706</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0561519</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0589165</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0627973</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06854</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.0781154</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0641977</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0653511</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0658188</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0669466</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0672373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0686155</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0692349</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0940328</v>
+        <v>0.09375849999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0704023</v>
+        <v>0.0690798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0741689</v>
+        <v>0.07387730000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0999029</v>
+        <v>0.0977952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0711118</v>
+        <v>0.0706476</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0746387</v>
+        <v>0.0745656</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111732</v>
+        <v>0.108174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0735367</v>
+        <v>0.0736623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0753665</v>
+        <v>0.07521799999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123204</v>
+        <v>0.122952</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08116760000000001</v>
+        <v>0.0803976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07626139999999999</v>
+        <v>0.07644090000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.152603</v>
+        <v>0.147974</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09333180000000001</v>
+        <v>0.0924234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0788401</v>
+        <v>0.07840129999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181327</v>
+        <v>0.180874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112395</v>
+        <v>0.111606</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0825856</v>
+        <v>0.0827021</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232393</v>
+        <v>0.220378</v>
       </c>
       <c r="C8" t="n">
-        <v>0.146992</v>
+        <v>0.146885</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0931309</v>
+        <v>0.09364119999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.271401</v>
+        <v>0.259028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184531</v>
+        <v>0.183831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0719303</v>
+        <v>0.07163890000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08623069999999999</v>
+        <v>0.08665539999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06752320000000001</v>
+        <v>0.0675096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0724085</v>
+        <v>0.0723063</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0872865</v>
+        <v>0.0874335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06788230000000001</v>
+        <v>0.06795039999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0734817</v>
+        <v>0.0724829</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0884245</v>
+        <v>0.0887835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06834320000000001</v>
+        <v>0.0684288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0731247</v>
+        <v>0.0728152</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899861</v>
+        <v>0.09030530000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0685627</v>
+        <v>0.06871579999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0733605</v>
+        <v>0.0730973</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0922786</v>
+        <v>0.09257070000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0694948</v>
+        <v>0.0697825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0735579</v>
+        <v>0.07352649999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0960116</v>
+        <v>0.0953653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07425610000000001</v>
+        <v>0.0709196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.074022</v>
+        <v>0.0741595</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.102148</v>
+        <v>0.100456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.076136</v>
+        <v>0.0738587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0767447</v>
+        <v>0.0746395</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10815</v>
+        <v>0.108486</v>
       </c>
       <c r="C17" t="n">
-        <v>0.079566</v>
+        <v>0.0759732</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0778928</v>
+        <v>0.07527590000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.122378</v>
+        <v>0.120162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.082673</v>
+        <v>0.0850138</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07647710000000001</v>
+        <v>0.07650170000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134242</v>
+        <v>0.134912</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0934938</v>
+        <v>0.0916879</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07850269999999999</v>
+        <v>0.0786104</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154431</v>
+        <v>0.155148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.109837</v>
+        <v>0.102765</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0835518</v>
+        <v>0.0816934</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183941</v>
+        <v>0.181452</v>
       </c>
       <c r="C21" t="n">
-        <v>0.127437</v>
+        <v>0.119842</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0875237</v>
+        <v>0.0878249</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214821</v>
+        <v>0.214096</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155149</v>
+        <v>0.148283</v>
       </c>
       <c r="D22" t="n">
-        <v>0.101908</v>
+        <v>0.102047</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.266414</v>
+        <v>0.256152</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195113</v>
+        <v>0.189353</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0741655</v>
+        <v>0.07340530000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0912568</v>
+        <v>0.09135409999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07197389999999999</v>
+        <v>0.07013809999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0736415</v>
+        <v>0.0735967</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923934</v>
+        <v>0.0924349</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0730753</v>
+        <v>0.0706358</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0759276</v>
+        <v>0.0738851</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0942779</v>
+        <v>0.0941134</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0729041</v>
+        <v>0.0713178</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0747597</v>
+        <v>0.0741006</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0964111</v>
+        <v>0.09634330000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0729761</v>
+        <v>0.0720293</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0762292</v>
+        <v>0.0746473</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0997908</v>
+        <v>0.100818</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0752481</v>
+        <v>0.073062</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0770464</v>
+        <v>0.0751005</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103734</v>
+        <v>0.103669</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07700120000000001</v>
+        <v>0.0746087</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07610699999999999</v>
+        <v>0.0756141</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109096</v>
+        <v>0.109053</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07694579999999999</v>
+        <v>0.0768769</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0760627</v>
+        <v>0.0760538</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116733</v>
+        <v>0.116605</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08222889999999999</v>
+        <v>0.0805423</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0775916</v>
+        <v>0.0768219</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.127972</v>
+        <v>0.125615</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0868897</v>
+        <v>0.0856806</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07802050000000001</v>
+        <v>0.07806159999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.140276</v>
+        <v>0.137261</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0969695</v>
+        <v>0.09280679999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08094469999999999</v>
+        <v>0.0802359</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.159811</v>
+        <v>0.155514</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1091</v>
+        <v>0.104664</v>
       </c>
       <c r="D34" t="n">
-        <v>0.085063</v>
+        <v>0.0843018</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179294</v>
+        <v>0.179209</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127856</v>
+        <v>0.120603</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0933268</v>
+        <v>0.09113540000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.219775</v>
+        <v>0.209847</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142497</v>
+        <v>0.143063</v>
       </c>
       <c r="D36" t="n">
-        <v>0.104416</v>
+        <v>0.102894</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.263767</v>
+        <v>0.251304</v>
       </c>
       <c r="C37" t="n">
-        <v>0.182236</v>
+        <v>0.181792</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0755628</v>
+        <v>0.0742442</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923529</v>
+        <v>0.0926526</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07339710000000001</v>
+        <v>0.0717488</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0761343</v>
+        <v>0.0745931</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09446839999999999</v>
+        <v>0.0936044</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0723273</v>
+        <v>0.07236529999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07549260000000001</v>
+        <v>0.0748484</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951601</v>
+        <v>0.0951969</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0751233</v>
+        <v>0.07319299999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0759281</v>
+        <v>0.07521940000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0974674</v>
+        <v>0.0974638</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0754814</v>
+        <v>0.07424600000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07586519999999999</v>
+        <v>0.0757558</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100598</v>
+        <v>0.100301</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0774777</v>
+        <v>0.0753379</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0777742</v>
+        <v>0.0760943</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104493</v>
+        <v>0.104838</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0794555</v>
+        <v>0.0772819</v>
       </c>
       <c r="D43" t="n">
-        <v>0.077903</v>
+        <v>0.07656200000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109077</v>
+        <v>0.108958</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0812022</v>
+        <v>0.0796379</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0791179</v>
+        <v>0.0772582</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115927</v>
+        <v>0.116307</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08361200000000001</v>
+        <v>0.0828101</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0788915</v>
+        <v>0.0781873</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12479</v>
+        <v>0.124887</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0876963</v>
+        <v>0.0874955</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0805043</v>
+        <v>0.0795023</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136179</v>
+        <v>0.135864</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09464690000000001</v>
+        <v>0.0937989</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0813569</v>
+        <v>0.0813019</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150631</v>
+        <v>0.15047</v>
       </c>
       <c r="C48" t="n">
-        <v>0.106416</v>
+        <v>0.102396</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0866092</v>
+        <v>0.0847339</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.17346</v>
+        <v>0.172429</v>
       </c>
       <c r="C49" t="n">
-        <v>0.119973</v>
+        <v>0.114901</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0914456</v>
+        <v>0.09013350000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.208095</v>
+        <v>0.202631</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134385</v>
+        <v>0.135067</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100507</v>
+        <v>0.09909999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243104</v>
+        <v>0.243873</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166157</v>
+        <v>0.166451</v>
       </c>
       <c r="D51" t="n">
-        <v>0.075919</v>
+        <v>0.0770535</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.290909</v>
+        <v>0.288179</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234367</v>
+        <v>0.218454</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0777539</v>
+        <v>0.07661709999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097298</v>
+        <v>0.0968836</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07715320000000001</v>
+        <v>0.0758153</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07702920000000001</v>
+        <v>0.0770211</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09942579999999999</v>
+        <v>0.0984529</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0789222</v>
+        <v>0.0762867</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0787451</v>
+        <v>0.0770907</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101333</v>
+        <v>0.100253</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0793267</v>
+        <v>0.0768596</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0793999</v>
+        <v>0.0775675</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104382</v>
+        <v>0.102979</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0816144</v>
+        <v>0.0787233</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08049009999999999</v>
+        <v>0.0784205</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10805</v>
+        <v>0.106779</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08290640000000001</v>
+        <v>0.0815491</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0805864</v>
+        <v>0.07840859999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.11313</v>
+        <v>0.11216</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08563</v>
+        <v>0.0846428</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0812146</v>
+        <v>0.0793411</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118025</v>
+        <v>0.118382</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0885117</v>
+        <v>0.0863396</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08089540000000001</v>
+        <v>0.0801156</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126565</v>
+        <v>0.127387</v>
       </c>
       <c r="C60" t="n">
-        <v>0.092627</v>
+        <v>0.0892661</v>
       </c>
       <c r="D60" t="n">
-        <v>0.082592</v>
+        <v>0.08116279999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.140163</v>
+        <v>0.137371</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09906379999999999</v>
+        <v>0.0958386</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0836069</v>
+        <v>0.08396919999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151747</v>
+        <v>0.152106</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104378</v>
+        <v>0.107578</v>
       </c>
       <c r="D62" t="n">
-        <v>0.087258</v>
+        <v>0.0863896</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17265</v>
+        <v>0.171767</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116388</v>
+        <v>0.116528</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09210169999999999</v>
+        <v>0.0917577</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200684</v>
+        <v>0.200299</v>
       </c>
       <c r="C64" t="n">
-        <v>0.140935</v>
+        <v>0.140189</v>
       </c>
       <c r="D64" t="n">
-        <v>0.099511</v>
+        <v>0.0994596</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239498</v>
+        <v>0.248094</v>
       </c>
       <c r="C65" t="n">
-        <v>0.164906</v>
+        <v>0.167651</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115218</v>
+        <v>0.113539</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.286496</v>
+        <v>0.293623</v>
       </c>
       <c r="C66" t="n">
-        <v>0.22495</v>
+        <v>0.223916</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08494160000000001</v>
+        <v>0.0844675</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108008</v>
+        <v>0.10672</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0856198</v>
+        <v>0.0842439</v>
       </c>
       <c r="D67" t="n">
-        <v>0.085397</v>
+        <v>0.0852049</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108493</v>
+        <v>0.108097</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0860273</v>
+        <v>0.0858672</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0858828</v>
+        <v>0.0856291</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111314</v>
+        <v>0.110994</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0872383</v>
+        <v>0.08583209999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08627559999999999</v>
+        <v>0.08566169999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113166</v>
+        <v>0.113237</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08885319999999999</v>
+        <v>0.0885485</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0867097</v>
+        <v>0.08581859999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117751</v>
+        <v>0.117007</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0910219</v>
+        <v>0.0900601</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08676739999999999</v>
+        <v>0.0871981</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121881</v>
+        <v>0.121642</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0925248</v>
+        <v>0.0917726</v>
       </c>
       <c r="D72" t="n">
-        <v>0.088035</v>
+        <v>0.0880248</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127389</v>
+        <v>0.127189</v>
       </c>
       <c r="C73" t="n">
-        <v>0.096557</v>
+        <v>0.0974199</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0892908</v>
+        <v>0.08973929999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135052</v>
+        <v>0.137527</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101849</v>
+        <v>0.09988180000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09077259999999999</v>
+        <v>0.0899954</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14616</v>
+        <v>0.145046</v>
       </c>
       <c r="C75" t="n">
-        <v>0.107049</v>
+        <v>0.103827</v>
       </c>
       <c r="D75" t="n">
-        <v>0.092414</v>
+        <v>0.0914442</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160714</v>
+        <v>0.159067</v>
       </c>
       <c r="C76" t="n">
-        <v>0.114397</v>
+        <v>0.114949</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0956391</v>
+        <v>0.09413349999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1848</v>
+        <v>0.178249</v>
       </c>
       <c r="C77" t="n">
-        <v>0.125216</v>
+        <v>0.122301</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0994497</v>
+        <v>0.0989439</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.20798</v>
+        <v>0.205231</v>
       </c>
       <c r="C78" t="n">
-        <v>0.145455</v>
+        <v>0.145434</v>
       </c>
       <c r="D78" t="n">
-        <v>0.107133</v>
+        <v>0.10749</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24971</v>
+        <v>0.248168</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174135</v>
+        <v>0.176213</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119216</v>
+        <v>0.119356</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302202</v>
+        <v>0.305942</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222326</v>
+        <v>0.22269</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0937554</v>
+        <v>0.0932582</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120255</v>
+        <v>0.120047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09631679999999999</v>
+        <v>0.09565220000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.094185</v>
+        <v>0.0937553</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123318</v>
+        <v>0.121878</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0971708</v>
+        <v>0.0967089</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0949116</v>
+        <v>0.0944731</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124068</v>
+        <v>0.123993</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0986086</v>
+        <v>0.0979452</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0953642</v>
+        <v>0.09506199999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128386</v>
+        <v>0.12697</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101714</v>
+        <v>0.100946</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0960799</v>
+        <v>0.0959488</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130707</v>
+        <v>0.130702</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104265</v>
+        <v>0.104542</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0975089</v>
+        <v>0.09740409999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137703</v>
+        <v>0.137879</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107547</v>
+        <v>0.107091</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09885099999999999</v>
+        <v>0.0983282</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.14241</v>
+        <v>0.142227</v>
       </c>
       <c r="C87" t="n">
-        <v>0.112463</v>
+        <v>0.112634</v>
       </c>
       <c r="D87" t="n">
-        <v>0.100215</v>
+        <v>0.100037</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.153577</v>
+        <v>0.153004</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119156</v>
+        <v>0.118332</v>
       </c>
       <c r="D88" t="n">
-        <v>0.102064</v>
+        <v>0.102031</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161539</v>
+        <v>0.162421</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128183</v>
+        <v>0.128678</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104752</v>
+        <v>0.105066</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180659</v>
+        <v>0.176359</v>
       </c>
       <c r="C90" t="n">
-        <v>0.13933</v>
+        <v>0.135909</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108889</v>
+        <v>0.109381</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.20143</v>
+        <v>0.197976</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151547</v>
+        <v>0.149942</v>
       </c>
       <c r="D91" t="n">
-        <v>0.114878</v>
+        <v>0.115119</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.230155</v>
+        <v>0.227117</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166048</v>
+        <v>0.168058</v>
       </c>
       <c r="D92" t="n">
-        <v>0.122709</v>
+        <v>0.123505</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267859</v>
+        <v>0.275152</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194787</v>
+        <v>0.202484</v>
       </c>
       <c r="D93" t="n">
-        <v>0.136253</v>
+        <v>0.137661</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.324754</v>
+        <v>0.333321</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236303</v>
+        <v>0.238985</v>
       </c>
       <c r="D94" t="n">
-        <v>0.10433</v>
+        <v>0.104595</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133519</v>
+        <v>0.133873</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117345</v>
+        <v>0.114824</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106238</v>
+        <v>0.106555</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.137791</v>
+        <v>0.138185</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119587</v>
+        <v>0.119867</v>
       </c>
       <c r="D96" t="n">
-        <v>0.108138</v>
+        <v>0.107738</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139986</v>
+        <v>0.140038</v>
       </c>
       <c r="C97" t="n">
-        <v>0.124077</v>
+        <v>0.120248</v>
       </c>
       <c r="D97" t="n">
-        <v>0.109525</v>
+        <v>0.109822</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145272</v>
+        <v>0.145484</v>
       </c>
       <c r="C98" t="n">
-        <v>0.125933</v>
+        <v>0.126376</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110996</v>
+        <v>0.111564</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148842</v>
+        <v>0.148714</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130426</v>
+        <v>0.129976</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113335</v>
+        <v>0.113438</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154295</v>
+        <v>0.154322</v>
       </c>
       <c r="C100" t="n">
-        <v>0.133865</v>
+        <v>0.134796</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115659</v>
+        <v>0.115587</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161215</v>
+        <v>0.163504</v>
       </c>
       <c r="C101" t="n">
-        <v>0.140513</v>
+        <v>0.139482</v>
       </c>
       <c r="D101" t="n">
-        <v>0.117515</v>
+        <v>0.118283</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169605</v>
+        <v>0.169705</v>
       </c>
       <c r="C102" t="n">
-        <v>0.145856</v>
+        <v>0.147943</v>
       </c>
       <c r="D102" t="n">
-        <v>0.120078</v>
+        <v>0.118543</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180338</v>
+        <v>0.181291</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155694</v>
+        <v>0.155393</v>
       </c>
       <c r="D103" t="n">
-        <v>0.122979</v>
+        <v>0.123213</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194982</v>
+        <v>0.198832</v>
       </c>
       <c r="C104" t="n">
-        <v>0.167554</v>
+        <v>0.162309</v>
       </c>
       <c r="D104" t="n">
-        <v>0.127501</v>
+        <v>0.125186</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.218993</v>
+        <v>0.218825</v>
       </c>
       <c r="C105" t="n">
-        <v>0.181063</v>
+        <v>0.180838</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132909</v>
+        <v>0.132568</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243541</v>
+        <v>0.250743</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203419</v>
+        <v>0.201516</v>
       </c>
       <c r="D106" t="n">
-        <v>0.140937</v>
+        <v>0.138567</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286056</v>
+        <v>0.293849</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231574</v>
+        <v>0.231991</v>
       </c>
       <c r="D107" t="n">
-        <v>0.155021</v>
+        <v>0.154214</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.349519</v>
+        <v>0.356767</v>
       </c>
       <c r="C108" t="n">
-        <v>0.288666</v>
+        <v>0.277987</v>
       </c>
       <c r="D108" t="n">
-        <v>0.114091</v>
+        <v>0.113334</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.443693</v>
+        <v>0.44371</v>
       </c>
       <c r="C109" t="n">
-        <v>0.369731</v>
+        <v>0.369684</v>
       </c>
       <c r="D109" t="n">
-        <v>0.115041</v>
+        <v>0.114597</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146808</v>
+        <v>0.146683</v>
       </c>
       <c r="C110" t="n">
-        <v>0.139059</v>
+        <v>0.140762</v>
       </c>
       <c r="D110" t="n">
-        <v>0.116292</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15007</v>
+        <v>0.149386</v>
       </c>
       <c r="C111" t="n">
-        <v>0.143926</v>
+        <v>0.143674</v>
       </c>
       <c r="D111" t="n">
-        <v>0.117607</v>
+        <v>0.11769</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153835</v>
+        <v>0.152356</v>
       </c>
       <c r="C112" t="n">
-        <v>0.149769</v>
+        <v>0.14815</v>
       </c>
       <c r="D112" t="n">
-        <v>0.119605</v>
+        <v>0.120129</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.159122</v>
+        <v>0.156956</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153726</v>
+        <v>0.153253</v>
       </c>
       <c r="D113" t="n">
-        <v>0.121584</v>
+        <v>0.121736</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.166557</v>
+        <v>0.16333</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160034</v>
+        <v>0.159146</v>
       </c>
       <c r="D114" t="n">
-        <v>0.125298</v>
+        <v>0.123884</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.174268</v>
+        <v>0.171345</v>
       </c>
       <c r="C115" t="n">
-        <v>0.167795</v>
+        <v>0.164614</v>
       </c>
       <c r="D115" t="n">
-        <v>0.128946</v>
+        <v>0.126806</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.188196</v>
+        <v>0.181322</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175749</v>
+        <v>0.173038</v>
       </c>
       <c r="D116" t="n">
-        <v>0.134032</v>
+        <v>0.129605</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203287</v>
+        <v>0.194877</v>
       </c>
       <c r="C117" t="n">
-        <v>0.185768</v>
+        <v>0.181768</v>
       </c>
       <c r="D117" t="n">
-        <v>0.139612</v>
+        <v>0.134795</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221264</v>
+        <v>0.212481</v>
       </c>
       <c r="C118" t="n">
-        <v>0.195107</v>
+        <v>0.195852</v>
       </c>
       <c r="D118" t="n">
-        <v>0.145915</v>
+        <v>0.139859</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23945</v>
+        <v>0.235107</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209556</v>
+        <v>0.209691</v>
       </c>
       <c r="D119" t="n">
-        <v>0.153361</v>
+        <v>0.147657</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275159</v>
+        <v>0.269737</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229617</v>
+        <v>0.233138</v>
       </c>
       <c r="D120" t="n">
-        <v>0.162717</v>
+        <v>0.158682</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.317783</v>
+        <v>0.308632</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259169</v>
+        <v>0.261346</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176377</v>
+        <v>0.173856</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.380111</v>
+        <v>0.378201</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302674</v>
+        <v>0.308789</v>
       </c>
       <c r="D122" t="n">
-        <v>0.198964</v>
+        <v>0.197877</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465148</v>
+        <v>0.469523</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390749</v>
+        <v>0.390009</v>
       </c>
       <c r="D123" t="n">
-        <v>0.139723</v>
+        <v>0.137864</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172685</v>
+        <v>0.173351</v>
       </c>
       <c r="C124" t="n">
-        <v>0.171597</v>
+        <v>0.170874</v>
       </c>
       <c r="D124" t="n">
-        <v>0.141895</v>
+        <v>0.142442</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.176885</v>
+        <v>0.176311</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1735</v>
+        <v>0.174879</v>
       </c>
       <c r="D125" t="n">
-        <v>0.144257</v>
+        <v>0.147969</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179681</v>
+        <v>0.185342</v>
       </c>
       <c r="C126" t="n">
-        <v>0.174616</v>
+        <v>0.175542</v>
       </c>
       <c r="D126" t="n">
-        <v>0.145159</v>
+        <v>0.146194</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.185601</v>
+        <v>0.188058</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179101</v>
+        <v>0.179676</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14824</v>
+        <v>0.14641</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193264</v>
+        <v>0.194805</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183974</v>
+        <v>0.18566</v>
       </c>
       <c r="D128" t="n">
-        <v>0.154428</v>
+        <v>0.153853</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.197407</v>
+        <v>0.203413</v>
       </c>
       <c r="C129" t="n">
-        <v>0.190541</v>
+        <v>0.190492</v>
       </c>
       <c r="D129" t="n">
-        <v>0.152937</v>
+        <v>0.157047</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208762</v>
+        <v>0.210052</v>
       </c>
       <c r="C130" t="n">
-        <v>0.19847</v>
+        <v>0.197717</v>
       </c>
       <c r="D130" t="n">
-        <v>0.155624</v>
+        <v>0.161233</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222006</v>
+        <v>0.227972</v>
       </c>
       <c r="C131" t="n">
-        <v>0.206854</v>
+        <v>0.209023</v>
       </c>
       <c r="D131" t="n">
-        <v>0.15963</v>
+        <v>0.163173</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233967</v>
+        <v>0.236214</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217061</v>
+        <v>0.218011</v>
       </c>
       <c r="D132" t="n">
-        <v>0.167421</v>
+        <v>0.167511</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.260759</v>
+        <v>0.261294</v>
       </c>
       <c r="C133" t="n">
-        <v>0.231337</v>
+        <v>0.233942</v>
       </c>
       <c r="D133" t="n">
-        <v>0.174099</v>
+        <v>0.176263</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291726</v>
+        <v>0.292254</v>
       </c>
       <c r="C134" t="n">
-        <v>0.253997</v>
+        <v>0.25132</v>
       </c>
       <c r="D134" t="n">
-        <v>0.180279</v>
+        <v>0.181802</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.326652</v>
+        <v>0.333286</v>
       </c>
       <c r="C135" t="n">
-        <v>0.284225</v>
+        <v>0.277582</v>
       </c>
       <c r="D135" t="n">
-        <v>0.191445</v>
+        <v>0.196345</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.385159</v>
+        <v>0.395402</v>
       </c>
       <c r="C136" t="n">
-        <v>0.328444</v>
+        <v>0.325505</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21211</v>
+        <v>0.211822</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.479889</v>
+        <v>0.482263</v>
       </c>
       <c r="C137" t="n">
-        <v>0.404435</v>
+        <v>0.393579</v>
       </c>
       <c r="D137" t="n">
-        <v>0.26864</v>
+        <v>0.269819</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313251</v>
+        <v>0.313841</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276684</v>
+        <v>0.277109</v>
       </c>
       <c r="D138" t="n">
-        <v>0.271992</v>
+        <v>0.272441</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318295</v>
+        <v>0.319773</v>
       </c>
       <c r="C139" t="n">
-        <v>0.281735</v>
+        <v>0.28164</v>
       </c>
       <c r="D139" t="n">
-        <v>0.279063</v>
+        <v>0.275195</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.320208</v>
+        <v>0.325203</v>
       </c>
       <c r="C140" t="n">
-        <v>0.287056</v>
+        <v>0.28509</v>
       </c>
       <c r="D140" t="n">
-        <v>0.276906</v>
+        <v>0.280457</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327393</v>
+        <v>0.32797</v>
       </c>
       <c r="C141" t="n">
-        <v>0.292119</v>
+        <v>0.287728</v>
       </c>
       <c r="D141" t="n">
-        <v>0.281879</v>
+        <v>0.281835</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332799</v>
+        <v>0.335749</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293822</v>
+        <v>0.293131</v>
       </c>
       <c r="D142" t="n">
-        <v>0.282257</v>
+        <v>0.282496</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34223</v>
+        <v>0.33982</v>
       </c>
       <c r="C143" t="n">
-        <v>0.298415</v>
+        <v>0.298719</v>
       </c>
       <c r="D143" t="n">
-        <v>0.281999</v>
+        <v>0.283743</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09375849999999999</v>
+        <v>0.09401519999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0690798</v>
+        <v>0.06889820000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07387730000000001</v>
+        <v>0.0701647</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0977952</v>
+        <v>0.09808749999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0706476</v>
+        <v>0.07008010000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0745656</v>
+        <v>0.0706016</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108174</v>
+        <v>0.108841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0736623</v>
+        <v>0.0734804</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07521799999999999</v>
+        <v>0.07150720000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122952</v>
+        <v>0.123261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0803976</v>
+        <v>0.0809204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07644090000000001</v>
+        <v>0.07275189999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147974</v>
+        <v>0.147469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0924234</v>
+        <v>0.0925074</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07840129999999999</v>
+        <v>0.0744358</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180874</v>
+        <v>0.180856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111606</v>
+        <v>0.111943</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0827021</v>
+        <v>0.0782534</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220378</v>
+        <v>0.220513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.146885</v>
+        <v>0.147539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09364119999999999</v>
+        <v>0.0899672</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259028</v>
+        <v>0.25978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.183831</v>
+        <v>0.184526</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07163890000000001</v>
+        <v>0.0678508</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08665539999999999</v>
+        <v>0.086628</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0675096</v>
+        <v>0.0677473</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0723063</v>
+        <v>0.0680496</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0874335</v>
+        <v>0.0874105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06795039999999999</v>
+        <v>0.0683472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0724829</v>
+        <v>0.0685426</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0887835</v>
+        <v>0.0900445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0684288</v>
+        <v>0.0687075</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0728152</v>
+        <v>0.0684963</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09030530000000001</v>
+        <v>0.0903071</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06871579999999999</v>
+        <v>0.0686871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0730973</v>
+        <v>0.0689425</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09257070000000001</v>
+        <v>0.09380289999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0697825</v>
+        <v>0.069939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07352649999999999</v>
+        <v>0.0692194</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0953653</v>
+        <v>0.0961494</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0709196</v>
+        <v>0.07100099999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0741595</v>
+        <v>0.069855</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100456</v>
+        <v>0.100672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0738587</v>
+        <v>0.07400909999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0746395</v>
+        <v>0.070466</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108486</v>
+        <v>0.109044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0759732</v>
+        <v>0.07657120000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07527590000000001</v>
+        <v>0.0712974</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120162</v>
+        <v>0.11979</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0850138</v>
+        <v>0.0871498</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07650170000000001</v>
+        <v>0.07493610000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134912</v>
+        <v>0.135046</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0916879</v>
+        <v>0.0918259</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0786104</v>
+        <v>0.07549699999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155148</v>
+        <v>0.159062</v>
       </c>
       <c r="C20" t="n">
-        <v>0.102765</v>
+        <v>0.103232</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0816934</v>
+        <v>0.0778061</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181452</v>
+        <v>0.189664</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119842</v>
+        <v>0.120026</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0878249</v>
+        <v>0.08349289999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214096</v>
+        <v>0.224945</v>
       </c>
       <c r="C22" t="n">
-        <v>0.148283</v>
+        <v>0.149996</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102047</v>
+        <v>0.0984753</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.256152</v>
+        <v>0.262428</v>
       </c>
       <c r="C23" t="n">
-        <v>0.189353</v>
+        <v>0.189808</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07340530000000001</v>
+        <v>0.0689504</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09135409999999999</v>
+        <v>0.09119149999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07013809999999999</v>
+        <v>0.0701195</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0735967</v>
+        <v>0.0691572</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0924349</v>
+        <v>0.0924859</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0706358</v>
+        <v>0.0705838</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0738851</v>
+        <v>0.0694356</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0941134</v>
+        <v>0.094226</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0713178</v>
+        <v>0.0712132</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0741006</v>
+        <v>0.06970170000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09634330000000001</v>
+        <v>0.0963706</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0720293</v>
+        <v>0.0719582</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0746473</v>
+        <v>0.0701712</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.100818</v>
+        <v>0.09981909999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.073062</v>
+        <v>0.0735002</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0751005</v>
+        <v>0.071975</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103669</v>
+        <v>0.103737</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0746087</v>
+        <v>0.07659530000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0756141</v>
+        <v>0.0713329</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109053</v>
+        <v>0.109223</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0768769</v>
+        <v>0.07885200000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0760538</v>
+        <v>0.0730156</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116605</v>
+        <v>0.11666</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0805423</v>
+        <v>0.08369070000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0768219</v>
+        <v>0.0728722</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125615</v>
+        <v>0.125922</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0856806</v>
+        <v>0.08859060000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07806159999999999</v>
+        <v>0.0758569</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137261</v>
+        <v>0.137423</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09280679999999999</v>
+        <v>0.09740890000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0802359</v>
+        <v>0.0767407</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155514</v>
+        <v>0.155673</v>
       </c>
       <c r="C34" t="n">
-        <v>0.104664</v>
+        <v>0.105133</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0843018</v>
+        <v>0.0822524</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179209</v>
+        <v>0.179304</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120603</v>
+        <v>0.12144</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09113540000000001</v>
+        <v>0.0891656</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209847</v>
+        <v>0.210291</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143063</v>
+        <v>0.143582</v>
       </c>
       <c r="D36" t="n">
-        <v>0.102894</v>
+        <v>0.0994915</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251304</v>
+        <v>0.261705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.181792</v>
+        <v>0.18223</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0742442</v>
+        <v>0.07103230000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0926526</v>
+        <v>0.0924365</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0717488</v>
+        <v>0.0730941</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0745931</v>
+        <v>0.0715388</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0936044</v>
+        <v>0.0936353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07236529999999999</v>
+        <v>0.07351679999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0748484</v>
+        <v>0.0706369</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951969</v>
+        <v>0.0955336</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07319299999999999</v>
+        <v>0.0757453</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07521940000000001</v>
+        <v>0.0710305</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0974638</v>
+        <v>0.0977224</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07424600000000001</v>
+        <v>0.07643469999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0757558</v>
+        <v>0.07265530000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100301</v>
+        <v>0.100385</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0753379</v>
+        <v>0.077141</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0760943</v>
+        <v>0.0728697</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104838</v>
+        <v>0.104193</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0772819</v>
+        <v>0.0795901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07656200000000001</v>
+        <v>0.07200819999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108958</v>
+        <v>0.109032</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0796379</v>
+        <v>0.0820787</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0772582</v>
+        <v>0.0732792</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116307</v>
+        <v>0.117077</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0828101</v>
+        <v>0.0840838</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0781873</v>
+        <v>0.0739741</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124887</v>
+        <v>0.124771</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0874955</v>
+        <v>0.0889631</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0795023</v>
+        <v>0.07704080000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135864</v>
+        <v>0.135989</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0937989</v>
+        <v>0.0945545</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0813019</v>
+        <v>0.0771767</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15047</v>
+        <v>0.150703</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102396</v>
+        <v>0.105434</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0847339</v>
+        <v>0.0828723</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172429</v>
+        <v>0.172756</v>
       </c>
       <c r="C49" t="n">
-        <v>0.114901</v>
+        <v>0.115714</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09013350000000001</v>
+        <v>0.0872005</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202631</v>
+        <v>0.210898</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135067</v>
+        <v>0.134716</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09909999999999999</v>
+        <v>0.09706040000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243873</v>
+        <v>0.255492</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166451</v>
+        <v>0.176782</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0770535</v>
+        <v>0.0719212</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.288179</v>
+        <v>0.300694</v>
       </c>
       <c r="C52" t="n">
-        <v>0.218454</v>
+        <v>0.218367</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07661709999999999</v>
+        <v>0.07325130000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0968836</v>
+        <v>0.0975401</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0758153</v>
+        <v>0.07746740000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0770211</v>
+        <v>0.0726115</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0984529</v>
+        <v>0.0985548</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0762867</v>
+        <v>0.0764695</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0770907</v>
+        <v>0.07256940000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100253</v>
+        <v>0.101971</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0768596</v>
+        <v>0.07956589999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0775675</v>
+        <v>0.07417890000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102979</v>
+        <v>0.105463</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0787233</v>
+        <v>0.08062279999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0784205</v>
+        <v>0.0744739</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106779</v>
+        <v>0.107721</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0815491</v>
+        <v>0.0833507</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07840859999999999</v>
+        <v>0.0744913</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.11216</v>
+        <v>0.113497</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0846428</v>
+        <v>0.0846242</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0793411</v>
+        <v>0.0749558</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118382</v>
+        <v>0.118211</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0863396</v>
+        <v>0.08584940000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0801156</v>
+        <v>0.0760783</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127387</v>
+        <v>0.128442</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0892661</v>
+        <v>0.0921696</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08116279999999999</v>
+        <v>0.0780264</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137371</v>
+        <v>0.139242</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0958386</v>
+        <v>0.0990731</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08396919999999999</v>
+        <v>0.07929360000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.152106</v>
+        <v>0.151876</v>
       </c>
       <c r="C62" t="n">
-        <v>0.107578</v>
+        <v>0.107926</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0863896</v>
+        <v>0.0829636</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171767</v>
+        <v>0.171973</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116528</v>
+        <v>0.121361</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0917577</v>
+        <v>0.0884306</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200299</v>
+        <v>0.200757</v>
       </c>
       <c r="C64" t="n">
-        <v>0.140189</v>
+        <v>0.134736</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0994596</v>
+        <v>0.09563430000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.248094</v>
+        <v>0.242239</v>
       </c>
       <c r="C65" t="n">
-        <v>0.167651</v>
+        <v>0.164131</v>
       </c>
       <c r="D65" t="n">
-        <v>0.113539</v>
+        <v>0.109954</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.293623</v>
+        <v>0.291764</v>
       </c>
       <c r="C66" t="n">
-        <v>0.223916</v>
+        <v>0.224237</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0844675</v>
+        <v>0.0803967</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10672</v>
+        <v>0.107377</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0842439</v>
+        <v>0.0857607</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0852049</v>
+        <v>0.0801987</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108097</v>
+        <v>0.109064</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0858672</v>
+        <v>0.08650960000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0856291</v>
+        <v>0.0809882</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110994</v>
+        <v>0.1104</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08583209999999999</v>
+        <v>0.0878211</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08566169999999999</v>
+        <v>0.0802438</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113237</v>
+        <v>0.114359</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0885485</v>
+        <v>0.0892338</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08581859999999999</v>
+        <v>0.0814069</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117007</v>
+        <v>0.1175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0900601</v>
+        <v>0.0916346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0871981</v>
+        <v>0.08293499999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121642</v>
+        <v>0.123227</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0917726</v>
+        <v>0.0931273</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0880248</v>
+        <v>0.083582</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127189</v>
+        <v>0.129723</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0974199</v>
+        <v>0.09580710000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08973929999999999</v>
+        <v>0.08451259999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137527</v>
+        <v>0.135321</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09988180000000001</v>
+        <v>0.0994868</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0899954</v>
+        <v>0.0862641</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145046</v>
+        <v>0.146877</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103827</v>
+        <v>0.106725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0914442</v>
+        <v>0.08734690000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159067</v>
+        <v>0.160144</v>
       </c>
       <c r="C76" t="n">
-        <v>0.114949</v>
+        <v>0.116312</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09413349999999999</v>
+        <v>0.0906361</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178249</v>
+        <v>0.178542</v>
       </c>
       <c r="C77" t="n">
-        <v>0.122301</v>
+        <v>0.123237</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0989439</v>
+        <v>0.094722</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205231</v>
+        <v>0.213736</v>
       </c>
       <c r="C78" t="n">
-        <v>0.145434</v>
+        <v>0.14511</v>
       </c>
       <c r="D78" t="n">
-        <v>0.10749</v>
+        <v>0.103466</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.248168</v>
+        <v>0.253418</v>
       </c>
       <c r="C79" t="n">
-        <v>0.176213</v>
+        <v>0.174953</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119356</v>
+        <v>0.114728</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.305942</v>
+        <v>0.297433</v>
       </c>
       <c r="C80" t="n">
-        <v>0.22269</v>
+        <v>0.209304</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0932582</v>
+        <v>0.0885208</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120047</v>
+        <v>0.121317</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09565220000000001</v>
+        <v>0.0950985</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0937553</v>
+        <v>0.0891081</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121878</v>
+        <v>0.121702</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0967089</v>
+        <v>0.0980683</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0944731</v>
+        <v>0.0890789</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123993</v>
+        <v>0.125226</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0979452</v>
+        <v>0.099061</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09506199999999999</v>
+        <v>0.0903978</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.12697</v>
+        <v>0.126948</v>
       </c>
       <c r="C84" t="n">
-        <v>0.100946</v>
+        <v>0.100918</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0959488</v>
+        <v>0.0905786</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130702</v>
+        <v>0.130538</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104542</v>
+        <v>0.104233</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09740409999999999</v>
+        <v>0.0916483</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137879</v>
+        <v>0.135571</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107091</v>
+        <v>0.107976</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0983282</v>
+        <v>0.0934598</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142227</v>
+        <v>0.141893</v>
       </c>
       <c r="C87" t="n">
-        <v>0.112634</v>
+        <v>0.113372</v>
       </c>
       <c r="D87" t="n">
-        <v>0.100037</v>
+        <v>0.09417830000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.153004</v>
+        <v>0.150606</v>
       </c>
       <c r="C88" t="n">
-        <v>0.118332</v>
+        <v>0.119797</v>
       </c>
       <c r="D88" t="n">
-        <v>0.102031</v>
+        <v>0.0968531</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.162421</v>
+        <v>0.161398</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128678</v>
+        <v>0.128035</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105066</v>
+        <v>0.09962210000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176359</v>
+        <v>0.180298</v>
       </c>
       <c r="C90" t="n">
-        <v>0.135909</v>
+        <v>0.135671</v>
       </c>
       <c r="D90" t="n">
-        <v>0.109381</v>
+        <v>0.104686</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197976</v>
+        <v>0.197062</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149942</v>
+        <v>0.148254</v>
       </c>
       <c r="D91" t="n">
-        <v>0.115119</v>
+        <v>0.109703</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.227117</v>
+        <v>0.225749</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168058</v>
+        <v>0.17115</v>
       </c>
       <c r="D92" t="n">
-        <v>0.123505</v>
+        <v>0.117775</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.275152</v>
+        <v>0.266812</v>
       </c>
       <c r="C93" t="n">
-        <v>0.202484</v>
+        <v>0.201481</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137661</v>
+        <v>0.132063</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.333321</v>
+        <v>0.330807</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238985</v>
+        <v>0.236839</v>
       </c>
       <c r="D94" t="n">
-        <v>0.104595</v>
+        <v>0.09915069999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133873</v>
+        <v>0.133664</v>
       </c>
       <c r="C95" t="n">
-        <v>0.114824</v>
+        <v>0.117378</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106555</v>
+        <v>0.100573</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.138185</v>
+        <v>0.136718</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119867</v>
+        <v>0.120633</v>
       </c>
       <c r="D96" t="n">
-        <v>0.107738</v>
+        <v>0.102392</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140038</v>
+        <v>0.139645</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120248</v>
+        <v>0.125074</v>
       </c>
       <c r="D97" t="n">
-        <v>0.109822</v>
+        <v>0.104454</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145484</v>
+        <v>0.144691</v>
       </c>
       <c r="C98" t="n">
-        <v>0.126376</v>
+        <v>0.126977</v>
       </c>
       <c r="D98" t="n">
-        <v>0.111564</v>
+        <v>0.106148</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148714</v>
+        <v>0.148433</v>
       </c>
       <c r="C99" t="n">
-        <v>0.129976</v>
+        <v>0.12805</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113438</v>
+        <v>0.10837</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154322</v>
+        <v>0.154315</v>
       </c>
       <c r="C100" t="n">
-        <v>0.134796</v>
+        <v>0.133409</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115587</v>
+        <v>0.109623</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163504</v>
+        <v>0.162268</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139482</v>
+        <v>0.137099</v>
       </c>
       <c r="D101" t="n">
-        <v>0.118283</v>
+        <v>0.112282</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169705</v>
+        <v>0.169703</v>
       </c>
       <c r="C102" t="n">
-        <v>0.147943</v>
+        <v>0.146437</v>
       </c>
       <c r="D102" t="n">
-        <v>0.118543</v>
+        <v>0.114508</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.181291</v>
+        <v>0.180789</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155393</v>
+        <v>0.156108</v>
       </c>
       <c r="D103" t="n">
-        <v>0.123213</v>
+        <v>0.117927</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.198832</v>
+        <v>0.198237</v>
       </c>
       <c r="C104" t="n">
-        <v>0.162309</v>
+        <v>0.167993</v>
       </c>
       <c r="D104" t="n">
-        <v>0.125186</v>
+        <v>0.121843</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.218825</v>
+        <v>0.215208</v>
       </c>
       <c r="C105" t="n">
-        <v>0.180838</v>
+        <v>0.183317</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132568</v>
+        <v>0.127436</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250743</v>
+        <v>0.250978</v>
       </c>
       <c r="C106" t="n">
-        <v>0.201516</v>
+        <v>0.198382</v>
       </c>
       <c r="D106" t="n">
-        <v>0.138567</v>
+        <v>0.136027</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.293849</v>
+        <v>0.294516</v>
       </c>
       <c r="C107" t="n">
-        <v>0.231991</v>
+        <v>0.227607</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154214</v>
+        <v>0.148774</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.356767</v>
+        <v>0.358052</v>
       </c>
       <c r="C108" t="n">
-        <v>0.277987</v>
+        <v>0.288811</v>
       </c>
       <c r="D108" t="n">
-        <v>0.113334</v>
+        <v>0.107928</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.44371</v>
+        <v>0.444411</v>
       </c>
       <c r="C109" t="n">
-        <v>0.369684</v>
+        <v>0.373647</v>
       </c>
       <c r="D109" t="n">
-        <v>0.114597</v>
+        <v>0.109606</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146683</v>
+        <v>0.145277</v>
       </c>
       <c r="C110" t="n">
-        <v>0.140762</v>
+        <v>0.141374</v>
       </c>
       <c r="D110" t="n">
-        <v>0.116</v>
+        <v>0.110458</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149386</v>
+        <v>0.149415</v>
       </c>
       <c r="C111" t="n">
-        <v>0.143674</v>
+        <v>0.145625</v>
       </c>
       <c r="D111" t="n">
-        <v>0.11769</v>
+        <v>0.111844</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152356</v>
+        <v>0.15237</v>
       </c>
       <c r="C112" t="n">
-        <v>0.14815</v>
+        <v>0.149199</v>
       </c>
       <c r="D112" t="n">
-        <v>0.120129</v>
+        <v>0.114141</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.156956</v>
+        <v>0.157487</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153253</v>
+        <v>0.154666</v>
       </c>
       <c r="D113" t="n">
-        <v>0.121736</v>
+        <v>0.115881</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.16333</v>
+        <v>0.165384</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159146</v>
+        <v>0.160839</v>
       </c>
       <c r="D114" t="n">
-        <v>0.123884</v>
+        <v>0.118763</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171345</v>
+        <v>0.172357</v>
       </c>
       <c r="C115" t="n">
-        <v>0.164614</v>
+        <v>0.166186</v>
       </c>
       <c r="D115" t="n">
-        <v>0.126806</v>
+        <v>0.121819</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.181322</v>
+        <v>0.183793</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173038</v>
+        <v>0.175516</v>
       </c>
       <c r="D116" t="n">
-        <v>0.129605</v>
+        <v>0.126724</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.194877</v>
+        <v>0.198567</v>
       </c>
       <c r="C117" t="n">
-        <v>0.181768</v>
+        <v>0.186246</v>
       </c>
       <c r="D117" t="n">
-        <v>0.134795</v>
+        <v>0.132919</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.212481</v>
+        <v>0.216843</v>
       </c>
       <c r="C118" t="n">
-        <v>0.195852</v>
+        <v>0.196764</v>
       </c>
       <c r="D118" t="n">
-        <v>0.139859</v>
+        <v>0.139961</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.235107</v>
+        <v>0.244152</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209691</v>
+        <v>0.210647</v>
       </c>
       <c r="D119" t="n">
-        <v>0.147657</v>
+        <v>0.147741</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269737</v>
+        <v>0.269315</v>
       </c>
       <c r="C120" t="n">
-        <v>0.233138</v>
+        <v>0.234325</v>
       </c>
       <c r="D120" t="n">
-        <v>0.158682</v>
+        <v>0.157478</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.308632</v>
+        <v>0.311305</v>
       </c>
       <c r="C121" t="n">
-        <v>0.261346</v>
+        <v>0.260483</v>
       </c>
       <c r="D121" t="n">
-        <v>0.173856</v>
+        <v>0.171606</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.378201</v>
+        <v>0.381546</v>
       </c>
       <c r="C122" t="n">
-        <v>0.308789</v>
+        <v>0.31409</v>
       </c>
       <c r="D122" t="n">
-        <v>0.197877</v>
+        <v>0.19403</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.469523</v>
+        <v>0.470017</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390009</v>
+        <v>0.382548</v>
       </c>
       <c r="D123" t="n">
-        <v>0.137864</v>
+        <v>0.134886</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173351</v>
+        <v>0.174544</v>
       </c>
       <c r="C124" t="n">
-        <v>0.170874</v>
+        <v>0.167311</v>
       </c>
       <c r="D124" t="n">
-        <v>0.142442</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.176311</v>
+        <v>0.175611</v>
       </c>
       <c r="C125" t="n">
-        <v>0.174879</v>
+        <v>0.170635</v>
       </c>
       <c r="D125" t="n">
-        <v>0.147969</v>
+        <v>0.137188</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.185342</v>
+        <v>0.180417</v>
       </c>
       <c r="C126" t="n">
-        <v>0.175542</v>
+        <v>0.177098</v>
       </c>
       <c r="D126" t="n">
-        <v>0.146194</v>
+        <v>0.13718</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.188058</v>
+        <v>0.186312</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179676</v>
+        <v>0.181452</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14641</v>
+        <v>0.140827</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194805</v>
+        <v>0.194161</v>
       </c>
       <c r="C128" t="n">
-        <v>0.18566</v>
+        <v>0.183877</v>
       </c>
       <c r="D128" t="n">
-        <v>0.153853</v>
+        <v>0.143538</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.203413</v>
+        <v>0.199444</v>
       </c>
       <c r="C129" t="n">
-        <v>0.190492</v>
+        <v>0.19092</v>
       </c>
       <c r="D129" t="n">
-        <v>0.157047</v>
+        <v>0.149191</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210052</v>
+        <v>0.21045</v>
       </c>
       <c r="C130" t="n">
-        <v>0.197717</v>
+        <v>0.199986</v>
       </c>
       <c r="D130" t="n">
-        <v>0.161233</v>
+        <v>0.151088</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.227972</v>
+        <v>0.222607</v>
       </c>
       <c r="C131" t="n">
-        <v>0.209023</v>
+        <v>0.208962</v>
       </c>
       <c r="D131" t="n">
-        <v>0.163173</v>
+        <v>0.157441</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236214</v>
+        <v>0.235552</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218011</v>
+        <v>0.218356</v>
       </c>
       <c r="D132" t="n">
-        <v>0.167511</v>
+        <v>0.16117</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261294</v>
+        <v>0.259721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233942</v>
+        <v>0.232139</v>
       </c>
       <c r="D133" t="n">
-        <v>0.176263</v>
+        <v>0.167144</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292254</v>
+        <v>0.291083</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25132</v>
+        <v>0.255072</v>
       </c>
       <c r="D134" t="n">
-        <v>0.181802</v>
+        <v>0.175211</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.333286</v>
+        <v>0.332416</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277582</v>
+        <v>0.280796</v>
       </c>
       <c r="D135" t="n">
-        <v>0.196345</v>
+        <v>0.18687</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.395402</v>
+        <v>0.393008</v>
       </c>
       <c r="C136" t="n">
-        <v>0.325505</v>
+        <v>0.326625</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211822</v>
+        <v>0.206701</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482263</v>
+        <v>0.481244</v>
       </c>
       <c r="C137" t="n">
-        <v>0.393579</v>
+        <v>0.398805</v>
       </c>
       <c r="D137" t="n">
-        <v>0.269819</v>
+        <v>0.251055</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313841</v>
+        <v>0.316175</v>
       </c>
       <c r="C138" t="n">
-        <v>0.277109</v>
+        <v>0.277992</v>
       </c>
       <c r="D138" t="n">
-        <v>0.272441</v>
+        <v>0.253753</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319773</v>
+        <v>0.319682</v>
       </c>
       <c r="C139" t="n">
-        <v>0.28164</v>
+        <v>0.280511</v>
       </c>
       <c r="D139" t="n">
-        <v>0.275195</v>
+        <v>0.253075</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.325203</v>
+        <v>0.323376</v>
       </c>
       <c r="C140" t="n">
-        <v>0.28509</v>
+        <v>0.284501</v>
       </c>
       <c r="D140" t="n">
-        <v>0.280457</v>
+        <v>0.255635</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.32797</v>
+        <v>0.330227</v>
       </c>
       <c r="C141" t="n">
-        <v>0.287728</v>
+        <v>0.288729</v>
       </c>
       <c r="D141" t="n">
-        <v>0.281835</v>
+        <v>0.25651</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335749</v>
+        <v>0.335908</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293131</v>
+        <v>0.293094</v>
       </c>
       <c r="D142" t="n">
-        <v>0.282496</v>
+        <v>0.262282</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.33982</v>
+        <v>0.342196</v>
       </c>
       <c r="C143" t="n">
-        <v>0.298719</v>
+        <v>0.299989</v>
       </c>
       <c r="D143" t="n">
-        <v>0.283743</v>
+        <v>0.262072</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09401519999999999</v>
+        <v>0.0939425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06889820000000001</v>
+        <v>0.0690402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0701647</v>
+        <v>0.07023359999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09808749999999999</v>
+        <v>0.09809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07008010000000001</v>
+        <v>0.070372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0706016</v>
+        <v>0.0707578</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108841</v>
+        <v>0.108753</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0734804</v>
+        <v>0.0734809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07150720000000001</v>
+        <v>0.07169830000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123261</v>
+        <v>0.123398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0809204</v>
+        <v>0.0808432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07275189999999999</v>
+        <v>0.072881</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147469</v>
+        <v>0.147284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0925074</v>
+        <v>0.09325120000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0744358</v>
+        <v>0.0745164</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180856</v>
+        <v>0.180763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111943</v>
+        <v>0.112068</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0782534</v>
+        <v>0.0783688</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220513</v>
+        <v>0.220747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.147539</v>
+        <v>0.146803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0899672</v>
+        <v>0.08974600000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.25978</v>
+        <v>0.259833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184526</v>
+        <v>0.184121</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0678508</v>
+        <v>0.0677841</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.086628</v>
+        <v>0.08661140000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0677473</v>
+        <v>0.0677302</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0680496</v>
+        <v>0.0680989</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0874105</v>
+        <v>0.0872883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0683472</v>
+        <v>0.06815549999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0685426</v>
+        <v>0.06829209999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0900445</v>
+        <v>0.0885242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0687075</v>
+        <v>0.0684932</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0684963</v>
+        <v>0.0687014</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0903071</v>
+        <v>0.0900299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0686871</v>
+        <v>0.0688419</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0689425</v>
+        <v>0.068938</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09380289999999999</v>
+        <v>0.0926955</v>
       </c>
       <c r="C14" t="n">
-        <v>0.069939</v>
+        <v>0.0693708</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0692194</v>
+        <v>0.0692754</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0961494</v>
+        <v>0.09610970000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07100099999999999</v>
+        <v>0.07075140000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.069855</v>
+        <v>0.0698759</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100672</v>
+        <v>0.100639</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07400909999999999</v>
+        <v>0.07362680000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.070466</v>
+        <v>0.0704767</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109044</v>
+        <v>0.10915</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07657120000000001</v>
+        <v>0.0759785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0712974</v>
+        <v>0.0713775</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.11979</v>
+        <v>0.119828</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0871498</v>
+        <v>0.0828802</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07493610000000001</v>
+        <v>0.07431169999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135046</v>
+        <v>0.135061</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0918259</v>
+        <v>0.0915884</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07549699999999999</v>
+        <v>0.0747572</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159062</v>
+        <v>0.154655</v>
       </c>
       <c r="C20" t="n">
-        <v>0.103232</v>
+        <v>0.107014</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0778061</v>
+        <v>0.07779220000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189664</v>
+        <v>0.181671</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120026</v>
+        <v>0.118311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08349289999999999</v>
+        <v>0.0835805</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224945</v>
+        <v>0.224953</v>
       </c>
       <c r="C22" t="n">
-        <v>0.149996</v>
+        <v>0.148669</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0984753</v>
+        <v>0.0982219</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262428</v>
+        <v>0.267324</v>
       </c>
       <c r="C23" t="n">
-        <v>0.189808</v>
+        <v>0.205731</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0689504</v>
+        <v>0.07067320000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09119149999999999</v>
+        <v>0.0920276</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0701195</v>
+        <v>0.0716975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0691572</v>
+        <v>0.0692511</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0924859</v>
+        <v>0.0923515</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0705838</v>
+        <v>0.0722921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0694356</v>
+        <v>0.0697991</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.094226</v>
+        <v>0.09414889999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0712132</v>
+        <v>0.0727713</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06970170000000001</v>
+        <v>0.071135</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0963706</v>
+        <v>0.0963243</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0719582</v>
+        <v>0.074656</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0701712</v>
+        <v>0.0702262</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09981909999999999</v>
+        <v>0.0997459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0735002</v>
+        <v>0.0759209</v>
       </c>
       <c r="D28" t="n">
-        <v>0.071975</v>
+        <v>0.0706252</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103737</v>
+        <v>0.104839</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07659530000000001</v>
+        <v>0.0762472</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0713329</v>
+        <v>0.0728424</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109223</v>
+        <v>0.109085</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07885200000000001</v>
+        <v>0.0794912</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0730156</v>
+        <v>0.0716432</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11666</v>
+        <v>0.116626</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08369070000000001</v>
+        <v>0.0833175</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0728722</v>
+        <v>0.07413939999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125922</v>
+        <v>0.125632</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08859060000000001</v>
+        <v>0.0891438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0758569</v>
+        <v>0.07392840000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137423</v>
+        <v>0.137264</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09740890000000001</v>
+        <v>0.0969223</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0767407</v>
+        <v>0.076823</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155673</v>
+        <v>0.155503</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105133</v>
+        <v>0.110585</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0822524</v>
+        <v>0.08165799999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179304</v>
+        <v>0.179139</v>
       </c>
       <c r="C35" t="n">
-        <v>0.12144</v>
+        <v>0.120733</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0891656</v>
+        <v>0.08949269999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210291</v>
+        <v>0.210328</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143582</v>
+        <v>0.144226</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0994915</v>
+        <v>0.100329</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.261705</v>
+        <v>0.250927</v>
       </c>
       <c r="C37" t="n">
-        <v>0.18223</v>
+        <v>0.194588</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07103230000000001</v>
+        <v>0.07132529999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0924365</v>
+        <v>0.0922687</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0730941</v>
+        <v>0.07242079999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0715388</v>
+        <v>0.0713389</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0936353</v>
+        <v>0.093528</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07351679999999999</v>
+        <v>0.0743776</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0706369</v>
+        <v>0.0716363</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0955336</v>
+        <v>0.0950828</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0757453</v>
+        <v>0.0745442</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0710305</v>
+        <v>0.0710621</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0977224</v>
+        <v>0.0972237</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07643469999999999</v>
+        <v>0.0752961</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07265530000000001</v>
+        <v>0.0727198</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100385</v>
+        <v>0.100406</v>
       </c>
       <c r="C42" t="n">
-        <v>0.077141</v>
+        <v>0.0767309</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0728697</v>
+        <v>0.0718536</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104193</v>
+        <v>0.10486</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0795901</v>
+        <v>0.079494</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07200819999999999</v>
+        <v>0.0720631</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109032</v>
+        <v>0.108976</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0820787</v>
+        <v>0.0819305</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0732792</v>
+        <v>0.0731349</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.117077</v>
+        <v>0.115905</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0840838</v>
+        <v>0.0854145</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0739741</v>
+        <v>0.07407610000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124771</v>
+        <v>0.124798</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0889631</v>
+        <v>0.0882356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07704080000000001</v>
+        <v>0.07541349999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135989</v>
+        <v>0.138149</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0945545</v>
+        <v>0.0937238</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0771767</v>
+        <v>0.0789205</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150703</v>
+        <v>0.150729</v>
       </c>
       <c r="C48" t="n">
-        <v>0.105434</v>
+        <v>0.10724</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0828723</v>
+        <v>0.08168789999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172756</v>
+        <v>0.178287</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115714</v>
+        <v>0.115377</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0872005</v>
+        <v>0.087599</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.210898</v>
+        <v>0.203609</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134716</v>
+        <v>0.134338</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09706040000000001</v>
+        <v>0.096189</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.255492</v>
+        <v>0.254484</v>
       </c>
       <c r="C51" t="n">
-        <v>0.176782</v>
+        <v>0.177122</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0719212</v>
+        <v>0.0744652</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.300694</v>
+        <v>0.287383</v>
       </c>
       <c r="C52" t="n">
-        <v>0.218367</v>
+        <v>0.234229</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07325130000000001</v>
+        <v>0.07371709999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0975401</v>
+        <v>0.097118</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07746740000000001</v>
+        <v>0.07693510000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0726115</v>
+        <v>0.0741274</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0985548</v>
+        <v>0.098939</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0764695</v>
+        <v>0.0777076</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07256940000000001</v>
+        <v>0.0747992</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101971</v>
+        <v>0.102438</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07956589999999999</v>
+        <v>0.0791282</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07417890000000001</v>
+        <v>0.0738207</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.105463</v>
+        <v>0.103214</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08062279999999999</v>
+        <v>0.0790896</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0744739</v>
+        <v>0.0753216</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107721</v>
+        <v>0.108047</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0833507</v>
+        <v>0.0823647</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0744913</v>
+        <v>0.0742374</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113497</v>
+        <v>0.111951</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0846242</v>
+        <v>0.0841095</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0749558</v>
+        <v>0.0763663</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118211</v>
+        <v>0.119334</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08584940000000001</v>
+        <v>0.08880300000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0760783</v>
+        <v>0.077961</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128442</v>
+        <v>0.127514</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0921696</v>
+        <v>0.0913239</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0780264</v>
+        <v>0.0780342</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139242</v>
+        <v>0.137262</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0990731</v>
+        <v>0.09772019999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07929360000000001</v>
+        <v>0.0809979</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151876</v>
+        <v>0.155507</v>
       </c>
       <c r="C62" t="n">
-        <v>0.107926</v>
+        <v>0.107247</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0829636</v>
+        <v>0.0832589</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171973</v>
+        <v>0.177299</v>
       </c>
       <c r="C63" t="n">
-        <v>0.121361</v>
+        <v>0.116596</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0884306</v>
+        <v>0.0882295</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200757</v>
+        <v>0.208015</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134736</v>
+        <v>0.134335</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09563430000000001</v>
+        <v>0.0956804</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242239</v>
+        <v>0.249163</v>
       </c>
       <c r="C65" t="n">
-        <v>0.164131</v>
+        <v>0.174535</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109954</v>
+        <v>0.110559</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.291764</v>
+        <v>0.286855</v>
       </c>
       <c r="C66" t="n">
-        <v>0.224237</v>
+        <v>0.221627</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0803967</v>
+        <v>0.0802184</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107377</v>
+        <v>0.108845</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0857607</v>
+        <v>0.08604489999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0801987</v>
+        <v>0.0805786</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109064</v>
+        <v>0.108964</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08650960000000001</v>
+        <v>0.0871435</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0809882</v>
+        <v>0.0815316</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1104</v>
+        <v>0.111971</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0878211</v>
+        <v>0.0864225</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0802438</v>
+        <v>0.08166420000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114359</v>
+        <v>0.114559</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0892338</v>
+        <v>0.0895203</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0814069</v>
+        <v>0.0816463</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1175</v>
+        <v>0.116694</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0916346</v>
+        <v>0.0912969</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08293499999999999</v>
+        <v>0.08220860000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123227</v>
+        <v>0.121939</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0931273</v>
+        <v>0.0932289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.083582</v>
+        <v>0.08276</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.129723</v>
+        <v>0.126976</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09580710000000001</v>
+        <v>0.0944251</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08451259999999999</v>
+        <v>0.0835323</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135321</v>
+        <v>0.137669</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0994868</v>
+        <v>0.100549</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0862641</v>
+        <v>0.08590059999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.146877</v>
+        <v>0.14482</v>
       </c>
       <c r="C75" t="n">
-        <v>0.106725</v>
+        <v>0.104828</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08734690000000001</v>
+        <v>0.088669</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160144</v>
+        <v>0.162912</v>
       </c>
       <c r="C76" t="n">
-        <v>0.116312</v>
+        <v>0.111965</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0906361</v>
+        <v>0.08947380000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178542</v>
+        <v>0.177968</v>
       </c>
       <c r="C77" t="n">
-        <v>0.123237</v>
+        <v>0.12264</v>
       </c>
       <c r="D77" t="n">
-        <v>0.094722</v>
+        <v>0.0950191</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.213736</v>
+        <v>0.206299</v>
       </c>
       <c r="C78" t="n">
-        <v>0.14511</v>
+        <v>0.146002</v>
       </c>
       <c r="D78" t="n">
-        <v>0.103466</v>
+        <v>0.103033</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253418</v>
+        <v>0.25491</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174953</v>
+        <v>0.174808</v>
       </c>
       <c r="D79" t="n">
-        <v>0.114728</v>
+        <v>0.115288</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.297433</v>
+        <v>0.303144</v>
       </c>
       <c r="C80" t="n">
-        <v>0.209304</v>
+        <v>0.222248</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0885208</v>
+        <v>0.0887891</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121317</v>
+        <v>0.119847</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0950985</v>
+        <v>0.0946313</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0891081</v>
+        <v>0.0890552</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121702</v>
+        <v>0.121974</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0980683</v>
+        <v>0.0971969</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0890789</v>
+        <v>0.08958339999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.125226</v>
+        <v>0.125374</v>
       </c>
       <c r="C83" t="n">
-        <v>0.099061</v>
+        <v>0.0992874</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0903978</v>
+        <v>0.08949500000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126948</v>
+        <v>0.126834</v>
       </c>
       <c r="C84" t="n">
-        <v>0.100918</v>
+        <v>0.103064</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0905786</v>
+        <v>0.0897573</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130538</v>
+        <v>0.132371</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104233</v>
+        <v>0.104342</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0916483</v>
+        <v>0.090657</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.135571</v>
+        <v>0.135403</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107976</v>
+        <v>0.108724</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0934598</v>
+        <v>0.0918827</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141893</v>
+        <v>0.144267</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113372</v>
+        <v>0.112358</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09417830000000001</v>
+        <v>0.09409430000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150606</v>
+        <v>0.150301</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119797</v>
+        <v>0.119448</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0968531</v>
+        <v>0.09696349999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161398</v>
+        <v>0.16482</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128035</v>
+        <v>0.126357</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09962210000000001</v>
+        <v>0.100015</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180298</v>
+        <v>0.180719</v>
       </c>
       <c r="C90" t="n">
-        <v>0.135671</v>
+        <v>0.136188</v>
       </c>
       <c r="D90" t="n">
-        <v>0.104686</v>
+        <v>0.104716</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197062</v>
+        <v>0.197327</v>
       </c>
       <c r="C91" t="n">
-        <v>0.148254</v>
+        <v>0.152762</v>
       </c>
       <c r="D91" t="n">
-        <v>0.109703</v>
+        <v>0.110378</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.225749</v>
+        <v>0.233217</v>
       </c>
       <c r="C92" t="n">
-        <v>0.17115</v>
+        <v>0.167947</v>
       </c>
       <c r="D92" t="n">
-        <v>0.117775</v>
+        <v>0.119173</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266812</v>
+        <v>0.275479</v>
       </c>
       <c r="C93" t="n">
-        <v>0.201481</v>
+        <v>0.194476</v>
       </c>
       <c r="D93" t="n">
-        <v>0.132063</v>
+        <v>0.132158</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330807</v>
+        <v>0.332283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236839</v>
+        <v>0.237141</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09915069999999999</v>
+        <v>0.0990446</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133664</v>
+        <v>0.133395</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117378</v>
+        <v>0.118223</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100573</v>
+        <v>0.100488</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136718</v>
+        <v>0.136188</v>
       </c>
       <c r="C96" t="n">
-        <v>0.120633</v>
+        <v>0.120214</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102392</v>
+        <v>0.10276</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139645</v>
+        <v>0.139584</v>
       </c>
       <c r="C97" t="n">
-        <v>0.125074</v>
+        <v>0.1206</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104454</v>
+        <v>0.104108</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144691</v>
+        <v>0.145085</v>
       </c>
       <c r="C98" t="n">
-        <v>0.126977</v>
+        <v>0.123826</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106148</v>
+        <v>0.105839</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148433</v>
+        <v>0.14849</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12805</v>
+        <v>0.127617</v>
       </c>
       <c r="D99" t="n">
-        <v>0.10837</v>
+        <v>0.108023</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154315</v>
+        <v>0.155893</v>
       </c>
       <c r="C100" t="n">
-        <v>0.133409</v>
+        <v>0.132218</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109623</v>
+        <v>0.110239</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.162268</v>
+        <v>0.163078</v>
       </c>
       <c r="C101" t="n">
-        <v>0.137099</v>
+        <v>0.139995</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112282</v>
+        <v>0.112691</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169703</v>
+        <v>0.171563</v>
       </c>
       <c r="C102" t="n">
-        <v>0.146437</v>
+        <v>0.147597</v>
       </c>
       <c r="D102" t="n">
-        <v>0.114508</v>
+        <v>0.113554</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180789</v>
+        <v>0.180503</v>
       </c>
       <c r="C103" t="n">
-        <v>0.156108</v>
+        <v>0.155945</v>
       </c>
       <c r="D103" t="n">
-        <v>0.117927</v>
+        <v>0.118301</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.198237</v>
+        <v>0.198768</v>
       </c>
       <c r="C104" t="n">
-        <v>0.167993</v>
+        <v>0.163395</v>
       </c>
       <c r="D104" t="n">
-        <v>0.121843</v>
+        <v>0.122006</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215208</v>
+        <v>0.220232</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183317</v>
+        <v>0.179989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.127436</v>
+        <v>0.127738</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250978</v>
+        <v>0.250857</v>
       </c>
       <c r="C106" t="n">
-        <v>0.198382</v>
+        <v>0.205813</v>
       </c>
       <c r="D106" t="n">
-        <v>0.136027</v>
+        <v>0.136237</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.294516</v>
+        <v>0.294163</v>
       </c>
       <c r="C107" t="n">
-        <v>0.227607</v>
+        <v>0.238045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.148774</v>
+        <v>0.149024</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.358052</v>
+        <v>0.356411</v>
       </c>
       <c r="C108" t="n">
-        <v>0.288811</v>
+        <v>0.289227</v>
       </c>
       <c r="D108" t="n">
-        <v>0.107928</v>
+        <v>0.108113</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.444411</v>
+        <v>0.445253</v>
       </c>
       <c r="C109" t="n">
-        <v>0.373647</v>
+        <v>0.37163</v>
       </c>
       <c r="D109" t="n">
-        <v>0.109606</v>
+        <v>0.10945</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145277</v>
+        <v>0.145181</v>
       </c>
       <c r="C110" t="n">
-        <v>0.141374</v>
+        <v>0.139028</v>
       </c>
       <c r="D110" t="n">
-        <v>0.110458</v>
+        <v>0.110696</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149415</v>
+        <v>0.149816</v>
       </c>
       <c r="C111" t="n">
-        <v>0.145625</v>
+        <v>0.14402</v>
       </c>
       <c r="D111" t="n">
-        <v>0.111844</v>
+        <v>0.112592</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15237</v>
+        <v>0.153328</v>
       </c>
       <c r="C112" t="n">
-        <v>0.149199</v>
+        <v>0.148487</v>
       </c>
       <c r="D112" t="n">
-        <v>0.114141</v>
+        <v>0.113614</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.157487</v>
+        <v>0.159021</v>
       </c>
       <c r="C113" t="n">
-        <v>0.154666</v>
+        <v>0.153335</v>
       </c>
       <c r="D113" t="n">
-        <v>0.115881</v>
+        <v>0.116067</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165384</v>
+        <v>0.163287</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160839</v>
+        <v>0.159312</v>
       </c>
       <c r="D114" t="n">
-        <v>0.118763</v>
+        <v>0.117957</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.172357</v>
+        <v>0.171333</v>
       </c>
       <c r="C115" t="n">
-        <v>0.166186</v>
+        <v>0.165608</v>
       </c>
       <c r="D115" t="n">
-        <v>0.121819</v>
+        <v>0.120812</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.183793</v>
+        <v>0.184289</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175516</v>
+        <v>0.172843</v>
       </c>
       <c r="D116" t="n">
-        <v>0.126724</v>
+        <v>0.12343</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.198567</v>
+        <v>0.195065</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186246</v>
+        <v>0.182506</v>
       </c>
       <c r="D117" t="n">
-        <v>0.132919</v>
+        <v>0.128027</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216843</v>
+        <v>0.216475</v>
       </c>
       <c r="C118" t="n">
-        <v>0.196764</v>
+        <v>0.195478</v>
       </c>
       <c r="D118" t="n">
-        <v>0.139961</v>
+        <v>0.133794</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.244152</v>
+        <v>0.235859</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210647</v>
+        <v>0.207992</v>
       </c>
       <c r="D119" t="n">
-        <v>0.147741</v>
+        <v>0.143155</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269315</v>
+        <v>0.266274</v>
       </c>
       <c r="C120" t="n">
-        <v>0.234325</v>
+        <v>0.227139</v>
       </c>
       <c r="D120" t="n">
-        <v>0.157478</v>
+        <v>0.153671</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.311305</v>
+        <v>0.316427</v>
       </c>
       <c r="C121" t="n">
-        <v>0.260483</v>
+        <v>0.25661</v>
       </c>
       <c r="D121" t="n">
-        <v>0.171606</v>
+        <v>0.169142</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.381546</v>
+        <v>0.37891</v>
       </c>
       <c r="C122" t="n">
-        <v>0.31409</v>
+        <v>0.302984</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19403</v>
+        <v>0.190694</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.470017</v>
+        <v>0.469363</v>
       </c>
       <c r="C123" t="n">
-        <v>0.382548</v>
+        <v>0.392071</v>
       </c>
       <c r="D123" t="n">
-        <v>0.134886</v>
+        <v>0.13499</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.174544</v>
+        <v>0.174299</v>
       </c>
       <c r="C124" t="n">
-        <v>0.167311</v>
+        <v>0.168742</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1335</v>
+        <v>0.134718</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.175611</v>
+        <v>0.175823</v>
       </c>
       <c r="C125" t="n">
-        <v>0.170635</v>
+        <v>0.17218</v>
       </c>
       <c r="D125" t="n">
-        <v>0.137188</v>
+        <v>0.13699</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180417</v>
+        <v>0.18078</v>
       </c>
       <c r="C126" t="n">
-        <v>0.177098</v>
+        <v>0.177404</v>
       </c>
       <c r="D126" t="n">
-        <v>0.13718</v>
+        <v>0.140818</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.186312</v>
+        <v>0.184805</v>
       </c>
       <c r="C127" t="n">
-        <v>0.181452</v>
+        <v>0.181906</v>
       </c>
       <c r="D127" t="n">
-        <v>0.140827</v>
+        <v>0.143876</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194161</v>
+        <v>0.194762</v>
       </c>
       <c r="C128" t="n">
-        <v>0.183877</v>
+        <v>0.184052</v>
       </c>
       <c r="D128" t="n">
-        <v>0.143538</v>
+        <v>0.144595</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.199444</v>
+        <v>0.202225</v>
       </c>
       <c r="C129" t="n">
-        <v>0.19092</v>
+        <v>0.189419</v>
       </c>
       <c r="D129" t="n">
-        <v>0.149191</v>
+        <v>0.148225</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21045</v>
+        <v>0.213826</v>
       </c>
       <c r="C130" t="n">
-        <v>0.199986</v>
+        <v>0.198113</v>
       </c>
       <c r="D130" t="n">
-        <v>0.151088</v>
+        <v>0.151009</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222607</v>
+        <v>0.223484</v>
       </c>
       <c r="C131" t="n">
-        <v>0.208962</v>
+        <v>0.205198</v>
       </c>
       <c r="D131" t="n">
-        <v>0.157441</v>
+        <v>0.152923</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.235552</v>
+        <v>0.237051</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218356</v>
+        <v>0.218193</v>
       </c>
       <c r="D132" t="n">
-        <v>0.16117</v>
+        <v>0.160998</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259721</v>
+        <v>0.25805</v>
       </c>
       <c r="C133" t="n">
-        <v>0.232139</v>
+        <v>0.229413</v>
       </c>
       <c r="D133" t="n">
-        <v>0.167144</v>
+        <v>0.167205</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291083</v>
+        <v>0.288123</v>
       </c>
       <c r="C134" t="n">
-        <v>0.255072</v>
+        <v>0.250559</v>
       </c>
       <c r="D134" t="n">
-        <v>0.175211</v>
+        <v>0.175202</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.332416</v>
+        <v>0.334546</v>
       </c>
       <c r="C135" t="n">
-        <v>0.280796</v>
+        <v>0.277368</v>
       </c>
       <c r="D135" t="n">
-        <v>0.18687</v>
+        <v>0.188013</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.393008</v>
+        <v>0.390806</v>
       </c>
       <c r="C136" t="n">
-        <v>0.326625</v>
+        <v>0.326807</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206701</v>
+        <v>0.205038</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481244</v>
+        <v>0.481982</v>
       </c>
       <c r="C137" t="n">
-        <v>0.398805</v>
+        <v>0.391516</v>
       </c>
       <c r="D137" t="n">
-        <v>0.251055</v>
+        <v>0.248241</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316175</v>
+        <v>0.314706</v>
       </c>
       <c r="C138" t="n">
-        <v>0.277992</v>
+        <v>0.276653</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253753</v>
+        <v>0.251676</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319682</v>
+        <v>0.317448</v>
       </c>
       <c r="C139" t="n">
-        <v>0.280511</v>
+        <v>0.280612</v>
       </c>
       <c r="D139" t="n">
-        <v>0.253075</v>
+        <v>0.253217</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323376</v>
+        <v>0.324447</v>
       </c>
       <c r="C140" t="n">
-        <v>0.284501</v>
+        <v>0.282756</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255635</v>
+        <v>0.256732</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.330227</v>
+        <v>0.32799</v>
       </c>
       <c r="C141" t="n">
-        <v>0.288729</v>
+        <v>0.287932</v>
       </c>
       <c r="D141" t="n">
-        <v>0.25651</v>
+        <v>0.259724</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335908</v>
+        <v>0.333942</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293094</v>
+        <v>0.292998</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262282</v>
+        <v>0.259692</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342196</v>
+        <v>0.343391</v>
       </c>
       <c r="C143" t="n">
-        <v>0.299989</v>
+        <v>0.296813</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262072</v>
+        <v>0.261001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0939425</v>
+        <v>0.09411890000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0690402</v>
+        <v>0.0689901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07023359999999999</v>
+        <v>0.0702261</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09809</v>
+        <v>0.09841610000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.070372</v>
+        <v>0.07044019999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0707578</v>
+        <v>0.0707643</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108753</v>
+        <v>0.108704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0734809</v>
+        <v>0.0738919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07169830000000001</v>
+        <v>0.0715321</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123398</v>
+        <v>0.122984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0808432</v>
+        <v>0.08145090000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.072881</v>
+        <v>0.0728042</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147284</v>
+        <v>0.147351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09325120000000001</v>
+        <v>0.0933232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0745164</v>
+        <v>0.0745792</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180763</v>
+        <v>0.180703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112068</v>
+        <v>0.112514</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0783688</v>
+        <v>0.0787943</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220747</v>
+        <v>0.220603</v>
       </c>
       <c r="C8" t="n">
-        <v>0.146803</v>
+        <v>0.147399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08974600000000001</v>
+        <v>0.09005050000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259833</v>
+        <v>0.264728</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184121</v>
+        <v>0.184624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0677841</v>
+        <v>0.0679486</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08661140000000001</v>
+        <v>0.0866238</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0677302</v>
+        <v>0.0677396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0680989</v>
+        <v>0.0682449</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0872883</v>
+        <v>0.0877571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06815549999999999</v>
+        <v>0.068162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06829209999999999</v>
+        <v>0.068353</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0885242</v>
+        <v>0.0900204</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0684932</v>
+        <v>0.06858350000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0687014</v>
+        <v>0.0686311</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0900299</v>
+        <v>0.0904578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0688419</v>
+        <v>0.0719395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.068938</v>
+        <v>0.06898029999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0926955</v>
+        <v>0.0923624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0693708</v>
+        <v>0.070123</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0692754</v>
+        <v>0.06929829999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09610970000000001</v>
+        <v>0.09548139999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07075140000000001</v>
+        <v>0.0710679</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0698759</v>
+        <v>0.0720186</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100639</v>
+        <v>0.100567</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07362680000000001</v>
+        <v>0.07391349999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0704767</v>
+        <v>0.072252</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10915</v>
+        <v>0.109663</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0759785</v>
+        <v>0.0768953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0713775</v>
+        <v>0.0712472</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.119828</v>
+        <v>0.120445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0828802</v>
+        <v>0.0826991</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07431169999999999</v>
+        <v>0.07249890000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135061</v>
+        <v>0.135048</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0915884</v>
+        <v>0.09722600000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0747572</v>
+        <v>0.0763968</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154655</v>
+        <v>0.155124</v>
       </c>
       <c r="C20" t="n">
-        <v>0.107014</v>
+        <v>0.104928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07779220000000001</v>
+        <v>0.077794</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181671</v>
+        <v>0.182432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118311</v>
+        <v>0.126289</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0835805</v>
+        <v>0.0836667</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.224953</v>
+        <v>0.214947</v>
       </c>
       <c r="C22" t="n">
-        <v>0.148669</v>
+        <v>0.159916</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0982219</v>
+        <v>0.100012</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267324</v>
+        <v>0.267256</v>
       </c>
       <c r="C23" t="n">
-        <v>0.205731</v>
+        <v>0.204023</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07067320000000001</v>
+        <v>0.0693373</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0920276</v>
+        <v>0.09114609999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0716975</v>
+        <v>0.07204480000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0692511</v>
+        <v>0.0692614</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923515</v>
+        <v>0.0923916</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0722921</v>
+        <v>0.0717732</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0697991</v>
+        <v>0.06976640000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09414889999999999</v>
+        <v>0.09426030000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0727713</v>
+        <v>0.0729306</v>
       </c>
       <c r="D26" t="n">
-        <v>0.071135</v>
+        <v>0.0697594</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0963243</v>
+        <v>0.0963627</v>
       </c>
       <c r="C27" t="n">
-        <v>0.074656</v>
+        <v>0.0740997</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0702262</v>
+        <v>0.071795</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0997459</v>
+        <v>0.100799</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0759209</v>
+        <v>0.0760875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0706252</v>
+        <v>0.0708324</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.104839</v>
+        <v>0.104836</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0762472</v>
+        <v>0.0764611</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0728424</v>
+        <v>0.0727898</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109085</v>
+        <v>0.109098</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0794912</v>
+        <v>0.0776717</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0716432</v>
+        <v>0.0730007</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116626</v>
+        <v>0.116652</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0833175</v>
+        <v>0.083721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07413939999999999</v>
+        <v>0.07303080000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125632</v>
+        <v>0.125718</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0891438</v>
+        <v>0.0887283</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07392840000000001</v>
+        <v>0.0752979</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137264</v>
+        <v>0.137318</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0969223</v>
+        <v>0.09777810000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.076823</v>
+        <v>0.0781878</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155503</v>
+        <v>0.155563</v>
       </c>
       <c r="C34" t="n">
-        <v>0.110585</v>
+        <v>0.107223</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08165799999999999</v>
+        <v>0.08251890000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179139</v>
+        <v>0.179191</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120733</v>
+        <v>0.127793</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08949269999999999</v>
+        <v>0.08736579999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210328</v>
+        <v>0.219877</v>
       </c>
       <c r="C36" t="n">
-        <v>0.144226</v>
+        <v>0.152608</v>
       </c>
       <c r="D36" t="n">
-        <v>0.100329</v>
+        <v>0.100283</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.250927</v>
+        <v>0.251337</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194588</v>
+        <v>0.183411</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07132529999999999</v>
+        <v>0.0699462</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0922687</v>
+        <v>0.0930362</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07242079999999999</v>
+        <v>0.0731657</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0713389</v>
+        <v>0.0708805</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.093528</v>
+        <v>0.0936</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0743776</v>
+        <v>0.07392369999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0716363</v>
+        <v>0.07047589999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0950828</v>
+        <v>0.0951283</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0745442</v>
+        <v>0.07475179999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0710621</v>
+        <v>0.0719921</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0972237</v>
+        <v>0.0973623</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0752961</v>
+        <v>0.07631350000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0727198</v>
+        <v>0.0711753</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100406</v>
+        <v>0.100411</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0767309</v>
+        <v>0.0770353</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0718536</v>
+        <v>0.07318669999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10486</v>
+        <v>0.104207</v>
       </c>
       <c r="C43" t="n">
-        <v>0.079494</v>
+        <v>0.0796999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0720631</v>
+        <v>0.07383729999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108976</v>
+        <v>0.109001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0819305</v>
+        <v>0.080821</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0731349</v>
+        <v>0.0743491</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115905</v>
+        <v>0.116006</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0854145</v>
+        <v>0.0829375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07407610000000001</v>
+        <v>0.0742261</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124798</v>
+        <v>0.126416</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0882356</v>
+        <v>0.09077689999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07541349999999999</v>
+        <v>0.0752313</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.138149</v>
+        <v>0.136566</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0937238</v>
+        <v>0.0946936</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0789205</v>
+        <v>0.07719760000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150729</v>
+        <v>0.150633</v>
       </c>
       <c r="C48" t="n">
-        <v>0.10724</v>
+        <v>0.10566</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08168789999999999</v>
+        <v>0.0820828</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.178287</v>
+        <v>0.178252</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115377</v>
+        <v>0.115161</v>
       </c>
       <c r="D49" t="n">
-        <v>0.087599</v>
+        <v>0.0860587</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203609</v>
+        <v>0.203454</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134338</v>
+        <v>0.135269</v>
       </c>
       <c r="D50" t="n">
-        <v>0.096189</v>
+        <v>0.0955621</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254484</v>
+        <v>0.245038</v>
       </c>
       <c r="C51" t="n">
-        <v>0.177122</v>
+        <v>0.166621</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0744652</v>
+        <v>0.0722742</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.287383</v>
+        <v>0.290721</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234229</v>
+        <v>0.232038</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07371709999999999</v>
+        <v>0.07199220000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097118</v>
+        <v>0.0970661</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07693510000000001</v>
+        <v>0.07692450000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0741274</v>
+        <v>0.0723881</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.098939</v>
+        <v>0.0987094</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0777076</v>
+        <v>0.07735259999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0747992</v>
+        <v>0.0737048</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.102438</v>
+        <v>0.101396</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0791282</v>
+        <v>0.0776472</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0738207</v>
+        <v>0.0739402</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103214</v>
+        <v>0.104314</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0790896</v>
+        <v>0.07910490000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0753216</v>
+        <v>0.07488160000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.108047</v>
+        <v>0.10849</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0823647</v>
+        <v>0.0812765</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0742374</v>
+        <v>0.0751124</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111951</v>
+        <v>0.112498</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0841095</v>
+        <v>0.08471770000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0763663</v>
+        <v>0.0753283</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119334</v>
+        <v>0.11776</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08880300000000001</v>
+        <v>0.0883046</v>
       </c>
       <c r="D59" t="n">
-        <v>0.077961</v>
+        <v>0.0768028</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127514</v>
+        <v>0.127429</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0913239</v>
+        <v>0.09283859999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0780342</v>
+        <v>0.0773605</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137262</v>
+        <v>0.137933</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09772019999999999</v>
+        <v>0.0991045</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0809979</v>
+        <v>0.0810693</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.155507</v>
+        <v>0.156416</v>
       </c>
       <c r="C62" t="n">
-        <v>0.107247</v>
+        <v>0.106865</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0832589</v>
+        <v>0.0845139</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177299</v>
+        <v>0.172202</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116596</v>
+        <v>0.116501</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0882295</v>
+        <v>0.08827359999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.208015</v>
+        <v>0.207392</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134335</v>
+        <v>0.134899</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0956804</v>
+        <v>0.0979974</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249163</v>
+        <v>0.239475</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174535</v>
+        <v>0.164115</v>
       </c>
       <c r="D65" t="n">
-        <v>0.110559</v>
+        <v>0.109167</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.286855</v>
+        <v>0.287511</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221627</v>
+        <v>0.225661</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0802184</v>
+        <v>0.0796622</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108845</v>
+        <v>0.107684</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08604489999999999</v>
+        <v>0.0852916</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0805786</v>
+        <v>0.080447</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108964</v>
+        <v>0.110039</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0871435</v>
+        <v>0.085822</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0815316</v>
+        <v>0.0812203</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111971</v>
+        <v>0.111459</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0864225</v>
+        <v>0.08761190000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08166420000000001</v>
+        <v>0.0818357</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114559</v>
+        <v>0.11412</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0895203</v>
+        <v>0.0891218</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0816463</v>
+        <v>0.0813291</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.116694</v>
+        <v>0.118773</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0912969</v>
+        <v>0.09120490000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08220860000000001</v>
+        <v>0.0823937</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121939</v>
+        <v>0.122674</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0932289</v>
+        <v>0.0936597</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08276</v>
+        <v>0.082646</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126976</v>
+        <v>0.128842</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0944251</v>
+        <v>0.09615410000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0835323</v>
+        <v>0.0840559</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137669</v>
+        <v>0.136671</v>
       </c>
       <c r="C74" t="n">
-        <v>0.100549</v>
+        <v>0.0993536</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08590059999999999</v>
+        <v>0.08543240000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14482</v>
+        <v>0.144736</v>
       </c>
       <c r="C75" t="n">
-        <v>0.104828</v>
+        <v>0.108409</v>
       </c>
       <c r="D75" t="n">
-        <v>0.088669</v>
+        <v>0.08768869999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.162912</v>
+        <v>0.159658</v>
       </c>
       <c r="C76" t="n">
-        <v>0.111965</v>
+        <v>0.115924</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08947380000000001</v>
+        <v>0.0905629</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.177968</v>
+        <v>0.178705</v>
       </c>
       <c r="C77" t="n">
-        <v>0.12264</v>
+        <v>0.124353</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0950191</v>
+        <v>0.0950748</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206299</v>
+        <v>0.215023</v>
       </c>
       <c r="C78" t="n">
-        <v>0.146002</v>
+        <v>0.146024</v>
       </c>
       <c r="D78" t="n">
-        <v>0.103033</v>
+        <v>0.103833</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25491</v>
+        <v>0.253757</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174808</v>
+        <v>0.174066</v>
       </c>
       <c r="D79" t="n">
-        <v>0.115288</v>
+        <v>0.115571</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.303144</v>
+        <v>0.299901</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222248</v>
+        <v>0.221081</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0887891</v>
+        <v>0.08860510000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119847</v>
+        <v>0.119709</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0946313</v>
+        <v>0.09696920000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0890552</v>
+        <v>0.0891484</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121974</v>
+        <v>0.121786</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0971969</v>
+        <v>0.0964878</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08958339999999999</v>
+        <v>0.0894924</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.125374</v>
+        <v>0.124931</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0992874</v>
+        <v>0.100791</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08949500000000001</v>
+        <v>0.08988599999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126834</v>
+        <v>0.126492</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103064</v>
+        <v>0.10131</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0897573</v>
+        <v>0.0904389</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.132371</v>
+        <v>0.130398</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104342</v>
+        <v>0.10452</v>
       </c>
       <c r="D85" t="n">
-        <v>0.090657</v>
+        <v>0.09212910000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.135403</v>
+        <v>0.137354</v>
       </c>
       <c r="C86" t="n">
-        <v>0.108724</v>
+        <v>0.107213</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0918827</v>
+        <v>0.0927803</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.144267</v>
+        <v>0.143926</v>
       </c>
       <c r="C87" t="n">
-        <v>0.112358</v>
+        <v>0.113768</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09409430000000001</v>
+        <v>0.09554070000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150301</v>
+        <v>0.150268</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119448</v>
+        <v>0.120209</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09696349999999999</v>
+        <v>0.097512</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.16482</v>
+        <v>0.161128</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126357</v>
+        <v>0.128251</v>
       </c>
       <c r="D89" t="n">
-        <v>0.100015</v>
+        <v>0.09957009999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180719</v>
+        <v>0.180486</v>
       </c>
       <c r="C90" t="n">
-        <v>0.136188</v>
+        <v>0.138278</v>
       </c>
       <c r="D90" t="n">
-        <v>0.104716</v>
+        <v>0.104166</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197327</v>
+        <v>0.197096</v>
       </c>
       <c r="C91" t="n">
-        <v>0.152762</v>
+        <v>0.152048</v>
       </c>
       <c r="D91" t="n">
-        <v>0.110378</v>
+        <v>0.110795</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.233217</v>
+        <v>0.226405</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167947</v>
+        <v>0.167144</v>
       </c>
       <c r="D92" t="n">
-        <v>0.119173</v>
+        <v>0.118653</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.275479</v>
+        <v>0.267635</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194476</v>
+        <v>0.202814</v>
       </c>
       <c r="D93" t="n">
-        <v>0.132158</v>
+        <v>0.133152</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332283</v>
+        <v>0.332581</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237141</v>
+        <v>0.249153</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0990446</v>
+        <v>0.0992249</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133395</v>
+        <v>0.133637</v>
       </c>
       <c r="C95" t="n">
-        <v>0.118223</v>
+        <v>0.118254</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100488</v>
+        <v>0.100942</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136188</v>
+        <v>0.136471</v>
       </c>
       <c r="C96" t="n">
-        <v>0.120214</v>
+        <v>0.121435</v>
       </c>
       <c r="D96" t="n">
-        <v>0.10276</v>
+        <v>0.10282</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139584</v>
+        <v>0.139972</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1206</v>
+        <v>0.123554</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104108</v>
+        <v>0.105005</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145085</v>
+        <v>0.145438</v>
       </c>
       <c r="C98" t="n">
-        <v>0.123826</v>
+        <v>0.124886</v>
       </c>
       <c r="D98" t="n">
-        <v>0.105839</v>
+        <v>0.106345</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14849</v>
+        <v>0.148734</v>
       </c>
       <c r="C99" t="n">
-        <v>0.127617</v>
+        <v>0.131612</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108023</v>
+        <v>0.10812</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155893</v>
+        <v>0.156163</v>
       </c>
       <c r="C100" t="n">
-        <v>0.132218</v>
+        <v>0.135559</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110239</v>
+        <v>0.110101</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163078</v>
+        <v>0.162964</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139995</v>
+        <v>0.141289</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112691</v>
+        <v>0.112339</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.171563</v>
+        <v>0.17194</v>
       </c>
       <c r="C102" t="n">
-        <v>0.147597</v>
+        <v>0.147186</v>
       </c>
       <c r="D102" t="n">
-        <v>0.113554</v>
+        <v>0.114943</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180503</v>
+        <v>0.18068</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155945</v>
+        <v>0.154869</v>
       </c>
       <c r="D103" t="n">
-        <v>0.118301</v>
+        <v>0.1183</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.198768</v>
+        <v>0.195295</v>
       </c>
       <c r="C104" t="n">
-        <v>0.163395</v>
+        <v>0.167835</v>
       </c>
       <c r="D104" t="n">
-        <v>0.122006</v>
+        <v>0.122153</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.220232</v>
+        <v>0.215345</v>
       </c>
       <c r="C105" t="n">
-        <v>0.179989</v>
+        <v>0.185186</v>
       </c>
       <c r="D105" t="n">
-        <v>0.127738</v>
+        <v>0.128463</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250857</v>
+        <v>0.25137</v>
       </c>
       <c r="C106" t="n">
-        <v>0.205813</v>
+        <v>0.204789</v>
       </c>
       <c r="D106" t="n">
-        <v>0.136237</v>
+        <v>0.136458</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.294163</v>
+        <v>0.286696</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238045</v>
+        <v>0.238507</v>
       </c>
       <c r="D107" t="n">
-        <v>0.149024</v>
+        <v>0.150123</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.356411</v>
+        <v>0.357942</v>
       </c>
       <c r="C108" t="n">
-        <v>0.289227</v>
+        <v>0.289779</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108113</v>
+        <v>0.107798</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.445253</v>
+        <v>0.444918</v>
       </c>
       <c r="C109" t="n">
-        <v>0.37163</v>
+        <v>0.372268</v>
       </c>
       <c r="D109" t="n">
-        <v>0.10945</v>
+        <v>0.109867</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145181</v>
+        <v>0.146858</v>
       </c>
       <c r="C110" t="n">
-        <v>0.139028</v>
+        <v>0.140748</v>
       </c>
       <c r="D110" t="n">
-        <v>0.110696</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149816</v>
+        <v>0.148565</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14402</v>
+        <v>0.144487</v>
       </c>
       <c r="D111" t="n">
-        <v>0.112592</v>
+        <v>0.112071</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153328</v>
+        <v>0.153975</v>
       </c>
       <c r="C112" t="n">
-        <v>0.148487</v>
+        <v>0.148744</v>
       </c>
       <c r="D112" t="n">
-        <v>0.113614</v>
+        <v>0.113734</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.159021</v>
+        <v>0.158006</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153335</v>
+        <v>0.155784</v>
       </c>
       <c r="D113" t="n">
-        <v>0.116067</v>
+        <v>0.116301</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.163287</v>
+        <v>0.165582</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159312</v>
+        <v>0.161665</v>
       </c>
       <c r="D114" t="n">
-        <v>0.117957</v>
+        <v>0.120094</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171333</v>
+        <v>0.173849</v>
       </c>
       <c r="C115" t="n">
-        <v>0.165608</v>
+        <v>0.168544</v>
       </c>
       <c r="D115" t="n">
-        <v>0.120812</v>
+        <v>0.123391</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.184289</v>
+        <v>0.185971</v>
       </c>
       <c r="C116" t="n">
-        <v>0.172843</v>
+        <v>0.175714</v>
       </c>
       <c r="D116" t="n">
-        <v>0.12343</v>
+        <v>0.128295</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.195065</v>
+        <v>0.199804</v>
       </c>
       <c r="C117" t="n">
-        <v>0.182506</v>
+        <v>0.186338</v>
       </c>
       <c r="D117" t="n">
-        <v>0.128027</v>
+        <v>0.134111</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216475</v>
+        <v>0.220923</v>
       </c>
       <c r="C118" t="n">
-        <v>0.195478</v>
+        <v>0.196089</v>
       </c>
       <c r="D118" t="n">
-        <v>0.133794</v>
+        <v>0.140827</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.235859</v>
+        <v>0.239653</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207992</v>
+        <v>0.210472</v>
       </c>
       <c r="D119" t="n">
-        <v>0.143155</v>
+        <v>0.148828</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.266274</v>
+        <v>0.275603</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227139</v>
+        <v>0.233571</v>
       </c>
       <c r="D120" t="n">
-        <v>0.153671</v>
+        <v>0.157816</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.316427</v>
+        <v>0.311551</v>
       </c>
       <c r="C121" t="n">
-        <v>0.25661</v>
+        <v>0.263036</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169142</v>
+        <v>0.171648</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37891</v>
+        <v>0.373441</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302984</v>
+        <v>0.313881</v>
       </c>
       <c r="D122" t="n">
-        <v>0.190694</v>
+        <v>0.194952</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.469363</v>
+        <v>0.468024</v>
       </c>
       <c r="C123" t="n">
-        <v>0.392071</v>
+        <v>0.390616</v>
       </c>
       <c r="D123" t="n">
-        <v>0.13499</v>
+        <v>0.137122</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.174299</v>
+        <v>0.172207</v>
       </c>
       <c r="C124" t="n">
-        <v>0.168742</v>
+        <v>0.169384</v>
       </c>
       <c r="D124" t="n">
-        <v>0.134718</v>
+        <v>0.136798</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.175823</v>
+        <v>0.174295</v>
       </c>
       <c r="C125" t="n">
-        <v>0.17218</v>
+        <v>0.170147</v>
       </c>
       <c r="D125" t="n">
-        <v>0.13699</v>
+        <v>0.139529</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.18078</v>
+        <v>0.183618</v>
       </c>
       <c r="C126" t="n">
-        <v>0.177404</v>
+        <v>0.174789</v>
       </c>
       <c r="D126" t="n">
-        <v>0.140818</v>
+        <v>0.141687</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184805</v>
+        <v>0.183672</v>
       </c>
       <c r="C127" t="n">
-        <v>0.181906</v>
+        <v>0.179505</v>
       </c>
       <c r="D127" t="n">
-        <v>0.143876</v>
+        <v>0.141028</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194762</v>
+        <v>0.191962</v>
       </c>
       <c r="C128" t="n">
-        <v>0.184052</v>
+        <v>0.184595</v>
       </c>
       <c r="D128" t="n">
-        <v>0.144595</v>
+        <v>0.144894</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.202225</v>
+        <v>0.198582</v>
       </c>
       <c r="C129" t="n">
-        <v>0.189419</v>
+        <v>0.19205</v>
       </c>
       <c r="D129" t="n">
-        <v>0.148225</v>
+        <v>0.147752</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213826</v>
+        <v>0.208266</v>
       </c>
       <c r="C130" t="n">
-        <v>0.198113</v>
+        <v>0.197715</v>
       </c>
       <c r="D130" t="n">
-        <v>0.151009</v>
+        <v>0.153488</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.223484</v>
+        <v>0.221003</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205198</v>
+        <v>0.207481</v>
       </c>
       <c r="D131" t="n">
-        <v>0.152923</v>
+        <v>0.156496</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.237051</v>
+        <v>0.247026</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218193</v>
+        <v>0.21563</v>
       </c>
       <c r="D132" t="n">
-        <v>0.160998</v>
+        <v>0.159712</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.25805</v>
+        <v>0.262599</v>
       </c>
       <c r="C133" t="n">
-        <v>0.229413</v>
+        <v>0.230132</v>
       </c>
       <c r="D133" t="n">
-        <v>0.167205</v>
+        <v>0.16585</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.288123</v>
+        <v>0.287234</v>
       </c>
       <c r="C134" t="n">
-        <v>0.250559</v>
+        <v>0.254631</v>
       </c>
       <c r="D134" t="n">
-        <v>0.175202</v>
+        <v>0.176361</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.334546</v>
+        <v>0.336389</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277368</v>
+        <v>0.279854</v>
       </c>
       <c r="D135" t="n">
-        <v>0.188013</v>
+        <v>0.188204</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.390806</v>
+        <v>0.394145</v>
       </c>
       <c r="C136" t="n">
-        <v>0.326807</v>
+        <v>0.321285</v>
       </c>
       <c r="D136" t="n">
-        <v>0.205038</v>
+        <v>0.207498</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481982</v>
+        <v>0.485608</v>
       </c>
       <c r="C137" t="n">
-        <v>0.391516</v>
+        <v>0.402825</v>
       </c>
       <c r="D137" t="n">
-        <v>0.248241</v>
+        <v>0.250104</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314706</v>
+        <v>0.318891</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276653</v>
+        <v>0.2812</v>
       </c>
       <c r="D138" t="n">
-        <v>0.251676</v>
+        <v>0.252737</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317448</v>
+        <v>0.324285</v>
       </c>
       <c r="C139" t="n">
-        <v>0.280612</v>
+        <v>0.283374</v>
       </c>
       <c r="D139" t="n">
-        <v>0.253217</v>
+        <v>0.253874</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.324447</v>
+        <v>0.326209</v>
       </c>
       <c r="C140" t="n">
-        <v>0.282756</v>
+        <v>0.285744</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256732</v>
+        <v>0.255529</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.32799</v>
+        <v>0.330132</v>
       </c>
       <c r="C141" t="n">
-        <v>0.287932</v>
+        <v>0.289153</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259724</v>
+        <v>0.258168</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333942</v>
+        <v>0.335998</v>
       </c>
       <c r="C142" t="n">
-        <v>0.292998</v>
+        <v>0.294817</v>
       </c>
       <c r="D142" t="n">
-        <v>0.259692</v>
+        <v>0.261624</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.343391</v>
+        <v>0.342631</v>
       </c>
       <c r="C143" t="n">
-        <v>0.296813</v>
+        <v>0.299873</v>
       </c>
       <c r="D143" t="n">
-        <v>0.261001</v>
+        <v>0.262987</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09411890000000001</v>
+        <v>0.0940168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0689901</v>
+        <v>0.068977</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0702261</v>
+        <v>0.0707745</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09841610000000001</v>
+        <v>0.0982041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07044019999999999</v>
+        <v>0.07012210000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0707643</v>
+        <v>0.07087019999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108704</v>
+        <v>0.108777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0738919</v>
+        <v>0.073486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0715321</v>
+        <v>0.07185610000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122984</v>
+        <v>0.125078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08145090000000001</v>
+        <v>0.08098900000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0728042</v>
+        <v>0.07293959999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147351</v>
+        <v>0.147209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0933232</v>
+        <v>0.0933498</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0745792</v>
+        <v>0.0749783</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180703</v>
+        <v>0.180835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112514</v>
+        <v>0.112345</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0787943</v>
+        <v>0.0789295</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220603</v>
+        <v>0.22017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.147399</v>
+        <v>0.147303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09005050000000001</v>
+        <v>0.08897919999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.264728</v>
+        <v>0.259766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184624</v>
+        <v>0.184332</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0679486</v>
+        <v>0.118486</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0866238</v>
+        <v>0.086641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0677396</v>
+        <v>0.0675235</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0682449</v>
+        <v>0.068841</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0877571</v>
+        <v>0.0876875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.068162</v>
+        <v>0.06794500000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.068353</v>
+        <v>0.069052</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0900204</v>
+        <v>0.0886354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06858350000000001</v>
+        <v>0.0682459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0686311</v>
+        <v>0.0694697</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0904578</v>
+        <v>0.089957</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0719395</v>
+        <v>0.06873070000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06898029999999999</v>
+        <v>0.0696295</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0923624</v>
+        <v>0.09230049999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.070123</v>
+        <v>0.0698916</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06929829999999999</v>
+        <v>0.0700028</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09548139999999999</v>
+        <v>0.09700540000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0710679</v>
+        <v>0.07073069999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0720186</v>
+        <v>0.0704143</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100567</v>
+        <v>0.100619</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07391349999999999</v>
+        <v>0.0765301</v>
       </c>
       <c r="D16" t="n">
-        <v>0.072252</v>
+        <v>0.0708949</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109663</v>
+        <v>0.108512</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0768953</v>
+        <v>0.07774590000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0712472</v>
+        <v>0.0738954</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120445</v>
+        <v>0.121375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0826991</v>
+        <v>0.087214</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07249890000000001</v>
+        <v>0.07271039999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135048</v>
+        <v>0.138548</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09722600000000001</v>
+        <v>0.0972484</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0763968</v>
+        <v>0.0758276</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155124</v>
+        <v>0.160612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104928</v>
+        <v>0.10761</v>
       </c>
       <c r="D20" t="n">
-        <v>0.077794</v>
+        <v>0.0797921</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182432</v>
+        <v>0.190216</v>
       </c>
       <c r="C21" t="n">
-        <v>0.126289</v>
+        <v>0.125613</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0836667</v>
+        <v>0.0854338</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214947</v>
+        <v>0.214447</v>
       </c>
       <c r="C22" t="n">
-        <v>0.159916</v>
+        <v>0.148645</v>
       </c>
       <c r="D22" t="n">
-        <v>0.100012</v>
+        <v>0.09865889999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267256</v>
+        <v>0.257571</v>
       </c>
       <c r="C23" t="n">
-        <v>0.204023</v>
+        <v>0.189844</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0693373</v>
+        <v>0.122141</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09114609999999999</v>
+        <v>0.0911941</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07204480000000001</v>
+        <v>0.071821</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0692614</v>
+        <v>0.0716236</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923916</v>
+        <v>0.09280190000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0717732</v>
+        <v>0.0724185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06976640000000001</v>
+        <v>0.0718768</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09426030000000001</v>
+        <v>0.0949081</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0729306</v>
+        <v>0.0719583</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0697594</v>
+        <v>0.0706695</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0963627</v>
+        <v>0.0963058</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0740997</v>
+        <v>0.0745253</v>
       </c>
       <c r="D27" t="n">
-        <v>0.071795</v>
+        <v>0.07254049999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.100799</v>
+        <v>0.0996816</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0760875</v>
+        <v>0.0748707</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0708324</v>
+        <v>0.0725962</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.104836</v>
+        <v>0.10335</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0764611</v>
+        <v>0.07566150000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0727898</v>
+        <v>0.0730543</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109098</v>
+        <v>0.108957</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0776717</v>
+        <v>0.0786399</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0730007</v>
+        <v>0.0739596</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116652</v>
+        <v>0.116661</v>
       </c>
       <c r="C31" t="n">
-        <v>0.083721</v>
+        <v>0.0815612</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07303080000000001</v>
+        <v>0.07478509999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125718</v>
+        <v>0.125354</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0887283</v>
+        <v>0.0874197</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0752979</v>
+        <v>0.0756206</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137318</v>
+        <v>0.137345</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09777810000000001</v>
+        <v>0.09699960000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0781878</v>
+        <v>0.0760338</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155563</v>
+        <v>0.154933</v>
       </c>
       <c r="C34" t="n">
-        <v>0.107223</v>
+        <v>0.105433</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08251890000000001</v>
+        <v>0.0814344</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179191</v>
+        <v>0.17892</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127793</v>
+        <v>0.126513</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08736579999999999</v>
+        <v>0.0892921</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.219877</v>
+        <v>0.210229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.152608</v>
+        <v>0.142414</v>
       </c>
       <c r="D36" t="n">
-        <v>0.100283</v>
+        <v>0.09931950000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251337</v>
+        <v>0.251098</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183411</v>
+        <v>0.180988</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0699462</v>
+        <v>0.117483</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0930362</v>
+        <v>0.0922452</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0731657</v>
+        <v>0.0723517</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0708805</v>
+        <v>0.0711648</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0936</v>
+        <v>0.09386990000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07392369999999999</v>
+        <v>0.0731246</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07047589999999999</v>
+        <v>0.0734297</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951283</v>
+        <v>0.0951356</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07475179999999999</v>
+        <v>0.0739351</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0719921</v>
+        <v>0.07189769999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0973623</v>
+        <v>0.09727470000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07631350000000001</v>
+        <v>0.0764648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0711753</v>
+        <v>0.0732092</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100411</v>
+        <v>0.101084</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0770353</v>
+        <v>0.0753847</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07318669999999999</v>
+        <v>0.07407710000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104207</v>
+        <v>0.104188</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0796999</v>
+        <v>0.0794039</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07383729999999999</v>
+        <v>0.0744742</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109001</v>
+        <v>0.109027</v>
       </c>
       <c r="C44" t="n">
-        <v>0.080821</v>
+        <v>0.0794137</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0743491</v>
+        <v>0.0748398</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116006</v>
+        <v>0.115865</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0829375</v>
+        <v>0.0841122</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0742261</v>
+        <v>0.0760758</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126416</v>
+        <v>0.124782</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09077689999999999</v>
+        <v>0.0881262</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0752313</v>
+        <v>0.0766387</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136566</v>
+        <v>0.135937</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0946936</v>
+        <v>0.0973309</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07719760000000001</v>
+        <v>0.07721509999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150633</v>
+        <v>0.1507</v>
       </c>
       <c r="C48" t="n">
-        <v>0.10566</v>
+        <v>0.107491</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0820828</v>
+        <v>0.08335910000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.178252</v>
+        <v>0.172763</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115161</v>
+        <v>0.115854</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0860587</v>
+        <v>0.0869322</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203454</v>
+        <v>0.20291</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135269</v>
+        <v>0.135171</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0955621</v>
+        <v>0.09567879999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.245038</v>
+        <v>0.244993</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166621</v>
+        <v>0.166986</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0722742</v>
+        <v>0.109393</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.290721</v>
+        <v>0.290764</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232038</v>
+        <v>0.219076</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07199220000000001</v>
+        <v>0.13976</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0970661</v>
+        <v>0.098459</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07692450000000001</v>
+        <v>0.07692019999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0723881</v>
+        <v>0.0740529</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987094</v>
+        <v>0.0992789</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07735259999999999</v>
+        <v>0.0782949</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0737048</v>
+        <v>0.07313509999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101396</v>
+        <v>0.101301</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0776472</v>
+        <v>0.079834</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0739402</v>
+        <v>0.07567309999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104314</v>
+        <v>0.104369</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07910490000000001</v>
+        <v>0.08163479999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07488160000000001</v>
+        <v>0.0753426</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10849</v>
+        <v>0.108543</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0812765</v>
+        <v>0.0826038</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0751124</v>
+        <v>0.0765049</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112498</v>
+        <v>0.113154</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08471770000000001</v>
+        <v>0.0833962</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0753283</v>
+        <v>0.075602</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.11776</v>
+        <v>0.119759</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0883046</v>
+        <v>0.08990670000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0768028</v>
+        <v>0.07753259999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127429</v>
+        <v>0.126272</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09283859999999999</v>
+        <v>0.0933465</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0773605</v>
+        <v>0.0792432</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137933</v>
+        <v>0.139476</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0991045</v>
+        <v>0.0990007</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0810693</v>
+        <v>0.08079699999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.156416</v>
+        <v>0.154698</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106865</v>
+        <v>0.108542</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0845139</v>
+        <v>0.084242</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172202</v>
+        <v>0.171685</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116501</v>
+        <v>0.11644</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08827359999999999</v>
+        <v>0.0876145</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.207392</v>
+        <v>0.209055</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134899</v>
+        <v>0.141124</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0979974</v>
+        <v>0.0956938</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239475</v>
+        <v>0.249787</v>
       </c>
       <c r="C65" t="n">
-        <v>0.164115</v>
+        <v>0.174284</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109167</v>
+        <v>0.110593</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.287511</v>
+        <v>0.301814</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225661</v>
+        <v>0.211129</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0796622</v>
+        <v>0.135993</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107684</v>
+        <v>0.106158</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0852916</v>
+        <v>0.0854443</v>
       </c>
       <c r="D67" t="n">
-        <v>0.080447</v>
+        <v>0.0813773</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.110039</v>
+        <v>0.108727</v>
       </c>
       <c r="C68" t="n">
-        <v>0.085822</v>
+        <v>0.08572920000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0812203</v>
+        <v>0.0816268</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111459</v>
+        <v>0.112356</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08761190000000001</v>
+        <v>0.0867976</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0818357</v>
+        <v>0.08216610000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.11412</v>
+        <v>0.114857</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0891218</v>
+        <v>0.0899992</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0813291</v>
+        <v>0.08255899999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118773</v>
+        <v>0.117081</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09120490000000001</v>
+        <v>0.0901622</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0823937</v>
+        <v>0.0837485</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122674</v>
+        <v>0.1229</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0936597</v>
+        <v>0.0918168</v>
       </c>
       <c r="D72" t="n">
-        <v>0.082646</v>
+        <v>0.0844027</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128842</v>
+        <v>0.126834</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09615410000000001</v>
+        <v>0.0954482</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0840559</v>
+        <v>0.0852397</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136671</v>
+        <v>0.134123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0993536</v>
+        <v>0.09790989999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08543240000000001</v>
+        <v>0.0872073</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144736</v>
+        <v>0.144799</v>
       </c>
       <c r="C75" t="n">
-        <v>0.108409</v>
+        <v>0.105584</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08768869999999999</v>
+        <v>0.08733299999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159658</v>
+        <v>0.163458</v>
       </c>
       <c r="C76" t="n">
-        <v>0.115924</v>
+        <v>0.11624</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0905629</v>
+        <v>0.0911908</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178705</v>
+        <v>0.180072</v>
       </c>
       <c r="C77" t="n">
-        <v>0.124353</v>
+        <v>0.128253</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0950748</v>
+        <v>0.0956711</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.215023</v>
+        <v>0.208892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.146024</v>
+        <v>0.145251</v>
       </c>
       <c r="D78" t="n">
-        <v>0.103833</v>
+        <v>0.101641</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253757</v>
+        <v>0.253977</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174066</v>
+        <v>0.174756</v>
       </c>
       <c r="D79" t="n">
-        <v>0.115571</v>
+        <v>0.114048</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.299901</v>
+        <v>0.294294</v>
       </c>
       <c r="C80" t="n">
-        <v>0.221081</v>
+        <v>0.22116</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08860510000000001</v>
+        <v>0.135635</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119709</v>
+        <v>0.120205</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09696920000000001</v>
+        <v>0.0957465</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0891484</v>
+        <v>0.0899015</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121786</v>
+        <v>0.123113</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0964878</v>
+        <v>0.0977706</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0894924</v>
+        <v>0.0905586</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124931</v>
+        <v>0.125645</v>
       </c>
       <c r="C83" t="n">
-        <v>0.100791</v>
+        <v>0.0999627</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08988599999999999</v>
+        <v>0.09108810000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126492</v>
+        <v>0.128393</v>
       </c>
       <c r="C84" t="n">
-        <v>0.10131</v>
+        <v>0.10145</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0904389</v>
+        <v>0.0919835</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130398</v>
+        <v>0.130864</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10452</v>
+        <v>0.104479</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09212910000000001</v>
+        <v>0.0927002</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137354</v>
+        <v>0.137742</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107213</v>
+        <v>0.107553</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0927803</v>
+        <v>0.094348</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.143926</v>
+        <v>0.142068</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113768</v>
+        <v>0.113046</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09554070000000001</v>
+        <v>0.09623760000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150268</v>
+        <v>0.1531</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120209</v>
+        <v>0.119693</v>
       </c>
       <c r="D88" t="n">
-        <v>0.097512</v>
+        <v>0.09781720000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161128</v>
+        <v>0.164765</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128251</v>
+        <v>0.127703</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09957009999999999</v>
+        <v>0.101319</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180486</v>
+        <v>0.176896</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138278</v>
+        <v>0.138312</v>
       </c>
       <c r="D90" t="n">
-        <v>0.104166</v>
+        <v>0.105378</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197096</v>
+        <v>0.203058</v>
       </c>
       <c r="C91" t="n">
-        <v>0.152048</v>
+        <v>0.152107</v>
       </c>
       <c r="D91" t="n">
-        <v>0.110795</v>
+        <v>0.110596</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.226405</v>
+        <v>0.226063</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167144</v>
+        <v>0.173012</v>
       </c>
       <c r="D92" t="n">
-        <v>0.118653</v>
+        <v>0.119316</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267635</v>
+        <v>0.275771</v>
       </c>
       <c r="C93" t="n">
-        <v>0.202814</v>
+        <v>0.194322</v>
       </c>
       <c r="D93" t="n">
-        <v>0.133152</v>
+        <v>0.132033</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332581</v>
+        <v>0.331513</v>
       </c>
       <c r="C94" t="n">
-        <v>0.249153</v>
+        <v>0.249742</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0992249</v>
+        <v>0.154846</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133637</v>
+        <v>0.134887</v>
       </c>
       <c r="C95" t="n">
-        <v>0.118254</v>
+        <v>0.117192</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100942</v>
+        <v>0.102257</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136471</v>
+        <v>0.136205</v>
       </c>
       <c r="C96" t="n">
-        <v>0.121435</v>
+        <v>0.120026</v>
       </c>
       <c r="D96" t="n">
-        <v>0.10282</v>
+        <v>0.103707</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139972</v>
+        <v>0.141209</v>
       </c>
       <c r="C97" t="n">
-        <v>0.123554</v>
+        <v>0.123673</v>
       </c>
       <c r="D97" t="n">
-        <v>0.105005</v>
+        <v>0.105402</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145438</v>
+        <v>0.143762</v>
       </c>
       <c r="C98" t="n">
-        <v>0.124886</v>
+        <v>0.126203</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106345</v>
+        <v>0.107027</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148734</v>
+        <v>0.148163</v>
       </c>
       <c r="C99" t="n">
-        <v>0.131612</v>
+        <v>0.130508</v>
       </c>
       <c r="D99" t="n">
-        <v>0.10812</v>
+        <v>0.108373</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156163</v>
+        <v>0.154162</v>
       </c>
       <c r="C100" t="n">
-        <v>0.135559</v>
+        <v>0.13371</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110101</v>
+        <v>0.110828</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.162964</v>
+        <v>0.1616</v>
       </c>
       <c r="C101" t="n">
-        <v>0.141289</v>
+        <v>0.139775</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112339</v>
+        <v>0.112775</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.17194</v>
+        <v>0.169244</v>
       </c>
       <c r="C102" t="n">
-        <v>0.147186</v>
+        <v>0.145869</v>
       </c>
       <c r="D102" t="n">
-        <v>0.114943</v>
+        <v>0.115322</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.18068</v>
+        <v>0.180237</v>
       </c>
       <c r="C103" t="n">
-        <v>0.154869</v>
+        <v>0.155547</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1183</v>
+        <v>0.118661</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.195295</v>
+        <v>0.198118</v>
       </c>
       <c r="C104" t="n">
-        <v>0.167835</v>
+        <v>0.167362</v>
       </c>
       <c r="D104" t="n">
-        <v>0.122153</v>
+        <v>0.122778</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215345</v>
+        <v>0.214666</v>
       </c>
       <c r="C105" t="n">
-        <v>0.185186</v>
+        <v>0.183332</v>
       </c>
       <c r="D105" t="n">
-        <v>0.128463</v>
+        <v>0.127747</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25137</v>
+        <v>0.243528</v>
       </c>
       <c r="C106" t="n">
-        <v>0.204789</v>
+        <v>0.204849</v>
       </c>
       <c r="D106" t="n">
-        <v>0.136458</v>
+        <v>0.135314</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286696</v>
+        <v>0.286068</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238507</v>
+        <v>0.232461</v>
       </c>
       <c r="D107" t="n">
-        <v>0.150123</v>
+        <v>0.14912</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.357942</v>
+        <v>0.357113</v>
       </c>
       <c r="C108" t="n">
-        <v>0.289779</v>
+        <v>0.288668</v>
       </c>
       <c r="D108" t="n">
-        <v>0.107798</v>
+        <v>0.171243</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.444918</v>
+        <v>0.442455</v>
       </c>
       <c r="C109" t="n">
-        <v>0.372268</v>
+        <v>0.356349</v>
       </c>
       <c r="D109" t="n">
-        <v>0.109867</v>
+        <v>0.215359</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146858</v>
+        <v>0.146292</v>
       </c>
       <c r="C110" t="n">
-        <v>0.140748</v>
+        <v>0.140186</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1104</v>
+        <v>0.11171</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.148565</v>
+        <v>0.148069</v>
       </c>
       <c r="C111" t="n">
-        <v>0.144487</v>
+        <v>0.143958</v>
       </c>
       <c r="D111" t="n">
-        <v>0.112071</v>
+        <v>0.113921</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153975</v>
+        <v>0.15347</v>
       </c>
       <c r="C112" t="n">
-        <v>0.148744</v>
+        <v>0.147591</v>
       </c>
       <c r="D112" t="n">
-        <v>0.113734</v>
+        <v>0.115519</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158006</v>
+        <v>0.156916</v>
       </c>
       <c r="C113" t="n">
-        <v>0.155784</v>
+        <v>0.153615</v>
       </c>
       <c r="D113" t="n">
-        <v>0.116301</v>
+        <v>0.117939</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165582</v>
+        <v>0.163128</v>
       </c>
       <c r="C114" t="n">
-        <v>0.161665</v>
+        <v>0.159262</v>
       </c>
       <c r="D114" t="n">
-        <v>0.120094</v>
+        <v>0.119916</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.173849</v>
+        <v>0.171449</v>
       </c>
       <c r="C115" t="n">
-        <v>0.168544</v>
+        <v>0.165427</v>
       </c>
       <c r="D115" t="n">
-        <v>0.123391</v>
+        <v>0.123502</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.185971</v>
+        <v>0.184556</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175714</v>
+        <v>0.173292</v>
       </c>
       <c r="D116" t="n">
-        <v>0.128295</v>
+        <v>0.127594</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.199804</v>
+        <v>0.199694</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186338</v>
+        <v>0.18376</v>
       </c>
       <c r="D117" t="n">
-        <v>0.134111</v>
+        <v>0.132524</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.220923</v>
+        <v>0.215353</v>
       </c>
       <c r="C118" t="n">
-        <v>0.196089</v>
+        <v>0.195506</v>
       </c>
       <c r="D118" t="n">
-        <v>0.140827</v>
+        <v>0.139047</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.239653</v>
+        <v>0.237703</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210472</v>
+        <v>0.209418</v>
       </c>
       <c r="D119" t="n">
-        <v>0.148828</v>
+        <v>0.145747</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275603</v>
+        <v>0.273955</v>
       </c>
       <c r="C120" t="n">
-        <v>0.233571</v>
+        <v>0.232463</v>
       </c>
       <c r="D120" t="n">
-        <v>0.157816</v>
+        <v>0.156053</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.311551</v>
+        <v>0.309736</v>
       </c>
       <c r="C121" t="n">
-        <v>0.263036</v>
+        <v>0.257095</v>
       </c>
       <c r="D121" t="n">
-        <v>0.171648</v>
+        <v>0.170329</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373441</v>
+        <v>0.372637</v>
       </c>
       <c r="C122" t="n">
-        <v>0.313881</v>
+        <v>0.303077</v>
       </c>
       <c r="D122" t="n">
-        <v>0.194952</v>
+        <v>0.192926</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.468024</v>
+        <v>0.464198</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390616</v>
+        <v>0.391626</v>
       </c>
       <c r="D123" t="n">
-        <v>0.137122</v>
+        <v>0.232943</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172207</v>
+        <v>0.173816</v>
       </c>
       <c r="C124" t="n">
-        <v>0.169384</v>
+        <v>0.16738</v>
       </c>
       <c r="D124" t="n">
-        <v>0.136798</v>
+        <v>0.135515</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.174295</v>
+        <v>0.17859</v>
       </c>
       <c r="C125" t="n">
-        <v>0.170147</v>
+        <v>0.169442</v>
       </c>
       <c r="D125" t="n">
-        <v>0.139529</v>
+        <v>0.138182</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.183618</v>
+        <v>0.1798</v>
       </c>
       <c r="C126" t="n">
-        <v>0.174789</v>
+        <v>0.175932</v>
       </c>
       <c r="D126" t="n">
-        <v>0.141687</v>
+        <v>0.140068</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183672</v>
+        <v>0.187949</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179505</v>
+        <v>0.18052</v>
       </c>
       <c r="D127" t="n">
-        <v>0.141028</v>
+        <v>0.14192</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.191962</v>
+        <v>0.193611</v>
       </c>
       <c r="C128" t="n">
-        <v>0.184595</v>
+        <v>0.187061</v>
       </c>
       <c r="D128" t="n">
-        <v>0.144894</v>
+        <v>0.149865</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198582</v>
+        <v>0.202187</v>
       </c>
       <c r="C129" t="n">
-        <v>0.19205</v>
+        <v>0.194038</v>
       </c>
       <c r="D129" t="n">
-        <v>0.147752</v>
+        <v>0.150326</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208266</v>
+        <v>0.208932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.197715</v>
+        <v>0.196825</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153488</v>
+        <v>0.153131</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.221003</v>
+        <v>0.224915</v>
       </c>
       <c r="C131" t="n">
-        <v>0.207481</v>
+        <v>0.205927</v>
       </c>
       <c r="D131" t="n">
-        <v>0.156496</v>
+        <v>0.154063</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.247026</v>
+        <v>0.238309</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21563</v>
+        <v>0.21913</v>
       </c>
       <c r="D132" t="n">
-        <v>0.159712</v>
+        <v>0.159221</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.262599</v>
+        <v>0.257952</v>
       </c>
       <c r="C133" t="n">
-        <v>0.230132</v>
+        <v>0.230232</v>
       </c>
       <c r="D133" t="n">
-        <v>0.16585</v>
+        <v>0.165573</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.287234</v>
+        <v>0.292596</v>
       </c>
       <c r="C134" t="n">
-        <v>0.254631</v>
+        <v>0.253502</v>
       </c>
       <c r="D134" t="n">
-        <v>0.176361</v>
+        <v>0.174942</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.336389</v>
+        <v>0.326693</v>
       </c>
       <c r="C135" t="n">
-        <v>0.279854</v>
+        <v>0.27677</v>
       </c>
       <c r="D135" t="n">
-        <v>0.188204</v>
+        <v>0.188413</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.394145</v>
+        <v>0.385171</v>
       </c>
       <c r="C136" t="n">
-        <v>0.321285</v>
+        <v>0.322854</v>
       </c>
       <c r="D136" t="n">
-        <v>0.207498</v>
+        <v>0.20424</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.485608</v>
+        <v>0.481371</v>
       </c>
       <c r="C137" t="n">
-        <v>0.402825</v>
+        <v>0.40296</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250104</v>
+        <v>0.240603</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.318891</v>
+        <v>0.317273</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2812</v>
+        <v>0.277069</v>
       </c>
       <c r="D138" t="n">
-        <v>0.252737</v>
+        <v>0.253717</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.324285</v>
+        <v>0.319537</v>
       </c>
       <c r="C139" t="n">
-        <v>0.283374</v>
+        <v>0.282245</v>
       </c>
       <c r="D139" t="n">
-        <v>0.253874</v>
+        <v>0.256354</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326209</v>
+        <v>0.321034</v>
       </c>
       <c r="C140" t="n">
-        <v>0.285744</v>
+        <v>0.284963</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255529</v>
+        <v>0.25696</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.330132</v>
+        <v>0.327032</v>
       </c>
       <c r="C141" t="n">
-        <v>0.289153</v>
+        <v>0.28832</v>
       </c>
       <c r="D141" t="n">
-        <v>0.258168</v>
+        <v>0.259286</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335998</v>
+        <v>0.335517</v>
       </c>
       <c r="C142" t="n">
-        <v>0.294817</v>
+        <v>0.293687</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261624</v>
+        <v>0.261723</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342631</v>
+        <v>0.342299</v>
       </c>
       <c r="C143" t="n">
-        <v>0.299873</v>
+        <v>0.298918</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262987</v>
+        <v>0.262984</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0940168</v>
+        <v>0.0938589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.068977</v>
+        <v>0.0691078</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0707745</v>
+        <v>0.070726</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0982041</v>
+        <v>0.0982788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07012210000000001</v>
+        <v>0.0702227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07087019999999999</v>
+        <v>0.0709491</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108777</v>
+        <v>0.108401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.073486</v>
+        <v>0.07324840000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07185610000000001</v>
+        <v>0.0718641</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.125078</v>
+        <v>0.12306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08098900000000001</v>
+        <v>0.08080619999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07293959999999999</v>
+        <v>0.0730335</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147209</v>
+        <v>0.147844</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0933498</v>
+        <v>0.09273380000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0749783</v>
+        <v>0.0751368</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180835</v>
+        <v>0.180913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112345</v>
+        <v>0.112101</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0789295</v>
+        <v>0.07889110000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22017</v>
+        <v>0.220785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.147303</v>
+        <v>0.147021</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08897919999999999</v>
+        <v>0.08924169999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259766</v>
+        <v>0.259627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184332</v>
+        <v>0.184864</v>
       </c>
       <c r="D9" t="n">
-        <v>0.118486</v>
+        <v>0.118892</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.086641</v>
+        <v>0.0862357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0675235</v>
+        <v>0.06755079999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.068841</v>
+        <v>0.06884079999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0876875</v>
+        <v>0.0872763</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06794500000000001</v>
+        <v>0.0678409</v>
       </c>
       <c r="D11" t="n">
-        <v>0.069052</v>
+        <v>0.0691068</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0886354</v>
+        <v>0.08849079999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0682459</v>
+        <v>0.0682401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0694697</v>
+        <v>0.0694318</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.089957</v>
+        <v>0.0899779</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06873070000000001</v>
+        <v>0.06852560000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0696295</v>
+        <v>0.06971140000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09230049999999999</v>
+        <v>0.09242889999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0698916</v>
+        <v>0.0694449</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0700028</v>
+        <v>0.06995129999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09700540000000001</v>
+        <v>0.09548810000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07073069999999999</v>
+        <v>0.0706526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0704143</v>
+        <v>0.0705355</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100619</v>
+        <v>0.100484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0765301</v>
+        <v>0.0734534</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0708949</v>
+        <v>0.0708022</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108512</v>
+        <v>0.10841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07774590000000001</v>
+        <v>0.0760622</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0738954</v>
+        <v>0.0714191</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.121375</v>
+        <v>0.119956</v>
       </c>
       <c r="C18" t="n">
-        <v>0.087214</v>
+        <v>0.0829923</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07271039999999999</v>
+        <v>0.0727097</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.138548</v>
+        <v>0.134547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0972484</v>
+        <v>0.091475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0758276</v>
+        <v>0.0750744</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.160612</v>
+        <v>0.154548</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10761</v>
+        <v>0.102691</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0797921</v>
+        <v>0.07799879999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.190216</v>
+        <v>0.181624</v>
       </c>
       <c r="C21" t="n">
-        <v>0.125613</v>
+        <v>0.118321</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0854338</v>
+        <v>0.0835499</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214447</v>
+        <v>0.214027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.148645</v>
+        <v>0.148582</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09865889999999999</v>
+        <v>0.0970333</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.257571</v>
+        <v>0.255471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.189844</v>
+        <v>0.187795</v>
       </c>
       <c r="D23" t="n">
-        <v>0.122141</v>
+        <v>0.119434</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0911941</v>
+        <v>0.0911888</v>
       </c>
       <c r="C24" t="n">
-        <v>0.071821</v>
+        <v>0.0698602</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0716236</v>
+        <v>0.06981619999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09280190000000001</v>
+        <v>0.0923768</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0724185</v>
+        <v>0.0702426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0718768</v>
+        <v>0.0700385</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0949081</v>
+        <v>0.0937887</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0719583</v>
+        <v>0.0709245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0706695</v>
+        <v>0.0701509</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0963058</v>
+        <v>0.0962176</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0745253</v>
+        <v>0.0717358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07254049999999999</v>
+        <v>0.07068480000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0996816</v>
+        <v>0.09932489999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0748707</v>
+        <v>0.0729905</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0725962</v>
+        <v>0.0711055</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.10335</v>
+        <v>0.103736</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07566150000000001</v>
+        <v>0.0744179</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0730543</v>
+        <v>0.0714977</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108957</v>
+        <v>0.108754</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0786399</v>
+        <v>0.07677680000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0739596</v>
+        <v>0.07203900000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116661</v>
+        <v>0.116766</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0815612</v>
+        <v>0.0804636</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07478509999999999</v>
+        <v>0.0727964</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125354</v>
+        <v>0.125726</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0874197</v>
+        <v>0.085581</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0756206</v>
+        <v>0.0740228</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137345</v>
+        <v>0.136967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09699960000000001</v>
+        <v>0.09264020000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0760338</v>
+        <v>0.0759818</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154933</v>
+        <v>0.155421</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105433</v>
+        <v>0.104449</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0814344</v>
+        <v>0.07984280000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.17892</v>
+        <v>0.17935</v>
       </c>
       <c r="C35" t="n">
-        <v>0.126513</v>
+        <v>0.120313</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0892921</v>
+        <v>0.0864872</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210229</v>
+        <v>0.210306</v>
       </c>
       <c r="C36" t="n">
-        <v>0.142414</v>
+        <v>0.143064</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09931950000000001</v>
+        <v>0.0974608</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251098</v>
+        <v>0.250305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.180988</v>
+        <v>0.194369</v>
       </c>
       <c r="D37" t="n">
-        <v>0.117483</v>
+        <v>0.117487</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0922452</v>
+        <v>0.0923332</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0723517</v>
+        <v>0.0717098</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0711648</v>
+        <v>0.0710805</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09386990000000001</v>
+        <v>0.0935684</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0731246</v>
+        <v>0.07270160000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0734297</v>
+        <v>0.07113460000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951356</v>
+        <v>0.0952054</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0739351</v>
+        <v>0.0732377</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07189769999999999</v>
+        <v>0.0715229</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09727470000000001</v>
+        <v>0.0973803</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0764648</v>
+        <v>0.074265</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0732092</v>
+        <v>0.0719138</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101084</v>
+        <v>0.100359</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0753847</v>
+        <v>0.0755097</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07407710000000001</v>
+        <v>0.07232379999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104188</v>
+        <v>0.104274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0794039</v>
+        <v>0.0776095</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0744742</v>
+        <v>0.0727998</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109027</v>
+        <v>0.109456</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0794137</v>
+        <v>0.079494</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0748398</v>
+        <v>0.073447</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115865</v>
+        <v>0.115913</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0841122</v>
+        <v>0.0827394</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0760758</v>
+        <v>0.0742396</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124782</v>
+        <v>0.124979</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0881262</v>
+        <v>0.0874076</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0766387</v>
+        <v>0.0755001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135937</v>
+        <v>0.135991</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0973309</v>
+        <v>0.09384530000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07721509999999999</v>
+        <v>0.0772099</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1507</v>
+        <v>0.150927</v>
       </c>
       <c r="C48" t="n">
-        <v>0.107491</v>
+        <v>0.102498</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08335910000000001</v>
+        <v>0.0809154</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172763</v>
+        <v>0.172834</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115854</v>
+        <v>0.114845</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0869322</v>
+        <v>0.08569259999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.20291</v>
+        <v>0.202757</v>
       </c>
       <c r="C50" t="n">
-        <v>0.135171</v>
+        <v>0.133863</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09567879999999999</v>
+        <v>0.0939149</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244993</v>
+        <v>0.244397</v>
       </c>
       <c r="C51" t="n">
-        <v>0.166986</v>
+        <v>0.165408</v>
       </c>
       <c r="D51" t="n">
-        <v>0.109393</v>
+        <v>0.109132</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.290764</v>
+        <v>0.288557</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219076</v>
+        <v>0.217953</v>
       </c>
       <c r="D52" t="n">
-        <v>0.13976</v>
+        <v>0.139676</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.098459</v>
+        <v>0.0972138</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07692019999999999</v>
+        <v>0.0755155</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0740529</v>
+        <v>0.0731214</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0992789</v>
+        <v>0.0988594</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0782949</v>
+        <v>0.0774002</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07313509999999999</v>
+        <v>0.0746526</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101301</v>
+        <v>0.101022</v>
       </c>
       <c r="C55" t="n">
-        <v>0.079834</v>
+        <v>0.0774908</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07567309999999999</v>
+        <v>0.073729</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104369</v>
+        <v>0.103803</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08163479999999999</v>
+        <v>0.0795835</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0753426</v>
+        <v>0.07439510000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.108543</v>
+        <v>0.106621</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0826038</v>
+        <v>0.0808508</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0765049</v>
+        <v>0.0749568</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113154</v>
+        <v>0.114137</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0833962</v>
+        <v>0.0832613</v>
       </c>
       <c r="D58" t="n">
-        <v>0.075602</v>
+        <v>0.0755374</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119759</v>
+        <v>0.118008</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08990670000000001</v>
+        <v>0.0870944</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07753259999999999</v>
+        <v>0.0772359</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126272</v>
+        <v>0.126459</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0933465</v>
+        <v>0.09025030000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0792432</v>
+        <v>0.0779767</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139476</v>
+        <v>0.137817</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0990007</v>
+        <v>0.0959873</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08079699999999999</v>
+        <v>0.07969030000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.154698</v>
+        <v>0.152061</v>
       </c>
       <c r="C62" t="n">
-        <v>0.108542</v>
+        <v>0.104026</v>
       </c>
       <c r="D62" t="n">
-        <v>0.084242</v>
+        <v>0.0826508</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171685</v>
+        <v>0.173379</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11644</v>
+        <v>0.117096</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0876145</v>
+        <v>0.08812300000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.209055</v>
+        <v>0.207032</v>
       </c>
       <c r="C64" t="n">
-        <v>0.141124</v>
+        <v>0.135849</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0956938</v>
+        <v>0.0949651</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249787</v>
+        <v>0.239566</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174284</v>
+        <v>0.164945</v>
       </c>
       <c r="D65" t="n">
-        <v>0.110593</v>
+        <v>0.108432</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.301814</v>
+        <v>0.288223</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211129</v>
+        <v>0.214868</v>
       </c>
       <c r="D66" t="n">
-        <v>0.135993</v>
+        <v>0.133502</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106158</v>
+        <v>0.106778</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0854443</v>
+        <v>0.0845916</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0813773</v>
+        <v>0.081064</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108727</v>
+        <v>0.108839</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08572920000000001</v>
+        <v>0.0859171</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0816268</v>
+        <v>0.08182879999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112356</v>
+        <v>0.110852</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0867976</v>
+        <v>0.08615440000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08216610000000001</v>
+        <v>0.08185439999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114857</v>
+        <v>0.113508</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0899992</v>
+        <v>0.087019</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08255899999999999</v>
+        <v>0.0822581</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117081</v>
+        <v>0.118828</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0901622</v>
+        <v>0.09019249999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0837485</v>
+        <v>0.0833782</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1229</v>
+        <v>0.122499</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0918168</v>
+        <v>0.0916223</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0844027</v>
+        <v>0.0840125</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126834</v>
+        <v>0.129025</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0954482</v>
+        <v>0.0960709</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0852397</v>
+        <v>0.0844902</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.134123</v>
+        <v>0.135005</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09790989999999999</v>
+        <v>0.100475</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0872073</v>
+        <v>0.08567660000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144799</v>
+        <v>0.145024</v>
       </c>
       <c r="C75" t="n">
-        <v>0.105584</v>
+        <v>0.106181</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08733299999999999</v>
+        <v>0.0875792</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.163458</v>
+        <v>0.15931</v>
       </c>
       <c r="C76" t="n">
-        <v>0.11624</v>
+        <v>0.112117</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0911908</v>
+        <v>0.0897751</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180072</v>
+        <v>0.177839</v>
       </c>
       <c r="C77" t="n">
-        <v>0.128253</v>
+        <v>0.123682</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0956711</v>
+        <v>0.0938696</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208892</v>
+        <v>0.21369</v>
       </c>
       <c r="C78" t="n">
-        <v>0.145251</v>
+        <v>0.139616</v>
       </c>
       <c r="D78" t="n">
-        <v>0.101641</v>
+        <v>0.101574</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253977</v>
+        <v>0.251338</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174756</v>
+        <v>0.174393</v>
       </c>
       <c r="D79" t="n">
-        <v>0.114048</v>
+        <v>0.113608</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294294</v>
+        <v>0.295181</v>
       </c>
       <c r="C80" t="n">
-        <v>0.22116</v>
+        <v>0.208151</v>
       </c>
       <c r="D80" t="n">
-        <v>0.135635</v>
+        <v>0.136456</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120205</v>
+        <v>0.119854</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0957465</v>
+        <v>0.09520190000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0899015</v>
+        <v>0.0890055</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123113</v>
+        <v>0.123098</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0977706</v>
+        <v>0.09833600000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0905586</v>
+        <v>0.0898147</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.125645</v>
+        <v>0.123998</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0999627</v>
+        <v>0.0978301</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09108810000000001</v>
+        <v>0.0905859</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128393</v>
+        <v>0.128576</v>
       </c>
       <c r="C84" t="n">
-        <v>0.10145</v>
+        <v>0.101032</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0919835</v>
+        <v>0.09171410000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130864</v>
+        <v>0.132318</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104479</v>
+        <v>0.103949</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0927002</v>
+        <v>0.09265180000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137742</v>
+        <v>0.135733</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107553</v>
+        <v>0.108463</v>
       </c>
       <c r="D86" t="n">
-        <v>0.094348</v>
+        <v>0.0939699</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142068</v>
+        <v>0.142194</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113046</v>
+        <v>0.112283</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09623760000000001</v>
+        <v>0.0962577</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1531</v>
+        <v>0.15058</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119693</v>
+        <v>0.119944</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09781720000000001</v>
+        <v>0.0976944</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.164765</v>
+        <v>0.161694</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127703</v>
+        <v>0.127739</v>
       </c>
       <c r="D89" t="n">
-        <v>0.101319</v>
+        <v>0.101784</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176896</v>
+        <v>0.177026</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138312</v>
+        <v>0.135801</v>
       </c>
       <c r="D90" t="n">
-        <v>0.105378</v>
+        <v>0.105399</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.203058</v>
+        <v>0.202659</v>
       </c>
       <c r="C91" t="n">
-        <v>0.152107</v>
+        <v>0.152318</v>
       </c>
       <c r="D91" t="n">
-        <v>0.110596</v>
+        <v>0.110527</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.226063</v>
+        <v>0.232861</v>
       </c>
       <c r="C92" t="n">
-        <v>0.173012</v>
+        <v>0.167851</v>
       </c>
       <c r="D92" t="n">
-        <v>0.119316</v>
+        <v>0.118767</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.275771</v>
+        <v>0.275836</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194322</v>
+        <v>0.194929</v>
       </c>
       <c r="D93" t="n">
-        <v>0.132033</v>
+        <v>0.131897</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331513</v>
+        <v>0.325786</v>
       </c>
       <c r="C94" t="n">
-        <v>0.249742</v>
+        <v>0.249414</v>
       </c>
       <c r="D94" t="n">
-        <v>0.154846</v>
+        <v>0.153652</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134887</v>
+        <v>0.134948</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117192</v>
+        <v>0.11631</v>
       </c>
       <c r="D95" t="n">
-        <v>0.102257</v>
+        <v>0.101532</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136205</v>
+        <v>0.136622</v>
       </c>
       <c r="C96" t="n">
-        <v>0.120026</v>
+        <v>0.119425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.103707</v>
+        <v>0.101953</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141209</v>
+        <v>0.139821</v>
       </c>
       <c r="C97" t="n">
-        <v>0.123673</v>
+        <v>0.122886</v>
       </c>
       <c r="D97" t="n">
-        <v>0.105402</v>
+        <v>0.104991</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143762</v>
+        <v>0.14372</v>
       </c>
       <c r="C98" t="n">
-        <v>0.126203</v>
+        <v>0.124042</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107027</v>
+        <v>0.106686</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148163</v>
+        <v>0.148382</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130508</v>
+        <v>0.130542</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108373</v>
+        <v>0.108454</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154162</v>
+        <v>0.156404</v>
       </c>
       <c r="C100" t="n">
-        <v>0.13371</v>
+        <v>0.133365</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110828</v>
+        <v>0.110502</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1616</v>
+        <v>0.161168</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139775</v>
+        <v>0.14027</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112775</v>
+        <v>0.112845</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169244</v>
+        <v>0.169501</v>
       </c>
       <c r="C102" t="n">
-        <v>0.145869</v>
+        <v>0.146545</v>
       </c>
       <c r="D102" t="n">
-        <v>0.115322</v>
+        <v>0.115363</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180237</v>
+        <v>0.180974</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155547</v>
+        <v>0.154616</v>
       </c>
       <c r="D103" t="n">
-        <v>0.118661</v>
+        <v>0.118056</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.198118</v>
+        <v>0.198805</v>
       </c>
       <c r="C104" t="n">
-        <v>0.167362</v>
+        <v>0.164886</v>
       </c>
       <c r="D104" t="n">
-        <v>0.122778</v>
+        <v>0.121891</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214666</v>
+        <v>0.218645</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183332</v>
+        <v>0.183266</v>
       </c>
       <c r="D105" t="n">
-        <v>0.127747</v>
+        <v>0.12726</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243528</v>
+        <v>0.244277</v>
       </c>
       <c r="C106" t="n">
-        <v>0.204849</v>
+        <v>0.205382</v>
       </c>
       <c r="D106" t="n">
-        <v>0.135314</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286068</v>
+        <v>0.286352</v>
       </c>
       <c r="C107" t="n">
-        <v>0.232461</v>
+        <v>0.237727</v>
       </c>
       <c r="D107" t="n">
-        <v>0.14912</v>
+        <v>0.148874</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.357113</v>
+        <v>0.357424</v>
       </c>
       <c r="C108" t="n">
-        <v>0.288668</v>
+        <v>0.279292</v>
       </c>
       <c r="D108" t="n">
-        <v>0.171243</v>
+        <v>0.169874</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.442455</v>
+        <v>0.445023</v>
       </c>
       <c r="C109" t="n">
-        <v>0.356349</v>
+        <v>0.372616</v>
       </c>
       <c r="D109" t="n">
-        <v>0.215359</v>
+        <v>0.215748</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146292</v>
+        <v>0.146808</v>
       </c>
       <c r="C110" t="n">
-        <v>0.140186</v>
+        <v>0.1401</v>
       </c>
       <c r="D110" t="n">
-        <v>0.11171</v>
+        <v>0.112645</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.148069</v>
+        <v>0.149534</v>
       </c>
       <c r="C111" t="n">
-        <v>0.143958</v>
+        <v>0.143487</v>
       </c>
       <c r="D111" t="n">
-        <v>0.113921</v>
+        <v>0.113614</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15347</v>
+        <v>0.15221</v>
       </c>
       <c r="C112" t="n">
-        <v>0.147591</v>
+        <v>0.148202</v>
       </c>
       <c r="D112" t="n">
-        <v>0.115519</v>
+        <v>0.116194</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.156916</v>
+        <v>0.157027</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153615</v>
+        <v>0.152653</v>
       </c>
       <c r="D113" t="n">
-        <v>0.117939</v>
+        <v>0.118026</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.163128</v>
+        <v>0.165055</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159262</v>
+        <v>0.159619</v>
       </c>
       <c r="D114" t="n">
-        <v>0.119916</v>
+        <v>0.120317</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171449</v>
+        <v>0.173124</v>
       </c>
       <c r="C115" t="n">
-        <v>0.165427</v>
+        <v>0.164861</v>
       </c>
       <c r="D115" t="n">
-        <v>0.123502</v>
+        <v>0.123136</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.184556</v>
+        <v>0.181417</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173292</v>
+        <v>0.172356</v>
       </c>
       <c r="D116" t="n">
-        <v>0.127594</v>
+        <v>0.126439</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.199694</v>
+        <v>0.195127</v>
       </c>
       <c r="C117" t="n">
-        <v>0.18376</v>
+        <v>0.183896</v>
       </c>
       <c r="D117" t="n">
-        <v>0.132524</v>
+        <v>0.130722</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.215353</v>
+        <v>0.216286</v>
       </c>
       <c r="C118" t="n">
-        <v>0.195506</v>
+        <v>0.19545</v>
       </c>
       <c r="D118" t="n">
-        <v>0.139047</v>
+        <v>0.136167</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237703</v>
+        <v>0.240865</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209418</v>
+        <v>0.211732</v>
       </c>
       <c r="D119" t="n">
-        <v>0.145747</v>
+        <v>0.143674</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273955</v>
+        <v>0.271218</v>
       </c>
       <c r="C120" t="n">
-        <v>0.232463</v>
+        <v>0.228999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.156053</v>
+        <v>0.154221</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.309736</v>
+        <v>0.308975</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257095</v>
+        <v>0.258121</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170329</v>
+        <v>0.168716</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372637</v>
+        <v>0.376767</v>
       </c>
       <c r="C122" t="n">
-        <v>0.303077</v>
+        <v>0.30889</v>
       </c>
       <c r="D122" t="n">
-        <v>0.192926</v>
+        <v>0.191931</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.464198</v>
+        <v>0.469755</v>
       </c>
       <c r="C123" t="n">
-        <v>0.391626</v>
+        <v>0.379856</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232943</v>
+        <v>0.232274</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173816</v>
+        <v>0.171924</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16738</v>
+        <v>0.166838</v>
       </c>
       <c r="D124" t="n">
-        <v>0.135515</v>
+        <v>0.137489</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.17859</v>
+        <v>0.176847</v>
       </c>
       <c r="C125" t="n">
-        <v>0.169442</v>
+        <v>0.170965</v>
       </c>
       <c r="D125" t="n">
-        <v>0.138182</v>
+        <v>0.140263</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1798</v>
+        <v>0.1816</v>
       </c>
       <c r="C126" t="n">
-        <v>0.175932</v>
+        <v>0.177383</v>
       </c>
       <c r="D126" t="n">
-        <v>0.140068</v>
+        <v>0.143104</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.187949</v>
+        <v>0.184819</v>
       </c>
       <c r="C127" t="n">
-        <v>0.18052</v>
+        <v>0.180246</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14192</v>
+        <v>0.14501</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193611</v>
+        <v>0.193408</v>
       </c>
       <c r="C128" t="n">
-        <v>0.187061</v>
+        <v>0.184072</v>
       </c>
       <c r="D128" t="n">
-        <v>0.149865</v>
+        <v>0.145883</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.202187</v>
+        <v>0.200411</v>
       </c>
       <c r="C129" t="n">
-        <v>0.194038</v>
+        <v>0.188689</v>
       </c>
       <c r="D129" t="n">
-        <v>0.150326</v>
+        <v>0.146361</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208932</v>
+        <v>0.20923</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196825</v>
+        <v>0.201378</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153131</v>
+        <v>0.15408</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224915</v>
+        <v>0.226321</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205927</v>
+        <v>0.203383</v>
       </c>
       <c r="D131" t="n">
-        <v>0.154063</v>
+        <v>0.153607</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.238309</v>
+        <v>0.237819</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21913</v>
+        <v>0.216289</v>
       </c>
       <c r="D132" t="n">
-        <v>0.159221</v>
+        <v>0.160331</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257952</v>
+        <v>0.256945</v>
       </c>
       <c r="C133" t="n">
-        <v>0.230232</v>
+        <v>0.231833</v>
       </c>
       <c r="D133" t="n">
-        <v>0.165573</v>
+        <v>0.167109</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292596</v>
+        <v>0.292383</v>
       </c>
       <c r="C134" t="n">
-        <v>0.253502</v>
+        <v>0.25216</v>
       </c>
       <c r="D134" t="n">
-        <v>0.174942</v>
+        <v>0.17596</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.326693</v>
+        <v>0.333162</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27677</v>
+        <v>0.278954</v>
       </c>
       <c r="D135" t="n">
-        <v>0.188413</v>
+        <v>0.18703</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.385171</v>
+        <v>0.395621</v>
       </c>
       <c r="C136" t="n">
-        <v>0.322854</v>
+        <v>0.322045</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20424</v>
+        <v>0.204898</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481371</v>
+        <v>0.479485</v>
       </c>
       <c r="C137" t="n">
-        <v>0.40296</v>
+        <v>0.399487</v>
       </c>
       <c r="D137" t="n">
-        <v>0.240603</v>
+        <v>0.242053</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.317273</v>
+        <v>0.317388</v>
       </c>
       <c r="C138" t="n">
-        <v>0.277069</v>
+        <v>0.276535</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253717</v>
+        <v>0.253124</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319537</v>
+        <v>0.318646</v>
       </c>
       <c r="C139" t="n">
-        <v>0.282245</v>
+        <v>0.280797</v>
       </c>
       <c r="D139" t="n">
-        <v>0.256354</v>
+        <v>0.255654</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.321034</v>
+        <v>0.325694</v>
       </c>
       <c r="C140" t="n">
-        <v>0.284963</v>
+        <v>0.286261</v>
       </c>
       <c r="D140" t="n">
-        <v>0.25696</v>
+        <v>0.256946</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327032</v>
+        <v>0.328586</v>
       </c>
       <c r="C141" t="n">
-        <v>0.28832</v>
+        <v>0.290718</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259286</v>
+        <v>0.262647</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335517</v>
+        <v>0.333659</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293687</v>
+        <v>0.293651</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261723</v>
+        <v>0.264708</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342299</v>
+        <v>0.341599</v>
       </c>
       <c r="C143" t="n">
-        <v>0.298918</v>
+        <v>0.298163</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262984</v>
+        <v>0.263757</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0938589</v>
+        <v>0.0936472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0691078</v>
+        <v>0.0696691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.070726</v>
+        <v>0.0686587</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0982788</v>
+        <v>0.0981288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0702227</v>
+        <v>0.0706859</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0709491</v>
+        <v>0.06913619999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108401</v>
+        <v>0.108561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07324840000000001</v>
+        <v>0.0738094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0718641</v>
+        <v>0.0699564</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12306</v>
+        <v>0.123831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08080619999999999</v>
+        <v>0.080927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0730335</v>
+        <v>0.07108879999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147844</v>
+        <v>0.148275</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09273380000000001</v>
+        <v>0.09611409999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0751368</v>
+        <v>0.07279679999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180913</v>
+        <v>0.181697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112101</v>
+        <v>0.112719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07889110000000001</v>
+        <v>0.0768958</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220785</v>
+        <v>0.221463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.147021</v>
+        <v>0.148706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08924169999999999</v>
+        <v>0.08737060000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.259627</v>
+        <v>0.260909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184864</v>
+        <v>0.184284</v>
       </c>
       <c r="D9" t="n">
-        <v>0.118892</v>
+        <v>0.117048</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0862357</v>
+        <v>0.086539</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06755079999999999</v>
+        <v>0.06787940000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06884079999999999</v>
+        <v>0.06708500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0872763</v>
+        <v>0.087752</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0678409</v>
+        <v>0.06830369999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0691068</v>
+        <v>0.0673207</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08849079999999999</v>
+        <v>0.0889173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0682401</v>
+        <v>0.06858019999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0694318</v>
+        <v>0.0674733</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899779</v>
+        <v>0.09022810000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06852560000000001</v>
+        <v>0.069104</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06971140000000001</v>
+        <v>0.0679944</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09242889999999999</v>
+        <v>0.0927288</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0694449</v>
+        <v>0.06997440000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06995129999999999</v>
+        <v>0.0682849</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09548810000000001</v>
+        <v>0.09585100000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0706526</v>
+        <v>0.07112739999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0705355</v>
+        <v>0.0688521</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100484</v>
+        <v>0.101404</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0734534</v>
+        <v>0.0740849</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0708022</v>
+        <v>0.0694318</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10841</v>
+        <v>0.110924</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0760622</v>
+        <v>0.0769369</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0714191</v>
+        <v>0.07024900000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.119956</v>
+        <v>0.121285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0829923</v>
+        <v>0.0839343</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0727097</v>
+        <v>0.0714134</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134547</v>
+        <v>0.13595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.091475</v>
+        <v>0.09332459999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0750744</v>
+        <v>0.0736884</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154548</v>
+        <v>0.155375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.102691</v>
+        <v>0.104446</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07799879999999999</v>
+        <v>0.07640479999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181624</v>
+        <v>0.183092</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118321</v>
+        <v>0.12014</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0835499</v>
+        <v>0.0821723</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214027</v>
+        <v>0.214702</v>
       </c>
       <c r="C22" t="n">
-        <v>0.148582</v>
+        <v>0.150893</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0970333</v>
+        <v>0.0963984</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.255471</v>
+        <v>0.256851</v>
       </c>
       <c r="C23" t="n">
-        <v>0.187795</v>
+        <v>0.188557</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119434</v>
+        <v>0.118449</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0911888</v>
+        <v>0.091172</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0698602</v>
+        <v>0.0702856</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06981619999999999</v>
+        <v>0.06837260000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923768</v>
+        <v>0.0923303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0702426</v>
+        <v>0.0706203</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0700385</v>
+        <v>0.0685939</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0937887</v>
+        <v>0.09412760000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0709245</v>
+        <v>0.07149659999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0701509</v>
+        <v>0.0688532</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0962176</v>
+        <v>0.0962218</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0717358</v>
+        <v>0.0722023</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07068480000000001</v>
+        <v>0.06923650000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09932489999999999</v>
+        <v>0.0997073</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0729905</v>
+        <v>0.0732843</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0711055</v>
+        <v>0.0695646</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103736</v>
+        <v>0.103689</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0744179</v>
+        <v>0.07514220000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0714977</v>
+        <v>0.0699858</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108754</v>
+        <v>0.109122</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07677680000000001</v>
+        <v>0.0774984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07203900000000001</v>
+        <v>0.0706077</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116766</v>
+        <v>0.116953</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0804636</v>
+        <v>0.0813913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0727964</v>
+        <v>0.0716101</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125726</v>
+        <v>0.126227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.085581</v>
+        <v>0.08672879999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0740228</v>
+        <v>0.0729868</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136967</v>
+        <v>0.137894</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09264020000000001</v>
+        <v>0.09418260000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0759818</v>
+        <v>0.07511619999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155421</v>
+        <v>0.156338</v>
       </c>
       <c r="C34" t="n">
-        <v>0.104449</v>
+        <v>0.10631</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07984280000000001</v>
+        <v>0.079071</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.17935</v>
+        <v>0.180024</v>
       </c>
       <c r="C35" t="n">
-        <v>0.120313</v>
+        <v>0.122768</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0864872</v>
+        <v>0.0856745</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210306</v>
+        <v>0.210629</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143064</v>
+        <v>0.145707</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0974608</v>
+        <v>0.09683120000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.250305</v>
+        <v>0.252102</v>
       </c>
       <c r="C37" t="n">
-        <v>0.194369</v>
+        <v>0.183448</v>
       </c>
       <c r="D37" t="n">
-        <v>0.117487</v>
+        <v>0.117086</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923332</v>
+        <v>0.0921703</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0717098</v>
+        <v>0.07187830000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0710805</v>
+        <v>0.06918729999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0935684</v>
+        <v>0.0934667</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07270160000000001</v>
+        <v>0.0726842</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07113460000000001</v>
+        <v>0.0694712</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0952054</v>
+        <v>0.0950231</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0732377</v>
+        <v>0.0737468</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0715229</v>
+        <v>0.0700214</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0973803</v>
+        <v>0.0972021</v>
       </c>
       <c r="C41" t="n">
-        <v>0.074265</v>
+        <v>0.0749471</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0719138</v>
+        <v>0.0703009</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100359</v>
+        <v>0.100479</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0755097</v>
+        <v>0.0760498</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07232379999999999</v>
+        <v>0.07072630000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104274</v>
+        <v>0.104179</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0776095</v>
+        <v>0.07792640000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0727998</v>
+        <v>0.0711879</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109456</v>
+        <v>0.109101</v>
       </c>
       <c r="C44" t="n">
-        <v>0.079494</v>
+        <v>0.0805017</v>
       </c>
       <c r="D44" t="n">
-        <v>0.073447</v>
+        <v>0.0719291</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115913</v>
+        <v>0.116019</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0827394</v>
+        <v>0.08389290000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0742396</v>
+        <v>0.07303510000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124979</v>
+        <v>0.125038</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0874076</v>
+        <v>0.0886402</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0755001</v>
+        <v>0.0745073</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135991</v>
+        <v>0.13618</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09384530000000001</v>
+        <v>0.09488050000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0772099</v>
+        <v>0.07635690000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150927</v>
+        <v>0.15319</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102498</v>
+        <v>0.104109</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0809154</v>
+        <v>0.0796968</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172834</v>
+        <v>0.173336</v>
       </c>
       <c r="C49" t="n">
-        <v>0.114845</v>
+        <v>0.11718</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08569259999999999</v>
+        <v>0.0851483</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202757</v>
+        <v>0.20362</v>
       </c>
       <c r="C50" t="n">
-        <v>0.133863</v>
+        <v>0.139184</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0939149</v>
+        <v>0.0960488</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244397</v>
+        <v>0.245608</v>
       </c>
       <c r="C51" t="n">
-        <v>0.165408</v>
+        <v>0.168218</v>
       </c>
       <c r="D51" t="n">
-        <v>0.109132</v>
+        <v>0.108461</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.288557</v>
+        <v>0.28952</v>
       </c>
       <c r="C52" t="n">
-        <v>0.217953</v>
+        <v>0.232661</v>
       </c>
       <c r="D52" t="n">
-        <v>0.139676</v>
+        <v>0.138876</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0972138</v>
+        <v>0.0963552</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0755155</v>
+        <v>0.0774262</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0731214</v>
+        <v>0.07190680000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0988594</v>
+        <v>0.09837600000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0774002</v>
+        <v>0.076476</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0746526</v>
+        <v>0.0718719</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101022</v>
+        <v>0.100633</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0774908</v>
+        <v>0.07804990000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.073729</v>
+        <v>0.07281550000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103803</v>
+        <v>0.1036</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0795835</v>
+        <v>0.07928</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07439510000000001</v>
+        <v>0.0727521</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106621</v>
+        <v>0.106915</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0808508</v>
+        <v>0.08121299999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0749568</v>
+        <v>0.0734755</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.114137</v>
+        <v>0.112364</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0832613</v>
+        <v>0.08419790000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0755374</v>
+        <v>0.0747056</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118008</v>
+        <v>0.118796</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0870944</v>
+        <v>0.0871482</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0772359</v>
+        <v>0.07544820000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126459</v>
+        <v>0.126511</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09025030000000001</v>
+        <v>0.09039510000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0779767</v>
+        <v>0.0763186</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137817</v>
+        <v>0.137965</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0959873</v>
+        <v>0.09849670000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07969030000000001</v>
+        <v>0.078235</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.152061</v>
+        <v>0.153033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104026</v>
+        <v>0.10492</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0826508</v>
+        <v>0.0814204</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.173379</v>
+        <v>0.172601</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117096</v>
+        <v>0.117905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08812300000000001</v>
+        <v>0.0862918</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.207032</v>
+        <v>0.201599</v>
       </c>
       <c r="C64" t="n">
-        <v>0.135849</v>
+        <v>0.13709</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0949651</v>
+        <v>0.09431349999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239566</v>
+        <v>0.243853</v>
       </c>
       <c r="C65" t="n">
-        <v>0.164945</v>
+        <v>0.166638</v>
       </c>
       <c r="D65" t="n">
-        <v>0.108432</v>
+        <v>0.107948</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.288223</v>
+        <v>0.287969</v>
       </c>
       <c r="C66" t="n">
-        <v>0.214868</v>
+        <v>0.21317</v>
       </c>
       <c r="D66" t="n">
-        <v>0.133502</v>
+        <v>0.133403</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106778</v>
+        <v>0.107428</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0845916</v>
+        <v>0.08413080000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.081064</v>
+        <v>0.0806018</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108839</v>
+        <v>0.108566</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0859171</v>
+        <v>0.0853698</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08182879999999999</v>
+        <v>0.0801637</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110852</v>
+        <v>0.11089</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08615440000000001</v>
+        <v>0.0882703</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08185439999999999</v>
+        <v>0.0818444</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113508</v>
+        <v>0.113089</v>
       </c>
       <c r="C70" t="n">
-        <v>0.087019</v>
+        <v>0.0883442</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0822581</v>
+        <v>0.0813605</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118828</v>
+        <v>0.116802</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09019249999999999</v>
+        <v>0.09114999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0833782</v>
+        <v>0.0819944</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122499</v>
+        <v>0.121652</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0916223</v>
+        <v>0.093593</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0840125</v>
+        <v>0.0832205</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.129025</v>
+        <v>0.12821</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0960709</v>
+        <v>0.09640020000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0844902</v>
+        <v>0.0846968</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135005</v>
+        <v>0.135204</v>
       </c>
       <c r="C74" t="n">
-        <v>0.100475</v>
+        <v>0.09915980000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08567660000000001</v>
+        <v>0.0857422</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145024</v>
+        <v>0.146077</v>
       </c>
       <c r="C75" t="n">
-        <v>0.106181</v>
+        <v>0.105874</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0875792</v>
+        <v>0.0872856</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.15931</v>
+        <v>0.161242</v>
       </c>
       <c r="C76" t="n">
-        <v>0.112117</v>
+        <v>0.11399</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0897751</v>
+        <v>0.08980970000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.177839</v>
+        <v>0.185702</v>
       </c>
       <c r="C77" t="n">
-        <v>0.123682</v>
+        <v>0.123939</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0938696</v>
+        <v>0.0946861</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.21369</v>
+        <v>0.209454</v>
       </c>
       <c r="C78" t="n">
-        <v>0.139616</v>
+        <v>0.141351</v>
       </c>
       <c r="D78" t="n">
-        <v>0.101574</v>
+        <v>0.102611</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251338</v>
+        <v>0.247808</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174393</v>
+        <v>0.16897</v>
       </c>
       <c r="D79" t="n">
-        <v>0.113608</v>
+        <v>0.114033</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.295181</v>
+        <v>0.298449</v>
       </c>
       <c r="C80" t="n">
-        <v>0.208151</v>
+        <v>0.211153</v>
       </c>
       <c r="D80" t="n">
-        <v>0.136456</v>
+        <v>0.136018</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119854</v>
+        <v>0.120177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09520190000000001</v>
+        <v>0.0948702</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0890055</v>
+        <v>0.0887468</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123098</v>
+        <v>0.121723</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09833600000000001</v>
+        <v>0.0967688</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0898147</v>
+        <v>0.08960129999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123998</v>
+        <v>0.123916</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0978301</v>
+        <v>0.0993976</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0905859</v>
+        <v>0.0902063</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128576</v>
+        <v>0.127156</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101032</v>
+        <v>0.101766</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09171410000000001</v>
+        <v>0.09118759999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.132318</v>
+        <v>0.132002</v>
       </c>
       <c r="C85" t="n">
-        <v>0.103949</v>
+        <v>0.105277</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09265180000000001</v>
+        <v>0.0922157</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.135733</v>
+        <v>0.135675</v>
       </c>
       <c r="C86" t="n">
-        <v>0.108463</v>
+        <v>0.108307</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0939699</v>
+        <v>0.0934231</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142194</v>
+        <v>0.144109</v>
       </c>
       <c r="C87" t="n">
-        <v>0.112283</v>
+        <v>0.11183</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0962577</v>
+        <v>0.09517689999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.15058</v>
+        <v>0.153031</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119944</v>
+        <v>0.119589</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0976944</v>
+        <v>0.09734959999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161694</v>
+        <v>0.162315</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127739</v>
+        <v>0.126426</v>
       </c>
       <c r="D89" t="n">
-        <v>0.101784</v>
+        <v>0.100323</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177026</v>
+        <v>0.180659</v>
       </c>
       <c r="C90" t="n">
-        <v>0.135801</v>
+        <v>0.135477</v>
       </c>
       <c r="D90" t="n">
-        <v>0.105399</v>
+        <v>0.104417</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.202659</v>
+        <v>0.20241</v>
       </c>
       <c r="C91" t="n">
-        <v>0.152318</v>
+        <v>0.149159</v>
       </c>
       <c r="D91" t="n">
-        <v>0.110527</v>
+        <v>0.109961</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.232861</v>
+        <v>0.227325</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167851</v>
+        <v>0.167939</v>
       </c>
       <c r="D92" t="n">
-        <v>0.118767</v>
+        <v>0.118462</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.275836</v>
+        <v>0.274498</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194929</v>
+        <v>0.196507</v>
       </c>
       <c r="D93" t="n">
-        <v>0.131897</v>
+        <v>0.13123</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.325786</v>
+        <v>0.332283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.249414</v>
+        <v>0.239513</v>
       </c>
       <c r="D94" t="n">
-        <v>0.153652</v>
+        <v>0.1533</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134948</v>
+        <v>0.133276</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11631</v>
+        <v>0.117782</v>
       </c>
       <c r="D95" t="n">
-        <v>0.101532</v>
+        <v>0.101292</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136622</v>
+        <v>0.136175</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119425</v>
+        <v>0.119827</v>
       </c>
       <c r="D96" t="n">
-        <v>0.101953</v>
+        <v>0.102651</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139821</v>
+        <v>0.139773</v>
       </c>
       <c r="C97" t="n">
-        <v>0.122886</v>
+        <v>0.123296</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104991</v>
+        <v>0.104344</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14372</v>
+        <v>0.14391</v>
       </c>
       <c r="C98" t="n">
-        <v>0.124042</v>
+        <v>0.127366</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106686</v>
+        <v>0.106546</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148382</v>
+        <v>0.150215</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130542</v>
+        <v>0.131249</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108454</v>
+        <v>0.108338</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156404</v>
+        <v>0.155845</v>
       </c>
       <c r="C100" t="n">
-        <v>0.133365</v>
+        <v>0.135297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110502</v>
+        <v>0.110417</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161168</v>
+        <v>0.163438</v>
       </c>
       <c r="C101" t="n">
-        <v>0.14027</v>
+        <v>0.139387</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112845</v>
+        <v>0.112618</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169501</v>
+        <v>0.172099</v>
       </c>
       <c r="C102" t="n">
-        <v>0.146545</v>
+        <v>0.146311</v>
       </c>
       <c r="D102" t="n">
-        <v>0.115363</v>
+        <v>0.115376</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180974</v>
+        <v>0.183442</v>
       </c>
       <c r="C103" t="n">
-        <v>0.154616</v>
+        <v>0.15461</v>
       </c>
       <c r="D103" t="n">
-        <v>0.118056</v>
+        <v>0.118308</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.198805</v>
+        <v>0.195609</v>
       </c>
       <c r="C104" t="n">
-        <v>0.164886</v>
+        <v>0.167222</v>
       </c>
       <c r="D104" t="n">
-        <v>0.121891</v>
+        <v>0.122384</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.218645</v>
+        <v>0.215724</v>
       </c>
       <c r="C105" t="n">
-        <v>0.183266</v>
+        <v>0.180766</v>
       </c>
       <c r="D105" t="n">
-        <v>0.12726</v>
+        <v>0.127702</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.244277</v>
+        <v>0.244288</v>
       </c>
       <c r="C106" t="n">
-        <v>0.205382</v>
+        <v>0.202169</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1356</v>
+        <v>0.13597</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286352</v>
+        <v>0.294331</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237727</v>
+        <v>0.232424</v>
       </c>
       <c r="D107" t="n">
-        <v>0.148874</v>
+        <v>0.149087</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.357424</v>
+        <v>0.350995</v>
       </c>
       <c r="C108" t="n">
-        <v>0.279292</v>
+        <v>0.280957</v>
       </c>
       <c r="D108" t="n">
-        <v>0.169874</v>
+        <v>0.171506</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.445023</v>
+        <v>0.446097</v>
       </c>
       <c r="C109" t="n">
-        <v>0.372616</v>
+        <v>0.359749</v>
       </c>
       <c r="D109" t="n">
-        <v>0.215748</v>
+        <v>0.216107</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146808</v>
+        <v>0.145496</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1401</v>
+        <v>0.140316</v>
       </c>
       <c r="D110" t="n">
-        <v>0.112645</v>
+        <v>0.111896</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149534</v>
+        <v>0.149863</v>
       </c>
       <c r="C111" t="n">
-        <v>0.143487</v>
+        <v>0.14429</v>
       </c>
       <c r="D111" t="n">
-        <v>0.113614</v>
+        <v>0.113566</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15221</v>
+        <v>0.153925</v>
       </c>
       <c r="C112" t="n">
-        <v>0.148202</v>
+        <v>0.149248</v>
       </c>
       <c r="D112" t="n">
-        <v>0.116194</v>
+        <v>0.115413</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.157027</v>
+        <v>0.157761</v>
       </c>
       <c r="C113" t="n">
-        <v>0.152653</v>
+        <v>0.155868</v>
       </c>
       <c r="D113" t="n">
-        <v>0.118026</v>
+        <v>0.118195</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165055</v>
+        <v>0.165532</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159619</v>
+        <v>0.160342</v>
       </c>
       <c r="D114" t="n">
-        <v>0.120317</v>
+        <v>0.121588</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.173124</v>
+        <v>0.176626</v>
       </c>
       <c r="C115" t="n">
-        <v>0.164861</v>
+        <v>0.168223</v>
       </c>
       <c r="D115" t="n">
-        <v>0.123136</v>
+        <v>0.125471</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.181417</v>
+        <v>0.189051</v>
       </c>
       <c r="C116" t="n">
-        <v>0.172356</v>
+        <v>0.176135</v>
       </c>
       <c r="D116" t="n">
-        <v>0.126439</v>
+        <v>0.130162</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.195127</v>
+        <v>0.203684</v>
       </c>
       <c r="C117" t="n">
-        <v>0.183896</v>
+        <v>0.185381</v>
       </c>
       <c r="D117" t="n">
-        <v>0.130722</v>
+        <v>0.135141</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216286</v>
+        <v>0.221845</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19545</v>
+        <v>0.196027</v>
       </c>
       <c r="D118" t="n">
-        <v>0.136167</v>
+        <v>0.141201</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240865</v>
+        <v>0.24496</v>
       </c>
       <c r="C119" t="n">
-        <v>0.211732</v>
+        <v>0.210697</v>
       </c>
       <c r="D119" t="n">
-        <v>0.143674</v>
+        <v>0.148325</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.271218</v>
+        <v>0.272344</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228999</v>
+        <v>0.230783</v>
       </c>
       <c r="D120" t="n">
-        <v>0.154221</v>
+        <v>0.157809</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.308975</v>
+        <v>0.311204</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258121</v>
+        <v>0.263427</v>
       </c>
       <c r="D121" t="n">
-        <v>0.168716</v>
+        <v>0.171215</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.376767</v>
+        <v>0.380075</v>
       </c>
       <c r="C122" t="n">
-        <v>0.30889</v>
+        <v>0.30499</v>
       </c>
       <c r="D122" t="n">
-        <v>0.191931</v>
+        <v>0.193121</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.469755</v>
+        <v>0.469935</v>
       </c>
       <c r="C123" t="n">
-        <v>0.379856</v>
+        <v>0.394492</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232274</v>
+        <v>0.232874</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171924</v>
+        <v>0.171136</v>
       </c>
       <c r="C124" t="n">
-        <v>0.166838</v>
+        <v>0.166306</v>
       </c>
       <c r="D124" t="n">
-        <v>0.137489</v>
+        <v>0.136491</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.176847</v>
+        <v>0.175274</v>
       </c>
       <c r="C125" t="n">
-        <v>0.170965</v>
+        <v>0.172891</v>
       </c>
       <c r="D125" t="n">
-        <v>0.140263</v>
+        <v>0.138599</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1816</v>
+        <v>0.179862</v>
       </c>
       <c r="C126" t="n">
-        <v>0.177383</v>
+        <v>0.175866</v>
       </c>
       <c r="D126" t="n">
-        <v>0.143104</v>
+        <v>0.139354</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184819</v>
+        <v>0.184909</v>
       </c>
       <c r="C127" t="n">
-        <v>0.180246</v>
+        <v>0.179792</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14501</v>
+        <v>0.141918</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193408</v>
+        <v>0.191822</v>
       </c>
       <c r="C128" t="n">
-        <v>0.184072</v>
+        <v>0.185951</v>
       </c>
       <c r="D128" t="n">
-        <v>0.145883</v>
+        <v>0.145172</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.200411</v>
+        <v>0.200792</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188689</v>
+        <v>0.191786</v>
       </c>
       <c r="D129" t="n">
-        <v>0.146361</v>
+        <v>0.146969</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.20923</v>
+        <v>0.211138</v>
       </c>
       <c r="C130" t="n">
-        <v>0.201378</v>
+        <v>0.197182</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15408</v>
+        <v>0.15216</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.226321</v>
+        <v>0.221979</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203383</v>
+        <v>0.207713</v>
       </c>
       <c r="D131" t="n">
-        <v>0.153607</v>
+        <v>0.155061</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.237819</v>
+        <v>0.236976</v>
       </c>
       <c r="C132" t="n">
-        <v>0.216289</v>
+        <v>0.218538</v>
       </c>
       <c r="D132" t="n">
-        <v>0.160331</v>
+        <v>0.158367</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.256945</v>
+        <v>0.259262</v>
       </c>
       <c r="C133" t="n">
-        <v>0.231833</v>
+        <v>0.233652</v>
       </c>
       <c r="D133" t="n">
-        <v>0.167109</v>
+        <v>0.166003</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292383</v>
+        <v>0.296652</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25216</v>
+        <v>0.255309</v>
       </c>
       <c r="D134" t="n">
-        <v>0.17596</v>
+        <v>0.174177</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.333162</v>
+        <v>0.326502</v>
       </c>
       <c r="C135" t="n">
-        <v>0.278954</v>
+        <v>0.283404</v>
       </c>
       <c r="D135" t="n">
-        <v>0.18703</v>
+        <v>0.187282</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.395621</v>
+        <v>0.386658</v>
       </c>
       <c r="C136" t="n">
-        <v>0.322045</v>
+        <v>0.321605</v>
       </c>
       <c r="D136" t="n">
-        <v>0.204898</v>
+        <v>0.20445</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.479485</v>
+        <v>0.482551</v>
       </c>
       <c r="C137" t="n">
-        <v>0.399487</v>
+        <v>0.39192</v>
       </c>
       <c r="D137" t="n">
-        <v>0.242053</v>
+        <v>0.239002</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.317388</v>
+        <v>0.31733</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276535</v>
+        <v>0.281688</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253124</v>
+        <v>0.256122</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318646</v>
+        <v>0.322027</v>
       </c>
       <c r="C139" t="n">
-        <v>0.280797</v>
+        <v>0.285422</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255654</v>
+        <v>0.257273</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.325694</v>
+        <v>0.323407</v>
       </c>
       <c r="C140" t="n">
-        <v>0.286261</v>
+        <v>0.28932</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256946</v>
+        <v>0.260613</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328586</v>
+        <v>0.334421</v>
       </c>
       <c r="C141" t="n">
-        <v>0.290718</v>
+        <v>0.291948</v>
       </c>
       <c r="D141" t="n">
-        <v>0.262647</v>
+        <v>0.259309</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333659</v>
+        <v>0.337238</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293651</v>
+        <v>0.296757</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264708</v>
+        <v>0.262703</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.341599</v>
+        <v>0.343509</v>
       </c>
       <c r="C143" t="n">
-        <v>0.298163</v>
+        <v>0.301869</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263757</v>
+        <v>0.266528</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0936472</v>
+        <v>0.0936603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0696691</v>
+        <v>0.06947979999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0686587</v>
+        <v>0.0686235</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0981288</v>
+        <v>0.09848369999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0706859</v>
+        <v>0.0708915</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06913619999999999</v>
+        <v>0.0691901</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108561</v>
+        <v>0.108829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0738094</v>
+        <v>0.07392650000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0699564</v>
+        <v>0.0700076</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123831</v>
+        <v>0.123734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.080927</v>
+        <v>0.08129400000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07108879999999999</v>
+        <v>0.071089</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148275</v>
+        <v>0.14867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09611409999999999</v>
+        <v>0.0937735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07279679999999999</v>
+        <v>0.0727545</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181697</v>
+        <v>0.181842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112719</v>
+        <v>0.117251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0768958</v>
+        <v>0.0768819</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221463</v>
+        <v>0.221278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.148706</v>
+        <v>0.149268</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08737060000000001</v>
+        <v>0.0875674</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260909</v>
+        <v>0.260185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184284</v>
+        <v>0.184727</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117048</v>
+        <v>0.116762</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.086539</v>
+        <v>0.0865958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06787940000000001</v>
+        <v>0.0678945</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06708500000000001</v>
+        <v>0.067079</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.087752</v>
+        <v>0.0877029</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06830369999999999</v>
+        <v>0.0682854</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0673207</v>
+        <v>0.0673033</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0889173</v>
+        <v>0.0889037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06858019999999999</v>
+        <v>0.0686281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0674733</v>
+        <v>0.06766560000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09022810000000001</v>
+        <v>0.0903123</v>
       </c>
       <c r="C13" t="n">
-        <v>0.069104</v>
+        <v>0.06919069999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0679944</v>
+        <v>0.06798129999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0927288</v>
+        <v>0.09275029999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06997440000000001</v>
+        <v>0.07005260000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0682849</v>
+        <v>0.068089</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09585100000000001</v>
+        <v>0.0959385</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07112739999999999</v>
+        <v>0.0711946</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0688521</v>
+        <v>0.0688555</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101404</v>
+        <v>0.101444</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0740849</v>
+        <v>0.0741358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0694318</v>
+        <v>0.0693129</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110924</v>
+        <v>0.109711</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0769369</v>
+        <v>0.07803839999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07024900000000001</v>
+        <v>0.0703328</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.121285</v>
+        <v>0.12127</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0839343</v>
+        <v>0.0852247</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0714134</v>
+        <v>0.0716873</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13595</v>
+        <v>0.136072</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09332459999999999</v>
+        <v>0.09438390000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0736884</v>
+        <v>0.0734697</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155375</v>
+        <v>0.156131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104446</v>
+        <v>0.104356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07640479999999999</v>
+        <v>0.0767205</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183092</v>
+        <v>0.183203</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12014</v>
+        <v>0.120144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0821723</v>
+        <v>0.0822321</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214702</v>
+        <v>0.21534</v>
       </c>
       <c r="C22" t="n">
-        <v>0.150893</v>
+        <v>0.150865</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0963984</v>
+        <v>0.0965662</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.256851</v>
+        <v>0.256677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188557</v>
+        <v>0.188567</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118449</v>
+        <v>0.118418</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.091172</v>
+        <v>0.09123100000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0702856</v>
+        <v>0.07041840000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06837260000000001</v>
+        <v>0.06835860000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923303</v>
+        <v>0.092401</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0706203</v>
+        <v>0.07075629999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0685939</v>
+        <v>0.06865930000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09412760000000001</v>
+        <v>0.0941022</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07149659999999999</v>
+        <v>0.07142179999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0688532</v>
+        <v>0.068879</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0962218</v>
+        <v>0.09641329999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0722023</v>
+        <v>0.0721783</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06923650000000001</v>
+        <v>0.0692974</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0997073</v>
+        <v>0.0996249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0732843</v>
+        <v>0.0734095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0695646</v>
+        <v>0.06959799999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103689</v>
+        <v>0.103693</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07514220000000001</v>
+        <v>0.07496940000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0699858</v>
+        <v>0.07010479999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109122</v>
+        <v>0.109198</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0774984</v>
+        <v>0.0775264</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0706077</v>
+        <v>0.07059840000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116953</v>
+        <v>0.116944</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0813913</v>
+        <v>0.081215</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0716101</v>
+        <v>0.071606</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.126227</v>
+        <v>0.126283</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08672879999999999</v>
+        <v>0.0865517</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0729868</v>
+        <v>0.0729469</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137894</v>
+        <v>0.137951</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09418260000000001</v>
+        <v>0.09441190000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07511619999999999</v>
+        <v>0.0751778</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.156338</v>
+        <v>0.156305</v>
       </c>
       <c r="C34" t="n">
-        <v>0.10631</v>
+        <v>0.106613</v>
       </c>
       <c r="D34" t="n">
-        <v>0.079071</v>
+        <v>0.0790525</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180024</v>
+        <v>0.180042</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122768</v>
+        <v>0.122927</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0856745</v>
+        <v>0.08568679999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210629</v>
+        <v>0.210803</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145707</v>
+        <v>0.145813</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09683120000000001</v>
+        <v>0.0968846</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.252102</v>
+        <v>0.252232</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183448</v>
+        <v>0.183236</v>
       </c>
       <c r="D37" t="n">
-        <v>0.117086</v>
+        <v>0.117133</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0921703</v>
+        <v>0.0923485</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07187830000000001</v>
+        <v>0.0726957</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06918729999999999</v>
+        <v>0.069413</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0934667</v>
+        <v>0.09351569999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0726842</v>
+        <v>0.0743563</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0694712</v>
+        <v>0.06963129999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0950231</v>
+        <v>0.0950949</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0737468</v>
+        <v>0.0737937</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0700214</v>
+        <v>0.06986580000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0972021</v>
+        <v>0.0971453</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0749471</v>
+        <v>0.0751758</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0703009</v>
+        <v>0.0704461</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100479</v>
+        <v>0.1004</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0760498</v>
+        <v>0.0775914</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07072630000000001</v>
+        <v>0.0707841</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104179</v>
+        <v>0.104269</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07792640000000001</v>
+        <v>0.0783098</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0711879</v>
+        <v>0.07127029999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109101</v>
+        <v>0.109214</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0805017</v>
+        <v>0.0806331</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0719291</v>
+        <v>0.0719921</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116019</v>
+        <v>0.116061</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08389290000000001</v>
+        <v>0.0840553</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07303510000000001</v>
+        <v>0.0730132</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125038</v>
+        <v>0.12509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886402</v>
+        <v>0.0888376</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0745073</v>
+        <v>0.0747983</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.13618</v>
+        <v>0.136411</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09488050000000001</v>
+        <v>0.0949996</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07635690000000001</v>
+        <v>0.0763615</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15319</v>
+        <v>0.151206</v>
       </c>
       <c r="C48" t="n">
-        <v>0.104109</v>
+        <v>0.104217</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0796968</v>
+        <v>0.07971060000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173336</v>
+        <v>0.173143</v>
       </c>
       <c r="C49" t="n">
-        <v>0.11718</v>
+        <v>0.117445</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0851483</v>
+        <v>0.08497780000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.20362</v>
+        <v>0.203632</v>
       </c>
       <c r="C50" t="n">
-        <v>0.139184</v>
+        <v>0.137117</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0960488</v>
+        <v>0.0933619</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.245608</v>
+        <v>0.244436</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168218</v>
+        <v>0.168056</v>
       </c>
       <c r="D51" t="n">
-        <v>0.108461</v>
+        <v>0.108424</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.28952</v>
+        <v>0.289033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232661</v>
+        <v>0.218368</v>
       </c>
       <c r="D52" t="n">
-        <v>0.138876</v>
+        <v>0.138935</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0963552</v>
+        <v>0.0968748</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0774262</v>
+        <v>0.0761367</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07190680000000001</v>
+        <v>0.0717629</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09837600000000001</v>
+        <v>0.09807349999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.076476</v>
+        <v>0.0772389</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0718719</v>
+        <v>0.0723521</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100633</v>
+        <v>0.10087</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07804990000000001</v>
+        <v>0.0780484</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07281550000000001</v>
+        <v>0.0729983</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1036</v>
+        <v>0.103459</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07928</v>
+        <v>0.0794241</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0727521</v>
+        <v>0.0732192</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106915</v>
+        <v>0.107165</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08121299999999999</v>
+        <v>0.0813987</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0734755</v>
+        <v>0.0732966</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112364</v>
+        <v>0.111426</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08419790000000001</v>
+        <v>0.0844389</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0747056</v>
+        <v>0.0744032</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118796</v>
+        <v>0.118255</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0871482</v>
+        <v>0.0882298</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07544820000000001</v>
+        <v>0.075215</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126511</v>
+        <v>0.126693</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09039510000000001</v>
+        <v>0.091892</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0763186</v>
+        <v>0.07702199999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137965</v>
+        <v>0.136934</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09849670000000001</v>
+        <v>0.0989251</v>
       </c>
       <c r="D61" t="n">
-        <v>0.078235</v>
+        <v>0.0795336</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.153033</v>
+        <v>0.155062</v>
       </c>
       <c r="C62" t="n">
-        <v>0.10492</v>
+        <v>0.105477</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0814204</v>
+        <v>0.08164589999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172601</v>
+        <v>0.172903</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117905</v>
+        <v>0.123048</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0862918</v>
+        <v>0.0866099</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201599</v>
+        <v>0.200001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.13709</v>
+        <v>0.137286</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09431349999999999</v>
+        <v>0.0945696</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243853</v>
+        <v>0.240902</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166638</v>
+        <v>0.166659</v>
       </c>
       <c r="D65" t="n">
-        <v>0.107948</v>
+        <v>0.107075</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.287969</v>
+        <v>0.287718</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21317</v>
+        <v>0.212372</v>
       </c>
       <c r="D66" t="n">
-        <v>0.133403</v>
+        <v>0.133803</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107428</v>
+        <v>0.108054</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08413080000000001</v>
+        <v>0.0850176</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0806018</v>
+        <v>0.0804358</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108566</v>
+        <v>0.11003</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0853698</v>
+        <v>0.0864323</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0801637</v>
+        <v>0.0815323</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11089</v>
+        <v>0.111517</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0882703</v>
+        <v>0.0877068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0818444</v>
+        <v>0.08259080000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113089</v>
+        <v>0.113485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0883442</v>
+        <v>0.0883053</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0813605</v>
+        <v>0.0824447</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.116802</v>
+        <v>0.117076</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09114999999999999</v>
+        <v>0.0912263</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0819944</v>
+        <v>0.0834225</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121652</v>
+        <v>0.121706</v>
       </c>
       <c r="C72" t="n">
-        <v>0.093593</v>
+        <v>0.0928971</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0832205</v>
+        <v>0.0837234</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.12821</v>
+        <v>0.127765</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09640020000000001</v>
+        <v>0.095389</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0846968</v>
+        <v>0.08447440000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135204</v>
+        <v>0.13609</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09915980000000001</v>
+        <v>0.10017</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0857422</v>
+        <v>0.0857103</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.146077</v>
+        <v>0.147691</v>
       </c>
       <c r="C75" t="n">
-        <v>0.105874</v>
+        <v>0.105765</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0872856</v>
+        <v>0.0874883</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.161242</v>
+        <v>0.160077</v>
       </c>
       <c r="C76" t="n">
-        <v>0.11399</v>
+        <v>0.113061</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08980970000000001</v>
+        <v>0.090544</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.185702</v>
+        <v>0.180648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.123939</v>
+        <v>0.124437</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0946861</v>
+        <v>0.09448040000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.209454</v>
+        <v>0.207445</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141351</v>
+        <v>0.141364</v>
       </c>
       <c r="D78" t="n">
-        <v>0.102611</v>
+        <v>0.102548</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.247808</v>
+        <v>0.244102</v>
       </c>
       <c r="C79" t="n">
-        <v>0.16897</v>
+        <v>0.167893</v>
       </c>
       <c r="D79" t="n">
-        <v>0.114033</v>
+        <v>0.113361</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.298449</v>
+        <v>0.295725</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211153</v>
+        <v>0.211177</v>
       </c>
       <c r="D80" t="n">
-        <v>0.136018</v>
+        <v>0.134805</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120177</v>
+        <v>0.120106</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0948702</v>
+        <v>0.096313</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0887468</v>
+        <v>0.0893719</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121723</v>
+        <v>0.122052</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0967688</v>
+        <v>0.09866999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08960129999999999</v>
+        <v>0.0899055</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123916</v>
+        <v>0.124027</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0993976</v>
+        <v>0.09810770000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0902063</v>
+        <v>0.0895581</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127156</v>
+        <v>0.128367</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101766</v>
+        <v>0.101029</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09118759999999999</v>
+        <v>0.090045</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.132002</v>
+        <v>0.130906</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105277</v>
+        <v>0.104592</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0922157</v>
+        <v>0.09260450000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.135675</v>
+        <v>0.135747</v>
       </c>
       <c r="C86" t="n">
-        <v>0.108307</v>
+        <v>0.108799</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0934231</v>
+        <v>0.09266149999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.144109</v>
+        <v>0.142511</v>
       </c>
       <c r="C87" t="n">
-        <v>0.11183</v>
+        <v>0.111528</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09517689999999999</v>
+        <v>0.09435200000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.153031</v>
+        <v>0.15084</v>
       </c>
       <c r="C88" t="n">
-        <v>0.119589</v>
+        <v>0.117937</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09734959999999999</v>
+        <v>0.0965072</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.162315</v>
+        <v>0.162868</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126426</v>
+        <v>0.125732</v>
       </c>
       <c r="D89" t="n">
-        <v>0.100323</v>
+        <v>0.100619</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180659</v>
+        <v>0.179186</v>
       </c>
       <c r="C90" t="n">
-        <v>0.135477</v>
+        <v>0.134856</v>
       </c>
       <c r="D90" t="n">
-        <v>0.104417</v>
+        <v>0.103239</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.20241</v>
+        <v>0.203162</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149159</v>
+        <v>0.149009</v>
       </c>
       <c r="D91" t="n">
-        <v>0.109961</v>
+        <v>0.110432</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.227325</v>
+        <v>0.227112</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167939</v>
+        <v>0.168519</v>
       </c>
       <c r="D92" t="n">
-        <v>0.118462</v>
+        <v>0.119181</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.274498</v>
+        <v>0.274594</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196507</v>
+        <v>0.196154</v>
       </c>
       <c r="D93" t="n">
-        <v>0.13123</v>
+        <v>0.131336</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332283</v>
+        <v>0.331409</v>
       </c>
       <c r="C94" t="n">
-        <v>0.239513</v>
+        <v>0.239105</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1533</v>
+        <v>0.153068</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133276</v>
+        <v>0.133731</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117782</v>
+        <v>0.11798</v>
       </c>
       <c r="D95" t="n">
-        <v>0.101292</v>
+        <v>0.10024</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136175</v>
+        <v>0.136611</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119827</v>
+        <v>0.120642</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102651</v>
+        <v>0.101535</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139773</v>
+        <v>0.139921</v>
       </c>
       <c r="C97" t="n">
-        <v>0.123296</v>
+        <v>0.123814</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104344</v>
+        <v>0.10488</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14391</v>
+        <v>0.144049</v>
       </c>
       <c r="C98" t="n">
-        <v>0.127366</v>
+        <v>0.127163</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106546</v>
+        <v>0.106896</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.150215</v>
+        <v>0.148756</v>
       </c>
       <c r="C99" t="n">
-        <v>0.131249</v>
+        <v>0.13104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108338</v>
+        <v>0.108595</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155845</v>
+        <v>0.155116</v>
       </c>
       <c r="C100" t="n">
-        <v>0.135297</v>
+        <v>0.132301</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110417</v>
+        <v>0.108893</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163438</v>
+        <v>0.161825</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139387</v>
+        <v>0.141322</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112618</v>
+        <v>0.112793</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.172099</v>
+        <v>0.170137</v>
       </c>
       <c r="C102" t="n">
-        <v>0.146311</v>
+        <v>0.147206</v>
       </c>
       <c r="D102" t="n">
-        <v>0.115376</v>
+        <v>0.115719</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183442</v>
+        <v>0.181186</v>
       </c>
       <c r="C103" t="n">
-        <v>0.15461</v>
+        <v>0.156028</v>
       </c>
       <c r="D103" t="n">
-        <v>0.118308</v>
+        <v>0.118809</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.195609</v>
+        <v>0.199855</v>
       </c>
       <c r="C104" t="n">
-        <v>0.167222</v>
+        <v>0.163428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.122384</v>
+        <v>0.12055</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215724</v>
+        <v>0.2208</v>
       </c>
       <c r="C105" t="n">
-        <v>0.180766</v>
+        <v>0.182176</v>
       </c>
       <c r="D105" t="n">
-        <v>0.127702</v>
+        <v>0.128322</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.244288</v>
+        <v>0.252345</v>
       </c>
       <c r="C106" t="n">
-        <v>0.202169</v>
+        <v>0.203545</v>
       </c>
       <c r="D106" t="n">
-        <v>0.13597</v>
+        <v>0.136793</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.294331</v>
+        <v>0.287838</v>
       </c>
       <c r="C107" t="n">
-        <v>0.232424</v>
+        <v>0.23538</v>
       </c>
       <c r="D107" t="n">
-        <v>0.149087</v>
+        <v>0.147037</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.350995</v>
+        <v>0.358774</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280957</v>
+        <v>0.282272</v>
       </c>
       <c r="D108" t="n">
-        <v>0.171506</v>
+        <v>0.172173</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.446097</v>
+        <v>0.448323</v>
       </c>
       <c r="C109" t="n">
-        <v>0.359749</v>
+        <v>0.354155</v>
       </c>
       <c r="D109" t="n">
-        <v>0.216107</v>
+        <v>0.214098</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145496</v>
+        <v>0.145576</v>
       </c>
       <c r="C110" t="n">
-        <v>0.140316</v>
+        <v>0.141232</v>
       </c>
       <c r="D110" t="n">
-        <v>0.111896</v>
+        <v>0.112135</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149863</v>
+        <v>0.148727</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14429</v>
+        <v>0.146507</v>
       </c>
       <c r="D111" t="n">
-        <v>0.113566</v>
+        <v>0.113744</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153925</v>
+        <v>0.152596</v>
       </c>
       <c r="C112" t="n">
-        <v>0.149248</v>
+        <v>0.150269</v>
       </c>
       <c r="D112" t="n">
-        <v>0.115413</v>
+        <v>0.115588</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.157761</v>
+        <v>0.157329</v>
       </c>
       <c r="C113" t="n">
-        <v>0.155868</v>
+        <v>0.154843</v>
       </c>
       <c r="D113" t="n">
-        <v>0.118195</v>
+        <v>0.117916</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165532</v>
+        <v>0.165584</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160342</v>
+        <v>0.160704</v>
       </c>
       <c r="D114" t="n">
-        <v>0.121588</v>
+        <v>0.121033</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.176626</v>
+        <v>0.172172</v>
       </c>
       <c r="C115" t="n">
-        <v>0.168223</v>
+        <v>0.16654</v>
       </c>
       <c r="D115" t="n">
-        <v>0.125471</v>
+        <v>0.123998</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.189051</v>
+        <v>0.184414</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176135</v>
+        <v>0.174174</v>
       </c>
       <c r="D116" t="n">
-        <v>0.130162</v>
+        <v>0.12734</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203684</v>
+        <v>0.199499</v>
       </c>
       <c r="C117" t="n">
-        <v>0.185381</v>
+        <v>0.183847</v>
       </c>
       <c r="D117" t="n">
-        <v>0.135141</v>
+        <v>0.131736</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.221845</v>
+        <v>0.213786</v>
       </c>
       <c r="C118" t="n">
-        <v>0.196027</v>
+        <v>0.195327</v>
       </c>
       <c r="D118" t="n">
-        <v>0.141201</v>
+        <v>0.136736</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.24496</v>
+        <v>0.241773</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210697</v>
+        <v>0.210077</v>
       </c>
       <c r="D119" t="n">
-        <v>0.148325</v>
+        <v>0.144475</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272344</v>
+        <v>0.273599</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230783</v>
+        <v>0.229771</v>
       </c>
       <c r="D120" t="n">
-        <v>0.157809</v>
+        <v>0.153666</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.311204</v>
+        <v>0.317196</v>
       </c>
       <c r="C121" t="n">
-        <v>0.263427</v>
+        <v>0.258169</v>
       </c>
       <c r="D121" t="n">
-        <v>0.171215</v>
+        <v>0.168993</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.380075</v>
+        <v>0.381109</v>
       </c>
       <c r="C122" t="n">
-        <v>0.30499</v>
+        <v>0.30502</v>
       </c>
       <c r="D122" t="n">
-        <v>0.193121</v>
+        <v>0.192205</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.469935</v>
+        <v>0.471404</v>
       </c>
       <c r="C123" t="n">
-        <v>0.394492</v>
+        <v>0.382725</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232874</v>
+        <v>0.232121</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171136</v>
+        <v>0.17535</v>
       </c>
       <c r="C124" t="n">
-        <v>0.166306</v>
+        <v>0.167374</v>
       </c>
       <c r="D124" t="n">
-        <v>0.136491</v>
+        <v>0.13559</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.175274</v>
+        <v>0.176981</v>
       </c>
       <c r="C125" t="n">
-        <v>0.172891</v>
+        <v>0.17812</v>
       </c>
       <c r="D125" t="n">
-        <v>0.138599</v>
+        <v>0.137624</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179862</v>
+        <v>0.181893</v>
       </c>
       <c r="C126" t="n">
-        <v>0.175866</v>
+        <v>0.177651</v>
       </c>
       <c r="D126" t="n">
-        <v>0.139354</v>
+        <v>0.139309</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184909</v>
+        <v>0.184566</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179792</v>
+        <v>0.183478</v>
       </c>
       <c r="D127" t="n">
-        <v>0.141918</v>
+        <v>0.143981</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.191822</v>
+        <v>0.191337</v>
       </c>
       <c r="C128" t="n">
-        <v>0.185951</v>
+        <v>0.185619</v>
       </c>
       <c r="D128" t="n">
-        <v>0.145172</v>
+        <v>0.145865</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.200792</v>
+        <v>0.202227</v>
       </c>
       <c r="C129" t="n">
-        <v>0.191786</v>
+        <v>0.190876</v>
       </c>
       <c r="D129" t="n">
-        <v>0.146969</v>
+        <v>0.148068</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211138</v>
+        <v>0.20976</v>
       </c>
       <c r="C130" t="n">
-        <v>0.197182</v>
+        <v>0.200022</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15216</v>
+        <v>0.153658</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.221979</v>
+        <v>0.224851</v>
       </c>
       <c r="C131" t="n">
-        <v>0.207713</v>
+        <v>0.207519</v>
       </c>
       <c r="D131" t="n">
-        <v>0.155061</v>
+        <v>0.156546</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236976</v>
+        <v>0.247218</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218538</v>
+        <v>0.22027</v>
       </c>
       <c r="D132" t="n">
-        <v>0.158367</v>
+        <v>0.163002</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259262</v>
+        <v>0.257023</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233652</v>
+        <v>0.233986</v>
       </c>
       <c r="D133" t="n">
-        <v>0.166003</v>
+        <v>0.173143</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.296652</v>
+        <v>0.296191</v>
       </c>
       <c r="C134" t="n">
-        <v>0.255309</v>
+        <v>0.254126</v>
       </c>
       <c r="D134" t="n">
-        <v>0.174177</v>
+        <v>0.173839</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.326502</v>
+        <v>0.32868</v>
       </c>
       <c r="C135" t="n">
-        <v>0.283404</v>
+        <v>0.282746</v>
       </c>
       <c r="D135" t="n">
-        <v>0.187282</v>
+        <v>0.186606</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.386658</v>
+        <v>0.389087</v>
       </c>
       <c r="C136" t="n">
-        <v>0.321605</v>
+        <v>0.322506</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20445</v>
+        <v>0.208885</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482551</v>
+        <v>0.487608</v>
       </c>
       <c r="C137" t="n">
-        <v>0.39192</v>
+        <v>0.395589</v>
       </c>
       <c r="D137" t="n">
-        <v>0.239002</v>
+        <v>0.240699</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.31733</v>
+        <v>0.318221</v>
       </c>
       <c r="C138" t="n">
-        <v>0.281688</v>
+        <v>0.282224</v>
       </c>
       <c r="D138" t="n">
-        <v>0.256122</v>
+        <v>0.255766</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.322027</v>
+        <v>0.321173</v>
       </c>
       <c r="C139" t="n">
-        <v>0.285422</v>
+        <v>0.287295</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257273</v>
+        <v>0.259782</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323407</v>
+        <v>0.329322</v>
       </c>
       <c r="C140" t="n">
-        <v>0.28932</v>
+        <v>0.289727</v>
       </c>
       <c r="D140" t="n">
-        <v>0.260613</v>
+        <v>0.258652</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.334421</v>
+        <v>0.332658</v>
       </c>
       <c r="C141" t="n">
-        <v>0.291948</v>
+        <v>0.293744</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259309</v>
+        <v>0.261038</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.337238</v>
+        <v>0.336835</v>
       </c>
       <c r="C142" t="n">
-        <v>0.296757</v>
+        <v>0.297892</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262703</v>
+        <v>0.263329</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.343509</v>
+        <v>0.342196</v>
       </c>
       <c r="C143" t="n">
-        <v>0.301869</v>
+        <v>0.304324</v>
       </c>
       <c r="D143" t="n">
-        <v>0.266528</v>
+        <v>0.266916</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0936603</v>
+        <v>0.09374689999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06947979999999999</v>
+        <v>0.06964679999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0686235</v>
+        <v>0.0712491</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09848369999999999</v>
+        <v>0.09843449999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0708915</v>
+        <v>0.0707541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0691901</v>
+        <v>0.07155359999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108829</v>
+        <v>0.108682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07392650000000001</v>
+        <v>0.0746975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0700076</v>
+        <v>0.0724431</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123734</v>
+        <v>0.123762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08129400000000001</v>
+        <v>0.08132350000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.071089</v>
+        <v>0.0739305</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.14867</v>
+        <v>0.148837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0937735</v>
+        <v>0.09376520000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0727545</v>
+        <v>0.07536760000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181842</v>
+        <v>0.181803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117251</v>
+        <v>0.112618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0768819</v>
+        <v>0.0798859</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221278</v>
+        <v>0.221551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.149268</v>
+        <v>0.148677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0875674</v>
+        <v>0.09020060000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260185</v>
+        <v>0.26057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184727</v>
+        <v>0.184673</v>
       </c>
       <c r="D9" t="n">
-        <v>0.116762</v>
+        <v>0.0687034</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0865958</v>
+        <v>0.0862159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0678945</v>
+        <v>0.0679983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.067079</v>
+        <v>0.0690274</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0877029</v>
+        <v>0.08730069999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0682854</v>
+        <v>0.0684149</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0673033</v>
+        <v>0.0692359</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0889037</v>
+        <v>0.0885642</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0686281</v>
+        <v>0.0684461</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06766560000000001</v>
+        <v>0.0694878</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0903123</v>
+        <v>0.0898277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06919069999999999</v>
+        <v>0.0689208</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06798129999999999</v>
+        <v>0.0697929</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09275029999999999</v>
+        <v>0.0927022</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07005260000000001</v>
+        <v>0.06994930000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.068089</v>
+        <v>0.0701509</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0959385</v>
+        <v>0.0955737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0711946</v>
+        <v>0.0709047</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0688555</v>
+        <v>0.07073400000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101444</v>
+        <v>0.100785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0741358</v>
+        <v>0.0738332</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0693129</v>
+        <v>0.0714569</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109711</v>
+        <v>0.10909</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07803839999999999</v>
+        <v>0.07647039999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0703328</v>
+        <v>0.0721965</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12127</v>
+        <v>0.120921</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0852247</v>
+        <v>0.08348999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0716873</v>
+        <v>0.0736131</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.136072</v>
+        <v>0.135587</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09438390000000001</v>
+        <v>0.0923977</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0734697</v>
+        <v>0.0755952</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.156131</v>
+        <v>0.155534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104356</v>
+        <v>0.105076</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0767205</v>
+        <v>0.0784132</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183203</v>
+        <v>0.183344</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120144</v>
+        <v>0.12065</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0822321</v>
+        <v>0.0844673</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.21534</v>
+        <v>0.214973</v>
       </c>
       <c r="C22" t="n">
-        <v>0.150865</v>
+        <v>0.151229</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0965662</v>
+        <v>0.098248</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.256677</v>
+        <v>0.256506</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188567</v>
+        <v>0.188292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.118418</v>
+        <v>0.0698066</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09123100000000001</v>
+        <v>0.0913375</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07041840000000001</v>
+        <v>0.07039289999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06835860000000001</v>
+        <v>0.0699893</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.092401</v>
+        <v>0.092461</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07075629999999999</v>
+        <v>0.0710571</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06865930000000001</v>
+        <v>0.0702021</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0941022</v>
+        <v>0.0942698</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07142179999999999</v>
+        <v>0.0712604</v>
       </c>
       <c r="D26" t="n">
-        <v>0.068879</v>
+        <v>0.0704988</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09641329999999999</v>
+        <v>0.09604559999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0721783</v>
+        <v>0.07297480000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0692974</v>
+        <v>0.07088510000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0996249</v>
+        <v>0.0996088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0734095</v>
+        <v>0.0732125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06959799999999999</v>
+        <v>0.071321</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103693</v>
+        <v>0.103709</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07496940000000001</v>
+        <v>0.0749161</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07010479999999999</v>
+        <v>0.0717999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109198</v>
+        <v>0.109192</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0775264</v>
+        <v>0.07719280000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07059840000000001</v>
+        <v>0.0723712</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116944</v>
+        <v>0.11701</v>
       </c>
       <c r="C31" t="n">
-        <v>0.081215</v>
+        <v>0.0811216</v>
       </c>
       <c r="D31" t="n">
-        <v>0.071606</v>
+        <v>0.0733501</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.126283</v>
+        <v>0.126377</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0865517</v>
+        <v>0.08643679999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0729469</v>
+        <v>0.0746216</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137951</v>
+        <v>0.137823</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09441190000000001</v>
+        <v>0.0939411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0751778</v>
+        <v>0.07677489999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.156305</v>
+        <v>0.156373</v>
       </c>
       <c r="C34" t="n">
-        <v>0.106613</v>
+        <v>0.105678</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0790525</v>
+        <v>0.0806905</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180042</v>
+        <v>0.180177</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122927</v>
+        <v>0.122527</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08568679999999999</v>
+        <v>0.0874598</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210803</v>
+        <v>0.210805</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145813</v>
+        <v>0.144911</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0968846</v>
+        <v>0.09871149999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.252232</v>
+        <v>0.252094</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183236</v>
+        <v>0.183781</v>
       </c>
       <c r="D37" t="n">
-        <v>0.117133</v>
+        <v>0.07069739999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923485</v>
+        <v>0.09237239999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0726957</v>
+        <v>0.0719644</v>
       </c>
       <c r="D38" t="n">
-        <v>0.069413</v>
+        <v>0.0709784</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09351569999999999</v>
+        <v>0.0936747</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0743563</v>
+        <v>0.07326630000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06963129999999999</v>
+        <v>0.0713995</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0950949</v>
+        <v>0.0953431</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0737937</v>
+        <v>0.0746879</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06986580000000001</v>
+        <v>0.0720761</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0971453</v>
+        <v>0.09742190000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0751758</v>
+        <v>0.0749523</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0704461</v>
+        <v>0.07197870000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1004</v>
+        <v>0.100606</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0775914</v>
+        <v>0.0764996</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0707841</v>
+        <v>0.072822</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104269</v>
+        <v>0.104309</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0783098</v>
+        <v>0.0784808</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07127029999999999</v>
+        <v>0.07304339999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109214</v>
+        <v>0.109223</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0806331</v>
+        <v>0.0809801</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0719921</v>
+        <v>0.074383</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116061</v>
+        <v>0.116185</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0840553</v>
+        <v>0.08476740000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0730132</v>
+        <v>0.0746021</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12509</v>
+        <v>0.125173</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0888376</v>
+        <v>0.0886975</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0747983</v>
+        <v>0.076117</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136411</v>
+        <v>0.136813</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0949996</v>
+        <v>0.0951275</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0763615</v>
+        <v>0.07799200000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151206</v>
+        <v>0.151261</v>
       </c>
       <c r="C48" t="n">
-        <v>0.104217</v>
+        <v>0.10406</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07971060000000001</v>
+        <v>0.08142340000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173143</v>
+        <v>0.173645</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117445</v>
+        <v>0.117032</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08497780000000001</v>
+        <v>0.08658</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203632</v>
+        <v>0.203751</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137117</v>
+        <v>0.136987</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0933619</v>
+        <v>0.0950864</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244436</v>
+        <v>0.244953</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168056</v>
+        <v>0.178867</v>
       </c>
       <c r="D51" t="n">
-        <v>0.108424</v>
+        <v>0.0729115</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.289033</v>
+        <v>0.290663</v>
       </c>
       <c r="C52" t="n">
-        <v>0.218368</v>
+        <v>0.218212</v>
       </c>
       <c r="D52" t="n">
-        <v>0.138935</v>
+        <v>0.0727859</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0968748</v>
+        <v>0.0969677</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0761367</v>
+        <v>0.0761758</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0717629</v>
+        <v>0.07310999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09807349999999999</v>
+        <v>0.0988454</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0772389</v>
+        <v>0.0765994</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0723521</v>
+        <v>0.07304389999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.10087</v>
+        <v>0.101111</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0780484</v>
+        <v>0.0776941</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0729983</v>
+        <v>0.0733312</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103459</v>
+        <v>0.104467</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0794241</v>
+        <v>0.079272</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0732192</v>
+        <v>0.0739375</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107165</v>
+        <v>0.10683</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0813987</v>
+        <v>0.0811409</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0732966</v>
+        <v>0.07466059999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111426</v>
+        <v>0.112033</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0844389</v>
+        <v>0.0838396</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0744032</v>
+        <v>0.07548870000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118255</v>
+        <v>0.11841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0882298</v>
+        <v>0.0871593</v>
       </c>
       <c r="D59" t="n">
-        <v>0.075215</v>
+        <v>0.0766221</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126693</v>
+        <v>0.128069</v>
       </c>
       <c r="C60" t="n">
-        <v>0.091892</v>
+        <v>0.09206590000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07702199999999999</v>
+        <v>0.078356</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.136934</v>
+        <v>0.138507</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0989251</v>
+        <v>0.0973815</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0795336</v>
+        <v>0.08030900000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.155062</v>
+        <v>0.1531</v>
       </c>
       <c r="C62" t="n">
-        <v>0.105477</v>
+        <v>0.109046</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08164589999999999</v>
+        <v>0.0832247</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172903</v>
+        <v>0.173812</v>
       </c>
       <c r="C63" t="n">
-        <v>0.123048</v>
+        <v>0.118075</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0866099</v>
+        <v>0.0881754</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200001</v>
+        <v>0.201282</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137286</v>
+        <v>0.137736</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0945696</v>
+        <v>0.0962162</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240902</v>
+        <v>0.250186</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166659</v>
+        <v>0.168131</v>
       </c>
       <c r="D65" t="n">
-        <v>0.107075</v>
+        <v>0.109754</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.287718</v>
+        <v>0.287277</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212372</v>
+        <v>0.212469</v>
       </c>
       <c r="D66" t="n">
-        <v>0.133803</v>
+        <v>0.0800638</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108054</v>
+        <v>0.10756</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0850176</v>
+        <v>0.0858579</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0804358</v>
+        <v>0.0801438</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.11003</v>
+        <v>0.110061</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0864323</v>
+        <v>0.0859145</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0815323</v>
+        <v>0.08077330000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111517</v>
+        <v>0.11154</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0877068</v>
+        <v>0.0886909</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08259080000000001</v>
+        <v>0.0814537</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113485</v>
+        <v>0.113397</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0883053</v>
+        <v>0.088565</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0824447</v>
+        <v>0.0809845</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117076</v>
+        <v>0.116886</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0912263</v>
+        <v>0.0911164</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0834225</v>
+        <v>0.0825456</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121706</v>
+        <v>0.122062</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0928971</v>
+        <v>0.0931796</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0837234</v>
+        <v>0.0836021</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127765</v>
+        <v>0.128333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.095389</v>
+        <v>0.0957847</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08447440000000001</v>
+        <v>0.0846084</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.13609</v>
+        <v>0.136182</v>
       </c>
       <c r="C74" t="n">
-        <v>0.10017</v>
+        <v>0.09935860000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0857103</v>
+        <v>0.08560329999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.147691</v>
+        <v>0.146306</v>
       </c>
       <c r="C75" t="n">
-        <v>0.105765</v>
+        <v>0.105111</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0874883</v>
+        <v>0.0880737</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160077</v>
+        <v>0.160572</v>
       </c>
       <c r="C76" t="n">
-        <v>0.113061</v>
+        <v>0.113538</v>
       </c>
       <c r="D76" t="n">
-        <v>0.090544</v>
+        <v>0.0903489</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180648</v>
+        <v>0.180661</v>
       </c>
       <c r="C77" t="n">
-        <v>0.124437</v>
+        <v>0.126701</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09448040000000001</v>
+        <v>0.0949038</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207445</v>
+        <v>0.208692</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141364</v>
+        <v>0.141062</v>
       </c>
       <c r="D78" t="n">
-        <v>0.102548</v>
+        <v>0.101769</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.244102</v>
+        <v>0.246948</v>
       </c>
       <c r="C79" t="n">
-        <v>0.167893</v>
+        <v>0.168118</v>
       </c>
       <c r="D79" t="n">
-        <v>0.113361</v>
+        <v>0.114057</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.295725</v>
+        <v>0.297895</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211177</v>
+        <v>0.21198</v>
       </c>
       <c r="D80" t="n">
-        <v>0.134805</v>
+        <v>0.08778859999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120106</v>
+        <v>0.120068</v>
       </c>
       <c r="C81" t="n">
-        <v>0.096313</v>
+        <v>0.0955075</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0893719</v>
+        <v>0.0884677</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122052</v>
+        <v>0.121919</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09866999999999999</v>
+        <v>0.0986875</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0899055</v>
+        <v>0.08905390000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124027</v>
+        <v>0.124043</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09810770000000001</v>
+        <v>0.100024</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0895581</v>
+        <v>0.08962290000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128367</v>
+        <v>0.127281</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101029</v>
+        <v>0.101546</v>
       </c>
       <c r="D84" t="n">
-        <v>0.090045</v>
+        <v>0.0913175</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130906</v>
+        <v>0.131041</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104592</v>
+        <v>0.103329</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09260450000000001</v>
+        <v>0.0923189</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.135747</v>
+        <v>0.136009</v>
       </c>
       <c r="C86" t="n">
-        <v>0.108799</v>
+        <v>0.107607</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09266149999999999</v>
+        <v>0.0939947</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142511</v>
+        <v>0.144764</v>
       </c>
       <c r="C87" t="n">
-        <v>0.111528</v>
+        <v>0.112237</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09435200000000001</v>
+        <v>0.09449340000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.15084</v>
+        <v>0.153582</v>
       </c>
       <c r="C88" t="n">
-        <v>0.117937</v>
+        <v>0.118584</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0965072</v>
+        <v>0.0971462</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.162868</v>
+        <v>0.164964</v>
       </c>
       <c r="C89" t="n">
-        <v>0.125732</v>
+        <v>0.126713</v>
       </c>
       <c r="D89" t="n">
-        <v>0.100619</v>
+        <v>0.100151</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.179186</v>
+        <v>0.1774</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134856</v>
+        <v>0.138209</v>
       </c>
       <c r="D90" t="n">
-        <v>0.103239</v>
+        <v>0.104199</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.203162</v>
+        <v>0.197925</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149009</v>
+        <v>0.149219</v>
       </c>
       <c r="D91" t="n">
-        <v>0.110432</v>
+        <v>0.110446</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.227112</v>
+        <v>0.232324</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168519</v>
+        <v>0.168944</v>
       </c>
       <c r="D92" t="n">
-        <v>0.119181</v>
+        <v>0.119065</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.274594</v>
+        <v>0.272143</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196154</v>
+        <v>0.19634</v>
       </c>
       <c r="D93" t="n">
-        <v>0.131336</v>
+        <v>0.131062</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331409</v>
+        <v>0.332674</v>
       </c>
       <c r="C94" t="n">
-        <v>0.239105</v>
+        <v>0.244057</v>
       </c>
       <c r="D94" t="n">
-        <v>0.153068</v>
+        <v>0.0998078</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133731</v>
+        <v>0.134732</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11798</v>
+        <v>0.117033</v>
       </c>
       <c r="D95" t="n">
-        <v>0.10024</v>
+        <v>0.100552</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136611</v>
+        <v>0.137989</v>
       </c>
       <c r="C96" t="n">
-        <v>0.120642</v>
+        <v>0.119846</v>
       </c>
       <c r="D96" t="n">
-        <v>0.101535</v>
+        <v>0.103092</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139921</v>
+        <v>0.140091</v>
       </c>
       <c r="C97" t="n">
-        <v>0.123814</v>
+        <v>0.123146</v>
       </c>
       <c r="D97" t="n">
-        <v>0.10488</v>
+        <v>0.103951</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144049</v>
+        <v>0.145403</v>
       </c>
       <c r="C98" t="n">
-        <v>0.127163</v>
+        <v>0.124314</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106896</v>
+        <v>0.105899</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148756</v>
+        <v>0.14844</v>
       </c>
       <c r="C99" t="n">
-        <v>0.13104</v>
+        <v>0.130783</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108595</v>
+        <v>0.106583</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155116</v>
+        <v>0.154568</v>
       </c>
       <c r="C100" t="n">
-        <v>0.132301</v>
+        <v>0.135735</v>
       </c>
       <c r="D100" t="n">
-        <v>0.108893</v>
+        <v>0.10988</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161825</v>
+        <v>0.161378</v>
       </c>
       <c r="C101" t="n">
-        <v>0.141322</v>
+        <v>0.139999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112793</v>
+        <v>0.111944</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170137</v>
+        <v>0.170452</v>
       </c>
       <c r="C102" t="n">
-        <v>0.147206</v>
+        <v>0.144009</v>
       </c>
       <c r="D102" t="n">
-        <v>0.115719</v>
+        <v>0.114947</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.181186</v>
+        <v>0.183472</v>
       </c>
       <c r="C103" t="n">
-        <v>0.156028</v>
+        <v>0.155651</v>
       </c>
       <c r="D103" t="n">
-        <v>0.118809</v>
+        <v>0.118652</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199855</v>
+        <v>0.198459</v>
       </c>
       <c r="C104" t="n">
-        <v>0.163428</v>
+        <v>0.166233</v>
       </c>
       <c r="D104" t="n">
-        <v>0.12055</v>
+        <v>0.120081</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2208</v>
+        <v>0.215289</v>
       </c>
       <c r="C105" t="n">
-        <v>0.182176</v>
+        <v>0.178391</v>
       </c>
       <c r="D105" t="n">
-        <v>0.128322</v>
+        <v>0.127293</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252345</v>
+        <v>0.244552</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203545</v>
+        <v>0.198658</v>
       </c>
       <c r="D106" t="n">
-        <v>0.136793</v>
+        <v>0.133349</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.287838</v>
+        <v>0.286528</v>
       </c>
       <c r="C107" t="n">
-        <v>0.23538</v>
+        <v>0.230127</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147037</v>
+        <v>0.14946</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.358774</v>
+        <v>0.357444</v>
       </c>
       <c r="C108" t="n">
-        <v>0.282272</v>
+        <v>0.277462</v>
       </c>
       <c r="D108" t="n">
-        <v>0.172173</v>
+        <v>0.107408</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.448323</v>
+        <v>0.440664</v>
       </c>
       <c r="C109" t="n">
-        <v>0.354155</v>
+        <v>0.359605</v>
       </c>
       <c r="D109" t="n">
-        <v>0.214098</v>
+        <v>0.10871</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145576</v>
+        <v>0.146465</v>
       </c>
       <c r="C110" t="n">
-        <v>0.141232</v>
+        <v>0.139935</v>
       </c>
       <c r="D110" t="n">
-        <v>0.112135</v>
+        <v>0.110148</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.148727</v>
+        <v>0.148168</v>
       </c>
       <c r="C111" t="n">
-        <v>0.146507</v>
+        <v>0.144199</v>
       </c>
       <c r="D111" t="n">
-        <v>0.113744</v>
+        <v>0.112033</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152596</v>
+        <v>0.153477</v>
       </c>
       <c r="C112" t="n">
-        <v>0.150269</v>
+        <v>0.148693</v>
       </c>
       <c r="D112" t="n">
-        <v>0.115588</v>
+        <v>0.114876</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.157329</v>
+        <v>0.158864</v>
       </c>
       <c r="C113" t="n">
-        <v>0.154843</v>
+        <v>0.153247</v>
       </c>
       <c r="D113" t="n">
-        <v>0.117916</v>
+        <v>0.115607</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165584</v>
+        <v>0.165258</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160704</v>
+        <v>0.159302</v>
       </c>
       <c r="D114" t="n">
-        <v>0.121033</v>
+        <v>0.11803</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.172172</v>
+        <v>0.171342</v>
       </c>
       <c r="C115" t="n">
-        <v>0.16654</v>
+        <v>0.165573</v>
       </c>
       <c r="D115" t="n">
-        <v>0.123998</v>
+        <v>0.121662</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.184414</v>
+        <v>0.184344</v>
       </c>
       <c r="C116" t="n">
-        <v>0.174174</v>
+        <v>0.173108</v>
       </c>
       <c r="D116" t="n">
-        <v>0.12734</v>
+        <v>0.124291</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.199499</v>
+        <v>0.195691</v>
       </c>
       <c r="C117" t="n">
-        <v>0.183847</v>
+        <v>0.182375</v>
       </c>
       <c r="D117" t="n">
-        <v>0.131736</v>
+        <v>0.129223</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.213786</v>
+        <v>0.213815</v>
       </c>
       <c r="C118" t="n">
-        <v>0.195327</v>
+        <v>0.194549</v>
       </c>
       <c r="D118" t="n">
-        <v>0.136736</v>
+        <v>0.136422</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.241773</v>
+        <v>0.242093</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210077</v>
+        <v>0.208407</v>
       </c>
       <c r="D119" t="n">
-        <v>0.144475</v>
+        <v>0.143959</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273599</v>
+        <v>0.267702</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229771</v>
+        <v>0.228493</v>
       </c>
       <c r="D120" t="n">
-        <v>0.153666</v>
+        <v>0.154363</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.317196</v>
+        <v>0.310223</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258169</v>
+        <v>0.259265</v>
       </c>
       <c r="D121" t="n">
-        <v>0.168993</v>
+        <v>0.169093</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.381109</v>
+        <v>0.379607</v>
       </c>
       <c r="C122" t="n">
-        <v>0.30502</v>
+        <v>0.305164</v>
       </c>
       <c r="D122" t="n">
-        <v>0.192205</v>
+        <v>0.192823</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471404</v>
+        <v>0.470714</v>
       </c>
       <c r="C123" t="n">
-        <v>0.382725</v>
+        <v>0.381785</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232121</v>
+        <v>0.133604</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.17535</v>
+        <v>0.170658</v>
       </c>
       <c r="C124" t="n">
-        <v>0.167374</v>
+        <v>0.167267</v>
       </c>
       <c r="D124" t="n">
-        <v>0.13559</v>
+        <v>0.137764</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.176981</v>
+        <v>0.178189</v>
       </c>
       <c r="C125" t="n">
-        <v>0.17812</v>
+        <v>0.172061</v>
       </c>
       <c r="D125" t="n">
-        <v>0.137624</v>
+        <v>0.138801</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.181893</v>
+        <v>0.179242</v>
       </c>
       <c r="C126" t="n">
-        <v>0.177651</v>
+        <v>0.17795</v>
       </c>
       <c r="D126" t="n">
-        <v>0.139309</v>
+        <v>0.14034</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184566</v>
+        <v>0.184049</v>
       </c>
       <c r="C127" t="n">
-        <v>0.183478</v>
+        <v>0.17919</v>
       </c>
       <c r="D127" t="n">
-        <v>0.143981</v>
+        <v>0.142627</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.191337</v>
+        <v>0.190943</v>
       </c>
       <c r="C128" t="n">
-        <v>0.185619</v>
+        <v>0.185972</v>
       </c>
       <c r="D128" t="n">
-        <v>0.145865</v>
+        <v>0.145698</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.202227</v>
+        <v>0.201581</v>
       </c>
       <c r="C129" t="n">
-        <v>0.190876</v>
+        <v>0.192094</v>
       </c>
       <c r="D129" t="n">
-        <v>0.148068</v>
+        <v>0.147743</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.20976</v>
+        <v>0.209712</v>
       </c>
       <c r="C130" t="n">
-        <v>0.200022</v>
+        <v>0.198186</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153658</v>
+        <v>0.150661</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224851</v>
+        <v>0.223559</v>
       </c>
       <c r="C131" t="n">
-        <v>0.207519</v>
+        <v>0.205476</v>
       </c>
       <c r="D131" t="n">
-        <v>0.156546</v>
+        <v>0.153049</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.247218</v>
+        <v>0.242993</v>
       </c>
       <c r="C132" t="n">
-        <v>0.22027</v>
+        <v>0.217777</v>
       </c>
       <c r="D132" t="n">
-        <v>0.163002</v>
+        <v>0.160377</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257023</v>
+        <v>0.258463</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233986</v>
+        <v>0.23173</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173143</v>
+        <v>0.16545</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.296191</v>
+        <v>0.288428</v>
       </c>
       <c r="C134" t="n">
-        <v>0.254126</v>
+        <v>0.25728</v>
       </c>
       <c r="D134" t="n">
-        <v>0.173839</v>
+        <v>0.178265</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.32868</v>
+        <v>0.327277</v>
       </c>
       <c r="C135" t="n">
-        <v>0.282746</v>
+        <v>0.277312</v>
       </c>
       <c r="D135" t="n">
-        <v>0.186606</v>
+        <v>0.184992</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.389087</v>
+        <v>0.391275</v>
       </c>
       <c r="C136" t="n">
-        <v>0.322506</v>
+        <v>0.322748</v>
       </c>
       <c r="D136" t="n">
-        <v>0.208885</v>
+        <v>0.205965</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.487608</v>
+        <v>0.484417</v>
       </c>
       <c r="C137" t="n">
-        <v>0.395589</v>
+        <v>0.394928</v>
       </c>
       <c r="D137" t="n">
-        <v>0.240699</v>
+        <v>0.248653</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.318221</v>
+        <v>0.314976</v>
       </c>
       <c r="C138" t="n">
-        <v>0.282224</v>
+        <v>0.278076</v>
       </c>
       <c r="D138" t="n">
-        <v>0.255766</v>
+        <v>0.251007</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.321173</v>
+        <v>0.31847</v>
       </c>
       <c r="C139" t="n">
-        <v>0.287295</v>
+        <v>0.283685</v>
       </c>
       <c r="D139" t="n">
-        <v>0.259782</v>
+        <v>0.254282</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.329322</v>
+        <v>0.323952</v>
       </c>
       <c r="C140" t="n">
-        <v>0.289727</v>
+        <v>0.286591</v>
       </c>
       <c r="D140" t="n">
-        <v>0.258652</v>
+        <v>0.254984</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.332658</v>
+        <v>0.33172</v>
       </c>
       <c r="C141" t="n">
-        <v>0.293744</v>
+        <v>0.291413</v>
       </c>
       <c r="D141" t="n">
-        <v>0.261038</v>
+        <v>0.256256</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.336835</v>
+        <v>0.335056</v>
       </c>
       <c r="C142" t="n">
-        <v>0.297892</v>
+        <v>0.29465</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263329</v>
+        <v>0.260055</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342196</v>
+        <v>0.341816</v>
       </c>
       <c r="C143" t="n">
-        <v>0.304324</v>
+        <v>0.299035</v>
       </c>
       <c r="D143" t="n">
-        <v>0.266916</v>
+        <v>0.265227</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09374689999999999</v>
+        <v>0.0936389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06964679999999999</v>
+        <v>0.06965540000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0712491</v>
+        <v>0.07121950000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09843449999999999</v>
+        <v>0.0986491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0707541</v>
+        <v>0.0708052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07155359999999999</v>
+        <v>0.0715721</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108682</v>
+        <v>0.109159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0746975</v>
+        <v>0.0742318</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0724431</v>
+        <v>0.0724678</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123762</v>
+        <v>0.124156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08132350000000001</v>
+        <v>0.0813112</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0739305</v>
+        <v>0.0739505</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148837</v>
+        <v>0.148481</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09376520000000001</v>
+        <v>0.0976437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07536760000000001</v>
+        <v>0.0754783</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181803</v>
+        <v>0.181753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112618</v>
+        <v>0.11285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0798859</v>
+        <v>0.0798064</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221551</v>
+        <v>0.221358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.148677</v>
+        <v>0.148668</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09020060000000001</v>
+        <v>0.0900175</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.26057</v>
+        <v>0.260921</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184673</v>
+        <v>0.184517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0687034</v>
+        <v>0.06875680000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0862159</v>
+        <v>0.0863945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0679983</v>
+        <v>0.0676253</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0690274</v>
+        <v>0.06898600000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08730069999999999</v>
+        <v>0.08721760000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0684149</v>
+        <v>0.0680151</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0692359</v>
+        <v>0.06918829999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0885642</v>
+        <v>0.0883912</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0684461</v>
+        <v>0.0683378</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0694878</v>
+        <v>0.06950480000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0898277</v>
+        <v>0.089714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0689208</v>
+        <v>0.0710576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0697929</v>
+        <v>0.06979680000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0927022</v>
+        <v>0.0922796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06994930000000001</v>
+        <v>0.06967279999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0701509</v>
+        <v>0.07018050000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0955737</v>
+        <v>0.0954208</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0709047</v>
+        <v>0.0710826</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07073400000000001</v>
+        <v>0.0707603</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100785</v>
+        <v>0.100805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0738332</v>
+        <v>0.07381020000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0714569</v>
+        <v>0.0714721</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10909</v>
+        <v>0.10906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07647039999999999</v>
+        <v>0.0765777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0721965</v>
+        <v>0.07221950000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120921</v>
+        <v>0.120823</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08348999999999999</v>
+        <v>0.08349860000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0736131</v>
+        <v>0.07366300000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135587</v>
+        <v>0.135291</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0923977</v>
+        <v>0.0926824</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0755952</v>
+        <v>0.07568610000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155534</v>
+        <v>0.155127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.105076</v>
+        <v>0.104499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0784132</v>
+        <v>0.078401</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183344</v>
+        <v>0.182321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12065</v>
+        <v>0.119882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0844673</v>
+        <v>0.0845954</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214973</v>
+        <v>0.215162</v>
       </c>
       <c r="C22" t="n">
-        <v>0.151229</v>
+        <v>0.150327</v>
       </c>
       <c r="D22" t="n">
-        <v>0.098248</v>
+        <v>0.0982676</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.256506</v>
+        <v>0.256298</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188292</v>
+        <v>0.188936</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0698066</v>
+        <v>0.0697538</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0913375</v>
+        <v>0.09115090000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07039289999999999</v>
+        <v>0.0702972</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0699893</v>
+        <v>0.06995700000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.092461</v>
+        <v>0.0919304</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0710571</v>
+        <v>0.0706484</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0702021</v>
+        <v>0.07019590000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0942698</v>
+        <v>0.0942643</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0712604</v>
+        <v>0.07151100000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0704988</v>
+        <v>0.07049080000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09604559999999999</v>
+        <v>0.096301</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07297480000000001</v>
+        <v>0.0721575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07088510000000001</v>
+        <v>0.0708927</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0996088</v>
+        <v>0.0994869</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0732125</v>
+        <v>0.0732057</v>
       </c>
       <c r="D28" t="n">
-        <v>0.071321</v>
+        <v>0.0713128</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103709</v>
+        <v>0.103635</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0749161</v>
+        <v>0.07497760000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0717999</v>
+        <v>0.0717738</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109192</v>
+        <v>0.109172</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07719280000000001</v>
+        <v>0.0773187</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0723712</v>
+        <v>0.0723905</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11701</v>
+        <v>0.11698</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0811216</v>
+        <v>0.08108940000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0733501</v>
+        <v>0.07334839999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.126377</v>
+        <v>0.126331</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08643679999999999</v>
+        <v>0.08842990000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0746216</v>
+        <v>0.0746025</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137823</v>
+        <v>0.137993</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0939411</v>
+        <v>0.0935758</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07677489999999999</v>
+        <v>0.07682700000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.156373</v>
+        <v>0.156282</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105678</v>
+        <v>0.105699</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0806905</v>
+        <v>0.0806583</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180177</v>
+        <v>0.179341</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122527</v>
+        <v>0.123187</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0874598</v>
+        <v>0.08740539999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210805</v>
+        <v>0.209875</v>
       </c>
       <c r="C36" t="n">
-        <v>0.144911</v>
+        <v>0.144853</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09871149999999999</v>
+        <v>0.098672</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.252094</v>
+        <v>0.251543</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183781</v>
+        <v>0.182902</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07069739999999999</v>
+        <v>0.0705952</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09237239999999999</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0719644</v>
+        <v>0.072063</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0709784</v>
+        <v>0.07087069999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0936747</v>
+        <v>0.0935276</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07326630000000001</v>
+        <v>0.07266209999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0713995</v>
+        <v>0.0711738</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0953431</v>
+        <v>0.09532740000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0746879</v>
+        <v>0.07381500000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0720761</v>
+        <v>0.0715237</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09742190000000001</v>
+        <v>0.09727669999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0749523</v>
+        <v>0.0750437</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07197870000000001</v>
+        <v>0.07198740000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100606</v>
+        <v>0.100455</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0764996</v>
+        <v>0.076164</v>
       </c>
       <c r="D42" t="n">
-        <v>0.072822</v>
+        <v>0.0725367</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104309</v>
+        <v>0.104238</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0784808</v>
+        <v>0.07811650000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07304339999999999</v>
+        <v>0.07288699999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109223</v>
+        <v>0.109213</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0809801</v>
+        <v>0.0803811</v>
       </c>
       <c r="D44" t="n">
-        <v>0.074383</v>
+        <v>0.073561</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116185</v>
+        <v>0.116045</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08476740000000001</v>
+        <v>0.0835597</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0746021</v>
+        <v>0.07454479999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125173</v>
+        <v>0.125105</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886975</v>
+        <v>0.08836330000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.076117</v>
+        <v>0.075919</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136813</v>
+        <v>0.136401</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0951275</v>
+        <v>0.0948836</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07799200000000001</v>
+        <v>0.0779074</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151261</v>
+        <v>0.151245</v>
       </c>
       <c r="C48" t="n">
-        <v>0.10406</v>
+        <v>0.104078</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08142340000000001</v>
+        <v>0.0812143</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173645</v>
+        <v>0.173518</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117032</v>
+        <v>0.116693</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08658</v>
+        <v>0.0866195</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203751</v>
+        <v>0.203791</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136987</v>
+        <v>0.136884</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0950864</v>
+        <v>0.0950561</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244953</v>
+        <v>0.24473</v>
       </c>
       <c r="C51" t="n">
-        <v>0.178867</v>
+        <v>0.168592</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0729115</v>
+        <v>0.0724364</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.290663</v>
+        <v>0.289916</v>
       </c>
       <c r="C52" t="n">
-        <v>0.218212</v>
+        <v>0.218247</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0727859</v>
+        <v>0.0726064</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0969677</v>
+        <v>0.0971451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0761758</v>
+        <v>0.0761274</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07310999999999999</v>
+        <v>0.0730717</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0988454</v>
+        <v>0.0984809</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0765994</v>
+        <v>0.07689509999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07304389999999999</v>
+        <v>0.07330159999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101111</v>
+        <v>0.100491</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0776941</v>
+        <v>0.0781111</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0733312</v>
+        <v>0.0737854</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104467</v>
+        <v>0.103499</v>
       </c>
       <c r="C56" t="n">
-        <v>0.079272</v>
+        <v>0.07927579999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0739375</v>
+        <v>0.0740516</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10683</v>
+        <v>0.107371</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0811409</v>
+        <v>0.0818292</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07466059999999999</v>
+        <v>0.0752261</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112033</v>
+        <v>0.111696</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0838396</v>
+        <v>0.0841903</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07548870000000001</v>
+        <v>0.0759079</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.11841</v>
+        <v>0.11931</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0871593</v>
+        <v>0.08747539999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0766221</v>
+        <v>0.0767849</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128069</v>
+        <v>0.127039</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09206590000000001</v>
+        <v>0.0913143</v>
       </c>
       <c r="D60" t="n">
-        <v>0.078356</v>
+        <v>0.0782789</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.138507</v>
+        <v>0.138076</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0973815</v>
+        <v>0.0975945</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08030900000000001</v>
+        <v>0.0807133</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1531</v>
+        <v>0.153925</v>
       </c>
       <c r="C62" t="n">
-        <v>0.109046</v>
+        <v>0.106559</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0832247</v>
+        <v>0.0842566</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.173812</v>
+        <v>0.17259</v>
       </c>
       <c r="C63" t="n">
-        <v>0.118075</v>
+        <v>0.118998</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0881754</v>
+        <v>0.08900429999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201282</v>
+        <v>0.200738</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137736</v>
+        <v>0.13736</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0962162</v>
+        <v>0.0964869</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.250186</v>
+        <v>0.240098</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168131</v>
+        <v>0.16749</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109754</v>
+        <v>0.110745</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.287277</v>
+        <v>0.285352</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212469</v>
+        <v>0.211819</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0800638</v>
+        <v>0.0800539</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10756</v>
+        <v>0.1071</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0858579</v>
+        <v>0.0855289</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0801438</v>
+        <v>0.0809623</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.110061</v>
+        <v>0.108328</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0859145</v>
+        <v>0.0868447</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08077330000000001</v>
+        <v>0.08021250000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11154</v>
+        <v>0.110366</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0886909</v>
+        <v>0.08744540000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0814537</v>
+        <v>0.08192099999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113397</v>
+        <v>0.114781</v>
       </c>
       <c r="C70" t="n">
-        <v>0.088565</v>
+        <v>0.0893775</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0809845</v>
+        <v>0.0818913</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.116886</v>
+        <v>0.118309</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0911164</v>
+        <v>0.08977739999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0825456</v>
+        <v>0.08201459999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122062</v>
+        <v>0.121434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0931796</v>
+        <v>0.0927617</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0836021</v>
+        <v>0.0833279</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128333</v>
+        <v>0.128546</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0957847</v>
+        <v>0.0971117</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0846084</v>
+        <v>0.0838299</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136182</v>
+        <v>0.138097</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09935860000000001</v>
+        <v>0.0990815</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08560329999999999</v>
+        <v>0.08523849999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.146306</v>
+        <v>0.145758</v>
       </c>
       <c r="C75" t="n">
-        <v>0.105111</v>
+        <v>0.106769</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0880737</v>
+        <v>0.0880614</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160572</v>
+        <v>0.163608</v>
       </c>
       <c r="C76" t="n">
-        <v>0.113538</v>
+        <v>0.114691</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0903489</v>
+        <v>0.0897232</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180661</v>
+        <v>0.17941</v>
       </c>
       <c r="C77" t="n">
-        <v>0.126701</v>
+        <v>0.125217</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0949038</v>
+        <v>0.0961193</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208692</v>
+        <v>0.207883</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141062</v>
+        <v>0.14195</v>
       </c>
       <c r="D78" t="n">
-        <v>0.101769</v>
+        <v>0.101587</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246948</v>
+        <v>0.245316</v>
       </c>
       <c r="C79" t="n">
-        <v>0.168118</v>
+        <v>0.168712</v>
       </c>
       <c r="D79" t="n">
-        <v>0.114057</v>
+        <v>0.11434</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.297895</v>
+        <v>0.298958</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21198</v>
+        <v>0.21243</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08778859999999999</v>
+        <v>0.0865452</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120068</v>
+        <v>0.121477</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0955075</v>
+        <v>0.0955889</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0884677</v>
+        <v>0.08695269999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121919</v>
+        <v>0.123497</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0986875</v>
+        <v>0.0975164</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08905390000000001</v>
+        <v>0.08758340000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124043</v>
+        <v>0.124203</v>
       </c>
       <c r="C83" t="n">
-        <v>0.100024</v>
+        <v>0.09901069999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08962290000000001</v>
+        <v>0.0891479</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127281</v>
+        <v>0.128602</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101546</v>
+        <v>0.101865</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0913175</v>
+        <v>0.08888450000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131041</v>
+        <v>0.131083</v>
       </c>
       <c r="C85" t="n">
-        <v>0.103329</v>
+        <v>0.104201</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0923189</v>
+        <v>0.0923547</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.136009</v>
+        <v>0.13788</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107607</v>
+        <v>0.108034</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0939947</v>
+        <v>0.09142450000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.144764</v>
+        <v>0.14276</v>
       </c>
       <c r="C87" t="n">
-        <v>0.112237</v>
+        <v>0.112924</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09449340000000001</v>
+        <v>0.095996</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.153582</v>
+        <v>0.151047</v>
       </c>
       <c r="C88" t="n">
-        <v>0.118584</v>
+        <v>0.118892</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0971462</v>
+        <v>0.0970435</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.164964</v>
+        <v>0.16232</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126713</v>
+        <v>0.126642</v>
       </c>
       <c r="D89" t="n">
-        <v>0.100151</v>
+        <v>0.0984568</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1774</v>
+        <v>0.177709</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138209</v>
+        <v>0.138162</v>
       </c>
       <c r="D90" t="n">
-        <v>0.104199</v>
+        <v>0.104251</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197925</v>
+        <v>0.198184</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149219</v>
+        <v>0.147288</v>
       </c>
       <c r="D91" t="n">
-        <v>0.110446</v>
+        <v>0.109965</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.232324</v>
+        <v>0.233438</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168944</v>
+        <v>0.165504</v>
       </c>
       <c r="D92" t="n">
-        <v>0.119065</v>
+        <v>0.118053</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.272143</v>
+        <v>0.271877</v>
       </c>
       <c r="C93" t="n">
-        <v>0.19634</v>
+        <v>0.193469</v>
       </c>
       <c r="D93" t="n">
-        <v>0.131062</v>
+        <v>0.129145</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.332674</v>
+        <v>0.331461</v>
       </c>
       <c r="C94" t="n">
-        <v>0.244057</v>
+        <v>0.238605</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0998078</v>
+        <v>0.0993822</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134732</v>
+        <v>0.133305</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117033</v>
+        <v>0.117721</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100552</v>
+        <v>0.100512</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.137989</v>
+        <v>0.138036</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119846</v>
+        <v>0.11993</v>
       </c>
       <c r="D96" t="n">
-        <v>0.103092</v>
+        <v>0.102201</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140091</v>
+        <v>0.139917</v>
       </c>
       <c r="C97" t="n">
-        <v>0.123146</v>
+        <v>0.1207</v>
       </c>
       <c r="D97" t="n">
-        <v>0.103951</v>
+        <v>0.103767</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145403</v>
+        <v>0.143852</v>
       </c>
       <c r="C98" t="n">
-        <v>0.124314</v>
+        <v>0.123657</v>
       </c>
       <c r="D98" t="n">
-        <v>0.105899</v>
+        <v>0.105499</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14844</v>
+        <v>0.14891</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130783</v>
+        <v>0.127329</v>
       </c>
       <c r="D99" t="n">
-        <v>0.106583</v>
+        <v>0.106074</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154568</v>
+        <v>0.154552</v>
       </c>
       <c r="C100" t="n">
-        <v>0.135735</v>
+        <v>0.134644</v>
       </c>
       <c r="D100" t="n">
-        <v>0.10988</v>
+        <v>0.109797</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161378</v>
+        <v>0.161628</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139999</v>
+        <v>0.140703</v>
       </c>
       <c r="D101" t="n">
-        <v>0.111944</v>
+        <v>0.112047</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170452</v>
+        <v>0.17262</v>
       </c>
       <c r="C102" t="n">
-        <v>0.144009</v>
+        <v>0.143142</v>
       </c>
       <c r="D102" t="n">
-        <v>0.114947</v>
+        <v>0.112635</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183472</v>
+        <v>0.184186</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155651</v>
+        <v>0.154198</v>
       </c>
       <c r="D103" t="n">
-        <v>0.118652</v>
+        <v>0.117804</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.198459</v>
+        <v>0.199481</v>
       </c>
       <c r="C104" t="n">
-        <v>0.166233</v>
+        <v>0.165693</v>
       </c>
       <c r="D104" t="n">
-        <v>0.120081</v>
+        <v>0.121832</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215289</v>
+        <v>0.215818</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178391</v>
+        <v>0.180474</v>
       </c>
       <c r="D105" t="n">
-        <v>0.127293</v>
+        <v>0.12727</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.244552</v>
+        <v>0.251423</v>
       </c>
       <c r="C106" t="n">
-        <v>0.198658</v>
+        <v>0.202038</v>
       </c>
       <c r="D106" t="n">
-        <v>0.133349</v>
+        <v>0.136157</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286528</v>
+        <v>0.294136</v>
       </c>
       <c r="C107" t="n">
-        <v>0.230127</v>
+        <v>0.233076</v>
       </c>
       <c r="D107" t="n">
-        <v>0.14946</v>
+        <v>0.148991</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.357444</v>
+        <v>0.350551</v>
       </c>
       <c r="C108" t="n">
-        <v>0.277462</v>
+        <v>0.280109</v>
       </c>
       <c r="D108" t="n">
-        <v>0.107408</v>
+        <v>0.107432</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.440664</v>
+        <v>0.441603</v>
       </c>
       <c r="C109" t="n">
-        <v>0.359605</v>
+        <v>0.351654</v>
       </c>
       <c r="D109" t="n">
-        <v>0.10871</v>
+        <v>0.108727</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146465</v>
+        <v>0.146679</v>
       </c>
       <c r="C110" t="n">
-        <v>0.139935</v>
+        <v>0.139562</v>
       </c>
       <c r="D110" t="n">
-        <v>0.110148</v>
+        <v>0.110122</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.148168</v>
+        <v>0.149696</v>
       </c>
       <c r="C111" t="n">
-        <v>0.144199</v>
+        <v>0.143866</v>
       </c>
       <c r="D111" t="n">
-        <v>0.112033</v>
+        <v>0.111547</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153477</v>
+        <v>0.153691</v>
       </c>
       <c r="C112" t="n">
-        <v>0.148693</v>
+        <v>0.148216</v>
       </c>
       <c r="D112" t="n">
-        <v>0.114876</v>
+        <v>0.113189</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158864</v>
+        <v>0.156956</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153247</v>
+        <v>0.153404</v>
       </c>
       <c r="D113" t="n">
-        <v>0.115607</v>
+        <v>0.115169</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165258</v>
+        <v>0.165005</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159302</v>
+        <v>0.158864</v>
       </c>
       <c r="D114" t="n">
-        <v>0.11803</v>
+        <v>0.118235</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171342</v>
+        <v>0.173296</v>
       </c>
       <c r="C115" t="n">
-        <v>0.165573</v>
+        <v>0.165067</v>
       </c>
       <c r="D115" t="n">
-        <v>0.121662</v>
+        <v>0.121042</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.184344</v>
+        <v>0.182207</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173108</v>
+        <v>0.172313</v>
       </c>
       <c r="D116" t="n">
-        <v>0.124291</v>
+        <v>0.12474</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.195691</v>
+        <v>0.198182</v>
       </c>
       <c r="C117" t="n">
-        <v>0.182375</v>
+        <v>0.182156</v>
       </c>
       <c r="D117" t="n">
-        <v>0.129223</v>
+        <v>0.128526</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.213815</v>
+        <v>0.216237</v>
       </c>
       <c r="C118" t="n">
-        <v>0.194549</v>
+        <v>0.194456</v>
       </c>
       <c r="D118" t="n">
-        <v>0.136422</v>
+        <v>0.134725</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.242093</v>
+        <v>0.240815</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208407</v>
+        <v>0.209966</v>
       </c>
       <c r="D119" t="n">
-        <v>0.143959</v>
+        <v>0.141208</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.267702</v>
+        <v>0.272693</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228493</v>
+        <v>0.228781</v>
       </c>
       <c r="D120" t="n">
-        <v>0.154363</v>
+        <v>0.152704</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310223</v>
+        <v>0.31656</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259265</v>
+        <v>0.258107</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169093</v>
+        <v>0.166913</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.379607</v>
+        <v>0.378727</v>
       </c>
       <c r="C122" t="n">
-        <v>0.305164</v>
+        <v>0.30475</v>
       </c>
       <c r="D122" t="n">
-        <v>0.192823</v>
+        <v>0.19037</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.470714</v>
+        <v>0.469404</v>
       </c>
       <c r="C123" t="n">
-        <v>0.381785</v>
+        <v>0.38014</v>
       </c>
       <c r="D123" t="n">
-        <v>0.133604</v>
+        <v>0.131889</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170658</v>
+        <v>0.173438</v>
       </c>
       <c r="C124" t="n">
-        <v>0.167267</v>
+        <v>0.16708</v>
       </c>
       <c r="D124" t="n">
-        <v>0.137764</v>
+        <v>0.13596</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.178189</v>
+        <v>0.175817</v>
       </c>
       <c r="C125" t="n">
-        <v>0.172061</v>
+        <v>0.1716</v>
       </c>
       <c r="D125" t="n">
-        <v>0.138801</v>
+        <v>0.140486</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179242</v>
+        <v>0.182574</v>
       </c>
       <c r="C126" t="n">
-        <v>0.17795</v>
+        <v>0.172804</v>
       </c>
       <c r="D126" t="n">
-        <v>0.14034</v>
+        <v>0.142118</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184049</v>
+        <v>0.185369</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17919</v>
+        <v>0.179728</v>
       </c>
       <c r="D127" t="n">
-        <v>0.142627</v>
+        <v>0.143185</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.190943</v>
+        <v>0.194461</v>
       </c>
       <c r="C128" t="n">
-        <v>0.185972</v>
+        <v>0.185302</v>
       </c>
       <c r="D128" t="n">
-        <v>0.145698</v>
+        <v>0.14596</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.201581</v>
+        <v>0.199412</v>
       </c>
       <c r="C129" t="n">
-        <v>0.192094</v>
+        <v>0.191768</v>
       </c>
       <c r="D129" t="n">
-        <v>0.147743</v>
+        <v>0.146459</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209712</v>
+        <v>0.208927</v>
       </c>
       <c r="C130" t="n">
-        <v>0.198186</v>
+        <v>0.194735</v>
       </c>
       <c r="D130" t="n">
-        <v>0.150661</v>
+        <v>0.151797</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.223559</v>
+        <v>0.218916</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205476</v>
+        <v>0.20752</v>
       </c>
       <c r="D131" t="n">
-        <v>0.153049</v>
+        <v>0.153926</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.242993</v>
+        <v>0.242055</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217777</v>
+        <v>0.217797</v>
       </c>
       <c r="D132" t="n">
-        <v>0.160377</v>
+        <v>0.157804</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258463</v>
+        <v>0.261516</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23173</v>
+        <v>0.23126</v>
       </c>
       <c r="D133" t="n">
-        <v>0.16545</v>
+        <v>0.167787</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.288428</v>
+        <v>0.290481</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25728</v>
+        <v>0.251246</v>
       </c>
       <c r="D134" t="n">
-        <v>0.178265</v>
+        <v>0.173192</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.327277</v>
+        <v>0.332742</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277312</v>
+        <v>0.277716</v>
       </c>
       <c r="D135" t="n">
-        <v>0.184992</v>
+        <v>0.188172</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.391275</v>
+        <v>0.391792</v>
       </c>
       <c r="C136" t="n">
-        <v>0.322748</v>
+        <v>0.3182</v>
       </c>
       <c r="D136" t="n">
-        <v>0.205965</v>
+        <v>0.205263</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.484417</v>
+        <v>0.484049</v>
       </c>
       <c r="C137" t="n">
-        <v>0.394928</v>
+        <v>0.389786</v>
       </c>
       <c r="D137" t="n">
-        <v>0.248653</v>
+        <v>0.247898</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314976</v>
+        <v>0.310434</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278076</v>
+        <v>0.276764</v>
       </c>
       <c r="D138" t="n">
-        <v>0.251007</v>
+        <v>0.251266</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.31847</v>
+        <v>0.313269</v>
       </c>
       <c r="C139" t="n">
-        <v>0.283685</v>
+        <v>0.275722</v>
       </c>
       <c r="D139" t="n">
-        <v>0.254282</v>
+        <v>0.253108</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323952</v>
+        <v>0.324838</v>
       </c>
       <c r="C140" t="n">
-        <v>0.286591</v>
+        <v>0.288933</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254984</v>
+        <v>0.257295</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33172</v>
+        <v>0.328129</v>
       </c>
       <c r="C141" t="n">
-        <v>0.291413</v>
+        <v>0.286344</v>
       </c>
       <c r="D141" t="n">
-        <v>0.256256</v>
+        <v>0.259266</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335056</v>
+        <v>0.332831</v>
       </c>
       <c r="C142" t="n">
-        <v>0.29465</v>
+        <v>0.296113</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260055</v>
+        <v>0.258856</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.341816</v>
+        <v>0.341806</v>
       </c>
       <c r="C143" t="n">
-        <v>0.299035</v>
+        <v>0.301083</v>
       </c>
       <c r="D143" t="n">
-        <v>0.265227</v>
+        <v>0.26223</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0936389</v>
+        <v>0.0935634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06965540000000001</v>
+        <v>0.0698158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07121950000000001</v>
+        <v>0.071233</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0986491</v>
+        <v>0.0982857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0708052</v>
+        <v>0.0708888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0715721</v>
+        <v>0.07161049999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.109159</v>
+        <v>0.108979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0742318</v>
+        <v>0.0755951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0724678</v>
+        <v>0.0724539</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.124156</v>
+        <v>0.127738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0813112</v>
+        <v>0.08137850000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0739505</v>
+        <v>0.0738935</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148481</v>
+        <v>0.148451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0976437</v>
+        <v>0.09420190000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0754783</v>
+        <v>0.0753808</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.181753</v>
+        <v>0.1817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.11285</v>
+        <v>0.113373</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0798064</v>
+        <v>0.0797462</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221358</v>
+        <v>0.221671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.148668</v>
+        <v>0.149513</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0900175</v>
+        <v>0.0901318</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260921</v>
+        <v>0.260698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184517</v>
+        <v>0.185569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06875680000000001</v>
+        <v>0.06863759999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0863945</v>
+        <v>0.0863433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0676253</v>
+        <v>0.06777710000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06898600000000001</v>
+        <v>0.0689819</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08721760000000001</v>
+        <v>0.08725239999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0680151</v>
+        <v>0.0681742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06918829999999999</v>
+        <v>0.06914190000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0883912</v>
+        <v>0.0884149</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0683378</v>
+        <v>0.0693696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06950480000000001</v>
+        <v>0.0694265</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.089714</v>
+        <v>0.0897806</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0710576</v>
+        <v>0.06909940000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06979680000000001</v>
+        <v>0.0697726</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0922796</v>
+        <v>0.09222900000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06967279999999999</v>
+        <v>0.0708341</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07018050000000001</v>
+        <v>0.0701445</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0954208</v>
+        <v>0.0953845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0710826</v>
+        <v>0.0710245</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0707603</v>
+        <v>0.07071529999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100805</v>
+        <v>0.10089</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07381020000000001</v>
+        <v>0.07417559999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0714721</v>
+        <v>0.0714236</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10906</v>
+        <v>0.10895</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0765777</v>
+        <v>0.0766792</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07221950000000001</v>
+        <v>0.0721706</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120823</v>
+        <v>0.120793</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08349860000000001</v>
+        <v>0.08504970000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07366300000000001</v>
+        <v>0.073689</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135291</v>
+        <v>0.135322</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0926824</v>
+        <v>0.09285839999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07568610000000001</v>
+        <v>0.075686</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155127</v>
+        <v>0.15797</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104499</v>
+        <v>0.106258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.078401</v>
+        <v>0.08016330000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182321</v>
+        <v>0.182365</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119882</v>
+        <v>0.129386</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0845954</v>
+        <v>0.0862306</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.215162</v>
+        <v>0.214953</v>
       </c>
       <c r="C22" t="n">
-        <v>0.150327</v>
+        <v>0.154508</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0982676</v>
+        <v>0.0982773</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.256298</v>
+        <v>0.259803</v>
       </c>
       <c r="C23" t="n">
-        <v>0.188936</v>
+        <v>0.189407</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0697538</v>
+        <v>0.0697663</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09115090000000001</v>
+        <v>0.0911679</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0702972</v>
+        <v>0.0712511</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06995700000000001</v>
+        <v>0.0699352</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0919304</v>
+        <v>0.092254</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0706484</v>
+        <v>0.07162979999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07019590000000001</v>
+        <v>0.0715905</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0942643</v>
+        <v>0.0940532</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07151100000000001</v>
+        <v>0.0725922</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07049080000000001</v>
+        <v>0.07061489999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.096301</v>
+        <v>0.0962237</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0721575</v>
+        <v>0.0739346</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0708927</v>
+        <v>0.072167</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0994869</v>
+        <v>0.0997281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0732057</v>
+        <v>0.07329869999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0713128</v>
+        <v>0.0725749</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103635</v>
+        <v>0.10362</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07497760000000001</v>
+        <v>0.0771674</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0717738</v>
+        <v>0.07306559999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.109172</v>
+        <v>0.110422</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0773187</v>
+        <v>0.07729370000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0723905</v>
+        <v>0.0725982</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11698</v>
+        <v>0.116844</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08108940000000001</v>
+        <v>0.08379929999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07334839999999999</v>
+        <v>0.07366350000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.126331</v>
+        <v>0.12624</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08842990000000001</v>
+        <v>0.09078840000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0746025</v>
+        <v>0.07459300000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137993</v>
+        <v>0.137964</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0935758</v>
+        <v>0.0978185</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07682700000000001</v>
+        <v>0.07763490000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.156282</v>
+        <v>0.156198</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105699</v>
+        <v>0.107404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0806583</v>
+        <v>0.0827904</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179341</v>
+        <v>0.179986</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123187</v>
+        <v>0.123806</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08740539999999999</v>
+        <v>0.08972529999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209875</v>
+        <v>0.219301</v>
       </c>
       <c r="C36" t="n">
-        <v>0.144853</v>
+        <v>0.145979</v>
       </c>
       <c r="D36" t="n">
-        <v>0.098672</v>
+        <v>0.100291</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251543</v>
+        <v>0.253391</v>
       </c>
       <c r="C37" t="n">
-        <v>0.182902</v>
+        <v>0.182976</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0705952</v>
+        <v>0.07062209999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09229999999999999</v>
+        <v>0.093251</v>
       </c>
       <c r="C38" t="n">
-        <v>0.072063</v>
+        <v>0.0734168</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07087069999999999</v>
+        <v>0.0712787</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0935276</v>
+        <v>0.0935339</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07266209999999999</v>
+        <v>0.07411180000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0711738</v>
+        <v>0.0710967</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09532740000000001</v>
+        <v>0.0950714</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07381500000000001</v>
+        <v>0.0756893</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0715237</v>
+        <v>0.0725784</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09727669999999999</v>
+        <v>0.0981678</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0750437</v>
+        <v>0.07484399999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07198740000000001</v>
+        <v>0.07215820000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100455</v>
+        <v>0.100279</v>
       </c>
       <c r="C42" t="n">
-        <v>0.076164</v>
+        <v>0.0778257</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0725367</v>
+        <v>0.07249940000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104238</v>
+        <v>0.104149</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07811650000000001</v>
+        <v>0.0785698</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07288699999999999</v>
+        <v>0.0728751</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109213</v>
+        <v>0.110077</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0803811</v>
+        <v>0.0809433</v>
       </c>
       <c r="D44" t="n">
-        <v>0.073561</v>
+        <v>0.07367079999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116045</v>
+        <v>0.116781</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0835597</v>
+        <v>0.0844753</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07454479999999999</v>
+        <v>0.0746038</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125105</v>
+        <v>0.125036</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08836330000000001</v>
+        <v>0.091931</v>
       </c>
       <c r="D46" t="n">
-        <v>0.075919</v>
+        <v>0.0767005</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136401</v>
+        <v>0.13638</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0948836</v>
+        <v>0.0960912</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0779074</v>
+        <v>0.0778843</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151245</v>
+        <v>0.151151</v>
       </c>
       <c r="C48" t="n">
-        <v>0.104078</v>
+        <v>0.105745</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0812143</v>
+        <v>0.0830408</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173518</v>
+        <v>0.173581</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116693</v>
+        <v>0.123869</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0866195</v>
+        <v>0.0867386</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203791</v>
+        <v>0.203424</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136884</v>
+        <v>0.140788</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0950561</v>
+        <v>0.0951211</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24473</v>
+        <v>0.255251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.168592</v>
+        <v>0.167563</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0724364</v>
+        <v>0.0726098</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.289916</v>
+        <v>0.290079</v>
       </c>
       <c r="C52" t="n">
-        <v>0.218247</v>
+        <v>0.219632</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0726064</v>
+        <v>0.072564</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0971451</v>
+        <v>0.09689490000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0761274</v>
+        <v>0.0758784</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0730717</v>
+        <v>0.0725794</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0984809</v>
+        <v>0.0991384</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07689509999999999</v>
+        <v>0.07728260000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07330159999999999</v>
+        <v>0.07375760000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100491</v>
+        <v>0.100487</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0781111</v>
+        <v>0.07908419999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0737854</v>
+        <v>0.0739268</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103499</v>
+        <v>0.103718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07927579999999999</v>
+        <v>0.0800308</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0740516</v>
+        <v>0.0742746</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107371</v>
+        <v>0.108126</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0818292</v>
+        <v>0.0838956</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0752261</v>
+        <v>0.0748602</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111696</v>
+        <v>0.111906</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0841903</v>
+        <v>0.0855929</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0759079</v>
+        <v>0.0756298</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.11931</v>
+        <v>0.119972</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08747539999999999</v>
+        <v>0.0889147</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0767849</v>
+        <v>0.0772154</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127039</v>
+        <v>0.128051</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0913143</v>
+        <v>0.0938007</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0782789</v>
+        <v>0.078891</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.138076</v>
+        <v>0.13828</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0975945</v>
+        <v>0.100621</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0807133</v>
+        <v>0.0810015</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.153925</v>
+        <v>0.152525</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106559</v>
+        <v>0.109391</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0842566</v>
+        <v>0.0831192</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17259</v>
+        <v>0.177167</v>
       </c>
       <c r="C63" t="n">
-        <v>0.118998</v>
+        <v>0.12242</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08900429999999999</v>
+        <v>0.0876238</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200738</v>
+        <v>0.208512</v>
       </c>
       <c r="C64" t="n">
-        <v>0.13736</v>
+        <v>0.140387</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0964869</v>
+        <v>0.0958706</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240098</v>
+        <v>0.249266</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16749</v>
+        <v>0.167937</v>
       </c>
       <c r="D65" t="n">
-        <v>0.110745</v>
+        <v>0.110225</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285352</v>
+        <v>0.285538</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211819</v>
+        <v>0.2131</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0800539</v>
+        <v>0.080493</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1071</v>
+        <v>0.108771</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0855289</v>
+        <v>0.08572979999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0809623</v>
+        <v>0.081009</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108328</v>
+        <v>0.111873</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0868447</v>
+        <v>0.08727269999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08021250000000001</v>
+        <v>0.0803972</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110366</v>
+        <v>0.110657</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08744540000000001</v>
+        <v>0.0883109</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08192099999999999</v>
+        <v>0.0813315</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114781</v>
+        <v>0.115239</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0893775</v>
+        <v>0.0895748</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0818913</v>
+        <v>0.0818869</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118309</v>
+        <v>0.118924</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08977739999999999</v>
+        <v>0.0921347</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08201459999999999</v>
+        <v>0.082258</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121434</v>
+        <v>0.121192</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0927617</v>
+        <v>0.0937477</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0833279</v>
+        <v>0.0832865</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128546</v>
+        <v>0.126943</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0971117</v>
+        <v>0.097189</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0838299</v>
+        <v>0.0851841</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.138097</v>
+        <v>0.137874</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0990815</v>
+        <v>0.102745</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08523849999999999</v>
+        <v>0.0863281</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145758</v>
+        <v>0.150834</v>
       </c>
       <c r="C75" t="n">
-        <v>0.106769</v>
+        <v>0.108085</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0880614</v>
+        <v>0.0880069</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.163608</v>
+        <v>0.160842</v>
       </c>
       <c r="C76" t="n">
-        <v>0.114691</v>
+        <v>0.115585</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0897232</v>
+        <v>0.09097379999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.17941</v>
+        <v>0.180022</v>
       </c>
       <c r="C77" t="n">
-        <v>0.125217</v>
+        <v>0.128023</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0961193</v>
+        <v>0.09511020000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207883</v>
+        <v>0.212409</v>
       </c>
       <c r="C78" t="n">
-        <v>0.14195</v>
+        <v>0.144462</v>
       </c>
       <c r="D78" t="n">
-        <v>0.101587</v>
+        <v>0.102657</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245316</v>
+        <v>0.248176</v>
       </c>
       <c r="C79" t="n">
-        <v>0.168712</v>
+        <v>0.168041</v>
       </c>
       <c r="D79" t="n">
-        <v>0.11434</v>
+        <v>0.114476</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.298958</v>
+        <v>0.296556</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21243</v>
+        <v>0.214871</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0865452</v>
+        <v>0.0879405</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121477</v>
+        <v>0.1201</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0955889</v>
+        <v>0.0960887</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08695269999999999</v>
+        <v>0.0896902</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123497</v>
+        <v>0.123299</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0975164</v>
+        <v>0.0969255</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08758340000000001</v>
+        <v>0.09043039999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124203</v>
+        <v>0.125348</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09901069999999999</v>
+        <v>0.0994577</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0891479</v>
+        <v>0.0901559</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128602</v>
+        <v>0.128792</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101865</v>
+        <v>0.102439</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08888450000000001</v>
+        <v>0.0916901</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131083</v>
+        <v>0.132949</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104201</v>
+        <v>0.106538</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0923547</v>
+        <v>0.09261990000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13788</v>
+        <v>0.136035</v>
       </c>
       <c r="C86" t="n">
-        <v>0.108034</v>
+        <v>0.108309</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09142450000000001</v>
+        <v>0.0931863</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.14276</v>
+        <v>0.142656</v>
       </c>
       <c r="C87" t="n">
-        <v>0.112924</v>
+        <v>0.11207</v>
       </c>
       <c r="D87" t="n">
-        <v>0.095996</v>
+        <v>0.09489119999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.151047</v>
+        <v>0.150517</v>
       </c>
       <c r="C88" t="n">
-        <v>0.118892</v>
+        <v>0.118302</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0970435</v>
+        <v>0.0967286</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.16232</v>
+        <v>0.164933</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126642</v>
+        <v>0.126665</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0984568</v>
+        <v>0.09987020000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177709</v>
+        <v>0.176903</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138162</v>
+        <v>0.135554</v>
       </c>
       <c r="D90" t="n">
-        <v>0.104251</v>
+        <v>0.104588</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.198184</v>
+        <v>0.197005</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147288</v>
+        <v>0.150161</v>
       </c>
       <c r="D91" t="n">
-        <v>0.109965</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.233438</v>
+        <v>0.226486</v>
       </c>
       <c r="C92" t="n">
-        <v>0.165504</v>
+        <v>0.168576</v>
       </c>
       <c r="D92" t="n">
-        <v>0.118053</v>
+        <v>0.11886</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.271877</v>
+        <v>0.275448</v>
       </c>
       <c r="C93" t="n">
-        <v>0.193469</v>
+        <v>0.200445</v>
       </c>
       <c r="D93" t="n">
-        <v>0.129145</v>
+        <v>0.130646</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331461</v>
+        <v>0.330598</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238605</v>
+        <v>0.239316</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0993822</v>
+        <v>0.0987924</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133305</v>
+        <v>0.134106</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117721</v>
+        <v>0.117929</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100512</v>
+        <v>0.0991582</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.138036</v>
+        <v>0.135893</v>
       </c>
       <c r="C96" t="n">
-        <v>0.11993</v>
+        <v>0.121456</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102201</v>
+        <v>0.101769</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139917</v>
+        <v>0.139772</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1207</v>
+        <v>0.120484</v>
       </c>
       <c r="D97" t="n">
-        <v>0.103767</v>
+        <v>0.104546</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143852</v>
+        <v>0.143544</v>
       </c>
       <c r="C98" t="n">
-        <v>0.123657</v>
+        <v>0.126334</v>
       </c>
       <c r="D98" t="n">
-        <v>0.105499</v>
+        <v>0.105745</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14891</v>
+        <v>0.148585</v>
       </c>
       <c r="C99" t="n">
-        <v>0.127329</v>
+        <v>0.130154</v>
       </c>
       <c r="D99" t="n">
-        <v>0.106074</v>
+        <v>0.107584</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154552</v>
+        <v>0.156005</v>
       </c>
       <c r="C100" t="n">
-        <v>0.134644</v>
+        <v>0.135513</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109797</v>
+        <v>0.110545</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161628</v>
+        <v>0.161375</v>
       </c>
       <c r="C101" t="n">
-        <v>0.140703</v>
+        <v>0.140418</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112047</v>
+        <v>0.113089</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.17262</v>
+        <v>0.17233</v>
       </c>
       <c r="C102" t="n">
-        <v>0.143142</v>
+        <v>0.148345</v>
       </c>
       <c r="D102" t="n">
-        <v>0.112635</v>
+        <v>0.11461</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.184186</v>
+        <v>0.180779</v>
       </c>
       <c r="C103" t="n">
-        <v>0.154198</v>
+        <v>0.155935</v>
       </c>
       <c r="D103" t="n">
-        <v>0.117804</v>
+        <v>0.116307</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199481</v>
+        <v>0.199529</v>
       </c>
       <c r="C104" t="n">
-        <v>0.165693</v>
+        <v>0.166856</v>
       </c>
       <c r="D104" t="n">
-        <v>0.121832</v>
+        <v>0.121868</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215818</v>
+        <v>0.215563</v>
       </c>
       <c r="C105" t="n">
-        <v>0.180474</v>
+        <v>0.180683</v>
       </c>
       <c r="D105" t="n">
-        <v>0.12727</v>
+        <v>0.128312</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.251423</v>
+        <v>0.251502</v>
       </c>
       <c r="C106" t="n">
-        <v>0.202038</v>
+        <v>0.204077</v>
       </c>
       <c r="D106" t="n">
-        <v>0.136157</v>
+        <v>0.136389</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.294136</v>
+        <v>0.292313</v>
       </c>
       <c r="C107" t="n">
-        <v>0.233076</v>
+        <v>0.234158</v>
       </c>
       <c r="D107" t="n">
-        <v>0.148991</v>
+        <v>0.1469</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.350551</v>
+        <v>0.351203</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280109</v>
+        <v>0.280589</v>
       </c>
       <c r="D108" t="n">
-        <v>0.107432</v>
+        <v>0.107677</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.441603</v>
+        <v>0.44774</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351654</v>
+        <v>0.360107</v>
       </c>
       <c r="D109" t="n">
-        <v>0.108727</v>
+        <v>0.108899</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146679</v>
+        <v>0.145167</v>
       </c>
       <c r="C110" t="n">
-        <v>0.139562</v>
+        <v>0.140467</v>
       </c>
       <c r="D110" t="n">
-        <v>0.110122</v>
+        <v>0.110144</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.149696</v>
+        <v>0.148476</v>
       </c>
       <c r="C111" t="n">
-        <v>0.143866</v>
+        <v>0.145041</v>
       </c>
       <c r="D111" t="n">
-        <v>0.111547</v>
+        <v>0.112655</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153691</v>
+        <v>0.152274</v>
       </c>
       <c r="C112" t="n">
-        <v>0.148216</v>
+        <v>0.149619</v>
       </c>
       <c r="D112" t="n">
-        <v>0.113189</v>
+        <v>0.114345</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.156956</v>
+        <v>0.157102</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153404</v>
+        <v>0.154788</v>
       </c>
       <c r="D113" t="n">
-        <v>0.115169</v>
+        <v>0.116492</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165005</v>
+        <v>0.165424</v>
       </c>
       <c r="C114" t="n">
-        <v>0.158864</v>
+        <v>0.159539</v>
       </c>
       <c r="D114" t="n">
-        <v>0.118235</v>
+        <v>0.117922</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.173296</v>
+        <v>0.173751</v>
       </c>
       <c r="C115" t="n">
-        <v>0.165067</v>
+        <v>0.165748</v>
       </c>
       <c r="D115" t="n">
-        <v>0.121042</v>
+        <v>0.120691</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.182207</v>
+        <v>0.184345</v>
       </c>
       <c r="C116" t="n">
-        <v>0.172313</v>
+        <v>0.173242</v>
       </c>
       <c r="D116" t="n">
-        <v>0.12474</v>
+        <v>0.124817</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.198182</v>
+        <v>0.195671</v>
       </c>
       <c r="C117" t="n">
-        <v>0.182156</v>
+        <v>0.181719</v>
       </c>
       <c r="D117" t="n">
-        <v>0.128526</v>
+        <v>0.129228</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216237</v>
+        <v>0.216849</v>
       </c>
       <c r="C118" t="n">
-        <v>0.194456</v>
+        <v>0.195631</v>
       </c>
       <c r="D118" t="n">
-        <v>0.134725</v>
+        <v>0.135111</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240815</v>
+        <v>0.236768</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209966</v>
+        <v>0.210367</v>
       </c>
       <c r="D119" t="n">
-        <v>0.141208</v>
+        <v>0.143594</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272693</v>
+        <v>0.273179</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228781</v>
+        <v>0.229443</v>
       </c>
       <c r="D120" t="n">
-        <v>0.152704</v>
+        <v>0.154545</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.31656</v>
+        <v>0.309665</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258107</v>
+        <v>0.25859</v>
       </c>
       <c r="D121" t="n">
-        <v>0.166913</v>
+        <v>0.168586</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.378727</v>
+        <v>0.379651</v>
       </c>
       <c r="C122" t="n">
-        <v>0.30475</v>
+        <v>0.304244</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19037</v>
+        <v>0.19171</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.469404</v>
+        <v>0.472672</v>
       </c>
       <c r="C123" t="n">
-        <v>0.38014</v>
+        <v>0.381109</v>
       </c>
       <c r="D123" t="n">
-        <v>0.131889</v>
+        <v>0.136939</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173438</v>
+        <v>0.169853</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16708</v>
+        <v>0.167819</v>
       </c>
       <c r="D124" t="n">
-        <v>0.13596</v>
+        <v>0.134598</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.175817</v>
+        <v>0.177666</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1716</v>
+        <v>0.170303</v>
       </c>
       <c r="D125" t="n">
-        <v>0.140486</v>
+        <v>0.134936</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.182574</v>
+        <v>0.182203</v>
       </c>
       <c r="C126" t="n">
-        <v>0.172804</v>
+        <v>0.174151</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142118</v>
+        <v>0.138877</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.185369</v>
+        <v>0.188187</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179728</v>
+        <v>0.183288</v>
       </c>
       <c r="D127" t="n">
-        <v>0.143185</v>
+        <v>0.14301</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194461</v>
+        <v>0.191524</v>
       </c>
       <c r="C128" t="n">
-        <v>0.185302</v>
+        <v>0.185816</v>
       </c>
       <c r="D128" t="n">
-        <v>0.14596</v>
+        <v>0.145253</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.199412</v>
+        <v>0.198628</v>
       </c>
       <c r="C129" t="n">
-        <v>0.191768</v>
+        <v>0.191048</v>
       </c>
       <c r="D129" t="n">
-        <v>0.146459</v>
+        <v>0.146346</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208927</v>
+        <v>0.210313</v>
       </c>
       <c r="C130" t="n">
-        <v>0.194735</v>
+        <v>0.195967</v>
       </c>
       <c r="D130" t="n">
-        <v>0.151797</v>
+        <v>0.151416</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.218916</v>
+        <v>0.226366</v>
       </c>
       <c r="C131" t="n">
-        <v>0.20752</v>
+        <v>0.209</v>
       </c>
       <c r="D131" t="n">
-        <v>0.153926</v>
+        <v>0.15595</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.242055</v>
+        <v>0.241116</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217797</v>
+        <v>0.217043</v>
       </c>
       <c r="D132" t="n">
-        <v>0.157804</v>
+        <v>0.159097</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261516</v>
+        <v>0.257984</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23126</v>
+        <v>0.231152</v>
       </c>
       <c r="D133" t="n">
-        <v>0.167787</v>
+        <v>0.1691</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.290481</v>
+        <v>0.29115</v>
       </c>
       <c r="C134" t="n">
-        <v>0.251246</v>
+        <v>0.253321</v>
       </c>
       <c r="D134" t="n">
-        <v>0.173192</v>
+        <v>0.174899</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.332742</v>
+        <v>0.333429</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277716</v>
+        <v>0.279888</v>
       </c>
       <c r="D135" t="n">
-        <v>0.188172</v>
+        <v>0.184694</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.391792</v>
+        <v>0.392307</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3182</v>
+        <v>0.325398</v>
       </c>
       <c r="D136" t="n">
-        <v>0.205263</v>
+        <v>0.204559</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.484049</v>
+        <v>0.475895</v>
       </c>
       <c r="C137" t="n">
-        <v>0.389786</v>
+        <v>0.392803</v>
       </c>
       <c r="D137" t="n">
-        <v>0.247898</v>
+        <v>0.251756</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.310434</v>
+        <v>0.313046</v>
       </c>
       <c r="C138" t="n">
-        <v>0.276764</v>
+        <v>0.280372</v>
       </c>
       <c r="D138" t="n">
-        <v>0.251266</v>
+        <v>0.252943</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.313269</v>
+        <v>0.317509</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275722</v>
+        <v>0.282542</v>
       </c>
       <c r="D139" t="n">
-        <v>0.253108</v>
+        <v>0.252358</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.324838</v>
+        <v>0.321665</v>
       </c>
       <c r="C140" t="n">
-        <v>0.288933</v>
+        <v>0.287366</v>
       </c>
       <c r="D140" t="n">
-        <v>0.257295</v>
+        <v>0.257869</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328129</v>
+        <v>0.33224</v>
       </c>
       <c r="C141" t="n">
-        <v>0.286344</v>
+        <v>0.290293</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259266</v>
+        <v>0.258448</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332831</v>
+        <v>0.333923</v>
       </c>
       <c r="C142" t="n">
-        <v>0.296113</v>
+        <v>0.296732</v>
       </c>
       <c r="D142" t="n">
-        <v>0.258856</v>
+        <v>0.263811</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.341806</v>
+        <v>0.341858</v>
       </c>
       <c r="C143" t="n">
-        <v>0.301083</v>
+        <v>0.299859</v>
       </c>
       <c r="D143" t="n">
-        <v>0.26223</v>
+        <v>0.261361</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09306929999999999</v>
+        <v>0.09226819999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132853</v>
+        <v>0.132262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0778741</v>
+        <v>0.07382320000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0976334</v>
+        <v>0.0966756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.136846</v>
+        <v>0.136575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0784087</v>
+        <v>0.07479769999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.107072</v>
+        <v>0.105508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.144169</v>
+        <v>0.144002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0795365</v>
+        <v>0.07587770000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122601</v>
+        <v>0.120767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.152382</v>
+        <v>0.152629</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08093409999999999</v>
+        <v>0.0771115</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148469</v>
+        <v>0.14616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.165659</v>
+        <v>0.166486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0827587</v>
+        <v>0.0793715</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.177718</v>
+        <v>0.175458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18563</v>
+        <v>0.187522</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0871898</v>
+        <v>0.083758</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.218865</v>
+        <v>0.216578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.121186</v>
+        <v>0.120483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0970509</v>
+        <v>0.0950689</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.26501</v>
+        <v>0.261638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.121799</v>
+        <v>0.121045</v>
       </c>
       <c r="D9" t="n">
-        <v>0.075944</v>
+        <v>0.0712343</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0867802</v>
+        <v>0.08597680000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.123669</v>
+        <v>0.121577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.076153</v>
+        <v>0.0714772</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0873862</v>
+        <v>0.0869381</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123763</v>
+        <v>0.122623</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0763472</v>
+        <v>0.07169150000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0887018</v>
+        <v>0.0879862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.125168</v>
+        <v>0.123873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07652249999999999</v>
+        <v>0.0720522</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0898555</v>
+        <v>0.0893545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.126743</v>
+        <v>0.125312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0769254</v>
+        <v>0.0724808</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0923359</v>
+        <v>0.0919857</v>
       </c>
       <c r="C14" t="n">
-        <v>0.128191</v>
+        <v>0.127365</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0772977</v>
+        <v>0.0727672</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09525069999999999</v>
+        <v>0.09431730000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.130574</v>
+        <v>0.129723</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0777154</v>
+        <v>0.073335</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100305</v>
+        <v>0.0993942</v>
       </c>
       <c r="C16" t="n">
-        <v>0.134038</v>
+        <v>0.133195</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0782096</v>
+        <v>0.07384499999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10775</v>
+        <v>0.106917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.139502</v>
+        <v>0.138672</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0789164</v>
+        <v>0.0748606</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.119299</v>
+        <v>0.118002</v>
       </c>
       <c r="C18" t="n">
-        <v>0.146737</v>
+        <v>0.145004</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08022600000000001</v>
+        <v>0.0762138</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.133532</v>
+        <v>0.132293</v>
       </c>
       <c r="C19" t="n">
-        <v>0.156005</v>
+        <v>0.155525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0820673</v>
+        <v>0.0782621</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153444</v>
+        <v>0.152199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.168705</v>
+        <v>0.169205</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08504490000000001</v>
+        <v>0.08140559999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181216</v>
+        <v>0.179536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187974</v>
+        <v>0.187838</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08990480000000001</v>
+        <v>0.08696719999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.215148</v>
+        <v>0.213141</v>
       </c>
       <c r="C22" t="n">
-        <v>0.131329</v>
+        <v>0.128829</v>
       </c>
       <c r="D22" t="n">
-        <v>0.101792</v>
+        <v>0.0995456</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258678</v>
+        <v>0.25575</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131711</v>
+        <v>0.130058</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0775677</v>
+        <v>0.0725494</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0913172</v>
+        <v>0.09074409999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.132229</v>
+        <v>0.131188</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07771110000000001</v>
+        <v>0.07268819999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09250990000000001</v>
+        <v>0.0917515</v>
       </c>
       <c r="C25" t="n">
-        <v>0.133265</v>
+        <v>0.131957</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07815229999999999</v>
+        <v>0.0731545</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0940008</v>
+        <v>0.09360010000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.13454</v>
+        <v>0.132975</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07851660000000001</v>
+        <v>0.0734383</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0959716</v>
+        <v>0.0955564</v>
       </c>
       <c r="C27" t="n">
-        <v>0.135881</v>
+        <v>0.134408</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0787945</v>
+        <v>0.07392840000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09947830000000001</v>
+        <v>0.0986553</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137185</v>
+        <v>0.135869</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0791152</v>
+        <v>0.07422670000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103328</v>
+        <v>0.10257</v>
       </c>
       <c r="C29" t="n">
-        <v>0.139727</v>
+        <v>0.138281</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0795989</v>
+        <v>0.074791</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108498</v>
+        <v>0.107739</v>
       </c>
       <c r="C30" t="n">
-        <v>0.143176</v>
+        <v>0.142749</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0802172</v>
+        <v>0.07548000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116342</v>
+        <v>0.115149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.148342</v>
+        <v>0.147887</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08086889999999999</v>
+        <v>0.07643170000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125155</v>
+        <v>0.12372</v>
       </c>
       <c r="C32" t="n">
-        <v>0.154144</v>
+        <v>0.154308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0823917</v>
+        <v>0.0780066</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136494</v>
+        <v>0.135171</v>
       </c>
       <c r="C33" t="n">
-        <v>0.162414</v>
+        <v>0.162259</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08440640000000001</v>
+        <v>0.0801779</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154781</v>
+        <v>0.153255</v>
       </c>
       <c r="C34" t="n">
-        <v>0.175157</v>
+        <v>0.176678</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0873376</v>
+        <v>0.0833489</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.178597</v>
+        <v>0.176779</v>
       </c>
       <c r="C35" t="n">
-        <v>0.192866</v>
+        <v>0.194739</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0930023</v>
+        <v>0.0892119</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211207</v>
+        <v>0.208891</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213917</v>
+        <v>0.217221</v>
       </c>
       <c r="D36" t="n">
-        <v>0.102475</v>
+        <v>0.09915119999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255144</v>
+        <v>0.251426</v>
       </c>
       <c r="C37" t="n">
-        <v>0.140679</v>
+        <v>0.140062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07814939999999999</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09256440000000001</v>
+        <v>0.091951</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141105</v>
+        <v>0.140896</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0785521</v>
+        <v>0.07351539999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0935964</v>
+        <v>0.0931165</v>
       </c>
       <c r="C39" t="n">
-        <v>0.142392</v>
+        <v>0.141445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0787445</v>
+        <v>0.0735913</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951866</v>
+        <v>0.094625</v>
       </c>
       <c r="C40" t="n">
-        <v>0.143547</v>
+        <v>0.143437</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0790985</v>
+        <v>0.0738803</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0971875</v>
+        <v>0.0966214</v>
       </c>
       <c r="C41" t="n">
-        <v>0.144908</v>
+        <v>0.144276</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0794248</v>
+        <v>0.07428999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100307</v>
+        <v>0.09951939999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.146972</v>
+        <v>0.146188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07978970000000001</v>
+        <v>0.07465529999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103897</v>
+        <v>0.103071</v>
       </c>
       <c r="C43" t="n">
-        <v>0.149452</v>
+        <v>0.148634</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0804429</v>
+        <v>0.0753692</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.10867</v>
+        <v>0.107716</v>
       </c>
       <c r="C44" t="n">
-        <v>0.152835</v>
+        <v>0.152279</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0813016</v>
+        <v>0.0761348</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115351</v>
+        <v>0.114327</v>
       </c>
       <c r="C45" t="n">
-        <v>0.158524</v>
+        <v>0.157422</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0821962</v>
+        <v>0.0773152</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123979</v>
+        <v>0.122799</v>
       </c>
       <c r="C46" t="n">
-        <v>0.164163</v>
+        <v>0.163724</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0834472</v>
+        <v>0.07873579999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135065</v>
+        <v>0.133716</v>
       </c>
       <c r="C47" t="n">
-        <v>0.173604</v>
+        <v>0.173047</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08563419999999999</v>
+        <v>0.0811463</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150149</v>
+        <v>0.148244</v>
       </c>
       <c r="C48" t="n">
-        <v>0.185763</v>
+        <v>0.185273</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08882420000000001</v>
+        <v>0.0843163</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.171933</v>
+        <v>0.170364</v>
       </c>
       <c r="C49" t="n">
-        <v>0.201744</v>
+        <v>0.202043</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0941813</v>
+        <v>0.0901936</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203425</v>
+        <v>0.200708</v>
       </c>
       <c r="C50" t="n">
-        <v>0.222492</v>
+        <v>0.223019</v>
       </c>
       <c r="D50" t="n">
-        <v>0.103245</v>
+        <v>0.0998465</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247749</v>
+        <v>0.243095</v>
       </c>
       <c r="C51" t="n">
-        <v>0.145057</v>
+        <v>0.144677</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0807785</v>
+        <v>0.0766032</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.306293</v>
+        <v>0.289925</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146076</v>
+        <v>0.145572</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0811214</v>
+        <v>0.0767495</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097369</v>
+        <v>0.09654260000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.146868</v>
+        <v>0.146558</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08098420000000001</v>
+        <v>0.0766829</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09928480000000001</v>
+        <v>0.0982304</v>
       </c>
       <c r="C54" t="n">
-        <v>0.148089</v>
+        <v>0.147517</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0822345</v>
+        <v>0.0758132</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100591</v>
+        <v>0.100759</v>
       </c>
       <c r="C55" t="n">
-        <v>0.149752</v>
+        <v>0.14923</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0824493</v>
+        <v>0.0758977</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103122</v>
+        <v>0.103368</v>
       </c>
       <c r="C56" t="n">
-        <v>0.151619</v>
+        <v>0.151344</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0836413</v>
+        <v>0.0766212</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106738</v>
+        <v>0.107246</v>
       </c>
       <c r="C57" t="n">
-        <v>0.154051</v>
+        <v>0.153493</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0836919</v>
+        <v>0.07715900000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112098</v>
+        <v>0.11049</v>
       </c>
       <c r="C58" t="n">
-        <v>0.15733</v>
+        <v>0.156907</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0845904</v>
+        <v>0.0779555</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118073</v>
+        <v>0.1171</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16232</v>
+        <v>0.16182</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0852861</v>
+        <v>0.07915410000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126644</v>
+        <v>0.125591</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168781</v>
+        <v>0.16829</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0857383</v>
+        <v>0.0803382</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.136764</v>
+        <v>0.135593</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177653</v>
+        <v>0.177438</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0885155</v>
+        <v>0.0828449</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151605</v>
+        <v>0.149905</v>
       </c>
       <c r="C62" t="n">
-        <v>0.190025</v>
+        <v>0.190086</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0915724</v>
+        <v>0.08622390000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171938</v>
+        <v>0.170517</v>
       </c>
       <c r="C63" t="n">
-        <v>0.20399</v>
+        <v>0.205733</v>
       </c>
       <c r="D63" t="n">
-        <v>0.097028</v>
+        <v>0.09166870000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.202688</v>
+        <v>0.200125</v>
       </c>
       <c r="C64" t="n">
-        <v>0.223726</v>
+        <v>0.224909</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106411</v>
+        <v>0.100856</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24286</v>
+        <v>0.241037</v>
       </c>
       <c r="C65" t="n">
-        <v>0.146815</v>
+        <v>0.146742</v>
       </c>
       <c r="D65" t="n">
-        <v>0.120453</v>
+        <v>0.115293</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.291901</v>
+        <v>0.286206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.14761</v>
+        <v>0.147634</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08835469999999999</v>
+        <v>0.08415599999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107019</v>
+        <v>0.107657</v>
       </c>
       <c r="C67" t="n">
-        <v>0.148642</v>
+        <v>0.148336</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0891116</v>
+        <v>0.0838026</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109022</v>
+        <v>0.1091</v>
       </c>
       <c r="C68" t="n">
-        <v>0.149892</v>
+        <v>0.149653</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0888837</v>
+        <v>0.08459750000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111604</v>
+        <v>0.109922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.151124</v>
+        <v>0.151187</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0890798</v>
+        <v>0.0855933</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115019</v>
+        <v>0.113765</v>
       </c>
       <c r="C70" t="n">
-        <v>0.153308</v>
+        <v>0.152958</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09014469999999999</v>
+        <v>0.0851147</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118376</v>
+        <v>0.116404</v>
       </c>
       <c r="C71" t="n">
-        <v>0.15574</v>
+        <v>0.155446</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09052449999999999</v>
+        <v>0.0868288</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122372</v>
+        <v>0.122081</v>
       </c>
       <c r="C72" t="n">
-        <v>0.159246</v>
+        <v>0.158475</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0914237</v>
+        <v>0.0869795</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127624</v>
+        <v>0.127151</v>
       </c>
       <c r="C73" t="n">
-        <v>0.163581</v>
+        <v>0.163242</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09273289999999999</v>
+        <v>0.08794490000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.134913</v>
+        <v>0.133723</v>
       </c>
       <c r="C74" t="n">
-        <v>0.169871</v>
+        <v>0.169674</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09365</v>
+        <v>0.0898002</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145268</v>
+        <v>0.143534</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17805</v>
+        <v>0.17869</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0960661</v>
+        <v>0.0927292</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159398</v>
+        <v>0.158051</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189621</v>
+        <v>0.189825</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0983174</v>
+        <v>0.09486120000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.177913</v>
+        <v>0.177736</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204165</v>
+        <v>0.206536</v>
       </c>
       <c r="D77" t="n">
-        <v>0.103706</v>
+        <v>0.09920809999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206477</v>
+        <v>0.206493</v>
       </c>
       <c r="C78" t="n">
-        <v>0.222463</v>
+        <v>0.225781</v>
       </c>
       <c r="D78" t="n">
-        <v>0.109824</v>
+        <v>0.10726</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245679</v>
+        <v>0.246686</v>
       </c>
       <c r="C79" t="n">
-        <v>0.154374</v>
+        <v>0.153196</v>
       </c>
       <c r="D79" t="n">
-        <v>0.123629</v>
+        <v>0.121753</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300715</v>
+        <v>0.296006</v>
       </c>
       <c r="C80" t="n">
-        <v>0.156258</v>
+        <v>0.156277</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09632060000000001</v>
+        <v>0.0924611</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.12007</v>
+        <v>0.11976</v>
       </c>
       <c r="C81" t="n">
-        <v>0.156671</v>
+        <v>0.158499</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0970583</v>
+        <v>0.0929335</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123148</v>
+        <v>0.121347</v>
       </c>
       <c r="C82" t="n">
-        <v>0.160067</v>
+        <v>0.156435</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0981046</v>
+        <v>0.09324209999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124077</v>
+        <v>0.123577</v>
       </c>
       <c r="C83" t="n">
-        <v>0.163605</v>
+        <v>0.158246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0984232</v>
+        <v>0.09416720000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127282</v>
+        <v>0.126142</v>
       </c>
       <c r="C84" t="n">
-        <v>0.158307</v>
+        <v>0.160535</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0991354</v>
+        <v>0.0948253</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130831</v>
+        <v>0.13102</v>
       </c>
       <c r="C85" t="n">
-        <v>0.163769</v>
+        <v>0.160384</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0984358</v>
+        <v>0.09589979999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.135569</v>
+        <v>0.137204</v>
       </c>
       <c r="C86" t="n">
-        <v>0.16784</v>
+        <v>0.16626</v>
       </c>
       <c r="D86" t="n">
-        <v>0.101652</v>
+        <v>0.0970873</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.143797</v>
+        <v>0.140618</v>
       </c>
       <c r="C87" t="n">
-        <v>0.171606</v>
+        <v>0.169158</v>
       </c>
       <c r="D87" t="n">
-        <v>0.103268</v>
+        <v>0.0989614</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150328</v>
+        <v>0.148772</v>
       </c>
       <c r="C88" t="n">
-        <v>0.177715</v>
+        <v>0.178668</v>
       </c>
       <c r="D88" t="n">
-        <v>0.105349</v>
+        <v>0.100427</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161372</v>
+        <v>0.159903</v>
       </c>
       <c r="C89" t="n">
-        <v>0.18595</v>
+        <v>0.183938</v>
       </c>
       <c r="D89" t="n">
-        <v>0.10826</v>
+        <v>0.103841</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176543</v>
+        <v>0.174618</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197292</v>
+        <v>0.195882</v>
       </c>
       <c r="D90" t="n">
-        <v>0.112193</v>
+        <v>0.108433</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196841</v>
+        <v>0.194959</v>
       </c>
       <c r="C91" t="n">
-        <v>0.209495</v>
+        <v>0.208705</v>
       </c>
       <c r="D91" t="n">
-        <v>0.116549</v>
+        <v>0.114451</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.232266</v>
+        <v>0.224058</v>
       </c>
       <c r="C92" t="n">
-        <v>0.227889</v>
+        <v>0.229611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.124811</v>
+        <v>0.123045</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267349</v>
+        <v>0.265865</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250459</v>
+        <v>0.250766</v>
       </c>
       <c r="D93" t="n">
-        <v>0.139861</v>
+        <v>0.137369</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.337506</v>
+        <v>0.323717</v>
       </c>
       <c r="C94" t="n">
-        <v>0.311876</v>
+        <v>0.32312</v>
       </c>
       <c r="D94" t="n">
-        <v>0.106091</v>
+        <v>0.102859</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134999</v>
+        <v>0.13303</v>
       </c>
       <c r="C95" t="n">
-        <v>0.318732</v>
+        <v>0.32136</v>
       </c>
       <c r="D95" t="n">
-        <v>0.107495</v>
+        <v>0.104595</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.137519</v>
+        <v>0.135492</v>
       </c>
       <c r="C96" t="n">
-        <v>0.324425</v>
+        <v>0.322835</v>
       </c>
       <c r="D96" t="n">
-        <v>0.109998</v>
+        <v>0.10638</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.14076</v>
+        <v>0.139135</v>
       </c>
       <c r="C97" t="n">
-        <v>0.316905</v>
+        <v>0.315755</v>
       </c>
       <c r="D97" t="n">
-        <v>0.111763</v>
+        <v>0.108039</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143362</v>
+        <v>0.145298</v>
       </c>
       <c r="C98" t="n">
-        <v>0.314099</v>
+        <v>0.324627</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113862</v>
+        <v>0.110212</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148129</v>
+        <v>0.147907</v>
       </c>
       <c r="C99" t="n">
-        <v>0.331462</v>
+        <v>0.325742</v>
       </c>
       <c r="D99" t="n">
-        <v>0.114138</v>
+        <v>0.112116</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153998</v>
+        <v>0.153409</v>
       </c>
       <c r="C100" t="n">
-        <v>0.326362</v>
+        <v>0.336813</v>
       </c>
       <c r="D100" t="n">
-        <v>0.118234</v>
+        <v>0.114256</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160846</v>
+        <v>0.160145</v>
       </c>
       <c r="C101" t="n">
-        <v>0.34535</v>
+        <v>0.331509</v>
       </c>
       <c r="D101" t="n">
-        <v>0.120352</v>
+        <v>0.115028</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170417</v>
+        <v>0.168378</v>
       </c>
       <c r="C102" t="n">
-        <v>0.333554</v>
+        <v>0.334466</v>
       </c>
       <c r="D102" t="n">
-        <v>0.12266</v>
+        <v>0.117975</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.179818</v>
+        <v>0.17918</v>
       </c>
       <c r="C103" t="n">
-        <v>0.352774</v>
+        <v>0.341736</v>
       </c>
       <c r="D103" t="n">
-        <v>0.125816</v>
+        <v>0.122429</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194531</v>
+        <v>0.193442</v>
       </c>
       <c r="C104" t="n">
-        <v>0.35729</v>
+        <v>0.360586</v>
       </c>
       <c r="D104" t="n">
-        <v>0.130028</v>
+        <v>0.126764</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.219332</v>
+        <v>0.213335</v>
       </c>
       <c r="C105" t="n">
-        <v>0.369178</v>
+        <v>0.366121</v>
       </c>
       <c r="D105" t="n">
-        <v>0.133493</v>
+        <v>0.132364</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.24459</v>
+        <v>0.242437</v>
       </c>
       <c r="C106" t="n">
-        <v>0.374191</v>
+        <v>0.378065</v>
       </c>
       <c r="D106" t="n">
-        <v>0.144007</v>
+        <v>0.140429</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.287034</v>
+        <v>0.285234</v>
       </c>
       <c r="C107" t="n">
-        <v>0.40165</v>
+        <v>0.400101</v>
       </c>
       <c r="D107" t="n">
-        <v>0.157001</v>
+        <v>0.153786</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.35289</v>
+        <v>0.349593</v>
       </c>
       <c r="C108" t="n">
-        <v>0.556218</v>
+        <v>0.558681</v>
       </c>
       <c r="D108" t="n">
-        <v>0.11612</v>
+        <v>0.113001</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.44967</v>
+        <v>0.44657</v>
       </c>
       <c r="C109" t="n">
-        <v>0.557253</v>
+        <v>0.558271</v>
       </c>
       <c r="D109" t="n">
-        <v>0.117705</v>
+        <v>0.113757</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146135</v>
+        <v>0.144854</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557386</v>
+        <v>0.550827</v>
       </c>
       <c r="D110" t="n">
-        <v>0.119273</v>
+        <v>0.115122</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.147944</v>
+        <v>0.148046</v>
       </c>
       <c r="C111" t="n">
-        <v>0.559105</v>
+        <v>0.560026</v>
       </c>
       <c r="D111" t="n">
-        <v>0.120428</v>
+        <v>0.116753</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153226</v>
+        <v>0.151567</v>
       </c>
       <c r="C112" t="n">
-        <v>0.561285</v>
+        <v>0.562357</v>
       </c>
       <c r="D112" t="n">
-        <v>0.121738</v>
+        <v>0.118123</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158004</v>
+        <v>0.15658</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5621429999999999</v>
+        <v>0.555109</v>
       </c>
       <c r="D113" t="n">
-        <v>0.123942</v>
+        <v>0.120255</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.162771</v>
+        <v>0.162672</v>
       </c>
       <c r="C114" t="n">
-        <v>0.564961</v>
+        <v>0.558157</v>
       </c>
       <c r="D114" t="n">
-        <v>0.12616</v>
+        <v>0.122596</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.170765</v>
+        <v>0.170528</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5689650000000001</v>
+        <v>0.569513</v>
       </c>
       <c r="D115" t="n">
-        <v>0.129057</v>
+        <v>0.125315</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.182942</v>
+        <v>0.180685</v>
       </c>
       <c r="C116" t="n">
-        <v>0.572887</v>
+        <v>0.573744</v>
       </c>
       <c r="D116" t="n">
-        <v>0.132669</v>
+        <v>0.128724</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.195645</v>
+        <v>0.193794</v>
       </c>
       <c r="C117" t="n">
-        <v>0.579579</v>
+        <v>0.580001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.13695</v>
+        <v>0.132881</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211725</v>
+        <v>0.211284</v>
       </c>
       <c r="C118" t="n">
-        <v>0.587824</v>
+        <v>0.58813</v>
       </c>
       <c r="D118" t="n">
-        <v>0.142446</v>
+        <v>0.139068</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.234696</v>
+        <v>0.234345</v>
       </c>
       <c r="C119" t="n">
-        <v>0.597575</v>
+        <v>0.591924</v>
       </c>
       <c r="D119" t="n">
-        <v>0.149913</v>
+        <v>0.146919</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.270958</v>
+        <v>0.264668</v>
       </c>
       <c r="C120" t="n">
-        <v>0.612636</v>
+        <v>0.614514</v>
       </c>
       <c r="D120" t="n">
-        <v>0.160592</v>
+        <v>0.15758</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.317299</v>
+        <v>0.307929</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6316040000000001</v>
+        <v>0.634509</v>
       </c>
       <c r="D121" t="n">
-        <v>0.177007</v>
+        <v>0.173194</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37669</v>
+        <v>0.375445</v>
       </c>
       <c r="C122" t="n">
-        <v>0.654524</v>
+        <v>0.654999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.196965</v>
+        <v>0.196014</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471279</v>
+        <v>0.472744</v>
       </c>
       <c r="C123" t="n">
-        <v>0.653701</v>
+        <v>0.653685</v>
       </c>
       <c r="D123" t="n">
-        <v>0.144044</v>
+        <v>0.135061</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.175659</v>
+        <v>0.169388</v>
       </c>
       <c r="C124" t="n">
-        <v>0.654661</v>
+        <v>0.655661</v>
       </c>
       <c r="D124" t="n">
-        <v>0.144237</v>
+        <v>0.139681</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.177748</v>
+        <v>0.175153</v>
       </c>
       <c r="C125" t="n">
-        <v>0.655408</v>
+        <v>0.6566340000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.145848</v>
+        <v>0.141874</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.181698</v>
+        <v>0.180466</v>
       </c>
       <c r="C126" t="n">
-        <v>0.657832</v>
+        <v>0.658101</v>
       </c>
       <c r="D126" t="n">
-        <v>0.14925</v>
+        <v>0.143367</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.189574</v>
+        <v>0.183299</v>
       </c>
       <c r="C127" t="n">
-        <v>0.647629</v>
+        <v>0.659757</v>
       </c>
       <c r="D127" t="n">
-        <v>0.152591</v>
+        <v>0.143809</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.200191</v>
+        <v>0.190793</v>
       </c>
       <c r="C128" t="n">
-        <v>0.661653</v>
+        <v>0.6622169999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.153437</v>
+        <v>0.147187</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.204927</v>
+        <v>0.199697</v>
       </c>
       <c r="C129" t="n">
-        <v>0.665604</v>
+        <v>0.665157</v>
       </c>
       <c r="D129" t="n">
-        <v>0.157603</v>
+        <v>0.150816</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209664</v>
+        <v>0.208331</v>
       </c>
       <c r="C130" t="n">
-        <v>0.67042</v>
+        <v>0.661342</v>
       </c>
       <c r="D130" t="n">
-        <v>0.162632</v>
+        <v>0.153985</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.226116</v>
+        <v>0.220126</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6764790000000001</v>
+        <v>0.666268</v>
       </c>
       <c r="D131" t="n">
-        <v>0.164333</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.242035</v>
+        <v>0.23441</v>
       </c>
       <c r="C132" t="n">
-        <v>0.682756</v>
+        <v>0.674464</v>
       </c>
       <c r="D132" t="n">
-        <v>0.167003</v>
+        <v>0.16304</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258131</v>
+        <v>0.257848</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6933</v>
+        <v>0.695114</v>
       </c>
       <c r="D133" t="n">
-        <v>0.174889</v>
+        <v>0.171049</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291298</v>
+        <v>0.282537</v>
       </c>
       <c r="C134" t="n">
-        <v>0.707587</v>
+        <v>0.694883</v>
       </c>
       <c r="D134" t="n">
-        <v>0.18843</v>
+        <v>0.176912</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.337583</v>
+        <v>0.326159</v>
       </c>
       <c r="C135" t="n">
-        <v>0.728544</v>
+        <v>0.729637</v>
       </c>
       <c r="D135" t="n">
-        <v>0.197033</v>
+        <v>0.188264</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.396601</v>
+        <v>0.392827</v>
       </c>
       <c r="C136" t="n">
-        <v>0.700721</v>
+        <v>0.696523</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21571</v>
+        <v>0.209808</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.483518</v>
+        <v>0.478072</v>
       </c>
       <c r="C137" t="n">
-        <v>0.701572</v>
+        <v>0.7035940000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.266117</v>
+        <v>0.25371</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311986</v>
+        <v>0.316737</v>
       </c>
       <c r="C138" t="n">
-        <v>0.702242</v>
+        <v>0.698047</v>
       </c>
       <c r="D138" t="n">
-        <v>0.274212</v>
+        <v>0.254439</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.311907</v>
+        <v>0.318568</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7040689999999999</v>
+        <v>0.704782</v>
       </c>
       <c r="D139" t="n">
-        <v>0.277742</v>
+        <v>0.255524</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.321636</v>
+        <v>0.3204</v>
       </c>
       <c r="C140" t="n">
-        <v>0.706271</v>
+        <v>0.707189</v>
       </c>
       <c r="D140" t="n">
-        <v>0.275339</v>
+        <v>0.255725</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327348</v>
+        <v>0.327849</v>
       </c>
       <c r="C141" t="n">
-        <v>0.700819</v>
+        <v>0.70945</v>
       </c>
       <c r="D141" t="n">
-        <v>0.279058</v>
+        <v>0.260242</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335056</v>
+        <v>0.334998</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7103080000000001</v>
+        <v>0.711494</v>
       </c>
       <c r="D142" t="n">
-        <v>0.283087</v>
+        <v>0.261294</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.343402</v>
+        <v>0.340124</v>
       </c>
       <c r="C143" t="n">
-        <v>0.71245</v>
+        <v>0.708268</v>
       </c>
       <c r="D143" t="n">
-        <v>0.286693</v>
+        <v>0.263563</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0935634</v>
+        <v>0.0937789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0698158</v>
+        <v>0.06962359999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.071233</v>
+        <v>0.071184</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0982857</v>
+        <v>0.0982266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0708888</v>
+        <v>0.0712882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07161049999999999</v>
+        <v>0.0715717</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.108979</v>
+        <v>0.109044</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0755951</v>
+        <v>0.0743772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0724539</v>
+        <v>0.0724134</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127738</v>
+        <v>0.123932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08137850000000001</v>
+        <v>0.0840182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0738935</v>
+        <v>0.0738152</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.148451</v>
+        <v>0.148405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09420190000000001</v>
+        <v>0.0944053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0753808</v>
+        <v>0.07537580000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1817</v>
+        <v>0.1814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113373</v>
+        <v>0.112551</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0797462</v>
+        <v>0.0797334</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221671</v>
+        <v>0.22126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.149513</v>
+        <v>0.148678</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0901318</v>
+        <v>0.0901262</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260698</v>
+        <v>0.260396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.185569</v>
+        <v>0.185119</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06863759999999999</v>
+        <v>0.06868299999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0863433</v>
+        <v>0.0866208</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06777710000000001</v>
+        <v>0.0678335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0689819</v>
+        <v>0.0690144</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08725239999999999</v>
+        <v>0.0873604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0681742</v>
+        <v>0.0680467</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06914190000000001</v>
+        <v>0.0691837</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0884149</v>
+        <v>0.0885773</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0693696</v>
+        <v>0.06894359999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0694265</v>
+        <v>0.0695187</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0897806</v>
+        <v>0.0898868</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06909940000000001</v>
+        <v>0.0689559</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0697726</v>
+        <v>0.069853</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09222900000000001</v>
+        <v>0.0923103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0708341</v>
+        <v>0.0698527</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0701445</v>
+        <v>0.07021670000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0953845</v>
+        <v>0.0953999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0710245</v>
+        <v>0.0709127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07071529999999999</v>
+        <v>0.07081079999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.10089</v>
+        <v>0.100769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07417559999999999</v>
+        <v>0.0741914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0714236</v>
+        <v>0.0714984</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10895</v>
+        <v>0.108997</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0766792</v>
+        <v>0.0765216</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0721706</v>
+        <v>0.07222140000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120793</v>
+        <v>0.121036</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08504970000000001</v>
+        <v>0.08389539999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.073689</v>
+        <v>0.0736448</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135322</v>
+        <v>0.135539</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09285839999999999</v>
+        <v>0.0975258</v>
       </c>
       <c r="D19" t="n">
-        <v>0.075686</v>
+        <v>0.0756338</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.15797</v>
+        <v>0.155201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.106258</v>
+        <v>0.104334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08016330000000001</v>
+        <v>0.0783464</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182365</v>
+        <v>0.182461</v>
       </c>
       <c r="C21" t="n">
-        <v>0.129386</v>
+        <v>0.120136</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0862306</v>
+        <v>0.0844213</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214953</v>
+        <v>0.224952</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154508</v>
+        <v>0.151716</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0982773</v>
+        <v>0.100395</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.259803</v>
+        <v>0.258552</v>
       </c>
       <c r="C23" t="n">
-        <v>0.189407</v>
+        <v>0.189226</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0697663</v>
+        <v>0.0710211</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0911679</v>
+        <v>0.0911259</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0712511</v>
+        <v>0.0715088</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0699352</v>
+        <v>0.0712233</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.092254</v>
+        <v>0.0922992</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07162979999999999</v>
+        <v>0.0724935</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0715905</v>
+        <v>0.0714745</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0940532</v>
+        <v>0.0948204</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0725922</v>
+        <v>0.0732906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07061489999999999</v>
+        <v>0.0715639</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0962237</v>
+        <v>0.0962523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0739346</v>
+        <v>0.0733655</v>
       </c>
       <c r="D27" t="n">
-        <v>0.072167</v>
+        <v>0.07166459999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0997281</v>
+        <v>0.09962699999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07329869999999999</v>
+        <v>0.0745321</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0725749</v>
+        <v>0.0726058</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.10362</v>
+        <v>0.103662</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0771674</v>
+        <v>0.0768802</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07306559999999999</v>
+        <v>0.0720026</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.110422</v>
+        <v>0.109138</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07729370000000001</v>
+        <v>0.079683</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0725982</v>
+        <v>0.0736918</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116844</v>
+        <v>0.117585</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08379929999999999</v>
+        <v>0.0848164</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07366350000000001</v>
+        <v>0.0736585</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.12624</v>
+        <v>0.126312</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09078840000000001</v>
+        <v>0.0867705</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07459300000000001</v>
+        <v>0.0747271</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137964</v>
+        <v>0.138042</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0978185</v>
+        <v>0.0955178</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07763490000000001</v>
+        <v>0.0772055</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.156198</v>
+        <v>0.156342</v>
       </c>
       <c r="C34" t="n">
-        <v>0.107404</v>
+        <v>0.107189</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0827904</v>
+        <v>0.0806487</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179986</v>
+        <v>0.185547</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123806</v>
+        <v>0.124919</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08972529999999999</v>
+        <v>0.0887742</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.219301</v>
+        <v>0.211051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145979</v>
+        <v>0.144925</v>
       </c>
       <c r="D36" t="n">
-        <v>0.100291</v>
+        <v>0.0994958</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.253391</v>
+        <v>0.252077</v>
       </c>
       <c r="C37" t="n">
-        <v>0.182976</v>
+        <v>0.19566</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07062209999999999</v>
+        <v>0.0715923</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.093251</v>
+        <v>0.0925502</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0734168</v>
+        <v>0.073569</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0712787</v>
+        <v>0.0708049</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0935339</v>
+        <v>0.0935416</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07411180000000001</v>
+        <v>0.0747104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0710967</v>
+        <v>0.0710764</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0950714</v>
+        <v>0.0954633</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0756893</v>
+        <v>0.0754703</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0725784</v>
+        <v>0.0714616</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0981678</v>
+        <v>0.09724729999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07484399999999999</v>
+        <v>0.0761308</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07215820000000001</v>
+        <v>0.0719902</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100279</v>
+        <v>0.100319</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0778257</v>
+        <v>0.0774818</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07249940000000001</v>
+        <v>0.0726907</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104149</v>
+        <v>0.104819</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0785698</v>
+        <v>0.0800017</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0728751</v>
+        <v>0.07310129999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110077</v>
+        <v>0.109243</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0809433</v>
+        <v>0.0815877</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07367079999999999</v>
+        <v>0.0736622</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116781</v>
+        <v>0.117319</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0844753</v>
+        <v>0.0863445</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0746038</v>
+        <v>0.0747666</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125036</v>
+        <v>0.125228</v>
       </c>
       <c r="C46" t="n">
-        <v>0.091931</v>
+        <v>0.0914387</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0767005</v>
+        <v>0.07604370000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.13638</v>
+        <v>0.138491</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0960912</v>
+        <v>0.0948833</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0778843</v>
+        <v>0.077865</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151151</v>
+        <v>0.151582</v>
       </c>
       <c r="C48" t="n">
-        <v>0.105745</v>
+        <v>0.104489</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0830408</v>
+        <v>0.0812128</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173581</v>
+        <v>0.173503</v>
       </c>
       <c r="C49" t="n">
-        <v>0.123869</v>
+        <v>0.118072</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0867386</v>
+        <v>0.08658059999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203424</v>
+        <v>0.203956</v>
       </c>
       <c r="C50" t="n">
-        <v>0.140788</v>
+        <v>0.141642</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0951211</v>
+        <v>0.09505039999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.255251</v>
+        <v>0.245537</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167563</v>
+        <v>0.179814</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0726098</v>
+        <v>0.0739122</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.290079</v>
+        <v>0.290698</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219632</v>
+        <v>0.218779</v>
       </c>
       <c r="D52" t="n">
-        <v>0.072564</v>
+        <v>0.0732053</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09689490000000001</v>
+        <v>0.09656820000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0758784</v>
+        <v>0.0775033</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0725794</v>
+        <v>0.0739552</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0991384</v>
+        <v>0.09860910000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07728260000000001</v>
+        <v>0.0773238</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07375760000000001</v>
+        <v>0.0737467</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100487</v>
+        <v>0.103297</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07908419999999999</v>
+        <v>0.0791432</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0739268</v>
+        <v>0.0740709</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103718</v>
+        <v>0.103501</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0800308</v>
+        <v>0.08010059999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0742746</v>
+        <v>0.0748943</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.108126</v>
+        <v>0.108284</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0838956</v>
+        <v>0.08405899999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0748602</v>
+        <v>0.0748318</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111906</v>
+        <v>0.113896</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0855929</v>
+        <v>0.0868231</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0756298</v>
+        <v>0.0760232</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119972</v>
+        <v>0.118174</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0889147</v>
+        <v>0.0906322</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0772154</v>
+        <v>0.0773012</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128051</v>
+        <v>0.128257</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0938007</v>
+        <v>0.0946829</v>
       </c>
       <c r="D60" t="n">
-        <v>0.078891</v>
+        <v>0.0793041</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.13828</v>
+        <v>0.140805</v>
       </c>
       <c r="C61" t="n">
-        <v>0.100621</v>
+        <v>0.0993071</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0810015</v>
+        <v>0.0806562</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.152525</v>
+        <v>0.153737</v>
       </c>
       <c r="C62" t="n">
-        <v>0.109391</v>
+        <v>0.11123</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0831192</v>
+        <v>0.08418100000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177167</v>
+        <v>0.174201</v>
       </c>
       <c r="C63" t="n">
-        <v>0.12242</v>
+        <v>0.119182</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0876238</v>
+        <v>0.08917079999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.208512</v>
+        <v>0.210516</v>
       </c>
       <c r="C64" t="n">
-        <v>0.140387</v>
+        <v>0.140503</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0958706</v>
+        <v>0.0969088</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249266</v>
+        <v>0.252772</v>
       </c>
       <c r="C65" t="n">
-        <v>0.167937</v>
+        <v>0.168688</v>
       </c>
       <c r="D65" t="n">
-        <v>0.110225</v>
+        <v>0.110583</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285538</v>
+        <v>0.290612</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2131</v>
+        <v>0.214133</v>
       </c>
       <c r="D66" t="n">
-        <v>0.080493</v>
+        <v>0.08152330000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 